--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -218,12 +218,45 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Spain La Liga</t>
+  </si>
+  <si>
+    <t>2024/2025</t>
+  </si>
+  <si>
+    <t>Athletic Club Bilbao</t>
+  </si>
+  <si>
+    <t>Real Betis</t>
+  </si>
+  <si>
+    <t>Getafe CF</t>
+  </si>
+  <si>
+    <t>Girona FC</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['72']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -276,11 +309,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP1"/>
+  <dimension ref="A1:BP3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,6 +821,418 @@
         <v>66</v>
       </c>
     </row>
+    <row r="2" spans="1:68">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7465013</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45519.58333333334</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>2.25</v>
+      </c>
+      <c r="S2">
+        <v>7.5</v>
+      </c>
+      <c r="T2">
+        <v>1.4</v>
+      </c>
+      <c r="U2">
+        <v>2.75</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>1.36</v>
+      </c>
+      <c r="X2">
+        <v>9</v>
+      </c>
+      <c r="Y2">
+        <v>1.07</v>
+      </c>
+      <c r="Z2">
+        <v>1.41</v>
+      </c>
+      <c r="AA2">
+        <v>4.06</v>
+      </c>
+      <c r="AB2">
+        <v>6.85</v>
+      </c>
+      <c r="AC2">
+        <v>1.06</v>
+      </c>
+      <c r="AD2">
+        <v>10</v>
+      </c>
+      <c r="AE2">
+        <v>1.35</v>
+      </c>
+      <c r="AF2">
+        <v>3.25</v>
+      </c>
+      <c r="AG2">
+        <v>1.94</v>
+      </c>
+      <c r="AH2">
+        <v>1.77</v>
+      </c>
+      <c r="AI2">
+        <v>2.25</v>
+      </c>
+      <c r="AJ2">
+        <v>1.57</v>
+      </c>
+      <c r="AK2">
+        <v>1.07</v>
+      </c>
+      <c r="AL2">
+        <v>1.19</v>
+      </c>
+      <c r="AM2">
+        <v>2.8</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>5</v>
+      </c>
+      <c r="AV2">
+        <v>3</v>
+      </c>
+      <c r="AW2">
+        <v>1</v>
+      </c>
+      <c r="AX2">
+        <v>5</v>
+      </c>
+      <c r="AY2">
+        <v>6</v>
+      </c>
+      <c r="AZ2">
+        <v>8</v>
+      </c>
+      <c r="BA2">
+        <v>5</v>
+      </c>
+      <c r="BB2">
+        <v>6</v>
+      </c>
+      <c r="BC2">
+        <v>11</v>
+      </c>
+      <c r="BD2">
+        <v>1.33</v>
+      </c>
+      <c r="BE2">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF2">
+        <v>4.3</v>
+      </c>
+      <c r="BG2">
+        <v>1.32</v>
+      </c>
+      <c r="BH2">
+        <v>2.98</v>
+      </c>
+      <c r="BI2">
+        <v>1.62</v>
+      </c>
+      <c r="BJ2">
+        <v>2.19</v>
+      </c>
+      <c r="BK2">
+        <v>2.07</v>
+      </c>
+      <c r="BL2">
+        <v>1.72</v>
+      </c>
+      <c r="BM2">
+        <v>2.73</v>
+      </c>
+      <c r="BN2">
+        <v>1.41</v>
+      </c>
+      <c r="BO2">
+        <v>3.65</v>
+      </c>
+      <c r="BP2">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7465014</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45519.6875</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>2.2</v>
+      </c>
+      <c r="S3">
+        <v>3.4</v>
+      </c>
+      <c r="T3">
+        <v>1.36</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>2.75</v>
+      </c>
+      <c r="W3">
+        <v>1.4</v>
+      </c>
+      <c r="X3">
+        <v>8</v>
+      </c>
+      <c r="Y3">
+        <v>1.08</v>
+      </c>
+      <c r="Z3">
+        <v>2.73</v>
+      </c>
+      <c r="AA3">
+        <v>3.12</v>
+      </c>
+      <c r="AB3">
+        <v>2.42</v>
+      </c>
+      <c r="AC3">
+        <v>1.05</v>
+      </c>
+      <c r="AD3">
+        <v>11</v>
+      </c>
+      <c r="AE3">
+        <v>1.3</v>
+      </c>
+      <c r="AF3">
+        <v>3.6</v>
+      </c>
+      <c r="AG3">
+        <v>1.83</v>
+      </c>
+      <c r="AH3">
+        <v>1.87</v>
+      </c>
+      <c r="AI3">
+        <v>1.7</v>
+      </c>
+      <c r="AJ3">
+        <v>2.05</v>
+      </c>
+      <c r="AK3">
+        <v>1.44</v>
+      </c>
+      <c r="AL3">
+        <v>1.28</v>
+      </c>
+      <c r="AM3">
+        <v>1.58</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>5</v>
+      </c>
+      <c r="AV3">
+        <v>3</v>
+      </c>
+      <c r="AW3">
+        <v>10</v>
+      </c>
+      <c r="AX3">
+        <v>6</v>
+      </c>
+      <c r="AY3">
+        <v>15</v>
+      </c>
+      <c r="AZ3">
+        <v>9</v>
+      </c>
+      <c r="BA3">
+        <v>4</v>
+      </c>
+      <c r="BB3">
+        <v>4</v>
+      </c>
+      <c r="BC3">
+        <v>8</v>
+      </c>
+      <c r="BD3">
+        <v>1.9</v>
+      </c>
+      <c r="BE3">
+        <v>6.55</v>
+      </c>
+      <c r="BF3">
+        <v>2.45</v>
+      </c>
+      <c r="BG3">
+        <v>1.28</v>
+      </c>
+      <c r="BH3">
+        <v>3.2</v>
+      </c>
+      <c r="BI3">
+        <v>1.54</v>
+      </c>
+      <c r="BJ3">
+        <v>2.35</v>
+      </c>
+      <c r="BK3">
+        <v>1.98</v>
+      </c>
+      <c r="BL3">
+        <v>1.82</v>
+      </c>
+      <c r="BM3">
+        <v>2.53</v>
+      </c>
+      <c r="BN3">
+        <v>1.47</v>
+      </c>
+      <c r="BO3">
+        <v>3.42</v>
+      </c>
+      <c r="BP3">
+        <v>1.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -232,22 +232,46 @@
     <t>Real Betis</t>
   </si>
   <si>
+    <t>Celta de Vigo</t>
+  </si>
+  <si>
+    <t>UD Las Palmas</t>
+  </si>
+  <si>
     <t>Getafe CF</t>
   </si>
   <si>
     <t>Girona FC</t>
   </si>
   <si>
+    <t>Deportivo Alavés</t>
+  </si>
+  <si>
+    <t>Sevilla FC</t>
+  </si>
+  <si>
     <t>['27']</t>
   </si>
   <si>
     <t>['6']</t>
   </si>
   <si>
+    <t>['66', '84']</t>
+  </si>
+  <si>
+    <t>['42', '71']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
     <t>['72']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['25', '61']</t>
   </si>
 </sst>
 </file>
@@ -609,7 +633,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP3"/>
+  <dimension ref="A1:BP5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -844,7 +868,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -865,10 +889,10 @@
         <v>2</v>
       </c>
       <c r="O2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1050,7 +1074,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1071,10 +1095,10 @@
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1231,6 +1255,418 @@
       </c>
       <c r="BP3">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7465020</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45520.58333333334</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q4">
+        <v>2.75</v>
+      </c>
+      <c r="R4">
+        <v>2.05</v>
+      </c>
+      <c r="S4">
+        <v>4.33</v>
+      </c>
+      <c r="T4">
+        <v>1.44</v>
+      </c>
+      <c r="U4">
+        <v>2.63</v>
+      </c>
+      <c r="V4">
+        <v>3.25</v>
+      </c>
+      <c r="W4">
+        <v>1.33</v>
+      </c>
+      <c r="X4">
+        <v>10</v>
+      </c>
+      <c r="Y4">
+        <v>1.06</v>
+      </c>
+      <c r="Z4">
+        <v>1.92</v>
+      </c>
+      <c r="AA4">
+        <v>3.44</v>
+      </c>
+      <c r="AB4">
+        <v>4.12</v>
+      </c>
+      <c r="AC4">
+        <v>1.07</v>
+      </c>
+      <c r="AD4">
+        <v>9</v>
+      </c>
+      <c r="AE4">
+        <v>1.4</v>
+      </c>
+      <c r="AF4">
+        <v>3</v>
+      </c>
+      <c r="AG4">
+        <v>2.07</v>
+      </c>
+      <c r="AH4">
+        <v>1.75</v>
+      </c>
+      <c r="AI4">
+        <v>1.95</v>
+      </c>
+      <c r="AJ4">
+        <v>1.8</v>
+      </c>
+      <c r="AK4">
+        <v>1.26</v>
+      </c>
+      <c r="AL4">
+        <v>1.28</v>
+      </c>
+      <c r="AM4">
+        <v>1.85</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>3</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>5</v>
+      </c>
+      <c r="AV4">
+        <v>3</v>
+      </c>
+      <c r="AW4">
+        <v>2</v>
+      </c>
+      <c r="AX4">
+        <v>5</v>
+      </c>
+      <c r="AY4">
+        <v>7</v>
+      </c>
+      <c r="AZ4">
+        <v>8</v>
+      </c>
+      <c r="BA4">
+        <v>3</v>
+      </c>
+      <c r="BB4">
+        <v>3</v>
+      </c>
+      <c r="BC4">
+        <v>6</v>
+      </c>
+      <c r="BD4">
+        <v>1.53</v>
+      </c>
+      <c r="BE4">
+        <v>7</v>
+      </c>
+      <c r="BF4">
+        <v>3.42</v>
+      </c>
+      <c r="BG4">
+        <v>1.31</v>
+      </c>
+      <c r="BH4">
+        <v>3.04</v>
+      </c>
+      <c r="BI4">
+        <v>1.59</v>
+      </c>
+      <c r="BJ4">
+        <v>2.24</v>
+      </c>
+      <c r="BK4">
+        <v>2.02</v>
+      </c>
+      <c r="BL4">
+        <v>1.76</v>
+      </c>
+      <c r="BM4">
+        <v>2.66</v>
+      </c>
+      <c r="BN4">
+        <v>1.43</v>
+      </c>
+      <c r="BO4">
+        <v>3.56</v>
+      </c>
+      <c r="BP4">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7465016</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45520.6875</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5">
+        <v>3.6</v>
+      </c>
+      <c r="R5">
+        <v>2.05</v>
+      </c>
+      <c r="S5">
+        <v>3.25</v>
+      </c>
+      <c r="T5">
+        <v>1.44</v>
+      </c>
+      <c r="U5">
+        <v>2.63</v>
+      </c>
+      <c r="V5">
+        <v>3.4</v>
+      </c>
+      <c r="W5">
+        <v>1.3</v>
+      </c>
+      <c r="X5">
+        <v>10</v>
+      </c>
+      <c r="Y5">
+        <v>1.06</v>
+      </c>
+      <c r="Z5">
+        <v>2.85</v>
+      </c>
+      <c r="AA5">
+        <v>3.14</v>
+      </c>
+      <c r="AB5">
+        <v>2.61</v>
+      </c>
+      <c r="AC5">
+        <v>1.08</v>
+      </c>
+      <c r="AD5">
+        <v>8.5</v>
+      </c>
+      <c r="AE5">
+        <v>1.4</v>
+      </c>
+      <c r="AF5">
+        <v>3</v>
+      </c>
+      <c r="AG5">
+        <v>2.1</v>
+      </c>
+      <c r="AH5">
+        <v>1.73</v>
+      </c>
+      <c r="AI5">
+        <v>1.91</v>
+      </c>
+      <c r="AJ5">
+        <v>1.91</v>
+      </c>
+      <c r="AK5">
+        <v>1.53</v>
+      </c>
+      <c r="AL5">
+        <v>1.32</v>
+      </c>
+      <c r="AM5">
+        <v>1.44</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>6</v>
+      </c>
+      <c r="AV5">
+        <v>6</v>
+      </c>
+      <c r="AW5">
+        <v>6</v>
+      </c>
+      <c r="AX5">
+        <v>10</v>
+      </c>
+      <c r="AY5">
+        <v>12</v>
+      </c>
+      <c r="AZ5">
+        <v>16</v>
+      </c>
+      <c r="BA5">
+        <v>6</v>
+      </c>
+      <c r="BB5">
+        <v>3</v>
+      </c>
+      <c r="BC5">
+        <v>9</v>
+      </c>
+      <c r="BD5">
+        <v>2.03</v>
+      </c>
+      <c r="BE5">
+        <v>6.5</v>
+      </c>
+      <c r="BF5">
+        <v>2.27</v>
+      </c>
+      <c r="BG5">
+        <v>1.27</v>
+      </c>
+      <c r="BH5">
+        <v>3.28</v>
+      </c>
+      <c r="BI5">
+        <v>1.53</v>
+      </c>
+      <c r="BJ5">
+        <v>2.38</v>
+      </c>
+      <c r="BK5">
+        <v>1.93</v>
+      </c>
+      <c r="BL5">
+        <v>1.83</v>
+      </c>
+      <c r="BM5">
+        <v>2.5</v>
+      </c>
+      <c r="BN5">
+        <v>1.48</v>
+      </c>
+      <c r="BO5">
+        <v>3.34</v>
+      </c>
+      <c r="BP5">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -232,10 +232,10 @@
     <t>Real Betis</t>
   </si>
   <si>
-    <t>Celta de Vigo</t>
-  </si>
-  <si>
-    <t>UD Las Palmas</t>
+    <t>CA Osasuna</t>
+  </si>
+  <si>
+    <t>Valencia CF</t>
   </si>
   <si>
     <t>Getafe CF</t>
@@ -244,10 +244,10 @@
     <t>Girona FC</t>
   </si>
   <si>
-    <t>Deportivo Alavés</t>
-  </si>
-  <si>
-    <t>Sevilla FC</t>
+    <t>Leganés</t>
+  </si>
+  <si>
+    <t>FC Barcelona</t>
   </si>
   <si>
     <t>['27']</t>
@@ -256,10 +256,10 @@
     <t>['6']</t>
   </si>
   <si>
-    <t>['66', '84']</t>
-  </si>
-  <si>
-    <t>['42', '71']</t>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>['44']</t>
   </si>
   <si>
     <t>['64']</t>
@@ -268,10 +268,10 @@
     <t>['72']</t>
   </si>
   <si>
-    <t>['17']</t>
-  </si>
-  <si>
-    <t>['25', '61']</t>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['45+5', '49']</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>7465020</v>
+        <v>7465021</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
@@ -1271,7 +1271,7 @@
         <v>69</v>
       </c>
       <c r="E4" s="2">
-        <v>45520.58333333334</v>
+        <v>45521.58333333334</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1292,13 +1292,13 @@
         <v>1</v>
       </c>
       <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
         <v>2</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>3</v>
       </c>
       <c r="O4" t="s">
         <v>80</v>
@@ -1307,25 +1307,25 @@
         <v>84</v>
       </c>
       <c r="Q4">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="R4">
         <v>2.05</v>
       </c>
       <c r="S4">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="T4">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U4">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V4">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W4">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X4">
         <v>10</v>
@@ -1334,133 +1334,133 @@
         <v>1.06</v>
       </c>
       <c r="Z4">
-        <v>1.92</v>
+        <v>1.65</v>
       </c>
       <c r="AA4">
-        <v>3.44</v>
+        <v>3.9</v>
       </c>
       <c r="AB4">
-        <v>4.12</v>
+        <v>5.25</v>
       </c>
       <c r="AC4">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="AD4">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE4">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="AF4">
-        <v>3</v>
+        <v>2.93</v>
       </c>
       <c r="AG4">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AH4">
         <v>1.75</v>
       </c>
       <c r="AI4">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AJ4">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AK4">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="AL4">
+        <v>1.3</v>
+      </c>
+      <c r="AM4">
+        <v>2.05</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>7</v>
+      </c>
+      <c r="AV4">
+        <v>5</v>
+      </c>
+      <c r="AW4">
+        <v>6</v>
+      </c>
+      <c r="AX4">
+        <v>2</v>
+      </c>
+      <c r="AY4">
+        <v>13</v>
+      </c>
+      <c r="AZ4">
+        <v>7</v>
+      </c>
+      <c r="BA4">
+        <v>6</v>
+      </c>
+      <c r="BB4">
+        <v>4</v>
+      </c>
+      <c r="BC4">
+        <v>10</v>
+      </c>
+      <c r="BD4">
+        <v>1.49</v>
+      </c>
+      <c r="BE4">
+        <v>8.6</v>
+      </c>
+      <c r="BF4">
+        <v>3.34</v>
+      </c>
+      <c r="BG4">
+        <v>1.48</v>
+      </c>
+      <c r="BH4">
+        <v>2.52</v>
+      </c>
+      <c r="BI4">
+        <v>1.86</v>
+      </c>
+      <c r="BJ4">
+        <v>1.93</v>
+      </c>
+      <c r="BK4">
+        <v>2.36</v>
+      </c>
+      <c r="BL4">
+        <v>1.55</v>
+      </c>
+      <c r="BM4">
+        <v>3.2</v>
+      </c>
+      <c r="BN4">
         <v>1.28</v>
       </c>
-      <c r="AM4">
-        <v>1.85</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>3</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>5</v>
-      </c>
-      <c r="AV4">
-        <v>3</v>
-      </c>
-      <c r="AW4">
-        <v>2</v>
-      </c>
-      <c r="AX4">
-        <v>5</v>
-      </c>
-      <c r="AY4">
-        <v>7</v>
-      </c>
-      <c r="AZ4">
-        <v>8</v>
-      </c>
-      <c r="BA4">
-        <v>3</v>
-      </c>
-      <c r="BB4">
-        <v>3</v>
-      </c>
-      <c r="BC4">
-        <v>6</v>
-      </c>
-      <c r="BD4">
-        <v>1.53</v>
-      </c>
-      <c r="BE4">
-        <v>7</v>
-      </c>
-      <c r="BF4">
-        <v>3.42</v>
-      </c>
-      <c r="BG4">
-        <v>1.31</v>
-      </c>
-      <c r="BH4">
-        <v>3.04</v>
-      </c>
-      <c r="BI4">
-        <v>1.59</v>
-      </c>
-      <c r="BJ4">
-        <v>2.24</v>
-      </c>
-      <c r="BK4">
-        <v>2.02</v>
-      </c>
-      <c r="BL4">
-        <v>1.76</v>
-      </c>
-      <c r="BM4">
-        <v>2.66</v>
-      </c>
-      <c r="BN4">
-        <v>1.43</v>
-      </c>
       <c r="BO4">
-        <v>3.56</v>
+        <v>4.65</v>
       </c>
       <c r="BP4">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="5" spans="1:68">
@@ -1468,7 +1468,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7465016</v>
+        <v>7465018</v>
       </c>
       <c r="C5" t="s">
         <v>68</v>
@@ -1477,7 +1477,7 @@
         <v>69</v>
       </c>
       <c r="E5" s="2">
-        <v>45520.6875</v>
+        <v>45521.6875</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1498,13 +1498,13 @@
         <v>2</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>2</v>
       </c>
       <c r="N5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O5" t="s">
         <v>81</v>
@@ -1513,160 +1513,160 @@
         <v>85</v>
       </c>
       <c r="Q5">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="R5">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="S5">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="T5">
+        <v>1.36</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <v>2.63</v>
+      </c>
+      <c r="W5">
         <v>1.44</v>
       </c>
-      <c r="U5">
-        <v>2.63</v>
-      </c>
-      <c r="V5">
-        <v>3.4</v>
-      </c>
-      <c r="W5">
+      <c r="X5">
+        <v>7</v>
+      </c>
+      <c r="Y5">
+        <v>1.1</v>
+      </c>
+      <c r="Z5">
+        <v>4.2</v>
+      </c>
+      <c r="AA5">
+        <v>3.7</v>
+      </c>
+      <c r="AB5">
+        <v>1.67</v>
+      </c>
+      <c r="AC5">
+        <v>1.01</v>
+      </c>
+      <c r="AD5">
+        <v>10.25</v>
+      </c>
+      <c r="AE5">
+        <v>1.23</v>
+      </c>
+      <c r="AF5">
+        <v>3.74</v>
+      </c>
+      <c r="AG5">
+        <v>1.78</v>
+      </c>
+      <c r="AH5">
+        <v>1.98</v>
+      </c>
+      <c r="AI5">
+        <v>1.75</v>
+      </c>
+      <c r="AJ5">
+        <v>2</v>
+      </c>
+      <c r="AK5">
+        <v>2.17</v>
+      </c>
+      <c r="AL5">
+        <v>1.27</v>
+      </c>
+      <c r="AM5">
+        <v>1.21</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>3</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>3</v>
+      </c>
+      <c r="AV5">
+        <v>7</v>
+      </c>
+      <c r="AW5">
+        <v>3</v>
+      </c>
+      <c r="AX5">
+        <v>6</v>
+      </c>
+      <c r="AY5">
+        <v>6</v>
+      </c>
+      <c r="AZ5">
+        <v>13</v>
+      </c>
+      <c r="BA5">
+        <v>3</v>
+      </c>
+      <c r="BB5">
+        <v>8</v>
+      </c>
+      <c r="BC5">
+        <v>11</v>
+      </c>
+      <c r="BD5">
+        <v>3.32</v>
+      </c>
+      <c r="BE5">
+        <v>9</v>
+      </c>
+      <c r="BF5">
+        <v>1.48</v>
+      </c>
+      <c r="BG5">
         <v>1.3</v>
       </c>
-      <c r="X5">
-        <v>10</v>
-      </c>
-      <c r="Y5">
-        <v>1.06</v>
-      </c>
-      <c r="Z5">
-        <v>2.85</v>
-      </c>
-      <c r="AA5">
-        <v>3.14</v>
-      </c>
-      <c r="AB5">
-        <v>2.61</v>
-      </c>
-      <c r="AC5">
-        <v>1.08</v>
-      </c>
-      <c r="AD5">
-        <v>8.5</v>
-      </c>
-      <c r="AE5">
-        <v>1.4</v>
-      </c>
-      <c r="AF5">
-        <v>3</v>
-      </c>
-      <c r="AG5">
-        <v>2.1</v>
-      </c>
-      <c r="AH5">
-        <v>1.73</v>
-      </c>
-      <c r="AI5">
-        <v>1.91</v>
-      </c>
-      <c r="AJ5">
-        <v>1.91</v>
-      </c>
-      <c r="AK5">
-        <v>1.53</v>
-      </c>
-      <c r="AL5">
-        <v>1.32</v>
-      </c>
-      <c r="AM5">
+      <c r="BH5">
+        <v>3.08</v>
+      </c>
+      <c r="BI5">
+        <v>1.58</v>
+      </c>
+      <c r="BJ5">
+        <v>2.26</v>
+      </c>
+      <c r="BK5">
+        <v>2.01</v>
+      </c>
+      <c r="BL5">
+        <v>1.77</v>
+      </c>
+      <c r="BM5">
+        <v>2.62</v>
+      </c>
+      <c r="BN5">
         <v>1.44</v>
       </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>1</v>
-      </c>
-      <c r="AQ5">
-        <v>1</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>6</v>
-      </c>
-      <c r="AV5">
-        <v>6</v>
-      </c>
-      <c r="AW5">
-        <v>6</v>
-      </c>
-      <c r="AX5">
-        <v>10</v>
-      </c>
-      <c r="AY5">
-        <v>12</v>
-      </c>
-      <c r="AZ5">
-        <v>16</v>
-      </c>
-      <c r="BA5">
-        <v>6</v>
-      </c>
-      <c r="BB5">
-        <v>3</v>
-      </c>
-      <c r="BC5">
-        <v>9</v>
-      </c>
-      <c r="BD5">
-        <v>2.03</v>
-      </c>
-      <c r="BE5">
-        <v>6.5</v>
-      </c>
-      <c r="BF5">
-        <v>2.27</v>
-      </c>
-      <c r="BG5">
-        <v>1.27</v>
-      </c>
-      <c r="BH5">
-        <v>3.28</v>
-      </c>
-      <c r="BI5">
-        <v>1.53</v>
-      </c>
-      <c r="BJ5">
-        <v>2.38</v>
-      </c>
-      <c r="BK5">
-        <v>1.93</v>
-      </c>
-      <c r="BL5">
-        <v>1.83</v>
-      </c>
-      <c r="BM5">
-        <v>2.5</v>
-      </c>
-      <c r="BN5">
-        <v>1.48</v>
-      </c>
       <c r="BO5">
-        <v>3.34</v>
+        <v>3.56</v>
       </c>
       <c r="BP5">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="102">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -232,46 +232,94 @@
     <t>Real Betis</t>
   </si>
   <si>
+    <t>Celta de Vigo</t>
+  </si>
+  <si>
+    <t>UD Las Palmas</t>
+  </si>
+  <si>
     <t>CA Osasuna</t>
   </si>
   <si>
     <t>Valencia CF</t>
   </si>
   <si>
+    <t>Real Sociedad</t>
+  </si>
+  <si>
+    <t>RCD Mallorca</t>
+  </si>
+  <si>
     <t>Getafe CF</t>
   </si>
   <si>
     <t>Girona FC</t>
   </si>
   <si>
+    <t>Deportivo Alavés</t>
+  </si>
+  <si>
+    <t>Sevilla FC</t>
+  </si>
+  <si>
     <t>Leganés</t>
   </si>
   <si>
     <t>FC Barcelona</t>
   </si>
   <si>
+    <t>Rayo Vallecano</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
     <t>['27']</t>
   </si>
   <si>
     <t>['6']</t>
   </si>
   <si>
+    <t>['66', '84']</t>
+  </si>
+  <si>
+    <t>['42', '71']</t>
+  </si>
+  <si>
     <t>['79']</t>
   </si>
   <si>
     <t>['44']</t>
   </si>
   <si>
+    <t>['90+8']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
     <t>['72']</t>
   </si>
   <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['25', '61']</t>
+  </si>
+  <si>
     <t>['22']</t>
   </si>
   <si>
-    <t>['45+5', '49']</t>
+    <t>['45+6', '49']</t>
+  </si>
+  <si>
+    <t>['67', '84']</t>
+  </si>
+  <si>
+    <t>['13']</t>
   </si>
 </sst>
 </file>
@@ -633,7 +681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP5"/>
+  <dimension ref="A1:BP9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -868,7 +916,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -889,10 +937,10 @@
         <v>2</v>
       </c>
       <c r="O2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1074,7 +1122,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1095,10 +1143,10 @@
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1262,7 +1310,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>7465021</v>
+        <v>7465020</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
@@ -1271,7 +1319,7 @@
         <v>69</v>
       </c>
       <c r="E4" s="2">
-        <v>45521.58333333334</v>
+        <v>45520.58333333334</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1280,7 +1328,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1292,40 +1340,40 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="Q4">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="R4">
         <v>2.05</v>
       </c>
       <c r="S4">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="T4">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U4">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V4">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W4">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X4">
         <v>10</v>
@@ -1334,46 +1382,46 @@
         <v>1.06</v>
       </c>
       <c r="Z4">
-        <v>1.65</v>
+        <v>1.92</v>
       </c>
       <c r="AA4">
-        <v>3.9</v>
+        <v>3.44</v>
       </c>
       <c r="AB4">
-        <v>5.25</v>
+        <v>4.12</v>
       </c>
       <c r="AC4">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AD4">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AE4">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="AF4">
-        <v>2.93</v>
+        <v>3</v>
       </c>
       <c r="AG4">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AH4">
         <v>1.75</v>
       </c>
       <c r="AI4">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AJ4">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AK4">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="AL4">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AM4">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="AN4">
         <v>0</v>
@@ -1382,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1397,70 +1445,70 @@
         <v>0</v>
       </c>
       <c r="AU4">
+        <v>5</v>
+      </c>
+      <c r="AV4">
+        <v>3</v>
+      </c>
+      <c r="AW4">
+        <v>2</v>
+      </c>
+      <c r="AX4">
+        <v>5</v>
+      </c>
+      <c r="AY4">
         <v>7</v>
       </c>
-      <c r="AV4">
-        <v>5</v>
-      </c>
-      <c r="AW4">
+      <c r="AZ4">
+        <v>8</v>
+      </c>
+      <c r="BA4">
+        <v>3</v>
+      </c>
+      <c r="BB4">
+        <v>3</v>
+      </c>
+      <c r="BC4">
         <v>6</v>
       </c>
-      <c r="AX4">
-        <v>2</v>
-      </c>
-      <c r="AY4">
-        <v>13</v>
-      </c>
-      <c r="AZ4">
+      <c r="BD4">
+        <v>1.53</v>
+      </c>
+      <c r="BE4">
         <v>7</v>
       </c>
-      <c r="BA4">
-        <v>6</v>
-      </c>
-      <c r="BB4">
-        <v>4</v>
-      </c>
-      <c r="BC4">
-        <v>10</v>
-      </c>
-      <c r="BD4">
-        <v>1.49</v>
-      </c>
-      <c r="BE4">
-        <v>8.6</v>
-      </c>
       <c r="BF4">
-        <v>3.34</v>
+        <v>3.42</v>
       </c>
       <c r="BG4">
-        <v>1.48</v>
+        <v>1.31</v>
       </c>
       <c r="BH4">
-        <v>2.52</v>
+        <v>3.04</v>
       </c>
       <c r="BI4">
-        <v>1.86</v>
+        <v>1.59</v>
       </c>
       <c r="BJ4">
-        <v>1.93</v>
+        <v>2.24</v>
       </c>
       <c r="BK4">
-        <v>2.36</v>
+        <v>2.02</v>
       </c>
       <c r="BL4">
-        <v>1.55</v>
+        <v>1.76</v>
       </c>
       <c r="BM4">
-        <v>3.2</v>
+        <v>2.66</v>
       </c>
       <c r="BN4">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="BO4">
-        <v>4.65</v>
+        <v>3.56</v>
       </c>
       <c r="BP4">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="5" spans="1:68">
@@ -1468,7 +1516,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7465018</v>
+        <v>7465016</v>
       </c>
       <c r="C5" t="s">
         <v>68</v>
@@ -1477,7 +1525,7 @@
         <v>69</v>
       </c>
       <c r="E5" s="2">
-        <v>45521.6875</v>
+        <v>45520.6875</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1486,7 +1534,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1498,174 +1546,998 @@
         <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5">
         <v>2</v>
       </c>
       <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5" t="s">
+        <v>89</v>
+      </c>
+      <c r="P5" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q5">
+        <v>3.6</v>
+      </c>
+      <c r="R5">
+        <v>2.05</v>
+      </c>
+      <c r="S5">
+        <v>3.25</v>
+      </c>
+      <c r="T5">
+        <v>1.44</v>
+      </c>
+      <c r="U5">
+        <v>2.63</v>
+      </c>
+      <c r="V5">
+        <v>3.4</v>
+      </c>
+      <c r="W5">
+        <v>1.3</v>
+      </c>
+      <c r="X5">
+        <v>10</v>
+      </c>
+      <c r="Y5">
+        <v>1.06</v>
+      </c>
+      <c r="Z5">
+        <v>2.85</v>
+      </c>
+      <c r="AA5">
+        <v>3.14</v>
+      </c>
+      <c r="AB5">
+        <v>2.61</v>
+      </c>
+      <c r="AC5">
+        <v>1.08</v>
+      </c>
+      <c r="AD5">
+        <v>8.5</v>
+      </c>
+      <c r="AE5">
+        <v>1.4</v>
+      </c>
+      <c r="AF5">
         <v>3</v>
       </c>
-      <c r="O5" t="s">
-        <v>81</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="AG5">
+        <v>2.1</v>
+      </c>
+      <c r="AH5">
+        <v>1.73</v>
+      </c>
+      <c r="AI5">
+        <v>1.91</v>
+      </c>
+      <c r="AJ5">
+        <v>1.91</v>
+      </c>
+      <c r="AK5">
+        <v>1.53</v>
+      </c>
+      <c r="AL5">
+        <v>1.32</v>
+      </c>
+      <c r="AM5">
+        <v>1.44</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>6</v>
+      </c>
+      <c r="AV5">
+        <v>6</v>
+      </c>
+      <c r="AW5">
+        <v>6</v>
+      </c>
+      <c r="AX5">
+        <v>10</v>
+      </c>
+      <c r="AY5">
+        <v>12</v>
+      </c>
+      <c r="AZ5">
+        <v>16</v>
+      </c>
+      <c r="BA5">
+        <v>6</v>
+      </c>
+      <c r="BB5">
+        <v>3</v>
+      </c>
+      <c r="BC5">
+        <v>9</v>
+      </c>
+      <c r="BD5">
+        <v>2.03</v>
+      </c>
+      <c r="BE5">
+        <v>6.5</v>
+      </c>
+      <c r="BF5">
+        <v>2.27</v>
+      </c>
+      <c r="BG5">
+        <v>1.27</v>
+      </c>
+      <c r="BH5">
+        <v>3.28</v>
+      </c>
+      <c r="BI5">
+        <v>1.53</v>
+      </c>
+      <c r="BJ5">
+        <v>2.38</v>
+      </c>
+      <c r="BK5">
+        <v>1.93</v>
+      </c>
+      <c r="BL5">
+        <v>1.83</v>
+      </c>
+      <c r="BM5">
+        <v>2.5</v>
+      </c>
+      <c r="BN5">
+        <v>1.48</v>
+      </c>
+      <c r="BO5">
+        <v>3.34</v>
+      </c>
+      <c r="BP5">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7465021</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45521.58333333334</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q6">
+        <v>2.4</v>
+      </c>
+      <c r="R6">
+        <v>2.05</v>
+      </c>
+      <c r="S6">
+        <v>5.5</v>
+      </c>
+      <c r="T6">
+        <v>1.5</v>
+      </c>
+      <c r="U6">
+        <v>2.5</v>
+      </c>
+      <c r="V6">
+        <v>3.4</v>
+      </c>
+      <c r="W6">
+        <v>1.3</v>
+      </c>
+      <c r="X6">
+        <v>10</v>
+      </c>
+      <c r="Y6">
+        <v>1.06</v>
+      </c>
+      <c r="Z6">
+        <v>1.65</v>
+      </c>
+      <c r="AA6">
+        <v>3.9</v>
+      </c>
+      <c r="AB6">
+        <v>5.25</v>
+      </c>
+      <c r="AC6">
+        <v>1.09</v>
+      </c>
+      <c r="AD6">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE6">
+        <v>1.41</v>
+      </c>
+      <c r="AF6">
+        <v>2.93</v>
+      </c>
+      <c r="AG6">
+        <v>2</v>
+      </c>
+      <c r="AH6">
+        <v>1.75</v>
+      </c>
+      <c r="AI6">
+        <v>2.05</v>
+      </c>
+      <c r="AJ6">
+        <v>1.7</v>
+      </c>
+      <c r="AK6">
+        <v>1.15</v>
+      </c>
+      <c r="AL6">
+        <v>1.3</v>
+      </c>
+      <c r="AM6">
+        <v>2.05</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>1</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>7</v>
+      </c>
+      <c r="AV6">
+        <v>5</v>
+      </c>
+      <c r="AW6">
+        <v>6</v>
+      </c>
+      <c r="AX6">
+        <v>2</v>
+      </c>
+      <c r="AY6">
+        <v>13</v>
+      </c>
+      <c r="AZ6">
+        <v>7</v>
+      </c>
+      <c r="BA6">
+        <v>6</v>
+      </c>
+      <c r="BB6">
+        <v>4</v>
+      </c>
+      <c r="BC6">
+        <v>10</v>
+      </c>
+      <c r="BD6">
+        <v>1.49</v>
+      </c>
+      <c r="BE6">
+        <v>8.6</v>
+      </c>
+      <c r="BF6">
+        <v>3.34</v>
+      </c>
+      <c r="BG6">
+        <v>1.48</v>
+      </c>
+      <c r="BH6">
+        <v>2.52</v>
+      </c>
+      <c r="BI6">
+        <v>1.86</v>
+      </c>
+      <c r="BJ6">
+        <v>1.93</v>
+      </c>
+      <c r="BK6">
+        <v>2.36</v>
+      </c>
+      <c r="BL6">
+        <v>1.55</v>
+      </c>
+      <c r="BM6">
+        <v>3.2</v>
+      </c>
+      <c r="BN6">
+        <v>1.28</v>
+      </c>
+      <c r="BO6">
+        <v>4.65</v>
+      </c>
+      <c r="BP6">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7465018</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45521.6875</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q7">
+        <v>4.75</v>
+      </c>
+      <c r="R7">
+        <v>2.3</v>
+      </c>
+      <c r="S7">
+        <v>2.3</v>
+      </c>
+      <c r="T7">
+        <v>1.36</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>2.63</v>
+      </c>
+      <c r="W7">
+        <v>1.44</v>
+      </c>
+      <c r="X7">
+        <v>7</v>
+      </c>
+      <c r="Y7">
+        <v>1.1</v>
+      </c>
+      <c r="Z7">
+        <v>4.2</v>
+      </c>
+      <c r="AA7">
+        <v>3.7</v>
+      </c>
+      <c r="AB7">
+        <v>1.67</v>
+      </c>
+      <c r="AC7">
+        <v>1.01</v>
+      </c>
+      <c r="AD7">
+        <v>10.25</v>
+      </c>
+      <c r="AE7">
+        <v>1.23</v>
+      </c>
+      <c r="AF7">
+        <v>3.74</v>
+      </c>
+      <c r="AG7">
+        <v>1.78</v>
+      </c>
+      <c r="AH7">
+        <v>1.98</v>
+      </c>
+      <c r="AI7">
+        <v>1.75</v>
+      </c>
+      <c r="AJ7">
+        <v>2</v>
+      </c>
+      <c r="AK7">
+        <v>2.17</v>
+      </c>
+      <c r="AL7">
+        <v>1.27</v>
+      </c>
+      <c r="AM7">
+        <v>1.21</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>3</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>3</v>
+      </c>
+      <c r="AV7">
+        <v>7</v>
+      </c>
+      <c r="AW7">
+        <v>3</v>
+      </c>
+      <c r="AX7">
+        <v>6</v>
+      </c>
+      <c r="AY7">
+        <v>6</v>
+      </c>
+      <c r="AZ7">
+        <v>13</v>
+      </c>
+      <c r="BA7">
+        <v>3</v>
+      </c>
+      <c r="BB7">
+        <v>8</v>
+      </c>
+      <c r="BC7">
+        <v>11</v>
+      </c>
+      <c r="BD7">
+        <v>3.32</v>
+      </c>
+      <c r="BE7">
+        <v>9</v>
+      </c>
+      <c r="BF7">
+        <v>1.48</v>
+      </c>
+      <c r="BG7">
+        <v>1.3</v>
+      </c>
+      <c r="BH7">
+        <v>3.08</v>
+      </c>
+      <c r="BI7">
+        <v>1.58</v>
+      </c>
+      <c r="BJ7">
+        <v>2.26</v>
+      </c>
+      <c r="BK7">
+        <v>2.01</v>
+      </c>
+      <c r="BL7">
+        <v>1.77</v>
+      </c>
+      <c r="BM7">
+        <v>2.62</v>
+      </c>
+      <c r="BN7">
+        <v>1.44</v>
+      </c>
+      <c r="BO7">
+        <v>3.56</v>
+      </c>
+      <c r="BP7">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7465019</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45522.58333333334</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q8">
+        <v>2.2</v>
+      </c>
+      <c r="R8">
+        <v>2.1</v>
+      </c>
+      <c r="S8">
+        <v>6.5</v>
+      </c>
+      <c r="T8">
+        <v>1.5</v>
+      </c>
+      <c r="U8">
+        <v>2.5</v>
+      </c>
+      <c r="V8">
+        <v>3.4</v>
+      </c>
+      <c r="W8">
+        <v>1.3</v>
+      </c>
+      <c r="X8">
+        <v>10</v>
+      </c>
+      <c r="Y8">
+        <v>1.06</v>
+      </c>
+      <c r="Z8">
+        <v>1.51</v>
+      </c>
+      <c r="AA8">
+        <v>3.56</v>
+      </c>
+      <c r="AB8">
+        <v>6.45</v>
+      </c>
+      <c r="AC8">
+        <v>1.05</v>
+      </c>
+      <c r="AD8">
+        <v>7.2</v>
+      </c>
+      <c r="AE8">
+        <v>1.42</v>
+      </c>
+      <c r="AF8">
+        <v>2.65</v>
+      </c>
+      <c r="AG8">
+        <v>2.36</v>
+      </c>
+      <c r="AH8">
+        <v>1.59</v>
+      </c>
+      <c r="AI8">
+        <v>2.25</v>
+      </c>
+      <c r="AJ8">
+        <v>1.57</v>
+      </c>
+      <c r="AK8">
+        <v>1.08</v>
+      </c>
+      <c r="AL8">
+        <v>1.23</v>
+      </c>
+      <c r="AM8">
+        <v>2.3</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>3</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>5</v>
+      </c>
+      <c r="AV8">
+        <v>6</v>
+      </c>
+      <c r="AW8">
+        <v>5</v>
+      </c>
+      <c r="AX8">
+        <v>4</v>
+      </c>
+      <c r="AY8">
+        <v>10</v>
+      </c>
+      <c r="AZ8">
+        <v>10</v>
+      </c>
+      <c r="BA8">
+        <v>10</v>
+      </c>
+      <c r="BB8">
+        <v>5</v>
+      </c>
+      <c r="BC8">
+        <v>15</v>
+      </c>
+      <c r="BD8">
+        <v>1.35</v>
+      </c>
+      <c r="BE8">
+        <v>9.4</v>
+      </c>
+      <c r="BF8">
+        <v>4.15</v>
+      </c>
+      <c r="BG8">
+        <v>1.31</v>
+      </c>
+      <c r="BH8">
+        <v>3.04</v>
+      </c>
+      <c r="BI8">
+        <v>1.6</v>
+      </c>
+      <c r="BJ8">
+        <v>2.22</v>
+      </c>
+      <c r="BK8">
+        <v>2.03</v>
+      </c>
+      <c r="BL8">
+        <v>1.75</v>
+      </c>
+      <c r="BM8">
+        <v>2.66</v>
+      </c>
+      <c r="BN8">
+        <v>1.43</v>
+      </c>
+      <c r="BO8">
+        <v>3.64</v>
+      </c>
+      <c r="BP8">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7465015</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45522.6875</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
         <v>85</v>
       </c>
-      <c r="Q5">
-        <v>4.75</v>
-      </c>
-      <c r="R5">
-        <v>2.3</v>
-      </c>
-      <c r="S5">
-        <v>2.3</v>
-      </c>
-      <c r="T5">
-        <v>1.36</v>
-      </c>
-      <c r="U5">
-        <v>3</v>
-      </c>
-      <c r="V5">
-        <v>2.63</v>
-      </c>
-      <c r="W5">
-        <v>1.44</v>
-      </c>
-      <c r="X5">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q9">
+        <v>6.5</v>
+      </c>
+      <c r="R9">
+        <v>2.25</v>
+      </c>
+      <c r="S9">
+        <v>2.1</v>
+      </c>
+      <c r="T9">
+        <v>1.4</v>
+      </c>
+      <c r="U9">
+        <v>2.75</v>
+      </c>
+      <c r="V9">
+        <v>2.75</v>
+      </c>
+      <c r="W9">
+        <v>1.4</v>
+      </c>
+      <c r="X9">
+        <v>8</v>
+      </c>
+      <c r="Y9">
+        <v>1.08</v>
+      </c>
+      <c r="Z9">
+        <v>4.54</v>
+      </c>
+      <c r="AA9">
+        <v>3.38</v>
+      </c>
+      <c r="AB9">
+        <v>1.71</v>
+      </c>
+      <c r="AC9">
+        <v>1.01</v>
+      </c>
+      <c r="AD9">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE9">
+        <v>1.27</v>
+      </c>
+      <c r="AF9">
+        <v>3.4</v>
+      </c>
+      <c r="AG9">
+        <v>2.07</v>
+      </c>
+      <c r="AH9">
+        <v>1.79</v>
+      </c>
+      <c r="AI9">
+        <v>2</v>
+      </c>
+      <c r="AJ9">
+        <v>1.75</v>
+      </c>
+      <c r="AK9">
+        <v>2.45</v>
+      </c>
+      <c r="AL9">
+        <v>1.18</v>
+      </c>
+      <c r="AM9">
+        <v>1.11</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>1</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>6</v>
+      </c>
+      <c r="AV9">
+        <v>6</v>
+      </c>
+      <c r="AW9">
+        <v>6</v>
+      </c>
+      <c r="AX9">
+        <v>5</v>
+      </c>
+      <c r="AY9">
+        <v>12</v>
+      </c>
+      <c r="AZ9">
+        <v>11</v>
+      </c>
+      <c r="BA9">
+        <v>8</v>
+      </c>
+      <c r="BB9">
         <v>7</v>
       </c>
-      <c r="Y5">
-        <v>1.1</v>
-      </c>
-      <c r="Z5">
-        <v>4.2</v>
-      </c>
-      <c r="AA5">
-        <v>3.7</v>
-      </c>
-      <c r="AB5">
-        <v>1.67</v>
-      </c>
-      <c r="AC5">
-        <v>1.01</v>
-      </c>
-      <c r="AD5">
-        <v>10.25</v>
-      </c>
-      <c r="AE5">
-        <v>1.23</v>
-      </c>
-      <c r="AF5">
-        <v>3.74</v>
-      </c>
-      <c r="AG5">
-        <v>1.78</v>
-      </c>
-      <c r="AH5">
-        <v>1.98</v>
-      </c>
-      <c r="AI5">
-        <v>1.75</v>
-      </c>
-      <c r="AJ5">
-        <v>2</v>
-      </c>
-      <c r="AK5">
-        <v>2.17</v>
-      </c>
-      <c r="AL5">
-        <v>1.27</v>
-      </c>
-      <c r="AM5">
-        <v>1.21</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>3</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>3</v>
-      </c>
-      <c r="AV5">
-        <v>7</v>
-      </c>
-      <c r="AW5">
-        <v>3</v>
-      </c>
-      <c r="AX5">
-        <v>6</v>
-      </c>
-      <c r="AY5">
-        <v>6</v>
-      </c>
-      <c r="AZ5">
-        <v>13</v>
-      </c>
-      <c r="BA5">
-        <v>3</v>
-      </c>
-      <c r="BB5">
-        <v>8</v>
-      </c>
-      <c r="BC5">
-        <v>11</v>
-      </c>
-      <c r="BD5">
-        <v>3.32</v>
-      </c>
-      <c r="BE5">
-        <v>9</v>
-      </c>
-      <c r="BF5">
-        <v>1.48</v>
-      </c>
-      <c r="BG5">
-        <v>1.3</v>
-      </c>
-      <c r="BH5">
-        <v>3.08</v>
-      </c>
-      <c r="BI5">
-        <v>1.58</v>
-      </c>
-      <c r="BJ5">
-        <v>2.26</v>
-      </c>
-      <c r="BK5">
-        <v>2.01</v>
-      </c>
-      <c r="BL5">
-        <v>1.77</v>
-      </c>
-      <c r="BM5">
-        <v>2.62</v>
-      </c>
-      <c r="BN5">
-        <v>1.44</v>
-      </c>
-      <c r="BO5">
+      <c r="BC9">
+        <v>15</v>
+      </c>
+      <c r="BD9">
+        <v>3.46</v>
+      </c>
+      <c r="BE9">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF9">
+        <v>1.45</v>
+      </c>
+      <c r="BG9">
+        <v>1.31</v>
+      </c>
+      <c r="BH9">
+        <v>3.04</v>
+      </c>
+      <c r="BI9">
+        <v>1.59</v>
+      </c>
+      <c r="BJ9">
+        <v>2.24</v>
+      </c>
+      <c r="BK9">
+        <v>2.02</v>
+      </c>
+      <c r="BL9">
+        <v>1.76</v>
+      </c>
+      <c r="BM9">
+        <v>2.66</v>
+      </c>
+      <c r="BN9">
+        <v>1.43</v>
+      </c>
+      <c r="BO9">
         <v>3.56</v>
       </c>
-      <c r="BP5">
+      <c r="BP9">
         <v>1.23</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -250,6 +250,9 @@
     <t>RCD Mallorca</t>
   </si>
   <si>
+    <t>Real Valladolid</t>
+  </si>
+  <si>
     <t>Getafe CF</t>
   </si>
   <si>
@@ -274,6 +277,9 @@
     <t>Real Madrid</t>
   </si>
   <si>
+    <t>RCD Espanyol</t>
+  </si>
+  <si>
     <t>['27']</t>
   </si>
   <si>
@@ -298,6 +304,9 @@
     <t>['53']</t>
   </si>
   <si>
+    <t>['23']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -320,6 +329,9 @@
   </si>
   <si>
     <t>['13']</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -681,7 +693,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP9"/>
+  <dimension ref="A1:BP10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -916,7 +928,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -937,10 +949,10 @@
         <v>2</v>
       </c>
       <c r="O2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1122,7 +1134,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1143,10 +1155,10 @@
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1328,7 +1340,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1349,10 +1361,10 @@
         <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1534,7 +1546,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1555,10 +1567,10 @@
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1740,7 +1752,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1761,10 +1773,10 @@
         <v>2</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -1946,7 +1958,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1967,10 +1979,10 @@
         <v>3</v>
       </c>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2152,7 +2164,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2173,10 +2185,10 @@
         <v>3</v>
       </c>
       <c r="O8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2358,7 +2370,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2379,10 +2391,10 @@
         <v>2</v>
       </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2539,6 +2551,212 @@
       </c>
       <c r="BP9">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7469673</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45523.58333333334</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q10">
+        <v>3.1</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>3.75</v>
+      </c>
+      <c r="T10">
+        <v>1.5</v>
+      </c>
+      <c r="U10">
+        <v>2.5</v>
+      </c>
+      <c r="V10">
+        <v>3.4</v>
+      </c>
+      <c r="W10">
+        <v>1.3</v>
+      </c>
+      <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="Y10">
+        <v>1.06</v>
+      </c>
+      <c r="Z10">
+        <v>2.4</v>
+      </c>
+      <c r="AA10">
+        <v>3.15</v>
+      </c>
+      <c r="AB10">
+        <v>3.15</v>
+      </c>
+      <c r="AC10">
+        <v>1.06</v>
+      </c>
+      <c r="AD10">
+        <v>6.6</v>
+      </c>
+      <c r="AE10">
+        <v>1.41</v>
+      </c>
+      <c r="AF10">
+        <v>2.69</v>
+      </c>
+      <c r="AG10">
+        <v>2.25</v>
+      </c>
+      <c r="AH10">
+        <v>1.63</v>
+      </c>
+      <c r="AI10">
+        <v>1.95</v>
+      </c>
+      <c r="AJ10">
+        <v>1.8</v>
+      </c>
+      <c r="AK10">
+        <v>1.35</v>
+      </c>
+      <c r="AL10">
+        <v>1.36</v>
+      </c>
+      <c r="AM10">
+        <v>1.6</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>3</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>2</v>
+      </c>
+      <c r="AV10">
+        <v>3</v>
+      </c>
+      <c r="AW10">
+        <v>6</v>
+      </c>
+      <c r="AX10">
+        <v>5</v>
+      </c>
+      <c r="AY10">
+        <v>8</v>
+      </c>
+      <c r="AZ10">
+        <v>8</v>
+      </c>
+      <c r="BA10">
+        <v>3</v>
+      </c>
+      <c r="BB10">
+        <v>2</v>
+      </c>
+      <c r="BC10">
+        <v>5</v>
+      </c>
+      <c r="BD10">
+        <v>1.73</v>
+      </c>
+      <c r="BE10">
+        <v>8</v>
+      </c>
+      <c r="BF10">
+        <v>2.5</v>
+      </c>
+      <c r="BG10">
+        <v>1.33</v>
+      </c>
+      <c r="BH10">
+        <v>3.1</v>
+      </c>
+      <c r="BI10">
+        <v>1.51</v>
+      </c>
+      <c r="BJ10">
+        <v>2.37</v>
+      </c>
+      <c r="BK10">
+        <v>1.9</v>
+      </c>
+      <c r="BL10">
+        <v>1.8</v>
+      </c>
+      <c r="BM10">
+        <v>2.5</v>
+      </c>
+      <c r="BN10">
+        <v>1.47</v>
+      </c>
+      <c r="BO10">
+        <v>3.3</v>
+      </c>
+      <c r="BP10">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="110">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -253,6 +253,9 @@
     <t>Real Valladolid</t>
   </si>
   <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
     <t>Getafe CF</t>
   </si>
   <si>
@@ -280,6 +283,9 @@
     <t>RCD Espanyol</t>
   </si>
   <si>
+    <t>Atlético Madrid</t>
+  </si>
+  <si>
     <t>['27']</t>
   </si>
   <si>
@@ -307,6 +313,9 @@
     <t>['23']</t>
   </si>
   <si>
+    <t>['18', '37']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -332,6 +341,9 @@
   </si>
   <si>
     <t>[]</t>
+  </si>
+  <si>
+    <t>['20', '45+5']</t>
   </si>
 </sst>
 </file>
@@ -693,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP10"/>
+  <dimension ref="A1:BP11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -928,7 +940,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -949,10 +961,10 @@
         <v>2</v>
       </c>
       <c r="O2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1134,7 +1146,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1155,10 +1167,10 @@
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1340,7 +1352,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1361,10 +1373,10 @@
         <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1546,7 +1558,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1567,10 +1579,10 @@
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1752,7 +1764,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1773,10 +1785,10 @@
         <v>2</v>
       </c>
       <c r="O6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -1958,7 +1970,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1979,10 +1991,10 @@
         <v>3</v>
       </c>
       <c r="O7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2164,7 +2176,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2185,10 +2197,10 @@
         <v>3</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2370,7 +2382,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2391,10 +2403,10 @@
         <v>2</v>
       </c>
       <c r="O9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2576,7 +2588,7 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2597,10 +2609,10 @@
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2757,6 +2769,212 @@
       </c>
       <c r="BP10">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7465017</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45523.6875</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11" t="s">
+        <v>99</v>
+      </c>
+      <c r="P11" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q11">
+        <v>3.75</v>
+      </c>
+      <c r="R11">
+        <v>2.3</v>
+      </c>
+      <c r="S11">
+        <v>2.63</v>
+      </c>
+      <c r="T11">
+        <v>1.33</v>
+      </c>
+      <c r="U11">
+        <v>3.25</v>
+      </c>
+      <c r="V11">
+        <v>2.5</v>
+      </c>
+      <c r="W11">
+        <v>1.5</v>
+      </c>
+      <c r="X11">
+        <v>6.5</v>
+      </c>
+      <c r="Y11">
+        <v>1.11</v>
+      </c>
+      <c r="Z11">
+        <v>2.95</v>
+      </c>
+      <c r="AA11">
+        <v>3.45</v>
+      </c>
+      <c r="AB11">
+        <v>2.36</v>
+      </c>
+      <c r="AC11">
+        <v>1.05</v>
+      </c>
+      <c r="AD11">
+        <v>16</v>
+      </c>
+      <c r="AE11">
+        <v>1.25</v>
+      </c>
+      <c r="AF11">
+        <v>4.6</v>
+      </c>
+      <c r="AG11">
+        <v>1.65</v>
+      </c>
+      <c r="AH11">
+        <v>2.2</v>
+      </c>
+      <c r="AI11">
+        <v>1.62</v>
+      </c>
+      <c r="AJ11">
+        <v>2.2</v>
+      </c>
+      <c r="AK11">
+        <v>1.75</v>
+      </c>
+      <c r="AL11">
+        <v>1.24</v>
+      </c>
+      <c r="AM11">
+        <v>1.36</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>4</v>
+      </c>
+      <c r="AV11">
+        <v>5</v>
+      </c>
+      <c r="AW11">
+        <v>4</v>
+      </c>
+      <c r="AX11">
+        <v>4</v>
+      </c>
+      <c r="AY11">
+        <v>8</v>
+      </c>
+      <c r="AZ11">
+        <v>9</v>
+      </c>
+      <c r="BA11">
+        <v>2</v>
+      </c>
+      <c r="BB11">
+        <v>3</v>
+      </c>
+      <c r="BC11">
+        <v>5</v>
+      </c>
+      <c r="BD11">
+        <v>2.25</v>
+      </c>
+      <c r="BE11">
+        <v>6.5</v>
+      </c>
+      <c r="BF11">
+        <v>2</v>
+      </c>
+      <c r="BG11">
+        <v>1.22</v>
+      </c>
+      <c r="BH11">
+        <v>3.65</v>
+      </c>
+      <c r="BI11">
+        <v>1.44</v>
+      </c>
+      <c r="BJ11">
+        <v>2.61</v>
+      </c>
+      <c r="BK11">
+        <v>1.79</v>
+      </c>
+      <c r="BL11">
+        <v>1.98</v>
+      </c>
+      <c r="BM11">
+        <v>2.28</v>
+      </c>
+      <c r="BN11">
+        <v>1.57</v>
+      </c>
+      <c r="BO11">
+        <v>2.98</v>
+      </c>
+      <c r="BP11">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="114">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -256,6 +256,9 @@
     <t>Villarreal</t>
   </si>
   <si>
+    <t>Sevilla FC</t>
+  </si>
+  <si>
     <t>Getafe CF</t>
   </si>
   <si>
@@ -265,9 +268,6 @@
     <t>Deportivo Alavés</t>
   </si>
   <si>
-    <t>Sevilla FC</t>
-  </si>
-  <si>
     <t>Leganés</t>
   </si>
   <si>
@@ -316,6 +316,12 @@
     <t>['18', '37']</t>
   </si>
   <si>
+    <t>['23', '28', '60']</t>
+  </si>
+  <si>
+    <t>['45+6']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -344,6 +350,12 @@
   </si>
   <si>
     <t>['20', '45+5']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['2', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -705,7 +717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP11"/>
+  <dimension ref="A1:BP13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -940,7 +952,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -964,7 +976,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1146,7 +1158,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1170,7 +1182,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1352,7 +1364,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1376,7 +1388,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1558,7 +1570,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1582,7 +1594,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1788,7 +1800,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -1994,7 +2006,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2200,7 +2212,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2406,7 +2418,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2612,7 +2624,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2818,7 +2830,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -2975,6 +2987,418 @@
       </c>
       <c r="BP11">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7465023</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45527.58333333334</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12" t="s">
+        <v>100</v>
+      </c>
+      <c r="P12" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q12">
+        <v>2.88</v>
+      </c>
+      <c r="R12">
+        <v>2.05</v>
+      </c>
+      <c r="S12">
+        <v>4</v>
+      </c>
+      <c r="T12">
+        <v>1.44</v>
+      </c>
+      <c r="U12">
+        <v>2.63</v>
+      </c>
+      <c r="V12">
+        <v>3.25</v>
+      </c>
+      <c r="W12">
+        <v>1.33</v>
+      </c>
+      <c r="X12">
+        <v>10</v>
+      </c>
+      <c r="Y12">
+        <v>1.06</v>
+      </c>
+      <c r="Z12">
+        <v>2.15</v>
+      </c>
+      <c r="AA12">
+        <v>3.2</v>
+      </c>
+      <c r="AB12">
+        <v>3.32</v>
+      </c>
+      <c r="AC12">
+        <v>1.08</v>
+      </c>
+      <c r="AD12">
+        <v>9.35</v>
+      </c>
+      <c r="AE12">
+        <v>1.39</v>
+      </c>
+      <c r="AF12">
+        <v>3.02</v>
+      </c>
+      <c r="AG12">
+        <v>2.15</v>
+      </c>
+      <c r="AH12">
+        <v>1.63</v>
+      </c>
+      <c r="AI12">
+        <v>1.95</v>
+      </c>
+      <c r="AJ12">
+        <v>1.8</v>
+      </c>
+      <c r="AK12">
+        <v>1.3</v>
+      </c>
+      <c r="AL12">
+        <v>1.28</v>
+      </c>
+      <c r="AM12">
+        <v>1.75</v>
+      </c>
+      <c r="AN12">
+        <v>3</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>3</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>1.07</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>1.07</v>
+      </c>
+      <c r="AU12">
+        <v>6</v>
+      </c>
+      <c r="AV12">
+        <v>6</v>
+      </c>
+      <c r="AW12">
+        <v>2</v>
+      </c>
+      <c r="AX12">
+        <v>6</v>
+      </c>
+      <c r="AY12">
+        <v>8</v>
+      </c>
+      <c r="AZ12">
+        <v>12</v>
+      </c>
+      <c r="BA12">
+        <v>4</v>
+      </c>
+      <c r="BB12">
+        <v>7</v>
+      </c>
+      <c r="BC12">
+        <v>11</v>
+      </c>
+      <c r="BD12">
+        <v>1.42</v>
+      </c>
+      <c r="BE12">
+        <v>6.75</v>
+      </c>
+      <c r="BF12">
+        <v>3.3</v>
+      </c>
+      <c r="BG12">
+        <v>1.38</v>
+      </c>
+      <c r="BH12">
+        <v>2.75</v>
+      </c>
+      <c r="BI12">
+        <v>1.65</v>
+      </c>
+      <c r="BJ12">
+        <v>2.08</v>
+      </c>
+      <c r="BK12">
+        <v>2.05</v>
+      </c>
+      <c r="BL12">
+        <v>1.68</v>
+      </c>
+      <c r="BM12">
+        <v>2.63</v>
+      </c>
+      <c r="BN12">
+        <v>1.42</v>
+      </c>
+      <c r="BO12">
+        <v>3.55</v>
+      </c>
+      <c r="BP12">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7465026</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45527.6875</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13" t="s">
+        <v>101</v>
+      </c>
+      <c r="P13" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>2.2</v>
+      </c>
+      <c r="S13">
+        <v>3.5</v>
+      </c>
+      <c r="T13">
+        <v>1.36</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13">
+        <v>2.75</v>
+      </c>
+      <c r="W13">
+        <v>1.4</v>
+      </c>
+      <c r="X13">
+        <v>7</v>
+      </c>
+      <c r="Y13">
+        <v>1.1</v>
+      </c>
+      <c r="Z13">
+        <v>2.33</v>
+      </c>
+      <c r="AA13">
+        <v>3.25</v>
+      </c>
+      <c r="AB13">
+        <v>2.91</v>
+      </c>
+      <c r="AC13">
+        <v>1.04</v>
+      </c>
+      <c r="AD13">
+        <v>13</v>
+      </c>
+      <c r="AE13">
+        <v>1.28</v>
+      </c>
+      <c r="AF13">
+        <v>3.75</v>
+      </c>
+      <c r="AG13">
+        <v>1.92</v>
+      </c>
+      <c r="AH13">
+        <v>1.79</v>
+      </c>
+      <c r="AI13">
+        <v>1.7</v>
+      </c>
+      <c r="AJ13">
+        <v>2.05</v>
+      </c>
+      <c r="AK13">
+        <v>1.44</v>
+      </c>
+      <c r="AL13">
+        <v>1.32</v>
+      </c>
+      <c r="AM13">
+        <v>1.61</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>3</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>8</v>
+      </c>
+      <c r="AV13">
+        <v>7</v>
+      </c>
+      <c r="AW13">
+        <v>7</v>
+      </c>
+      <c r="AX13">
+        <v>2</v>
+      </c>
+      <c r="AY13">
+        <v>15</v>
+      </c>
+      <c r="AZ13">
+        <v>9</v>
+      </c>
+      <c r="BA13">
+        <v>7</v>
+      </c>
+      <c r="BB13">
+        <v>2</v>
+      </c>
+      <c r="BC13">
+        <v>9</v>
+      </c>
+      <c r="BD13">
+        <v>1.81</v>
+      </c>
+      <c r="BE13">
+        <v>6.4</v>
+      </c>
+      <c r="BF13">
+        <v>2.2</v>
+      </c>
+      <c r="BG13">
+        <v>1.29</v>
+      </c>
+      <c r="BH13">
+        <v>3.2</v>
+      </c>
+      <c r="BI13">
+        <v>1.5</v>
+      </c>
+      <c r="BJ13">
+        <v>2.38</v>
+      </c>
+      <c r="BK13">
+        <v>1.81</v>
+      </c>
+      <c r="BL13">
+        <v>1.88</v>
+      </c>
+      <c r="BM13">
+        <v>2.28</v>
+      </c>
+      <c r="BN13">
+        <v>1.55</v>
+      </c>
+      <c r="BO13">
+        <v>2.9</v>
+      </c>
+      <c r="BP13">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="118">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -259,6 +259,12 @@
     <t>Sevilla FC</t>
   </si>
   <si>
+    <t>FC Barcelona</t>
+  </si>
+  <si>
+    <t>RCD Espanyol</t>
+  </si>
+  <si>
     <t>Getafe CF</t>
   </si>
   <si>
@@ -271,18 +277,12 @@
     <t>Leganés</t>
   </si>
   <si>
-    <t>FC Barcelona</t>
-  </si>
-  <si>
     <t>Rayo Vallecano</t>
   </si>
   <si>
     <t>Real Madrid</t>
   </si>
   <si>
-    <t>RCD Espanyol</t>
-  </si>
-  <si>
     <t>Atlético Madrid</t>
   </si>
   <si>
@@ -319,7 +319,16 @@
     <t>['23', '28', '60']</t>
   </si>
   <si>
-    <t>['45+6']</t>
+    <t>['45+7']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['24', '75']</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
   <si>
     <t>['64']</t>
@@ -346,9 +355,6 @@
     <t>['13']</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>['20', '45+5']</t>
   </si>
   <si>
@@ -356,6 +362,12 @@
   </si>
   <si>
     <t>['2', '90+5']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['80']</t>
   </si>
 </sst>
 </file>
@@ -717,7 +729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP13"/>
+  <dimension ref="A1:BP17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -952,7 +964,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -976,7 +988,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1158,7 +1170,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1182,7 +1194,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1364,7 +1376,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1388,7 +1400,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1594,7 +1606,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1776,7 +1788,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1800,7 +1812,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -1878,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -1982,7 +1994,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -2006,7 +2018,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2188,7 +2200,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2212,7 +2224,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2293,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="AQ8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2394,7 +2406,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2418,7 +2430,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2600,7 +2612,7 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2624,7 +2636,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="Q10">
         <v>3.1</v>
@@ -2830,7 +2842,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3036,7 +3048,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3242,7 +3254,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3399,6 +3411,830 @@
       </c>
       <c r="BP13">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7465030</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45528.5</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q14">
+        <v>3.2</v>
+      </c>
+      <c r="R14">
+        <v>1.91</v>
+      </c>
+      <c r="S14">
+        <v>4.33</v>
+      </c>
+      <c r="T14">
+        <v>1.62</v>
+      </c>
+      <c r="U14">
+        <v>2.2</v>
+      </c>
+      <c r="V14">
+        <v>4</v>
+      </c>
+      <c r="W14">
+        <v>1.22</v>
+      </c>
+      <c r="X14">
+        <v>13</v>
+      </c>
+      <c r="Y14">
+        <v>1.04</v>
+      </c>
+      <c r="Z14">
+        <v>2.4</v>
+      </c>
+      <c r="AA14">
+        <v>3.1</v>
+      </c>
+      <c r="AB14">
+        <v>3.3</v>
+      </c>
+      <c r="AC14">
+        <v>1.12</v>
+      </c>
+      <c r="AD14">
+        <v>6.5</v>
+      </c>
+      <c r="AE14">
+        <v>1.49</v>
+      </c>
+      <c r="AF14">
+        <v>2.45</v>
+      </c>
+      <c r="AG14">
+        <v>2.7</v>
+      </c>
+      <c r="AH14">
+        <v>1.43</v>
+      </c>
+      <c r="AI14">
+        <v>2.2</v>
+      </c>
+      <c r="AJ14">
+        <v>1.62</v>
+      </c>
+      <c r="AK14">
+        <v>1.33</v>
+      </c>
+      <c r="AL14">
+        <v>1.33</v>
+      </c>
+      <c r="AM14">
+        <v>1.62</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>2</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>1.83</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>1.83</v>
+      </c>
+      <c r="AU14">
+        <v>6</v>
+      </c>
+      <c r="AV14">
+        <v>2</v>
+      </c>
+      <c r="AW14">
+        <v>7</v>
+      </c>
+      <c r="AX14">
+        <v>4</v>
+      </c>
+      <c r="AY14">
+        <v>13</v>
+      </c>
+      <c r="AZ14">
+        <v>6</v>
+      </c>
+      <c r="BA14">
+        <v>6</v>
+      </c>
+      <c r="BB14">
+        <v>4</v>
+      </c>
+      <c r="BC14">
+        <v>10</v>
+      </c>
+      <c r="BD14">
+        <v>1.74</v>
+      </c>
+      <c r="BE14">
+        <v>6.1</v>
+      </c>
+      <c r="BF14">
+        <v>2.4</v>
+      </c>
+      <c r="BG14">
+        <v>1.48</v>
+      </c>
+      <c r="BH14">
+        <v>2.43</v>
+      </c>
+      <c r="BI14">
+        <v>1.8</v>
+      </c>
+      <c r="BJ14">
+        <v>1.89</v>
+      </c>
+      <c r="BK14">
+        <v>2.3</v>
+      </c>
+      <c r="BL14">
+        <v>1.54</v>
+      </c>
+      <c r="BM14">
+        <v>3.05</v>
+      </c>
+      <c r="BN14">
+        <v>1.32</v>
+      </c>
+      <c r="BO14">
+        <v>4.1</v>
+      </c>
+      <c r="BP14">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7465029</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45528.58333333334</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q15">
+        <v>2.2</v>
+      </c>
+      <c r="R15">
+        <v>2.38</v>
+      </c>
+      <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="T15">
+        <v>1.33</v>
+      </c>
+      <c r="U15">
+        <v>3.25</v>
+      </c>
+      <c r="V15">
+        <v>2.5</v>
+      </c>
+      <c r="W15">
+        <v>1.5</v>
+      </c>
+      <c r="X15">
+        <v>6.5</v>
+      </c>
+      <c r="Y15">
+        <v>1.11</v>
+      </c>
+      <c r="Z15">
+        <v>1.61</v>
+      </c>
+      <c r="AA15">
+        <v>3.98</v>
+      </c>
+      <c r="AB15">
+        <v>4.73</v>
+      </c>
+      <c r="AC15">
+        <v>1.03</v>
+      </c>
+      <c r="AD15">
+        <v>15</v>
+      </c>
+      <c r="AE15">
+        <v>1.24</v>
+      </c>
+      <c r="AF15">
+        <v>4.2</v>
+      </c>
+      <c r="AG15">
+        <v>1.73</v>
+      </c>
+      <c r="AH15">
+        <v>2.12</v>
+      </c>
+      <c r="AI15">
+        <v>1.75</v>
+      </c>
+      <c r="AJ15">
+        <v>2</v>
+      </c>
+      <c r="AK15">
+        <v>1.16</v>
+      </c>
+      <c r="AL15">
+        <v>1.2</v>
+      </c>
+      <c r="AM15">
+        <v>2.35</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>3</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>6</v>
+      </c>
+      <c r="AV15">
+        <v>3</v>
+      </c>
+      <c r="AW15">
+        <v>5</v>
+      </c>
+      <c r="AX15">
+        <v>4</v>
+      </c>
+      <c r="AY15">
+        <v>11</v>
+      </c>
+      <c r="AZ15">
+        <v>7</v>
+      </c>
+      <c r="BA15">
+        <v>5</v>
+      </c>
+      <c r="BB15">
+        <v>6</v>
+      </c>
+      <c r="BC15">
+        <v>11</v>
+      </c>
+      <c r="BD15">
+        <v>1.41</v>
+      </c>
+      <c r="BE15">
+        <v>7</v>
+      </c>
+      <c r="BF15">
+        <v>3.3</v>
+      </c>
+      <c r="BG15">
+        <v>1.32</v>
+      </c>
+      <c r="BH15">
+        <v>3.05</v>
+      </c>
+      <c r="BI15">
+        <v>1.56</v>
+      </c>
+      <c r="BJ15">
+        <v>2.23</v>
+      </c>
+      <c r="BK15">
+        <v>1.9</v>
+      </c>
+      <c r="BL15">
+        <v>1.78</v>
+      </c>
+      <c r="BM15">
+        <v>2.4</v>
+      </c>
+      <c r="BN15">
+        <v>1.49</v>
+      </c>
+      <c r="BO15">
+        <v>3.15</v>
+      </c>
+      <c r="BP15">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7469575</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45528.6875</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
+        <v>104</v>
+      </c>
+      <c r="P16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q16">
+        <v>4.5</v>
+      </c>
+      <c r="R16">
+        <v>1.91</v>
+      </c>
+      <c r="S16">
+        <v>3</v>
+      </c>
+      <c r="T16">
+        <v>1.57</v>
+      </c>
+      <c r="U16">
+        <v>2.25</v>
+      </c>
+      <c r="V16">
+        <v>3.75</v>
+      </c>
+      <c r="W16">
+        <v>1.25</v>
+      </c>
+      <c r="X16">
+        <v>13</v>
+      </c>
+      <c r="Y16">
+        <v>1.04</v>
+      </c>
+      <c r="Z16">
+        <v>3.65</v>
+      </c>
+      <c r="AA16">
+        <v>2.98</v>
+      </c>
+      <c r="AB16">
+        <v>2.13</v>
+      </c>
+      <c r="AC16">
+        <v>1.11</v>
+      </c>
+      <c r="AD16">
+        <v>7</v>
+      </c>
+      <c r="AE16">
+        <v>1.49</v>
+      </c>
+      <c r="AF16">
+        <v>2.45</v>
+      </c>
+      <c r="AG16">
+        <v>2.51</v>
+      </c>
+      <c r="AH16">
+        <v>1.53</v>
+      </c>
+      <c r="AI16">
+        <v>2.2</v>
+      </c>
+      <c r="AJ16">
+        <v>1.62</v>
+      </c>
+      <c r="AK16">
+        <v>1.72</v>
+      </c>
+      <c r="AL16">
+        <v>1.32</v>
+      </c>
+      <c r="AM16">
+        <v>1.28</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>3</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>5</v>
+      </c>
+      <c r="AV16">
+        <v>4</v>
+      </c>
+      <c r="AW16">
+        <v>5</v>
+      </c>
+      <c r="AX16">
+        <v>3</v>
+      </c>
+      <c r="AY16">
+        <v>10</v>
+      </c>
+      <c r="AZ16">
+        <v>7</v>
+      </c>
+      <c r="BA16">
+        <v>7</v>
+      </c>
+      <c r="BB16">
+        <v>4</v>
+      </c>
+      <c r="BC16">
+        <v>11</v>
+      </c>
+      <c r="BD16">
+        <v>2.4</v>
+      </c>
+      <c r="BE16">
+        <v>6.25</v>
+      </c>
+      <c r="BF16">
+        <v>1.71</v>
+      </c>
+      <c r="BG16">
+        <v>1.55</v>
+      </c>
+      <c r="BH16">
+        <v>2.25</v>
+      </c>
+      <c r="BI16">
+        <v>1.92</v>
+      </c>
+      <c r="BJ16">
+        <v>1.77</v>
+      </c>
+      <c r="BK16">
+        <v>2.48</v>
+      </c>
+      <c r="BL16">
+        <v>1.46</v>
+      </c>
+      <c r="BM16">
+        <v>3.3</v>
+      </c>
+      <c r="BN16">
+        <v>1.28</v>
+      </c>
+      <c r="BO16">
+        <v>4.4</v>
+      </c>
+      <c r="BP16">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7465024</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45528.6875</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>104</v>
+      </c>
+      <c r="P17" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17">
+        <v>3.25</v>
+      </c>
+      <c r="R17">
+        <v>1.91</v>
+      </c>
+      <c r="S17">
+        <v>4</v>
+      </c>
+      <c r="T17">
+        <v>1.57</v>
+      </c>
+      <c r="U17">
+        <v>2.25</v>
+      </c>
+      <c r="V17">
+        <v>3.75</v>
+      </c>
+      <c r="W17">
+        <v>1.25</v>
+      </c>
+      <c r="X17">
+        <v>13</v>
+      </c>
+      <c r="Y17">
+        <v>1.04</v>
+      </c>
+      <c r="Z17">
+        <v>2.35</v>
+      </c>
+      <c r="AA17">
+        <v>2.92</v>
+      </c>
+      <c r="AB17">
+        <v>3.25</v>
+      </c>
+      <c r="AC17">
+        <v>1.11</v>
+      </c>
+      <c r="AD17">
+        <v>7</v>
+      </c>
+      <c r="AE17">
+        <v>1.47</v>
+      </c>
+      <c r="AF17">
+        <v>2.55</v>
+      </c>
+      <c r="AG17">
+        <v>2.51</v>
+      </c>
+      <c r="AH17">
+        <v>1.53</v>
+      </c>
+      <c r="AI17">
+        <v>2.1</v>
+      </c>
+      <c r="AJ17">
+        <v>1.67</v>
+      </c>
+      <c r="AK17">
+        <v>1.36</v>
+      </c>
+      <c r="AL17">
+        <v>1.33</v>
+      </c>
+      <c r="AM17">
+        <v>1.58</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>3</v>
+      </c>
+      <c r="AP17">
+        <v>1</v>
+      </c>
+      <c r="AQ17">
+        <v>2</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>1.32</v>
+      </c>
+      <c r="AT17">
+        <v>1.32</v>
+      </c>
+      <c r="AU17">
+        <v>2</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>8</v>
+      </c>
+      <c r="AX17">
+        <v>3</v>
+      </c>
+      <c r="AY17">
+        <v>10</v>
+      </c>
+      <c r="AZ17">
+        <v>3</v>
+      </c>
+      <c r="BA17">
+        <v>3</v>
+      </c>
+      <c r="BB17">
+        <v>2</v>
+      </c>
+      <c r="BC17">
+        <v>5</v>
+      </c>
+      <c r="BD17">
+        <v>1.84</v>
+      </c>
+      <c r="BE17">
+        <v>6.25</v>
+      </c>
+      <c r="BF17">
+        <v>2.18</v>
+      </c>
+      <c r="BG17">
+        <v>1.5</v>
+      </c>
+      <c r="BH17">
+        <v>2.35</v>
+      </c>
+      <c r="BI17">
+        <v>1.85</v>
+      </c>
+      <c r="BJ17">
+        <v>1.83</v>
+      </c>
+      <c r="BK17">
+        <v>2.38</v>
+      </c>
+      <c r="BL17">
+        <v>1.5</v>
+      </c>
+      <c r="BM17">
+        <v>3.15</v>
+      </c>
+      <c r="BN17">
+        <v>1.3</v>
+      </c>
+      <c r="BO17">
+        <v>4.2</v>
+      </c>
+      <c r="BP17">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="122">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -268,24 +268,24 @@
     <t>Getafe CF</t>
   </si>
   <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>Leganés</t>
+  </si>
+  <si>
+    <t>Deportivo Alavés</t>
+  </si>
+  <si>
+    <t>Atlético Madrid</t>
+  </si>
+  <si>
     <t>Girona FC</t>
   </si>
   <si>
-    <t>Deportivo Alavés</t>
-  </si>
-  <si>
-    <t>Leganés</t>
-  </si>
-  <si>
     <t>Rayo Vallecano</t>
   </si>
   <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
-    <t>Atlético Madrid</t>
-  </si>
-  <si>
     <t>['27']</t>
   </si>
   <si>
@@ -331,6 +331,15 @@
     <t>[]</t>
   </si>
   <si>
+    <t>['50', '88', '90+6']</t>
+  </si>
+  <si>
+    <t>['71', '85']</t>
+  </si>
+  <si>
+    <t>['39', '48', '90+4']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -368,6 +377,9 @@
   </si>
   <si>
     <t>['80']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
   </si>
 </sst>
 </file>
@@ -729,7 +741,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP17"/>
+  <dimension ref="A1:BP21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -988,7 +1000,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1170,7 +1182,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1194,7 +1206,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1275,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1376,7 +1388,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1400,7 +1412,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1606,7 +1618,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1788,7 +1800,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1812,7 +1824,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2018,7 +2030,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2200,7 +2212,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2224,7 +2236,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2406,7 +2418,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2430,7 +2442,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2818,7 +2830,7 @@
         <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -2842,7 +2854,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3048,7 +3060,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3254,7 +3266,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3666,7 +3678,7 @@
         <v>103</v>
       </c>
       <c r="P15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -3872,7 +3884,7 @@
         <v>104</v>
       </c>
       <c r="P16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q16">
         <v>4.5</v>
@@ -4054,7 +4066,7 @@
         <v>83</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -4235,6 +4247,830 @@
       </c>
       <c r="BP17">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7465025</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45529.5</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18" t="s">
+        <v>105</v>
+      </c>
+      <c r="P18" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q18">
+        <v>1.5</v>
+      </c>
+      <c r="R18">
+        <v>3.1</v>
+      </c>
+      <c r="S18">
+        <v>11</v>
+      </c>
+      <c r="T18">
+        <v>1.2</v>
+      </c>
+      <c r="U18">
+        <v>4.33</v>
+      </c>
+      <c r="V18">
+        <v>1.91</v>
+      </c>
+      <c r="W18">
+        <v>1.8</v>
+      </c>
+      <c r="X18">
+        <v>4</v>
+      </c>
+      <c r="Y18">
+        <v>1.22</v>
+      </c>
+      <c r="Z18">
+        <v>1.19</v>
+      </c>
+      <c r="AA18">
+        <v>7.5</v>
+      </c>
+      <c r="AB18">
+        <v>13.5</v>
+      </c>
+      <c r="AC18">
+        <v>1.02</v>
+      </c>
+      <c r="AD18">
+        <v>29</v>
+      </c>
+      <c r="AE18">
+        <v>1.08</v>
+      </c>
+      <c r="AF18">
+        <v>6.05</v>
+      </c>
+      <c r="AG18">
+        <v>1.36</v>
+      </c>
+      <c r="AH18">
+        <v>3.1</v>
+      </c>
+      <c r="AI18">
+        <v>2</v>
+      </c>
+      <c r="AJ18">
+        <v>1.75</v>
+      </c>
+      <c r="AK18">
+        <v>1.02</v>
+      </c>
+      <c r="AL18">
+        <v>1.08</v>
+      </c>
+      <c r="AM18">
+        <v>5.7</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>3</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>10</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>3</v>
+      </c>
+      <c r="AX18">
+        <v>6</v>
+      </c>
+      <c r="AY18">
+        <v>13</v>
+      </c>
+      <c r="AZ18">
+        <v>6</v>
+      </c>
+      <c r="BA18">
+        <v>5</v>
+      </c>
+      <c r="BB18">
+        <v>5</v>
+      </c>
+      <c r="BC18">
+        <v>10</v>
+      </c>
+      <c r="BD18">
+        <v>1.16</v>
+      </c>
+      <c r="BE18">
+        <v>9</v>
+      </c>
+      <c r="BF18">
+        <v>5.6</v>
+      </c>
+      <c r="BG18">
+        <v>1.25</v>
+      </c>
+      <c r="BH18">
+        <v>3.45</v>
+      </c>
+      <c r="BI18">
+        <v>1.44</v>
+      </c>
+      <c r="BJ18">
+        <v>2.55</v>
+      </c>
+      <c r="BK18">
+        <v>1.72</v>
+      </c>
+      <c r="BL18">
+        <v>1.98</v>
+      </c>
+      <c r="BM18">
+        <v>2.1</v>
+      </c>
+      <c r="BN18">
+        <v>1.64</v>
+      </c>
+      <c r="BO18">
+        <v>2.65</v>
+      </c>
+      <c r="BP18">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7465028</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45529.58333333334</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>106</v>
+      </c>
+      <c r="P19" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q19">
+        <v>3.2</v>
+      </c>
+      <c r="R19">
+        <v>1.91</v>
+      </c>
+      <c r="S19">
+        <v>4.33</v>
+      </c>
+      <c r="T19">
+        <v>1.57</v>
+      </c>
+      <c r="U19">
+        <v>2.25</v>
+      </c>
+      <c r="V19">
+        <v>3.75</v>
+      </c>
+      <c r="W19">
+        <v>1.25</v>
+      </c>
+      <c r="X19">
+        <v>13</v>
+      </c>
+      <c r="Y19">
+        <v>1.04</v>
+      </c>
+      <c r="Z19">
+        <v>2.25</v>
+      </c>
+      <c r="AA19">
+        <v>3</v>
+      </c>
+      <c r="AB19">
+        <v>3.5</v>
+      </c>
+      <c r="AC19">
+        <v>1.08</v>
+      </c>
+      <c r="AD19">
+        <v>6.4</v>
+      </c>
+      <c r="AE19">
+        <v>1.55</v>
+      </c>
+      <c r="AF19">
+        <v>2.4</v>
+      </c>
+      <c r="AG19">
+        <v>2.7</v>
+      </c>
+      <c r="AH19">
+        <v>1.45</v>
+      </c>
+      <c r="AI19">
+        <v>2.2</v>
+      </c>
+      <c r="AJ19">
+        <v>1.62</v>
+      </c>
+      <c r="AK19">
+        <v>1.33</v>
+      </c>
+      <c r="AL19">
+        <v>1.39</v>
+      </c>
+      <c r="AM19">
+        <v>1.65</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>3</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>6</v>
+      </c>
+      <c r="AV19">
+        <v>6</v>
+      </c>
+      <c r="AW19">
+        <v>4</v>
+      </c>
+      <c r="AX19">
+        <v>3</v>
+      </c>
+      <c r="AY19">
+        <v>10</v>
+      </c>
+      <c r="AZ19">
+        <v>9</v>
+      </c>
+      <c r="BA19">
+        <v>3</v>
+      </c>
+      <c r="BB19">
+        <v>7</v>
+      </c>
+      <c r="BC19">
+        <v>10</v>
+      </c>
+      <c r="BD19">
+        <v>1.76</v>
+      </c>
+      <c r="BE19">
+        <v>6.25</v>
+      </c>
+      <c r="BF19">
+        <v>2.3</v>
+      </c>
+      <c r="BG19">
+        <v>1.48</v>
+      </c>
+      <c r="BH19">
+        <v>2.43</v>
+      </c>
+      <c r="BI19">
+        <v>1.79</v>
+      </c>
+      <c r="BJ19">
+        <v>1.9</v>
+      </c>
+      <c r="BK19">
+        <v>2.3</v>
+      </c>
+      <c r="BL19">
+        <v>1.54</v>
+      </c>
+      <c r="BM19">
+        <v>3.05</v>
+      </c>
+      <c r="BN19">
+        <v>1.32</v>
+      </c>
+      <c r="BO19">
+        <v>4.1</v>
+      </c>
+      <c r="BP19">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7465027</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45529.59375</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>104</v>
+      </c>
+      <c r="P20" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q20">
+        <v>3.25</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>3.75</v>
+      </c>
+      <c r="T20">
+        <v>1.5</v>
+      </c>
+      <c r="U20">
+        <v>2.5</v>
+      </c>
+      <c r="V20">
+        <v>3.5</v>
+      </c>
+      <c r="W20">
+        <v>1.29</v>
+      </c>
+      <c r="X20">
+        <v>11</v>
+      </c>
+      <c r="Y20">
+        <v>1.05</v>
+      </c>
+      <c r="Z20">
+        <v>2.5</v>
+      </c>
+      <c r="AA20">
+        <v>3.2</v>
+      </c>
+      <c r="AB20">
+        <v>2.9</v>
+      </c>
+      <c r="AC20">
+        <v>1.09</v>
+      </c>
+      <c r="AD20">
+        <v>8</v>
+      </c>
+      <c r="AE20">
+        <v>1.45</v>
+      </c>
+      <c r="AF20">
+        <v>2.8</v>
+      </c>
+      <c r="AG20">
+        <v>2.3</v>
+      </c>
+      <c r="AH20">
+        <v>1.6</v>
+      </c>
+      <c r="AI20">
+        <v>1.95</v>
+      </c>
+      <c r="AJ20">
+        <v>1.8</v>
+      </c>
+      <c r="AK20">
+        <v>1.4</v>
+      </c>
+      <c r="AL20">
+        <v>1.32</v>
+      </c>
+      <c r="AM20">
+        <v>1.55</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>1</v>
+      </c>
+      <c r="AQ20">
+        <v>1</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>2</v>
+      </c>
+      <c r="AV20">
+        <v>4</v>
+      </c>
+      <c r="AW20">
+        <v>1</v>
+      </c>
+      <c r="AX20">
+        <v>9</v>
+      </c>
+      <c r="AY20">
+        <v>3</v>
+      </c>
+      <c r="AZ20">
+        <v>13</v>
+      </c>
+      <c r="BA20">
+        <v>3</v>
+      </c>
+      <c r="BB20">
+        <v>8</v>
+      </c>
+      <c r="BC20">
+        <v>11</v>
+      </c>
+      <c r="BD20">
+        <v>1.7</v>
+      </c>
+      <c r="BE20">
+        <v>6.5</v>
+      </c>
+      <c r="BF20">
+        <v>2.4</v>
+      </c>
+      <c r="BG20">
+        <v>1.34</v>
+      </c>
+      <c r="BH20">
+        <v>2.9</v>
+      </c>
+      <c r="BI20">
+        <v>1.58</v>
+      </c>
+      <c r="BJ20">
+        <v>2.2</v>
+      </c>
+      <c r="BK20">
+        <v>1.95</v>
+      </c>
+      <c r="BL20">
+        <v>1.74</v>
+      </c>
+      <c r="BM20">
+        <v>2.48</v>
+      </c>
+      <c r="BN20">
+        <v>1.47</v>
+      </c>
+      <c r="BO20">
+        <v>3.2</v>
+      </c>
+      <c r="BP20">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7465022</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45529.6875</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21" t="s">
+        <v>107</v>
+      </c>
+      <c r="P21" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q21">
+        <v>2.2</v>
+      </c>
+      <c r="R21">
+        <v>2.4</v>
+      </c>
+      <c r="S21">
+        <v>5</v>
+      </c>
+      <c r="T21">
+        <v>1.3</v>
+      </c>
+      <c r="U21">
+        <v>3.4</v>
+      </c>
+      <c r="V21">
+        <v>2.38</v>
+      </c>
+      <c r="W21">
+        <v>1.53</v>
+      </c>
+      <c r="X21">
+        <v>6</v>
+      </c>
+      <c r="Y21">
+        <v>1.13</v>
+      </c>
+      <c r="Z21">
+        <v>1.62</v>
+      </c>
+      <c r="AA21">
+        <v>4.1</v>
+      </c>
+      <c r="AB21">
+        <v>5</v>
+      </c>
+      <c r="AC21">
+        <v>1.02</v>
+      </c>
+      <c r="AD21">
+        <v>17</v>
+      </c>
+      <c r="AE21">
+        <v>1.19</v>
+      </c>
+      <c r="AF21">
+        <v>4.75</v>
+      </c>
+      <c r="AG21">
+        <v>1.65</v>
+      </c>
+      <c r="AH21">
+        <v>2.2</v>
+      </c>
+      <c r="AI21">
+        <v>1.67</v>
+      </c>
+      <c r="AJ21">
+        <v>2.1</v>
+      </c>
+      <c r="AK21">
+        <v>1.15</v>
+      </c>
+      <c r="AL21">
+        <v>1.18</v>
+      </c>
+      <c r="AM21">
+        <v>2.25</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>1</v>
+      </c>
+      <c r="AP21">
+        <v>3</v>
+      </c>
+      <c r="AQ21">
+        <v>0.5</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>1.26</v>
+      </c>
+      <c r="AT21">
+        <v>1.26</v>
+      </c>
+      <c r="AU21">
+        <v>7</v>
+      </c>
+      <c r="AV21">
+        <v>5</v>
+      </c>
+      <c r="AW21">
+        <v>2</v>
+      </c>
+      <c r="AX21">
+        <v>3</v>
+      </c>
+      <c r="AY21">
+        <v>9</v>
+      </c>
+      <c r="AZ21">
+        <v>8</v>
+      </c>
+      <c r="BA21">
+        <v>1</v>
+      </c>
+      <c r="BB21">
+        <v>9</v>
+      </c>
+      <c r="BC21">
+        <v>10</v>
+      </c>
+      <c r="BD21">
+        <v>1.57</v>
+      </c>
+      <c r="BE21">
+        <v>6.5</v>
+      </c>
+      <c r="BF21">
+        <v>2.65</v>
+      </c>
+      <c r="BG21">
+        <v>1.29</v>
+      </c>
+      <c r="BH21">
+        <v>3.15</v>
+      </c>
+      <c r="BI21">
+        <v>1.52</v>
+      </c>
+      <c r="BJ21">
+        <v>2.33</v>
+      </c>
+      <c r="BK21">
+        <v>1.84</v>
+      </c>
+      <c r="BL21">
+        <v>1.84</v>
+      </c>
+      <c r="BM21">
+        <v>2.33</v>
+      </c>
+      <c r="BN21">
+        <v>1.52</v>
+      </c>
+      <c r="BO21">
+        <v>3.05</v>
+      </c>
+      <c r="BP21">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="124">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -340,6 +340,9 @@
     <t>['39', '48', '90+4']</t>
   </si>
   <si>
+    <t>['26', '60', '64', '90+10']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -380,6 +383,9 @@
   </si>
   <si>
     <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['12', '31', '80']</t>
   </si>
 </sst>
 </file>
@@ -741,7 +747,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP21"/>
+  <dimension ref="A1:BP22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1000,7 +1006,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1206,7 +1212,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1412,7 +1418,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1618,7 +1624,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1824,7 +1830,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2030,7 +2036,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2236,7 +2242,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2442,7 +2448,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2854,7 +2860,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -2932,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3060,7 +3066,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3266,7 +3272,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3583,13 +3589,13 @@
         <v>6</v>
       </c>
       <c r="BA14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB14">
         <v>4</v>
       </c>
       <c r="BC14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD14">
         <v>1.74</v>
@@ -3678,7 +3684,7 @@
         <v>103</v>
       </c>
       <c r="P15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -3884,7 +3890,7 @@
         <v>104</v>
       </c>
       <c r="P16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q16">
         <v>4.5</v>
@@ -4502,7 +4508,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5071,6 +5077,212 @@
       </c>
       <c r="BP21">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7465037</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45530.6875</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>7</v>
+      </c>
+      <c r="O22" t="s">
+        <v>108</v>
+      </c>
+      <c r="P22" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q22">
+        <v>2.48</v>
+      </c>
+      <c r="R22">
+        <v>2.15</v>
+      </c>
+      <c r="S22">
+        <v>4.4</v>
+      </c>
+      <c r="T22">
+        <v>1.39</v>
+      </c>
+      <c r="U22">
+        <v>2.93</v>
+      </c>
+      <c r="V22">
+        <v>2.77</v>
+      </c>
+      <c r="W22">
+        <v>1.43</v>
+      </c>
+      <c r="X22">
+        <v>7</v>
+      </c>
+      <c r="Y22">
+        <v>1.09</v>
+      </c>
+      <c r="Z22">
+        <v>1.85</v>
+      </c>
+      <c r="AA22">
+        <v>3.8</v>
+      </c>
+      <c r="AB22">
+        <v>3.8</v>
+      </c>
+      <c r="AC22">
+        <v>1.01</v>
+      </c>
+      <c r="AD22">
+        <v>9.4</v>
+      </c>
+      <c r="AE22">
+        <v>1.27</v>
+      </c>
+      <c r="AF22">
+        <v>3.4</v>
+      </c>
+      <c r="AG22">
+        <v>1.65</v>
+      </c>
+      <c r="AH22">
+        <v>2.15</v>
+      </c>
+      <c r="AI22">
+        <v>1.75</v>
+      </c>
+      <c r="AJ22">
+        <v>1.93</v>
+      </c>
+      <c r="AK22">
+        <v>1.24</v>
+      </c>
+      <c r="AL22">
+        <v>1.3</v>
+      </c>
+      <c r="AM22">
+        <v>1.9</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>2</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>1.08</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>1.08</v>
+      </c>
+      <c r="AU22">
+        <v>10</v>
+      </c>
+      <c r="AV22">
+        <v>10</v>
+      </c>
+      <c r="AW22">
+        <v>11</v>
+      </c>
+      <c r="AX22">
+        <v>6</v>
+      </c>
+      <c r="AY22">
+        <v>21</v>
+      </c>
+      <c r="AZ22">
+        <v>16</v>
+      </c>
+      <c r="BA22">
+        <v>7</v>
+      </c>
+      <c r="BB22">
+        <v>4</v>
+      </c>
+      <c r="BC22">
+        <v>11</v>
+      </c>
+      <c r="BD22">
+        <v>1.66</v>
+      </c>
+      <c r="BE22">
+        <v>7</v>
+      </c>
+      <c r="BF22">
+        <v>2.85</v>
+      </c>
+      <c r="BG22">
+        <v>1.28</v>
+      </c>
+      <c r="BH22">
+        <v>3.4</v>
+      </c>
+      <c r="BI22">
+        <v>1.52</v>
+      </c>
+      <c r="BJ22">
+        <v>2.45</v>
+      </c>
+      <c r="BK22">
+        <v>1.87</v>
+      </c>
+      <c r="BL22">
+        <v>1.92</v>
+      </c>
+      <c r="BM22">
+        <v>2.3</v>
+      </c>
+      <c r="BN22">
+        <v>1.57</v>
+      </c>
+      <c r="BO22">
+        <v>3</v>
+      </c>
+      <c r="BP22">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -280,12 +280,12 @@
     <t>Atlético Madrid</t>
   </si>
   <si>
+    <t>Rayo Vallecano</t>
+  </si>
+  <si>
     <t>Girona FC</t>
   </si>
   <si>
-    <t>Rayo Vallecano</t>
-  </si>
-  <si>
     <t>['27']</t>
   </si>
   <si>
@@ -343,6 +343,9 @@
     <t>['26', '60', '64', '90+10']</t>
   </si>
   <si>
+    <t>['9']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -386,6 +389,9 @@
   </si>
   <si>
     <t>['12', '31', '80']</t>
+  </si>
+  <si>
+    <t>['60', '82']</t>
   </si>
 </sst>
 </file>
@@ -747,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP22"/>
+  <dimension ref="A1:BP24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1006,7 +1012,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1188,7 +1194,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1212,7 +1218,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1418,7 +1424,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1624,7 +1630,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1830,7 +1836,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2036,7 +2042,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2218,7 +2224,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2242,7 +2248,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2448,7 +2454,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2860,7 +2866,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3066,7 +3072,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3272,7 +3278,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3684,7 +3690,7 @@
         <v>103</v>
       </c>
       <c r="P15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -3890,7 +3896,7 @@
         <v>104</v>
       </c>
       <c r="P16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q16">
         <v>4.5</v>
@@ -4072,7 +4078,7 @@
         <v>83</v>
       </c>
       <c r="H17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -4508,7 +4514,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -4896,7 +4902,7 @@
         <v>87</v>
       </c>
       <c r="H21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -5126,7 +5132,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5282,6 +5288,418 @@
         <v>3</v>
       </c>
       <c r="BP22">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7465034</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45531.58333333334</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>104</v>
+      </c>
+      <c r="P23" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q23">
+        <v>3</v>
+      </c>
+      <c r="R23">
+        <v>1.96</v>
+      </c>
+      <c r="S23">
+        <v>4.33</v>
+      </c>
+      <c r="T23">
+        <v>1.58</v>
+      </c>
+      <c r="U23">
+        <v>2.45</v>
+      </c>
+      <c r="V23">
+        <v>3.6</v>
+      </c>
+      <c r="W23">
+        <v>1.28</v>
+      </c>
+      <c r="X23">
+        <v>11</v>
+      </c>
+      <c r="Y23">
+        <v>1.04</v>
+      </c>
+      <c r="Z23">
+        <v>2.2</v>
+      </c>
+      <c r="AA23">
+        <v>3.2</v>
+      </c>
+      <c r="AB23">
+        <v>3.5</v>
+      </c>
+      <c r="AC23">
+        <v>1.1</v>
+      </c>
+      <c r="AD23">
+        <v>7.5</v>
+      </c>
+      <c r="AE23">
+        <v>1.5</v>
+      </c>
+      <c r="AF23">
+        <v>2.65</v>
+      </c>
+      <c r="AG23">
+        <v>2.45</v>
+      </c>
+      <c r="AH23">
+        <v>1.53</v>
+      </c>
+      <c r="AI23">
+        <v>2.1</v>
+      </c>
+      <c r="AJ23">
+        <v>1.72</v>
+      </c>
+      <c r="AK23">
+        <v>1.3</v>
+      </c>
+      <c r="AL23">
+        <v>1.32</v>
+      </c>
+      <c r="AM23">
+        <v>1.7</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
+        <v>1</v>
+      </c>
+      <c r="AP23">
+        <v>1</v>
+      </c>
+      <c r="AQ23">
+        <v>1</v>
+      </c>
+      <c r="AR23">
+        <v>1.51</v>
+      </c>
+      <c r="AS23">
+        <v>1.71</v>
+      </c>
+      <c r="AT23">
+        <v>3.22</v>
+      </c>
+      <c r="AU23">
+        <v>5</v>
+      </c>
+      <c r="AV23">
+        <v>8</v>
+      </c>
+      <c r="AW23">
+        <v>7</v>
+      </c>
+      <c r="AX23">
+        <v>6</v>
+      </c>
+      <c r="AY23">
+        <v>12</v>
+      </c>
+      <c r="AZ23">
+        <v>14</v>
+      </c>
+      <c r="BA23">
+        <v>5</v>
+      </c>
+      <c r="BB23">
+        <v>9</v>
+      </c>
+      <c r="BC23">
+        <v>14</v>
+      </c>
+      <c r="BD23">
+        <v>1.55</v>
+      </c>
+      <c r="BE23">
+        <v>6.5</v>
+      </c>
+      <c r="BF23">
+        <v>2.7</v>
+      </c>
+      <c r="BG23">
+        <v>1.36</v>
+      </c>
+      <c r="BH23">
+        <v>2.8</v>
+      </c>
+      <c r="BI23">
+        <v>1.62</v>
+      </c>
+      <c r="BJ23">
+        <v>2.14</v>
+      </c>
+      <c r="BK23">
+        <v>1.98</v>
+      </c>
+      <c r="BL23">
+        <v>1.72</v>
+      </c>
+      <c r="BM23">
+        <v>2.55</v>
+      </c>
+      <c r="BN23">
+        <v>1.44</v>
+      </c>
+      <c r="BO23">
+        <v>3.3</v>
+      </c>
+      <c r="BP23">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7465036</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45531.6875</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24" t="s">
+        <v>109</v>
+      </c>
+      <c r="P24" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q24">
+        <v>4.75</v>
+      </c>
+      <c r="R24">
+        <v>2.3</v>
+      </c>
+      <c r="S24">
+        <v>2.3</v>
+      </c>
+      <c r="T24">
+        <v>1.35</v>
+      </c>
+      <c r="U24">
+        <v>3.25</v>
+      </c>
+      <c r="V24">
+        <v>2.6</v>
+      </c>
+      <c r="W24">
+        <v>1.5</v>
+      </c>
+      <c r="X24">
+        <v>6</v>
+      </c>
+      <c r="Y24">
+        <v>1.12</v>
+      </c>
+      <c r="Z24">
+        <v>4.6</v>
+      </c>
+      <c r="AA24">
+        <v>3.9</v>
+      </c>
+      <c r="AB24">
+        <v>1.73</v>
+      </c>
+      <c r="AC24">
+        <v>1.03</v>
+      </c>
+      <c r="AD24">
+        <v>15</v>
+      </c>
+      <c r="AE24">
+        <v>1.22</v>
+      </c>
+      <c r="AF24">
+        <v>4.33</v>
+      </c>
+      <c r="AG24">
+        <v>1.7</v>
+      </c>
+      <c r="AH24">
+        <v>2.15</v>
+      </c>
+      <c r="AI24">
+        <v>1.68</v>
+      </c>
+      <c r="AJ24">
+        <v>2.15</v>
+      </c>
+      <c r="AK24">
+        <v>2.2</v>
+      </c>
+      <c r="AL24">
+        <v>1.22</v>
+      </c>
+      <c r="AM24">
+        <v>1.19</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>3</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>3</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>1.62</v>
+      </c>
+      <c r="AT24">
+        <v>1.62</v>
+      </c>
+      <c r="AU24">
+        <v>5</v>
+      </c>
+      <c r="AV24">
+        <v>6</v>
+      </c>
+      <c r="AW24">
+        <v>3</v>
+      </c>
+      <c r="AX24">
+        <v>6</v>
+      </c>
+      <c r="AY24">
+        <v>8</v>
+      </c>
+      <c r="AZ24">
+        <v>12</v>
+      </c>
+      <c r="BA24">
+        <v>6</v>
+      </c>
+      <c r="BB24">
+        <v>6</v>
+      </c>
+      <c r="BC24">
+        <v>12</v>
+      </c>
+      <c r="BD24">
+        <v>2.7</v>
+      </c>
+      <c r="BE24">
+        <v>6.75</v>
+      </c>
+      <c r="BF24">
+        <v>1.54</v>
+      </c>
+      <c r="BG24">
+        <v>1.28</v>
+      </c>
+      <c r="BH24">
+        <v>3.3</v>
+      </c>
+      <c r="BI24">
+        <v>1.48</v>
+      </c>
+      <c r="BJ24">
+        <v>2.43</v>
+      </c>
+      <c r="BK24">
+        <v>1.78</v>
+      </c>
+      <c r="BL24">
+        <v>1.91</v>
+      </c>
+      <c r="BM24">
+        <v>2.23</v>
+      </c>
+      <c r="BN24">
+        <v>1.57</v>
+      </c>
+      <c r="BO24">
+        <v>2.9</v>
+      </c>
+      <c r="BP24">
         <v>1.35</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="129">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -346,6 +346,12 @@
     <t>['9']</t>
   </si>
   <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -392,6 +398,9 @@
   </si>
   <si>
     <t>['60', '82']</t>
+  </si>
+  <si>
+    <t>['45+5', '77']</t>
   </si>
 </sst>
 </file>
@@ -753,7 +762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP24"/>
+  <dimension ref="A1:BP28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1012,7 +1021,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1090,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1218,7 +1227,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1424,7 +1433,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1505,7 +1514,7 @@
         <v>3</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1630,7 +1639,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1836,7 +1845,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2042,7 +2051,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2248,7 +2257,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2454,7 +2463,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2738,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2866,7 +2875,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3072,7 +3081,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3278,7 +3287,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3690,7 +3699,7 @@
         <v>103</v>
       </c>
       <c r="P15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -3896,7 +3905,7 @@
         <v>104</v>
       </c>
       <c r="P16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q16">
         <v>4.5</v>
@@ -4514,7 +4523,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5004,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
         <v>0.5</v>
@@ -5132,7 +5141,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5544,7 +5553,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -5701,6 +5710,830 @@
       </c>
       <c r="BP24">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7465039</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45532.58333333334</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
+        <v>104</v>
+      </c>
+      <c r="P25" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q25">
+        <v>3</v>
+      </c>
+      <c r="R25">
+        <v>1.85</v>
+      </c>
+      <c r="S25">
+        <v>3.95</v>
+      </c>
+      <c r="T25">
+        <v>1.57</v>
+      </c>
+      <c r="U25">
+        <v>2.25</v>
+      </c>
+      <c r="V25">
+        <v>3.75</v>
+      </c>
+      <c r="W25">
+        <v>1.22</v>
+      </c>
+      <c r="X25">
+        <v>9</v>
+      </c>
+      <c r="Y25">
+        <v>1.05</v>
+      </c>
+      <c r="Z25">
+        <v>2.23</v>
+      </c>
+      <c r="AA25">
+        <v>2.96</v>
+      </c>
+      <c r="AB25">
+        <v>3.74</v>
+      </c>
+      <c r="AC25">
+        <v>1.1</v>
+      </c>
+      <c r="AD25">
+        <v>6.5</v>
+      </c>
+      <c r="AE25">
+        <v>1.53</v>
+      </c>
+      <c r="AF25">
+        <v>2.5</v>
+      </c>
+      <c r="AG25">
+        <v>2.48</v>
+      </c>
+      <c r="AH25">
+        <v>1.5</v>
+      </c>
+      <c r="AI25">
+        <v>2.1</v>
+      </c>
+      <c r="AJ25">
+        <v>1.65</v>
+      </c>
+      <c r="AK25">
+        <v>1.3</v>
+      </c>
+      <c r="AL25">
+        <v>1.3</v>
+      </c>
+      <c r="AM25">
+        <v>1.57</v>
+      </c>
+      <c r="AN25">
+        <v>3</v>
+      </c>
+      <c r="AO25">
+        <v>1</v>
+      </c>
+      <c r="AP25">
+        <v>2</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AR25">
+        <v>0.95</v>
+      </c>
+      <c r="AS25">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT25">
+        <v>1.89</v>
+      </c>
+      <c r="AU25">
+        <v>3</v>
+      </c>
+      <c r="AV25">
+        <v>2</v>
+      </c>
+      <c r="AW25">
+        <v>9</v>
+      </c>
+      <c r="AX25">
+        <v>4</v>
+      </c>
+      <c r="AY25">
+        <v>12</v>
+      </c>
+      <c r="AZ25">
+        <v>6</v>
+      </c>
+      <c r="BA25">
+        <v>4</v>
+      </c>
+      <c r="BB25">
+        <v>4</v>
+      </c>
+      <c r="BC25">
+        <v>8</v>
+      </c>
+      <c r="BD25">
+        <v>1.57</v>
+      </c>
+      <c r="BE25">
+        <v>8</v>
+      </c>
+      <c r="BF25">
+        <v>2.9</v>
+      </c>
+      <c r="BG25">
+        <v>1.33</v>
+      </c>
+      <c r="BH25">
+        <v>3.05</v>
+      </c>
+      <c r="BI25">
+        <v>1.65</v>
+      </c>
+      <c r="BJ25">
+        <v>2.1</v>
+      </c>
+      <c r="BK25">
+        <v>2.1</v>
+      </c>
+      <c r="BL25">
+        <v>1.65</v>
+      </c>
+      <c r="BM25">
+        <v>2.8</v>
+      </c>
+      <c r="BN25">
+        <v>1.38</v>
+      </c>
+      <c r="BO25">
+        <v>3.6</v>
+      </c>
+      <c r="BP25">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7465031</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45532.58333333334</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>110</v>
+      </c>
+      <c r="P26" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q26">
+        <v>2.1</v>
+      </c>
+      <c r="R26">
+        <v>2.1</v>
+      </c>
+      <c r="S26">
+        <v>5.75</v>
+      </c>
+      <c r="T26">
+        <v>1.42</v>
+      </c>
+      <c r="U26">
+        <v>2.65</v>
+      </c>
+      <c r="V26">
+        <v>3</v>
+      </c>
+      <c r="W26">
+        <v>1.33</v>
+      </c>
+      <c r="X26">
+        <v>7.5</v>
+      </c>
+      <c r="Y26">
+        <v>1.06</v>
+      </c>
+      <c r="Z26">
+        <v>1.54</v>
+      </c>
+      <c r="AA26">
+        <v>3.9</v>
+      </c>
+      <c r="AB26">
+        <v>6.65</v>
+      </c>
+      <c r="AC26">
+        <v>1.06</v>
+      </c>
+      <c r="AD26">
+        <v>8.5</v>
+      </c>
+      <c r="AE26">
+        <v>1.35</v>
+      </c>
+      <c r="AF26">
+        <v>3.1</v>
+      </c>
+      <c r="AG26">
+        <v>2.05</v>
+      </c>
+      <c r="AH26">
+        <v>1.77</v>
+      </c>
+      <c r="AI26">
+        <v>2.1</v>
+      </c>
+      <c r="AJ26">
+        <v>1.65</v>
+      </c>
+      <c r="AK26">
+        <v>1.11</v>
+      </c>
+      <c r="AL26">
+        <v>1.2</v>
+      </c>
+      <c r="AM26">
+        <v>2.38</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>2</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0.96</v>
+      </c>
+      <c r="AS26">
+        <v>1.56</v>
+      </c>
+      <c r="AT26">
+        <v>2.52</v>
+      </c>
+      <c r="AU26">
+        <v>5</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>4</v>
+      </c>
+      <c r="AX26">
+        <v>2</v>
+      </c>
+      <c r="AY26">
+        <v>9</v>
+      </c>
+      <c r="AZ26">
+        <v>2</v>
+      </c>
+      <c r="BA26">
+        <v>5</v>
+      </c>
+      <c r="BB26">
+        <v>3</v>
+      </c>
+      <c r="BC26">
+        <v>8</v>
+      </c>
+      <c r="BD26">
+        <v>1.2</v>
+      </c>
+      <c r="BE26">
+        <v>12</v>
+      </c>
+      <c r="BF26">
+        <v>5</v>
+      </c>
+      <c r="BG26">
+        <v>1.31</v>
+      </c>
+      <c r="BH26">
+        <v>3.15</v>
+      </c>
+      <c r="BI26">
+        <v>1.58</v>
+      </c>
+      <c r="BJ26">
+        <v>2.23</v>
+      </c>
+      <c r="BK26">
+        <v>2.03</v>
+      </c>
+      <c r="BL26">
+        <v>1.7</v>
+      </c>
+      <c r="BM26">
+        <v>2.7</v>
+      </c>
+      <c r="BN26">
+        <v>1.41</v>
+      </c>
+      <c r="BO26">
+        <v>3</v>
+      </c>
+      <c r="BP26">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7465038</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45532.6875</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>111</v>
+      </c>
+      <c r="P27" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q27">
+        <v>2.3</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>5.5</v>
+      </c>
+      <c r="T27">
+        <v>1.5</v>
+      </c>
+      <c r="U27">
+        <v>2.4</v>
+      </c>
+      <c r="V27">
+        <v>3.4</v>
+      </c>
+      <c r="W27">
+        <v>1.28</v>
+      </c>
+      <c r="X27">
+        <v>8</v>
+      </c>
+      <c r="Y27">
+        <v>1.05</v>
+      </c>
+      <c r="Z27">
+        <v>1.67</v>
+      </c>
+      <c r="AA27">
+        <v>3.6</v>
+      </c>
+      <c r="AB27">
+        <v>5.65</v>
+      </c>
+      <c r="AC27">
+        <v>1.08</v>
+      </c>
+      <c r="AD27">
+        <v>7.5</v>
+      </c>
+      <c r="AE27">
+        <v>1.45</v>
+      </c>
+      <c r="AF27">
+        <v>2.7</v>
+      </c>
+      <c r="AG27">
+        <v>2.47</v>
+      </c>
+      <c r="AH27">
+        <v>1.54</v>
+      </c>
+      <c r="AI27">
+        <v>2.25</v>
+      </c>
+      <c r="AJ27">
+        <v>1.57</v>
+      </c>
+      <c r="AK27">
+        <v>1.14</v>
+      </c>
+      <c r="AL27">
+        <v>1.22</v>
+      </c>
+      <c r="AM27">
+        <v>2.15</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>1.5</v>
+      </c>
+      <c r="AR27">
+        <v>1.36</v>
+      </c>
+      <c r="AS27">
+        <v>0.99</v>
+      </c>
+      <c r="AT27">
+        <v>2.35</v>
+      </c>
+      <c r="AU27">
+        <v>2</v>
+      </c>
+      <c r="AV27">
+        <v>6</v>
+      </c>
+      <c r="AW27">
+        <v>6</v>
+      </c>
+      <c r="AX27">
+        <v>8</v>
+      </c>
+      <c r="AY27">
+        <v>8</v>
+      </c>
+      <c r="AZ27">
+        <v>14</v>
+      </c>
+      <c r="BA27">
+        <v>8</v>
+      </c>
+      <c r="BB27">
+        <v>6</v>
+      </c>
+      <c r="BC27">
+        <v>14</v>
+      </c>
+      <c r="BD27">
+        <v>1.48</v>
+      </c>
+      <c r="BE27">
+        <v>8.5</v>
+      </c>
+      <c r="BF27">
+        <v>3.15</v>
+      </c>
+      <c r="BG27">
+        <v>1.36</v>
+      </c>
+      <c r="BH27">
+        <v>2.9</v>
+      </c>
+      <c r="BI27">
+        <v>1.51</v>
+      </c>
+      <c r="BJ27">
+        <v>2.37</v>
+      </c>
+      <c r="BK27">
+        <v>1.9</v>
+      </c>
+      <c r="BL27">
+        <v>1.8</v>
+      </c>
+      <c r="BM27">
+        <v>2.47</v>
+      </c>
+      <c r="BN27">
+        <v>1.48</v>
+      </c>
+      <c r="BO27">
+        <v>3.3</v>
+      </c>
+      <c r="BP27">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7469674</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45532.6875</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28" t="s">
+        <v>104</v>
+      </c>
+      <c r="P28" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q28">
+        <v>1.83</v>
+      </c>
+      <c r="R28">
+        <v>2.3</v>
+      </c>
+      <c r="S28">
+        <v>7.5</v>
+      </c>
+      <c r="T28">
+        <v>1.36</v>
+      </c>
+      <c r="U28">
+        <v>2.88</v>
+      </c>
+      <c r="V28">
+        <v>2.75</v>
+      </c>
+      <c r="W28">
+        <v>1.4</v>
+      </c>
+      <c r="X28">
+        <v>6.5</v>
+      </c>
+      <c r="Y28">
+        <v>1.08</v>
+      </c>
+      <c r="Z28">
+        <v>1.45</v>
+      </c>
+      <c r="AA28">
+        <v>4.42</v>
+      </c>
+      <c r="AB28">
+        <v>7.3</v>
+      </c>
+      <c r="AC28">
+        <v>1.05</v>
+      </c>
+      <c r="AD28">
+        <v>9.5</v>
+      </c>
+      <c r="AE28">
+        <v>1.28</v>
+      </c>
+      <c r="AF28">
+        <v>3.55</v>
+      </c>
+      <c r="AG28">
+        <v>1.98</v>
+      </c>
+      <c r="AH28">
+        <v>1.82</v>
+      </c>
+      <c r="AI28">
+        <v>2.2</v>
+      </c>
+      <c r="AJ28">
+        <v>1.6</v>
+      </c>
+      <c r="AK28">
+        <v>1.06</v>
+      </c>
+      <c r="AL28">
+        <v>1.14</v>
+      </c>
+      <c r="AM28">
+        <v>3.1</v>
+      </c>
+      <c r="AN28">
+        <v>3</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>2</v>
+      </c>
+      <c r="AQ28">
+        <v>0.5</v>
+      </c>
+      <c r="AR28">
+        <v>1.31</v>
+      </c>
+      <c r="AS28">
+        <v>0.95</v>
+      </c>
+      <c r="AT28">
+        <v>2.26</v>
+      </c>
+      <c r="AU28">
+        <v>8</v>
+      </c>
+      <c r="AV28">
+        <v>2</v>
+      </c>
+      <c r="AW28">
+        <v>10</v>
+      </c>
+      <c r="AX28">
+        <v>7</v>
+      </c>
+      <c r="AY28">
+        <v>18</v>
+      </c>
+      <c r="AZ28">
+        <v>9</v>
+      </c>
+      <c r="BA28">
+        <v>9</v>
+      </c>
+      <c r="BB28">
+        <v>3</v>
+      </c>
+      <c r="BC28">
+        <v>12</v>
+      </c>
+      <c r="BD28">
+        <v>1.35</v>
+      </c>
+      <c r="BE28">
+        <v>10</v>
+      </c>
+      <c r="BF28">
+        <v>3.7</v>
+      </c>
+      <c r="BG28">
+        <v>1.29</v>
+      </c>
+      <c r="BH28">
+        <v>3.3</v>
+      </c>
+      <c r="BI28">
+        <v>1.47</v>
+      </c>
+      <c r="BJ28">
+        <v>2.5</v>
+      </c>
+      <c r="BK28">
+        <v>1.85</v>
+      </c>
+      <c r="BL28">
+        <v>1.85</v>
+      </c>
+      <c r="BM28">
+        <v>2.37</v>
+      </c>
+      <c r="BN28">
+        <v>1.51</v>
+      </c>
+      <c r="BO28">
+        <v>3.2</v>
+      </c>
+      <c r="BP28">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="132">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -349,7 +349,13 @@
     <t>['45']</t>
   </si>
   <si>
-    <t>['32']</t>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['34', '53', '56', '90']</t>
+  </si>
+  <si>
+    <t>['5']</t>
   </si>
   <si>
     <t>['64']</t>
@@ -400,7 +406,10 @@
     <t>['60', '82']</t>
   </si>
   <si>
-    <t>['45+5', '77']</t>
+    <t>['45+6', '77']</t>
+  </si>
+  <si>
+    <t>['69']</t>
   </si>
 </sst>
 </file>
@@ -762,7 +771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP28"/>
+  <dimension ref="A1:BP30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1021,7 +1030,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1227,7 +1236,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1433,7 +1442,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1639,7 +1648,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1845,7 +1854,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2051,7 +2060,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2257,7 +2266,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2463,7 +2472,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2875,7 +2884,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3081,7 +3090,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3287,7 +3296,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3699,7 +3708,7 @@
         <v>103</v>
       </c>
       <c r="P15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -3905,7 +3914,7 @@
         <v>104</v>
       </c>
       <c r="P16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q16">
         <v>4.5</v>
@@ -4523,7 +4532,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5141,7 +5150,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5553,7 +5562,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6171,7 +6180,7 @@
         <v>111</v>
       </c>
       <c r="P27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q27">
         <v>2.3</v>
@@ -6533,6 +6542,418 @@
         <v>3.2</v>
       </c>
       <c r="BP28">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7465033</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45533.58333333334</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>4</v>
+      </c>
+      <c r="O29" t="s">
+        <v>112</v>
+      </c>
+      <c r="P29" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q29">
+        <v>2.2</v>
+      </c>
+      <c r="R29">
+        <v>2.38</v>
+      </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="T29">
+        <v>1.33</v>
+      </c>
+      <c r="U29">
+        <v>3.25</v>
+      </c>
+      <c r="V29">
+        <v>2.63</v>
+      </c>
+      <c r="W29">
+        <v>1.44</v>
+      </c>
+      <c r="X29">
+        <v>6.5</v>
+      </c>
+      <c r="Y29">
+        <v>1.11</v>
+      </c>
+      <c r="Z29">
+        <v>1.51</v>
+      </c>
+      <c r="AA29">
+        <v>4.78</v>
+      </c>
+      <c r="AB29">
+        <v>6.93</v>
+      </c>
+      <c r="AC29">
+        <v>1.03</v>
+      </c>
+      <c r="AD29">
+        <v>15</v>
+      </c>
+      <c r="AE29">
+        <v>1.22</v>
+      </c>
+      <c r="AF29">
+        <v>4.33</v>
+      </c>
+      <c r="AG29">
+        <v>1.7</v>
+      </c>
+      <c r="AH29">
+        <v>2.1</v>
+      </c>
+      <c r="AI29">
+        <v>1.8</v>
+      </c>
+      <c r="AJ29">
+        <v>1.95</v>
+      </c>
+      <c r="AK29">
+        <v>1.15</v>
+      </c>
+      <c r="AL29">
+        <v>1.19</v>
+      </c>
+      <c r="AM29">
+        <v>2.4</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>3</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>6</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>3</v>
+      </c>
+      <c r="AX29">
+        <v>2</v>
+      </c>
+      <c r="AY29">
+        <v>9</v>
+      </c>
+      <c r="AZ29">
+        <v>2</v>
+      </c>
+      <c r="BA29">
+        <v>5</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>5</v>
+      </c>
+      <c r="BD29">
+        <v>1.55</v>
+      </c>
+      <c r="BE29">
+        <v>8.5</v>
+      </c>
+      <c r="BF29">
+        <v>2.9</v>
+      </c>
+      <c r="BG29">
+        <v>1.32</v>
+      </c>
+      <c r="BH29">
+        <v>3.1</v>
+      </c>
+      <c r="BI29">
+        <v>1.62</v>
+      </c>
+      <c r="BJ29">
+        <v>2.15</v>
+      </c>
+      <c r="BK29">
+        <v>2.1</v>
+      </c>
+      <c r="BL29">
+        <v>1.65</v>
+      </c>
+      <c r="BM29">
+        <v>2.8</v>
+      </c>
+      <c r="BN29">
+        <v>1.38</v>
+      </c>
+      <c r="BO29">
+        <v>3.6</v>
+      </c>
+      <c r="BP29">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7465035</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45533.6875</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30" t="s">
+        <v>113</v>
+      </c>
+      <c r="P30" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q30">
+        <v>6.5</v>
+      </c>
+      <c r="R30">
+        <v>2.6</v>
+      </c>
+      <c r="S30">
+        <v>1.91</v>
+      </c>
+      <c r="T30">
+        <v>1.29</v>
+      </c>
+      <c r="U30">
+        <v>3.5</v>
+      </c>
+      <c r="V30">
+        <v>2.25</v>
+      </c>
+      <c r="W30">
+        <v>1.57</v>
+      </c>
+      <c r="X30">
+        <v>5.5</v>
+      </c>
+      <c r="Y30">
+        <v>1.14</v>
+      </c>
+      <c r="Z30">
+        <v>7.5</v>
+      </c>
+      <c r="AA30">
+        <v>5.08</v>
+      </c>
+      <c r="AB30">
+        <v>1.46</v>
+      </c>
+      <c r="AC30">
+        <v>1.02</v>
+      </c>
+      <c r="AD30">
+        <v>19</v>
+      </c>
+      <c r="AE30">
+        <v>1.18</v>
+      </c>
+      <c r="AF30">
+        <v>5</v>
+      </c>
+      <c r="AG30">
+        <v>1.55</v>
+      </c>
+      <c r="AH30">
+        <v>2.3</v>
+      </c>
+      <c r="AI30">
+        <v>1.75</v>
+      </c>
+      <c r="AJ30">
+        <v>2</v>
+      </c>
+      <c r="AK30">
+        <v>3</v>
+      </c>
+      <c r="AL30">
+        <v>1.14</v>
+      </c>
+      <c r="AM30">
+        <v>1.09</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
+        <v>1</v>
+      </c>
+      <c r="AP30">
+        <v>1</v>
+      </c>
+      <c r="AQ30">
+        <v>1</v>
+      </c>
+      <c r="AR30">
+        <v>1.44</v>
+      </c>
+      <c r="AS30">
+        <v>1.59</v>
+      </c>
+      <c r="AT30">
+        <v>3.03</v>
+      </c>
+      <c r="AU30">
+        <v>4</v>
+      </c>
+      <c r="AV30">
+        <v>9</v>
+      </c>
+      <c r="AW30">
+        <v>4</v>
+      </c>
+      <c r="AX30">
+        <v>10</v>
+      </c>
+      <c r="AY30">
+        <v>8</v>
+      </c>
+      <c r="AZ30">
+        <v>19</v>
+      </c>
+      <c r="BA30">
+        <v>2</v>
+      </c>
+      <c r="BB30">
+        <v>6</v>
+      </c>
+      <c r="BC30">
+        <v>8</v>
+      </c>
+      <c r="BD30">
+        <v>3.85</v>
+      </c>
+      <c r="BE30">
+        <v>10</v>
+      </c>
+      <c r="BF30">
+        <v>1.33</v>
+      </c>
+      <c r="BG30">
+        <v>1.34</v>
+      </c>
+      <c r="BH30">
+        <v>2.9</v>
+      </c>
+      <c r="BI30">
+        <v>1.46</v>
+      </c>
+      <c r="BJ30">
+        <v>2.52</v>
+      </c>
+      <c r="BK30">
+        <v>1.85</v>
+      </c>
+      <c r="BL30">
+        <v>1.85</v>
+      </c>
+      <c r="BM30">
+        <v>2.37</v>
+      </c>
+      <c r="BN30">
+        <v>1.51</v>
+      </c>
+      <c r="BO30">
+        <v>3.2</v>
+      </c>
+      <c r="BP30">
         <v>1.3</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="139">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -358,6 +358,15 @@
     <t>['5']</t>
   </si>
   <si>
+    <t>['20', '24', '45+2', '64', '72', '82', '85']</t>
+  </si>
+  <si>
+    <t>['8', '90+6']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -410,6 +419,18 @@
   </si>
   <si>
     <t>['69']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['43']</t>
   </si>
 </sst>
 </file>
@@ -771,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP30"/>
+  <dimension ref="A1:BP35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1030,7 +1051,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1108,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1236,7 +1257,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1442,7 +1463,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1648,7 +1669,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1854,7 +1875,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2060,7 +2081,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2138,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ7">
         <v>3</v>
@@ -2266,7 +2287,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2347,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="AQ8">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2472,7 +2493,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2884,7 +2905,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -2965,7 +2986,7 @@
         <v>2</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3090,7 +3111,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3296,7 +3317,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3377,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="AQ13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3583,7 +3604,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>1.83</v>
@@ -3708,7 +3729,7 @@
         <v>103</v>
       </c>
       <c r="P15" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -3914,7 +3935,7 @@
         <v>104</v>
       </c>
       <c r="P16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q16">
         <v>4.5</v>
@@ -3992,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16">
         <v>3</v>
@@ -4201,7 +4222,7 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4532,7 +4553,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -4610,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -5150,7 +5171,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5562,7 +5583,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6052,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26">
         <v>0</v>
@@ -6180,7 +6201,7 @@
         <v>111</v>
       </c>
       <c r="P27" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q27">
         <v>2.3</v>
@@ -6798,7 +6819,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -6955,6 +6976,1036 @@
       </c>
       <c r="BP30">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7465041</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45535.5</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>7</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>7</v>
+      </c>
+      <c r="O31" t="s">
+        <v>114</v>
+      </c>
+      <c r="P31" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q31">
+        <v>1.62</v>
+      </c>
+      <c r="R31">
+        <v>2.75</v>
+      </c>
+      <c r="S31">
+        <v>8</v>
+      </c>
+      <c r="T31">
+        <v>1.22</v>
+      </c>
+      <c r="U31">
+        <v>3.8</v>
+      </c>
+      <c r="V31">
+        <v>2.1</v>
+      </c>
+      <c r="W31">
+        <v>1.68</v>
+      </c>
+      <c r="X31">
+        <v>4.33</v>
+      </c>
+      <c r="Y31">
+        <v>1.18</v>
+      </c>
+      <c r="Z31">
+        <v>1.22</v>
+      </c>
+      <c r="AA31">
+        <v>6.5</v>
+      </c>
+      <c r="AB31">
+        <v>14</v>
+      </c>
+      <c r="AC31">
+        <v>1.01</v>
+      </c>
+      <c r="AD31">
+        <v>17</v>
+      </c>
+      <c r="AE31">
+        <v>1.11</v>
+      </c>
+      <c r="AF31">
+        <v>6.5</v>
+      </c>
+      <c r="AG31">
+        <v>1.42</v>
+      </c>
+      <c r="AH31">
+        <v>2.74</v>
+      </c>
+      <c r="AI31">
+        <v>1.87</v>
+      </c>
+      <c r="AJ31">
+        <v>1.87</v>
+      </c>
+      <c r="AK31">
+        <v>1.04</v>
+      </c>
+      <c r="AL31">
+        <v>1.12</v>
+      </c>
+      <c r="AM31">
+        <v>4.26</v>
+      </c>
+      <c r="AN31">
+        <v>3</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>3</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>1.51</v>
+      </c>
+      <c r="AS31">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AT31">
+        <v>2.2</v>
+      </c>
+      <c r="AU31">
+        <v>12</v>
+      </c>
+      <c r="AV31">
+        <v>2</v>
+      </c>
+      <c r="AW31">
+        <v>7</v>
+      </c>
+      <c r="AX31">
+        <v>2</v>
+      </c>
+      <c r="AY31">
+        <v>19</v>
+      </c>
+      <c r="AZ31">
+        <v>4</v>
+      </c>
+      <c r="BA31">
+        <v>10</v>
+      </c>
+      <c r="BB31">
+        <v>1</v>
+      </c>
+      <c r="BC31">
+        <v>11</v>
+      </c>
+      <c r="BD31">
+        <v>1.17</v>
+      </c>
+      <c r="BE31">
+        <v>11</v>
+      </c>
+      <c r="BF31">
+        <v>6</v>
+      </c>
+      <c r="BG31">
+        <v>1.32</v>
+      </c>
+      <c r="BH31">
+        <v>3.2</v>
+      </c>
+      <c r="BI31">
+        <v>1.55</v>
+      </c>
+      <c r="BJ31">
+        <v>2.3</v>
+      </c>
+      <c r="BK31">
+        <v>2</v>
+      </c>
+      <c r="BL31">
+        <v>1.8</v>
+      </c>
+      <c r="BM31">
+        <v>2.4</v>
+      </c>
+      <c r="BN31">
+        <v>1.5</v>
+      </c>
+      <c r="BO31">
+        <v>3.3</v>
+      </c>
+      <c r="BP31">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7465040</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45535.58333333334</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" t="s">
+        <v>87</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>104</v>
+      </c>
+      <c r="P32" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q32">
+        <v>3.4</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>3.1</v>
+      </c>
+      <c r="T32">
+        <v>1.4</v>
+      </c>
+      <c r="U32">
+        <v>2.84</v>
+      </c>
+      <c r="V32">
+        <v>3.04</v>
+      </c>
+      <c r="W32">
+        <v>1.36</v>
+      </c>
+      <c r="X32">
+        <v>7</v>
+      </c>
+      <c r="Y32">
+        <v>1.07</v>
+      </c>
+      <c r="Z32">
+        <v>2.9</v>
+      </c>
+      <c r="AA32">
+        <v>3.3</v>
+      </c>
+      <c r="AB32">
+        <v>2.5</v>
+      </c>
+      <c r="AC32">
+        <v>1.05</v>
+      </c>
+      <c r="AD32">
+        <v>8</v>
+      </c>
+      <c r="AE32">
+        <v>1.29</v>
+      </c>
+      <c r="AF32">
+        <v>3.3</v>
+      </c>
+      <c r="AG32">
+        <v>2.07</v>
+      </c>
+      <c r="AH32">
+        <v>1.79</v>
+      </c>
+      <c r="AI32">
+        <v>1.8</v>
+      </c>
+      <c r="AJ32">
+        <v>1.95</v>
+      </c>
+      <c r="AK32">
+        <v>1.53</v>
+      </c>
+      <c r="AL32">
+        <v>1.33</v>
+      </c>
+      <c r="AM32">
+        <v>1.4</v>
+      </c>
+      <c r="AN32">
+        <v>2</v>
+      </c>
+      <c r="AO32">
+        <v>1</v>
+      </c>
+      <c r="AP32">
+        <v>1.33</v>
+      </c>
+      <c r="AQ32">
+        <v>2</v>
+      </c>
+      <c r="AR32">
+        <v>1.11</v>
+      </c>
+      <c r="AS32">
+        <v>1.26</v>
+      </c>
+      <c r="AT32">
+        <v>2.37</v>
+      </c>
+      <c r="AU32">
+        <v>2</v>
+      </c>
+      <c r="AV32">
+        <v>3</v>
+      </c>
+      <c r="AW32">
+        <v>5</v>
+      </c>
+      <c r="AX32">
+        <v>4</v>
+      </c>
+      <c r="AY32">
+        <v>7</v>
+      </c>
+      <c r="AZ32">
+        <v>7</v>
+      </c>
+      <c r="BA32">
+        <v>2</v>
+      </c>
+      <c r="BB32">
+        <v>2</v>
+      </c>
+      <c r="BC32">
+        <v>4</v>
+      </c>
+      <c r="BD32">
+        <v>1.62</v>
+      </c>
+      <c r="BE32">
+        <v>8</v>
+      </c>
+      <c r="BF32">
+        <v>2.75</v>
+      </c>
+      <c r="BG32">
+        <v>1.29</v>
+      </c>
+      <c r="BH32">
+        <v>3.3</v>
+      </c>
+      <c r="BI32">
+        <v>1.48</v>
+      </c>
+      <c r="BJ32">
+        <v>2.47</v>
+      </c>
+      <c r="BK32">
+        <v>1.92</v>
+      </c>
+      <c r="BL32">
+        <v>1.88</v>
+      </c>
+      <c r="BM32">
+        <v>2.37</v>
+      </c>
+      <c r="BN32">
+        <v>1.51</v>
+      </c>
+      <c r="BO32">
+        <v>3.2</v>
+      </c>
+      <c r="BP32">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7469576</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45535.59375</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" t="s">
+        <v>88</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33" t="s">
+        <v>115</v>
+      </c>
+      <c r="P33" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q33">
+        <v>3.38</v>
+      </c>
+      <c r="R33">
+        <v>1.93</v>
+      </c>
+      <c r="S33">
+        <v>3.66</v>
+      </c>
+      <c r="T33">
+        <v>1.56</v>
+      </c>
+      <c r="U33">
+        <v>2.39</v>
+      </c>
+      <c r="V33">
+        <v>3.66</v>
+      </c>
+      <c r="W33">
+        <v>1.27</v>
+      </c>
+      <c r="X33">
+        <v>10.25</v>
+      </c>
+      <c r="Y33">
+        <v>1.04</v>
+      </c>
+      <c r="Z33">
+        <v>2.62</v>
+      </c>
+      <c r="AA33">
+        <v>3</v>
+      </c>
+      <c r="AB33">
+        <v>2.7</v>
+      </c>
+      <c r="AC33">
+        <v>1.07</v>
+      </c>
+      <c r="AD33">
+        <v>6.45</v>
+      </c>
+      <c r="AE33">
+        <v>1.57</v>
+      </c>
+      <c r="AF33">
+        <v>2.38</v>
+      </c>
+      <c r="AG33">
+        <v>2.55</v>
+      </c>
+      <c r="AH33">
+        <v>1.52</v>
+      </c>
+      <c r="AI33">
+        <v>2.09</v>
+      </c>
+      <c r="AJ33">
+        <v>1.71</v>
+      </c>
+      <c r="AK33">
+        <v>1.42</v>
+      </c>
+      <c r="AL33">
+        <v>1.3</v>
+      </c>
+      <c r="AM33">
+        <v>1.48</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>2</v>
+      </c>
+      <c r="AP33">
+        <v>1.5</v>
+      </c>
+      <c r="AQ33">
+        <v>1.33</v>
+      </c>
+      <c r="AR33">
+        <v>1.22</v>
+      </c>
+      <c r="AS33">
+        <v>0.89</v>
+      </c>
+      <c r="AT33">
+        <v>2.11</v>
+      </c>
+      <c r="AU33">
+        <v>4</v>
+      </c>
+      <c r="AV33">
+        <v>6</v>
+      </c>
+      <c r="AW33">
+        <v>5</v>
+      </c>
+      <c r="AX33">
+        <v>7</v>
+      </c>
+      <c r="AY33">
+        <v>9</v>
+      </c>
+      <c r="AZ33">
+        <v>13</v>
+      </c>
+      <c r="BA33">
+        <v>3</v>
+      </c>
+      <c r="BB33">
+        <v>7</v>
+      </c>
+      <c r="BC33">
+        <v>10</v>
+      </c>
+      <c r="BD33">
+        <v>1.9</v>
+      </c>
+      <c r="BE33">
+        <v>7.8</v>
+      </c>
+      <c r="BF33">
+        <v>2.18</v>
+      </c>
+      <c r="BG33">
+        <v>1.29</v>
+      </c>
+      <c r="BH33">
+        <v>3.3</v>
+      </c>
+      <c r="BI33">
+        <v>1.48</v>
+      </c>
+      <c r="BJ33">
+        <v>2.47</v>
+      </c>
+      <c r="BK33">
+        <v>2</v>
+      </c>
+      <c r="BL33">
+        <v>1.8</v>
+      </c>
+      <c r="BM33">
+        <v>2.47</v>
+      </c>
+      <c r="BN33">
+        <v>1.48</v>
+      </c>
+      <c r="BO33">
+        <v>3.8</v>
+      </c>
+      <c r="BP33">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7465043</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45535.6875</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34" t="s">
+        <v>116</v>
+      </c>
+      <c r="P34" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q34">
+        <v>3.22</v>
+      </c>
+      <c r="R34">
+        <v>2.21</v>
+      </c>
+      <c r="S34">
+        <v>3.1</v>
+      </c>
+      <c r="T34">
+        <v>1.36</v>
+      </c>
+      <c r="U34">
+        <v>3.08</v>
+      </c>
+      <c r="V34">
+        <v>2.63</v>
+      </c>
+      <c r="W34">
+        <v>1.47</v>
+      </c>
+      <c r="X34">
+        <v>6.5</v>
+      </c>
+      <c r="Y34">
+        <v>1.1</v>
+      </c>
+      <c r="Z34">
+        <v>2.7</v>
+      </c>
+      <c r="AA34">
+        <v>3.4</v>
+      </c>
+      <c r="AB34">
+        <v>2.7</v>
+      </c>
+      <c r="AC34">
+        <v>1.01</v>
+      </c>
+      <c r="AD34">
+        <v>10</v>
+      </c>
+      <c r="AE34">
+        <v>1.24</v>
+      </c>
+      <c r="AF34">
+        <v>3.64</v>
+      </c>
+      <c r="AG34">
+        <v>1.75</v>
+      </c>
+      <c r="AH34">
+        <v>2.08</v>
+      </c>
+      <c r="AI34">
+        <v>1.6</v>
+      </c>
+      <c r="AJ34">
+        <v>2.2</v>
+      </c>
+      <c r="AK34">
+        <v>1.53</v>
+      </c>
+      <c r="AL34">
+        <v>1.32</v>
+      </c>
+      <c r="AM34">
+        <v>1.51</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>3</v>
+      </c>
+      <c r="AP34">
+        <v>0.5</v>
+      </c>
+      <c r="AQ34">
+        <v>2</v>
+      </c>
+      <c r="AR34">
+        <v>0.87</v>
+      </c>
+      <c r="AS34">
+        <v>1.27</v>
+      </c>
+      <c r="AT34">
+        <v>2.14</v>
+      </c>
+      <c r="AU34">
+        <v>6</v>
+      </c>
+      <c r="AV34">
+        <v>3</v>
+      </c>
+      <c r="AW34">
+        <v>9</v>
+      </c>
+      <c r="AX34">
+        <v>4</v>
+      </c>
+      <c r="AY34">
+        <v>15</v>
+      </c>
+      <c r="AZ34">
+        <v>7</v>
+      </c>
+      <c r="BA34">
+        <v>14</v>
+      </c>
+      <c r="BB34">
+        <v>3</v>
+      </c>
+      <c r="BC34">
+        <v>17</v>
+      </c>
+      <c r="BD34">
+        <v>1.98</v>
+      </c>
+      <c r="BE34">
+        <v>7.8</v>
+      </c>
+      <c r="BF34">
+        <v>2.1</v>
+      </c>
+      <c r="BG34">
+        <v>1.29</v>
+      </c>
+      <c r="BH34">
+        <v>3.3</v>
+      </c>
+      <c r="BI34">
+        <v>1.53</v>
+      </c>
+      <c r="BJ34">
+        <v>2.33</v>
+      </c>
+      <c r="BK34">
+        <v>2</v>
+      </c>
+      <c r="BL34">
+        <v>1.8</v>
+      </c>
+      <c r="BM34">
+        <v>2.5</v>
+      </c>
+      <c r="BN34">
+        <v>1.47</v>
+      </c>
+      <c r="BO34">
+        <v>3.6</v>
+      </c>
+      <c r="BP34">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7465045</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45535.6875</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35" t="s">
+        <v>104</v>
+      </c>
+      <c r="P35" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q35">
+        <v>3.2</v>
+      </c>
+      <c r="R35">
+        <v>1.83</v>
+      </c>
+      <c r="S35">
+        <v>3.85</v>
+      </c>
+      <c r="T35">
+        <v>1.62</v>
+      </c>
+      <c r="U35">
+        <v>2.15</v>
+      </c>
+      <c r="V35">
+        <v>3.9</v>
+      </c>
+      <c r="W35">
+        <v>1.22</v>
+      </c>
+      <c r="X35">
+        <v>11.25</v>
+      </c>
+      <c r="Y35">
+        <v>1.03</v>
+      </c>
+      <c r="Z35">
+        <v>2.6</v>
+      </c>
+      <c r="AA35">
+        <v>2.88</v>
+      </c>
+      <c r="AB35">
+        <v>3.3</v>
+      </c>
+      <c r="AC35">
+        <v>1.11</v>
+      </c>
+      <c r="AD35">
+        <v>6.25</v>
+      </c>
+      <c r="AE35">
+        <v>1.54</v>
+      </c>
+      <c r="AF35">
+        <v>2.48</v>
+      </c>
+      <c r="AG35">
+        <v>2.78</v>
+      </c>
+      <c r="AH35">
+        <v>1.41</v>
+      </c>
+      <c r="AI35">
+        <v>2.15</v>
+      </c>
+      <c r="AJ35">
+        <v>1.62</v>
+      </c>
+      <c r="AK35">
+        <v>1.35</v>
+      </c>
+      <c r="AL35">
+        <v>1.33</v>
+      </c>
+      <c r="AM35">
+        <v>1.55</v>
+      </c>
+      <c r="AN35">
+        <v>3</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>1.5</v>
+      </c>
+      <c r="AQ35">
+        <v>1.5</v>
+      </c>
+      <c r="AR35">
+        <v>1.29</v>
+      </c>
+      <c r="AS35">
+        <v>0.9</v>
+      </c>
+      <c r="AT35">
+        <v>2.19</v>
+      </c>
+      <c r="AU35">
+        <v>3</v>
+      </c>
+      <c r="AV35">
+        <v>4</v>
+      </c>
+      <c r="AW35">
+        <v>6</v>
+      </c>
+      <c r="AX35">
+        <v>5</v>
+      </c>
+      <c r="AY35">
+        <v>9</v>
+      </c>
+      <c r="AZ35">
+        <v>9</v>
+      </c>
+      <c r="BA35">
+        <v>1</v>
+      </c>
+      <c r="BB35">
+        <v>3</v>
+      </c>
+      <c r="BC35">
+        <v>4</v>
+      </c>
+      <c r="BD35">
+        <v>1.95</v>
+      </c>
+      <c r="BE35">
+        <v>7.4</v>
+      </c>
+      <c r="BF35">
+        <v>2.17</v>
+      </c>
+      <c r="BG35">
+        <v>1.42</v>
+      </c>
+      <c r="BH35">
+        <v>2.65</v>
+      </c>
+      <c r="BI35">
+        <v>1.85</v>
+      </c>
+      <c r="BJ35">
+        <v>1.85</v>
+      </c>
+      <c r="BK35">
+        <v>2.4</v>
+      </c>
+      <c r="BL35">
+        <v>1.5</v>
+      </c>
+      <c r="BM35">
+        <v>3.3</v>
+      </c>
+      <c r="BN35">
+        <v>1.29</v>
+      </c>
+      <c r="BO35">
+        <v>4.8</v>
+      </c>
+      <c r="BP35">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="144">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -367,6 +367,15 @@
     <t>['24']</t>
   </si>
   <si>
+    <t>['7', '78']</t>
+  </si>
+  <si>
+    <t>['21', '45', '62']</t>
+  </si>
+  <si>
+    <t>['67', '75']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -427,10 +436,16 @@
     <t>['4']</t>
   </si>
   <si>
-    <t>['45+3']</t>
-  </si>
-  <si>
     <t>['43']</t>
+  </si>
+  <si>
+    <t>['45+4']</t>
+  </si>
+  <si>
+    <t>['29', '90+1']</t>
+  </si>
+  <si>
+    <t>['41', '73']</t>
   </si>
 </sst>
 </file>
@@ -792,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP35"/>
+  <dimension ref="A1:BP40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1051,7 +1066,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1257,7 +1272,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1338,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1463,7 +1478,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1669,7 +1684,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1875,7 +1890,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -1953,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2081,7 +2096,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2287,7 +2302,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2493,7 +2508,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2905,7 +2920,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3111,7 +3126,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3317,7 +3332,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3601,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ14">
         <v>1.5</v>
@@ -3729,7 +3744,7 @@
         <v>103</v>
       </c>
       <c r="P15" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -3935,7 +3950,7 @@
         <v>104</v>
       </c>
       <c r="P16" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q16">
         <v>4.5</v>
@@ -4016,7 +4031,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4553,7 +4568,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -4837,10 +4852,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5046,7 +5061,7 @@
         <v>2</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5171,7 +5186,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5583,7 +5598,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -5747,7 +5762,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>7465039</v>
+        <v>7465031</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
@@ -5762,88 +5777,88 @@
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H25" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="P25" t="s">
         <v>104</v>
       </c>
       <c r="Q25">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S25">
-        <v>3.95</v>
+        <v>5.75</v>
       </c>
       <c r="T25">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="U25">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
       <c r="V25">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="W25">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="X25">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="Y25">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z25">
-        <v>2.23</v>
+        <v>1.54</v>
       </c>
       <c r="AA25">
-        <v>2.96</v>
+        <v>3.9</v>
       </c>
       <c r="AB25">
-        <v>3.74</v>
+        <v>6.65</v>
       </c>
       <c r="AC25">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="AD25">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE25">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AF25">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="AG25">
-        <v>2.48</v>
+        <v>2.05</v>
       </c>
       <c r="AH25">
-        <v>1.5</v>
+        <v>1.77</v>
       </c>
       <c r="AI25">
         <v>2.1</v>
@@ -5852,100 +5867,100 @@
         <v>1.65</v>
       </c>
       <c r="AK25">
-        <v>1.3</v>
+        <v>1.11</v>
       </c>
       <c r="AL25">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AM25">
-        <v>1.57</v>
+        <v>2.38</v>
       </c>
       <c r="AN25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR25">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AS25">
-        <v>0.9399999999999999</v>
+        <v>1.56</v>
       </c>
       <c r="AT25">
-        <v>1.89</v>
+        <v>2.52</v>
       </c>
       <c r="AU25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW25">
+        <v>4</v>
+      </c>
+      <c r="AX25">
+        <v>2</v>
+      </c>
+      <c r="AY25">
         <v>9</v>
       </c>
-      <c r="AX25">
-        <v>4</v>
-      </c>
-      <c r="AY25">
-        <v>12</v>
-      </c>
       <c r="AZ25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BA25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC25">
         <v>8</v>
       </c>
       <c r="BD25">
-        <v>1.57</v>
+        <v>1.2</v>
       </c>
       <c r="BE25">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BF25">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="BG25">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="BH25">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="BI25">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="BJ25">
-        <v>2.1</v>
+        <v>2.23</v>
       </c>
       <c r="BK25">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="BL25">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="BM25">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="BN25">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="BO25">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="BP25">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="26" spans="1:68">
@@ -5953,7 +5968,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7465031</v>
+        <v>7465039</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -5968,88 +5983,88 @@
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="P26" t="s">
         <v>104</v>
       </c>
       <c r="Q26">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="R26">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S26">
-        <v>5.75</v>
+        <v>3.95</v>
       </c>
       <c r="T26">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="U26">
-        <v>2.65</v>
+        <v>2.25</v>
       </c>
       <c r="V26">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="W26">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="X26">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="Y26">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z26">
-        <v>1.54</v>
+        <v>2.23</v>
       </c>
       <c r="AA26">
-        <v>3.9</v>
+        <v>2.96</v>
       </c>
       <c r="AB26">
-        <v>6.65</v>
+        <v>3.74</v>
       </c>
       <c r="AC26">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="AD26">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE26">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="AF26">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="AG26">
-        <v>2.05</v>
+        <v>2.48</v>
       </c>
       <c r="AH26">
-        <v>1.77</v>
+        <v>1.5</v>
       </c>
       <c r="AI26">
         <v>2.1</v>
@@ -6058,100 +6073,100 @@
         <v>1.65</v>
       </c>
       <c r="AK26">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AL26">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AM26">
-        <v>2.38</v>
+        <v>1.57</v>
       </c>
       <c r="AN26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR26">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="AS26">
-        <v>1.56</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT26">
-        <v>2.52</v>
+        <v>1.89</v>
       </c>
       <c r="AU26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW26">
+        <v>9</v>
+      </c>
+      <c r="AX26">
         <v>4</v>
       </c>
-      <c r="AX26">
-        <v>2</v>
-      </c>
       <c r="AY26">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ26">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BA26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC26">
         <v>8</v>
       </c>
       <c r="BD26">
-        <v>1.2</v>
+        <v>1.57</v>
       </c>
       <c r="BE26">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BF26">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="BG26">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="BH26">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="BI26">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="BJ26">
-        <v>2.23</v>
+        <v>2.1</v>
       </c>
       <c r="BK26">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="BL26">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="BM26">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="BN26">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="BO26">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="BP26">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="27" spans="1:68">
@@ -6201,7 +6216,7 @@
         <v>111</v>
       </c>
       <c r="P27" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q27">
         <v>2.3</v>
@@ -6819,7 +6834,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -7231,7 +7246,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7437,7 +7452,7 @@
         <v>115</v>
       </c>
       <c r="P33" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q33">
         <v>3.38</v>
@@ -7601,7 +7616,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>7465043</v>
+        <v>7465045</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
@@ -7616,190 +7631,190 @@
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34">
         <v>1</v>
       </c>
       <c r="N34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O34" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q34">
-        <v>3.22</v>
+        <v>3.2</v>
       </c>
       <c r="R34">
-        <v>2.21</v>
+        <v>1.83</v>
       </c>
       <c r="S34">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="T34">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="U34">
-        <v>3.08</v>
+        <v>2.15</v>
       </c>
       <c r="V34">
-        <v>2.63</v>
+        <v>3.9</v>
       </c>
       <c r="W34">
-        <v>1.47</v>
+        <v>1.22</v>
       </c>
       <c r="X34">
-        <v>6.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y34">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="Z34">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AA34">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="AB34">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="AC34">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="AD34">
-        <v>10</v>
+        <v>6.25</v>
       </c>
       <c r="AE34">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="AF34">
-        <v>3.64</v>
+        <v>2.48</v>
       </c>
       <c r="AG34">
-        <v>1.75</v>
+        <v>2.78</v>
       </c>
       <c r="AH34">
-        <v>2.08</v>
+        <v>1.41</v>
       </c>
       <c r="AI34">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="AJ34">
-        <v>2.2</v>
+        <v>1.62</v>
       </c>
       <c r="AK34">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="AL34">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AM34">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="AN34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP34">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR34">
-        <v>0.87</v>
+        <v>1.29</v>
       </c>
       <c r="AS34">
-        <v>1.27</v>
+        <v>0.9</v>
       </c>
       <c r="AT34">
-        <v>2.14</v>
+        <v>2.19</v>
       </c>
       <c r="AU34">
+        <v>3</v>
+      </c>
+      <c r="AV34">
+        <v>4</v>
+      </c>
+      <c r="AW34">
         <v>6</v>
       </c>
-      <c r="AV34">
-        <v>3</v>
-      </c>
-      <c r="AW34">
+      <c r="AX34">
+        <v>5</v>
+      </c>
+      <c r="AY34">
         <v>9</v>
       </c>
-      <c r="AX34">
+      <c r="AZ34">
+        <v>9</v>
+      </c>
+      <c r="BA34">
+        <v>1</v>
+      </c>
+      <c r="BB34">
+        <v>3</v>
+      </c>
+      <c r="BC34">
         <v>4</v>
       </c>
-      <c r="AY34">
-        <v>15</v>
-      </c>
-      <c r="AZ34">
-        <v>7</v>
-      </c>
-      <c r="BA34">
-        <v>14</v>
-      </c>
-      <c r="BB34">
-        <v>3</v>
-      </c>
-      <c r="BC34">
-        <v>17</v>
-      </c>
       <c r="BD34">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="BE34">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="BF34">
-        <v>2.1</v>
+        <v>2.17</v>
       </c>
       <c r="BG34">
+        <v>1.42</v>
+      </c>
+      <c r="BH34">
+        <v>2.65</v>
+      </c>
+      <c r="BI34">
+        <v>1.85</v>
+      </c>
+      <c r="BJ34">
+        <v>1.85</v>
+      </c>
+      <c r="BK34">
+        <v>2.4</v>
+      </c>
+      <c r="BL34">
+        <v>1.5</v>
+      </c>
+      <c r="BM34">
+        <v>3.3</v>
+      </c>
+      <c r="BN34">
         <v>1.29</v>
       </c>
-      <c r="BH34">
-        <v>3.3</v>
-      </c>
-      <c r="BI34">
-        <v>1.53</v>
-      </c>
-      <c r="BJ34">
-        <v>2.33</v>
-      </c>
-      <c r="BK34">
-        <v>2</v>
-      </c>
-      <c r="BL34">
-        <v>1.8</v>
-      </c>
-      <c r="BM34">
-        <v>2.5</v>
-      </c>
-      <c r="BN34">
-        <v>1.47</v>
-      </c>
       <c r="BO34">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="BP34">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="35" spans="1:68">
@@ -7807,7 +7822,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7465045</v>
+        <v>7465043</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -7822,190 +7837,1220 @@
         <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35">
         <v>1</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O35" t="s">
+        <v>116</v>
+      </c>
+      <c r="P35" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q35">
+        <v>3.22</v>
+      </c>
+      <c r="R35">
+        <v>2.21</v>
+      </c>
+      <c r="S35">
+        <v>3.1</v>
+      </c>
+      <c r="T35">
+        <v>1.36</v>
+      </c>
+      <c r="U35">
+        <v>3.08</v>
+      </c>
+      <c r="V35">
+        <v>2.63</v>
+      </c>
+      <c r="W35">
+        <v>1.47</v>
+      </c>
+      <c r="X35">
+        <v>6.5</v>
+      </c>
+      <c r="Y35">
+        <v>1.1</v>
+      </c>
+      <c r="Z35">
+        <v>2.7</v>
+      </c>
+      <c r="AA35">
+        <v>3.4</v>
+      </c>
+      <c r="AB35">
+        <v>2.7</v>
+      </c>
+      <c r="AC35">
+        <v>1.01</v>
+      </c>
+      <c r="AD35">
+        <v>10</v>
+      </c>
+      <c r="AE35">
+        <v>1.24</v>
+      </c>
+      <c r="AF35">
+        <v>3.64</v>
+      </c>
+      <c r="AG35">
+        <v>1.75</v>
+      </c>
+      <c r="AH35">
+        <v>2.08</v>
+      </c>
+      <c r="AI35">
+        <v>1.6</v>
+      </c>
+      <c r="AJ35">
+        <v>2.2</v>
+      </c>
+      <c r="AK35">
+        <v>1.53</v>
+      </c>
+      <c r="AL35">
+        <v>1.32</v>
+      </c>
+      <c r="AM35">
+        <v>1.51</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>3</v>
+      </c>
+      <c r="AP35">
+        <v>0.5</v>
+      </c>
+      <c r="AQ35">
+        <v>2</v>
+      </c>
+      <c r="AR35">
+        <v>0.87</v>
+      </c>
+      <c r="AS35">
+        <v>1.27</v>
+      </c>
+      <c r="AT35">
+        <v>2.14</v>
+      </c>
+      <c r="AU35">
+        <v>6</v>
+      </c>
+      <c r="AV35">
+        <v>3</v>
+      </c>
+      <c r="AW35">
+        <v>9</v>
+      </c>
+      <c r="AX35">
+        <v>4</v>
+      </c>
+      <c r="AY35">
+        <v>15</v>
+      </c>
+      <c r="AZ35">
+        <v>7</v>
+      </c>
+      <c r="BA35">
+        <v>14</v>
+      </c>
+      <c r="BB35">
+        <v>3</v>
+      </c>
+      <c r="BC35">
+        <v>17</v>
+      </c>
+      <c r="BD35">
+        <v>1.98</v>
+      </c>
+      <c r="BE35">
+        <v>7.8</v>
+      </c>
+      <c r="BF35">
+        <v>2.1</v>
+      </c>
+      <c r="BG35">
+        <v>1.29</v>
+      </c>
+      <c r="BH35">
+        <v>3.3</v>
+      </c>
+      <c r="BI35">
+        <v>1.53</v>
+      </c>
+      <c r="BJ35">
+        <v>2.33</v>
+      </c>
+      <c r="BK35">
+        <v>2</v>
+      </c>
+      <c r="BL35">
+        <v>1.8</v>
+      </c>
+      <c r="BM35">
+        <v>2.5</v>
+      </c>
+      <c r="BN35">
+        <v>1.47</v>
+      </c>
+      <c r="BO35">
+        <v>3.6</v>
+      </c>
+      <c r="BP35">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7465044</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>86</v>
+      </c>
+      <c r="H36" t="s">
+        <v>73</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36" t="s">
+        <v>117</v>
+      </c>
+      <c r="P36" t="s">
         <v>104</v>
       </c>
-      <c r="P35" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q35">
+      <c r="Q36">
+        <v>2.7</v>
+      </c>
+      <c r="R36">
+        <v>1.95</v>
+      </c>
+      <c r="S36">
+        <v>4.2</v>
+      </c>
+      <c r="T36">
+        <v>1.5</v>
+      </c>
+      <c r="U36">
+        <v>2.4</v>
+      </c>
+      <c r="V36">
+        <v>3.45</v>
+      </c>
+      <c r="W36">
+        <v>1.25</v>
+      </c>
+      <c r="X36">
+        <v>8</v>
+      </c>
+      <c r="Y36">
+        <v>1.05</v>
+      </c>
+      <c r="Z36">
+        <v>1.85</v>
+      </c>
+      <c r="AA36">
+        <v>3.5</v>
+      </c>
+      <c r="AB36">
+        <v>4.5</v>
+      </c>
+      <c r="AC36">
+        <v>1.07</v>
+      </c>
+      <c r="AD36">
+        <v>7.5</v>
+      </c>
+      <c r="AE36">
+        <v>1.44</v>
+      </c>
+      <c r="AF36">
+        <v>2.7</v>
+      </c>
+      <c r="AG36">
+        <v>2.3</v>
+      </c>
+      <c r="AH36">
+        <v>1.6</v>
+      </c>
+      <c r="AI36">
+        <v>2.05</v>
+      </c>
+      <c r="AJ36">
+        <v>1.7</v>
+      </c>
+      <c r="AK36">
+        <v>1.25</v>
+      </c>
+      <c r="AL36">
+        <v>1.28</v>
+      </c>
+      <c r="AM36">
+        <v>1.75</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>2</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <v>0.71</v>
+      </c>
+      <c r="AS36">
+        <v>1.28</v>
+      </c>
+      <c r="AT36">
+        <v>1.99</v>
+      </c>
+      <c r="AU36">
+        <v>6</v>
+      </c>
+      <c r="AV36">
+        <v>7</v>
+      </c>
+      <c r="AW36">
+        <v>6</v>
+      </c>
+      <c r="AX36">
+        <v>5</v>
+      </c>
+      <c r="AY36">
+        <v>12</v>
+      </c>
+      <c r="AZ36">
+        <v>12</v>
+      </c>
+      <c r="BA36">
+        <v>6</v>
+      </c>
+      <c r="BB36">
+        <v>5</v>
+      </c>
+      <c r="BC36">
+        <v>11</v>
+      </c>
+      <c r="BD36">
+        <v>1.5</v>
+      </c>
+      <c r="BE36">
+        <v>8.5</v>
+      </c>
+      <c r="BF36">
+        <v>3</v>
+      </c>
+      <c r="BG36">
+        <v>1.32</v>
+      </c>
+      <c r="BH36">
         <v>3.2</v>
       </c>
-      <c r="R35">
-        <v>1.83</v>
-      </c>
-      <c r="S35">
-        <v>3.85</v>
-      </c>
-      <c r="T35">
+      <c r="BI36">
+        <v>1.51</v>
+      </c>
+      <c r="BJ36">
+        <v>2.37</v>
+      </c>
+      <c r="BK36">
+        <v>2</v>
+      </c>
+      <c r="BL36">
+        <v>1.8</v>
+      </c>
+      <c r="BM36">
+        <v>2.47</v>
+      </c>
+      <c r="BN36">
+        <v>1.48</v>
+      </c>
+      <c r="BO36">
+        <v>3.3</v>
+      </c>
+      <c r="BP36">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7465047</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>74</v>
+      </c>
+      <c r="H37" t="s">
+        <v>72</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>5</v>
+      </c>
+      <c r="O37" t="s">
+        <v>118</v>
+      </c>
+      <c r="P37" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q37">
+        <v>2.9</v>
+      </c>
+      <c r="R37">
+        <v>2</v>
+      </c>
+      <c r="S37">
+        <v>3.65</v>
+      </c>
+      <c r="T37">
+        <v>1.45</v>
+      </c>
+      <c r="U37">
+        <v>2.55</v>
+      </c>
+      <c r="V37">
+        <v>3</v>
+      </c>
+      <c r="W37">
+        <v>1.33</v>
+      </c>
+      <c r="X37">
+        <v>7.5</v>
+      </c>
+      <c r="Y37">
+        <v>1.06</v>
+      </c>
+      <c r="Z37">
+        <v>2.25</v>
+      </c>
+      <c r="AA37">
+        <v>3.25</v>
+      </c>
+      <c r="AB37">
+        <v>3.4</v>
+      </c>
+      <c r="AC37">
+        <v>1.07</v>
+      </c>
+      <c r="AD37">
+        <v>8</v>
+      </c>
+      <c r="AE37">
+        <v>1.38</v>
+      </c>
+      <c r="AF37">
+        <v>3</v>
+      </c>
+      <c r="AG37">
+        <v>2.1</v>
+      </c>
+      <c r="AH37">
+        <v>1.7</v>
+      </c>
+      <c r="AI37">
+        <v>1.8</v>
+      </c>
+      <c r="AJ37">
+        <v>1.9</v>
+      </c>
+      <c r="AK37">
+        <v>1.35</v>
+      </c>
+      <c r="AL37">
+        <v>1.28</v>
+      </c>
+      <c r="AM37">
+        <v>1.6</v>
+      </c>
+      <c r="AN37">
+        <v>2</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>2.33</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>1.77</v>
+      </c>
+      <c r="AS37">
+        <v>2.09</v>
+      </c>
+      <c r="AT37">
+        <v>3.86</v>
+      </c>
+      <c r="AU37">
+        <v>4</v>
+      </c>
+      <c r="AV37">
+        <v>5</v>
+      </c>
+      <c r="AW37">
+        <v>2</v>
+      </c>
+      <c r="AX37">
+        <v>4</v>
+      </c>
+      <c r="AY37">
+        <v>6</v>
+      </c>
+      <c r="AZ37">
+        <v>9</v>
+      </c>
+      <c r="BA37">
+        <v>6</v>
+      </c>
+      <c r="BB37">
+        <v>3</v>
+      </c>
+      <c r="BC37">
+        <v>9</v>
+      </c>
+      <c r="BD37">
+        <v>1.6</v>
+      </c>
+      <c r="BE37">
+        <v>8.5</v>
+      </c>
+      <c r="BF37">
+        <v>2.75</v>
+      </c>
+      <c r="BG37">
+        <v>1.28</v>
+      </c>
+      <c r="BH37">
+        <v>3.4</v>
+      </c>
+      <c r="BI37">
+        <v>1.48</v>
+      </c>
+      <c r="BJ37">
+        <v>2.47</v>
+      </c>
+      <c r="BK37">
+        <v>1.92</v>
+      </c>
+      <c r="BL37">
+        <v>1.88</v>
+      </c>
+      <c r="BM37">
+        <v>2.37</v>
+      </c>
+      <c r="BN37">
+        <v>1.51</v>
+      </c>
+      <c r="BO37">
+        <v>3.2</v>
+      </c>
+      <c r="BP37">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7465048</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45536.58333333334</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38" t="s">
+        <v>89</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38" t="s">
+        <v>104</v>
+      </c>
+      <c r="P38" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q38">
+        <v>2.79</v>
+      </c>
+      <c r="R38">
+        <v>2.31</v>
+      </c>
+      <c r="S38">
+        <v>3.38</v>
+      </c>
+      <c r="T38">
+        <v>1.3</v>
+      </c>
+      <c r="U38">
+        <v>3.2</v>
+      </c>
+      <c r="V38">
+        <v>2.4</v>
+      </c>
+      <c r="W38">
+        <v>1.5</v>
+      </c>
+      <c r="X38">
+        <v>5.25</v>
+      </c>
+      <c r="Y38">
+        <v>1.12</v>
+      </c>
+      <c r="Z38">
+        <v>2.4</v>
+      </c>
+      <c r="AA38">
+        <v>3.6</v>
+      </c>
+      <c r="AB38">
+        <v>2.8</v>
+      </c>
+      <c r="AC38">
+        <v>1.01</v>
+      </c>
+      <c r="AD38">
+        <v>13</v>
+      </c>
+      <c r="AE38">
+        <v>1.18</v>
+      </c>
+      <c r="AF38">
+        <v>4.33</v>
+      </c>
+      <c r="AG38">
+        <v>1.65</v>
+      </c>
+      <c r="AH38">
+        <v>2.2</v>
+      </c>
+      <c r="AI38">
+        <v>1.53</v>
+      </c>
+      <c r="AJ38">
+        <v>2.35</v>
+      </c>
+      <c r="AK38">
+        <v>1.44</v>
+      </c>
+      <c r="AL38">
+        <v>1.29</v>
+      </c>
+      <c r="AM38">
+        <v>1.64</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>0.5</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <v>1.33</v>
+      </c>
+      <c r="AR38">
+        <v>1.9</v>
+      </c>
+      <c r="AS38">
+        <v>1.28</v>
+      </c>
+      <c r="AT38">
+        <v>3.18</v>
+      </c>
+      <c r="AU38">
+        <v>6</v>
+      </c>
+      <c r="AV38">
+        <v>5</v>
+      </c>
+      <c r="AW38">
+        <v>6</v>
+      </c>
+      <c r="AX38">
+        <v>5</v>
+      </c>
+      <c r="AY38">
+        <v>12</v>
+      </c>
+      <c r="AZ38">
+        <v>10</v>
+      </c>
+      <c r="BA38">
+        <v>7</v>
+      </c>
+      <c r="BB38">
+        <v>5</v>
+      </c>
+      <c r="BC38">
+        <v>12</v>
+      </c>
+      <c r="BD38">
+        <v>1.6</v>
+      </c>
+      <c r="BE38">
+        <v>8</v>
+      </c>
+      <c r="BF38">
+        <v>2.8</v>
+      </c>
+      <c r="BG38">
+        <v>1.3</v>
+      </c>
+      <c r="BH38">
+        <v>3.2</v>
+      </c>
+      <c r="BI38">
+        <v>1.57</v>
+      </c>
+      <c r="BJ38">
+        <v>2.25</v>
+      </c>
+      <c r="BK38">
+        <v>2.03</v>
+      </c>
+      <c r="BL38">
+        <v>1.7</v>
+      </c>
+      <c r="BM38">
+        <v>2.65</v>
+      </c>
+      <c r="BN38">
+        <v>1.42</v>
+      </c>
+      <c r="BO38">
+        <v>3.4</v>
+      </c>
+      <c r="BP38">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7465042</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45536.59375</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>83</v>
+      </c>
+      <c r="H39" t="s">
+        <v>76</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s">
+        <v>104</v>
+      </c>
+      <c r="P39" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q39">
+        <v>4.2</v>
+      </c>
+      <c r="R39">
+        <v>1.8</v>
+      </c>
+      <c r="S39">
+        <v>3.1</v>
+      </c>
+      <c r="T39">
+        <v>1.64</v>
+      </c>
+      <c r="U39">
+        <v>2.22</v>
+      </c>
+      <c r="V39">
+        <v>4.05</v>
+      </c>
+      <c r="W39">
+        <v>1.22</v>
+      </c>
+      <c r="X39">
+        <v>12</v>
+      </c>
+      <c r="Y39">
+        <v>1.02</v>
+      </c>
+      <c r="Z39">
+        <v>3.3</v>
+      </c>
+      <c r="AA39">
+        <v>3</v>
+      </c>
+      <c r="AB39">
+        <v>2.4</v>
+      </c>
+      <c r="AC39">
+        <v>1.1</v>
+      </c>
+      <c r="AD39">
+        <v>5.75</v>
+      </c>
+      <c r="AE39">
         <v>1.62</v>
       </c>
-      <c r="U35">
-        <v>2.15</v>
-      </c>
-      <c r="V35">
-        <v>3.9</v>
-      </c>
-      <c r="W35">
-        <v>1.22</v>
-      </c>
-      <c r="X35">
-        <v>11.25</v>
-      </c>
-      <c r="Y35">
-        <v>1.03</v>
-      </c>
-      <c r="Z35">
-        <v>2.6</v>
-      </c>
-      <c r="AA35">
-        <v>2.88</v>
-      </c>
-      <c r="AB35">
-        <v>3.3</v>
-      </c>
-      <c r="AC35">
-        <v>1.11</v>
-      </c>
-      <c r="AD35">
-        <v>6.25</v>
-      </c>
-      <c r="AE35">
-        <v>1.54</v>
-      </c>
-      <c r="AF35">
-        <v>2.48</v>
-      </c>
-      <c r="AG35">
-        <v>2.78</v>
-      </c>
-      <c r="AH35">
-        <v>1.41</v>
-      </c>
-      <c r="AI35">
-        <v>2.15</v>
-      </c>
-      <c r="AJ35">
-        <v>1.62</v>
-      </c>
-      <c r="AK35">
-        <v>1.35</v>
-      </c>
-      <c r="AL35">
+      <c r="AF39">
+        <v>2.31</v>
+      </c>
+      <c r="AG39">
+        <v>2.9</v>
+      </c>
+      <c r="AH39">
+        <v>1.4</v>
+      </c>
+      <c r="AI39">
+        <v>2.3</v>
+      </c>
+      <c r="AJ39">
+        <v>1.55</v>
+      </c>
+      <c r="AK39">
+        <v>1.6</v>
+      </c>
+      <c r="AL39">
         <v>1.33</v>
       </c>
-      <c r="AM35">
-        <v>1.55</v>
-      </c>
-      <c r="AN35">
-        <v>3</v>
-      </c>
-      <c r="AO35">
-        <v>0</v>
-      </c>
-      <c r="AP35">
-        <v>1.5</v>
-      </c>
-      <c r="AQ35">
-        <v>1.5</v>
-      </c>
-      <c r="AR35">
-        <v>1.29</v>
-      </c>
-      <c r="AS35">
-        <v>0.9</v>
-      </c>
-      <c r="AT35">
-        <v>2.19</v>
-      </c>
-      <c r="AU35">
-        <v>3</v>
-      </c>
-      <c r="AV35">
+      <c r="AM39">
+        <v>1.3</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
+        <v>3</v>
+      </c>
+      <c r="AP39">
+        <v>1</v>
+      </c>
+      <c r="AQ39">
+        <v>2</v>
+      </c>
+      <c r="AR39">
+        <v>1.12</v>
+      </c>
+      <c r="AS39">
+        <v>1.04</v>
+      </c>
+      <c r="AT39">
+        <v>2.16</v>
+      </c>
+      <c r="AU39">
+        <v>2</v>
+      </c>
+      <c r="AV39">
+        <v>0</v>
+      </c>
+      <c r="AW39">
+        <v>7</v>
+      </c>
+      <c r="AX39">
+        <v>0</v>
+      </c>
+      <c r="AY39">
+        <v>9</v>
+      </c>
+      <c r="AZ39">
+        <v>0</v>
+      </c>
+      <c r="BA39">
         <v>4</v>
       </c>
-      <c r="AW35">
+      <c r="BB39">
+        <v>1</v>
+      </c>
+      <c r="BC39">
+        <v>5</v>
+      </c>
+      <c r="BD39">
+        <v>2.85</v>
+      </c>
+      <c r="BE39">
+        <v>7.9</v>
+      </c>
+      <c r="BF39">
+        <v>1.58</v>
+      </c>
+      <c r="BG39">
+        <v>1.36</v>
+      </c>
+      <c r="BH39">
+        <v>2.9</v>
+      </c>
+      <c r="BI39">
+        <v>1.7</v>
+      </c>
+      <c r="BJ39">
+        <v>2.03</v>
+      </c>
+      <c r="BK39">
+        <v>2.22</v>
+      </c>
+      <c r="BL39">
+        <v>1.59</v>
+      </c>
+      <c r="BM39">
+        <v>3</v>
+      </c>
+      <c r="BN39">
+        <v>1.34</v>
+      </c>
+      <c r="BO39">
+        <v>4.5</v>
+      </c>
+      <c r="BP39">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7465046</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45536.6875</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>84</v>
+      </c>
+      <c r="H40" t="s">
+        <v>71</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40" t="s">
+        <v>119</v>
+      </c>
+      <c r="P40" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q40">
+        <v>1.69</v>
+      </c>
+      <c r="R40">
+        <v>2.72</v>
+      </c>
+      <c r="S40">
+        <v>7.8</v>
+      </c>
+      <c r="T40">
+        <v>1.27</v>
+      </c>
+      <c r="U40">
+        <v>3.66</v>
+      </c>
+      <c r="V40">
+        <v>2.24</v>
+      </c>
+      <c r="W40">
+        <v>1.63</v>
+      </c>
+      <c r="X40">
+        <v>5</v>
+      </c>
+      <c r="Y40">
+        <v>1.16</v>
+      </c>
+      <c r="Z40">
+        <v>1.33</v>
+      </c>
+      <c r="AA40">
+        <v>5.5</v>
+      </c>
+      <c r="AB40">
+        <v>9</v>
+      </c>
+      <c r="AC40">
+        <v>1.01</v>
+      </c>
+      <c r="AD40">
+        <v>17</v>
+      </c>
+      <c r="AE40">
+        <v>1.13</v>
+      </c>
+      <c r="AF40">
+        <v>4.85</v>
+      </c>
+      <c r="AG40">
+        <v>1.53</v>
+      </c>
+      <c r="AH40">
+        <v>2.45</v>
+      </c>
+      <c r="AI40">
+        <v>1.87</v>
+      </c>
+      <c r="AJ40">
+        <v>1.87</v>
+      </c>
+      <c r="AK40">
+        <v>1.06</v>
+      </c>
+      <c r="AL40">
+        <v>1.15</v>
+      </c>
+      <c r="AM40">
+        <v>3.8</v>
+      </c>
+      <c r="AN40">
+        <v>3</v>
+      </c>
+      <c r="AO40">
+        <v>1</v>
+      </c>
+      <c r="AP40">
+        <v>3</v>
+      </c>
+      <c r="AQ40">
+        <v>0.5</v>
+      </c>
+      <c r="AR40">
+        <v>2.11</v>
+      </c>
+      <c r="AS40">
+        <v>1.4</v>
+      </c>
+      <c r="AT40">
+        <v>3.51</v>
+      </c>
+      <c r="AU40">
+        <v>8</v>
+      </c>
+      <c r="AV40">
+        <v>3</v>
+      </c>
+      <c r="AW40">
         <v>6</v>
       </c>
-      <c r="AX35">
-        <v>5</v>
-      </c>
-      <c r="AY35">
-        <v>9</v>
-      </c>
-      <c r="AZ35">
-        <v>9</v>
-      </c>
-      <c r="BA35">
-        <v>1</v>
-      </c>
-      <c r="BB35">
-        <v>3</v>
-      </c>
-      <c r="BC35">
-        <v>4</v>
-      </c>
-      <c r="BD35">
-        <v>1.95</v>
-      </c>
-      <c r="BE35">
-        <v>7.4</v>
-      </c>
-      <c r="BF35">
-        <v>2.17</v>
-      </c>
-      <c r="BG35">
-        <v>1.42</v>
-      </c>
-      <c r="BH35">
-        <v>2.65</v>
-      </c>
-      <c r="BI35">
-        <v>1.85</v>
-      </c>
-      <c r="BJ35">
-        <v>1.85</v>
-      </c>
-      <c r="BK35">
-        <v>2.4</v>
-      </c>
-      <c r="BL35">
-        <v>1.5</v>
-      </c>
-      <c r="BM35">
-        <v>3.3</v>
-      </c>
-      <c r="BN35">
-        <v>1.29</v>
-      </c>
-      <c r="BO35">
-        <v>4.8</v>
-      </c>
-      <c r="BP35">
-        <v>1.14</v>
+      <c r="AX40">
+        <v>3</v>
+      </c>
+      <c r="AY40">
+        <v>14</v>
+      </c>
+      <c r="AZ40">
+        <v>6</v>
+      </c>
+      <c r="BA40">
+        <v>7</v>
+      </c>
+      <c r="BB40">
+        <v>3</v>
+      </c>
+      <c r="BC40">
+        <v>10</v>
+      </c>
+      <c r="BD40">
+        <v>1.25</v>
+      </c>
+      <c r="BE40">
+        <v>11.5</v>
+      </c>
+      <c r="BF40">
+        <v>4.6</v>
+      </c>
+      <c r="BG40">
+        <v>1.26</v>
+      </c>
+      <c r="BH40">
+        <v>3.6</v>
+      </c>
+      <c r="BI40">
+        <v>1.39</v>
+      </c>
+      <c r="BJ40">
+        <v>2.77</v>
+      </c>
+      <c r="BK40">
+        <v>1.73</v>
+      </c>
+      <c r="BL40">
+        <v>1.99</v>
+      </c>
+      <c r="BM40">
+        <v>2.2</v>
+      </c>
+      <c r="BN40">
+        <v>1.6</v>
+      </c>
+      <c r="BO40">
+        <v>2.9</v>
+      </c>
+      <c r="BP40">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -367,13 +367,13 @@
     <t>['24']</t>
   </si>
   <si>
-    <t>['7', '78']</t>
+    <t>['8', '78']</t>
   </si>
   <si>
     <t>['21', '45', '62']</t>
   </si>
   <si>
-    <t>['67', '75']</t>
+    <t>['67', '76']</t>
   </si>
   <si>
     <t>['64']</t>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -367,10 +367,10 @@
     <t>['24']</t>
   </si>
   <si>
+    <t>['21', '45', '62']</t>
+  </si>
+  <si>
     <t>['8', '78']</t>
-  </si>
-  <si>
-    <t>['21', '45', '62']</t>
   </si>
   <si>
     <t>['67', '76']</t>
@@ -8028,7 +8028,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>7465044</v>
+        <v>7465047</v>
       </c>
       <c r="C36" t="s">
         <v>68</v>
@@ -8043,187 +8043,187 @@
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O36" t="s">
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="Q36">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="R36">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="T36">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="U36">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="V36">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="W36">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="X36">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y36">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z36">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="AA36">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AB36">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="AC36">
         <v>1.07</v>
       </c>
       <c r="AD36">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE36">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AF36">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="AG36">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AH36">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AI36">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="AJ36">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AK36">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AL36">
         <v>1.28</v>
       </c>
       <c r="AM36">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AN36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO36">
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ36">
         <v>0</v>
       </c>
       <c r="AR36">
-        <v>0.71</v>
+        <v>1.77</v>
       </c>
       <c r="AS36">
-        <v>1.28</v>
+        <v>2.09</v>
       </c>
       <c r="AT36">
-        <v>1.99</v>
+        <v>3.86</v>
       </c>
       <c r="AU36">
+        <v>4</v>
+      </c>
+      <c r="AV36">
+        <v>5</v>
+      </c>
+      <c r="AW36">
+        <v>2</v>
+      </c>
+      <c r="AX36">
+        <v>4</v>
+      </c>
+      <c r="AY36">
         <v>6</v>
       </c>
-      <c r="AV36">
-        <v>7</v>
-      </c>
-      <c r="AW36">
-        <v>6</v>
-      </c>
-      <c r="AX36">
-        <v>5</v>
-      </c>
-      <c r="AY36">
-        <v>12</v>
-      </c>
       <c r="AZ36">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA36">
         <v>6</v>
       </c>
       <c r="BB36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC36">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD36">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="BE36">
         <v>8.5</v>
       </c>
       <c r="BF36">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="BG36">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="BH36">
+        <v>3.4</v>
+      </c>
+      <c r="BI36">
+        <v>1.48</v>
+      </c>
+      <c r="BJ36">
+        <v>2.47</v>
+      </c>
+      <c r="BK36">
+        <v>1.92</v>
+      </c>
+      <c r="BL36">
+        <v>1.88</v>
+      </c>
+      <c r="BM36">
+        <v>2.37</v>
+      </c>
+      <c r="BN36">
+        <v>1.51</v>
+      </c>
+      <c r="BO36">
         <v>3.2</v>
-      </c>
-      <c r="BI36">
-        <v>1.51</v>
-      </c>
-      <c r="BJ36">
-        <v>2.37</v>
-      </c>
-      <c r="BK36">
-        <v>2</v>
-      </c>
-      <c r="BL36">
-        <v>1.8</v>
-      </c>
-      <c r="BM36">
-        <v>2.47</v>
-      </c>
-      <c r="BN36">
-        <v>1.48</v>
-      </c>
-      <c r="BO36">
-        <v>3.3</v>
       </c>
       <c r="BP36">
         <v>1.3</v>
@@ -8234,7 +8234,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7465047</v>
+        <v>7465044</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
@@ -8249,187 +8249,187 @@
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O37" t="s">
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="Q37">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="T37">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="U37">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="V37">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="W37">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="X37">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y37">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z37">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="AA37">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AB37">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="AC37">
         <v>1.07</v>
       </c>
       <c r="AD37">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE37">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AF37">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AG37">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AH37">
+        <v>1.6</v>
+      </c>
+      <c r="AI37">
+        <v>2.05</v>
+      </c>
+      <c r="AJ37">
         <v>1.7</v>
       </c>
-      <c r="AI37">
-        <v>1.8</v>
-      </c>
-      <c r="AJ37">
-        <v>1.9</v>
-      </c>
       <c r="AK37">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AL37">
         <v>1.28</v>
       </c>
       <c r="AM37">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="AN37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO37">
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
         <v>0</v>
       </c>
       <c r="AR37">
-        <v>1.77</v>
+        <v>0.71</v>
       </c>
       <c r="AS37">
-        <v>2.09</v>
+        <v>1.28</v>
       </c>
       <c r="AT37">
-        <v>3.86</v>
+        <v>1.99</v>
       </c>
       <c r="AU37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV37">
+        <v>7</v>
+      </c>
+      <c r="AW37">
+        <v>6</v>
+      </c>
+      <c r="AX37">
         <v>5</v>
       </c>
-      <c r="AW37">
-        <v>2</v>
-      </c>
-      <c r="AX37">
-        <v>4</v>
-      </c>
       <c r="AY37">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AZ37">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA37">
         <v>6</v>
       </c>
       <c r="BB37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC37">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD37">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="BE37">
         <v>8.5</v>
       </c>
       <c r="BF37">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="BG37">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="BH37">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="BI37">
+        <v>1.51</v>
+      </c>
+      <c r="BJ37">
+        <v>2.37</v>
+      </c>
+      <c r="BK37">
+        <v>2</v>
+      </c>
+      <c r="BL37">
+        <v>1.8</v>
+      </c>
+      <c r="BM37">
+        <v>2.47</v>
+      </c>
+      <c r="BN37">
         <v>1.48</v>
       </c>
-      <c r="BJ37">
-        <v>2.47</v>
-      </c>
-      <c r="BK37">
-        <v>1.92</v>
-      </c>
-      <c r="BL37">
-        <v>1.88</v>
-      </c>
-      <c r="BM37">
-        <v>2.37</v>
-      </c>
-      <c r="BN37">
-        <v>1.51</v>
-      </c>
       <c r="BO37">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="BP37">
         <v>1.3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="145">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>['67', '76']</t>
+  </si>
+  <si>
+    <t>['74', '86']</t>
   </si>
   <si>
     <t>['64']</t>
@@ -807,7 +810,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP40"/>
+  <dimension ref="A1:BP41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1066,7 +1069,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1272,7 +1275,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1350,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>1.33</v>
@@ -1478,7 +1481,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1684,7 +1687,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1890,7 +1893,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -1971,7 +1974,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2096,7 +2099,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2302,7 +2305,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2508,7 +2511,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2920,7 +2923,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3126,7 +3129,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3332,7 +3335,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3744,7 +3747,7 @@
         <v>103</v>
       </c>
       <c r="P15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -3950,7 +3953,7 @@
         <v>104</v>
       </c>
       <c r="P16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q16">
         <v>4.5</v>
@@ -4568,7 +4571,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5186,7 +5189,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5598,7 +5601,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6091,7 +6094,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR26">
         <v>0.95</v>
@@ -6216,7 +6219,7 @@
         <v>111</v>
       </c>
       <c r="P27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q27">
         <v>2.3</v>
@@ -6834,7 +6837,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -7246,7 +7249,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7452,7 +7455,7 @@
         <v>115</v>
       </c>
       <c r="P33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q33">
         <v>3.38</v>
@@ -7658,7 +7661,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7864,7 +7867,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q35">
         <v>3.22</v>
@@ -8070,7 +8073,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q36">
         <v>2.9</v>
@@ -8482,7 +8485,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -9051,6 +9054,212 @@
       </c>
       <c r="BP40">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7465050</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45548.66666666666</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>71</v>
+      </c>
+      <c r="H41" t="s">
+        <v>85</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41" t="s">
+        <v>120</v>
+      </c>
+      <c r="P41" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q41">
+        <v>2.38</v>
+      </c>
+      <c r="R41">
+        <v>2.05</v>
+      </c>
+      <c r="S41">
+        <v>6</v>
+      </c>
+      <c r="T41">
+        <v>1.5</v>
+      </c>
+      <c r="U41">
+        <v>2.5</v>
+      </c>
+      <c r="V41">
+        <v>3.4</v>
+      </c>
+      <c r="W41">
+        <v>1.3</v>
+      </c>
+      <c r="X41">
+        <v>10</v>
+      </c>
+      <c r="Y41">
+        <v>1.06</v>
+      </c>
+      <c r="Z41">
+        <v>1.7</v>
+      </c>
+      <c r="AA41">
+        <v>3.6</v>
+      </c>
+      <c r="AB41">
+        <v>5.25</v>
+      </c>
+      <c r="AC41">
+        <v>1.08</v>
+      </c>
+      <c r="AD41">
+        <v>8.5</v>
+      </c>
+      <c r="AE41">
+        <v>1.44</v>
+      </c>
+      <c r="AF41">
+        <v>2.85</v>
+      </c>
+      <c r="AG41">
+        <v>2.06</v>
+      </c>
+      <c r="AH41">
+        <v>1.7</v>
+      </c>
+      <c r="AI41">
+        <v>2.1</v>
+      </c>
+      <c r="AJ41">
+        <v>1.67</v>
+      </c>
+      <c r="AK41">
+        <v>1.16</v>
+      </c>
+      <c r="AL41">
+        <v>1.25</v>
+      </c>
+      <c r="AM41">
+        <v>2.2</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
+        <v>1</v>
+      </c>
+      <c r="AP41">
+        <v>2</v>
+      </c>
+      <c r="AQ41">
+        <v>0.67</v>
+      </c>
+      <c r="AR41">
+        <v>1.59</v>
+      </c>
+      <c r="AS41">
+        <v>0.84</v>
+      </c>
+      <c r="AT41">
+        <v>2.43</v>
+      </c>
+      <c r="AU41">
+        <v>6</v>
+      </c>
+      <c r="AV41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
+        <v>6</v>
+      </c>
+      <c r="AX41">
+        <v>3</v>
+      </c>
+      <c r="AY41">
+        <v>12</v>
+      </c>
+      <c r="AZ41">
+        <v>3</v>
+      </c>
+      <c r="BA41">
+        <v>11</v>
+      </c>
+      <c r="BB41">
+        <v>1</v>
+      </c>
+      <c r="BC41">
+        <v>12</v>
+      </c>
+      <c r="BD41">
+        <v>1.35</v>
+      </c>
+      <c r="BE41">
+        <v>7</v>
+      </c>
+      <c r="BF41">
+        <v>3.55</v>
+      </c>
+      <c r="BG41">
+        <v>1.34</v>
+      </c>
+      <c r="BH41">
+        <v>2.9</v>
+      </c>
+      <c r="BI41">
+        <v>1.58</v>
+      </c>
+      <c r="BJ41">
+        <v>2.18</v>
+      </c>
+      <c r="BK41">
+        <v>1.95</v>
+      </c>
+      <c r="BL41">
+        <v>1.74</v>
+      </c>
+      <c r="BM41">
+        <v>2.48</v>
+      </c>
+      <c r="BN41">
+        <v>1.46</v>
+      </c>
+      <c r="BO41">
+        <v>3.15</v>
+      </c>
+      <c r="BP41">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="150">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -379,6 +379,12 @@
     <t>['74', '86']</t>
   </si>
   <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['21', '56', '63']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -449,6 +455,15 @@
   </si>
   <si>
     <t>['41', '73']</t>
+  </si>
+  <si>
+    <t>['27', '90+4']</t>
+  </si>
+  <si>
+    <t>['35', '68']</t>
+  </si>
+  <si>
+    <t>['58', '75']</t>
   </si>
 </sst>
 </file>
@@ -810,7 +825,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP41"/>
+  <dimension ref="A1:BP45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1069,7 +1084,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1150,7 +1165,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1275,7 +1290,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1481,7 +1496,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1562,7 +1577,7 @@
         <v>3</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1687,7 +1702,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1893,7 +1908,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2099,7 +2114,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2305,7 +2320,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2511,7 +2526,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2589,10 +2604,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2923,7 +2938,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3129,7 +3144,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3335,7 +3350,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3413,10 +3428,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3747,7 +3762,7 @@
         <v>103</v>
       </c>
       <c r="P15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -3953,7 +3968,7 @@
         <v>104</v>
       </c>
       <c r="P16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q16">
         <v>4.5</v>
@@ -4031,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>2</v>
@@ -4571,7 +4586,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5189,7 +5204,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5473,7 +5488,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ23">
         <v>1</v>
@@ -5601,7 +5616,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6219,7 +6234,7 @@
         <v>111</v>
       </c>
       <c r="P27" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q27">
         <v>2.3</v>
@@ -6300,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="AQ27">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.36</v>
@@ -6837,7 +6852,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -6918,7 +6933,7 @@
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR30">
         <v>1.44</v>
@@ -7249,7 +7264,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7455,7 +7470,7 @@
         <v>115</v>
       </c>
       <c r="P33" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q33">
         <v>3.38</v>
@@ -7533,7 +7548,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
         <v>1.33</v>
@@ -7661,7 +7676,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7867,7 +7882,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q35">
         <v>3.22</v>
@@ -7948,7 +7963,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ35">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR35">
         <v>0.87</v>
@@ -8073,7 +8088,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q36">
         <v>2.9</v>
@@ -8485,7 +8500,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -8563,7 +8578,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
         <v>1.33</v>
@@ -9260,6 +9275,830 @@
       </c>
       <c r="BP41">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7465052</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45549.375</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>77</v>
+      </c>
+      <c r="H42" t="s">
+        <v>79</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="O42" t="s">
+        <v>121</v>
+      </c>
+      <c r="P42" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q42">
+        <v>3.2</v>
+      </c>
+      <c r="R42">
+        <v>2.1</v>
+      </c>
+      <c r="S42">
+        <v>3.5</v>
+      </c>
+      <c r="T42">
+        <v>1.44</v>
+      </c>
+      <c r="U42">
+        <v>2.63</v>
+      </c>
+      <c r="V42">
+        <v>3.25</v>
+      </c>
+      <c r="W42">
+        <v>1.33</v>
+      </c>
+      <c r="X42">
+        <v>9</v>
+      </c>
+      <c r="Y42">
+        <v>1.07</v>
+      </c>
+      <c r="Z42">
+        <v>2.45</v>
+      </c>
+      <c r="AA42">
+        <v>3.35</v>
+      </c>
+      <c r="AB42">
+        <v>2.9</v>
+      </c>
+      <c r="AC42">
+        <v>1.07</v>
+      </c>
+      <c r="AD42">
+        <v>10</v>
+      </c>
+      <c r="AE42">
+        <v>1.36</v>
+      </c>
+      <c r="AF42">
+        <v>3.2</v>
+      </c>
+      <c r="AG42">
+        <v>1.86</v>
+      </c>
+      <c r="AH42">
+        <v>1.86</v>
+      </c>
+      <c r="AI42">
+        <v>1.8</v>
+      </c>
+      <c r="AJ42">
+        <v>1.95</v>
+      </c>
+      <c r="AK42">
+        <v>1.45</v>
+      </c>
+      <c r="AL42">
+        <v>1.28</v>
+      </c>
+      <c r="AM42">
+        <v>1.55</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
+        <v>2</v>
+      </c>
+      <c r="AP42">
+        <v>0.67</v>
+      </c>
+      <c r="AQ42">
+        <v>2.33</v>
+      </c>
+      <c r="AR42">
+        <v>1.48</v>
+      </c>
+      <c r="AS42">
+        <v>1.04</v>
+      </c>
+      <c r="AT42">
+        <v>2.52</v>
+      </c>
+      <c r="AU42">
+        <v>5</v>
+      </c>
+      <c r="AV42">
+        <v>5</v>
+      </c>
+      <c r="AW42">
+        <v>3</v>
+      </c>
+      <c r="AX42">
+        <v>9</v>
+      </c>
+      <c r="AY42">
+        <v>8</v>
+      </c>
+      <c r="AZ42">
+        <v>14</v>
+      </c>
+      <c r="BA42">
+        <v>7</v>
+      </c>
+      <c r="BB42">
+        <v>6</v>
+      </c>
+      <c r="BC42">
+        <v>13</v>
+      </c>
+      <c r="BD42">
+        <v>1.58</v>
+      </c>
+      <c r="BE42">
+        <v>6.75</v>
+      </c>
+      <c r="BF42">
+        <v>2.55</v>
+      </c>
+      <c r="BG42">
+        <v>1.25</v>
+      </c>
+      <c r="BH42">
+        <v>3.4</v>
+      </c>
+      <c r="BI42">
+        <v>1.44</v>
+      </c>
+      <c r="BJ42">
+        <v>2.55</v>
+      </c>
+      <c r="BK42">
+        <v>1.73</v>
+      </c>
+      <c r="BL42">
+        <v>1.96</v>
+      </c>
+      <c r="BM42">
+        <v>2.17</v>
+      </c>
+      <c r="BN42">
+        <v>1.6</v>
+      </c>
+      <c r="BO42">
+        <v>2.75</v>
+      </c>
+      <c r="BP42">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7469577</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45549.46875</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>82</v>
+      </c>
+      <c r="H43" t="s">
+        <v>86</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>3</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43">
+        <v>5</v>
+      </c>
+      <c r="O43" t="s">
+        <v>122</v>
+      </c>
+      <c r="P43" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q43">
+        <v>3.5</v>
+      </c>
+      <c r="R43">
+        <v>1.91</v>
+      </c>
+      <c r="S43">
+        <v>3.6</v>
+      </c>
+      <c r="T43">
+        <v>1.57</v>
+      </c>
+      <c r="U43">
+        <v>2.25</v>
+      </c>
+      <c r="V43">
+        <v>3.75</v>
+      </c>
+      <c r="W43">
+        <v>1.25</v>
+      </c>
+      <c r="X43">
+        <v>13</v>
+      </c>
+      <c r="Y43">
+        <v>1.04</v>
+      </c>
+      <c r="Z43">
+        <v>2.7</v>
+      </c>
+      <c r="AA43">
+        <v>3.1</v>
+      </c>
+      <c r="AB43">
+        <v>2.8</v>
+      </c>
+      <c r="AC43">
+        <v>1.06</v>
+      </c>
+      <c r="AD43">
+        <v>6.45</v>
+      </c>
+      <c r="AE43">
+        <v>2.55</v>
+      </c>
+      <c r="AF43">
+        <v>1.5</v>
+      </c>
+      <c r="AG43">
+        <v>2.45</v>
+      </c>
+      <c r="AH43">
+        <v>1.5</v>
+      </c>
+      <c r="AI43">
+        <v>2.1</v>
+      </c>
+      <c r="AJ43">
+        <v>1.67</v>
+      </c>
+      <c r="AK43">
+        <v>1.45</v>
+      </c>
+      <c r="AL43">
+        <v>1.33</v>
+      </c>
+      <c r="AM43">
+        <v>1.48</v>
+      </c>
+      <c r="AN43">
+        <v>1.5</v>
+      </c>
+      <c r="AO43">
+        <v>1.5</v>
+      </c>
+      <c r="AP43">
+        <v>2</v>
+      </c>
+      <c r="AQ43">
+        <v>1</v>
+      </c>
+      <c r="AR43">
+        <v>1.17</v>
+      </c>
+      <c r="AS43">
+        <v>1.31</v>
+      </c>
+      <c r="AT43">
+        <v>2.48</v>
+      </c>
+      <c r="AU43">
+        <v>5</v>
+      </c>
+      <c r="AV43">
+        <v>7</v>
+      </c>
+      <c r="AW43">
+        <v>4</v>
+      </c>
+      <c r="AX43">
+        <v>7</v>
+      </c>
+      <c r="AY43">
+        <v>9</v>
+      </c>
+      <c r="AZ43">
+        <v>14</v>
+      </c>
+      <c r="BA43">
+        <v>0</v>
+      </c>
+      <c r="BB43">
+        <v>4</v>
+      </c>
+      <c r="BC43">
+        <v>4</v>
+      </c>
+      <c r="BD43">
+        <v>1.81</v>
+      </c>
+      <c r="BE43">
+        <v>6.4</v>
+      </c>
+      <c r="BF43">
+        <v>2.18</v>
+      </c>
+      <c r="BG43">
+        <v>1.37</v>
+      </c>
+      <c r="BH43">
+        <v>2.8</v>
+      </c>
+      <c r="BI43">
+        <v>1.63</v>
+      </c>
+      <c r="BJ43">
+        <v>2.1</v>
+      </c>
+      <c r="BK43">
+        <v>2.02</v>
+      </c>
+      <c r="BL43">
+        <v>1.68</v>
+      </c>
+      <c r="BM43">
+        <v>2.55</v>
+      </c>
+      <c r="BN43">
+        <v>1.44</v>
+      </c>
+      <c r="BO43">
+        <v>3.4</v>
+      </c>
+      <c r="BP43">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7465055</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45549.5625</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>80</v>
+      </c>
+      <c r="H44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44" t="s">
+        <v>98</v>
+      </c>
+      <c r="P44" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q44">
+        <v>3.1</v>
+      </c>
+      <c r="R44">
+        <v>1.91</v>
+      </c>
+      <c r="S44">
+        <v>4.33</v>
+      </c>
+      <c r="T44">
+        <v>1.57</v>
+      </c>
+      <c r="U44">
+        <v>2.25</v>
+      </c>
+      <c r="V44">
+        <v>3.75</v>
+      </c>
+      <c r="W44">
+        <v>1.25</v>
+      </c>
+      <c r="X44">
+        <v>13</v>
+      </c>
+      <c r="Y44">
+        <v>1.04</v>
+      </c>
+      <c r="Z44">
+        <v>2.3</v>
+      </c>
+      <c r="AA44">
+        <v>3.05</v>
+      </c>
+      <c r="AB44">
+        <v>3.55</v>
+      </c>
+      <c r="AC44">
+        <v>1.11</v>
+      </c>
+      <c r="AD44">
+        <v>7</v>
+      </c>
+      <c r="AE44">
+        <v>1.5</v>
+      </c>
+      <c r="AF44">
+        <v>2.45</v>
+      </c>
+      <c r="AG44">
+        <v>2.15</v>
+      </c>
+      <c r="AH44">
+        <v>1.65</v>
+      </c>
+      <c r="AI44">
+        <v>2.1</v>
+      </c>
+      <c r="AJ44">
+        <v>1.67</v>
+      </c>
+      <c r="AK44">
+        <v>1.3</v>
+      </c>
+      <c r="AL44">
+        <v>1.32</v>
+      </c>
+      <c r="AM44">
+        <v>1.68</v>
+      </c>
+      <c r="AN44">
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <v>1</v>
+      </c>
+      <c r="AP44">
+        <v>1</v>
+      </c>
+      <c r="AQ44">
+        <v>0.5</v>
+      </c>
+      <c r="AR44">
+        <v>1.7</v>
+      </c>
+      <c r="AS44">
+        <v>0.87</v>
+      </c>
+      <c r="AT44">
+        <v>2.57</v>
+      </c>
+      <c r="AU44">
+        <v>5</v>
+      </c>
+      <c r="AV44">
+        <v>5</v>
+      </c>
+      <c r="AW44">
+        <v>4</v>
+      </c>
+      <c r="AX44">
+        <v>6</v>
+      </c>
+      <c r="AY44">
+        <v>9</v>
+      </c>
+      <c r="AZ44">
+        <v>11</v>
+      </c>
+      <c r="BA44">
+        <v>3</v>
+      </c>
+      <c r="BB44">
+        <v>4</v>
+      </c>
+      <c r="BC44">
+        <v>7</v>
+      </c>
+      <c r="BD44">
+        <v>1.61</v>
+      </c>
+      <c r="BE44">
+        <v>6.4</v>
+      </c>
+      <c r="BF44">
+        <v>2.6</v>
+      </c>
+      <c r="BG44">
+        <v>1.44</v>
+      </c>
+      <c r="BH44">
+        <v>2.55</v>
+      </c>
+      <c r="BI44">
+        <v>1.72</v>
+      </c>
+      <c r="BJ44">
+        <v>1.98</v>
+      </c>
+      <c r="BK44">
+        <v>2.17</v>
+      </c>
+      <c r="BL44">
+        <v>1.6</v>
+      </c>
+      <c r="BM44">
+        <v>2.8</v>
+      </c>
+      <c r="BN44">
+        <v>1.36</v>
+      </c>
+      <c r="BO44">
+        <v>3.8</v>
+      </c>
+      <c r="BP44">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7465057</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45549.66666666666</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" t="s">
+        <v>84</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45" t="s">
+        <v>104</v>
+      </c>
+      <c r="P45" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q45">
+        <v>5</v>
+      </c>
+      <c r="R45">
+        <v>2.2</v>
+      </c>
+      <c r="S45">
+        <v>2.38</v>
+      </c>
+      <c r="T45">
+        <v>1.4</v>
+      </c>
+      <c r="U45">
+        <v>2.75</v>
+      </c>
+      <c r="V45">
+        <v>2.75</v>
+      </c>
+      <c r="W45">
+        <v>1.4</v>
+      </c>
+      <c r="X45">
+        <v>8</v>
+      </c>
+      <c r="Y45">
+        <v>1.08</v>
+      </c>
+      <c r="Z45">
+        <v>4</v>
+      </c>
+      <c r="AA45">
+        <v>3.6</v>
+      </c>
+      <c r="AB45">
+        <v>1.88</v>
+      </c>
+      <c r="AC45">
+        <v>1.05</v>
+      </c>
+      <c r="AD45">
+        <v>12</v>
+      </c>
+      <c r="AE45">
+        <v>1.3</v>
+      </c>
+      <c r="AF45">
+        <v>3.6</v>
+      </c>
+      <c r="AG45">
+        <v>2.01</v>
+      </c>
+      <c r="AH45">
+        <v>1.89</v>
+      </c>
+      <c r="AI45">
+        <v>1.91</v>
+      </c>
+      <c r="AJ45">
+        <v>1.91</v>
+      </c>
+      <c r="AK45">
+        <v>2.15</v>
+      </c>
+      <c r="AL45">
+        <v>1.22</v>
+      </c>
+      <c r="AM45">
+        <v>1.2</v>
+      </c>
+      <c r="AN45">
+        <v>0</v>
+      </c>
+      <c r="AO45">
+        <v>1</v>
+      </c>
+      <c r="AP45">
+        <v>0</v>
+      </c>
+      <c r="AQ45">
+        <v>1.67</v>
+      </c>
+      <c r="AR45">
+        <v>1.14</v>
+      </c>
+      <c r="AS45">
+        <v>1.98</v>
+      </c>
+      <c r="AT45">
+        <v>3.12</v>
+      </c>
+      <c r="AU45">
+        <v>3</v>
+      </c>
+      <c r="AV45">
+        <v>7</v>
+      </c>
+      <c r="AW45">
+        <v>5</v>
+      </c>
+      <c r="AX45">
+        <v>2</v>
+      </c>
+      <c r="AY45">
+        <v>8</v>
+      </c>
+      <c r="AZ45">
+        <v>9</v>
+      </c>
+      <c r="BA45">
+        <v>6</v>
+      </c>
+      <c r="BB45">
+        <v>6</v>
+      </c>
+      <c r="BC45">
+        <v>12</v>
+      </c>
+      <c r="BD45">
+        <v>2.9</v>
+      </c>
+      <c r="BE45">
+        <v>6.75</v>
+      </c>
+      <c r="BF45">
+        <v>1.49</v>
+      </c>
+      <c r="BG45">
+        <v>1.28</v>
+      </c>
+      <c r="BH45">
+        <v>3.2</v>
+      </c>
+      <c r="BI45">
+        <v>1.49</v>
+      </c>
+      <c r="BJ45">
+        <v>2.4</v>
+      </c>
+      <c r="BK45">
+        <v>1.8</v>
+      </c>
+      <c r="BL45">
+        <v>1.88</v>
+      </c>
+      <c r="BM45">
+        <v>2.23</v>
+      </c>
+      <c r="BN45">
+        <v>1.56</v>
+      </c>
+      <c r="BO45">
+        <v>2.9</v>
+      </c>
+      <c r="BP45">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="157">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -382,7 +382,22 @@
     <t>['57']</t>
   </si>
   <si>
-    <t>['21', '56', '63']</t>
+    <t>['22', '56', '63']</t>
+  </si>
+  <si>
+    <t>['22', '35', '90+1']</t>
+  </si>
+  <si>
+    <t>['80']</t>
+  </si>
+  <si>
+    <t>['58', '83']</t>
+  </si>
+  <si>
+    <t>['39', '54', '90+4']</t>
+  </si>
+  <si>
+    <t>['50', '66', '90+5']</t>
   </si>
   <si>
     <t>['64']</t>
@@ -421,9 +436,6 @@
     <t>['42']</t>
   </si>
   <si>
-    <t>['80']</t>
-  </si>
-  <si>
     <t>['90+3']</t>
   </si>
   <si>
@@ -464,6 +476,15 @@
   </si>
   <si>
     <t>['58', '75']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['30', '37', '47', '64']</t>
+  </si>
+  <si>
+    <t>['7', '30', '76']</t>
   </si>
 </sst>
 </file>
@@ -825,7 +846,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP45"/>
+  <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1084,7 +1105,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1290,7 +1311,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1496,7 +1517,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1702,7 +1723,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1780,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -1908,7 +1929,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2114,7 +2135,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2320,7 +2341,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2526,7 +2547,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2938,7 +2959,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3144,7 +3165,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3350,7 +3371,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3762,7 +3783,7 @@
         <v>103</v>
       </c>
       <c r="P15" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -3843,7 +3864,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3968,7 +3989,7 @@
         <v>104</v>
       </c>
       <c r="P16" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="Q16">
         <v>4.5</v>
@@ -4586,7 +4607,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5076,7 +5097,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ21">
         <v>1.33</v>
@@ -5204,7 +5225,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5616,7 +5637,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -5694,7 +5715,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24">
         <v>3</v>
@@ -6234,7 +6255,7 @@
         <v>111</v>
       </c>
       <c r="P27" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q27">
         <v>2.3</v>
@@ -6518,7 +6539,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ28">
         <v>0.5</v>
@@ -6724,7 +6745,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ29">
         <v>0</v>
@@ -6852,7 +6873,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -6930,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ30">
         <v>1.67</v>
@@ -7264,7 +7285,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7470,7 +7491,7 @@
         <v>115</v>
       </c>
       <c r="P33" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q33">
         <v>3.38</v>
@@ -7676,7 +7697,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7882,7 +7903,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q35">
         <v>3.22</v>
@@ -8088,7 +8109,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q36">
         <v>2.9</v>
@@ -8500,7 +8521,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -9324,7 +9345,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9530,7 +9551,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -9942,7 +9963,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10099,6 +10120,1036 @@
       </c>
       <c r="BP45">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7465051</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45550.375</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>72</v>
+      </c>
+      <c r="H46" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="O46" t="s">
+        <v>123</v>
+      </c>
+      <c r="P46" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q46">
+        <v>2.25</v>
+      </c>
+      <c r="R46">
+        <v>2.3</v>
+      </c>
+      <c r="S46">
+        <v>5</v>
+      </c>
+      <c r="T46">
+        <v>1.36</v>
+      </c>
+      <c r="U46">
+        <v>3</v>
+      </c>
+      <c r="V46">
+        <v>2.63</v>
+      </c>
+      <c r="W46">
+        <v>1.44</v>
+      </c>
+      <c r="X46">
+        <v>7</v>
+      </c>
+      <c r="Y46">
+        <v>1.1</v>
+      </c>
+      <c r="Z46">
+        <v>1.7</v>
+      </c>
+      <c r="AA46">
+        <v>3.8</v>
+      </c>
+      <c r="AB46">
+        <v>5</v>
+      </c>
+      <c r="AC46">
+        <v>1.01</v>
+      </c>
+      <c r="AD46">
+        <v>9.9</v>
+      </c>
+      <c r="AE46">
+        <v>1.24</v>
+      </c>
+      <c r="AF46">
+        <v>3.64</v>
+      </c>
+      <c r="AG46">
+        <v>1.97</v>
+      </c>
+      <c r="AH46">
+        <v>1.93</v>
+      </c>
+      <c r="AI46">
+        <v>1.8</v>
+      </c>
+      <c r="AJ46">
+        <v>1.95</v>
+      </c>
+      <c r="AK46">
+        <v>1.15</v>
+      </c>
+      <c r="AL46">
+        <v>1.25</v>
+      </c>
+      <c r="AM46">
+        <v>2.2</v>
+      </c>
+      <c r="AN46">
+        <v>3</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>3</v>
+      </c>
+      <c r="AQ46">
+        <v>0</v>
+      </c>
+      <c r="AR46">
+        <v>1.11</v>
+      </c>
+      <c r="AS46">
+        <v>0.71</v>
+      </c>
+      <c r="AT46">
+        <v>1.82</v>
+      </c>
+      <c r="AU46">
+        <v>10</v>
+      </c>
+      <c r="AV46">
+        <v>3</v>
+      </c>
+      <c r="AW46">
+        <v>1</v>
+      </c>
+      <c r="AX46">
+        <v>2</v>
+      </c>
+      <c r="AY46">
+        <v>11</v>
+      </c>
+      <c r="AZ46">
+        <v>5</v>
+      </c>
+      <c r="BA46">
+        <v>5</v>
+      </c>
+      <c r="BB46">
+        <v>3</v>
+      </c>
+      <c r="BC46">
+        <v>8</v>
+      </c>
+      <c r="BD46">
+        <v>1.59</v>
+      </c>
+      <c r="BE46">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF46">
+        <v>2.9</v>
+      </c>
+      <c r="BG46">
+        <v>1.28</v>
+      </c>
+      <c r="BH46">
+        <v>3.2</v>
+      </c>
+      <c r="BI46">
+        <v>1.55</v>
+      </c>
+      <c r="BJ46">
+        <v>2.32</v>
+      </c>
+      <c r="BK46">
+        <v>1.95</v>
+      </c>
+      <c r="BL46">
+        <v>1.81</v>
+      </c>
+      <c r="BM46">
+        <v>2.53</v>
+      </c>
+      <c r="BN46">
+        <v>1.47</v>
+      </c>
+      <c r="BO46">
+        <v>3.42</v>
+      </c>
+      <c r="BP46">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7465054</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45550.46875</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>89</v>
+      </c>
+      <c r="H47" t="s">
+        <v>81</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>4</v>
+      </c>
+      <c r="N47">
+        <v>5</v>
+      </c>
+      <c r="O47" t="s">
+        <v>124</v>
+      </c>
+      <c r="P47" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q47">
+        <v>4</v>
+      </c>
+      <c r="R47">
+        <v>2.5</v>
+      </c>
+      <c r="S47">
+        <v>2.38</v>
+      </c>
+      <c r="T47">
+        <v>1.25</v>
+      </c>
+      <c r="U47">
+        <v>3.75</v>
+      </c>
+      <c r="V47">
+        <v>2.25</v>
+      </c>
+      <c r="W47">
+        <v>1.57</v>
+      </c>
+      <c r="X47">
+        <v>5.5</v>
+      </c>
+      <c r="Y47">
+        <v>1.14</v>
+      </c>
+      <c r="Z47">
+        <v>3.5</v>
+      </c>
+      <c r="AA47">
+        <v>3.8</v>
+      </c>
+      <c r="AB47">
+        <v>1.95</v>
+      </c>
+      <c r="AC47">
+        <v>1.02</v>
+      </c>
+      <c r="AD47">
+        <v>21</v>
+      </c>
+      <c r="AE47">
+        <v>1.12</v>
+      </c>
+      <c r="AF47">
+        <v>4.9</v>
+      </c>
+      <c r="AG47">
+        <v>1.62</v>
+      </c>
+      <c r="AH47">
+        <v>2.18</v>
+      </c>
+      <c r="AI47">
+        <v>1.5</v>
+      </c>
+      <c r="AJ47">
+        <v>2.5</v>
+      </c>
+      <c r="AK47">
+        <v>2.01</v>
+      </c>
+      <c r="AL47">
+        <v>1.19</v>
+      </c>
+      <c r="AM47">
+        <v>1.19</v>
+      </c>
+      <c r="AN47">
+        <v>3</v>
+      </c>
+      <c r="AO47">
+        <v>3</v>
+      </c>
+      <c r="AP47">
+        <v>1.5</v>
+      </c>
+      <c r="AQ47">
+        <v>3</v>
+      </c>
+      <c r="AR47">
+        <v>1.41</v>
+      </c>
+      <c r="AS47">
+        <v>1.63</v>
+      </c>
+      <c r="AT47">
+        <v>3.04</v>
+      </c>
+      <c r="AU47">
+        <v>6</v>
+      </c>
+      <c r="AV47">
+        <v>10</v>
+      </c>
+      <c r="AW47">
+        <v>3</v>
+      </c>
+      <c r="AX47">
+        <v>9</v>
+      </c>
+      <c r="AY47">
+        <v>9</v>
+      </c>
+      <c r="AZ47">
+        <v>19</v>
+      </c>
+      <c r="BA47">
+        <v>1</v>
+      </c>
+      <c r="BB47">
+        <v>6</v>
+      </c>
+      <c r="BC47">
+        <v>7</v>
+      </c>
+      <c r="BD47">
+        <v>2.55</v>
+      </c>
+      <c r="BE47">
+        <v>6.4</v>
+      </c>
+      <c r="BF47">
+        <v>1.61</v>
+      </c>
+      <c r="BG47">
+        <v>1.33</v>
+      </c>
+      <c r="BH47">
+        <v>2.91</v>
+      </c>
+      <c r="BI47">
+        <v>1.64</v>
+      </c>
+      <c r="BJ47">
+        <v>2.15</v>
+      </c>
+      <c r="BK47">
+        <v>2.12</v>
+      </c>
+      <c r="BL47">
+        <v>1.69</v>
+      </c>
+      <c r="BM47">
+        <v>2.81</v>
+      </c>
+      <c r="BN47">
+        <v>1.39</v>
+      </c>
+      <c r="BO47">
+        <v>3.84</v>
+      </c>
+      <c r="BP47">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7465053</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45550.5625</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>73</v>
+      </c>
+      <c r="H48" t="s">
+        <v>70</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48">
+        <v>5</v>
+      </c>
+      <c r="O48" t="s">
+        <v>125</v>
+      </c>
+      <c r="P48" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q48">
+        <v>4.33</v>
+      </c>
+      <c r="R48">
+        <v>2.1</v>
+      </c>
+      <c r="S48">
+        <v>2.63</v>
+      </c>
+      <c r="T48">
+        <v>1.44</v>
+      </c>
+      <c r="U48">
+        <v>2.63</v>
+      </c>
+      <c r="V48">
+        <v>3.25</v>
+      </c>
+      <c r="W48">
+        <v>1.33</v>
+      </c>
+      <c r="X48">
+        <v>9</v>
+      </c>
+      <c r="Y48">
+        <v>1.07</v>
+      </c>
+      <c r="Z48">
+        <v>3.5</v>
+      </c>
+      <c r="AA48">
+        <v>3.35</v>
+      </c>
+      <c r="AB48">
+        <v>2.15</v>
+      </c>
+      <c r="AC48">
+        <v>1.03</v>
+      </c>
+      <c r="AD48">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE48">
+        <v>1.36</v>
+      </c>
+      <c r="AF48">
+        <v>3</v>
+      </c>
+      <c r="AG48">
+        <v>2.06</v>
+      </c>
+      <c r="AH48">
+        <v>1.7</v>
+      </c>
+      <c r="AI48">
+        <v>1.91</v>
+      </c>
+      <c r="AJ48">
+        <v>1.91</v>
+      </c>
+      <c r="AK48">
+        <v>1.78</v>
+      </c>
+      <c r="AL48">
+        <v>1.26</v>
+      </c>
+      <c r="AM48">
+        <v>1.22</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>0.67</v>
+      </c>
+      <c r="AQ48">
+        <v>1.5</v>
+      </c>
+      <c r="AR48">
+        <v>1.22</v>
+      </c>
+      <c r="AS48">
+        <v>0.89</v>
+      </c>
+      <c r="AT48">
+        <v>2.11</v>
+      </c>
+      <c r="AU48">
+        <v>7</v>
+      </c>
+      <c r="AV48">
+        <v>5</v>
+      </c>
+      <c r="AW48">
+        <v>4</v>
+      </c>
+      <c r="AX48">
+        <v>5</v>
+      </c>
+      <c r="AY48">
+        <v>11</v>
+      </c>
+      <c r="AZ48">
+        <v>10</v>
+      </c>
+      <c r="BA48">
+        <v>9</v>
+      </c>
+      <c r="BB48">
+        <v>3</v>
+      </c>
+      <c r="BC48">
+        <v>12</v>
+      </c>
+      <c r="BD48">
+        <v>2.3</v>
+      </c>
+      <c r="BE48">
+        <v>6.5</v>
+      </c>
+      <c r="BF48">
+        <v>1.74</v>
+      </c>
+      <c r="BG48">
+        <v>1.25</v>
+      </c>
+      <c r="BH48">
+        <v>3.42</v>
+      </c>
+      <c r="BI48">
+        <v>1.49</v>
+      </c>
+      <c r="BJ48">
+        <v>2.47</v>
+      </c>
+      <c r="BK48">
+        <v>1.87</v>
+      </c>
+      <c r="BL48">
+        <v>1.89</v>
+      </c>
+      <c r="BM48">
+        <v>2.39</v>
+      </c>
+      <c r="BN48">
+        <v>1.52</v>
+      </c>
+      <c r="BO48">
+        <v>3.2</v>
+      </c>
+      <c r="BP48">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7465049</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45550.66666666666</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>87</v>
+      </c>
+      <c r="H49" t="s">
+        <v>75</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>3</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>3</v>
+      </c>
+      <c r="O49" t="s">
+        <v>126</v>
+      </c>
+      <c r="P49" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q49">
+        <v>1.83</v>
+      </c>
+      <c r="R49">
+        <v>2.38</v>
+      </c>
+      <c r="S49">
+        <v>8.5</v>
+      </c>
+      <c r="T49">
+        <v>1.36</v>
+      </c>
+      <c r="U49">
+        <v>3</v>
+      </c>
+      <c r="V49">
+        <v>2.75</v>
+      </c>
+      <c r="W49">
+        <v>1.4</v>
+      </c>
+      <c r="X49">
+        <v>7</v>
+      </c>
+      <c r="Y49">
+        <v>1.1</v>
+      </c>
+      <c r="Z49">
+        <v>1.35</v>
+      </c>
+      <c r="AA49">
+        <v>4.9</v>
+      </c>
+      <c r="AB49">
+        <v>9.5</v>
+      </c>
+      <c r="AC49">
+        <v>1.04</v>
+      </c>
+      <c r="AD49">
+        <v>12</v>
+      </c>
+      <c r="AE49">
+        <v>1.3</v>
+      </c>
+      <c r="AF49">
+        <v>3.6</v>
+      </c>
+      <c r="AG49">
+        <v>1.95</v>
+      </c>
+      <c r="AH49">
+        <v>1.95</v>
+      </c>
+      <c r="AI49">
+        <v>2.25</v>
+      </c>
+      <c r="AJ49">
+        <v>1.57</v>
+      </c>
+      <c r="AK49">
+        <v>1.02</v>
+      </c>
+      <c r="AL49">
+        <v>1.15</v>
+      </c>
+      <c r="AM49">
+        <v>3.1</v>
+      </c>
+      <c r="AN49">
+        <v>2</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>2.33</v>
+      </c>
+      <c r="AQ49">
+        <v>0</v>
+      </c>
+      <c r="AR49">
+        <v>1.74</v>
+      </c>
+      <c r="AS49">
+        <v>0.95</v>
+      </c>
+      <c r="AT49">
+        <v>2.69</v>
+      </c>
+      <c r="AU49">
+        <v>5</v>
+      </c>
+      <c r="AV49">
+        <v>2</v>
+      </c>
+      <c r="AW49">
+        <v>9</v>
+      </c>
+      <c r="AX49">
+        <v>3</v>
+      </c>
+      <c r="AY49">
+        <v>14</v>
+      </c>
+      <c r="AZ49">
+        <v>5</v>
+      </c>
+      <c r="BA49">
+        <v>7</v>
+      </c>
+      <c r="BB49">
+        <v>3</v>
+      </c>
+      <c r="BC49">
+        <v>10</v>
+      </c>
+      <c r="BD49">
+        <v>1.32</v>
+      </c>
+      <c r="BE49">
+        <v>7</v>
+      </c>
+      <c r="BF49">
+        <v>3.7</v>
+      </c>
+      <c r="BG49">
+        <v>1.31</v>
+      </c>
+      <c r="BH49">
+        <v>3.04</v>
+      </c>
+      <c r="BI49">
+        <v>1.59</v>
+      </c>
+      <c r="BJ49">
+        <v>2.24</v>
+      </c>
+      <c r="BK49">
+        <v>2.02</v>
+      </c>
+      <c r="BL49">
+        <v>1.76</v>
+      </c>
+      <c r="BM49">
+        <v>2.66</v>
+      </c>
+      <c r="BN49">
+        <v>1.43</v>
+      </c>
+      <c r="BO49">
+        <v>3.56</v>
+      </c>
+      <c r="BP49">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7465056</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45551.66666666666</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>88</v>
+      </c>
+      <c r="H50" t="s">
+        <v>74</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>4</v>
+      </c>
+      <c r="O50" t="s">
+        <v>127</v>
+      </c>
+      <c r="P50" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q50">
+        <v>2.88</v>
+      </c>
+      <c r="R50">
+        <v>1.95</v>
+      </c>
+      <c r="S50">
+        <v>4.5</v>
+      </c>
+      <c r="T50">
+        <v>1.57</v>
+      </c>
+      <c r="U50">
+        <v>2.25</v>
+      </c>
+      <c r="V50">
+        <v>3.75</v>
+      </c>
+      <c r="W50">
+        <v>1.25</v>
+      </c>
+      <c r="X50">
+        <v>11</v>
+      </c>
+      <c r="Y50">
+        <v>1.05</v>
+      </c>
+      <c r="Z50">
+        <v>2.15</v>
+      </c>
+      <c r="AA50">
+        <v>3.15</v>
+      </c>
+      <c r="AB50">
+        <v>3.8</v>
+      </c>
+      <c r="AC50">
+        <v>1.11</v>
+      </c>
+      <c r="AD50">
+        <v>7.25</v>
+      </c>
+      <c r="AE50">
+        <v>1.5</v>
+      </c>
+      <c r="AF50">
+        <v>2.45</v>
+      </c>
+      <c r="AG50">
+        <v>2.28</v>
+      </c>
+      <c r="AH50">
+        <v>1.58</v>
+      </c>
+      <c r="AI50">
+        <v>2.1</v>
+      </c>
+      <c r="AJ50">
+        <v>1.67</v>
+      </c>
+      <c r="AK50">
+        <v>1.28</v>
+      </c>
+      <c r="AL50">
+        <v>1.37</v>
+      </c>
+      <c r="AM50">
+        <v>1.76</v>
+      </c>
+      <c r="AN50">
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>1.5</v>
+      </c>
+      <c r="AQ50">
+        <v>0</v>
+      </c>
+      <c r="AR50">
+        <v>1.14</v>
+      </c>
+      <c r="AS50">
+        <v>0.26</v>
+      </c>
+      <c r="AT50">
+        <v>1.4</v>
+      </c>
+      <c r="AU50">
+        <v>7</v>
+      </c>
+      <c r="AV50">
+        <v>3</v>
+      </c>
+      <c r="AW50">
+        <v>8</v>
+      </c>
+      <c r="AX50">
+        <v>3</v>
+      </c>
+      <c r="AY50">
+        <v>15</v>
+      </c>
+      <c r="AZ50">
+        <v>6</v>
+      </c>
+      <c r="BA50">
+        <v>7</v>
+      </c>
+      <c r="BB50">
+        <v>4</v>
+      </c>
+      <c r="BC50">
+        <v>11</v>
+      </c>
+      <c r="BD50">
+        <v>1.63</v>
+      </c>
+      <c r="BE50">
+        <v>8.4</v>
+      </c>
+      <c r="BF50">
+        <v>2.82</v>
+      </c>
+      <c r="BG50">
+        <v>1.42</v>
+      </c>
+      <c r="BH50">
+        <v>2.62</v>
+      </c>
+      <c r="BI50">
+        <v>1.76</v>
+      </c>
+      <c r="BJ50">
+        <v>2.04</v>
+      </c>
+      <c r="BK50">
+        <v>2.23</v>
+      </c>
+      <c r="BL50">
+        <v>1.63</v>
+      </c>
+      <c r="BM50">
+        <v>2.8</v>
+      </c>
+      <c r="BN50">
+        <v>1.38</v>
+      </c>
+      <c r="BO50">
+        <v>3.6</v>
+      </c>
+      <c r="BP50">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="158">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -398,6 +398,9 @@
   </si>
   <si>
     <t>['50', '66', '90+5']</t>
+  </si>
+  <si>
+    <t>['36']</t>
   </si>
   <si>
     <t>['64']</t>
@@ -846,7 +849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP50"/>
+  <dimension ref="A1:BP51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1105,7 +1108,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1311,7 +1314,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1517,7 +1520,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1723,7 +1726,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1929,7 +1932,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2135,7 +2138,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2341,7 +2344,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2547,7 +2550,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2625,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ9">
         <v>1.67</v>
@@ -2959,7 +2962,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3165,7 +3168,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3371,7 +3374,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3783,7 +3786,7 @@
         <v>103</v>
       </c>
       <c r="P15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4070,7 +4073,7 @@
         <v>2</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4607,7 +4610,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5225,7 +5228,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5509,7 +5512,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ23">
         <v>1</v>
@@ -5637,7 +5640,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6255,7 +6258,7 @@
         <v>111</v>
       </c>
       <c r="P27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q27">
         <v>2.3</v>
@@ -6873,7 +6876,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -7285,7 +7288,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7491,7 +7494,7 @@
         <v>115</v>
       </c>
       <c r="P33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q33">
         <v>3.38</v>
@@ -7697,7 +7700,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7903,7 +7906,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q35">
         <v>3.22</v>
@@ -8109,7 +8112,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q36">
         <v>2.9</v>
@@ -8521,7 +8524,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -8808,7 +8811,7 @@
         <v>1</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR39">
         <v>1.12</v>
@@ -9345,7 +9348,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9423,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ42">
         <v>2.33</v>
@@ -9551,7 +9554,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -9963,7 +9966,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10169,7 +10172,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q46">
         <v>2.25</v>
@@ -10375,7 +10378,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10581,7 +10584,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11150,6 +11153,212 @@
       </c>
       <c r="BP50">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7465069</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45552.58333333334</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>77</v>
+      </c>
+      <c r="H51" t="s">
+        <v>76</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51" t="s">
+        <v>128</v>
+      </c>
+      <c r="P51" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q51">
+        <v>3.75</v>
+      </c>
+      <c r="R51">
+        <v>1.8</v>
+      </c>
+      <c r="S51">
+        <v>3.75</v>
+      </c>
+      <c r="T51">
+        <v>1.67</v>
+      </c>
+      <c r="U51">
+        <v>2.1</v>
+      </c>
+      <c r="V51">
+        <v>4.33</v>
+      </c>
+      <c r="W51">
+        <v>1.2</v>
+      </c>
+      <c r="X51">
+        <v>15</v>
+      </c>
+      <c r="Y51">
+        <v>1.03</v>
+      </c>
+      <c r="Z51">
+        <v>3.05</v>
+      </c>
+      <c r="AA51">
+        <v>3.07</v>
+      </c>
+      <c r="AB51">
+        <v>2.77</v>
+      </c>
+      <c r="AC51">
+        <v>1.13</v>
+      </c>
+      <c r="AD51">
+        <v>5.5</v>
+      </c>
+      <c r="AE51">
+        <v>1.67</v>
+      </c>
+      <c r="AF51">
+        <v>2.1</v>
+      </c>
+      <c r="AG51">
+        <v>3.1</v>
+      </c>
+      <c r="AH51">
+        <v>1.36</v>
+      </c>
+      <c r="AI51">
+        <v>2.38</v>
+      </c>
+      <c r="AJ51">
+        <v>1.53</v>
+      </c>
+      <c r="AK51">
+        <v>1.44</v>
+      </c>
+      <c r="AL51">
+        <v>1.44</v>
+      </c>
+      <c r="AM51">
+        <v>1.4</v>
+      </c>
+      <c r="AN51">
+        <v>0.67</v>
+      </c>
+      <c r="AO51">
+        <v>2</v>
+      </c>
+      <c r="AP51">
+        <v>1.25</v>
+      </c>
+      <c r="AQ51">
+        <v>1.33</v>
+      </c>
+      <c r="AR51">
+        <v>1.4</v>
+      </c>
+      <c r="AS51">
+        <v>0.61</v>
+      </c>
+      <c r="AT51">
+        <v>2.01</v>
+      </c>
+      <c r="AU51">
+        <v>5</v>
+      </c>
+      <c r="AV51">
+        <v>6</v>
+      </c>
+      <c r="AW51">
+        <v>5</v>
+      </c>
+      <c r="AX51">
+        <v>6</v>
+      </c>
+      <c r="AY51">
+        <v>10</v>
+      </c>
+      <c r="AZ51">
+        <v>12</v>
+      </c>
+      <c r="BA51">
+        <v>5</v>
+      </c>
+      <c r="BB51">
+        <v>5</v>
+      </c>
+      <c r="BC51">
+        <v>10</v>
+      </c>
+      <c r="BD51">
+        <v>1.9</v>
+      </c>
+      <c r="BE51">
+        <v>6.25</v>
+      </c>
+      <c r="BF51">
+        <v>2.12</v>
+      </c>
+      <c r="BG51">
+        <v>1.47</v>
+      </c>
+      <c r="BH51">
+        <v>2.48</v>
+      </c>
+      <c r="BI51">
+        <v>1.77</v>
+      </c>
+      <c r="BJ51">
+        <v>1.91</v>
+      </c>
+      <c r="BK51">
+        <v>2.23</v>
+      </c>
+      <c r="BL51">
+        <v>1.56</v>
+      </c>
+      <c r="BM51">
+        <v>2.9</v>
+      </c>
+      <c r="BN51">
+        <v>1.34</v>
+      </c>
+      <c r="BO51">
+        <v>3.9</v>
+      </c>
+      <c r="BP51">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="160">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -403,6 +403,9 @@
     <t>['36']</t>
   </si>
   <si>
+    <t>['61', '74']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -488,6 +491,9 @@
   </si>
   <si>
     <t>['7', '30', '76']</t>
+  </si>
+  <si>
+    <t>['65', '75']</t>
   </si>
 </sst>
 </file>
@@ -849,7 +855,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP51"/>
+  <dimension ref="A1:BP53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1108,7 +1114,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1189,7 +1195,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ2">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1314,7 +1320,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1392,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ3">
         <v>1.33</v>
@@ -1520,7 +1526,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1726,7 +1732,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1932,7 +1938,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2138,7 +2144,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2344,7 +2350,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2550,7 +2556,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2962,7 +2968,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3168,7 +3174,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3374,7 +3380,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3786,7 +3792,7 @@
         <v>103</v>
       </c>
       <c r="P15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -3867,7 +3873,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4610,7 +4616,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -4688,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -5228,7 +5234,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5640,7 +5646,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6258,7 +6264,7 @@
         <v>111</v>
       </c>
       <c r="P27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q27">
         <v>2.3</v>
@@ -6876,7 +6882,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -7288,7 +7294,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7494,7 +7500,7 @@
         <v>115</v>
       </c>
       <c r="P33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q33">
         <v>3.38</v>
@@ -7700,7 +7706,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7778,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
         <v>1.5</v>
@@ -7906,7 +7912,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q35">
         <v>3.22</v>
@@ -8112,7 +8118,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q36">
         <v>2.9</v>
@@ -8524,7 +8530,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -9220,7 +9226,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ41">
         <v>0.67</v>
@@ -9348,7 +9354,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9554,7 +9560,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -9841,7 +9847,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR44">
         <v>1.7</v>
@@ -9966,7 +9972,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10172,7 +10178,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q46">
         <v>2.25</v>
@@ -10378,7 +10384,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10584,7 +10590,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -10665,7 +10671,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ48">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR48">
         <v>1.22</v>
@@ -11359,6 +11365,418 @@
       </c>
       <c r="BP51">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7465032</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45553.58333333334</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52" t="s">
+        <v>71</v>
+      </c>
+      <c r="H52" t="s">
+        <v>83</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52" t="s">
+        <v>129</v>
+      </c>
+      <c r="P52" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q52">
+        <v>2.88</v>
+      </c>
+      <c r="R52">
+        <v>1.91</v>
+      </c>
+      <c r="S52">
+        <v>5</v>
+      </c>
+      <c r="T52">
+        <v>1.62</v>
+      </c>
+      <c r="U52">
+        <v>2.2</v>
+      </c>
+      <c r="V52">
+        <v>4</v>
+      </c>
+      <c r="W52">
+        <v>1.22</v>
+      </c>
+      <c r="X52">
+        <v>13</v>
+      </c>
+      <c r="Y52">
+        <v>1.04</v>
+      </c>
+      <c r="Z52">
+        <v>1.95</v>
+      </c>
+      <c r="AA52">
+        <v>3</v>
+      </c>
+      <c r="AB52">
+        <v>4.5</v>
+      </c>
+      <c r="AC52">
+        <v>1.13</v>
+      </c>
+      <c r="AD52">
+        <v>6.3</v>
+      </c>
+      <c r="AE52">
+        <v>1.58</v>
+      </c>
+      <c r="AF52">
+        <v>2.39</v>
+      </c>
+      <c r="AG52">
+        <v>2.45</v>
+      </c>
+      <c r="AH52">
+        <v>1.49</v>
+      </c>
+      <c r="AI52">
+        <v>2.25</v>
+      </c>
+      <c r="AJ52">
+        <v>1.57</v>
+      </c>
+      <c r="AK52">
+        <v>1.2</v>
+      </c>
+      <c r="AL52">
+        <v>1.37</v>
+      </c>
+      <c r="AM52">
+        <v>1.77</v>
+      </c>
+      <c r="AN52">
+        <v>2</v>
+      </c>
+      <c r="AO52">
+        <v>0.5</v>
+      </c>
+      <c r="AP52">
+        <v>2.33</v>
+      </c>
+      <c r="AQ52">
+        <v>0.33</v>
+      </c>
+      <c r="AR52">
+        <v>1.61</v>
+      </c>
+      <c r="AS52">
+        <v>1.07</v>
+      </c>
+      <c r="AT52">
+        <v>2.68</v>
+      </c>
+      <c r="AU52">
+        <v>8</v>
+      </c>
+      <c r="AV52">
+        <v>6</v>
+      </c>
+      <c r="AW52">
+        <v>6</v>
+      </c>
+      <c r="AX52">
+        <v>7</v>
+      </c>
+      <c r="AY52">
+        <v>14</v>
+      </c>
+      <c r="AZ52">
+        <v>13</v>
+      </c>
+      <c r="BA52">
+        <v>8</v>
+      </c>
+      <c r="BB52">
+        <v>4</v>
+      </c>
+      <c r="BC52">
+        <v>12</v>
+      </c>
+      <c r="BD52">
+        <v>1.42</v>
+      </c>
+      <c r="BE52">
+        <v>7</v>
+      </c>
+      <c r="BF52">
+        <v>3.15</v>
+      </c>
+      <c r="BG52">
+        <v>1.38</v>
+      </c>
+      <c r="BH52">
+        <v>2.7</v>
+      </c>
+      <c r="BI52">
+        <v>1.67</v>
+      </c>
+      <c r="BJ52">
+        <v>2.05</v>
+      </c>
+      <c r="BK52">
+        <v>2.07</v>
+      </c>
+      <c r="BL52">
+        <v>1.65</v>
+      </c>
+      <c r="BM52">
+        <v>2.65</v>
+      </c>
+      <c r="BN52">
+        <v>1.41</v>
+      </c>
+      <c r="BO52">
+        <v>3.45</v>
+      </c>
+      <c r="BP52">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7465071</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45554.58333333334</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>85</v>
+      </c>
+      <c r="H53" t="s">
+        <v>70</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>2</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53" t="s">
+        <v>104</v>
+      </c>
+      <c r="P53" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q53">
+        <v>5</v>
+      </c>
+      <c r="R53">
+        <v>2</v>
+      </c>
+      <c r="S53">
+        <v>2.63</v>
+      </c>
+      <c r="T53">
+        <v>1.53</v>
+      </c>
+      <c r="U53">
+        <v>2.38</v>
+      </c>
+      <c r="V53">
+        <v>3.5</v>
+      </c>
+      <c r="W53">
+        <v>1.29</v>
+      </c>
+      <c r="X53">
+        <v>11</v>
+      </c>
+      <c r="Y53">
+        <v>1.05</v>
+      </c>
+      <c r="Z53">
+        <v>4.33</v>
+      </c>
+      <c r="AA53">
+        <v>3.4</v>
+      </c>
+      <c r="AB53">
+        <v>1.9</v>
+      </c>
+      <c r="AC53">
+        <v>1.09</v>
+      </c>
+      <c r="AD53">
+        <v>8</v>
+      </c>
+      <c r="AE53">
+        <v>1.47</v>
+      </c>
+      <c r="AF53">
+        <v>2.75</v>
+      </c>
+      <c r="AG53">
+        <v>2.38</v>
+      </c>
+      <c r="AH53">
+        <v>1.57</v>
+      </c>
+      <c r="AI53">
+        <v>2.1</v>
+      </c>
+      <c r="AJ53">
+        <v>1.67</v>
+      </c>
+      <c r="AK53">
+        <v>1.92</v>
+      </c>
+      <c r="AL53">
+        <v>1.28</v>
+      </c>
+      <c r="AM53">
+        <v>1.22</v>
+      </c>
+      <c r="AN53">
+        <v>1.5</v>
+      </c>
+      <c r="AO53">
+        <v>1.5</v>
+      </c>
+      <c r="AP53">
+        <v>1</v>
+      </c>
+      <c r="AQ53">
+        <v>2</v>
+      </c>
+      <c r="AR53">
+        <v>1.17</v>
+      </c>
+      <c r="AS53">
+        <v>1.05</v>
+      </c>
+      <c r="AT53">
+        <v>2.22</v>
+      </c>
+      <c r="AU53">
+        <v>4</v>
+      </c>
+      <c r="AV53">
+        <v>5</v>
+      </c>
+      <c r="AW53">
+        <v>10</v>
+      </c>
+      <c r="AX53">
+        <v>4</v>
+      </c>
+      <c r="AY53">
+        <v>14</v>
+      </c>
+      <c r="AZ53">
+        <v>9</v>
+      </c>
+      <c r="BA53">
+        <v>4</v>
+      </c>
+      <c r="BB53">
+        <v>7</v>
+      </c>
+      <c r="BC53">
+        <v>11</v>
+      </c>
+      <c r="BD53">
+        <v>2.7</v>
+      </c>
+      <c r="BE53">
+        <v>6.5</v>
+      </c>
+      <c r="BF53">
+        <v>1.54</v>
+      </c>
+      <c r="BG53">
+        <v>1.37</v>
+      </c>
+      <c r="BH53">
+        <v>2.8</v>
+      </c>
+      <c r="BI53">
+        <v>1.64</v>
+      </c>
+      <c r="BJ53">
+        <v>2.1</v>
+      </c>
+      <c r="BK53">
+        <v>2</v>
+      </c>
+      <c r="BL53">
+        <v>1.7</v>
+      </c>
+      <c r="BM53">
+        <v>2.55</v>
+      </c>
+      <c r="BN53">
+        <v>1.44</v>
+      </c>
+      <c r="BO53">
+        <v>3.4</v>
+      </c>
+      <c r="BP53">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="162">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -406,6 +406,9 @@
     <t>['61', '74']</t>
   </si>
   <si>
+    <t>['17', '60']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -493,7 +496,10 @@
     <t>['7', '30', '76']</t>
   </si>
   <si>
-    <t>['65', '75']</t>
+    <t>['65', '76']</t>
+  </si>
+  <si>
+    <t>['83']</t>
   </si>
 </sst>
 </file>
@@ -855,7 +861,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP53"/>
+  <dimension ref="A1:BP54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1114,7 +1120,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1320,7 +1326,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1526,7 +1532,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1732,7 +1738,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1813,7 +1819,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1938,7 +1944,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2144,7 +2150,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2350,7 +2356,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2556,7 +2562,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2968,7 +2974,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3174,7 +3180,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3380,7 +3386,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3792,7 +3798,7 @@
         <v>103</v>
       </c>
       <c r="P15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4616,7 +4622,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -4900,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ20">
         <v>0.5</v>
@@ -5234,7 +5240,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5521,7 +5527,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR23">
         <v>1.51</v>
@@ -5646,7 +5652,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6264,7 +6270,7 @@
         <v>111</v>
       </c>
       <c r="P27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q27">
         <v>2.3</v>
@@ -6882,7 +6888,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -7294,7 +7300,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7500,7 +7506,7 @@
         <v>115</v>
       </c>
       <c r="P33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q33">
         <v>3.38</v>
@@ -7706,7 +7712,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7912,7 +7918,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q35">
         <v>3.22</v>
@@ -8118,7 +8124,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q36">
         <v>2.9</v>
@@ -8402,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ37">
         <v>0</v>
@@ -8530,7 +8536,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -9354,7 +9360,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9560,7 +9566,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -9972,7 +9978,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10178,7 +10184,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q46">
         <v>2.25</v>
@@ -10384,7 +10390,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10590,7 +10596,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11414,7 +11420,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11620,7 +11626,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11777,6 +11783,212 @@
       </c>
       <c r="BP53">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7465061</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45555.66666666666</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>86</v>
+      </c>
+      <c r="H54" t="s">
+        <v>80</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>3</v>
+      </c>
+      <c r="O54" t="s">
+        <v>130</v>
+      </c>
+      <c r="P54" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q54">
+        <v>2.8</v>
+      </c>
+      <c r="R54">
+        <v>2.05</v>
+      </c>
+      <c r="S54">
+        <v>4.15</v>
+      </c>
+      <c r="T54">
+        <v>1.47</v>
+      </c>
+      <c r="U54">
+        <v>2.63</v>
+      </c>
+      <c r="V54">
+        <v>3.18</v>
+      </c>
+      <c r="W54">
+        <v>1.34</v>
+      </c>
+      <c r="X54">
+        <v>8.6</v>
+      </c>
+      <c r="Y54">
+        <v>1.06</v>
+      </c>
+      <c r="Z54">
+        <v>2.18</v>
+      </c>
+      <c r="AA54">
+        <v>3.4</v>
+      </c>
+      <c r="AB54">
+        <v>3.44</v>
+      </c>
+      <c r="AC54">
+        <v>1.04</v>
+      </c>
+      <c r="AD54">
+        <v>7.7</v>
+      </c>
+      <c r="AE54">
+        <v>1.36</v>
+      </c>
+      <c r="AF54">
+        <v>2.88</v>
+      </c>
+      <c r="AG54">
+        <v>2.22</v>
+      </c>
+      <c r="AH54">
+        <v>1.69</v>
+      </c>
+      <c r="AI54">
+        <v>1.92</v>
+      </c>
+      <c r="AJ54">
+        <v>1.84</v>
+      </c>
+      <c r="AK54">
+        <v>1.35</v>
+      </c>
+      <c r="AL54">
+        <v>1.35</v>
+      </c>
+      <c r="AM54">
+        <v>1.73</v>
+      </c>
+      <c r="AN54">
+        <v>2</v>
+      </c>
+      <c r="AO54">
+        <v>1</v>
+      </c>
+      <c r="AP54">
+        <v>2.33</v>
+      </c>
+      <c r="AQ54">
+        <v>0.67</v>
+      </c>
+      <c r="AR54">
+        <v>1.07</v>
+      </c>
+      <c r="AS54">
+        <v>1.73</v>
+      </c>
+      <c r="AT54">
+        <v>2.8</v>
+      </c>
+      <c r="AU54">
+        <v>5</v>
+      </c>
+      <c r="AV54">
+        <v>3</v>
+      </c>
+      <c r="AW54">
+        <v>3</v>
+      </c>
+      <c r="AX54">
+        <v>3</v>
+      </c>
+      <c r="AY54">
+        <v>8</v>
+      </c>
+      <c r="AZ54">
+        <v>6</v>
+      </c>
+      <c r="BA54">
+        <v>3</v>
+      </c>
+      <c r="BB54">
+        <v>5</v>
+      </c>
+      <c r="BC54">
+        <v>8</v>
+      </c>
+      <c r="BD54">
+        <v>1.58</v>
+      </c>
+      <c r="BE54">
+        <v>6.5</v>
+      </c>
+      <c r="BF54">
+        <v>2.65</v>
+      </c>
+      <c r="BG54">
+        <v>1.36</v>
+      </c>
+      <c r="BH54">
+        <v>2.8</v>
+      </c>
+      <c r="BI54">
+        <v>1.62</v>
+      </c>
+      <c r="BJ54">
+        <v>2.14</v>
+      </c>
+      <c r="BK54">
+        <v>1.98</v>
+      </c>
+      <c r="BL54">
+        <v>1.72</v>
+      </c>
+      <c r="BM54">
+        <v>2.55</v>
+      </c>
+      <c r="BN54">
+        <v>1.44</v>
+      </c>
+      <c r="BO54">
+        <v>3.3</v>
+      </c>
+      <c r="BP54">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="167">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -409,6 +409,15 @@
     <t>['17', '60']</t>
   </si>
   <si>
+    <t>['39', '60']</t>
+  </si>
+  <si>
+    <t>['56', '58']</t>
+  </si>
+  <si>
+    <t>['58', '75', '78', '90']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -500,6 +509,12 @@
   </si>
   <si>
     <t>['83']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['54']</t>
   </si>
 </sst>
 </file>
@@ -861,7 +876,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP54"/>
+  <dimension ref="A1:BP58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1120,7 +1135,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1326,7 +1341,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1407,7 +1422,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ3">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1532,7 +1547,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1738,7 +1753,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1944,7 +1959,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2022,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ6">
         <v>0.67</v>
@@ -2150,7 +2165,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2228,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7">
         <v>3</v>
@@ -2356,7 +2371,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2562,7 +2577,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2846,10 +2861,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ10">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2974,7 +2989,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3180,7 +3195,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3386,7 +3401,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3670,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ14">
         <v>1.5</v>
@@ -3798,7 +3813,7 @@
         <v>103</v>
       </c>
       <c r="P15" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4085,7 +4100,7 @@
         <v>2</v>
       </c>
       <c r="AQ16">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4622,7 +4637,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5115,7 +5130,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ21">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5240,7 +5255,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5652,7 +5667,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6142,7 +6157,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ26">
         <v>0.67</v>
@@ -6270,7 +6285,7 @@
         <v>111</v>
       </c>
       <c r="P27" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q27">
         <v>2.3</v>
@@ -6557,7 +6572,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ28">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR28">
         <v>1.31</v>
@@ -6888,7 +6903,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -7300,7 +7315,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7506,7 +7521,7 @@
         <v>115</v>
       </c>
       <c r="P33" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q33">
         <v>3.38</v>
@@ -7712,7 +7727,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7918,7 +7933,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q35">
         <v>3.22</v>
@@ -7996,7 +8011,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ35">
         <v>2.33</v>
@@ -8124,7 +8139,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q36">
         <v>2.9</v>
@@ -8202,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ36">
         <v>0</v>
@@ -8536,7 +8551,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -8617,7 +8632,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <v>1.9</v>
@@ -8823,7 +8838,7 @@
         <v>1</v>
       </c>
       <c r="AQ39">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR39">
         <v>1.12</v>
@@ -9360,7 +9375,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9566,7 +9581,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -9978,7 +9993,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10184,7 +10199,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q46">
         <v>2.25</v>
@@ -10390,7 +10405,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10596,7 +10611,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11295,7 +11310,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ51">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR51">
         <v>1.4</v>
@@ -11420,7 +11435,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11626,7 +11641,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11832,7 +11847,7 @@
         <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q54">
         <v>2.8</v>
@@ -11989,6 +12004,830 @@
       </c>
       <c r="BP54">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7465065</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45556.375</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55" t="s">
+        <v>78</v>
+      </c>
+      <c r="H55" t="s">
+        <v>76</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55" t="s">
+        <v>104</v>
+      </c>
+      <c r="P55" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q55">
+        <v>4.2</v>
+      </c>
+      <c r="R55">
+        <v>1.91</v>
+      </c>
+      <c r="S55">
+        <v>2.75</v>
+      </c>
+      <c r="T55">
+        <v>1.53</v>
+      </c>
+      <c r="U55">
+        <v>2.38</v>
+      </c>
+      <c r="V55">
+        <v>3.3</v>
+      </c>
+      <c r="W55">
+        <v>1.28</v>
+      </c>
+      <c r="X55">
+        <v>8</v>
+      </c>
+      <c r="Y55">
+        <v>1.05</v>
+      </c>
+      <c r="Z55">
+        <v>3.65</v>
+      </c>
+      <c r="AA55">
+        <v>3.1</v>
+      </c>
+      <c r="AB55">
+        <v>2.15</v>
+      </c>
+      <c r="AC55">
+        <v>1.1</v>
+      </c>
+      <c r="AD55">
+        <v>6.5</v>
+      </c>
+      <c r="AE55">
+        <v>1.48</v>
+      </c>
+      <c r="AF55">
+        <v>2.65</v>
+      </c>
+      <c r="AG55">
+        <v>2.38</v>
+      </c>
+      <c r="AH55">
+        <v>1.57</v>
+      </c>
+      <c r="AI55">
+        <v>2</v>
+      </c>
+      <c r="AJ55">
+        <v>1.73</v>
+      </c>
+      <c r="AK55">
+        <v>1.67</v>
+      </c>
+      <c r="AL55">
+        <v>1.3</v>
+      </c>
+      <c r="AM55">
+        <v>1.25</v>
+      </c>
+      <c r="AN55">
+        <v>2</v>
+      </c>
+      <c r="AO55">
+        <v>1.33</v>
+      </c>
+      <c r="AP55">
+        <v>1.67</v>
+      </c>
+      <c r="AQ55">
+        <v>1.25</v>
+      </c>
+      <c r="AR55">
+        <v>1.18</v>
+      </c>
+      <c r="AS55">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT55">
+        <v>2.12</v>
+      </c>
+      <c r="AU55">
+        <v>3</v>
+      </c>
+      <c r="AV55">
+        <v>5</v>
+      </c>
+      <c r="AW55">
+        <v>6</v>
+      </c>
+      <c r="AX55">
+        <v>5</v>
+      </c>
+      <c r="AY55">
+        <v>9</v>
+      </c>
+      <c r="AZ55">
+        <v>10</v>
+      </c>
+      <c r="BA55">
+        <v>5</v>
+      </c>
+      <c r="BB55">
+        <v>7</v>
+      </c>
+      <c r="BC55">
+        <v>12</v>
+      </c>
+      <c r="BD55">
+        <v>2.4</v>
+      </c>
+      <c r="BE55">
+        <v>6.4</v>
+      </c>
+      <c r="BF55">
+        <v>1.71</v>
+      </c>
+      <c r="BG55">
+        <v>1.41</v>
+      </c>
+      <c r="BH55">
+        <v>2.65</v>
+      </c>
+      <c r="BI55">
+        <v>1.68</v>
+      </c>
+      <c r="BJ55">
+        <v>2.04</v>
+      </c>
+      <c r="BK55">
+        <v>2.08</v>
+      </c>
+      <c r="BL55">
+        <v>1.65</v>
+      </c>
+      <c r="BM55">
+        <v>2.65</v>
+      </c>
+      <c r="BN55">
+        <v>1.4</v>
+      </c>
+      <c r="BO55">
+        <v>3.55</v>
+      </c>
+      <c r="BP55">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7465066</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45556.46875</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56" t="s">
+        <v>74</v>
+      </c>
+      <c r="H56" t="s">
+        <v>73</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56" t="s">
+        <v>131</v>
+      </c>
+      <c r="P56" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q56">
+        <v>2.5</v>
+      </c>
+      <c r="R56">
+        <v>2.1</v>
+      </c>
+      <c r="S56">
+        <v>4.5</v>
+      </c>
+      <c r="T56">
+        <v>1.44</v>
+      </c>
+      <c r="U56">
+        <v>2.6</v>
+      </c>
+      <c r="V56">
+        <v>3</v>
+      </c>
+      <c r="W56">
+        <v>1.33</v>
+      </c>
+      <c r="X56">
+        <v>8</v>
+      </c>
+      <c r="Y56">
+        <v>1.05</v>
+      </c>
+      <c r="Z56">
+        <v>1.91</v>
+      </c>
+      <c r="AA56">
+        <v>3.4</v>
+      </c>
+      <c r="AB56">
+        <v>4</v>
+      </c>
+      <c r="AC56">
+        <v>1.06</v>
+      </c>
+      <c r="AD56">
+        <v>8</v>
+      </c>
+      <c r="AE56">
+        <v>1.36</v>
+      </c>
+      <c r="AF56">
+        <v>3</v>
+      </c>
+      <c r="AG56">
+        <v>2.15</v>
+      </c>
+      <c r="AH56">
+        <v>1.67</v>
+      </c>
+      <c r="AI56">
+        <v>1.95</v>
+      </c>
+      <c r="AJ56">
+        <v>1.83</v>
+      </c>
+      <c r="AK56">
+        <v>1.25</v>
+      </c>
+      <c r="AL56">
+        <v>1.3</v>
+      </c>
+      <c r="AM56">
+        <v>1.88</v>
+      </c>
+      <c r="AN56">
+        <v>2.33</v>
+      </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
+      <c r="AP56">
+        <v>2.5</v>
+      </c>
+      <c r="AQ56">
+        <v>0</v>
+      </c>
+      <c r="AR56">
+        <v>1.5</v>
+      </c>
+      <c r="AS56">
+        <v>1.37</v>
+      </c>
+      <c r="AT56">
+        <v>2.87</v>
+      </c>
+      <c r="AU56">
+        <v>5</v>
+      </c>
+      <c r="AV56">
+        <v>7</v>
+      </c>
+      <c r="AW56">
+        <v>7</v>
+      </c>
+      <c r="AX56">
+        <v>5</v>
+      </c>
+      <c r="AY56">
+        <v>12</v>
+      </c>
+      <c r="AZ56">
+        <v>12</v>
+      </c>
+      <c r="BA56">
+        <v>2</v>
+      </c>
+      <c r="BB56">
+        <v>4</v>
+      </c>
+      <c r="BC56">
+        <v>6</v>
+      </c>
+      <c r="BD56">
+        <v>1.48</v>
+      </c>
+      <c r="BE56">
+        <v>6.75</v>
+      </c>
+      <c r="BF56">
+        <v>2.95</v>
+      </c>
+      <c r="BG56">
+        <v>1.34</v>
+      </c>
+      <c r="BH56">
+        <v>2.9</v>
+      </c>
+      <c r="BI56">
+        <v>1.57</v>
+      </c>
+      <c r="BJ56">
+        <v>2.23</v>
+      </c>
+      <c r="BK56">
+        <v>1.91</v>
+      </c>
+      <c r="BL56">
+        <v>1.77</v>
+      </c>
+      <c r="BM56">
+        <v>2.4</v>
+      </c>
+      <c r="BN56">
+        <v>1.5</v>
+      </c>
+      <c r="BO56">
+        <v>3.05</v>
+      </c>
+      <c r="BP56">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7465064</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45556.5625</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57" t="s">
+        <v>75</v>
+      </c>
+      <c r="H57" t="s">
+        <v>89</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+      <c r="O57" t="s">
+        <v>132</v>
+      </c>
+      <c r="P57" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q57">
+        <v>3.45</v>
+      </c>
+      <c r="R57">
+        <v>2.1</v>
+      </c>
+      <c r="S57">
+        <v>3.12</v>
+      </c>
+      <c r="T57">
+        <v>1.42</v>
+      </c>
+      <c r="U57">
+        <v>2.81</v>
+      </c>
+      <c r="V57">
+        <v>2.93</v>
+      </c>
+      <c r="W57">
+        <v>1.39</v>
+      </c>
+      <c r="X57">
+        <v>7.7</v>
+      </c>
+      <c r="Y57">
+        <v>1.08</v>
+      </c>
+      <c r="Z57">
+        <v>2.75</v>
+      </c>
+      <c r="AA57">
+        <v>3.25</v>
+      </c>
+      <c r="AB57">
+        <v>2.55</v>
+      </c>
+      <c r="AC57">
+        <v>1.01</v>
+      </c>
+      <c r="AD57">
+        <v>8</v>
+      </c>
+      <c r="AE57">
+        <v>1.29</v>
+      </c>
+      <c r="AF57">
+        <v>3.1</v>
+      </c>
+      <c r="AG57">
+        <v>2</v>
+      </c>
+      <c r="AH57">
+        <v>1.82</v>
+      </c>
+      <c r="AI57">
+        <v>1.73</v>
+      </c>
+      <c r="AJ57">
+        <v>2</v>
+      </c>
+      <c r="AK57">
+        <v>1.5</v>
+      </c>
+      <c r="AL57">
+        <v>1.28</v>
+      </c>
+      <c r="AM57">
+        <v>1.42</v>
+      </c>
+      <c r="AN57">
+        <v>0.5</v>
+      </c>
+      <c r="AO57">
+        <v>1.33</v>
+      </c>
+      <c r="AP57">
+        <v>1.33</v>
+      </c>
+      <c r="AQ57">
+        <v>1</v>
+      </c>
+      <c r="AR57">
+        <v>1.38</v>
+      </c>
+      <c r="AS57">
+        <v>1.26</v>
+      </c>
+      <c r="AT57">
+        <v>2.64</v>
+      </c>
+      <c r="AU57">
+        <v>3</v>
+      </c>
+      <c r="AV57">
+        <v>4</v>
+      </c>
+      <c r="AW57">
+        <v>4</v>
+      </c>
+      <c r="AX57">
+        <v>3</v>
+      </c>
+      <c r="AY57">
+        <v>7</v>
+      </c>
+      <c r="AZ57">
+        <v>7</v>
+      </c>
+      <c r="BA57">
+        <v>5</v>
+      </c>
+      <c r="BB57">
+        <v>4</v>
+      </c>
+      <c r="BC57">
+        <v>9</v>
+      </c>
+      <c r="BD57">
+        <v>1.94</v>
+      </c>
+      <c r="BE57">
+        <v>6.4</v>
+      </c>
+      <c r="BF57">
+        <v>2.05</v>
+      </c>
+      <c r="BG57">
+        <v>1.34</v>
+      </c>
+      <c r="BH57">
+        <v>2.9</v>
+      </c>
+      <c r="BI57">
+        <v>1.6</v>
+      </c>
+      <c r="BJ57">
+        <v>2.17</v>
+      </c>
+      <c r="BK57">
+        <v>1.96</v>
+      </c>
+      <c r="BL57">
+        <v>1.73</v>
+      </c>
+      <c r="BM57">
+        <v>2.5</v>
+      </c>
+      <c r="BN57">
+        <v>1.46</v>
+      </c>
+      <c r="BO57">
+        <v>3.3</v>
+      </c>
+      <c r="BP57">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7469675</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45556.66666666666</v>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+      <c r="G58" t="s">
+        <v>84</v>
+      </c>
+      <c r="H58" t="s">
+        <v>82</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>4</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>5</v>
+      </c>
+      <c r="O58" t="s">
+        <v>133</v>
+      </c>
+      <c r="P58" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q58">
+        <v>1.51</v>
+      </c>
+      <c r="R58">
+        <v>3.05</v>
+      </c>
+      <c r="S58">
+        <v>10.25</v>
+      </c>
+      <c r="T58">
+        <v>1.22</v>
+      </c>
+      <c r="U58">
+        <v>4.15</v>
+      </c>
+      <c r="V58">
+        <v>2.06</v>
+      </c>
+      <c r="W58">
+        <v>1.74</v>
+      </c>
+      <c r="X58">
+        <v>4.3</v>
+      </c>
+      <c r="Y58">
+        <v>1.21</v>
+      </c>
+      <c r="Z58">
+        <v>1.17</v>
+      </c>
+      <c r="AA58">
+        <v>7</v>
+      </c>
+      <c r="AB58">
+        <v>14.5</v>
+      </c>
+      <c r="AC58">
+        <v>1.03</v>
+      </c>
+      <c r="AD58">
+        <v>11</v>
+      </c>
+      <c r="AE58">
+        <v>1.07</v>
+      </c>
+      <c r="AF58">
+        <v>5.4</v>
+      </c>
+      <c r="AG58">
+        <v>1.37</v>
+      </c>
+      <c r="AH58">
+        <v>2.71</v>
+      </c>
+      <c r="AI58">
+        <v>2.09</v>
+      </c>
+      <c r="AJ58">
+        <v>1.71</v>
+      </c>
+      <c r="AK58">
+        <v>1.03</v>
+      </c>
+      <c r="AL58">
+        <v>1.08</v>
+      </c>
+      <c r="AM58">
+        <v>4.75</v>
+      </c>
+      <c r="AN58">
+        <v>3</v>
+      </c>
+      <c r="AO58">
+        <v>0.5</v>
+      </c>
+      <c r="AP58">
+        <v>3</v>
+      </c>
+      <c r="AQ58">
+        <v>0.33</v>
+      </c>
+      <c r="AR58">
+        <v>2.01</v>
+      </c>
+      <c r="AS58">
+        <v>0.92</v>
+      </c>
+      <c r="AT58">
+        <v>2.93</v>
+      </c>
+      <c r="AU58">
+        <v>16</v>
+      </c>
+      <c r="AV58">
+        <v>2</v>
+      </c>
+      <c r="AW58">
+        <v>9</v>
+      </c>
+      <c r="AX58">
+        <v>4</v>
+      </c>
+      <c r="AY58">
+        <v>25</v>
+      </c>
+      <c r="AZ58">
+        <v>6</v>
+      </c>
+      <c r="BA58">
+        <v>9</v>
+      </c>
+      <c r="BB58">
+        <v>4</v>
+      </c>
+      <c r="BC58">
+        <v>13</v>
+      </c>
+      <c r="BD58">
+        <v>1.13</v>
+      </c>
+      <c r="BE58">
+        <v>10.5</v>
+      </c>
+      <c r="BF58">
+        <v>6.1</v>
+      </c>
+      <c r="BG58">
+        <v>1.33</v>
+      </c>
+      <c r="BH58">
+        <v>2.95</v>
+      </c>
+      <c r="BI58">
+        <v>1.57</v>
+      </c>
+      <c r="BJ58">
+        <v>2.23</v>
+      </c>
+      <c r="BK58">
+        <v>1.92</v>
+      </c>
+      <c r="BL58">
+        <v>1.77</v>
+      </c>
+      <c r="BM58">
+        <v>2.4</v>
+      </c>
+      <c r="BN58">
+        <v>1.49</v>
+      </c>
+      <c r="BO58">
+        <v>3.05</v>
+      </c>
+      <c r="BP58">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="173">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -409,13 +409,25 @@
     <t>['17', '60']</t>
   </si>
   <si>
+    <t>['56', '58']</t>
+  </si>
+  <si>
+    <t>['58', '75', '78', '90']</t>
+  </si>
+  <si>
     <t>['39', '60']</t>
   </si>
   <si>
-    <t>['56', '58']</t>
-  </si>
-  <si>
-    <t>['58', '75', '78', '90']</t>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['7']</t>
   </si>
   <si>
     <t>['64']</t>
@@ -508,13 +520,19 @@
     <t>['65', '76']</t>
   </si>
   <si>
-    <t>['83']</t>
+    <t>['54']</t>
   </si>
   <si>
     <t>['41']</t>
   </si>
   <si>
-    <t>['54']</t>
+    <t>['20', '35', '58', '75', '83']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['8', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -876,7 +894,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP58"/>
+  <dimension ref="A1:BP62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1135,7 +1153,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1341,7 +1359,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1419,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1547,7 +1565,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1753,7 +1771,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1959,7 +1977,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2040,7 +2058,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ6">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2165,7 +2183,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2371,7 +2389,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2577,7 +2595,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2989,7 +3007,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3067,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3195,7 +3213,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3401,7 +3419,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3688,7 +3706,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR14">
         <v>1.83</v>
@@ -3813,7 +3831,7 @@
         <v>103</v>
       </c>
       <c r="P15" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4637,7 +4655,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5255,7 +5273,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5333,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ22">
         <v>0</v>
@@ -5667,7 +5685,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -5745,7 +5763,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24">
         <v>3</v>
@@ -6160,7 +6178,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ26">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR26">
         <v>0.95</v>
@@ -6285,7 +6303,7 @@
         <v>111</v>
       </c>
       <c r="P27" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q27">
         <v>2.3</v>
@@ -6903,7 +6921,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -7315,7 +7333,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7396,7 +7414,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ32">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR32">
         <v>1.11</v>
@@ -7521,7 +7539,7 @@
         <v>115</v>
       </c>
       <c r="P33" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q33">
         <v>3.38</v>
@@ -7727,7 +7745,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7808,7 +7826,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR34">
         <v>1.29</v>
@@ -7933,7 +7951,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q35">
         <v>3.22</v>
@@ -8139,7 +8157,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q36">
         <v>2.9</v>
@@ -8551,7 +8569,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -9247,10 +9265,10 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ41">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR41">
         <v>1.59</v>
@@ -9375,7 +9393,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9581,7 +9599,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -9993,7 +10011,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10199,7 +10217,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q46">
         <v>2.25</v>
@@ -10405,7 +10423,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10611,7 +10629,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11101,7 +11119,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ50">
         <v>0</v>
@@ -11435,7 +11453,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11513,7 +11531,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ52">
         <v>0.33</v>
@@ -11641,7 +11659,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11847,7 +11865,7 @@
         <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="Q54">
         <v>2.8</v>
@@ -12011,7 +12029,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>7465065</v>
+        <v>7465064</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -12020,16 +12038,16 @@
         <v>69</v>
       </c>
       <c r="E55" s="2">
-        <v>45556.375</v>
+        <v>45555.875</v>
       </c>
       <c r="F55">
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -12041,175 +12059,175 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O55" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="P55" t="s">
         <v>104</v>
       </c>
       <c r="Q55">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="R55">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="S55">
+        <v>3.12</v>
+      </c>
+      <c r="T55">
+        <v>1.42</v>
+      </c>
+      <c r="U55">
+        <v>2.81</v>
+      </c>
+      <c r="V55">
+        <v>2.93</v>
+      </c>
+      <c r="W55">
+        <v>1.39</v>
+      </c>
+      <c r="X55">
+        <v>7.7</v>
+      </c>
+      <c r="Y55">
+        <v>1.08</v>
+      </c>
+      <c r="Z55">
         <v>2.75</v>
       </c>
-      <c r="T55">
-        <v>1.53</v>
-      </c>
-      <c r="U55">
-        <v>2.38</v>
-      </c>
-      <c r="V55">
-        <v>3.3</v>
-      </c>
-      <c r="W55">
+      <c r="AA55">
+        <v>3.25</v>
+      </c>
+      <c r="AB55">
+        <v>2.55</v>
+      </c>
+      <c r="AC55">
+        <v>1.01</v>
+      </c>
+      <c r="AD55">
+        <v>8</v>
+      </c>
+      <c r="AE55">
+        <v>1.29</v>
+      </c>
+      <c r="AF55">
+        <v>3.1</v>
+      </c>
+      <c r="AG55">
+        <v>2</v>
+      </c>
+      <c r="AH55">
+        <v>1.82</v>
+      </c>
+      <c r="AI55">
+        <v>1.73</v>
+      </c>
+      <c r="AJ55">
+        <v>2</v>
+      </c>
+      <c r="AK55">
+        <v>1.5</v>
+      </c>
+      <c r="AL55">
         <v>1.28</v>
       </c>
-      <c r="X55">
-        <v>8</v>
-      </c>
-      <c r="Y55">
-        <v>1.05</v>
-      </c>
-      <c r="Z55">
-        <v>3.65</v>
-      </c>
-      <c r="AA55">
-        <v>3.1</v>
-      </c>
-      <c r="AB55">
-        <v>2.15</v>
-      </c>
-      <c r="AC55">
-        <v>1.1</v>
-      </c>
-      <c r="AD55">
-        <v>6.5</v>
-      </c>
-      <c r="AE55">
-        <v>1.48</v>
-      </c>
-      <c r="AF55">
-        <v>2.65</v>
-      </c>
-      <c r="AG55">
-        <v>2.38</v>
-      </c>
-      <c r="AH55">
-        <v>1.57</v>
-      </c>
-      <c r="AI55">
-        <v>2</v>
-      </c>
-      <c r="AJ55">
-        <v>1.73</v>
-      </c>
-      <c r="AK55">
-        <v>1.67</v>
-      </c>
-      <c r="AL55">
-        <v>1.3</v>
-      </c>
       <c r="AM55">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="AN55">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AO55">
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AQ55">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR55">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AS55">
-        <v>0.9399999999999999</v>
+        <v>1.26</v>
       </c>
       <c r="AT55">
-        <v>2.12</v>
+        <v>2.64</v>
       </c>
       <c r="AU55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW55">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY55">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AZ55">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA55">
         <v>5</v>
       </c>
       <c r="BB55">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BC55">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD55">
-        <v>2.4</v>
+        <v>1.94</v>
       </c>
       <c r="BE55">
         <v>6.4</v>
       </c>
       <c r="BF55">
-        <v>1.71</v>
+        <v>2.05</v>
       </c>
       <c r="BG55">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="BH55">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="BI55">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="BJ55">
-        <v>2.04</v>
+        <v>2.17</v>
       </c>
       <c r="BK55">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="BL55">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="BM55">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="BN55">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="BO55">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="BP55">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="56" spans="1:68">
@@ -12217,7 +12235,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>7465066</v>
+        <v>7469675</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
@@ -12226,172 +12244,172 @@
         <v>69</v>
       </c>
       <c r="E56" s="2">
-        <v>45556.46875</v>
+        <v>45555.875</v>
       </c>
       <c r="F56">
         <v>6</v>
       </c>
       <c r="G56" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H56" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M56">
         <v>1</v>
       </c>
       <c r="N56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O56" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q56">
-        <v>2.5</v>
+        <v>1.51</v>
       </c>
       <c r="R56">
-        <v>2.1</v>
+        <v>3.05</v>
       </c>
       <c r="S56">
-        <v>4.5</v>
+        <v>10.25</v>
       </c>
       <c r="T56">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="U56">
-        <v>2.6</v>
+        <v>4.15</v>
       </c>
       <c r="V56">
-        <v>3</v>
+        <v>2.06</v>
       </c>
       <c r="W56">
-        <v>1.33</v>
+        <v>1.74</v>
       </c>
       <c r="X56">
+        <v>4.3</v>
+      </c>
+      <c r="Y56">
+        <v>1.21</v>
+      </c>
+      <c r="Z56">
+        <v>1.17</v>
+      </c>
+      <c r="AA56">
+        <v>7</v>
+      </c>
+      <c r="AB56">
+        <v>14.5</v>
+      </c>
+      <c r="AC56">
+        <v>1.03</v>
+      </c>
+      <c r="AD56">
+        <v>11</v>
+      </c>
+      <c r="AE56">
+        <v>1.07</v>
+      </c>
+      <c r="AF56">
+        <v>5.4</v>
+      </c>
+      <c r="AG56">
+        <v>1.37</v>
+      </c>
+      <c r="AH56">
+        <v>2.71</v>
+      </c>
+      <c r="AI56">
+        <v>2.09</v>
+      </c>
+      <c r="AJ56">
+        <v>1.71</v>
+      </c>
+      <c r="AK56">
+        <v>1.03</v>
+      </c>
+      <c r="AL56">
+        <v>1.08</v>
+      </c>
+      <c r="AM56">
+        <v>4.75</v>
+      </c>
+      <c r="AN56">
+        <v>3</v>
+      </c>
+      <c r="AO56">
+        <v>0.5</v>
+      </c>
+      <c r="AP56">
+        <v>3</v>
+      </c>
+      <c r="AQ56">
+        <v>0.33</v>
+      </c>
+      <c r="AR56">
+        <v>2.01</v>
+      </c>
+      <c r="AS56">
+        <v>0.92</v>
+      </c>
+      <c r="AT56">
+        <v>2.93</v>
+      </c>
+      <c r="AU56">
+        <v>12</v>
+      </c>
+      <c r="AV56">
+        <v>2</v>
+      </c>
+      <c r="AW56">
+        <v>9</v>
+      </c>
+      <c r="AX56">
+        <v>6</v>
+      </c>
+      <c r="AY56">
+        <v>21</v>
+      </c>
+      <c r="AZ56">
         <v>8</v>
       </c>
-      <c r="Y56">
-        <v>1.05</v>
-      </c>
-      <c r="Z56">
-        <v>1.91</v>
-      </c>
-      <c r="AA56">
-        <v>3.4</v>
-      </c>
-      <c r="AB56">
-        <v>4</v>
-      </c>
-      <c r="AC56">
-        <v>1.06</v>
-      </c>
-      <c r="AD56">
-        <v>8</v>
-      </c>
-      <c r="AE56">
-        <v>1.36</v>
-      </c>
-      <c r="AF56">
-        <v>3</v>
-      </c>
-      <c r="AG56">
-        <v>2.15</v>
-      </c>
-      <c r="AH56">
-        <v>1.67</v>
-      </c>
-      <c r="AI56">
-        <v>1.95</v>
-      </c>
-      <c r="AJ56">
-        <v>1.83</v>
-      </c>
-      <c r="AK56">
-        <v>1.25</v>
-      </c>
-      <c r="AL56">
-        <v>1.3</v>
-      </c>
-      <c r="AM56">
-        <v>1.88</v>
-      </c>
-      <c r="AN56">
-        <v>2.33</v>
-      </c>
-      <c r="AO56">
-        <v>0</v>
-      </c>
-      <c r="AP56">
-        <v>2.5</v>
-      </c>
-      <c r="AQ56">
-        <v>0</v>
-      </c>
-      <c r="AR56">
-        <v>1.5</v>
-      </c>
-      <c r="AS56">
-        <v>1.37</v>
-      </c>
-      <c r="AT56">
-        <v>2.87</v>
-      </c>
-      <c r="AU56">
-        <v>5</v>
-      </c>
-      <c r="AV56">
-        <v>7</v>
-      </c>
-      <c r="AW56">
-        <v>7</v>
-      </c>
-      <c r="AX56">
-        <v>5</v>
-      </c>
-      <c r="AY56">
-        <v>12</v>
-      </c>
-      <c r="AZ56">
-        <v>12</v>
-      </c>
       <c r="BA56">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BB56">
         <v>4</v>
       </c>
       <c r="BC56">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BD56">
-        <v>1.48</v>
+        <v>1.13</v>
       </c>
       <c r="BE56">
-        <v>6.75</v>
+        <v>10.5</v>
       </c>
       <c r="BF56">
+        <v>6.1</v>
+      </c>
+      <c r="BG56">
+        <v>1.33</v>
+      </c>
+      <c r="BH56">
         <v>2.95</v>
-      </c>
-      <c r="BG56">
-        <v>1.34</v>
-      </c>
-      <c r="BH56">
-        <v>2.9</v>
       </c>
       <c r="BI56">
         <v>1.57</v>
@@ -12400,7 +12418,7 @@
         <v>2.23</v>
       </c>
       <c r="BK56">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="BL56">
         <v>1.77</v>
@@ -12409,7 +12427,7 @@
         <v>2.4</v>
       </c>
       <c r="BN56">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="BO56">
         <v>3.05</v>
@@ -12423,7 +12441,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>7465064</v>
+        <v>7465065</v>
       </c>
       <c r="C57" t="s">
         <v>68</v>
@@ -12432,16 +12450,16 @@
         <v>69</v>
       </c>
       <c r="E57" s="2">
-        <v>45556.5625</v>
+        <v>45556.375</v>
       </c>
       <c r="F57">
         <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -12453,175 +12471,175 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
       <c r="N57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O57" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="P57" t="s">
         <v>104</v>
       </c>
       <c r="Q57">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="R57">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="S57">
-        <v>3.12</v>
+        <v>2.75</v>
       </c>
       <c r="T57">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="U57">
-        <v>2.81</v>
+        <v>2.38</v>
       </c>
       <c r="V57">
-        <v>2.93</v>
+        <v>3.3</v>
       </c>
       <c r="W57">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="X57">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="Y57">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="Z57">
-        <v>2.75</v>
+        <v>3.65</v>
       </c>
       <c r="AA57">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AB57">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="AC57">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="AD57">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AE57">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="AF57">
-        <v>3.1</v>
+        <v>2.65</v>
       </c>
       <c r="AG57">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="AH57">
-        <v>1.82</v>
+        <v>1.57</v>
       </c>
       <c r="AI57">
+        <v>2</v>
+      </c>
+      <c r="AJ57">
         <v>1.73</v>
       </c>
-      <c r="AJ57">
-        <v>2</v>
-      </c>
       <c r="AK57">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AL57">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AM57">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="AN57">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AO57">
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR57">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AS57">
-        <v>1.26</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT57">
-        <v>2.64</v>
+        <v>2.12</v>
       </c>
       <c r="AU57">
         <v>3</v>
       </c>
       <c r="AV57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW57">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY57">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ57">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA57">
         <v>5</v>
       </c>
       <c r="BB57">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC57">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD57">
-        <v>1.94</v>
+        <v>2.4</v>
       </c>
       <c r="BE57">
         <v>6.4</v>
       </c>
       <c r="BF57">
-        <v>2.05</v>
+        <v>1.71</v>
       </c>
       <c r="BG57">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="BH57">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="BI57">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="BJ57">
-        <v>2.17</v>
+        <v>2.04</v>
       </c>
       <c r="BK57">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="BL57">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="BM57">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="BN57">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="BO57">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="BP57">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="58" spans="1:68">
@@ -12629,7 +12647,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>7469675</v>
+        <v>7465066</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
@@ -12638,172 +12656,172 @@
         <v>69</v>
       </c>
       <c r="E58" s="2">
-        <v>45556.66666666666</v>
+        <v>45556.46875</v>
       </c>
       <c r="F58">
         <v>6</v>
       </c>
       <c r="G58" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M58">
         <v>1</v>
       </c>
       <c r="N58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O58" t="s">
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q58">
-        <v>1.51</v>
+        <v>2.5</v>
       </c>
       <c r="R58">
-        <v>3.05</v>
+        <v>2.1</v>
       </c>
       <c r="S58">
-        <v>10.25</v>
+        <v>4.5</v>
       </c>
       <c r="T58">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="U58">
-        <v>4.15</v>
+        <v>2.6</v>
       </c>
       <c r="V58">
-        <v>2.06</v>
+        <v>3</v>
       </c>
       <c r="W58">
-        <v>1.74</v>
+        <v>1.33</v>
       </c>
       <c r="X58">
-        <v>4.3</v>
+        <v>8</v>
       </c>
       <c r="Y58">
-        <v>1.21</v>
+        <v>1.05</v>
       </c>
       <c r="Z58">
-        <v>1.17</v>
+        <v>1.91</v>
       </c>
       <c r="AA58">
+        <v>3.4</v>
+      </c>
+      <c r="AB58">
+        <v>4</v>
+      </c>
+      <c r="AC58">
+        <v>1.06</v>
+      </c>
+      <c r="AD58">
+        <v>8</v>
+      </c>
+      <c r="AE58">
+        <v>1.36</v>
+      </c>
+      <c r="AF58">
+        <v>3</v>
+      </c>
+      <c r="AG58">
+        <v>2.15</v>
+      </c>
+      <c r="AH58">
+        <v>1.67</v>
+      </c>
+      <c r="AI58">
+        <v>1.95</v>
+      </c>
+      <c r="AJ58">
+        <v>1.83</v>
+      </c>
+      <c r="AK58">
+        <v>1.25</v>
+      </c>
+      <c r="AL58">
+        <v>1.3</v>
+      </c>
+      <c r="AM58">
+        <v>1.88</v>
+      </c>
+      <c r="AN58">
+        <v>2.33</v>
+      </c>
+      <c r="AO58">
+        <v>0</v>
+      </c>
+      <c r="AP58">
+        <v>2.5</v>
+      </c>
+      <c r="AQ58">
+        <v>0</v>
+      </c>
+      <c r="AR58">
+        <v>1.5</v>
+      </c>
+      <c r="AS58">
+        <v>1.37</v>
+      </c>
+      <c r="AT58">
+        <v>2.87</v>
+      </c>
+      <c r="AU58">
+        <v>5</v>
+      </c>
+      <c r="AV58">
         <v>7</v>
       </c>
-      <c r="AB58">
-        <v>14.5</v>
-      </c>
-      <c r="AC58">
-        <v>1.03</v>
-      </c>
-      <c r="AD58">
-        <v>11</v>
-      </c>
-      <c r="AE58">
-        <v>1.07</v>
-      </c>
-      <c r="AF58">
-        <v>5.4</v>
-      </c>
-      <c r="AG58">
-        <v>1.37</v>
-      </c>
-      <c r="AH58">
-        <v>2.71</v>
-      </c>
-      <c r="AI58">
-        <v>2.09</v>
-      </c>
-      <c r="AJ58">
-        <v>1.71</v>
-      </c>
-      <c r="AK58">
-        <v>1.03</v>
-      </c>
-      <c r="AL58">
-        <v>1.08</v>
-      </c>
-      <c r="AM58">
-        <v>4.75</v>
-      </c>
-      <c r="AN58">
-        <v>3</v>
-      </c>
-      <c r="AO58">
-        <v>0.5</v>
-      </c>
-      <c r="AP58">
-        <v>3</v>
-      </c>
-      <c r="AQ58">
-        <v>0.33</v>
-      </c>
-      <c r="AR58">
-        <v>2.01</v>
-      </c>
-      <c r="AS58">
-        <v>0.92</v>
-      </c>
-      <c r="AT58">
-        <v>2.93</v>
-      </c>
-      <c r="AU58">
-        <v>16</v>
-      </c>
-      <c r="AV58">
-        <v>2</v>
-      </c>
       <c r="AW58">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY58">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AZ58">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BA58">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BB58">
         <v>4</v>
       </c>
       <c r="BC58">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BD58">
-        <v>1.13</v>
+        <v>1.48</v>
       </c>
       <c r="BE58">
-        <v>10.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF58">
-        <v>6.1</v>
+        <v>2.95</v>
       </c>
       <c r="BG58">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="BH58">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="BI58">
         <v>1.57</v>
@@ -12812,7 +12830,7 @@
         <v>2.23</v>
       </c>
       <c r="BK58">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="BL58">
         <v>1.77</v>
@@ -12821,12 +12839,836 @@
         <v>2.4</v>
       </c>
       <c r="BN58">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="BO58">
         <v>3.05</v>
       </c>
       <c r="BP58">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7465063</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45556.875</v>
+      </c>
+      <c r="F59">
+        <v>6</v>
+      </c>
+      <c r="G59" t="s">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s">
+        <v>81</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59">
+        <v>3</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>5</v>
+      </c>
+      <c r="N59">
+        <v>6</v>
+      </c>
+      <c r="O59" t="s">
+        <v>134</v>
+      </c>
+      <c r="P59" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q59">
+        <v>4</v>
+      </c>
+      <c r="R59">
+        <v>2.6</v>
+      </c>
+      <c r="S59">
+        <v>2.25</v>
+      </c>
+      <c r="T59">
+        <v>1.22</v>
+      </c>
+      <c r="U59">
+        <v>4</v>
+      </c>
+      <c r="V59">
+        <v>2</v>
+      </c>
+      <c r="W59">
+        <v>1.73</v>
+      </c>
+      <c r="X59">
+        <v>4.33</v>
+      </c>
+      <c r="Y59">
+        <v>1.2</v>
+      </c>
+      <c r="Z59">
+        <v>4.2</v>
+      </c>
+      <c r="AA59">
+        <v>4</v>
+      </c>
+      <c r="AB59">
+        <v>1.75</v>
+      </c>
+      <c r="AC59">
+        <v>1.02</v>
+      </c>
+      <c r="AD59">
+        <v>26</v>
+      </c>
+      <c r="AE59">
+        <v>1.12</v>
+      </c>
+      <c r="AF59">
+        <v>6.25</v>
+      </c>
+      <c r="AG59">
+        <v>1.4</v>
+      </c>
+      <c r="AH59">
+        <v>3</v>
+      </c>
+      <c r="AI59">
+        <v>1.4</v>
+      </c>
+      <c r="AJ59">
+        <v>2.75</v>
+      </c>
+      <c r="AK59">
+        <v>2.05</v>
+      </c>
+      <c r="AL59">
+        <v>1.18</v>
+      </c>
+      <c r="AM59">
+        <v>1.22</v>
+      </c>
+      <c r="AN59">
+        <v>2</v>
+      </c>
+      <c r="AO59">
+        <v>3</v>
+      </c>
+      <c r="AP59">
+        <v>1.33</v>
+      </c>
+      <c r="AQ59">
+        <v>3</v>
+      </c>
+      <c r="AR59">
+        <v>1.71</v>
+      </c>
+      <c r="AS59">
+        <v>1.85</v>
+      </c>
+      <c r="AT59">
+        <v>3.56</v>
+      </c>
+      <c r="AU59">
+        <v>3</v>
+      </c>
+      <c r="AV59">
+        <v>4</v>
+      </c>
+      <c r="AW59">
+        <v>6</v>
+      </c>
+      <c r="AX59">
+        <v>2</v>
+      </c>
+      <c r="AY59">
+        <v>9</v>
+      </c>
+      <c r="AZ59">
+        <v>6</v>
+      </c>
+      <c r="BA59">
+        <v>7</v>
+      </c>
+      <c r="BB59">
+        <v>3</v>
+      </c>
+      <c r="BC59">
+        <v>10</v>
+      </c>
+      <c r="BD59">
+        <v>2.5</v>
+      </c>
+      <c r="BE59">
+        <v>6.25</v>
+      </c>
+      <c r="BF59">
+        <v>1.66</v>
+      </c>
+      <c r="BG59">
+        <v>1.32</v>
+      </c>
+      <c r="BH59">
+        <v>3.05</v>
+      </c>
+      <c r="BI59">
+        <v>1.56</v>
+      </c>
+      <c r="BJ59">
+        <v>2.23</v>
+      </c>
+      <c r="BK59">
+        <v>1.92</v>
+      </c>
+      <c r="BL59">
+        <v>1.77</v>
+      </c>
+      <c r="BM59">
+        <v>2.4</v>
+      </c>
+      <c r="BN59">
+        <v>1.49</v>
+      </c>
+      <c r="BO59">
+        <v>3.05</v>
+      </c>
+      <c r="BP59">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7465060</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45557.375</v>
+      </c>
+      <c r="F60">
+        <v>6</v>
+      </c>
+      <c r="G60" t="s">
+        <v>83</v>
+      </c>
+      <c r="H60" t="s">
+        <v>85</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60" t="s">
+        <v>135</v>
+      </c>
+      <c r="P60" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q60">
+        <v>2.9</v>
+      </c>
+      <c r="R60">
+        <v>1.75</v>
+      </c>
+      <c r="S60">
+        <v>5.25</v>
+      </c>
+      <c r="T60">
+        <v>1.7</v>
+      </c>
+      <c r="U60">
+        <v>2.05</v>
+      </c>
+      <c r="V60">
+        <v>4.33</v>
+      </c>
+      <c r="W60">
+        <v>1.18</v>
+      </c>
+      <c r="X60">
+        <v>9.75</v>
+      </c>
+      <c r="Y60">
+        <v>1.02</v>
+      </c>
+      <c r="Z60">
+        <v>2.1</v>
+      </c>
+      <c r="AA60">
+        <v>2.8</v>
+      </c>
+      <c r="AB60">
+        <v>4.33</v>
+      </c>
+      <c r="AC60">
+        <v>1.14</v>
+      </c>
+      <c r="AD60">
+        <v>5.25</v>
+      </c>
+      <c r="AE60">
+        <v>1.67</v>
+      </c>
+      <c r="AF60">
+        <v>2.15</v>
+      </c>
+      <c r="AG60">
+        <v>3.2</v>
+      </c>
+      <c r="AH60">
+        <v>1.33</v>
+      </c>
+      <c r="AI60">
+        <v>2.45</v>
+      </c>
+      <c r="AJ60">
+        <v>1.48</v>
+      </c>
+      <c r="AK60">
+        <v>1.23</v>
+      </c>
+      <c r="AL60">
+        <v>1.42</v>
+      </c>
+      <c r="AM60">
+        <v>1.7</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
+        <v>0.67</v>
+      </c>
+      <c r="AP60">
+        <v>1</v>
+      </c>
+      <c r="AQ60">
+        <v>0.75</v>
+      </c>
+      <c r="AR60">
+        <v>1.14</v>
+      </c>
+      <c r="AS60">
+        <v>0.67</v>
+      </c>
+      <c r="AT60">
+        <v>1.81</v>
+      </c>
+      <c r="AU60">
+        <v>4</v>
+      </c>
+      <c r="AV60">
+        <v>3</v>
+      </c>
+      <c r="AW60">
+        <v>2</v>
+      </c>
+      <c r="AX60">
+        <v>2</v>
+      </c>
+      <c r="AY60">
+        <v>6</v>
+      </c>
+      <c r="AZ60">
+        <v>5</v>
+      </c>
+      <c r="BA60">
+        <v>6</v>
+      </c>
+      <c r="BB60">
+        <v>2</v>
+      </c>
+      <c r="BC60">
+        <v>8</v>
+      </c>
+      <c r="BD60">
+        <v>1.58</v>
+      </c>
+      <c r="BE60">
+        <v>6.4</v>
+      </c>
+      <c r="BF60">
+        <v>2.65</v>
+      </c>
+      <c r="BG60">
+        <v>1.43</v>
+      </c>
+      <c r="BH60">
+        <v>2.55</v>
+      </c>
+      <c r="BI60">
+        <v>1.72</v>
+      </c>
+      <c r="BJ60">
+        <v>1.98</v>
+      </c>
+      <c r="BK60">
+        <v>2.15</v>
+      </c>
+      <c r="BL60">
+        <v>1.61</v>
+      </c>
+      <c r="BM60">
+        <v>2.75</v>
+      </c>
+      <c r="BN60">
+        <v>1.38</v>
+      </c>
+      <c r="BO60">
+        <v>3.65</v>
+      </c>
+      <c r="BP60">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7465062</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45557.66666666666</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+      <c r="G61" t="s">
+        <v>88</v>
+      </c>
+      <c r="H61" t="s">
+        <v>87</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61" t="s">
+        <v>136</v>
+      </c>
+      <c r="P61" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q61">
+        <v>5</v>
+      </c>
+      <c r="R61">
+        <v>2.1</v>
+      </c>
+      <c r="S61">
+        <v>2.5</v>
+      </c>
+      <c r="T61">
+        <v>1.44</v>
+      </c>
+      <c r="U61">
+        <v>2.63</v>
+      </c>
+      <c r="V61">
+        <v>3.25</v>
+      </c>
+      <c r="W61">
+        <v>1.33</v>
+      </c>
+      <c r="X61">
+        <v>10</v>
+      </c>
+      <c r="Y61">
+        <v>1.06</v>
+      </c>
+      <c r="Z61">
+        <v>4.75</v>
+      </c>
+      <c r="AA61">
+        <v>3.3</v>
+      </c>
+      <c r="AB61">
+        <v>1.8</v>
+      </c>
+      <c r="AC61">
+        <v>1.02</v>
+      </c>
+      <c r="AD61">
+        <v>7.2</v>
+      </c>
+      <c r="AE61">
+        <v>1.35</v>
+      </c>
+      <c r="AF61">
+        <v>2.79</v>
+      </c>
+      <c r="AG61">
+        <v>2.2</v>
+      </c>
+      <c r="AH61">
+        <v>1.68</v>
+      </c>
+      <c r="AI61">
+        <v>2</v>
+      </c>
+      <c r="AJ61">
+        <v>1.75</v>
+      </c>
+      <c r="AK61">
+        <v>1.95</v>
+      </c>
+      <c r="AL61">
+        <v>1.25</v>
+      </c>
+      <c r="AM61">
+        <v>1.18</v>
+      </c>
+      <c r="AN61">
+        <v>1.5</v>
+      </c>
+      <c r="AO61">
+        <v>2</v>
+      </c>
+      <c r="AP61">
+        <v>1.33</v>
+      </c>
+      <c r="AQ61">
+        <v>1.67</v>
+      </c>
+      <c r="AR61">
+        <v>1.49</v>
+      </c>
+      <c r="AS61">
+        <v>1.09</v>
+      </c>
+      <c r="AT61">
+        <v>2.58</v>
+      </c>
+      <c r="AU61">
+        <v>5</v>
+      </c>
+      <c r="AV61">
+        <v>6</v>
+      </c>
+      <c r="AW61">
+        <v>7</v>
+      </c>
+      <c r="AX61">
+        <v>2</v>
+      </c>
+      <c r="AY61">
+        <v>12</v>
+      </c>
+      <c r="AZ61">
+        <v>8</v>
+      </c>
+      <c r="BA61">
+        <v>3</v>
+      </c>
+      <c r="BB61">
+        <v>4</v>
+      </c>
+      <c r="BC61">
+        <v>7</v>
+      </c>
+      <c r="BD61">
+        <v>2.07</v>
+      </c>
+      <c r="BE61">
+        <v>6.25</v>
+      </c>
+      <c r="BF61">
+        <v>1.94</v>
+      </c>
+      <c r="BG61">
+        <v>1.41</v>
+      </c>
+      <c r="BH61">
+        <v>2.65</v>
+      </c>
+      <c r="BI61">
+        <v>1.68</v>
+      </c>
+      <c r="BJ61">
+        <v>2.02</v>
+      </c>
+      <c r="BK61">
+        <v>2.1</v>
+      </c>
+      <c r="BL61">
+        <v>1.64</v>
+      </c>
+      <c r="BM61">
+        <v>2.7</v>
+      </c>
+      <c r="BN61">
+        <v>1.38</v>
+      </c>
+      <c r="BO61">
+        <v>3.65</v>
+      </c>
+      <c r="BP61">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7465059</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45558.66666666666</v>
+      </c>
+      <c r="F62">
+        <v>6</v>
+      </c>
+      <c r="G62" t="s">
+        <v>71</v>
+      </c>
+      <c r="H62" t="s">
+        <v>77</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>3</v>
+      </c>
+      <c r="O62" t="s">
+        <v>137</v>
+      </c>
+      <c r="P62" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q62">
+        <v>2.6</v>
+      </c>
+      <c r="R62">
+        <v>1.95</v>
+      </c>
+      <c r="S62">
+        <v>5.5</v>
+      </c>
+      <c r="T62">
+        <v>1.53</v>
+      </c>
+      <c r="U62">
+        <v>2.38</v>
+      </c>
+      <c r="V62">
+        <v>3.75</v>
+      </c>
+      <c r="W62">
+        <v>1.25</v>
+      </c>
+      <c r="X62">
+        <v>11</v>
+      </c>
+      <c r="Y62">
+        <v>1.05</v>
+      </c>
+      <c r="Z62">
+        <v>1.85</v>
+      </c>
+      <c r="AA62">
+        <v>3.2</v>
+      </c>
+      <c r="AB62">
+        <v>4.5</v>
+      </c>
+      <c r="AC62">
+        <v>1.04</v>
+      </c>
+      <c r="AD62">
+        <v>6.25</v>
+      </c>
+      <c r="AE62">
+        <v>1.46</v>
+      </c>
+      <c r="AF62">
+        <v>2.75</v>
+      </c>
+      <c r="AG62">
+        <v>2.5</v>
+      </c>
+      <c r="AH62">
+        <v>1.53</v>
+      </c>
+      <c r="AI62">
+        <v>2.2</v>
+      </c>
+      <c r="AJ62">
+        <v>1.62</v>
+      </c>
+      <c r="AK62">
+        <v>1.2</v>
+      </c>
+      <c r="AL62">
+        <v>1.3</v>
+      </c>
+      <c r="AM62">
+        <v>1.96</v>
+      </c>
+      <c r="AN62">
+        <v>2.33</v>
+      </c>
+      <c r="AO62">
+        <v>1.5</v>
+      </c>
+      <c r="AP62">
+        <v>1.75</v>
+      </c>
+      <c r="AQ62">
+        <v>2</v>
+      </c>
+      <c r="AR62">
+        <v>1.68</v>
+      </c>
+      <c r="AS62">
+        <v>1.05</v>
+      </c>
+      <c r="AT62">
+        <v>2.73</v>
+      </c>
+      <c r="AU62">
+        <v>7</v>
+      </c>
+      <c r="AV62">
+        <v>7</v>
+      </c>
+      <c r="AW62">
+        <v>5</v>
+      </c>
+      <c r="AX62">
+        <v>1</v>
+      </c>
+      <c r="AY62">
+        <v>12</v>
+      </c>
+      <c r="AZ62">
+        <v>8</v>
+      </c>
+      <c r="BA62">
+        <v>6</v>
+      </c>
+      <c r="BB62">
+        <v>3</v>
+      </c>
+      <c r="BC62">
+        <v>9</v>
+      </c>
+      <c r="BD62">
+        <v>1.49</v>
+      </c>
+      <c r="BE62">
+        <v>6.75</v>
+      </c>
+      <c r="BF62">
+        <v>2.9</v>
+      </c>
+      <c r="BG62">
+        <v>1.33</v>
+      </c>
+      <c r="BH62">
+        <v>2.95</v>
+      </c>
+      <c r="BI62">
+        <v>1.56</v>
+      </c>
+      <c r="BJ62">
+        <v>2.23</v>
+      </c>
+      <c r="BK62">
+        <v>1.92</v>
+      </c>
+      <c r="BL62">
+        <v>1.77</v>
+      </c>
+      <c r="BM62">
+        <v>2.4</v>
+      </c>
+      <c r="BN62">
+        <v>1.49</v>
+      </c>
+      <c r="BO62">
+        <v>3.15</v>
+      </c>
+      <c r="BP62">
         <v>1.3</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="184">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,12 +424,27 @@
     <t>['83']</t>
   </si>
   <si>
+    <t>['4', '39', '80']</t>
+  </si>
+  <si>
     <t>['35']</t>
   </si>
   <si>
     <t>['7']</t>
   </si>
   <si>
+    <t>['45', '85']</t>
+  </si>
+  <si>
+    <t>['1', '40', '48']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -532,7 +547,25 @@
     <t>['76']</t>
   </si>
   <si>
+    <t>['25']</t>
+  </si>
+  <si>
     <t>['8', '90+3']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['85', '86']</t>
+  </si>
+  <si>
+    <t>['45+6', '63']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['90']</t>
   </si>
 </sst>
 </file>
@@ -894,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP62"/>
+  <dimension ref="A1:BP71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1153,7 +1186,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1231,10 +1264,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ2">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1359,7 +1392,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1565,7 +1598,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1643,10 +1676,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1771,7 +1804,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1849,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ5">
         <v>0.67</v>
@@ -1977,7 +2010,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2183,7 +2216,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2261,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ7">
         <v>3</v>
@@ -2389,7 +2422,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2470,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="AQ8">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2595,7 +2628,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3007,7 +3040,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3088,7 +3121,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ11">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3213,7 +3246,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3291,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ12">
         <v>0</v>
@@ -3419,7 +3452,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3497,10 +3530,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3831,7 +3864,7 @@
         <v>103</v>
       </c>
       <c r="P15" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4115,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16">
         <v>1.25</v>
@@ -4324,7 +4357,7 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4655,7 +4688,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -4942,7 +4975,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5273,7 +5306,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5685,7 +5718,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -5969,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ25">
         <v>0</v>
@@ -6303,7 +6336,7 @@
         <v>111</v>
       </c>
       <c r="P27" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q27">
         <v>2.3</v>
@@ -6384,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR27">
         <v>1.36</v>
@@ -6793,10 +6826,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -6921,7 +6954,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -6999,7 +7032,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ30">
         <v>1.67</v>
@@ -7333,7 +7366,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7411,10 +7444,10 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ32">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR32">
         <v>1.11</v>
@@ -7539,7 +7572,7 @@
         <v>115</v>
       </c>
       <c r="P33" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q33">
         <v>3.38</v>
@@ -7617,10 +7650,10 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR33">
         <v>1.22</v>
@@ -7745,7 +7778,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7951,7 +7984,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q35">
         <v>3.22</v>
@@ -8029,10 +8062,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ35">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR35">
         <v>0.87</v>
@@ -8157,7 +8190,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q36">
         <v>2.9</v>
@@ -8569,7 +8602,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -8647,7 +8680,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38">
         <v>1</v>
@@ -9062,7 +9095,7 @@
         <v>3</v>
       </c>
       <c r="AQ40">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR40">
         <v>2.11</v>
@@ -9393,7 +9426,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9474,7 +9507,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ42">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR42">
         <v>1.48</v>
@@ -9599,7 +9632,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -9677,10 +9710,10 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR43">
         <v>1.17</v>
@@ -9883,10 +9916,10 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ44">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR44">
         <v>1.7</v>
@@ -10011,7 +10044,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10217,7 +10250,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q46">
         <v>2.25</v>
@@ -10295,7 +10328,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ46">
         <v>0</v>
@@ -10423,7 +10456,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10501,7 +10534,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ47">
         <v>3</v>
@@ -10629,7 +10662,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -10707,7 +10740,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AQ48">
         <v>2</v>
@@ -11122,7 +11155,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ50">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR50">
         <v>1.14</v>
@@ -11453,7 +11486,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11534,7 +11567,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ52">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR52">
         <v>1.61</v>
@@ -11659,7 +11692,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12149,7 +12182,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -12277,7 +12310,7 @@
         <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q56">
         <v>1.51</v>
@@ -12689,7 +12722,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -12895,7 +12928,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13101,7 +13134,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q60">
         <v>2.9</v>
@@ -13265,7 +13298,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>7465062</v>
+        <v>7465058</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -13274,145 +13307,145 @@
         <v>69</v>
       </c>
       <c r="E61" s="2">
-        <v>45557.66666666666</v>
+        <v>45557.46875</v>
       </c>
       <c r="F61">
         <v>6</v>
       </c>
       <c r="G61" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H61" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M61">
         <v>1</v>
       </c>
       <c r="N61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O61" t="s">
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="Q61">
+        <v>2.25</v>
+      </c>
+      <c r="R61">
+        <v>2.3</v>
+      </c>
+      <c r="S61">
+        <v>4.75</v>
+      </c>
+      <c r="T61">
+        <v>1.33</v>
+      </c>
+      <c r="U61">
+        <v>3.25</v>
+      </c>
+      <c r="V61">
+        <v>2.63</v>
+      </c>
+      <c r="W61">
+        <v>1.44</v>
+      </c>
+      <c r="X61">
+        <v>6.5</v>
+      </c>
+      <c r="Y61">
+        <v>1.11</v>
+      </c>
+      <c r="Z61">
+        <v>1.67</v>
+      </c>
+      <c r="AA61">
+        <v>3.75</v>
+      </c>
+      <c r="AB61">
         <v>5</v>
       </c>
-      <c r="R61">
+      <c r="AC61">
+        <v>1.04</v>
+      </c>
+      <c r="AD61">
+        <v>14.25</v>
+      </c>
+      <c r="AE61">
+        <v>1.24</v>
+      </c>
+      <c r="AF61">
+        <v>4.15</v>
+      </c>
+      <c r="AG61">
+        <v>1.75</v>
+      </c>
+      <c r="AH61">
         <v>2.1</v>
       </c>
-      <c r="S61">
-        <v>2.5</v>
-      </c>
-      <c r="T61">
-        <v>1.44</v>
-      </c>
-      <c r="U61">
-        <v>2.63</v>
-      </c>
-      <c r="V61">
-        <v>3.25</v>
-      </c>
-      <c r="W61">
+      <c r="AI61">
+        <v>1.75</v>
+      </c>
+      <c r="AJ61">
+        <v>2</v>
+      </c>
+      <c r="AK61">
+        <v>1.2</v>
+      </c>
+      <c r="AL61">
+        <v>1.27</v>
+      </c>
+      <c r="AM61">
+        <v>2.15</v>
+      </c>
+      <c r="AN61">
         <v>1.33</v>
       </c>
-      <c r="X61">
-        <v>10</v>
-      </c>
-      <c r="Y61">
-        <v>1.06</v>
-      </c>
-      <c r="Z61">
-        <v>4.75</v>
-      </c>
-      <c r="AA61">
-        <v>3.3</v>
-      </c>
-      <c r="AB61">
-        <v>1.8</v>
-      </c>
-      <c r="AC61">
-        <v>1.02</v>
-      </c>
-      <c r="AD61">
-        <v>7.2</v>
-      </c>
-      <c r="AE61">
-        <v>1.35</v>
-      </c>
-      <c r="AF61">
+      <c r="AO61">
+        <v>0</v>
+      </c>
+      <c r="AP61">
+        <v>1.75</v>
+      </c>
+      <c r="AQ61">
+        <v>0</v>
+      </c>
+      <c r="AR61">
+        <v>1.11</v>
+      </c>
+      <c r="AS61">
+        <v>1.68</v>
+      </c>
+      <c r="AT61">
         <v>2.79</v>
       </c>
-      <c r="AG61">
-        <v>2.2</v>
-      </c>
-      <c r="AH61">
-        <v>1.68</v>
-      </c>
-      <c r="AI61">
-        <v>2</v>
-      </c>
-      <c r="AJ61">
-        <v>1.75</v>
-      </c>
-      <c r="AK61">
-        <v>1.95</v>
-      </c>
-      <c r="AL61">
-        <v>1.25</v>
-      </c>
-      <c r="AM61">
-        <v>1.18</v>
-      </c>
-      <c r="AN61">
-        <v>1.5</v>
-      </c>
-      <c r="AO61">
-        <v>2</v>
-      </c>
-      <c r="AP61">
-        <v>1.33</v>
-      </c>
-      <c r="AQ61">
-        <v>1.67</v>
-      </c>
-      <c r="AR61">
-        <v>1.49</v>
-      </c>
-      <c r="AS61">
-        <v>1.09</v>
-      </c>
-      <c r="AT61">
-        <v>2.58</v>
-      </c>
       <c r="AU61">
+        <v>6</v>
+      </c>
+      <c r="AV61">
         <v>5</v>
       </c>
-      <c r="AV61">
-        <v>6</v>
-      </c>
       <c r="AW61">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY61">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ61">
         <v>8</v>
@@ -13421,49 +13454,49 @@
         <v>3</v>
       </c>
       <c r="BB61">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC61">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD61">
-        <v>2.07</v>
+        <v>1.32</v>
       </c>
       <c r="BE61">
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="BF61">
-        <v>1.94</v>
+        <v>3.65</v>
       </c>
       <c r="BG61">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="BH61">
-        <v>2.65</v>
+        <v>3.15</v>
       </c>
       <c r="BI61">
-        <v>1.68</v>
+        <v>1.5</v>
       </c>
       <c r="BJ61">
-        <v>2.02</v>
+        <v>2.33</v>
       </c>
       <c r="BK61">
-        <v>2.1</v>
+        <v>1.84</v>
       </c>
       <c r="BL61">
-        <v>1.64</v>
+        <v>1.84</v>
       </c>
       <c r="BM61">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="BN61">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="BO61">
-        <v>3.65</v>
+        <v>2.9</v>
       </c>
       <c r="BP61">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="62" spans="1:68">
@@ -13471,7 +13504,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>7465059</v>
+        <v>7465062</v>
       </c>
       <c r="C62" t="s">
         <v>68</v>
@@ -13480,142 +13513,142 @@
         <v>69</v>
       </c>
       <c r="E62" s="2">
-        <v>45558.66666666666</v>
+        <v>45557.66666666666</v>
       </c>
       <c r="F62">
         <v>6</v>
       </c>
       <c r="G62" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I62">
         <v>1</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L62">
         <v>1</v>
       </c>
       <c r="M62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O62" t="s">
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q62">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="R62">
+        <v>2.1</v>
+      </c>
+      <c r="S62">
+        <v>2.5</v>
+      </c>
+      <c r="T62">
+        <v>1.44</v>
+      </c>
+      <c r="U62">
+        <v>2.63</v>
+      </c>
+      <c r="V62">
+        <v>3.25</v>
+      </c>
+      <c r="W62">
+        <v>1.33</v>
+      </c>
+      <c r="X62">
+        <v>10</v>
+      </c>
+      <c r="Y62">
+        <v>1.06</v>
+      </c>
+      <c r="Z62">
+        <v>4.75</v>
+      </c>
+      <c r="AA62">
+        <v>3.3</v>
+      </c>
+      <c r="AB62">
+        <v>1.8</v>
+      </c>
+      <c r="AC62">
+        <v>1.02</v>
+      </c>
+      <c r="AD62">
+        <v>7.2</v>
+      </c>
+      <c r="AE62">
+        <v>1.35</v>
+      </c>
+      <c r="AF62">
+        <v>2.79</v>
+      </c>
+      <c r="AG62">
+        <v>2.2</v>
+      </c>
+      <c r="AH62">
+        <v>1.68</v>
+      </c>
+      <c r="AI62">
+        <v>2</v>
+      </c>
+      <c r="AJ62">
+        <v>1.75</v>
+      </c>
+      <c r="AK62">
         <v>1.95</v>
       </c>
-      <c r="S62">
-        <v>5.5</v>
-      </c>
-      <c r="T62">
-        <v>1.53</v>
-      </c>
-      <c r="U62">
-        <v>2.38</v>
-      </c>
-      <c r="V62">
-        <v>3.75</v>
-      </c>
-      <c r="W62">
+      <c r="AL62">
         <v>1.25</v>
       </c>
-      <c r="X62">
-        <v>11</v>
-      </c>
-      <c r="Y62">
-        <v>1.05</v>
-      </c>
-      <c r="Z62">
-        <v>1.85</v>
-      </c>
-      <c r="AA62">
-        <v>3.2</v>
-      </c>
-      <c r="AB62">
-        <v>4.5</v>
-      </c>
-      <c r="AC62">
-        <v>1.04</v>
-      </c>
-      <c r="AD62">
-        <v>6.25</v>
-      </c>
-      <c r="AE62">
-        <v>1.46</v>
-      </c>
-      <c r="AF62">
-        <v>2.75</v>
-      </c>
-      <c r="AG62">
-        <v>2.5</v>
-      </c>
-      <c r="AH62">
-        <v>1.53</v>
-      </c>
-      <c r="AI62">
-        <v>2.2</v>
-      </c>
-      <c r="AJ62">
-        <v>1.62</v>
-      </c>
-      <c r="AK62">
-        <v>1.2</v>
-      </c>
-      <c r="AL62">
-        <v>1.3</v>
-      </c>
       <c r="AM62">
-        <v>1.96</v>
+        <v>1.18</v>
       </c>
       <c r="AN62">
-        <v>2.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO62">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AQ62">
         <v>2</v>
       </c>
       <c r="AR62">
-        <v>1.68</v>
+        <v>1.49</v>
       </c>
       <c r="AS62">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="AT62">
-        <v>2.73</v>
+        <v>2.58</v>
       </c>
       <c r="AU62">
+        <v>5</v>
+      </c>
+      <c r="AV62">
+        <v>6</v>
+      </c>
+      <c r="AW62">
         <v>7</v>
       </c>
-      <c r="AV62">
-        <v>7</v>
-      </c>
-      <c r="AW62">
-        <v>5</v>
-      </c>
       <c r="AX62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY62">
         <v>12</v>
@@ -13624,52 +13657,1906 @@
         <v>8</v>
       </c>
       <c r="BA62">
+        <v>3</v>
+      </c>
+      <c r="BB62">
+        <v>4</v>
+      </c>
+      <c r="BC62">
+        <v>7</v>
+      </c>
+      <c r="BD62">
+        <v>2.07</v>
+      </c>
+      <c r="BE62">
+        <v>6.25</v>
+      </c>
+      <c r="BF62">
+        <v>1.94</v>
+      </c>
+      <c r="BG62">
+        <v>1.41</v>
+      </c>
+      <c r="BH62">
+        <v>2.65</v>
+      </c>
+      <c r="BI62">
+        <v>1.68</v>
+      </c>
+      <c r="BJ62">
+        <v>2.02</v>
+      </c>
+      <c r="BK62">
+        <v>2.1</v>
+      </c>
+      <c r="BL62">
+        <v>1.64</v>
+      </c>
+      <c r="BM62">
+        <v>2.7</v>
+      </c>
+      <c r="BN62">
+        <v>1.38</v>
+      </c>
+      <c r="BO62">
+        <v>3.65</v>
+      </c>
+      <c r="BP62">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7465059</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45558.66666666666</v>
+      </c>
+      <c r="F63">
         <v>6</v>
       </c>
-      <c r="BB62">
-        <v>3</v>
-      </c>
-      <c r="BC62">
+      <c r="G63" t="s">
+        <v>71</v>
+      </c>
+      <c r="H63" t="s">
+        <v>77</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63" t="s">
+        <v>138</v>
+      </c>
+      <c r="P63" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q63">
+        <v>2.6</v>
+      </c>
+      <c r="R63">
+        <v>1.95</v>
+      </c>
+      <c r="S63">
+        <v>5.5</v>
+      </c>
+      <c r="T63">
+        <v>1.53</v>
+      </c>
+      <c r="U63">
+        <v>2.38</v>
+      </c>
+      <c r="V63">
+        <v>3.75</v>
+      </c>
+      <c r="W63">
+        <v>1.25</v>
+      </c>
+      <c r="X63">
+        <v>11</v>
+      </c>
+      <c r="Y63">
+        <v>1.05</v>
+      </c>
+      <c r="Z63">
+        <v>1.85</v>
+      </c>
+      <c r="AA63">
+        <v>3.2</v>
+      </c>
+      <c r="AB63">
+        <v>4.5</v>
+      </c>
+      <c r="AC63">
+        <v>1.04</v>
+      </c>
+      <c r="AD63">
+        <v>6.25</v>
+      </c>
+      <c r="AE63">
+        <v>1.46</v>
+      </c>
+      <c r="AF63">
+        <v>2.75</v>
+      </c>
+      <c r="AG63">
+        <v>2.5</v>
+      </c>
+      <c r="AH63">
+        <v>1.53</v>
+      </c>
+      <c r="AI63">
+        <v>2.2</v>
+      </c>
+      <c r="AJ63">
+        <v>1.62</v>
+      </c>
+      <c r="AK63">
+        <v>1.2</v>
+      </c>
+      <c r="AL63">
+        <v>1.3</v>
+      </c>
+      <c r="AM63">
+        <v>1.96</v>
+      </c>
+      <c r="AN63">
+        <v>2.33</v>
+      </c>
+      <c r="AO63">
+        <v>1.5</v>
+      </c>
+      <c r="AP63">
+        <v>1.75</v>
+      </c>
+      <c r="AQ63">
+        <v>2</v>
+      </c>
+      <c r="AR63">
+        <v>1.68</v>
+      </c>
+      <c r="AS63">
+        <v>1.05</v>
+      </c>
+      <c r="AT63">
+        <v>2.73</v>
+      </c>
+      <c r="AU63">
+        <v>7</v>
+      </c>
+      <c r="AV63">
+        <v>7</v>
+      </c>
+      <c r="AW63">
+        <v>5</v>
+      </c>
+      <c r="AX63">
+        <v>1</v>
+      </c>
+      <c r="AY63">
+        <v>12</v>
+      </c>
+      <c r="AZ63">
+        <v>8</v>
+      </c>
+      <c r="BA63">
+        <v>6</v>
+      </c>
+      <c r="BB63">
+        <v>3</v>
+      </c>
+      <c r="BC63">
         <v>9</v>
       </c>
-      <c r="BD62">
+      <c r="BD63">
         <v>1.49</v>
       </c>
-      <c r="BE62">
+      <c r="BE63">
         <v>6.75</v>
       </c>
-      <c r="BF62">
+      <c r="BF63">
         <v>2.9</v>
       </c>
-      <c r="BG62">
+      <c r="BG63">
         <v>1.33</v>
       </c>
-      <c r="BH62">
+      <c r="BH63">
         <v>2.95</v>
       </c>
-      <c r="BI62">
+      <c r="BI63">
         <v>1.56</v>
       </c>
-      <c r="BJ62">
+      <c r="BJ63">
         <v>2.23</v>
       </c>
-      <c r="BK62">
+      <c r="BK63">
         <v>1.92</v>
       </c>
-      <c r="BL62">
+      <c r="BL63">
         <v>1.77</v>
       </c>
-      <c r="BM62">
+      <c r="BM63">
         <v>2.4</v>
       </c>
-      <c r="BN62">
+      <c r="BN63">
         <v>1.49</v>
       </c>
-      <c r="BO62">
+      <c r="BO63">
         <v>3.15</v>
       </c>
-      <c r="BP62">
+      <c r="BP63">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7465070</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45559.58333333334</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64" t="s">
+        <v>80</v>
+      </c>
+      <c r="H64" t="s">
+        <v>78</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>3</v>
+      </c>
+      <c r="O64" t="s">
+        <v>139</v>
+      </c>
+      <c r="P64" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q64">
+        <v>2.38</v>
+      </c>
+      <c r="R64">
+        <v>2.2</v>
+      </c>
+      <c r="S64">
+        <v>5</v>
+      </c>
+      <c r="T64">
+        <v>1.4</v>
+      </c>
+      <c r="U64">
+        <v>2.75</v>
+      </c>
+      <c r="V64">
+        <v>3</v>
+      </c>
+      <c r="W64">
+        <v>1.36</v>
+      </c>
+      <c r="X64">
+        <v>8</v>
+      </c>
+      <c r="Y64">
+        <v>1.08</v>
+      </c>
+      <c r="Z64">
+        <v>1.75</v>
+      </c>
+      <c r="AA64">
+        <v>3.7</v>
+      </c>
+      <c r="AB64">
+        <v>4.6</v>
+      </c>
+      <c r="AC64">
+        <v>1.05</v>
+      </c>
+      <c r="AD64">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE64">
+        <v>1.31</v>
+      </c>
+      <c r="AF64">
+        <v>3.42</v>
+      </c>
+      <c r="AG64">
+        <v>1.91</v>
+      </c>
+      <c r="AH64">
+        <v>1.8</v>
+      </c>
+      <c r="AI64">
+        <v>1.91</v>
+      </c>
+      <c r="AJ64">
+        <v>1.91</v>
+      </c>
+      <c r="AK64">
+        <v>1.2</v>
+      </c>
+      <c r="AL64">
+        <v>1.24</v>
+      </c>
+      <c r="AM64">
+        <v>2.1</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
+        <v>0</v>
+      </c>
+      <c r="AP64">
+        <v>1.5</v>
+      </c>
+      <c r="AQ64">
+        <v>0</v>
+      </c>
+      <c r="AR64">
+        <v>1.56</v>
+      </c>
+      <c r="AS64">
+        <v>0.74</v>
+      </c>
+      <c r="AT64">
+        <v>2.3</v>
+      </c>
+      <c r="AU64">
+        <v>6</v>
+      </c>
+      <c r="AV64">
+        <v>3</v>
+      </c>
+      <c r="AW64">
+        <v>6</v>
+      </c>
+      <c r="AX64">
+        <v>3</v>
+      </c>
+      <c r="AY64">
+        <v>12</v>
+      </c>
+      <c r="AZ64">
+        <v>6</v>
+      </c>
+      <c r="BA64">
+        <v>6</v>
+      </c>
+      <c r="BB64">
+        <v>4</v>
+      </c>
+      <c r="BC64">
+        <v>10</v>
+      </c>
+      <c r="BD64">
+        <v>1.49</v>
+      </c>
+      <c r="BE64">
+        <v>6.75</v>
+      </c>
+      <c r="BF64">
+        <v>2.9</v>
+      </c>
+      <c r="BG64">
+        <v>1.33</v>
+      </c>
+      <c r="BH64">
+        <v>2.95</v>
+      </c>
+      <c r="BI64">
+        <v>1.57</v>
+      </c>
+      <c r="BJ64">
+        <v>2.23</v>
+      </c>
+      <c r="BK64">
+        <v>1.94</v>
+      </c>
+      <c r="BL64">
+        <v>1.76</v>
+      </c>
+      <c r="BM64">
+        <v>2.43</v>
+      </c>
+      <c r="BN64">
+        <v>1.47</v>
+      </c>
+      <c r="BO64">
+        <v>3.15</v>
+      </c>
+      <c r="BP64">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7465074</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45559.58333333334</v>
+      </c>
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="G65" t="s">
+        <v>75</v>
+      </c>
+      <c r="H65" t="s">
+        <v>74</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65" t="s">
+        <v>104</v>
+      </c>
+      <c r="P65" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q65">
+        <v>2.88</v>
+      </c>
+      <c r="R65">
+        <v>2</v>
+      </c>
+      <c r="S65">
+        <v>4.33</v>
+      </c>
+      <c r="T65">
+        <v>1.53</v>
+      </c>
+      <c r="U65">
+        <v>2.38</v>
+      </c>
+      <c r="V65">
+        <v>3.5</v>
+      </c>
+      <c r="W65">
+        <v>1.29</v>
+      </c>
+      <c r="X65">
+        <v>11</v>
+      </c>
+      <c r="Y65">
+        <v>1.05</v>
+      </c>
+      <c r="Z65">
+        <v>2.1</v>
+      </c>
+      <c r="AA65">
+        <v>3.2</v>
+      </c>
+      <c r="AB65">
+        <v>3.7</v>
+      </c>
+      <c r="AC65">
+        <v>1.04</v>
+      </c>
+      <c r="AD65">
+        <v>6.55</v>
+      </c>
+      <c r="AE65">
+        <v>1.46</v>
+      </c>
+      <c r="AF65">
+        <v>2.77</v>
+      </c>
+      <c r="AG65">
+        <v>2.3</v>
+      </c>
+      <c r="AH65">
+        <v>1.55</v>
+      </c>
+      <c r="AI65">
+        <v>2.05</v>
+      </c>
+      <c r="AJ65">
+        <v>1.7</v>
+      </c>
+      <c r="AK65">
+        <v>1.28</v>
+      </c>
+      <c r="AL65">
+        <v>1.3</v>
+      </c>
+      <c r="AM65">
+        <v>1.75</v>
+      </c>
+      <c r="AN65">
+        <v>1.33</v>
+      </c>
+      <c r="AO65">
+        <v>0</v>
+      </c>
+      <c r="AP65">
+        <v>1.25</v>
+      </c>
+      <c r="AQ65">
+        <v>0.33</v>
+      </c>
+      <c r="AR65">
+        <v>1.38</v>
+      </c>
+      <c r="AS65">
+        <v>0.55</v>
+      </c>
+      <c r="AT65">
+        <v>1.93</v>
+      </c>
+      <c r="AU65">
+        <v>4</v>
+      </c>
+      <c r="AV65">
+        <v>3</v>
+      </c>
+      <c r="AW65">
+        <v>3</v>
+      </c>
+      <c r="AX65">
+        <v>4</v>
+      </c>
+      <c r="AY65">
+        <v>7</v>
+      </c>
+      <c r="AZ65">
+        <v>7</v>
+      </c>
+      <c r="BA65">
+        <v>10</v>
+      </c>
+      <c r="BB65">
+        <v>5</v>
+      </c>
+      <c r="BC65">
+        <v>15</v>
+      </c>
+      <c r="BD65">
+        <v>1.72</v>
+      </c>
+      <c r="BE65">
+        <v>6.4</v>
+      </c>
+      <c r="BF65">
+        <v>2.38</v>
+      </c>
+      <c r="BG65">
+        <v>1.41</v>
+      </c>
+      <c r="BH65">
+        <v>2.63</v>
+      </c>
+      <c r="BI65">
+        <v>1.71</v>
+      </c>
+      <c r="BJ65">
+        <v>2</v>
+      </c>
+      <c r="BK65">
+        <v>2.12</v>
+      </c>
+      <c r="BL65">
+        <v>1.63</v>
+      </c>
+      <c r="BM65">
+        <v>2.7</v>
+      </c>
+      <c r="BN65">
+        <v>1.4</v>
+      </c>
+      <c r="BO65">
+        <v>3.65</v>
+      </c>
+      <c r="BP65">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7465075</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45559.66666666666</v>
+      </c>
+      <c r="F66">
+        <v>7</v>
+      </c>
+      <c r="G66" t="s">
+        <v>84</v>
+      </c>
+      <c r="H66" t="s">
+        <v>86</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <v>3</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>5</v>
+      </c>
+      <c r="O66" t="s">
+        <v>140</v>
+      </c>
+      <c r="P66" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q66">
+        <v>1.62</v>
+      </c>
+      <c r="R66">
+        <v>2.75</v>
+      </c>
+      <c r="S66">
+        <v>9.5</v>
+      </c>
+      <c r="T66">
+        <v>1.25</v>
+      </c>
+      <c r="U66">
+        <v>3.75</v>
+      </c>
+      <c r="V66">
+        <v>2.25</v>
+      </c>
+      <c r="W66">
+        <v>1.57</v>
+      </c>
+      <c r="X66">
+        <v>5.5</v>
+      </c>
+      <c r="Y66">
+        <v>1.14</v>
+      </c>
+      <c r="Z66">
+        <v>1.22</v>
+      </c>
+      <c r="AA66">
+        <v>6.5</v>
+      </c>
+      <c r="AB66">
+        <v>12</v>
+      </c>
+      <c r="AC66">
+        <v>1.02</v>
+      </c>
+      <c r="AD66">
+        <v>19.5</v>
+      </c>
+      <c r="AE66">
+        <v>1.12</v>
+      </c>
+      <c r="AF66">
+        <v>4.5</v>
+      </c>
+      <c r="AG66">
+        <v>1.55</v>
+      </c>
+      <c r="AH66">
+        <v>2.45</v>
+      </c>
+      <c r="AI66">
+        <v>2.1</v>
+      </c>
+      <c r="AJ66">
+        <v>1.67</v>
+      </c>
+      <c r="AK66">
+        <v>1.03</v>
+      </c>
+      <c r="AL66">
+        <v>1.12</v>
+      </c>
+      <c r="AM66">
+        <v>4.5</v>
+      </c>
+      <c r="AN66">
+        <v>3</v>
+      </c>
+      <c r="AO66">
+        <v>1</v>
+      </c>
+      <c r="AP66">
+        <v>3</v>
+      </c>
+      <c r="AQ66">
+        <v>0.75</v>
+      </c>
+      <c r="AR66">
+        <v>2.01</v>
+      </c>
+      <c r="AS66">
+        <v>1.51</v>
+      </c>
+      <c r="AT66">
+        <v>3.52</v>
+      </c>
+      <c r="AU66">
+        <v>5</v>
+      </c>
+      <c r="AV66">
+        <v>4</v>
+      </c>
+      <c r="AW66">
+        <v>3</v>
+      </c>
+      <c r="AX66">
+        <v>5</v>
+      </c>
+      <c r="AY66">
+        <v>8</v>
+      </c>
+      <c r="AZ66">
+        <v>9</v>
+      </c>
+      <c r="BA66">
+        <v>4</v>
+      </c>
+      <c r="BB66">
+        <v>4</v>
+      </c>
+      <c r="BC66">
+        <v>8</v>
+      </c>
+      <c r="BD66">
+        <v>1.19</v>
+      </c>
+      <c r="BE66">
+        <v>8.5</v>
+      </c>
+      <c r="BF66">
+        <v>5.1</v>
+      </c>
+      <c r="BG66">
+        <v>1.35</v>
+      </c>
+      <c r="BH66">
+        <v>2.9</v>
+      </c>
+      <c r="BI66">
+        <v>1.58</v>
+      </c>
+      <c r="BJ66">
+        <v>2.18</v>
+      </c>
+      <c r="BK66">
+        <v>1.96</v>
+      </c>
+      <c r="BL66">
+        <v>1.74</v>
+      </c>
+      <c r="BM66">
+        <v>2.48</v>
+      </c>
+      <c r="BN66">
+        <v>1.47</v>
+      </c>
+      <c r="BO66">
+        <v>3.2</v>
+      </c>
+      <c r="BP66">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7465068</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45560.58333333334</v>
+      </c>
+      <c r="F67">
+        <v>7</v>
+      </c>
+      <c r="G67" t="s">
+        <v>89</v>
+      </c>
+      <c r="H67" t="s">
+        <v>88</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67" t="s">
+        <v>104</v>
+      </c>
+      <c r="P67" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q67">
+        <v>2.4</v>
+      </c>
+      <c r="R67">
+        <v>2.2</v>
+      </c>
+      <c r="S67">
+        <v>4.75</v>
+      </c>
+      <c r="T67">
+        <v>1.4</v>
+      </c>
+      <c r="U67">
+        <v>2.75</v>
+      </c>
+      <c r="V67">
+        <v>2.75</v>
+      </c>
+      <c r="W67">
+        <v>1.4</v>
+      </c>
+      <c r="X67">
+        <v>8</v>
+      </c>
+      <c r="Y67">
+        <v>1.08</v>
+      </c>
+      <c r="Z67">
+        <v>1.8</v>
+      </c>
+      <c r="AA67">
+        <v>3.7</v>
+      </c>
+      <c r="AB67">
+        <v>4.2</v>
+      </c>
+      <c r="AC67">
+        <v>1.05</v>
+      </c>
+      <c r="AD67">
+        <v>11</v>
+      </c>
+      <c r="AE67">
+        <v>1.32</v>
+      </c>
+      <c r="AF67">
+        <v>3.4</v>
+      </c>
+      <c r="AG67">
+        <v>1.85</v>
+      </c>
+      <c r="AH67">
+        <v>1.83</v>
+      </c>
+      <c r="AI67">
+        <v>1.8</v>
+      </c>
+      <c r="AJ67">
+        <v>1.95</v>
+      </c>
+      <c r="AK67">
+        <v>1.22</v>
+      </c>
+      <c r="AL67">
+        <v>1.24</v>
+      </c>
+      <c r="AM67">
+        <v>2</v>
+      </c>
+      <c r="AN67">
+        <v>1.5</v>
+      </c>
+      <c r="AO67">
+        <v>1.33</v>
+      </c>
+      <c r="AP67">
+        <v>1.33</v>
+      </c>
+      <c r="AQ67">
+        <v>1.25</v>
+      </c>
+      <c r="AR67">
+        <v>1.32</v>
+      </c>
+      <c r="AS67">
+        <v>1.14</v>
+      </c>
+      <c r="AT67">
+        <v>2.46</v>
+      </c>
+      <c r="AU67">
+        <v>2</v>
+      </c>
+      <c r="AV67">
+        <v>0</v>
+      </c>
+      <c r="AW67">
+        <v>7</v>
+      </c>
+      <c r="AX67">
+        <v>3</v>
+      </c>
+      <c r="AY67">
+        <v>9</v>
+      </c>
+      <c r="AZ67">
+        <v>3</v>
+      </c>
+      <c r="BA67">
+        <v>4</v>
+      </c>
+      <c r="BB67">
+        <v>3</v>
+      </c>
+      <c r="BC67">
+        <v>7</v>
+      </c>
+      <c r="BD67">
+        <v>1.57</v>
+      </c>
+      <c r="BE67">
+        <v>6.4</v>
+      </c>
+      <c r="BF67">
+        <v>2.65</v>
+      </c>
+      <c r="BG67">
+        <v>1.41</v>
+      </c>
+      <c r="BH67">
+        <v>2.65</v>
+      </c>
+      <c r="BI67">
+        <v>1.67</v>
+      </c>
+      <c r="BJ67">
+        <v>2.05</v>
+      </c>
+      <c r="BK67">
+        <v>2.08</v>
+      </c>
+      <c r="BL67">
+        <v>1.65</v>
+      </c>
+      <c r="BM67">
+        <v>2.65</v>
+      </c>
+      <c r="BN67">
+        <v>1.41</v>
+      </c>
+      <c r="BO67">
+        <v>3.55</v>
+      </c>
+      <c r="BP67">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7465067</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45560.66666666666</v>
+      </c>
+      <c r="F68">
+        <v>7</v>
+      </c>
+      <c r="G68" t="s">
+        <v>81</v>
+      </c>
+      <c r="H68" t="s">
+        <v>83</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
+        <v>141</v>
+      </c>
+      <c r="P68" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q68">
+        <v>1.73</v>
+      </c>
+      <c r="R68">
+        <v>2.6</v>
+      </c>
+      <c r="S68">
+        <v>8.5</v>
+      </c>
+      <c r="T68">
+        <v>1.3</v>
+      </c>
+      <c r="U68">
+        <v>3.4</v>
+      </c>
+      <c r="V68">
+        <v>2.5</v>
+      </c>
+      <c r="W68">
+        <v>1.5</v>
+      </c>
+      <c r="X68">
+        <v>6</v>
+      </c>
+      <c r="Y68">
+        <v>1.13</v>
+      </c>
+      <c r="Z68">
+        <v>1.28</v>
+      </c>
+      <c r="AA68">
+        <v>5.75</v>
+      </c>
+      <c r="AB68">
+        <v>10</v>
+      </c>
+      <c r="AC68">
+        <v>1.02</v>
+      </c>
+      <c r="AD68">
+        <v>17</v>
+      </c>
+      <c r="AE68">
+        <v>1.2</v>
+      </c>
+      <c r="AF68">
+        <v>4.5</v>
+      </c>
+      <c r="AG68">
+        <v>1.61</v>
+      </c>
+      <c r="AH68">
+        <v>2.15</v>
+      </c>
+      <c r="AI68">
+        <v>2.1</v>
+      </c>
+      <c r="AJ68">
+        <v>1.67</v>
+      </c>
+      <c r="AK68">
+        <v>1.02</v>
+      </c>
+      <c r="AL68">
+        <v>1.11</v>
+      </c>
+      <c r="AM68">
+        <v>3.75</v>
+      </c>
+      <c r="AN68">
+        <v>3</v>
+      </c>
+      <c r="AO68">
+        <v>0.33</v>
+      </c>
+      <c r="AP68">
+        <v>3</v>
+      </c>
+      <c r="AQ68">
+        <v>0.25</v>
+      </c>
+      <c r="AR68">
+        <v>1.97</v>
+      </c>
+      <c r="AS68">
+        <v>1.25</v>
+      </c>
+      <c r="AT68">
+        <v>3.22</v>
+      </c>
+      <c r="AU68">
+        <v>5</v>
+      </c>
+      <c r="AV68">
+        <v>2</v>
+      </c>
+      <c r="AW68">
+        <v>6</v>
+      </c>
+      <c r="AX68">
+        <v>3</v>
+      </c>
+      <c r="AY68">
+        <v>11</v>
+      </c>
+      <c r="AZ68">
+        <v>5</v>
+      </c>
+      <c r="BA68">
+        <v>7</v>
+      </c>
+      <c r="BB68">
+        <v>5</v>
+      </c>
+      <c r="BC68">
+        <v>12</v>
+      </c>
+      <c r="BD68">
+        <v>1.16</v>
+      </c>
+      <c r="BE68">
+        <v>9.5</v>
+      </c>
+      <c r="BF68">
+        <v>5.4</v>
+      </c>
+      <c r="BG68">
+        <v>1.3</v>
+      </c>
+      <c r="BH68">
+        <v>3.15</v>
+      </c>
+      <c r="BI68">
+        <v>1.5</v>
+      </c>
+      <c r="BJ68">
+        <v>2.35</v>
+      </c>
+      <c r="BK68">
+        <v>1.82</v>
+      </c>
+      <c r="BL68">
+        <v>1.86</v>
+      </c>
+      <c r="BM68">
+        <v>2.25</v>
+      </c>
+      <c r="BN68">
+        <v>1.55</v>
+      </c>
+      <c r="BO68">
+        <v>2.9</v>
+      </c>
+      <c r="BP68">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7469578</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45561.58333333334</v>
+      </c>
+      <c r="F69">
+        <v>7</v>
+      </c>
+      <c r="G69" t="s">
+        <v>82</v>
+      </c>
+      <c r="H69" t="s">
+        <v>79</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="O69" t="s">
+        <v>142</v>
+      </c>
+      <c r="P69" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q69">
+        <v>4</v>
+      </c>
+      <c r="R69">
+        <v>2.2</v>
+      </c>
+      <c r="S69">
+        <v>2.75</v>
+      </c>
+      <c r="T69">
+        <v>1.36</v>
+      </c>
+      <c r="U69">
+        <v>3</v>
+      </c>
+      <c r="V69">
+        <v>2.75</v>
+      </c>
+      <c r="W69">
+        <v>1.4</v>
+      </c>
+      <c r="X69">
+        <v>7</v>
+      </c>
+      <c r="Y69">
+        <v>1.1</v>
+      </c>
+      <c r="Z69">
+        <v>3.4</v>
+      </c>
+      <c r="AA69">
+        <v>3.4</v>
+      </c>
+      <c r="AB69">
+        <v>2.1</v>
+      </c>
+      <c r="AC69">
+        <v>1.06</v>
+      </c>
+      <c r="AD69">
+        <v>10</v>
+      </c>
+      <c r="AE69">
+        <v>1.3</v>
+      </c>
+      <c r="AF69">
+        <v>3.6</v>
+      </c>
+      <c r="AG69">
+        <v>1.83</v>
+      </c>
+      <c r="AH69">
+        <v>1.85</v>
+      </c>
+      <c r="AI69">
+        <v>1.7</v>
+      </c>
+      <c r="AJ69">
+        <v>2.05</v>
+      </c>
+      <c r="AK69">
+        <v>1.78</v>
+      </c>
+      <c r="AL69">
+        <v>1.28</v>
+      </c>
+      <c r="AM69">
+        <v>1.3</v>
+      </c>
+      <c r="AN69">
+        <v>2</v>
+      </c>
+      <c r="AO69">
+        <v>2.33</v>
+      </c>
+      <c r="AP69">
+        <v>1.5</v>
+      </c>
+      <c r="AQ69">
+        <v>2.5</v>
+      </c>
+      <c r="AR69">
+        <v>1.13</v>
+      </c>
+      <c r="AS69">
+        <v>1.25</v>
+      </c>
+      <c r="AT69">
+        <v>2.38</v>
+      </c>
+      <c r="AU69">
+        <v>3</v>
+      </c>
+      <c r="AV69">
+        <v>5</v>
+      </c>
+      <c r="AW69">
+        <v>3</v>
+      </c>
+      <c r="AX69">
+        <v>7</v>
+      </c>
+      <c r="AY69">
+        <v>6</v>
+      </c>
+      <c r="AZ69">
+        <v>12</v>
+      </c>
+      <c r="BA69">
+        <v>4</v>
+      </c>
+      <c r="BB69">
+        <v>1</v>
+      </c>
+      <c r="BC69">
+        <v>5</v>
+      </c>
+      <c r="BD69">
+        <v>1.95</v>
+      </c>
+      <c r="BE69">
+        <v>8</v>
+      </c>
+      <c r="BF69">
+        <v>2.05</v>
+      </c>
+      <c r="BG69">
+        <v>1.27</v>
+      </c>
+      <c r="BH69">
+        <v>3.35</v>
+      </c>
+      <c r="BI69">
+        <v>1.49</v>
+      </c>
+      <c r="BJ69">
+        <v>2.4</v>
+      </c>
+      <c r="BK69">
+        <v>1.88</v>
+      </c>
+      <c r="BL69">
+        <v>1.92</v>
+      </c>
+      <c r="BM69">
+        <v>2.38</v>
+      </c>
+      <c r="BN69">
+        <v>1.5</v>
+      </c>
+      <c r="BO69">
+        <v>3.2</v>
+      </c>
+      <c r="BP69">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7465073</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45561.58333333334</v>
+      </c>
+      <c r="F70">
+        <v>7</v>
+      </c>
+      <c r="G70" t="s">
+        <v>73</v>
+      </c>
+      <c r="H70" t="s">
+        <v>71</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+      <c r="O70" t="s">
+        <v>109</v>
+      </c>
+      <c r="P70" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q70">
+        <v>3.75</v>
+      </c>
+      <c r="R70">
+        <v>2.05</v>
+      </c>
+      <c r="S70">
+        <v>3.1</v>
+      </c>
+      <c r="T70">
+        <v>1.44</v>
+      </c>
+      <c r="U70">
+        <v>2.63</v>
+      </c>
+      <c r="V70">
+        <v>3.25</v>
+      </c>
+      <c r="W70">
+        <v>1.33</v>
+      </c>
+      <c r="X70">
+        <v>10</v>
+      </c>
+      <c r="Y70">
+        <v>1.06</v>
+      </c>
+      <c r="Z70">
+        <v>3</v>
+      </c>
+      <c r="AA70">
+        <v>3.2</v>
+      </c>
+      <c r="AB70">
+        <v>2.37</v>
+      </c>
+      <c r="AC70">
+        <v>1.07</v>
+      </c>
+      <c r="AD70">
+        <v>7</v>
+      </c>
+      <c r="AE70">
+        <v>1.35</v>
+      </c>
+      <c r="AF70">
+        <v>2.95</v>
+      </c>
+      <c r="AG70">
+        <v>2.2</v>
+      </c>
+      <c r="AH70">
+        <v>1.6</v>
+      </c>
+      <c r="AI70">
+        <v>1.91</v>
+      </c>
+      <c r="AJ70">
+        <v>1.91</v>
+      </c>
+      <c r="AK70">
+        <v>1.55</v>
+      </c>
+      <c r="AL70">
+        <v>1.3</v>
+      </c>
+      <c r="AM70">
+        <v>1.36</v>
+      </c>
+      <c r="AN70">
+        <v>0.67</v>
+      </c>
+      <c r="AO70">
+        <v>0.5</v>
+      </c>
+      <c r="AP70">
+        <v>0.75</v>
+      </c>
+      <c r="AQ70">
+        <v>0.67</v>
+      </c>
+      <c r="AR70">
+        <v>1.36</v>
+      </c>
+      <c r="AS70">
+        <v>1.25</v>
+      </c>
+      <c r="AT70">
+        <v>2.61</v>
+      </c>
+      <c r="AU70">
+        <v>3</v>
+      </c>
+      <c r="AV70">
+        <v>6</v>
+      </c>
+      <c r="AW70">
+        <v>4</v>
+      </c>
+      <c r="AX70">
+        <v>7</v>
+      </c>
+      <c r="AY70">
+        <v>7</v>
+      </c>
+      <c r="AZ70">
+        <v>13</v>
+      </c>
+      <c r="BA70">
+        <v>1</v>
+      </c>
+      <c r="BB70">
+        <v>4</v>
+      </c>
+      <c r="BC70">
+        <v>5</v>
+      </c>
+      <c r="BD70">
+        <v>2.07</v>
+      </c>
+      <c r="BE70">
+        <v>6.4</v>
+      </c>
+      <c r="BF70">
+        <v>1.93</v>
+      </c>
+      <c r="BG70">
+        <v>1.3</v>
+      </c>
+      <c r="BH70">
+        <v>3.1</v>
+      </c>
+      <c r="BI70">
+        <v>1.53</v>
+      </c>
+      <c r="BJ70">
+        <v>2.32</v>
+      </c>
+      <c r="BK70">
+        <v>1.85</v>
+      </c>
+      <c r="BL70">
+        <v>1.83</v>
+      </c>
+      <c r="BM70">
+        <v>2.32</v>
+      </c>
+      <c r="BN70">
+        <v>1.52</v>
+      </c>
+      <c r="BO70">
+        <v>2.95</v>
+      </c>
+      <c r="BP70">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7465072</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45561.66666666666</v>
+      </c>
+      <c r="F71">
+        <v>7</v>
+      </c>
+      <c r="G71" t="s">
+        <v>72</v>
+      </c>
+      <c r="H71" t="s">
+        <v>87</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71" t="s">
+        <v>104</v>
+      </c>
+      <c r="P71" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q71">
+        <v>4</v>
+      </c>
+      <c r="R71">
+        <v>2.25</v>
+      </c>
+      <c r="S71">
+        <v>2.6</v>
+      </c>
+      <c r="T71">
+        <v>1.33</v>
+      </c>
+      <c r="U71">
+        <v>3.25</v>
+      </c>
+      <c r="V71">
+        <v>2.63</v>
+      </c>
+      <c r="W71">
+        <v>1.44</v>
+      </c>
+      <c r="X71">
+        <v>6.5</v>
+      </c>
+      <c r="Y71">
+        <v>1.11</v>
+      </c>
+      <c r="Z71">
+        <v>3.5</v>
+      </c>
+      <c r="AA71">
+        <v>3.5</v>
+      </c>
+      <c r="AB71">
+        <v>2</v>
+      </c>
+      <c r="AC71">
+        <v>1.04</v>
+      </c>
+      <c r="AD71">
+        <v>13</v>
+      </c>
+      <c r="AE71">
+        <v>1.25</v>
+      </c>
+      <c r="AF71">
+        <v>4</v>
+      </c>
+      <c r="AG71">
+        <v>1.73</v>
+      </c>
+      <c r="AH71">
+        <v>2</v>
+      </c>
+      <c r="AI71">
+        <v>1.67</v>
+      </c>
+      <c r="AJ71">
+        <v>2.1</v>
+      </c>
+      <c r="AK71">
+        <v>1.83</v>
+      </c>
+      <c r="AL71">
+        <v>1.24</v>
+      </c>
+      <c r="AM71">
+        <v>1.3</v>
+      </c>
+      <c r="AN71">
+        <v>3</v>
+      </c>
+      <c r="AO71">
+        <v>1.67</v>
+      </c>
+      <c r="AP71">
+        <v>2.25</v>
+      </c>
+      <c r="AQ71">
+        <v>2</v>
+      </c>
+      <c r="AR71">
+        <v>1.29</v>
+      </c>
+      <c r="AS71">
+        <v>1.15</v>
+      </c>
+      <c r="AT71">
+        <v>2.44</v>
+      </c>
+      <c r="AU71">
+        <v>5</v>
+      </c>
+      <c r="AV71">
+        <v>3</v>
+      </c>
+      <c r="AW71">
+        <v>6</v>
+      </c>
+      <c r="AX71">
+        <v>2</v>
+      </c>
+      <c r="AY71">
+        <v>11</v>
+      </c>
+      <c r="AZ71">
+        <v>5</v>
+      </c>
+      <c r="BA71">
+        <v>2</v>
+      </c>
+      <c r="BB71">
+        <v>3</v>
+      </c>
+      <c r="BC71">
+        <v>5</v>
+      </c>
+      <c r="BD71">
+        <v>1.88</v>
+      </c>
+      <c r="BE71">
+        <v>6.4</v>
+      </c>
+      <c r="BF71">
+        <v>2.12</v>
+      </c>
+      <c r="BG71">
+        <v>1.3</v>
+      </c>
+      <c r="BH71">
+        <v>3.15</v>
+      </c>
+      <c r="BI71">
+        <v>1.53</v>
+      </c>
+      <c r="BJ71">
+        <v>2.32</v>
+      </c>
+      <c r="BK71">
+        <v>1.88</v>
+      </c>
+      <c r="BL71">
+        <v>1.81</v>
+      </c>
+      <c r="BM71">
+        <v>2.33</v>
+      </c>
+      <c r="BN71">
+        <v>1.5</v>
+      </c>
+      <c r="BO71">
+        <v>3.05</v>
+      </c>
+      <c r="BP71">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="186">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -445,6 +445,9 @@
     <t>['45+1']</t>
   </si>
   <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -566,6 +569,9 @@
   </si>
   <si>
     <t>['90']</t>
+  </si>
+  <si>
+    <t>['59', '83']</t>
   </si>
 </sst>
 </file>
@@ -927,7 +933,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP71"/>
+  <dimension ref="A1:BP72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1186,7 +1192,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1392,7 +1398,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1598,7 +1604,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1804,7 +1810,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2010,7 +2016,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2216,7 +2222,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2422,7 +2428,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2628,7 +2634,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2912,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ10">
         <v>0.33</v>
@@ -3040,7 +3046,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3246,7 +3252,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3452,7 +3458,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3739,7 +3745,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ14">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR14">
         <v>1.83</v>
@@ -3864,7 +3870,7 @@
         <v>103</v>
       </c>
       <c r="P15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4688,7 +4694,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5306,7 +5312,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5718,7 +5724,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6208,7 +6214,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ26">
         <v>0.75</v>
@@ -6336,7 +6342,7 @@
         <v>111</v>
       </c>
       <c r="P27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q27">
         <v>2.3</v>
@@ -6954,7 +6960,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -7366,7 +7372,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7572,7 +7578,7 @@
         <v>115</v>
       </c>
       <c r="P33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q33">
         <v>3.38</v>
@@ -7778,7 +7784,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7859,7 +7865,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR34">
         <v>1.29</v>
@@ -7984,7 +7990,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q35">
         <v>3.22</v>
@@ -8190,7 +8196,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q36">
         <v>2.9</v>
@@ -8602,7 +8608,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -9426,7 +9432,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9632,7 +9638,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -10044,7 +10050,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10250,7 +10256,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q46">
         <v>2.25</v>
@@ -10456,7 +10462,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10662,7 +10668,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11486,7 +11492,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11692,7 +11698,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12310,7 +12316,7 @@
         <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q56">
         <v>1.51</v>
@@ -12594,7 +12600,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ57">
         <v>1.25</v>
@@ -12722,7 +12728,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -12928,7 +12934,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13134,7 +13140,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q60">
         <v>2.9</v>
@@ -13340,7 +13346,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13546,7 +13552,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -13752,7 +13758,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -13833,7 +13839,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ63">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR63">
         <v>1.68</v>
@@ -13958,7 +13964,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q64">
         <v>2.38</v>
@@ -14370,7 +14376,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -14988,7 +14994,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15194,7 +15200,7 @@
         <v>109</v>
       </c>
       <c r="P70" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15400,7 +15406,7 @@
         <v>104</v>
       </c>
       <c r="P71" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15557,6 +15563,212 @@
       </c>
       <c r="BP71">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7465081</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45562.66666666666</v>
+      </c>
+      <c r="F72">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s">
+        <v>78</v>
+      </c>
+      <c r="H72" t="s">
+        <v>77</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+      <c r="N72">
+        <v>3</v>
+      </c>
+      <c r="O72" t="s">
+        <v>143</v>
+      </c>
+      <c r="P72" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q72">
+        <v>3.6</v>
+      </c>
+      <c r="R72">
+        <v>1.91</v>
+      </c>
+      <c r="S72">
+        <v>3.6</v>
+      </c>
+      <c r="T72">
+        <v>1.62</v>
+      </c>
+      <c r="U72">
+        <v>2.2</v>
+      </c>
+      <c r="V72">
+        <v>4</v>
+      </c>
+      <c r="W72">
+        <v>1.22</v>
+      </c>
+      <c r="X72">
+        <v>13</v>
+      </c>
+      <c r="Y72">
+        <v>1.04</v>
+      </c>
+      <c r="Z72">
+        <v>2.8</v>
+      </c>
+      <c r="AA72">
+        <v>2.94</v>
+      </c>
+      <c r="AB72">
+        <v>2.75</v>
+      </c>
+      <c r="AC72">
+        <v>1.11</v>
+      </c>
+      <c r="AD72">
+        <v>6</v>
+      </c>
+      <c r="AE72">
+        <v>1.57</v>
+      </c>
+      <c r="AF72">
+        <v>2.43</v>
+      </c>
+      <c r="AG72">
+        <v>2.75</v>
+      </c>
+      <c r="AH72">
+        <v>1.44</v>
+      </c>
+      <c r="AI72">
+        <v>2.2</v>
+      </c>
+      <c r="AJ72">
+        <v>1.62</v>
+      </c>
+      <c r="AK72">
+        <v>1.48</v>
+      </c>
+      <c r="AL72">
+        <v>1.38</v>
+      </c>
+      <c r="AM72">
+        <v>1.44</v>
+      </c>
+      <c r="AN72">
+        <v>1.67</v>
+      </c>
+      <c r="AO72">
+        <v>2</v>
+      </c>
+      <c r="AP72">
+        <v>1.25</v>
+      </c>
+      <c r="AQ72">
+        <v>2.25</v>
+      </c>
+      <c r="AR72">
+        <v>1.16</v>
+      </c>
+      <c r="AS72">
+        <v>1.1</v>
+      </c>
+      <c r="AT72">
+        <v>2.26</v>
+      </c>
+      <c r="AU72">
+        <v>2</v>
+      </c>
+      <c r="AV72">
+        <v>7</v>
+      </c>
+      <c r="AW72">
+        <v>8</v>
+      </c>
+      <c r="AX72">
+        <v>8</v>
+      </c>
+      <c r="AY72">
+        <v>10</v>
+      </c>
+      <c r="AZ72">
+        <v>15</v>
+      </c>
+      <c r="BA72">
+        <v>7</v>
+      </c>
+      <c r="BB72">
+        <v>4</v>
+      </c>
+      <c r="BC72">
+        <v>11</v>
+      </c>
+      <c r="BD72">
+        <v>2.07</v>
+      </c>
+      <c r="BE72">
+        <v>6.25</v>
+      </c>
+      <c r="BF72">
+        <v>1.95</v>
+      </c>
+      <c r="BG72">
+        <v>1.4</v>
+      </c>
+      <c r="BH72">
+        <v>2.7</v>
+      </c>
+      <c r="BI72">
+        <v>1.68</v>
+      </c>
+      <c r="BJ72">
+        <v>2.04</v>
+      </c>
+      <c r="BK72">
+        <v>2.08</v>
+      </c>
+      <c r="BL72">
+        <v>1.65</v>
+      </c>
+      <c r="BM72">
+        <v>2.65</v>
+      </c>
+      <c r="BN72">
+        <v>1.4</v>
+      </c>
+      <c r="BO72">
+        <v>3.55</v>
+      </c>
+      <c r="BP72">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="193">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -448,6 +448,24 @@
     <t>['90+4']</t>
   </si>
   <si>
+    <t>['42', '58']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['8', '80', '90+2']</t>
+  </si>
+  <si>
+    <t>['18', '28', '72', '85']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -572,6 +590,9 @@
   </si>
   <si>
     <t>['59', '83']</t>
+  </si>
+  <si>
+    <t>['53', '89']</t>
   </si>
 </sst>
 </file>
@@ -933,7 +954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP72"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1192,7 +1213,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1270,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ2">
         <v>0.25</v>
@@ -1398,7 +1419,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1476,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1604,7 +1625,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1682,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1810,7 +1831,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1891,7 +1912,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ5">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2016,7 +2037,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2094,10 +2115,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ6">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2222,7 +2243,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2303,7 +2324,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ7">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2428,7 +2449,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2506,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ8">
         <v>1.25</v>
@@ -2634,7 +2655,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2921,7 +2942,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ10">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3046,7 +3067,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3252,7 +3273,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3330,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>0</v>
@@ -3458,7 +3479,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3742,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ14">
         <v>2.25</v>
@@ -3870,7 +3891,7 @@
         <v>103</v>
       </c>
       <c r="P15" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4360,7 +4381,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
         <v>1.25</v>
@@ -4694,7 +4715,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5312,7 +5333,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5599,7 +5620,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ23">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR23">
         <v>1.51</v>
@@ -5724,7 +5745,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -5802,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ24">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6008,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ25">
         <v>0</v>
@@ -6217,7 +6238,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ26">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR26">
         <v>0.95</v>
@@ -6342,7 +6363,7 @@
         <v>111</v>
       </c>
       <c r="P27" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q27">
         <v>2.3</v>
@@ -6420,10 +6441,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ27">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR27">
         <v>1.36</v>
@@ -6629,7 +6650,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ28">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR28">
         <v>1.31</v>
@@ -6960,7 +6981,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -7372,7 +7393,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7450,7 +7471,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ32">
         <v>2</v>
@@ -7578,7 +7599,7 @@
         <v>115</v>
       </c>
       <c r="P33" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q33">
         <v>3.38</v>
@@ -7784,7 +7805,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7990,7 +8011,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q35">
         <v>3.22</v>
@@ -8196,7 +8217,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q36">
         <v>2.9</v>
@@ -8274,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ36">
         <v>0</v>
@@ -8608,7 +8629,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -8892,7 +8913,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
         <v>1.25</v>
@@ -9304,10 +9325,10 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ41">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR41">
         <v>1.59</v>
@@ -9432,7 +9453,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9638,7 +9659,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -9719,7 +9740,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ43">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR43">
         <v>1.17</v>
@@ -10050,7 +10071,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10128,7 +10149,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ45">
         <v>1.67</v>
@@ -10256,7 +10277,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q46">
         <v>2.25</v>
@@ -10334,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>0</v>
@@ -10462,7 +10483,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10543,7 +10564,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ47">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR47">
         <v>1.41</v>
@@ -10668,7 +10689,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11158,7 +11179,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ50">
         <v>0.33</v>
@@ -11492,7 +11513,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11570,7 +11591,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
         <v>0.25</v>
@@ -11698,7 +11719,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11985,7 +12006,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ54">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR54">
         <v>1.07</v>
@@ -12316,7 +12337,7 @@
         <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q56">
         <v>1.51</v>
@@ -12397,7 +12418,7 @@
         <v>3</v>
       </c>
       <c r="AQ56">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR56">
         <v>2.01</v>
@@ -12728,7 +12749,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -12806,7 +12827,7 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ58">
         <v>0</v>
@@ -12934,7 +12955,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13015,7 +13036,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ59">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR59">
         <v>1.71</v>
@@ -13140,7 +13161,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q60">
         <v>2.9</v>
@@ -13218,10 +13239,10 @@
         <v>0.67</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR60">
         <v>1.14</v>
@@ -13346,7 +13367,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q61">
         <v>2.25</v>
@@ -13424,7 +13445,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ61">
         <v>0</v>
@@ -13552,7 +13573,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -13630,7 +13651,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ62">
         <v>2</v>
@@ -13758,7 +13779,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -13836,7 +13857,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
         <v>2.25</v>
@@ -13964,7 +13985,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q64">
         <v>2.38</v>
@@ -14376,7 +14397,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -14457,7 +14478,7 @@
         <v>3</v>
       </c>
       <c r="AQ66">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR66">
         <v>2.01</v>
@@ -14994,7 +15015,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15200,7 +15221,7 @@
         <v>109</v>
       </c>
       <c r="P70" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15406,7 +15427,7 @@
         <v>104</v>
       </c>
       <c r="P71" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15484,7 +15505,7 @@
         <v>1.67</v>
       </c>
       <c r="AP71">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ71">
         <v>2</v>
@@ -15612,7 +15633,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -15769,6 +15790,1448 @@
       </c>
       <c r="BP72">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7465083</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45563.375</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+      <c r="G73" t="s">
+        <v>83</v>
+      </c>
+      <c r="H73" t="s">
+        <v>86</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>2</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2</v>
+      </c>
+      <c r="O73" t="s">
+        <v>144</v>
+      </c>
+      <c r="P73" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q73">
+        <v>3.5</v>
+      </c>
+      <c r="R73">
+        <v>1.8</v>
+      </c>
+      <c r="S73">
+        <v>4</v>
+      </c>
+      <c r="T73">
+        <v>1.67</v>
+      </c>
+      <c r="U73">
+        <v>2.1</v>
+      </c>
+      <c r="V73">
+        <v>4.33</v>
+      </c>
+      <c r="W73">
+        <v>1.2</v>
+      </c>
+      <c r="X73">
+        <v>15</v>
+      </c>
+      <c r="Y73">
+        <v>1.03</v>
+      </c>
+      <c r="Z73">
+        <v>2.56</v>
+      </c>
+      <c r="AA73">
+        <v>2.73</v>
+      </c>
+      <c r="AB73">
+        <v>3.28</v>
+      </c>
+      <c r="AC73">
+        <v>1.11</v>
+      </c>
+      <c r="AD73">
+        <v>5.5</v>
+      </c>
+      <c r="AE73">
+        <v>1.68</v>
+      </c>
+      <c r="AF73">
+        <v>2.2</v>
+      </c>
+      <c r="AG73">
+        <v>3.2</v>
+      </c>
+      <c r="AH73">
+        <v>1.36</v>
+      </c>
+      <c r="AI73">
+        <v>2.38</v>
+      </c>
+      <c r="AJ73">
+        <v>1.53</v>
+      </c>
+      <c r="AK73">
+        <v>1.38</v>
+      </c>
+      <c r="AL73">
+        <v>1.38</v>
+      </c>
+      <c r="AM73">
+        <v>1.52</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
+        <v>0.75</v>
+      </c>
+      <c r="AP73">
+        <v>1.5</v>
+      </c>
+      <c r="AQ73">
+        <v>0.6</v>
+      </c>
+      <c r="AR73">
+        <v>1.15</v>
+      </c>
+      <c r="AS73">
+        <v>1.41</v>
+      </c>
+      <c r="AT73">
+        <v>2.56</v>
+      </c>
+      <c r="AU73">
+        <v>9</v>
+      </c>
+      <c r="AV73">
+        <v>2</v>
+      </c>
+      <c r="AW73">
+        <v>3</v>
+      </c>
+      <c r="AX73">
+        <v>5</v>
+      </c>
+      <c r="AY73">
+        <v>12</v>
+      </c>
+      <c r="AZ73">
+        <v>7</v>
+      </c>
+      <c r="BA73">
+        <v>2</v>
+      </c>
+      <c r="BB73">
+        <v>2</v>
+      </c>
+      <c r="BC73">
+        <v>4</v>
+      </c>
+      <c r="BD73">
+        <v>1.92</v>
+      </c>
+      <c r="BE73">
+        <v>6.4</v>
+      </c>
+      <c r="BF73">
+        <v>2.08</v>
+      </c>
+      <c r="BG73">
+        <v>1.41</v>
+      </c>
+      <c r="BH73">
+        <v>2.63</v>
+      </c>
+      <c r="BI73">
+        <v>1.7</v>
+      </c>
+      <c r="BJ73">
+        <v>2</v>
+      </c>
+      <c r="BK73">
+        <v>2.14</v>
+      </c>
+      <c r="BL73">
+        <v>1.62</v>
+      </c>
+      <c r="BM73">
+        <v>2.75</v>
+      </c>
+      <c r="BN73">
+        <v>1.38</v>
+      </c>
+      <c r="BO73">
+        <v>3.65</v>
+      </c>
+      <c r="BP73">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7465084</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45563.46875</v>
+      </c>
+      <c r="F74">
+        <v>8</v>
+      </c>
+      <c r="G74" t="s">
+        <v>88</v>
+      </c>
+      <c r="H74" t="s">
+        <v>85</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>2</v>
+      </c>
+      <c r="O74" t="s">
+        <v>145</v>
+      </c>
+      <c r="P74" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q74">
+        <v>2.75</v>
+      </c>
+      <c r="R74">
+        <v>1.91</v>
+      </c>
+      <c r="S74">
+        <v>5.5</v>
+      </c>
+      <c r="T74">
+        <v>1.62</v>
+      </c>
+      <c r="U74">
+        <v>2.2</v>
+      </c>
+      <c r="V74">
+        <v>4</v>
+      </c>
+      <c r="W74">
+        <v>1.22</v>
+      </c>
+      <c r="X74">
+        <v>13</v>
+      </c>
+      <c r="Y74">
+        <v>1.04</v>
+      </c>
+      <c r="Z74">
+        <v>1.91</v>
+      </c>
+      <c r="AA74">
+        <v>3</v>
+      </c>
+      <c r="AB74">
+        <v>4.75</v>
+      </c>
+      <c r="AC74">
+        <v>1.08</v>
+      </c>
+      <c r="AD74">
+        <v>6.5</v>
+      </c>
+      <c r="AE74">
+        <v>1.61</v>
+      </c>
+      <c r="AF74">
+        <v>2.34</v>
+      </c>
+      <c r="AG74">
+        <v>3</v>
+      </c>
+      <c r="AH74">
+        <v>1.4</v>
+      </c>
+      <c r="AI74">
+        <v>2.38</v>
+      </c>
+      <c r="AJ74">
+        <v>1.53</v>
+      </c>
+      <c r="AK74">
+        <v>1.2</v>
+      </c>
+      <c r="AL74">
+        <v>1.32</v>
+      </c>
+      <c r="AM74">
+        <v>1.88</v>
+      </c>
+      <c r="AN74">
+        <v>1.33</v>
+      </c>
+      <c r="AO74">
+        <v>0.75</v>
+      </c>
+      <c r="AP74">
+        <v>1.25</v>
+      </c>
+      <c r="AQ74">
+        <v>0.8</v>
+      </c>
+      <c r="AR74">
+        <v>1.48</v>
+      </c>
+      <c r="AS74">
+        <v>0.67</v>
+      </c>
+      <c r="AT74">
+        <v>2.15</v>
+      </c>
+      <c r="AU74">
+        <v>7</v>
+      </c>
+      <c r="AV74">
+        <v>4</v>
+      </c>
+      <c r="AW74">
+        <v>4</v>
+      </c>
+      <c r="AX74">
+        <v>6</v>
+      </c>
+      <c r="AY74">
+        <v>11</v>
+      </c>
+      <c r="AZ74">
+        <v>10</v>
+      </c>
+      <c r="BA74">
+        <v>5</v>
+      </c>
+      <c r="BB74">
+        <v>5</v>
+      </c>
+      <c r="BC74">
+        <v>10</v>
+      </c>
+      <c r="BD74">
+        <v>1.4</v>
+      </c>
+      <c r="BE74">
+        <v>6.75</v>
+      </c>
+      <c r="BF74">
+        <v>3.3</v>
+      </c>
+      <c r="BG74">
+        <v>1.41</v>
+      </c>
+      <c r="BH74">
+        <v>2.65</v>
+      </c>
+      <c r="BI74">
+        <v>1.67</v>
+      </c>
+      <c r="BJ74">
+        <v>2.05</v>
+      </c>
+      <c r="BK74">
+        <v>2.07</v>
+      </c>
+      <c r="BL74">
+        <v>1.65</v>
+      </c>
+      <c r="BM74">
+        <v>2.65</v>
+      </c>
+      <c r="BN74">
+        <v>1.4</v>
+      </c>
+      <c r="BO74">
+        <v>3.45</v>
+      </c>
+      <c r="BP74">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7465079</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45563.5625</v>
+      </c>
+      <c r="F75">
+        <v>8</v>
+      </c>
+      <c r="G75" t="s">
+        <v>76</v>
+      </c>
+      <c r="H75" t="s">
+        <v>75</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>3</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75" t="s">
+        <v>146</v>
+      </c>
+      <c r="P75" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q75">
+        <v>2.63</v>
+      </c>
+      <c r="R75">
+        <v>1.95</v>
+      </c>
+      <c r="S75">
+        <v>5.5</v>
+      </c>
+      <c r="T75">
+        <v>1.57</v>
+      </c>
+      <c r="U75">
+        <v>2.25</v>
+      </c>
+      <c r="V75">
+        <v>3.75</v>
+      </c>
+      <c r="W75">
+        <v>1.25</v>
+      </c>
+      <c r="X75">
+        <v>11</v>
+      </c>
+      <c r="Y75">
+        <v>1.05</v>
+      </c>
+      <c r="Z75">
+        <v>1.9</v>
+      </c>
+      <c r="AA75">
+        <v>3.25</v>
+      </c>
+      <c r="AB75">
+        <v>4.5</v>
+      </c>
+      <c r="AC75">
+        <v>1.1</v>
+      </c>
+      <c r="AD75">
+        <v>6.5</v>
+      </c>
+      <c r="AE75">
+        <v>1.5</v>
+      </c>
+      <c r="AF75">
+        <v>2.55</v>
+      </c>
+      <c r="AG75">
+        <v>2.63</v>
+      </c>
+      <c r="AH75">
+        <v>1.5</v>
+      </c>
+      <c r="AI75">
+        <v>2.2</v>
+      </c>
+      <c r="AJ75">
+        <v>1.62</v>
+      </c>
+      <c r="AK75">
+        <v>1.2</v>
+      </c>
+      <c r="AL75">
+        <v>1.28</v>
+      </c>
+      <c r="AM75">
+        <v>1.85</v>
+      </c>
+      <c r="AN75">
+        <v>0</v>
+      </c>
+      <c r="AO75">
+        <v>0</v>
+      </c>
+      <c r="AP75">
+        <v>0.75</v>
+      </c>
+      <c r="AQ75">
+        <v>0</v>
+      </c>
+      <c r="AR75">
+        <v>1.11</v>
+      </c>
+      <c r="AS75">
+        <v>0.9</v>
+      </c>
+      <c r="AT75">
+        <v>2.01</v>
+      </c>
+      <c r="AU75">
+        <v>7</v>
+      </c>
+      <c r="AV75">
+        <v>5</v>
+      </c>
+      <c r="AW75">
+        <v>3</v>
+      </c>
+      <c r="AX75">
+        <v>3</v>
+      </c>
+      <c r="AY75">
+        <v>10</v>
+      </c>
+      <c r="AZ75">
+        <v>8</v>
+      </c>
+      <c r="BA75">
+        <v>6</v>
+      </c>
+      <c r="BB75">
+        <v>4</v>
+      </c>
+      <c r="BC75">
+        <v>10</v>
+      </c>
+      <c r="BD75">
+        <v>1.4</v>
+      </c>
+      <c r="BE75">
+        <v>7</v>
+      </c>
+      <c r="BF75">
+        <v>3.3</v>
+      </c>
+      <c r="BG75">
+        <v>1.38</v>
+      </c>
+      <c r="BH75">
+        <v>2.7</v>
+      </c>
+      <c r="BI75">
+        <v>1.65</v>
+      </c>
+      <c r="BJ75">
+        <v>2.08</v>
+      </c>
+      <c r="BK75">
+        <v>2.05</v>
+      </c>
+      <c r="BL75">
+        <v>1.67</v>
+      </c>
+      <c r="BM75">
+        <v>2.63</v>
+      </c>
+      <c r="BN75">
+        <v>1.41</v>
+      </c>
+      <c r="BO75">
+        <v>3.45</v>
+      </c>
+      <c r="BP75">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7465080</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45563.66666666666</v>
+      </c>
+      <c r="F76">
+        <v>8</v>
+      </c>
+      <c r="G76" t="s">
+        <v>74</v>
+      </c>
+      <c r="H76" t="s">
+        <v>81</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
+      <c r="L76">
+        <v>4</v>
+      </c>
+      <c r="M76">
+        <v>2</v>
+      </c>
+      <c r="N76">
+        <v>6</v>
+      </c>
+      <c r="O76" t="s">
+        <v>147</v>
+      </c>
+      <c r="P76" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q76">
+        <v>6.07</v>
+      </c>
+      <c r="R76">
+        <v>2.73</v>
+      </c>
+      <c r="S76">
+        <v>1.89</v>
+      </c>
+      <c r="T76">
+        <v>1.25</v>
+      </c>
+      <c r="U76">
+        <v>3.75</v>
+      </c>
+      <c r="V76">
+        <v>2.21</v>
+      </c>
+      <c r="W76">
+        <v>1.66</v>
+      </c>
+      <c r="X76">
+        <v>5.5</v>
+      </c>
+      <c r="Y76">
+        <v>1.14</v>
+      </c>
+      <c r="Z76">
+        <v>7</v>
+      </c>
+      <c r="AA76">
+        <v>4.33</v>
+      </c>
+      <c r="AB76">
+        <v>1.48</v>
+      </c>
+      <c r="AC76">
+        <v>1.02</v>
+      </c>
+      <c r="AD76">
+        <v>20.5</v>
+      </c>
+      <c r="AE76">
+        <v>1.17</v>
+      </c>
+      <c r="AF76">
+        <v>5.2</v>
+      </c>
+      <c r="AG76">
+        <v>1.53</v>
+      </c>
+      <c r="AH76">
+        <v>2.5</v>
+      </c>
+      <c r="AI76">
+        <v>1.67</v>
+      </c>
+      <c r="AJ76">
+        <v>2.1</v>
+      </c>
+      <c r="AK76">
+        <v>2.65</v>
+      </c>
+      <c r="AL76">
+        <v>1.2</v>
+      </c>
+      <c r="AM76">
+        <v>1.14</v>
+      </c>
+      <c r="AN76">
+        <v>2.5</v>
+      </c>
+      <c r="AO76">
+        <v>3</v>
+      </c>
+      <c r="AP76">
+        <v>2.6</v>
+      </c>
+      <c r="AQ76">
+        <v>2.4</v>
+      </c>
+      <c r="AR76">
+        <v>1.49</v>
+      </c>
+      <c r="AS76">
+        <v>1.85</v>
+      </c>
+      <c r="AT76">
+        <v>3.34</v>
+      </c>
+      <c r="AU76">
+        <v>6</v>
+      </c>
+      <c r="AV76">
+        <v>7</v>
+      </c>
+      <c r="AW76">
+        <v>6</v>
+      </c>
+      <c r="AX76">
+        <v>4</v>
+      </c>
+      <c r="AY76">
+        <v>12</v>
+      </c>
+      <c r="AZ76">
+        <v>11</v>
+      </c>
+      <c r="BA76">
+        <v>5</v>
+      </c>
+      <c r="BB76">
+        <v>8</v>
+      </c>
+      <c r="BC76">
+        <v>13</v>
+      </c>
+      <c r="BD76">
+        <v>3.05</v>
+      </c>
+      <c r="BE76">
+        <v>6.75</v>
+      </c>
+      <c r="BF76">
+        <v>1.47</v>
+      </c>
+      <c r="BG76">
+        <v>1.3</v>
+      </c>
+      <c r="BH76">
+        <v>3.15</v>
+      </c>
+      <c r="BI76">
+        <v>1.52</v>
+      </c>
+      <c r="BJ76">
+        <v>2.33</v>
+      </c>
+      <c r="BK76">
+        <v>2</v>
+      </c>
+      <c r="BL76">
+        <v>1.8</v>
+      </c>
+      <c r="BM76">
+        <v>2.3</v>
+      </c>
+      <c r="BN76">
+        <v>1.54</v>
+      </c>
+      <c r="BO76">
+        <v>2.9</v>
+      </c>
+      <c r="BP76">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7465078</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45564.375</v>
+      </c>
+      <c r="F77">
+        <v>8</v>
+      </c>
+      <c r="G77" t="s">
+        <v>72</v>
+      </c>
+      <c r="H77" t="s">
+        <v>89</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>2</v>
+      </c>
+      <c r="O77" t="s">
+        <v>148</v>
+      </c>
+      <c r="P77" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q77">
+        <v>2.5</v>
+      </c>
+      <c r="R77">
+        <v>2.38</v>
+      </c>
+      <c r="S77">
+        <v>3.75</v>
+      </c>
+      <c r="T77">
+        <v>1.3</v>
+      </c>
+      <c r="U77">
+        <v>3.4</v>
+      </c>
+      <c r="V77">
+        <v>2.38</v>
+      </c>
+      <c r="W77">
+        <v>1.53</v>
+      </c>
+      <c r="X77">
+        <v>6</v>
+      </c>
+      <c r="Y77">
+        <v>1.13</v>
+      </c>
+      <c r="Z77">
+        <v>2.01</v>
+      </c>
+      <c r="AA77">
+        <v>3.68</v>
+      </c>
+      <c r="AB77">
+        <v>3.54</v>
+      </c>
+      <c r="AC77">
+        <v>1.03</v>
+      </c>
+      <c r="AD77">
+        <v>17</v>
+      </c>
+      <c r="AE77">
+        <v>1.2</v>
+      </c>
+      <c r="AF77">
+        <v>4.5</v>
+      </c>
+      <c r="AG77">
+        <v>1.62</v>
+      </c>
+      <c r="AH77">
+        <v>2.3</v>
+      </c>
+      <c r="AI77">
+        <v>1.57</v>
+      </c>
+      <c r="AJ77">
+        <v>2.25</v>
+      </c>
+      <c r="AK77">
+        <v>1.33</v>
+      </c>
+      <c r="AL77">
+        <v>1.22</v>
+      </c>
+      <c r="AM77">
+        <v>1.83</v>
+      </c>
+      <c r="AN77">
+        <v>2.25</v>
+      </c>
+      <c r="AO77">
+        <v>1</v>
+      </c>
+      <c r="AP77">
+        <v>2</v>
+      </c>
+      <c r="AQ77">
+        <v>1</v>
+      </c>
+      <c r="AR77">
+        <v>1.31</v>
+      </c>
+      <c r="AS77">
+        <v>1.26</v>
+      </c>
+      <c r="AT77">
+        <v>2.57</v>
+      </c>
+      <c r="AU77">
+        <v>3</v>
+      </c>
+      <c r="AV77">
+        <v>5</v>
+      </c>
+      <c r="AW77">
+        <v>5</v>
+      </c>
+      <c r="AX77">
+        <v>1</v>
+      </c>
+      <c r="AY77">
+        <v>8</v>
+      </c>
+      <c r="AZ77">
+        <v>6</v>
+      </c>
+      <c r="BA77">
+        <v>4</v>
+      </c>
+      <c r="BB77">
+        <v>4</v>
+      </c>
+      <c r="BC77">
+        <v>8</v>
+      </c>
+      <c r="BD77">
+        <v>1.55</v>
+      </c>
+      <c r="BE77">
+        <v>6.4</v>
+      </c>
+      <c r="BF77">
+        <v>2.8</v>
+      </c>
+      <c r="BG77">
+        <v>1.37</v>
+      </c>
+      <c r="BH77">
+        <v>2.8</v>
+      </c>
+      <c r="BI77">
+        <v>1.65</v>
+      </c>
+      <c r="BJ77">
+        <v>2.08</v>
+      </c>
+      <c r="BK77">
+        <v>2.05</v>
+      </c>
+      <c r="BL77">
+        <v>1.66</v>
+      </c>
+      <c r="BM77">
+        <v>2.65</v>
+      </c>
+      <c r="BN77">
+        <v>1.41</v>
+      </c>
+      <c r="BO77">
+        <v>3.55</v>
+      </c>
+      <c r="BP77">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7465076</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45564.46875</v>
+      </c>
+      <c r="F78">
+        <v>8</v>
+      </c>
+      <c r="G78" t="s">
+        <v>70</v>
+      </c>
+      <c r="H78" t="s">
+        <v>80</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+      <c r="O78" t="s">
+        <v>128</v>
+      </c>
+      <c r="P78" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q78">
+        <v>2.3</v>
+      </c>
+      <c r="R78">
+        <v>2.2</v>
+      </c>
+      <c r="S78">
+        <v>5</v>
+      </c>
+      <c r="T78">
+        <v>1.4</v>
+      </c>
+      <c r="U78">
+        <v>2.75</v>
+      </c>
+      <c r="V78">
+        <v>3</v>
+      </c>
+      <c r="W78">
+        <v>1.36</v>
+      </c>
+      <c r="X78">
+        <v>8</v>
+      </c>
+      <c r="Y78">
+        <v>1.08</v>
+      </c>
+      <c r="Z78">
+        <v>1.7</v>
+      </c>
+      <c r="AA78">
+        <v>3.7</v>
+      </c>
+      <c r="AB78">
+        <v>5</v>
+      </c>
+      <c r="AC78">
+        <v>1.05</v>
+      </c>
+      <c r="AD78">
+        <v>9</v>
+      </c>
+      <c r="AE78">
+        <v>1.33</v>
+      </c>
+      <c r="AF78">
+        <v>3.3</v>
+      </c>
+      <c r="AG78">
+        <v>1.99</v>
+      </c>
+      <c r="AH78">
+        <v>1.85</v>
+      </c>
+      <c r="AI78">
+        <v>1.95</v>
+      </c>
+      <c r="AJ78">
+        <v>1.8</v>
+      </c>
+      <c r="AK78">
+        <v>1.17</v>
+      </c>
+      <c r="AL78">
+        <v>1.22</v>
+      </c>
+      <c r="AM78">
+        <v>2.1</v>
+      </c>
+      <c r="AN78">
+        <v>1.75</v>
+      </c>
+      <c r="AO78">
+        <v>0.67</v>
+      </c>
+      <c r="AP78">
+        <v>1.6</v>
+      </c>
+      <c r="AQ78">
+        <v>0.75</v>
+      </c>
+      <c r="AR78">
+        <v>1.15</v>
+      </c>
+      <c r="AS78">
+        <v>1.46</v>
+      </c>
+      <c r="AT78">
+        <v>2.61</v>
+      </c>
+      <c r="AU78">
+        <v>6</v>
+      </c>
+      <c r="AV78">
+        <v>4</v>
+      </c>
+      <c r="AW78">
+        <v>6</v>
+      </c>
+      <c r="AX78">
+        <v>7</v>
+      </c>
+      <c r="AY78">
+        <v>12</v>
+      </c>
+      <c r="AZ78">
+        <v>11</v>
+      </c>
+      <c r="BA78">
+        <v>4</v>
+      </c>
+      <c r="BB78">
+        <v>7</v>
+      </c>
+      <c r="BC78">
+        <v>11</v>
+      </c>
+      <c r="BD78">
+        <v>1.4</v>
+      </c>
+      <c r="BE78">
+        <v>7</v>
+      </c>
+      <c r="BF78">
+        <v>3.3</v>
+      </c>
+      <c r="BG78">
+        <v>1.26</v>
+      </c>
+      <c r="BH78">
+        <v>3.4</v>
+      </c>
+      <c r="BI78">
+        <v>1.46</v>
+      </c>
+      <c r="BJ78">
+        <v>2.48</v>
+      </c>
+      <c r="BK78">
+        <v>1.88</v>
+      </c>
+      <c r="BL78">
+        <v>1.92</v>
+      </c>
+      <c r="BM78">
+        <v>2.15</v>
+      </c>
+      <c r="BN78">
+        <v>1.61</v>
+      </c>
+      <c r="BO78">
+        <v>2.7</v>
+      </c>
+      <c r="BP78">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7469676</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45564.5625</v>
+      </c>
+      <c r="F79">
+        <v>8</v>
+      </c>
+      <c r="G79" t="s">
+        <v>71</v>
+      </c>
+      <c r="H79" t="s">
+        <v>82</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79" t="s">
+        <v>149</v>
+      </c>
+      <c r="P79" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q79">
+        <v>2.38</v>
+      </c>
+      <c r="R79">
+        <v>2.1</v>
+      </c>
+      <c r="S79">
+        <v>5.5</v>
+      </c>
+      <c r="T79">
+        <v>1.44</v>
+      </c>
+      <c r="U79">
+        <v>2.63</v>
+      </c>
+      <c r="V79">
+        <v>3.25</v>
+      </c>
+      <c r="W79">
+        <v>1.33</v>
+      </c>
+      <c r="X79">
+        <v>9</v>
+      </c>
+      <c r="Y79">
+        <v>1.07</v>
+      </c>
+      <c r="Z79">
+        <v>1.7</v>
+      </c>
+      <c r="AA79">
+        <v>3.3</v>
+      </c>
+      <c r="AB79">
+        <v>5.5</v>
+      </c>
+      <c r="AC79">
+        <v>1.07</v>
+      </c>
+      <c r="AD79">
+        <v>9.5</v>
+      </c>
+      <c r="AE79">
+        <v>1.38</v>
+      </c>
+      <c r="AF79">
+        <v>3.1</v>
+      </c>
+      <c r="AG79">
+        <v>2.1</v>
+      </c>
+      <c r="AH79">
+        <v>1.73</v>
+      </c>
+      <c r="AI79">
+        <v>2</v>
+      </c>
+      <c r="AJ79">
+        <v>1.75</v>
+      </c>
+      <c r="AK79">
+        <v>1.18</v>
+      </c>
+      <c r="AL79">
+        <v>1.32</v>
+      </c>
+      <c r="AM79">
+        <v>2.18</v>
+      </c>
+      <c r="AN79">
+        <v>1.75</v>
+      </c>
+      <c r="AO79">
+        <v>0.33</v>
+      </c>
+      <c r="AP79">
+        <v>2</v>
+      </c>
+      <c r="AQ79">
+        <v>0.25</v>
+      </c>
+      <c r="AR79">
+        <v>1.68</v>
+      </c>
+      <c r="AS79">
+        <v>0.92</v>
+      </c>
+      <c r="AT79">
+        <v>2.6</v>
+      </c>
+      <c r="AU79">
+        <v>12</v>
+      </c>
+      <c r="AV79">
+        <v>2</v>
+      </c>
+      <c r="AW79">
+        <v>3</v>
+      </c>
+      <c r="AX79">
+        <v>3</v>
+      </c>
+      <c r="AY79">
+        <v>15</v>
+      </c>
+      <c r="AZ79">
+        <v>5</v>
+      </c>
+      <c r="BA79">
+        <v>8</v>
+      </c>
+      <c r="BB79">
+        <v>4</v>
+      </c>
+      <c r="BC79">
+        <v>12</v>
+      </c>
+      <c r="BD79">
+        <v>1.43</v>
+      </c>
+      <c r="BE79">
+        <v>7</v>
+      </c>
+      <c r="BF79">
+        <v>3.15</v>
+      </c>
+      <c r="BG79">
+        <v>1.3</v>
+      </c>
+      <c r="BH79">
+        <v>3.15</v>
+      </c>
+      <c r="BI79">
+        <v>1.5</v>
+      </c>
+      <c r="BJ79">
+        <v>2.35</v>
+      </c>
+      <c r="BK79">
+        <v>1.92</v>
+      </c>
+      <c r="BL79">
+        <v>1.88</v>
+      </c>
+      <c r="BM79">
+        <v>2.3</v>
+      </c>
+      <c r="BN79">
+        <v>1.54</v>
+      </c>
+      <c r="BO79">
+        <v>2.9</v>
+      </c>
+      <c r="BP79">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="196">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -421,15 +421,15 @@
     <t>['38']</t>
   </si>
   <si>
+    <t>['35']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
     <t>['4', '39', '80']</t>
   </si>
   <si>
-    <t>['35']</t>
-  </si>
-  <si>
     <t>['7']</t>
   </si>
   <si>
@@ -466,6 +466,12 @@
     <t>['85']</t>
   </si>
   <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['45', '84', '90+7']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -580,19 +586,22 @@
     <t>['85', '86']</t>
   </si>
   <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
     <t>['45+6', '63']</t>
   </si>
   <si>
-    <t>['45+3']</t>
-  </si>
-  <si>
-    <t>['90']</t>
-  </si>
-  <si>
     <t>['59', '83']</t>
   </si>
   <si>
     <t>['53', '89']</t>
+  </si>
+  <si>
+    <t>['47']</t>
   </si>
 </sst>
 </file>
@@ -954,7 +963,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1213,7 +1222,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1419,7 +1428,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1625,7 +1634,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1831,7 +1840,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2037,7 +2046,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2243,7 +2252,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2449,7 +2458,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2655,7 +2664,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2736,7 +2745,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ9">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3067,7 +3076,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3145,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ11">
         <v>2</v>
@@ -3273,7 +3282,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3479,7 +3488,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3891,7 +3900,7 @@
         <v>103</v>
       </c>
       <c r="P15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4715,7 +4724,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5205,7 +5214,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -5333,7 +5342,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5411,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ22">
         <v>0</v>
@@ -5745,7 +5754,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6363,7 +6372,7 @@
         <v>111</v>
       </c>
       <c r="P27" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q27">
         <v>2.3</v>
@@ -6647,7 +6656,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>0.25</v>
@@ -6981,7 +6990,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -7062,7 +7071,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ30">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR30">
         <v>1.44</v>
@@ -7393,7 +7402,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7599,7 +7608,7 @@
         <v>115</v>
       </c>
       <c r="P33" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q33">
         <v>3.38</v>
@@ -7805,7 +7814,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -8011,7 +8020,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q35">
         <v>3.22</v>
@@ -8217,7 +8226,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q36">
         <v>2.9</v>
@@ -8629,7 +8638,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -9453,7 +9462,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9659,7 +9668,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -10071,7 +10080,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10152,7 +10161,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ45">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR45">
         <v>1.14</v>
@@ -10277,7 +10286,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q46">
         <v>2.25</v>
@@ -10483,7 +10492,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10689,7 +10698,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -10973,7 +10982,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
         <v>0</v>
@@ -11513,7 +11522,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11719,7 +11728,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11925,7 +11934,7 @@
         <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q54">
         <v>2.8</v>
@@ -12337,7 +12346,7 @@
         <v>132</v>
       </c>
       <c r="P56" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q56">
         <v>1.51</v>
@@ -12749,7 +12758,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -12955,7 +12964,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -13033,7 +13042,7 @@
         <v>3</v>
       </c>
       <c r="AP59">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ59">
         <v>2.4</v>
@@ -13119,7 +13128,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7465060</v>
+        <v>7465062</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -13128,25 +13137,25 @@
         <v>69</v>
       </c>
       <c r="E60" s="2">
-        <v>45557.375</v>
+        <v>45556.875</v>
       </c>
       <c r="F60">
         <v>6</v>
       </c>
       <c r="G60" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60">
         <v>1</v>
@@ -13161,154 +13170,154 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="Q60">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="R60">
+        <v>2.1</v>
+      </c>
+      <c r="S60">
+        <v>2.5</v>
+      </c>
+      <c r="T60">
+        <v>1.44</v>
+      </c>
+      <c r="U60">
+        <v>2.63</v>
+      </c>
+      <c r="V60">
+        <v>3.25</v>
+      </c>
+      <c r="W60">
+        <v>1.33</v>
+      </c>
+      <c r="X60">
+        <v>10</v>
+      </c>
+      <c r="Y60">
+        <v>1.06</v>
+      </c>
+      <c r="Z60">
+        <v>4.75</v>
+      </c>
+      <c r="AA60">
+        <v>3.3</v>
+      </c>
+      <c r="AB60">
+        <v>1.8</v>
+      </c>
+      <c r="AC60">
+        <v>1.02</v>
+      </c>
+      <c r="AD60">
+        <v>7.2</v>
+      </c>
+      <c r="AE60">
+        <v>1.35</v>
+      </c>
+      <c r="AF60">
+        <v>2.79</v>
+      </c>
+      <c r="AG60">
+        <v>2.2</v>
+      </c>
+      <c r="AH60">
+        <v>1.68</v>
+      </c>
+      <c r="AI60">
+        <v>2</v>
+      </c>
+      <c r="AJ60">
         <v>1.75</v>
       </c>
-      <c r="S60">
-        <v>5.25</v>
-      </c>
-      <c r="T60">
-        <v>1.7</v>
-      </c>
-      <c r="U60">
-        <v>2.05</v>
-      </c>
-      <c r="V60">
-        <v>4.33</v>
-      </c>
-      <c r="W60">
+      <c r="AK60">
+        <v>1.95</v>
+      </c>
+      <c r="AL60">
+        <v>1.25</v>
+      </c>
+      <c r="AM60">
         <v>1.18</v>
       </c>
-      <c r="X60">
-        <v>9.75</v>
-      </c>
-      <c r="Y60">
-        <v>1.02</v>
-      </c>
-      <c r="Z60">
+      <c r="AN60">
+        <v>1.5</v>
+      </c>
+      <c r="AO60">
+        <v>2</v>
+      </c>
+      <c r="AP60">
+        <v>1.25</v>
+      </c>
+      <c r="AQ60">
+        <v>2</v>
+      </c>
+      <c r="AR60">
+        <v>1.49</v>
+      </c>
+      <c r="AS60">
+        <v>1.09</v>
+      </c>
+      <c r="AT60">
+        <v>2.58</v>
+      </c>
+      <c r="AU60">
+        <v>5</v>
+      </c>
+      <c r="AV60">
+        <v>6</v>
+      </c>
+      <c r="AW60">
+        <v>7</v>
+      </c>
+      <c r="AX60">
+        <v>0</v>
+      </c>
+      <c r="AY60">
+        <v>12</v>
+      </c>
+      <c r="AZ60">
+        <v>6</v>
+      </c>
+      <c r="BA60">
+        <v>3</v>
+      </c>
+      <c r="BB60">
+        <v>4</v>
+      </c>
+      <c r="BC60">
+        <v>7</v>
+      </c>
+      <c r="BD60">
+        <v>2.07</v>
+      </c>
+      <c r="BE60">
+        <v>6.25</v>
+      </c>
+      <c r="BF60">
+        <v>1.94</v>
+      </c>
+      <c r="BG60">
+        <v>1.41</v>
+      </c>
+      <c r="BH60">
+        <v>2.65</v>
+      </c>
+      <c r="BI60">
+        <v>1.68</v>
+      </c>
+      <c r="BJ60">
+        <v>2.02</v>
+      </c>
+      <c r="BK60">
         <v>2.1</v>
       </c>
-      <c r="AA60">
-        <v>2.8</v>
-      </c>
-      <c r="AB60">
-        <v>4.33</v>
-      </c>
-      <c r="AC60">
-        <v>1.14</v>
-      </c>
-      <c r="AD60">
-        <v>5.25</v>
-      </c>
-      <c r="AE60">
-        <v>1.67</v>
-      </c>
-      <c r="AF60">
-        <v>2.15</v>
-      </c>
-      <c r="AG60">
-        <v>3.2</v>
-      </c>
-      <c r="AH60">
-        <v>1.33</v>
-      </c>
-      <c r="AI60">
-        <v>2.45</v>
-      </c>
-      <c r="AJ60">
-        <v>1.48</v>
-      </c>
-      <c r="AK60">
-        <v>1.23</v>
-      </c>
-      <c r="AL60">
-        <v>1.42</v>
-      </c>
-      <c r="AM60">
-        <v>1.7</v>
-      </c>
-      <c r="AN60">
-        <v>1</v>
-      </c>
-      <c r="AO60">
-        <v>0.67</v>
-      </c>
-      <c r="AP60">
-        <v>1.5</v>
-      </c>
-      <c r="AQ60">
-        <v>0.8</v>
-      </c>
-      <c r="AR60">
-        <v>1.14</v>
-      </c>
-      <c r="AS60">
-        <v>0.67</v>
-      </c>
-      <c r="AT60">
-        <v>1.81</v>
-      </c>
-      <c r="AU60">
-        <v>4</v>
-      </c>
-      <c r="AV60">
-        <v>3</v>
-      </c>
-      <c r="AW60">
-        <v>2</v>
-      </c>
-      <c r="AX60">
-        <v>2</v>
-      </c>
-      <c r="AY60">
-        <v>6</v>
-      </c>
-      <c r="AZ60">
-        <v>5</v>
-      </c>
-      <c r="BA60">
-        <v>6</v>
-      </c>
-      <c r="BB60">
-        <v>2</v>
-      </c>
-      <c r="BC60">
-        <v>8</v>
-      </c>
-      <c r="BD60">
-        <v>1.58</v>
-      </c>
-      <c r="BE60">
-        <v>6.4</v>
-      </c>
-      <c r="BF60">
-        <v>2.65</v>
-      </c>
-      <c r="BG60">
-        <v>1.43</v>
-      </c>
-      <c r="BH60">
-        <v>2.55</v>
-      </c>
-      <c r="BI60">
-        <v>1.72</v>
-      </c>
-      <c r="BJ60">
-        <v>1.98</v>
-      </c>
-      <c r="BK60">
-        <v>2.15</v>
-      </c>
       <c r="BL60">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="BM60">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="BN60">
         <v>1.38</v>
@@ -13325,7 +13334,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>7465058</v>
+        <v>7465060</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -13334,196 +13343,196 @@
         <v>69</v>
       </c>
       <c r="E61" s="2">
-        <v>45557.46875</v>
+        <v>45556.875</v>
       </c>
       <c r="F61">
         <v>6</v>
       </c>
       <c r="G61" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="H61" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M61">
         <v>1</v>
       </c>
       <c r="N61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O61" t="s">
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q61">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="R61">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="S61">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="T61">
+        <v>1.7</v>
+      </c>
+      <c r="U61">
+        <v>2.05</v>
+      </c>
+      <c r="V61">
+        <v>4.33</v>
+      </c>
+      <c r="W61">
+        <v>1.18</v>
+      </c>
+      <c r="X61">
+        <v>9.75</v>
+      </c>
+      <c r="Y61">
+        <v>1.02</v>
+      </c>
+      <c r="Z61">
+        <v>2.1</v>
+      </c>
+      <c r="AA61">
+        <v>2.8</v>
+      </c>
+      <c r="AB61">
+        <v>4.33</v>
+      </c>
+      <c r="AC61">
+        <v>1.14</v>
+      </c>
+      <c r="AD61">
+        <v>5.25</v>
+      </c>
+      <c r="AE61">
+        <v>1.67</v>
+      </c>
+      <c r="AF61">
+        <v>2.15</v>
+      </c>
+      <c r="AG61">
+        <v>3.2</v>
+      </c>
+      <c r="AH61">
         <v>1.33</v>
       </c>
-      <c r="U61">
-        <v>3.25</v>
-      </c>
-      <c r="V61">
-        <v>2.63</v>
-      </c>
-      <c r="W61">
-        <v>1.44</v>
-      </c>
-      <c r="X61">
-        <v>6.5</v>
-      </c>
-      <c r="Y61">
-        <v>1.11</v>
-      </c>
-      <c r="Z61">
-        <v>1.67</v>
-      </c>
-      <c r="AA61">
-        <v>3.75</v>
-      </c>
-      <c r="AB61">
-        <v>5</v>
-      </c>
-      <c r="AC61">
-        <v>1.04</v>
-      </c>
-      <c r="AD61">
-        <v>14.25</v>
-      </c>
-      <c r="AE61">
-        <v>1.24</v>
-      </c>
-      <c r="AF61">
-        <v>4.15</v>
-      </c>
-      <c r="AG61">
-        <v>1.75</v>
-      </c>
-      <c r="AH61">
-        <v>2.1</v>
-      </c>
       <c r="AI61">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="AJ61">
-        <v>2</v>
+        <v>1.48</v>
       </c>
       <c r="AK61">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="AL61">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AM61">
+        <v>1.7</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
+        <v>0.67</v>
+      </c>
+      <c r="AP61">
+        <v>1.5</v>
+      </c>
+      <c r="AQ61">
+        <v>0.8</v>
+      </c>
+      <c r="AR61">
+        <v>1.14</v>
+      </c>
+      <c r="AS61">
+        <v>0.67</v>
+      </c>
+      <c r="AT61">
+        <v>1.81</v>
+      </c>
+      <c r="AU61">
+        <v>-1</v>
+      </c>
+      <c r="AV61">
+        <v>-1</v>
+      </c>
+      <c r="AW61">
+        <v>-1</v>
+      </c>
+      <c r="AX61">
+        <v>-1</v>
+      </c>
+      <c r="AY61">
+        <v>-1</v>
+      </c>
+      <c r="AZ61">
+        <v>-1</v>
+      </c>
+      <c r="BA61">
+        <v>-1</v>
+      </c>
+      <c r="BB61">
+        <v>-1</v>
+      </c>
+      <c r="BC61">
+        <v>-1</v>
+      </c>
+      <c r="BD61">
+        <v>1.58</v>
+      </c>
+      <c r="BE61">
+        <v>6.4</v>
+      </c>
+      <c r="BF61">
+        <v>2.65</v>
+      </c>
+      <c r="BG61">
+        <v>1.43</v>
+      </c>
+      <c r="BH61">
+        <v>2.55</v>
+      </c>
+      <c r="BI61">
+        <v>1.72</v>
+      </c>
+      <c r="BJ61">
+        <v>1.98</v>
+      </c>
+      <c r="BK61">
         <v>2.15</v>
       </c>
-      <c r="AN61">
-        <v>1.33</v>
-      </c>
-      <c r="AO61">
-        <v>0</v>
-      </c>
-      <c r="AP61">
-        <v>1.6</v>
-      </c>
-      <c r="AQ61">
-        <v>0</v>
-      </c>
-      <c r="AR61">
-        <v>1.11</v>
-      </c>
-      <c r="AS61">
-        <v>1.68</v>
-      </c>
-      <c r="AT61">
-        <v>2.79</v>
-      </c>
-      <c r="AU61">
-        <v>6</v>
-      </c>
-      <c r="AV61">
-        <v>5</v>
-      </c>
-      <c r="AW61">
-        <v>3</v>
-      </c>
-      <c r="AX61">
-        <v>3</v>
-      </c>
-      <c r="AY61">
-        <v>9</v>
-      </c>
-      <c r="AZ61">
-        <v>8</v>
-      </c>
-      <c r="BA61">
-        <v>3</v>
-      </c>
-      <c r="BB61">
-        <v>6</v>
-      </c>
-      <c r="BC61">
-        <v>9</v>
-      </c>
-      <c r="BD61">
-        <v>1.32</v>
-      </c>
-      <c r="BE61">
-        <v>7.5</v>
-      </c>
-      <c r="BF61">
+      <c r="BL61">
+        <v>1.61</v>
+      </c>
+      <c r="BM61">
+        <v>2.75</v>
+      </c>
+      <c r="BN61">
+        <v>1.38</v>
+      </c>
+      <c r="BO61">
         <v>3.65</v>
       </c>
-      <c r="BG61">
-        <v>1.3</v>
-      </c>
-      <c r="BH61">
-        <v>3.15</v>
-      </c>
-      <c r="BI61">
-        <v>1.5</v>
-      </c>
-      <c r="BJ61">
-        <v>2.33</v>
-      </c>
-      <c r="BK61">
-        <v>1.84</v>
-      </c>
-      <c r="BL61">
-        <v>1.84</v>
-      </c>
-      <c r="BM61">
-        <v>2.3</v>
-      </c>
-      <c r="BN61">
-        <v>1.54</v>
-      </c>
-      <c r="BO61">
-        <v>2.9</v>
-      </c>
       <c r="BP61">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="62" spans="1:68">
@@ -13531,7 +13540,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>7465062</v>
+        <v>7465058</v>
       </c>
       <c r="C62" t="s">
         <v>68</v>
@@ -13540,196 +13549,196 @@
         <v>69</v>
       </c>
       <c r="E62" s="2">
-        <v>45557.66666666666</v>
+        <v>45556.875</v>
       </c>
       <c r="F62">
         <v>6</v>
       </c>
       <c r="G62" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H62" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M62">
         <v>1</v>
       </c>
       <c r="N62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O62" t="s">
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="Q62">
+        <v>2.25</v>
+      </c>
+      <c r="R62">
+        <v>2.3</v>
+      </c>
+      <c r="S62">
+        <v>4.75</v>
+      </c>
+      <c r="T62">
+        <v>1.33</v>
+      </c>
+      <c r="U62">
+        <v>3.25</v>
+      </c>
+      <c r="V62">
+        <v>2.63</v>
+      </c>
+      <c r="W62">
+        <v>1.44</v>
+      </c>
+      <c r="X62">
+        <v>6.5</v>
+      </c>
+      <c r="Y62">
+        <v>1.11</v>
+      </c>
+      <c r="Z62">
+        <v>1.67</v>
+      </c>
+      <c r="AA62">
+        <v>3.75</v>
+      </c>
+      <c r="AB62">
         <v>5</v>
       </c>
-      <c r="R62">
+      <c r="AC62">
+        <v>1.04</v>
+      </c>
+      <c r="AD62">
+        <v>14.25</v>
+      </c>
+      <c r="AE62">
+        <v>1.24</v>
+      </c>
+      <c r="AF62">
+        <v>4.15</v>
+      </c>
+      <c r="AG62">
+        <v>1.75</v>
+      </c>
+      <c r="AH62">
         <v>2.1</v>
       </c>
-      <c r="S62">
-        <v>2.5</v>
-      </c>
-      <c r="T62">
-        <v>1.44</v>
-      </c>
-      <c r="U62">
-        <v>2.63</v>
-      </c>
-      <c r="V62">
-        <v>3.25</v>
-      </c>
-      <c r="W62">
+      <c r="AI62">
+        <v>1.75</v>
+      </c>
+      <c r="AJ62">
+        <v>2</v>
+      </c>
+      <c r="AK62">
+        <v>1.2</v>
+      </c>
+      <c r="AL62">
+        <v>1.27</v>
+      </c>
+      <c r="AM62">
+        <v>2.15</v>
+      </c>
+      <c r="AN62">
         <v>1.33</v>
       </c>
-      <c r="X62">
-        <v>10</v>
-      </c>
-      <c r="Y62">
-        <v>1.06</v>
-      </c>
-      <c r="Z62">
-        <v>4.75</v>
-      </c>
-      <c r="AA62">
-        <v>3.3</v>
-      </c>
-      <c r="AB62">
-        <v>1.8</v>
-      </c>
-      <c r="AC62">
-        <v>1.02</v>
-      </c>
-      <c r="AD62">
-        <v>7.2</v>
-      </c>
-      <c r="AE62">
-        <v>1.35</v>
-      </c>
-      <c r="AF62">
+      <c r="AO62">
+        <v>0</v>
+      </c>
+      <c r="AP62">
+        <v>1.6</v>
+      </c>
+      <c r="AQ62">
+        <v>0</v>
+      </c>
+      <c r="AR62">
+        <v>1.11</v>
+      </c>
+      <c r="AS62">
+        <v>1.68</v>
+      </c>
+      <c r="AT62">
         <v>2.79</v>
       </c>
-      <c r="AG62">
-        <v>2.2</v>
-      </c>
-      <c r="AH62">
-        <v>1.68</v>
-      </c>
-      <c r="AI62">
-        <v>2</v>
-      </c>
-      <c r="AJ62">
-        <v>1.75</v>
-      </c>
-      <c r="AK62">
-        <v>1.95</v>
-      </c>
-      <c r="AL62">
-        <v>1.25</v>
-      </c>
-      <c r="AM62">
-        <v>1.18</v>
-      </c>
-      <c r="AN62">
+      <c r="AU62">
+        <v>3</v>
+      </c>
+      <c r="AV62">
+        <v>3</v>
+      </c>
+      <c r="AW62">
+        <v>2</v>
+      </c>
+      <c r="AX62">
+        <v>4</v>
+      </c>
+      <c r="AY62">
+        <v>5</v>
+      </c>
+      <c r="AZ62">
+        <v>7</v>
+      </c>
+      <c r="BA62">
+        <v>3</v>
+      </c>
+      <c r="BB62">
+        <v>6</v>
+      </c>
+      <c r="BC62">
+        <v>9</v>
+      </c>
+      <c r="BD62">
+        <v>1.32</v>
+      </c>
+      <c r="BE62">
+        <v>7.5</v>
+      </c>
+      <c r="BF62">
+        <v>3.65</v>
+      </c>
+      <c r="BG62">
+        <v>1.3</v>
+      </c>
+      <c r="BH62">
+        <v>3.15</v>
+      </c>
+      <c r="BI62">
         <v>1.5</v>
       </c>
-      <c r="AO62">
-        <v>2</v>
-      </c>
-      <c r="AP62">
-        <v>1.25</v>
-      </c>
-      <c r="AQ62">
-        <v>2</v>
-      </c>
-      <c r="AR62">
-        <v>1.49</v>
-      </c>
-      <c r="AS62">
-        <v>1.09</v>
-      </c>
-      <c r="AT62">
-        <v>2.58</v>
-      </c>
-      <c r="AU62">
-        <v>5</v>
-      </c>
-      <c r="AV62">
-        <v>6</v>
-      </c>
-      <c r="AW62">
-        <v>7</v>
-      </c>
-      <c r="AX62">
-        <v>2</v>
-      </c>
-      <c r="AY62">
-        <v>12</v>
-      </c>
-      <c r="AZ62">
-        <v>8</v>
-      </c>
-      <c r="BA62">
-        <v>3</v>
-      </c>
-      <c r="BB62">
-        <v>4</v>
-      </c>
-      <c r="BC62">
-        <v>7</v>
-      </c>
-      <c r="BD62">
-        <v>2.07</v>
-      </c>
-      <c r="BE62">
-        <v>6.25</v>
-      </c>
-      <c r="BF62">
-        <v>1.94</v>
-      </c>
-      <c r="BG62">
-        <v>1.41</v>
-      </c>
-      <c r="BH62">
-        <v>2.65</v>
-      </c>
-      <c r="BI62">
-        <v>1.68</v>
-      </c>
       <c r="BJ62">
-        <v>2.02</v>
+        <v>2.33</v>
       </c>
       <c r="BK62">
-        <v>2.1</v>
+        <v>1.84</v>
       </c>
       <c r="BL62">
-        <v>1.64</v>
+        <v>1.84</v>
       </c>
       <c r="BM62">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="BN62">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="BO62">
-        <v>3.65</v>
+        <v>2.9</v>
       </c>
       <c r="BP62">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="63" spans="1:68">
@@ -13746,7 +13755,7 @@
         <v>69</v>
       </c>
       <c r="E63" s="2">
-        <v>45558.66666666666</v>
+        <v>45557.875</v>
       </c>
       <c r="F63">
         <v>6</v>
@@ -13779,7 +13788,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -13872,22 +13881,22 @@
         <v>2.73</v>
       </c>
       <c r="AU63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV63">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY63">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ63">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BA63">
         <v>6</v>
@@ -13952,7 +13961,7 @@
         <v>69</v>
       </c>
       <c r="E64" s="2">
-        <v>45559.58333333334</v>
+        <v>45558.875</v>
       </c>
       <c r="F64">
         <v>7</v>
@@ -13985,7 +13994,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q64">
         <v>2.38</v>
@@ -14087,13 +14096,13 @@
         <v>6</v>
       </c>
       <c r="AX64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY64">
         <v>12</v>
       </c>
       <c r="AZ64">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA64">
         <v>6</v>
@@ -14397,7 +14406,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -14561,7 +14570,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>7465068</v>
+        <v>7465067</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -14570,196 +14579,196 @@
         <v>69</v>
       </c>
       <c r="E67" s="2">
-        <v>45560.58333333334</v>
+        <v>45559.875</v>
       </c>
       <c r="F67">
         <v>7</v>
       </c>
       <c r="G67" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67">
         <v>0</v>
       </c>
       <c r="N67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="P67" t="s">
         <v>104</v>
       </c>
       <c r="Q67">
-        <v>2.4</v>
+        <v>1.73</v>
       </c>
       <c r="R67">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="S67">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="T67">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="U67">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="V67">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="W67">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X67">
+        <v>6</v>
+      </c>
+      <c r="Y67">
+        <v>1.13</v>
+      </c>
+      <c r="Z67">
+        <v>1.28</v>
+      </c>
+      <c r="AA67">
+        <v>5.75</v>
+      </c>
+      <c r="AB67">
+        <v>10</v>
+      </c>
+      <c r="AC67">
+        <v>1.02</v>
+      </c>
+      <c r="AD67">
+        <v>17</v>
+      </c>
+      <c r="AE67">
+        <v>1.2</v>
+      </c>
+      <c r="AF67">
+        <v>4.5</v>
+      </c>
+      <c r="AG67">
+        <v>1.61</v>
+      </c>
+      <c r="AH67">
+        <v>2.15</v>
+      </c>
+      <c r="AI67">
+        <v>2.1</v>
+      </c>
+      <c r="AJ67">
+        <v>1.67</v>
+      </c>
+      <c r="AK67">
+        <v>1.02</v>
+      </c>
+      <c r="AL67">
+        <v>1.11</v>
+      </c>
+      <c r="AM67">
+        <v>3.75</v>
+      </c>
+      <c r="AN67">
+        <v>3</v>
+      </c>
+      <c r="AO67">
+        <v>0.33</v>
+      </c>
+      <c r="AP67">
+        <v>3</v>
+      </c>
+      <c r="AQ67">
+        <v>0.25</v>
+      </c>
+      <c r="AR67">
+        <v>1.97</v>
+      </c>
+      <c r="AS67">
+        <v>1.25</v>
+      </c>
+      <c r="AT67">
+        <v>3.22</v>
+      </c>
+      <c r="AU67">
+        <v>5</v>
+      </c>
+      <c r="AV67">
+        <v>2</v>
+      </c>
+      <c r="AW67">
         <v>8</v>
       </c>
-      <c r="Y67">
-        <v>1.08</v>
-      </c>
-      <c r="Z67">
-        <v>1.8</v>
-      </c>
-      <c r="AA67">
-        <v>3.7</v>
-      </c>
-      <c r="AB67">
-        <v>4.2</v>
-      </c>
-      <c r="AC67">
-        <v>1.05</v>
-      </c>
-      <c r="AD67">
-        <v>11</v>
-      </c>
-      <c r="AE67">
-        <v>1.32</v>
-      </c>
-      <c r="AF67">
-        <v>3.4</v>
-      </c>
-      <c r="AG67">
-        <v>1.85</v>
-      </c>
-      <c r="AH67">
-        <v>1.83</v>
-      </c>
-      <c r="AI67">
-        <v>1.8</v>
-      </c>
-      <c r="AJ67">
-        <v>1.95</v>
-      </c>
-      <c r="AK67">
-        <v>1.22</v>
-      </c>
-      <c r="AL67">
-        <v>1.24</v>
-      </c>
-      <c r="AM67">
-        <v>2</v>
-      </c>
-      <c r="AN67">
+      <c r="AX67">
+        <v>1</v>
+      </c>
+      <c r="AY67">
+        <v>13</v>
+      </c>
+      <c r="AZ67">
+        <v>3</v>
+      </c>
+      <c r="BA67">
+        <v>7</v>
+      </c>
+      <c r="BB67">
+        <v>5</v>
+      </c>
+      <c r="BC67">
+        <v>12</v>
+      </c>
+      <c r="BD67">
+        <v>1.16</v>
+      </c>
+      <c r="BE67">
+        <v>9.5</v>
+      </c>
+      <c r="BF67">
+        <v>5.4</v>
+      </c>
+      <c r="BG67">
+        <v>1.3</v>
+      </c>
+      <c r="BH67">
+        <v>3.15</v>
+      </c>
+      <c r="BI67">
         <v>1.5</v>
       </c>
-      <c r="AO67">
-        <v>1.33</v>
-      </c>
-      <c r="AP67">
-        <v>1.33</v>
-      </c>
-      <c r="AQ67">
-        <v>1.25</v>
-      </c>
-      <c r="AR67">
-        <v>1.32</v>
-      </c>
-      <c r="AS67">
-        <v>1.14</v>
-      </c>
-      <c r="AT67">
-        <v>2.46</v>
-      </c>
-      <c r="AU67">
-        <v>2</v>
-      </c>
-      <c r="AV67">
-        <v>0</v>
-      </c>
-      <c r="AW67">
-        <v>7</v>
-      </c>
-      <c r="AX67">
-        <v>3</v>
-      </c>
-      <c r="AY67">
-        <v>9</v>
-      </c>
-      <c r="AZ67">
-        <v>3</v>
-      </c>
-      <c r="BA67">
-        <v>4</v>
-      </c>
-      <c r="BB67">
-        <v>3</v>
-      </c>
-      <c r="BC67">
-        <v>7</v>
-      </c>
-      <c r="BD67">
-        <v>1.57</v>
-      </c>
-      <c r="BE67">
-        <v>6.4</v>
-      </c>
-      <c r="BF67">
-        <v>2.65</v>
-      </c>
-      <c r="BG67">
-        <v>1.41</v>
-      </c>
-      <c r="BH67">
-        <v>2.65</v>
-      </c>
-      <c r="BI67">
-        <v>1.67</v>
-      </c>
       <c r="BJ67">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="BK67">
-        <v>2.08</v>
+        <v>1.82</v>
       </c>
       <c r="BL67">
-        <v>1.65</v>
+        <v>1.86</v>
       </c>
       <c r="BM67">
-        <v>2.65</v>
+        <v>2.25</v>
       </c>
       <c r="BN67">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="BO67">
-        <v>3.55</v>
+        <v>2.9</v>
       </c>
       <c r="BP67">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="68" spans="1:68">
@@ -14767,7 +14776,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>7465067</v>
+        <v>7465068</v>
       </c>
       <c r="C68" t="s">
         <v>68</v>
@@ -14776,196 +14785,196 @@
         <v>69</v>
       </c>
       <c r="E68" s="2">
-        <v>45560.66666666666</v>
+        <v>45560.58333333334</v>
       </c>
       <c r="F68">
         <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H68" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68">
         <v>0</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="P68" t="s">
         <v>104</v>
       </c>
       <c r="Q68">
-        <v>1.73</v>
+        <v>2.4</v>
       </c>
       <c r="R68">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="S68">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="T68">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="U68">
+        <v>2.75</v>
+      </c>
+      <c r="V68">
+        <v>2.75</v>
+      </c>
+      <c r="W68">
+        <v>1.4</v>
+      </c>
+      <c r="X68">
+        <v>8</v>
+      </c>
+      <c r="Y68">
+        <v>1.08</v>
+      </c>
+      <c r="Z68">
+        <v>1.8</v>
+      </c>
+      <c r="AA68">
+        <v>3.7</v>
+      </c>
+      <c r="AB68">
+        <v>4.2</v>
+      </c>
+      <c r="AC68">
+        <v>1.05</v>
+      </c>
+      <c r="AD68">
+        <v>11</v>
+      </c>
+      <c r="AE68">
+        <v>1.32</v>
+      </c>
+      <c r="AF68">
         <v>3.4</v>
       </c>
-      <c r="V68">
-        <v>2.5</v>
-      </c>
-      <c r="W68">
+      <c r="AG68">
+        <v>1.85</v>
+      </c>
+      <c r="AH68">
+        <v>1.83</v>
+      </c>
+      <c r="AI68">
+        <v>1.8</v>
+      </c>
+      <c r="AJ68">
+        <v>1.95</v>
+      </c>
+      <c r="AK68">
+        <v>1.22</v>
+      </c>
+      <c r="AL68">
+        <v>1.24</v>
+      </c>
+      <c r="AM68">
+        <v>2</v>
+      </c>
+      <c r="AN68">
         <v>1.5</v>
       </c>
-      <c r="X68">
-        <v>6</v>
-      </c>
-      <c r="Y68">
-        <v>1.13</v>
-      </c>
-      <c r="Z68">
-        <v>1.28</v>
-      </c>
-      <c r="AA68">
-        <v>5.75</v>
-      </c>
-      <c r="AB68">
-        <v>10</v>
-      </c>
-      <c r="AC68">
-        <v>1.02</v>
-      </c>
-      <c r="AD68">
-        <v>17</v>
-      </c>
-      <c r="AE68">
-        <v>1.2</v>
-      </c>
-      <c r="AF68">
-        <v>4.5</v>
-      </c>
-      <c r="AG68">
-        <v>1.61</v>
-      </c>
-      <c r="AH68">
-        <v>2.15</v>
-      </c>
-      <c r="AI68">
-        <v>2.1</v>
-      </c>
-      <c r="AJ68">
+      <c r="AO68">
+        <v>1.33</v>
+      </c>
+      <c r="AP68">
+        <v>1.33</v>
+      </c>
+      <c r="AQ68">
+        <v>1.25</v>
+      </c>
+      <c r="AR68">
+        <v>1.32</v>
+      </c>
+      <c r="AS68">
+        <v>1.14</v>
+      </c>
+      <c r="AT68">
+        <v>2.46</v>
+      </c>
+      <c r="AU68">
+        <v>2</v>
+      </c>
+      <c r="AV68">
+        <v>0</v>
+      </c>
+      <c r="AW68">
+        <v>7</v>
+      </c>
+      <c r="AX68">
+        <v>3</v>
+      </c>
+      <c r="AY68">
+        <v>9</v>
+      </c>
+      <c r="AZ68">
+        <v>3</v>
+      </c>
+      <c r="BA68">
+        <v>4</v>
+      </c>
+      <c r="BB68">
+        <v>3</v>
+      </c>
+      <c r="BC68">
+        <v>7</v>
+      </c>
+      <c r="BD68">
+        <v>1.57</v>
+      </c>
+      <c r="BE68">
+        <v>6.4</v>
+      </c>
+      <c r="BF68">
+        <v>2.65</v>
+      </c>
+      <c r="BG68">
+        <v>1.41</v>
+      </c>
+      <c r="BH68">
+        <v>2.65</v>
+      </c>
+      <c r="BI68">
         <v>1.67</v>
       </c>
-      <c r="AK68">
-        <v>1.02</v>
-      </c>
-      <c r="AL68">
-        <v>1.11</v>
-      </c>
-      <c r="AM68">
-        <v>3.75</v>
-      </c>
-      <c r="AN68">
-        <v>3</v>
-      </c>
-      <c r="AO68">
-        <v>0.33</v>
-      </c>
-      <c r="AP68">
-        <v>3</v>
-      </c>
-      <c r="AQ68">
-        <v>0.25</v>
-      </c>
-      <c r="AR68">
-        <v>1.97</v>
-      </c>
-      <c r="AS68">
-        <v>1.25</v>
-      </c>
-      <c r="AT68">
-        <v>3.22</v>
-      </c>
-      <c r="AU68">
-        <v>5</v>
-      </c>
-      <c r="AV68">
-        <v>2</v>
-      </c>
-      <c r="AW68">
-        <v>6</v>
-      </c>
-      <c r="AX68">
-        <v>3</v>
-      </c>
-      <c r="AY68">
-        <v>11</v>
-      </c>
-      <c r="AZ68">
-        <v>5</v>
-      </c>
-      <c r="BA68">
-        <v>7</v>
-      </c>
-      <c r="BB68">
-        <v>5</v>
-      </c>
-      <c r="BC68">
-        <v>12</v>
-      </c>
-      <c r="BD68">
-        <v>1.16</v>
-      </c>
-      <c r="BE68">
-        <v>9.5</v>
-      </c>
-      <c r="BF68">
-        <v>5.4</v>
-      </c>
-      <c r="BG68">
-        <v>1.3</v>
-      </c>
-      <c r="BH68">
-        <v>3.15</v>
-      </c>
-      <c r="BI68">
-        <v>1.5</v>
-      </c>
       <c r="BJ68">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="BK68">
-        <v>1.82</v>
+        <v>2.08</v>
       </c>
       <c r="BL68">
-        <v>1.86</v>
+        <v>1.65</v>
       </c>
       <c r="BM68">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
       <c r="BN68">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="BO68">
-        <v>2.9</v>
+        <v>3.55</v>
       </c>
       <c r="BP68">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="69" spans="1:68">
@@ -14973,7 +14982,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7469578</v>
+        <v>7465073</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -14982,16 +14991,16 @@
         <v>69</v>
       </c>
       <c r="E69" s="2">
-        <v>45561.58333333334</v>
+        <v>45560.875</v>
       </c>
       <c r="F69">
         <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H69" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -15006,172 +15015,172 @@
         <v>1</v>
       </c>
       <c r="M69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O69" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="P69" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q69">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R69">
+        <v>2.05</v>
+      </c>
+      <c r="S69">
+        <v>3.1</v>
+      </c>
+      <c r="T69">
+        <v>1.44</v>
+      </c>
+      <c r="U69">
+        <v>2.63</v>
+      </c>
+      <c r="V69">
+        <v>3.25</v>
+      </c>
+      <c r="W69">
+        <v>1.33</v>
+      </c>
+      <c r="X69">
+        <v>10</v>
+      </c>
+      <c r="Y69">
+        <v>1.06</v>
+      </c>
+      <c r="Z69">
+        <v>3</v>
+      </c>
+      <c r="AA69">
+        <v>3.2</v>
+      </c>
+      <c r="AB69">
+        <v>2.37</v>
+      </c>
+      <c r="AC69">
+        <v>1.07</v>
+      </c>
+      <c r="AD69">
+        <v>7</v>
+      </c>
+      <c r="AE69">
+        <v>1.35</v>
+      </c>
+      <c r="AF69">
+        <v>2.95</v>
+      </c>
+      <c r="AG69">
         <v>2.2</v>
       </c>
-      <c r="S69">
-        <v>2.75</v>
-      </c>
-      <c r="T69">
+      <c r="AH69">
+        <v>1.6</v>
+      </c>
+      <c r="AI69">
+        <v>1.91</v>
+      </c>
+      <c r="AJ69">
+        <v>1.91</v>
+      </c>
+      <c r="AK69">
+        <v>1.55</v>
+      </c>
+      <c r="AL69">
+        <v>1.3</v>
+      </c>
+      <c r="AM69">
         <v>1.36</v>
       </c>
-      <c r="U69">
-        <v>3</v>
-      </c>
-      <c r="V69">
-        <v>2.75</v>
-      </c>
-      <c r="W69">
-        <v>1.4</v>
-      </c>
-      <c r="X69">
-        <v>7</v>
-      </c>
-      <c r="Y69">
-        <v>1.1</v>
-      </c>
-      <c r="Z69">
-        <v>3.4</v>
-      </c>
-      <c r="AA69">
-        <v>3.4</v>
-      </c>
-      <c r="AB69">
-        <v>2.1</v>
-      </c>
-      <c r="AC69">
-        <v>1.06</v>
-      </c>
-      <c r="AD69">
-        <v>10</v>
-      </c>
-      <c r="AE69">
-        <v>1.3</v>
-      </c>
-      <c r="AF69">
-        <v>3.6</v>
-      </c>
-      <c r="AG69">
-        <v>1.83</v>
-      </c>
-      <c r="AH69">
-        <v>1.85</v>
-      </c>
-      <c r="AI69">
-        <v>1.7</v>
-      </c>
-      <c r="AJ69">
-        <v>2.05</v>
-      </c>
-      <c r="AK69">
-        <v>1.78</v>
-      </c>
-      <c r="AL69">
-        <v>1.28</v>
-      </c>
-      <c r="AM69">
-        <v>1.3</v>
-      </c>
       <c r="AN69">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="AO69">
-        <v>2.33</v>
+        <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AQ69">
-        <v>2.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR69">
-        <v>1.13</v>
+        <v>1.36</v>
       </c>
       <c r="AS69">
         <v>1.25</v>
       </c>
       <c r="AT69">
-        <v>2.38</v>
+        <v>2.61</v>
       </c>
       <c r="AU69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV69">
+        <v>3</v>
+      </c>
+      <c r="AW69">
+        <v>3</v>
+      </c>
+      <c r="AX69">
+        <v>4</v>
+      </c>
+      <c r="AY69">
         <v>5</v>
       </c>
-      <c r="AW69">
-        <v>3</v>
-      </c>
-      <c r="AX69">
+      <c r="AZ69">
         <v>7</v>
       </c>
-      <c r="AY69">
-        <v>6</v>
-      </c>
-      <c r="AZ69">
-        <v>12</v>
-      </c>
       <c r="BA69">
+        <v>1</v>
+      </c>
+      <c r="BB69">
         <v>4</v>
-      </c>
-      <c r="BB69">
-        <v>1</v>
       </c>
       <c r="BC69">
         <v>5</v>
       </c>
       <c r="BD69">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="BE69">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="BF69">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="BG69">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="BH69">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="BI69">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="BJ69">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="BK69">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="BL69">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="BM69">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="BN69">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="BO69">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="BP69">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15179,7 +15188,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7465073</v>
+        <v>7465072</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -15188,172 +15197,172 @@
         <v>69</v>
       </c>
       <c r="E70" s="2">
-        <v>45561.58333333334</v>
+        <v>45560.875</v>
       </c>
       <c r="F70">
         <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H70" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70">
         <v>1</v>
       </c>
       <c r="N70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O70" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="P70" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q70">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R70">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="S70">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="T70">
+        <v>1.33</v>
+      </c>
+      <c r="U70">
+        <v>3.25</v>
+      </c>
+      <c r="V70">
+        <v>2.63</v>
+      </c>
+      <c r="W70">
         <v>1.44</v>
       </c>
-      <c r="U70">
-        <v>2.63</v>
-      </c>
-      <c r="V70">
-        <v>3.25</v>
-      </c>
-      <c r="W70">
-        <v>1.33</v>
-      </c>
       <c r="X70">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="Y70">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="Z70">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AA70">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="AB70">
-        <v>2.37</v>
+        <v>2</v>
       </c>
       <c r="AC70">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AD70">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE70">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AF70">
-        <v>2.95</v>
+        <v>4</v>
       </c>
       <c r="AG70">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="AH70">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AI70">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="AJ70">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AK70">
-        <v>1.55</v>
+        <v>1.83</v>
       </c>
       <c r="AL70">
+        <v>1.24</v>
+      </c>
+      <c r="AM70">
         <v>1.3</v>
       </c>
-      <c r="AM70">
-        <v>1.36</v>
-      </c>
       <c r="AN70">
-        <v>0.67</v>
+        <v>3</v>
       </c>
       <c r="AO70">
-        <v>0.5</v>
+        <v>1.67</v>
       </c>
       <c r="AP70">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="AQ70">
-        <v>0.67</v>
+        <v>2</v>
       </c>
       <c r="AR70">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AS70">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="AT70">
-        <v>2.61</v>
+        <v>2.38</v>
       </c>
       <c r="AU70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV70">
+        <v>2</v>
+      </c>
+      <c r="AW70">
         <v>6</v>
       </c>
-      <c r="AW70">
+      <c r="AX70">
+        <v>2</v>
+      </c>
+      <c r="AY70">
+        <v>11</v>
+      </c>
+      <c r="AZ70">
         <v>4</v>
       </c>
-      <c r="AX70">
-        <v>7</v>
-      </c>
-      <c r="AY70">
-        <v>7</v>
-      </c>
-      <c r="AZ70">
-        <v>13</v>
-      </c>
       <c r="BA70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC70">
         <v>5</v>
       </c>
       <c r="BD70">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="BE70">
         <v>6.4</v>
       </c>
       <c r="BF70">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="BG70">
         <v>1.3</v>
       </c>
       <c r="BH70">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="BI70">
         <v>1.53</v>
@@ -15362,22 +15371,22 @@
         <v>2.32</v>
       </c>
       <c r="BK70">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="BL70">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="BM70">
-        <v>2.32</v>
+        <v>2.33</v>
       </c>
       <c r="BN70">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="BO70">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="BP70">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="71" spans="1:68">
@@ -15385,7 +15394,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>7465072</v>
+        <v>7469578</v>
       </c>
       <c r="C71" t="s">
         <v>68</v>
@@ -15394,196 +15403,196 @@
         <v>69</v>
       </c>
       <c r="E71" s="2">
-        <v>45561.66666666666</v>
+        <v>45561.58333333334</v>
       </c>
       <c r="F71">
         <v>7</v>
       </c>
       <c r="G71" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H71" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O71" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q71">
         <v>4</v>
       </c>
       <c r="R71">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S71">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="T71">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U71">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V71">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W71">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X71">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y71">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z71">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AA71">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AB71">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AC71">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AD71">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE71">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AF71">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AG71">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AH71">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AI71">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AJ71">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AK71">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="AL71">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AM71">
         <v>1.3</v>
       </c>
       <c r="AN71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO71">
-        <v>1.67</v>
+        <v>2.33</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AR71">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AS71">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="AT71">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="AU71">
+        <v>3</v>
+      </c>
+      <c r="AV71">
         <v>5</v>
       </c>
-      <c r="AV71">
-        <v>3</v>
-      </c>
       <c r="AW71">
+        <v>3</v>
+      </c>
+      <c r="AX71">
+        <v>7</v>
+      </c>
+      <c r="AY71">
         <v>6</v>
       </c>
-      <c r="AX71">
-        <v>2</v>
-      </c>
-      <c r="AY71">
-        <v>11</v>
-      </c>
       <c r="AZ71">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BA71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC71">
         <v>5</v>
       </c>
       <c r="BD71">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="BE71">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="BF71">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="BG71">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="BH71">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="BI71">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="BJ71">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="BK71">
         <v>1.88</v>
       </c>
       <c r="BL71">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="BM71">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="BN71">
         <v>1.5</v>
       </c>
       <c r="BO71">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="BP71">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="72" spans="1:68">
@@ -15633,7 +15642,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -15720,10 +15729,10 @@
         <v>1.16</v>
       </c>
       <c r="AS72">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AT72">
-        <v>2.26</v>
+        <v>2.21</v>
       </c>
       <c r="AU72">
         <v>2</v>
@@ -15923,13 +15932,13 @@
         <v>0.6</v>
       </c>
       <c r="AR73">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AS73">
         <v>1.41</v>
       </c>
       <c r="AT73">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="AU73">
         <v>9</v>
@@ -16129,13 +16138,13 @@
         <v>0.8</v>
       </c>
       <c r="AR74">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AS74">
         <v>0.67</v>
       </c>
       <c r="AT74">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="AU74">
         <v>7</v>
@@ -16457,7 +16466,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -16747,13 +16756,13 @@
         <v>1</v>
       </c>
       <c r="AR77">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AS77">
         <v>1.26</v>
       </c>
       <c r="AT77">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="AU77">
         <v>3</v>
@@ -16869,7 +16878,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -16953,13 +16962,13 @@
         <v>0.75</v>
       </c>
       <c r="AR78">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="AS78">
         <v>1.46</v>
       </c>
       <c r="AT78">
-        <v>2.61</v>
+        <v>2.57</v>
       </c>
       <c r="AU78">
         <v>6</v>
@@ -17232,6 +17241,418 @@
       </c>
       <c r="BP79">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7465077</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45564.66666666666</v>
+      </c>
+      <c r="F80">
+        <v>8</v>
+      </c>
+      <c r="G80" t="s">
+        <v>87</v>
+      </c>
+      <c r="H80" t="s">
+        <v>84</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80" t="s">
+        <v>150</v>
+      </c>
+      <c r="P80" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q80">
+        <v>3.25</v>
+      </c>
+      <c r="R80">
+        <v>2.3</v>
+      </c>
+      <c r="S80">
+        <v>3</v>
+      </c>
+      <c r="T80">
+        <v>1.33</v>
+      </c>
+      <c r="U80">
+        <v>3.25</v>
+      </c>
+      <c r="V80">
+        <v>2.5</v>
+      </c>
+      <c r="W80">
+        <v>1.5</v>
+      </c>
+      <c r="X80">
+        <v>6.5</v>
+      </c>
+      <c r="Y80">
+        <v>1.11</v>
+      </c>
+      <c r="Z80">
+        <v>2.75</v>
+      </c>
+      <c r="AA80">
+        <v>3.4</v>
+      </c>
+      <c r="AB80">
+        <v>2.5</v>
+      </c>
+      <c r="AC80">
+        <v>1.03</v>
+      </c>
+      <c r="AD80">
+        <v>13</v>
+      </c>
+      <c r="AE80">
+        <v>1.24</v>
+      </c>
+      <c r="AF80">
+        <v>4.2</v>
+      </c>
+      <c r="AG80">
+        <v>1.73</v>
+      </c>
+      <c r="AH80">
+        <v>2.1</v>
+      </c>
+      <c r="AI80">
+        <v>1.57</v>
+      </c>
+      <c r="AJ80">
+        <v>2.25</v>
+      </c>
+      <c r="AK80">
+        <v>1.58</v>
+      </c>
+      <c r="AL80">
+        <v>1.25</v>
+      </c>
+      <c r="AM80">
+        <v>1.48</v>
+      </c>
+      <c r="AN80">
+        <v>2.33</v>
+      </c>
+      <c r="AO80">
+        <v>1.67</v>
+      </c>
+      <c r="AP80">
+        <v>2</v>
+      </c>
+      <c r="AQ80">
+        <v>1.5</v>
+      </c>
+      <c r="AR80">
+        <v>1.69</v>
+      </c>
+      <c r="AS80">
+        <v>1.8</v>
+      </c>
+      <c r="AT80">
+        <v>3.49</v>
+      </c>
+      <c r="AU80">
+        <v>5</v>
+      </c>
+      <c r="AV80">
+        <v>5</v>
+      </c>
+      <c r="AW80">
+        <v>2</v>
+      </c>
+      <c r="AX80">
+        <v>4</v>
+      </c>
+      <c r="AY80">
+        <v>7</v>
+      </c>
+      <c r="AZ80">
+        <v>9</v>
+      </c>
+      <c r="BA80">
+        <v>5</v>
+      </c>
+      <c r="BB80">
+        <v>5</v>
+      </c>
+      <c r="BC80">
+        <v>10</v>
+      </c>
+      <c r="BD80">
+        <v>2.33</v>
+      </c>
+      <c r="BE80">
+        <v>6.4</v>
+      </c>
+      <c r="BF80">
+        <v>1.74</v>
+      </c>
+      <c r="BG80">
+        <v>1.28</v>
+      </c>
+      <c r="BH80">
+        <v>3.2</v>
+      </c>
+      <c r="BI80">
+        <v>1.49</v>
+      </c>
+      <c r="BJ80">
+        <v>2.4</v>
+      </c>
+      <c r="BK80">
+        <v>1.82</v>
+      </c>
+      <c r="BL80">
+        <v>1.86</v>
+      </c>
+      <c r="BM80">
+        <v>2.32</v>
+      </c>
+      <c r="BN80">
+        <v>1.53</v>
+      </c>
+      <c r="BO80">
+        <v>2.95</v>
+      </c>
+      <c r="BP80">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7465082</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45565.66666666666</v>
+      </c>
+      <c r="F81">
+        <v>8</v>
+      </c>
+      <c r="G81" t="s">
+        <v>79</v>
+      </c>
+      <c r="H81" t="s">
+        <v>73</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>3</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>4</v>
+      </c>
+      <c r="O81" t="s">
+        <v>151</v>
+      </c>
+      <c r="P81" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q81">
+        <v>2</v>
+      </c>
+      <c r="R81">
+        <v>2.5</v>
+      </c>
+      <c r="S81">
+        <v>5.5</v>
+      </c>
+      <c r="T81">
+        <v>1.29</v>
+      </c>
+      <c r="U81">
+        <v>3.5</v>
+      </c>
+      <c r="V81">
+        <v>2.25</v>
+      </c>
+      <c r="W81">
+        <v>1.57</v>
+      </c>
+      <c r="X81">
+        <v>5.5</v>
+      </c>
+      <c r="Y81">
+        <v>1.14</v>
+      </c>
+      <c r="Z81">
+        <v>1.53</v>
+      </c>
+      <c r="AA81">
+        <v>4.1</v>
+      </c>
+      <c r="AB81">
+        <v>6</v>
+      </c>
+      <c r="AC81">
+        <v>1.01</v>
+      </c>
+      <c r="AD81">
+        <v>13</v>
+      </c>
+      <c r="AE81">
+        <v>1.14</v>
+      </c>
+      <c r="AF81">
+        <v>4.45</v>
+      </c>
+      <c r="AG81">
+        <v>1.57</v>
+      </c>
+      <c r="AH81">
+        <v>2.38</v>
+      </c>
+      <c r="AI81">
+        <v>1.67</v>
+      </c>
+      <c r="AJ81">
+        <v>2.1</v>
+      </c>
+      <c r="AK81">
+        <v>1.16</v>
+      </c>
+      <c r="AL81">
+        <v>1.2</v>
+      </c>
+      <c r="AM81">
+        <v>2.5</v>
+      </c>
+      <c r="AN81">
+        <v>1.33</v>
+      </c>
+      <c r="AO81">
+        <v>0</v>
+      </c>
+      <c r="AP81">
+        <v>1.75</v>
+      </c>
+      <c r="AQ81">
+        <v>0</v>
+      </c>
+      <c r="AR81">
+        <v>1.71</v>
+      </c>
+      <c r="AS81">
+        <v>1.45</v>
+      </c>
+      <c r="AT81">
+        <v>3.16</v>
+      </c>
+      <c r="AU81">
+        <v>8</v>
+      </c>
+      <c r="AV81">
+        <v>4</v>
+      </c>
+      <c r="AW81">
+        <v>6</v>
+      </c>
+      <c r="AX81">
+        <v>3</v>
+      </c>
+      <c r="AY81">
+        <v>14</v>
+      </c>
+      <c r="AZ81">
+        <v>7</v>
+      </c>
+      <c r="BA81">
+        <v>3</v>
+      </c>
+      <c r="BB81">
+        <v>2</v>
+      </c>
+      <c r="BC81">
+        <v>5</v>
+      </c>
+      <c r="BD81">
+        <v>1.47</v>
+      </c>
+      <c r="BE81">
+        <v>7</v>
+      </c>
+      <c r="BF81">
+        <v>2.95</v>
+      </c>
+      <c r="BG81">
+        <v>1.26</v>
+      </c>
+      <c r="BH81">
+        <v>3.4</v>
+      </c>
+      <c r="BI81">
+        <v>1.44</v>
+      </c>
+      <c r="BJ81">
+        <v>2.55</v>
+      </c>
+      <c r="BK81">
+        <v>1.73</v>
+      </c>
+      <c r="BL81">
+        <v>1.96</v>
+      </c>
+      <c r="BM81">
+        <v>2.12</v>
+      </c>
+      <c r="BN81">
+        <v>1.63</v>
+      </c>
+      <c r="BO81">
+        <v>2.7</v>
+      </c>
+      <c r="BP81">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -448,16 +448,16 @@
     <t>['90+4']</t>
   </si>
   <si>
+    <t>['8', '80', '90+2']</t>
+  </si>
+  <si>
+    <t>['18', '28', '72', '85']</t>
+  </si>
+  <si>
     <t>['42', '58']</t>
   </si>
   <si>
     <t>['8']</t>
-  </si>
-  <si>
-    <t>['8', '80', '90+2']</t>
-  </si>
-  <si>
-    <t>['18', '28', '72', '85']</t>
   </si>
   <si>
     <t>['81']</t>
@@ -14167,7 +14167,7 @@
         <v>69</v>
       </c>
       <c r="E65" s="2">
-        <v>45559.58333333334</v>
+        <v>45558.875</v>
       </c>
       <c r="F65">
         <v>7</v>
@@ -14293,19 +14293,19 @@
         <v>1.93</v>
       </c>
       <c r="AU65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV65">
         <v>3</v>
       </c>
       <c r="AW65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX65">
         <v>4</v>
       </c>
       <c r="AY65">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AZ65">
         <v>7</v>
@@ -14373,7 +14373,7 @@
         <v>69</v>
       </c>
       <c r="E66" s="2">
-        <v>45559.66666666666</v>
+        <v>45558.875</v>
       </c>
       <c r="F66">
         <v>7</v>
@@ -14499,22 +14499,22 @@
         <v>3.52</v>
       </c>
       <c r="AU66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV66">
+        <v>2</v>
+      </c>
+      <c r="AW66">
+        <v>3</v>
+      </c>
+      <c r="AX66">
         <v>4</v>
       </c>
-      <c r="AW66">
-        <v>3</v>
-      </c>
-      <c r="AX66">
-        <v>5</v>
-      </c>
       <c r="AY66">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ66">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BA66">
         <v>4</v>
@@ -14570,7 +14570,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>7465067</v>
+        <v>7465068</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -14585,190 +14585,190 @@
         <v>7</v>
       </c>
       <c r="G67" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H67" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67">
         <v>0</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="P67" t="s">
         <v>104</v>
       </c>
       <c r="Q67">
-        <v>1.73</v>
+        <v>2.4</v>
       </c>
       <c r="R67">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="S67">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="T67">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="U67">
+        <v>2.75</v>
+      </c>
+      <c r="V67">
+        <v>2.75</v>
+      </c>
+      <c r="W67">
+        <v>1.4</v>
+      </c>
+      <c r="X67">
+        <v>8</v>
+      </c>
+      <c r="Y67">
+        <v>1.08</v>
+      </c>
+      <c r="Z67">
+        <v>1.8</v>
+      </c>
+      <c r="AA67">
+        <v>3.7</v>
+      </c>
+      <c r="AB67">
+        <v>4.2</v>
+      </c>
+      <c r="AC67">
+        <v>1.05</v>
+      </c>
+      <c r="AD67">
+        <v>11</v>
+      </c>
+      <c r="AE67">
+        <v>1.32</v>
+      </c>
+      <c r="AF67">
         <v>3.4</v>
       </c>
-      <c r="V67">
-        <v>2.5</v>
-      </c>
-      <c r="W67">
+      <c r="AG67">
+        <v>1.85</v>
+      </c>
+      <c r="AH67">
+        <v>1.83</v>
+      </c>
+      <c r="AI67">
+        <v>1.8</v>
+      </c>
+      <c r="AJ67">
+        <v>1.95</v>
+      </c>
+      <c r="AK67">
+        <v>1.22</v>
+      </c>
+      <c r="AL67">
+        <v>1.24</v>
+      </c>
+      <c r="AM67">
+        <v>2</v>
+      </c>
+      <c r="AN67">
         <v>1.5</v>
       </c>
-      <c r="X67">
-        <v>6</v>
-      </c>
-      <c r="Y67">
-        <v>1.13</v>
-      </c>
-      <c r="Z67">
-        <v>1.28</v>
-      </c>
-      <c r="AA67">
-        <v>5.75</v>
-      </c>
-      <c r="AB67">
-        <v>10</v>
-      </c>
-      <c r="AC67">
-        <v>1.02</v>
-      </c>
-      <c r="AD67">
-        <v>17</v>
-      </c>
-      <c r="AE67">
-        <v>1.2</v>
-      </c>
-      <c r="AF67">
-        <v>4.5</v>
-      </c>
-      <c r="AG67">
-        <v>1.61</v>
-      </c>
-      <c r="AH67">
-        <v>2.15</v>
-      </c>
-      <c r="AI67">
-        <v>2.1</v>
-      </c>
-      <c r="AJ67">
+      <c r="AO67">
+        <v>1.33</v>
+      </c>
+      <c r="AP67">
+        <v>1.33</v>
+      </c>
+      <c r="AQ67">
+        <v>1.25</v>
+      </c>
+      <c r="AR67">
+        <v>1.32</v>
+      </c>
+      <c r="AS67">
+        <v>1.14</v>
+      </c>
+      <c r="AT67">
+        <v>2.46</v>
+      </c>
+      <c r="AU67">
+        <v>2</v>
+      </c>
+      <c r="AV67">
+        <v>0</v>
+      </c>
+      <c r="AW67">
+        <v>5</v>
+      </c>
+      <c r="AX67">
+        <v>3</v>
+      </c>
+      <c r="AY67">
+        <v>7</v>
+      </c>
+      <c r="AZ67">
+        <v>3</v>
+      </c>
+      <c r="BA67">
+        <v>4</v>
+      </c>
+      <c r="BB67">
+        <v>3</v>
+      </c>
+      <c r="BC67">
+        <v>7</v>
+      </c>
+      <c r="BD67">
+        <v>1.57</v>
+      </c>
+      <c r="BE67">
+        <v>6.4</v>
+      </c>
+      <c r="BF67">
+        <v>2.65</v>
+      </c>
+      <c r="BG67">
+        <v>1.41</v>
+      </c>
+      <c r="BH67">
+        <v>2.65</v>
+      </c>
+      <c r="BI67">
         <v>1.67</v>
       </c>
-      <c r="AK67">
-        <v>1.02</v>
-      </c>
-      <c r="AL67">
-        <v>1.11</v>
-      </c>
-      <c r="AM67">
-        <v>3.75</v>
-      </c>
-      <c r="AN67">
-        <v>3</v>
-      </c>
-      <c r="AO67">
-        <v>0.33</v>
-      </c>
-      <c r="AP67">
-        <v>3</v>
-      </c>
-      <c r="AQ67">
-        <v>0.25</v>
-      </c>
-      <c r="AR67">
-        <v>1.97</v>
-      </c>
-      <c r="AS67">
-        <v>1.25</v>
-      </c>
-      <c r="AT67">
-        <v>3.22</v>
-      </c>
-      <c r="AU67">
-        <v>5</v>
-      </c>
-      <c r="AV67">
-        <v>2</v>
-      </c>
-      <c r="AW67">
-        <v>8</v>
-      </c>
-      <c r="AX67">
-        <v>1</v>
-      </c>
-      <c r="AY67">
-        <v>13</v>
-      </c>
-      <c r="AZ67">
-        <v>3</v>
-      </c>
-      <c r="BA67">
-        <v>7</v>
-      </c>
-      <c r="BB67">
-        <v>5</v>
-      </c>
-      <c r="BC67">
-        <v>12</v>
-      </c>
-      <c r="BD67">
-        <v>1.16</v>
-      </c>
-      <c r="BE67">
-        <v>9.5</v>
-      </c>
-      <c r="BF67">
-        <v>5.4</v>
-      </c>
-      <c r="BG67">
-        <v>1.3</v>
-      </c>
-      <c r="BH67">
-        <v>3.15</v>
-      </c>
-      <c r="BI67">
-        <v>1.5</v>
-      </c>
       <c r="BJ67">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="BK67">
-        <v>1.82</v>
+        <v>2.08</v>
       </c>
       <c r="BL67">
-        <v>1.86</v>
+        <v>1.65</v>
       </c>
       <c r="BM67">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
       <c r="BN67">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="BO67">
-        <v>2.9</v>
+        <v>3.55</v>
       </c>
       <c r="BP67">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="68" spans="1:68">
@@ -14776,7 +14776,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>7465068</v>
+        <v>7465067</v>
       </c>
       <c r="C68" t="s">
         <v>68</v>
@@ -14785,196 +14785,196 @@
         <v>69</v>
       </c>
       <c r="E68" s="2">
-        <v>45560.58333333334</v>
+        <v>45559.875</v>
       </c>
       <c r="F68">
         <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68">
         <v>0</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="P68" t="s">
         <v>104</v>
       </c>
       <c r="Q68">
-        <v>2.4</v>
+        <v>1.73</v>
       </c>
       <c r="R68">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="S68">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="T68">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="U68">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="V68">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="W68">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X68">
+        <v>6</v>
+      </c>
+      <c r="Y68">
+        <v>1.13</v>
+      </c>
+      <c r="Z68">
+        <v>1.28</v>
+      </c>
+      <c r="AA68">
+        <v>5.75</v>
+      </c>
+      <c r="AB68">
+        <v>10</v>
+      </c>
+      <c r="AC68">
+        <v>1.02</v>
+      </c>
+      <c r="AD68">
+        <v>17</v>
+      </c>
+      <c r="AE68">
+        <v>1.2</v>
+      </c>
+      <c r="AF68">
+        <v>4.5</v>
+      </c>
+      <c r="AG68">
+        <v>1.61</v>
+      </c>
+      <c r="AH68">
+        <v>2.15</v>
+      </c>
+      <c r="AI68">
+        <v>2.1</v>
+      </c>
+      <c r="AJ68">
+        <v>1.67</v>
+      </c>
+      <c r="AK68">
+        <v>1.02</v>
+      </c>
+      <c r="AL68">
+        <v>1.11</v>
+      </c>
+      <c r="AM68">
+        <v>3.75</v>
+      </c>
+      <c r="AN68">
+        <v>3</v>
+      </c>
+      <c r="AO68">
+        <v>0.33</v>
+      </c>
+      <c r="AP68">
+        <v>3</v>
+      </c>
+      <c r="AQ68">
+        <v>0.25</v>
+      </c>
+      <c r="AR68">
+        <v>1.97</v>
+      </c>
+      <c r="AS68">
+        <v>1.25</v>
+      </c>
+      <c r="AT68">
+        <v>3.22</v>
+      </c>
+      <c r="AU68">
+        <v>5</v>
+      </c>
+      <c r="AV68">
+        <v>2</v>
+      </c>
+      <c r="AW68">
         <v>8</v>
       </c>
-      <c r="Y68">
-        <v>1.08</v>
-      </c>
-      <c r="Z68">
-        <v>1.8</v>
-      </c>
-      <c r="AA68">
-        <v>3.7</v>
-      </c>
-      <c r="AB68">
-        <v>4.2</v>
-      </c>
-      <c r="AC68">
-        <v>1.05</v>
-      </c>
-      <c r="AD68">
-        <v>11</v>
-      </c>
-      <c r="AE68">
-        <v>1.32</v>
-      </c>
-      <c r="AF68">
-        <v>3.4</v>
-      </c>
-      <c r="AG68">
-        <v>1.85</v>
-      </c>
-      <c r="AH68">
-        <v>1.83</v>
-      </c>
-      <c r="AI68">
-        <v>1.8</v>
-      </c>
-      <c r="AJ68">
-        <v>1.95</v>
-      </c>
-      <c r="AK68">
-        <v>1.22</v>
-      </c>
-      <c r="AL68">
-        <v>1.24</v>
-      </c>
-      <c r="AM68">
-        <v>2</v>
-      </c>
-      <c r="AN68">
+      <c r="AX68">
+        <v>1</v>
+      </c>
+      <c r="AY68">
+        <v>13</v>
+      </c>
+      <c r="AZ68">
+        <v>3</v>
+      </c>
+      <c r="BA68">
+        <v>7</v>
+      </c>
+      <c r="BB68">
+        <v>5</v>
+      </c>
+      <c r="BC68">
+        <v>12</v>
+      </c>
+      <c r="BD68">
+        <v>1.16</v>
+      </c>
+      <c r="BE68">
+        <v>9.5</v>
+      </c>
+      <c r="BF68">
+        <v>5.4</v>
+      </c>
+      <c r="BG68">
+        <v>1.3</v>
+      </c>
+      <c r="BH68">
+        <v>3.15</v>
+      </c>
+      <c r="BI68">
         <v>1.5</v>
       </c>
-      <c r="AO68">
-        <v>1.33</v>
-      </c>
-      <c r="AP68">
-        <v>1.33</v>
-      </c>
-      <c r="AQ68">
-        <v>1.25</v>
-      </c>
-      <c r="AR68">
-        <v>1.32</v>
-      </c>
-      <c r="AS68">
-        <v>1.14</v>
-      </c>
-      <c r="AT68">
-        <v>2.46</v>
-      </c>
-      <c r="AU68">
-        <v>2</v>
-      </c>
-      <c r="AV68">
-        <v>0</v>
-      </c>
-      <c r="AW68">
-        <v>7</v>
-      </c>
-      <c r="AX68">
-        <v>3</v>
-      </c>
-      <c r="AY68">
-        <v>9</v>
-      </c>
-      <c r="AZ68">
-        <v>3</v>
-      </c>
-      <c r="BA68">
-        <v>4</v>
-      </c>
-      <c r="BB68">
-        <v>3</v>
-      </c>
-      <c r="BC68">
-        <v>7</v>
-      </c>
-      <c r="BD68">
-        <v>1.57</v>
-      </c>
-      <c r="BE68">
-        <v>6.4</v>
-      </c>
-      <c r="BF68">
-        <v>2.65</v>
-      </c>
-      <c r="BG68">
-        <v>1.41</v>
-      </c>
-      <c r="BH68">
-        <v>2.65</v>
-      </c>
-      <c r="BI68">
-        <v>1.67</v>
-      </c>
       <c r="BJ68">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="BK68">
-        <v>2.08</v>
+        <v>1.82</v>
       </c>
       <c r="BL68">
-        <v>1.65</v>
+        <v>1.86</v>
       </c>
       <c r="BM68">
-        <v>2.65</v>
+        <v>2.25</v>
       </c>
       <c r="BN68">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="BO68">
-        <v>3.55</v>
+        <v>2.9</v>
       </c>
       <c r="BP68">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="69" spans="1:68">
@@ -15609,7 +15609,7 @@
         <v>69</v>
       </c>
       <c r="E72" s="2">
-        <v>45562.66666666666</v>
+        <v>45561.875</v>
       </c>
       <c r="F72">
         <v>8</v>
@@ -15735,22 +15735,22 @@
         <v>2.21</v>
       </c>
       <c r="AU72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV72">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW72">
         <v>8</v>
       </c>
       <c r="AX72">
+        <v>6</v>
+      </c>
+      <c r="AY72">
         <v>8</v>
       </c>
-      <c r="AY72">
-        <v>10</v>
-      </c>
       <c r="AZ72">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BA72">
         <v>7</v>
@@ -15806,7 +15806,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>7465083</v>
+        <v>7465079</v>
       </c>
       <c r="C73" t="s">
         <v>68</v>
@@ -15815,16 +15815,16 @@
         <v>69</v>
       </c>
       <c r="E73" s="2">
-        <v>45563.375</v>
+        <v>45562.875</v>
       </c>
       <c r="F73">
         <v>8</v>
       </c>
       <c r="G73" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H73" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -15836,13 +15836,13 @@
         <v>1</v>
       </c>
       <c r="L73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M73">
         <v>0</v>
       </c>
       <c r="N73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O73" t="s">
         <v>144</v>
@@ -15851,160 +15851,160 @@
         <v>104</v>
       </c>
       <c r="Q73">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="R73">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S73">
+        <v>5.5</v>
+      </c>
+      <c r="T73">
+        <v>1.57</v>
+      </c>
+      <c r="U73">
+        <v>2.25</v>
+      </c>
+      <c r="V73">
+        <v>3.75</v>
+      </c>
+      <c r="W73">
+        <v>1.25</v>
+      </c>
+      <c r="X73">
+        <v>11</v>
+      </c>
+      <c r="Y73">
+        <v>1.05</v>
+      </c>
+      <c r="Z73">
+        <v>1.9</v>
+      </c>
+      <c r="AA73">
+        <v>3.25</v>
+      </c>
+      <c r="AB73">
+        <v>4.5</v>
+      </c>
+      <c r="AC73">
+        <v>1.1</v>
+      </c>
+      <c r="AD73">
+        <v>6.5</v>
+      </c>
+      <c r="AE73">
+        <v>1.5</v>
+      </c>
+      <c r="AF73">
+        <v>2.55</v>
+      </c>
+      <c r="AG73">
+        <v>2.63</v>
+      </c>
+      <c r="AH73">
+        <v>1.5</v>
+      </c>
+      <c r="AI73">
+        <v>2.2</v>
+      </c>
+      <c r="AJ73">
+        <v>1.62</v>
+      </c>
+      <c r="AK73">
+        <v>1.2</v>
+      </c>
+      <c r="AL73">
+        <v>1.28</v>
+      </c>
+      <c r="AM73">
+        <v>1.85</v>
+      </c>
+      <c r="AN73">
+        <v>0</v>
+      </c>
+      <c r="AO73">
+        <v>0</v>
+      </c>
+      <c r="AP73">
+        <v>0.75</v>
+      </c>
+      <c r="AQ73">
+        <v>0</v>
+      </c>
+      <c r="AR73">
+        <v>1.11</v>
+      </c>
+      <c r="AS73">
+        <v>0.9</v>
+      </c>
+      <c r="AT73">
+        <v>2.01</v>
+      </c>
+      <c r="AU73">
         <v>4</v>
       </c>
-      <c r="T73">
-        <v>1.67</v>
-      </c>
-      <c r="U73">
-        <v>2.1</v>
-      </c>
-      <c r="V73">
-        <v>4.33</v>
-      </c>
-      <c r="W73">
-        <v>1.2</v>
-      </c>
-      <c r="X73">
-        <v>15</v>
-      </c>
-      <c r="Y73">
-        <v>1.03</v>
-      </c>
-      <c r="Z73">
-        <v>2.56</v>
-      </c>
-      <c r="AA73">
-        <v>2.73</v>
-      </c>
-      <c r="AB73">
-        <v>3.28</v>
-      </c>
-      <c r="AC73">
-        <v>1.11</v>
-      </c>
-      <c r="AD73">
-        <v>5.5</v>
-      </c>
-      <c r="AE73">
-        <v>1.68</v>
-      </c>
-      <c r="AF73">
-        <v>2.2</v>
-      </c>
-      <c r="AG73">
-        <v>3.2</v>
-      </c>
-      <c r="AH73">
-        <v>1.36</v>
-      </c>
-      <c r="AI73">
-        <v>2.38</v>
-      </c>
-      <c r="AJ73">
-        <v>1.53</v>
-      </c>
-      <c r="AK73">
-        <v>1.38</v>
-      </c>
-      <c r="AL73">
-        <v>1.38</v>
-      </c>
-      <c r="AM73">
-        <v>1.52</v>
-      </c>
-      <c r="AN73">
-        <v>1</v>
-      </c>
-      <c r="AO73">
-        <v>0.75</v>
-      </c>
-      <c r="AP73">
-        <v>1.5</v>
-      </c>
-      <c r="AQ73">
-        <v>0.6</v>
-      </c>
-      <c r="AR73">
-        <v>1.14</v>
-      </c>
-      <c r="AS73">
-        <v>1.41</v>
-      </c>
-      <c r="AT73">
-        <v>2.55</v>
-      </c>
-      <c r="AU73">
-        <v>9</v>
-      </c>
       <c r="AV73">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX73">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY73">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AZ73">
         <v>7</v>
       </c>
       <c r="BA73">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BB73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC73">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BD73">
-        <v>1.92</v>
+        <v>1.4</v>
       </c>
       <c r="BE73">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="BF73">
+        <v>3.3</v>
+      </c>
+      <c r="BG73">
+        <v>1.38</v>
+      </c>
+      <c r="BH73">
+        <v>2.7</v>
+      </c>
+      <c r="BI73">
+        <v>1.65</v>
+      </c>
+      <c r="BJ73">
         <v>2.08</v>
       </c>
-      <c r="BG73">
+      <c r="BK73">
+        <v>2.05</v>
+      </c>
+      <c r="BL73">
+        <v>1.67</v>
+      </c>
+      <c r="BM73">
+        <v>2.63</v>
+      </c>
+      <c r="BN73">
         <v>1.41</v>
       </c>
-      <c r="BH73">
-        <v>2.63</v>
-      </c>
-      <c r="BI73">
-        <v>1.7</v>
-      </c>
-      <c r="BJ73">
-        <v>2</v>
-      </c>
-      <c r="BK73">
-        <v>2.14</v>
-      </c>
-      <c r="BL73">
-        <v>1.62</v>
-      </c>
-      <c r="BM73">
-        <v>2.75</v>
-      </c>
-      <c r="BN73">
-        <v>1.38</v>
-      </c>
       <c r="BO73">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="BP73">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="74" spans="1:68">
@@ -16012,7 +16012,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>7465084</v>
+        <v>7465080</v>
       </c>
       <c r="C74" t="s">
         <v>68</v>
@@ -16021,196 +16021,196 @@
         <v>69</v>
       </c>
       <c r="E74" s="2">
-        <v>45563.46875</v>
+        <v>45562.875</v>
       </c>
       <c r="F74">
         <v>8</v>
       </c>
       <c r="G74" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="H74" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N74">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O74" t="s">
         <v>145</v>
       </c>
       <c r="P74" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="Q74">
-        <v>2.75</v>
+        <v>6.07</v>
       </c>
       <c r="R74">
-        <v>1.91</v>
+        <v>2.73</v>
       </c>
       <c r="S74">
+        <v>1.89</v>
+      </c>
+      <c r="T74">
+        <v>1.25</v>
+      </c>
+      <c r="U74">
+        <v>3.75</v>
+      </c>
+      <c r="V74">
+        <v>2.21</v>
+      </c>
+      <c r="W74">
+        <v>1.66</v>
+      </c>
+      <c r="X74">
         <v>5.5</v>
       </c>
-      <c r="T74">
-        <v>1.62</v>
-      </c>
-      <c r="U74">
-        <v>2.2</v>
-      </c>
-      <c r="V74">
-        <v>4</v>
-      </c>
-      <c r="W74">
-        <v>1.22</v>
-      </c>
-      <c r="X74">
-        <v>13</v>
-      </c>
       <c r="Y74">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="Z74">
-        <v>1.91</v>
+        <v>7</v>
       </c>
       <c r="AA74">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="AB74">
-        <v>4.75</v>
+        <v>1.48</v>
       </c>
       <c r="AC74">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="AD74">
-        <v>6.5</v>
+        <v>20.5</v>
       </c>
       <c r="AE74">
-        <v>1.61</v>
+        <v>1.17</v>
       </c>
       <c r="AF74">
-        <v>2.34</v>
+        <v>5.2</v>
       </c>
       <c r="AG74">
-        <v>3</v>
+        <v>1.53</v>
       </c>
       <c r="AH74">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="AI74">
-        <v>2.38</v>
+        <v>1.67</v>
       </c>
       <c r="AJ74">
-        <v>1.53</v>
+        <v>2.1</v>
       </c>
       <c r="AK74">
+        <v>2.65</v>
+      </c>
+      <c r="AL74">
         <v>1.2</v>
       </c>
-      <c r="AL74">
-        <v>1.32</v>
-      </c>
       <c r="AM74">
-        <v>1.88</v>
+        <v>1.14</v>
       </c>
       <c r="AN74">
-        <v>1.33</v>
+        <v>2.5</v>
       </c>
       <c r="AO74">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="AP74">
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
       <c r="AQ74">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="AR74">
         <v>1.49</v>
       </c>
       <c r="AS74">
-        <v>0.67</v>
+        <v>1.85</v>
       </c>
       <c r="AT74">
-        <v>2.16</v>
+        <v>3.34</v>
       </c>
       <c r="AU74">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AV74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW74">
         <v>4</v>
       </c>
       <c r="AX74">
+        <v>3</v>
+      </c>
+      <c r="AY74">
         <v>6</v>
       </c>
-      <c r="AY74">
-        <v>11</v>
-      </c>
       <c r="AZ74">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA74">
         <v>5</v>
       </c>
       <c r="BB74">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC74">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD74">
-        <v>1.4</v>
+        <v>3.05</v>
       </c>
       <c r="BE74">
         <v>6.75</v>
       </c>
       <c r="BF74">
-        <v>3.3</v>
+        <v>1.47</v>
       </c>
       <c r="BG74">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="BH74">
-        <v>2.65</v>
+        <v>3.15</v>
       </c>
       <c r="BI74">
-        <v>1.67</v>
+        <v>1.52</v>
       </c>
       <c r="BJ74">
-        <v>2.05</v>
+        <v>2.33</v>
       </c>
       <c r="BK74">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="BL74">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="BM74">
-        <v>2.65</v>
+        <v>2.3</v>
       </c>
       <c r="BN74">
-        <v>1.4</v>
+        <v>1.54</v>
       </c>
       <c r="BO74">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="BP74">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="75" spans="1:68">
@@ -16218,7 +16218,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7465079</v>
+        <v>7465083</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -16227,16 +16227,16 @@
         <v>69</v>
       </c>
       <c r="E75" s="2">
-        <v>45563.5625</v>
+        <v>45562.875</v>
       </c>
       <c r="F75">
         <v>8</v>
       </c>
       <c r="G75" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H75" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -16248,13 +16248,13 @@
         <v>1</v>
       </c>
       <c r="L75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
       <c r="N75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O75" t="s">
         <v>146</v>
@@ -16263,160 +16263,160 @@
         <v>104</v>
       </c>
       <c r="Q75">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="R75">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S75">
+        <v>4</v>
+      </c>
+      <c r="T75">
+        <v>1.67</v>
+      </c>
+      <c r="U75">
+        <v>2.1</v>
+      </c>
+      <c r="V75">
+        <v>4.33</v>
+      </c>
+      <c r="W75">
+        <v>1.2</v>
+      </c>
+      <c r="X75">
+        <v>15</v>
+      </c>
+      <c r="Y75">
+        <v>1.03</v>
+      </c>
+      <c r="Z75">
+        <v>2.56</v>
+      </c>
+      <c r="AA75">
+        <v>2.73</v>
+      </c>
+      <c r="AB75">
+        <v>3.28</v>
+      </c>
+      <c r="AC75">
+        <v>1.11</v>
+      </c>
+      <c r="AD75">
         <v>5.5</v>
       </c>
-      <c r="T75">
-        <v>1.57</v>
-      </c>
-      <c r="U75">
-        <v>2.25</v>
-      </c>
-      <c r="V75">
-        <v>3.75</v>
-      </c>
-      <c r="W75">
-        <v>1.25</v>
-      </c>
-      <c r="X75">
-        <v>11</v>
-      </c>
-      <c r="Y75">
-        <v>1.05</v>
-      </c>
-      <c r="Z75">
-        <v>1.9</v>
-      </c>
-      <c r="AA75">
-        <v>3.25</v>
-      </c>
-      <c r="AB75">
-        <v>4.5</v>
-      </c>
-      <c r="AC75">
-        <v>1.1</v>
-      </c>
-      <c r="AD75">
-        <v>6.5</v>
-      </c>
       <c r="AE75">
+        <v>1.68</v>
+      </c>
+      <c r="AF75">
+        <v>2.2</v>
+      </c>
+      <c r="AG75">
+        <v>3.2</v>
+      </c>
+      <c r="AH75">
+        <v>1.36</v>
+      </c>
+      <c r="AI75">
+        <v>2.38</v>
+      </c>
+      <c r="AJ75">
+        <v>1.53</v>
+      </c>
+      <c r="AK75">
+        <v>1.38</v>
+      </c>
+      <c r="AL75">
+        <v>1.38</v>
+      </c>
+      <c r="AM75">
+        <v>1.52</v>
+      </c>
+      <c r="AN75">
+        <v>1</v>
+      </c>
+      <c r="AO75">
+        <v>0.75</v>
+      </c>
+      <c r="AP75">
         <v>1.5</v>
       </c>
-      <c r="AF75">
-        <v>2.55</v>
-      </c>
-      <c r="AG75">
-        <v>2.63</v>
-      </c>
-      <c r="AH75">
-        <v>1.5</v>
-      </c>
-      <c r="AI75">
-        <v>2.2</v>
-      </c>
-      <c r="AJ75">
-        <v>1.62</v>
-      </c>
-      <c r="AK75">
-        <v>1.2</v>
-      </c>
-      <c r="AL75">
-        <v>1.28</v>
-      </c>
-      <c r="AM75">
-        <v>1.85</v>
-      </c>
-      <c r="AN75">
-        <v>0</v>
-      </c>
-      <c r="AO75">
-        <v>0</v>
-      </c>
-      <c r="AP75">
-        <v>0.75</v>
-      </c>
       <c r="AQ75">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR75">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AS75">
-        <v>0.9</v>
+        <v>1.51</v>
       </c>
       <c r="AT75">
-        <v>2.01</v>
+        <v>2.65</v>
       </c>
       <c r="AU75">
         <v>7</v>
       </c>
       <c r="AV75">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW75">
         <v>3</v>
       </c>
       <c r="AX75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY75">
         <v>10</v>
       </c>
       <c r="AZ75">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA75">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BB75">
+        <v>2</v>
+      </c>
+      <c r="BC75">
         <v>4</v>
       </c>
-      <c r="BC75">
-        <v>10</v>
-      </c>
       <c r="BD75">
-        <v>1.4</v>
+        <v>1.92</v>
       </c>
       <c r="BE75">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="BF75">
-        <v>3.3</v>
+        <v>2.08</v>
       </c>
       <c r="BG75">
+        <v>1.41</v>
+      </c>
+      <c r="BH75">
+        <v>2.63</v>
+      </c>
+      <c r="BI75">
+        <v>1.7</v>
+      </c>
+      <c r="BJ75">
+        <v>2</v>
+      </c>
+      <c r="BK75">
+        <v>2.14</v>
+      </c>
+      <c r="BL75">
+        <v>1.62</v>
+      </c>
+      <c r="BM75">
+        <v>2.75</v>
+      </c>
+      <c r="BN75">
         <v>1.38</v>
       </c>
-      <c r="BH75">
-        <v>2.7</v>
-      </c>
-      <c r="BI75">
-        <v>1.65</v>
-      </c>
-      <c r="BJ75">
-        <v>2.08</v>
-      </c>
-      <c r="BK75">
-        <v>2.05</v>
-      </c>
-      <c r="BL75">
-        <v>1.67</v>
-      </c>
-      <c r="BM75">
-        <v>2.63</v>
-      </c>
-      <c r="BN75">
-        <v>1.41</v>
-      </c>
       <c r="BO75">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="BP75">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="76" spans="1:68">
@@ -16424,7 +16424,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7465080</v>
+        <v>7465084</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -16433,136 +16433,136 @@
         <v>69</v>
       </c>
       <c r="E76" s="2">
-        <v>45563.66666666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F76">
         <v>8</v>
       </c>
       <c r="G76" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N76">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O76" t="s">
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="Q76">
-        <v>6.07</v>
+        <v>2.75</v>
       </c>
       <c r="R76">
-        <v>2.73</v>
+        <v>1.91</v>
       </c>
       <c r="S76">
-        <v>1.89</v>
+        <v>5.5</v>
       </c>
       <c r="T76">
+        <v>1.62</v>
+      </c>
+      <c r="U76">
+        <v>2.2</v>
+      </c>
+      <c r="V76">
+        <v>4</v>
+      </c>
+      <c r="W76">
+        <v>1.22</v>
+      </c>
+      <c r="X76">
+        <v>13</v>
+      </c>
+      <c r="Y76">
+        <v>1.04</v>
+      </c>
+      <c r="Z76">
+        <v>1.91</v>
+      </c>
+      <c r="AA76">
+        <v>3</v>
+      </c>
+      <c r="AB76">
+        <v>4.75</v>
+      </c>
+      <c r="AC76">
+        <v>1.08</v>
+      </c>
+      <c r="AD76">
+        <v>6.5</v>
+      </c>
+      <c r="AE76">
+        <v>1.61</v>
+      </c>
+      <c r="AF76">
+        <v>2.34</v>
+      </c>
+      <c r="AG76">
+        <v>3</v>
+      </c>
+      <c r="AH76">
+        <v>1.4</v>
+      </c>
+      <c r="AI76">
+        <v>2.38</v>
+      </c>
+      <c r="AJ76">
+        <v>1.53</v>
+      </c>
+      <c r="AK76">
+        <v>1.2</v>
+      </c>
+      <c r="AL76">
+        <v>1.32</v>
+      </c>
+      <c r="AM76">
+        <v>1.88</v>
+      </c>
+      <c r="AN76">
+        <v>1.33</v>
+      </c>
+      <c r="AO76">
+        <v>0.75</v>
+      </c>
+      <c r="AP76">
         <v>1.25</v>
       </c>
-      <c r="U76">
-        <v>3.75</v>
-      </c>
-      <c r="V76">
-        <v>2.21</v>
-      </c>
-      <c r="W76">
-        <v>1.66</v>
-      </c>
-      <c r="X76">
-        <v>5.5</v>
-      </c>
-      <c r="Y76">
-        <v>1.14</v>
-      </c>
-      <c r="Z76">
-        <v>7</v>
-      </c>
-      <c r="AA76">
-        <v>4.33</v>
-      </c>
-      <c r="AB76">
-        <v>1.48</v>
-      </c>
-      <c r="AC76">
-        <v>1.02</v>
-      </c>
-      <c r="AD76">
-        <v>20.5</v>
-      </c>
-      <c r="AE76">
-        <v>1.17</v>
-      </c>
-      <c r="AF76">
-        <v>5.2</v>
-      </c>
-      <c r="AG76">
-        <v>1.53</v>
-      </c>
-      <c r="AH76">
-        <v>2.5</v>
-      </c>
-      <c r="AI76">
-        <v>1.67</v>
-      </c>
-      <c r="AJ76">
-        <v>2.1</v>
-      </c>
-      <c r="AK76">
-        <v>2.65</v>
-      </c>
-      <c r="AL76">
-        <v>1.2</v>
-      </c>
-      <c r="AM76">
-        <v>1.14</v>
-      </c>
-      <c r="AN76">
-        <v>2.5</v>
-      </c>
-      <c r="AO76">
-        <v>3</v>
-      </c>
-      <c r="AP76">
-        <v>2.6</v>
-      </c>
       <c r="AQ76">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="AR76">
         <v>1.49</v>
       </c>
       <c r="AS76">
-        <v>1.85</v>
+        <v>0.67</v>
       </c>
       <c r="AT76">
-        <v>3.34</v>
+        <v>2.16</v>
       </c>
       <c r="AU76">
         <v>6</v>
       </c>
       <c r="AV76">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW76">
         <v>6</v>
@@ -16574,55 +16574,55 @@
         <v>12</v>
       </c>
       <c r="AZ76">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA76">
         <v>5</v>
       </c>
       <c r="BB76">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BC76">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD76">
-        <v>3.05</v>
+        <v>1.4</v>
       </c>
       <c r="BE76">
         <v>6.75</v>
       </c>
       <c r="BF76">
-        <v>1.47</v>
+        <v>3.3</v>
       </c>
       <c r="BG76">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="BH76">
-        <v>3.15</v>
+        <v>2.65</v>
       </c>
       <c r="BI76">
-        <v>1.52</v>
+        <v>1.67</v>
       </c>
       <c r="BJ76">
-        <v>2.33</v>
+        <v>2.05</v>
       </c>
       <c r="BK76">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="BL76">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="BM76">
-        <v>2.3</v>
+        <v>2.65</v>
       </c>
       <c r="BN76">
-        <v>1.54</v>
+        <v>1.4</v>
       </c>
       <c r="BO76">
-        <v>2.9</v>
+        <v>3.45</v>
       </c>
       <c r="BP76">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="77" spans="1:68">
@@ -16639,7 +16639,7 @@
         <v>69</v>
       </c>
       <c r="E77" s="2">
-        <v>45564.375</v>
+        <v>45563.875</v>
       </c>
       <c r="F77">
         <v>8</v>
@@ -16765,16 +16765,16 @@
         <v>2.55</v>
       </c>
       <c r="AU77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW77">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY77">
         <v>8</v>
@@ -16836,7 +16836,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7465076</v>
+        <v>7469676</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -16845,196 +16845,196 @@
         <v>69</v>
       </c>
       <c r="E78" s="2">
-        <v>45564.46875</v>
+        <v>45563.875</v>
       </c>
       <c r="F78">
         <v>8</v>
       </c>
       <c r="G78" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H78" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78">
         <v>1</v>
       </c>
       <c r="M78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O78" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="P78" t="s">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="Q78">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R78">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S78">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T78">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U78">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V78">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W78">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X78">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y78">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z78">
         <v>1.7</v>
       </c>
       <c r="AA78">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="AB78">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AC78">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AD78">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE78">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AF78">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AG78">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="AH78">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="AI78">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AJ78">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AK78">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AL78">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AM78">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AN78">
         <v>1.75</v>
       </c>
       <c r="AO78">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="AP78">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AQ78">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AR78">
-        <v>1.11</v>
+        <v>1.68</v>
       </c>
       <c r="AS78">
-        <v>1.46</v>
+        <v>0.92</v>
       </c>
       <c r="AT78">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AU78">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AV78">
+        <v>2</v>
+      </c>
+      <c r="AW78">
+        <v>2</v>
+      </c>
+      <c r="AX78">
+        <v>3</v>
+      </c>
+      <c r="AY78">
+        <v>14</v>
+      </c>
+      <c r="AZ78">
+        <v>5</v>
+      </c>
+      <c r="BA78">
+        <v>8</v>
+      </c>
+      <c r="BB78">
         <v>4</v>
       </c>
-      <c r="AW78">
-        <v>6</v>
-      </c>
-      <c r="AX78">
-        <v>7</v>
-      </c>
-      <c r="AY78">
+      <c r="BC78">
         <v>12</v>
       </c>
-      <c r="AZ78">
-        <v>11</v>
-      </c>
-      <c r="BA78">
-        <v>4</v>
-      </c>
-      <c r="BB78">
-        <v>7</v>
-      </c>
-      <c r="BC78">
-        <v>11</v>
-      </c>
       <c r="BD78">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="BE78">
         <v>7</v>
       </c>
       <c r="BF78">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="BG78">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="BH78">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="BI78">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="BJ78">
-        <v>2.48</v>
+        <v>2.35</v>
       </c>
       <c r="BK78">
+        <v>1.92</v>
+      </c>
+      <c r="BL78">
         <v>1.88</v>
       </c>
-      <c r="BL78">
-        <v>1.92</v>
-      </c>
       <c r="BM78">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="BN78">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="BO78">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="BP78">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="79" spans="1:68">
@@ -17042,7 +17042,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7469676</v>
+        <v>7465076</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -17051,196 +17051,196 @@
         <v>69</v>
       </c>
       <c r="E79" s="2">
-        <v>45564.5625</v>
+        <v>45563.875</v>
       </c>
       <c r="F79">
         <v>8</v>
       </c>
       <c r="G79" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H79" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79">
         <v>1</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O79" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="P79" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="Q79">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="R79">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S79">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T79">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U79">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V79">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W79">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X79">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y79">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z79">
         <v>1.7</v>
       </c>
       <c r="AA79">
+        <v>3.7</v>
+      </c>
+      <c r="AB79">
+        <v>5</v>
+      </c>
+      <c r="AC79">
+        <v>1.05</v>
+      </c>
+      <c r="AD79">
+        <v>9</v>
+      </c>
+      <c r="AE79">
+        <v>1.33</v>
+      </c>
+      <c r="AF79">
         <v>3.3</v>
       </c>
-      <c r="AB79">
-        <v>5.5</v>
-      </c>
-      <c r="AC79">
-        <v>1.07</v>
-      </c>
-      <c r="AD79">
-        <v>9.5</v>
-      </c>
-      <c r="AE79">
-        <v>1.38</v>
-      </c>
-      <c r="AF79">
-        <v>3.1</v>
-      </c>
       <c r="AG79">
+        <v>1.99</v>
+      </c>
+      <c r="AH79">
+        <v>1.85</v>
+      </c>
+      <c r="AI79">
+        <v>1.95</v>
+      </c>
+      <c r="AJ79">
+        <v>1.8</v>
+      </c>
+      <c r="AK79">
+        <v>1.17</v>
+      </c>
+      <c r="AL79">
+        <v>1.22</v>
+      </c>
+      <c r="AM79">
         <v>2.1</v>
-      </c>
-      <c r="AH79">
-        <v>1.73</v>
-      </c>
-      <c r="AI79">
-        <v>2</v>
-      </c>
-      <c r="AJ79">
-        <v>1.75</v>
-      </c>
-      <c r="AK79">
-        <v>1.18</v>
-      </c>
-      <c r="AL79">
-        <v>1.32</v>
-      </c>
-      <c r="AM79">
-        <v>2.18</v>
       </c>
       <c r="AN79">
         <v>1.75</v>
       </c>
       <c r="AO79">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ79">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR79">
-        <v>1.68</v>
+        <v>1.11</v>
       </c>
       <c r="AS79">
-        <v>0.92</v>
+        <v>1.46</v>
       </c>
       <c r="AT79">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="AU79">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AV79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY79">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AZ79">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA79">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BB79">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC79">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD79">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="BE79">
         <v>7</v>
       </c>
       <c r="BF79">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="BG79">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="BH79">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="BI79">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="BJ79">
-        <v>2.35</v>
+        <v>2.48</v>
       </c>
       <c r="BK79">
+        <v>1.88</v>
+      </c>
+      <c r="BL79">
         <v>1.92</v>
       </c>
-      <c r="BL79">
-        <v>1.88</v>
-      </c>
       <c r="BM79">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="BN79">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="BO79">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="BP79">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="80" spans="1:68">
@@ -17257,7 +17257,7 @@
         <v>69</v>
       </c>
       <c r="E80" s="2">
-        <v>45564.66666666666</v>
+        <v>45563.875</v>
       </c>
       <c r="F80">
         <v>8</v>
@@ -17386,19 +17386,19 @@
         <v>5</v>
       </c>
       <c r="AV80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW80">
         <v>2</v>
       </c>
       <c r="AX80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY80">
         <v>7</v>
       </c>
       <c r="AZ80">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA80">
         <v>5</v>
@@ -17463,7 +17463,7 @@
         <v>69</v>
       </c>
       <c r="E81" s="2">
-        <v>45565.66666666666</v>
+        <v>45564.875</v>
       </c>
       <c r="F81">
         <v>8</v>
@@ -17589,22 +17589,22 @@
         <v>3.16</v>
       </c>
       <c r="AU81">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AV81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW81">
+        <v>3</v>
+      </c>
+      <c r="AX81">
+        <v>2</v>
+      </c>
+      <c r="AY81">
         <v>6</v>
       </c>
-      <c r="AX81">
-        <v>3</v>
-      </c>
-      <c r="AY81">
-        <v>14</v>
-      </c>
       <c r="AZ81">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA81">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -367,12 +367,12 @@
     <t>['24']</t>
   </si>
   <si>
+    <t>['8', '78']</t>
+  </si>
+  <si>
     <t>['21', '45', '62']</t>
   </si>
   <si>
-    <t>['8', '78']</t>
-  </si>
-  <si>
     <t>['67', '76']</t>
   </si>
   <si>
@@ -409,13 +409,19 @@
     <t>['17', '60']</t>
   </si>
   <si>
+    <t>['39', '60']</t>
+  </si>
+  <si>
     <t>['56', '58']</t>
   </si>
   <si>
     <t>['58', '75', '78', '90']</t>
   </si>
   <si>
-    <t>['39', '60']</t>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['4', '39', '80']</t>
   </si>
   <si>
     <t>['38']</t>
@@ -424,12 +430,6 @@
     <t>['35']</t>
   </si>
   <si>
-    <t>['83']</t>
-  </si>
-  <si>
-    <t>['4', '39', '80']</t>
-  </si>
-  <si>
     <t>['7']</t>
   </si>
   <si>
@@ -448,18 +448,18 @@
     <t>['90+4']</t>
   </si>
   <si>
+    <t>['42', '58']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
     <t>['8', '80', '90+2']</t>
   </si>
   <si>
     <t>['18', '28', '72', '85']</t>
   </si>
   <si>
-    <t>['42', '58']</t>
-  </si>
-  <si>
-    <t>['8']</t>
-  </si>
-  <si>
     <t>['81']</t>
   </si>
   <si>
@@ -562,21 +562,21 @@
     <t>['65', '76']</t>
   </si>
   <si>
+    <t>['41']</t>
+  </si>
+  <si>
     <t>['54']</t>
   </si>
   <si>
-    <t>['41']</t>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['25']</t>
   </si>
   <si>
     <t>['20', '35', '58', '75', '83']</t>
   </si>
   <si>
-    <t>['76']</t>
-  </si>
-  <si>
-    <t>['25']</t>
-  </si>
-  <si>
     <t>['8', '90+3']</t>
   </si>
   <si>
@@ -589,10 +589,10 @@
     <t>['45+3']</t>
   </si>
   <si>
+    <t>['45+6', '63']</t>
+  </si>
+  <si>
     <t>['90']</t>
-  </si>
-  <si>
-    <t>['45+6', '63']</t>
   </si>
   <si>
     <t>['59', '83']</t>
@@ -1327,10 +1327,10 @@
         <v>5</v>
       </c>
       <c r="AY2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA2">
         <v>5</v>
@@ -1533,10 +1533,10 @@
         <v>6</v>
       </c>
       <c r="AY3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA3">
         <v>4</v>
@@ -1742,7 +1742,7 @@
         <v>7</v>
       </c>
       <c r="AZ4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA4">
         <v>3</v>
@@ -1945,10 +1945,10 @@
         <v>10</v>
       </c>
       <c r="AY5">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BA5">
         <v>6</v>
@@ -2151,10 +2151,10 @@
         <v>2</v>
       </c>
       <c r="AY6">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA6">
         <v>6</v>
@@ -2357,10 +2357,10 @@
         <v>6</v>
       </c>
       <c r="AY7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BA7">
         <v>3</v>
@@ -2563,10 +2563,10 @@
         <v>4</v>
       </c>
       <c r="AY8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA8">
         <v>10</v>
@@ -2769,10 +2769,10 @@
         <v>5</v>
       </c>
       <c r="AY9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA9">
         <v>8</v>
@@ -2975,10 +2975,10 @@
         <v>5</v>
       </c>
       <c r="AY10">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA10">
         <v>3</v>
@@ -3181,10 +3181,10 @@
         <v>4</v>
       </c>
       <c r="AY11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA11">
         <v>2</v>
@@ -3390,7 +3390,7 @@
         <v>8</v>
       </c>
       <c r="AZ12">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA12">
         <v>4</v>
@@ -3593,7 +3593,7 @@
         <v>2</v>
       </c>
       <c r="AY13">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ13">
         <v>9</v>
@@ -3799,10 +3799,10 @@
         <v>4</v>
       </c>
       <c r="AY14">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ14">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA14">
         <v>5</v>
@@ -4005,10 +4005,10 @@
         <v>4</v>
       </c>
       <c r="AY15">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA15">
         <v>5</v>
@@ -4211,10 +4211,10 @@
         <v>3</v>
       </c>
       <c r="AY16">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA16">
         <v>7</v>
@@ -4417,10 +4417,10 @@
         <v>3</v>
       </c>
       <c r="AY17">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA17">
         <v>3</v>
@@ -4623,10 +4623,10 @@
         <v>6</v>
       </c>
       <c r="AY18">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ18">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA18">
         <v>5</v>
@@ -4829,10 +4829,10 @@
         <v>3</v>
       </c>
       <c r="AY19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ19">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA19">
         <v>3</v>
@@ -5035,10 +5035,10 @@
         <v>9</v>
       </c>
       <c r="AY20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AZ20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA20">
         <v>3</v>
@@ -5241,10 +5241,10 @@
         <v>3</v>
       </c>
       <c r="AY21">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ21">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA21">
         <v>1</v>
@@ -5447,10 +5447,10 @@
         <v>6</v>
       </c>
       <c r="AY22">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AZ22">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="BA22">
         <v>7</v>
@@ -5653,10 +5653,10 @@
         <v>6</v>
       </c>
       <c r="AY23">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ23">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA23">
         <v>5</v>
@@ -5859,10 +5859,10 @@
         <v>6</v>
       </c>
       <c r="AY24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ24">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="BA24">
         <v>6</v>
@@ -6065,10 +6065,10 @@
         <v>2</v>
       </c>
       <c r="AY25">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA25">
         <v>5</v>
@@ -6271,10 +6271,10 @@
         <v>4</v>
       </c>
       <c r="AY26">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ26">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA26">
         <v>4</v>
@@ -6477,10 +6477,10 @@
         <v>8</v>
       </c>
       <c r="AY27">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ27">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA27">
         <v>8</v>
@@ -6683,7 +6683,7 @@
         <v>7</v>
       </c>
       <c r="AY28">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AZ28">
         <v>9</v>
@@ -6889,7 +6889,7 @@
         <v>2</v>
       </c>
       <c r="AY29">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ29">
         <v>2</v>
@@ -7095,10 +7095,10 @@
         <v>10</v>
       </c>
       <c r="AY30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ30">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="BA30">
         <v>2</v>
@@ -7301,10 +7301,10 @@
         <v>2</v>
       </c>
       <c r="AY31">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AZ31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA31">
         <v>10</v>
@@ -7507,10 +7507,10 @@
         <v>4</v>
       </c>
       <c r="AY32">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ32">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA32">
         <v>2</v>
@@ -7713,10 +7713,10 @@
         <v>7</v>
       </c>
       <c r="AY33">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ33">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA33">
         <v>3</v>
@@ -7919,10 +7919,10 @@
         <v>5</v>
       </c>
       <c r="AY34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ34">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA34">
         <v>1</v>
@@ -8125,10 +8125,10 @@
         <v>4</v>
       </c>
       <c r="AY35">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AZ35">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA35">
         <v>14</v>
@@ -8184,7 +8184,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>7465047</v>
+        <v>7465044</v>
       </c>
       <c r="C36" t="s">
         <v>68</v>
@@ -8199,187 +8199,187 @@
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O36" t="s">
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="Q36">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S36">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="T36">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="U36">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="V36">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="W36">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="X36">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y36">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z36">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="AA36">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AB36">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="AC36">
         <v>1.07</v>
       </c>
       <c r="AD36">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE36">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AF36">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AG36">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AH36">
+        <v>1.6</v>
+      </c>
+      <c r="AI36">
+        <v>2.05</v>
+      </c>
+      <c r="AJ36">
         <v>1.7</v>
       </c>
-      <c r="AI36">
-        <v>1.8</v>
-      </c>
-      <c r="AJ36">
-        <v>1.9</v>
-      </c>
       <c r="AK36">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AL36">
         <v>1.28</v>
       </c>
       <c r="AM36">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="AN36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO36">
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AQ36">
         <v>0</v>
       </c>
       <c r="AR36">
-        <v>1.77</v>
+        <v>0.71</v>
       </c>
       <c r="AS36">
-        <v>2.09</v>
+        <v>1.28</v>
       </c>
       <c r="AT36">
-        <v>3.86</v>
+        <v>1.99</v>
       </c>
       <c r="AU36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV36">
+        <v>7</v>
+      </c>
+      <c r="AW36">
+        <v>6</v>
+      </c>
+      <c r="AX36">
         <v>5</v>
       </c>
-      <c r="AW36">
-        <v>2</v>
-      </c>
-      <c r="AX36">
-        <v>4</v>
-      </c>
       <c r="AY36">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AZ36">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA36">
         <v>6</v>
       </c>
       <c r="BB36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC36">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD36">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="BE36">
         <v>8.5</v>
       </c>
       <c r="BF36">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="BG36">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="BH36">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="BI36">
+        <v>1.51</v>
+      </c>
+      <c r="BJ36">
+        <v>2.37</v>
+      </c>
+      <c r="BK36">
+        <v>2</v>
+      </c>
+      <c r="BL36">
+        <v>1.8</v>
+      </c>
+      <c r="BM36">
+        <v>2.47</v>
+      </c>
+      <c r="BN36">
         <v>1.48</v>
       </c>
-      <c r="BJ36">
-        <v>2.47</v>
-      </c>
-      <c r="BK36">
-        <v>1.92</v>
-      </c>
-      <c r="BL36">
-        <v>1.88</v>
-      </c>
-      <c r="BM36">
-        <v>2.37</v>
-      </c>
-      <c r="BN36">
-        <v>1.51</v>
-      </c>
       <c r="BO36">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="BP36">
         <v>1.3</v>
@@ -8390,7 +8390,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7465044</v>
+        <v>7465047</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
@@ -8405,187 +8405,187 @@
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O37" t="s">
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="Q37">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="R37">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S37">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="T37">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="U37">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="V37">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="W37">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="X37">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y37">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z37">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="AA37">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AB37">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="AC37">
         <v>1.07</v>
       </c>
       <c r="AD37">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE37">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AF37">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="AG37">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AH37">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AI37">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="AJ37">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AK37">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AL37">
         <v>1.28</v>
       </c>
       <c r="AM37">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AN37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO37">
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.33</v>
+        <v>2.6</v>
       </c>
       <c r="AQ37">
         <v>0</v>
       </c>
       <c r="AR37">
-        <v>0.71</v>
+        <v>1.77</v>
       </c>
       <c r="AS37">
-        <v>1.28</v>
+        <v>2.09</v>
       </c>
       <c r="AT37">
-        <v>1.99</v>
+        <v>3.86</v>
       </c>
       <c r="AU37">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV37">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW37">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AX37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY37">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ37">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA37">
         <v>6</v>
       </c>
       <c r="BB37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC37">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD37">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="BE37">
         <v>8.5</v>
       </c>
       <c r="BF37">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="BG37">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="BH37">
+        <v>3.4</v>
+      </c>
+      <c r="BI37">
+        <v>1.48</v>
+      </c>
+      <c r="BJ37">
+        <v>2.47</v>
+      </c>
+      <c r="BK37">
+        <v>1.92</v>
+      </c>
+      <c r="BL37">
+        <v>1.88</v>
+      </c>
+      <c r="BM37">
+        <v>2.37</v>
+      </c>
+      <c r="BN37">
+        <v>1.51</v>
+      </c>
+      <c r="BO37">
         <v>3.2</v>
-      </c>
-      <c r="BI37">
-        <v>1.51</v>
-      </c>
-      <c r="BJ37">
-        <v>2.37</v>
-      </c>
-      <c r="BK37">
-        <v>2</v>
-      </c>
-      <c r="BL37">
-        <v>1.8</v>
-      </c>
-      <c r="BM37">
-        <v>2.47</v>
-      </c>
-      <c r="BN37">
-        <v>1.48</v>
-      </c>
-      <c r="BO37">
-        <v>3.3</v>
       </c>
       <c r="BP37">
         <v>1.3</v>
@@ -8743,10 +8743,10 @@
         <v>5</v>
       </c>
       <c r="AY38">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ38">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA38">
         <v>7</v>
@@ -8949,10 +8949,10 @@
         <v>0</v>
       </c>
       <c r="AY39">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AZ39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA39">
         <v>4</v>
@@ -9155,10 +9155,10 @@
         <v>3</v>
       </c>
       <c r="AY40">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AZ40">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BA40">
         <v>7</v>
@@ -9361,10 +9361,10 @@
         <v>3</v>
       </c>
       <c r="AY41">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA41">
         <v>11</v>
@@ -9567,10 +9567,10 @@
         <v>9</v>
       </c>
       <c r="AY42">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ42">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="BA42">
         <v>7</v>
@@ -9773,10 +9773,10 @@
         <v>7</v>
       </c>
       <c r="AY43">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ43">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BA43">
         <v>0</v>
@@ -9979,10 +9979,10 @@
         <v>6</v>
       </c>
       <c r="AY44">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ44">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA44">
         <v>3</v>
@@ -10185,10 +10185,10 @@
         <v>2</v>
       </c>
       <c r="AY45">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ45">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="BA45">
         <v>6</v>
@@ -10391,10 +10391,10 @@
         <v>2</v>
       </c>
       <c r="AY46">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ46">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA46">
         <v>5</v>
@@ -10597,10 +10597,10 @@
         <v>9</v>
       </c>
       <c r="AY47">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ47">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA47">
         <v>1</v>
@@ -10803,7 +10803,7 @@
         <v>5</v>
       </c>
       <c r="AY48">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ48">
         <v>10</v>
@@ -11009,10 +11009,10 @@
         <v>3</v>
       </c>
       <c r="AY49">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA49">
         <v>7</v>
@@ -11215,7 +11215,7 @@
         <v>3</v>
       </c>
       <c r="AY50">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ50">
         <v>6</v>
@@ -11421,10 +11421,10 @@
         <v>6</v>
       </c>
       <c r="AY51">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ51">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA51">
         <v>5</v>
@@ -11627,10 +11627,10 @@
         <v>7</v>
       </c>
       <c r="AY52">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ52">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA52">
         <v>8</v>
@@ -11833,10 +11833,10 @@
         <v>4</v>
       </c>
       <c r="AY53">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ53">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA53">
         <v>4</v>
@@ -11934,7 +11934,7 @@
         <v>130</v>
       </c>
       <c r="P54" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q54">
         <v>2.8</v>
@@ -12039,10 +12039,10 @@
         <v>3</v>
       </c>
       <c r="AY54">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ54">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA54">
         <v>3</v>
@@ -12098,7 +12098,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>7465064</v>
+        <v>7465065</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -12107,16 +12107,16 @@
         <v>69</v>
       </c>
       <c r="E55" s="2">
-        <v>45555.875</v>
+        <v>45556.375</v>
       </c>
       <c r="F55">
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -12128,91 +12128,91 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O55" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="P55" t="s">
         <v>104</v>
       </c>
       <c r="Q55">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="R55">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="S55">
-        <v>3.12</v>
+        <v>2.75</v>
       </c>
       <c r="T55">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="U55">
-        <v>2.81</v>
+        <v>2.38</v>
       </c>
       <c r="V55">
-        <v>2.93</v>
+        <v>3.3</v>
       </c>
       <c r="W55">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="X55">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="Y55">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="Z55">
-        <v>2.75</v>
+        <v>3.65</v>
       </c>
       <c r="AA55">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AB55">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="AC55">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="AD55">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AE55">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="AF55">
-        <v>3.1</v>
+        <v>2.65</v>
       </c>
       <c r="AG55">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="AH55">
-        <v>1.82</v>
+        <v>1.57</v>
       </c>
       <c r="AI55">
+        <v>2</v>
+      </c>
+      <c r="AJ55">
         <v>1.73</v>
       </c>
-      <c r="AJ55">
-        <v>2</v>
-      </c>
       <c r="AK55">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AL55">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AM55">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="AN55">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AO55">
         <v>1.33</v>
@@ -12221,82 +12221,82 @@
         <v>1.25</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR55">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AS55">
-        <v>1.26</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT55">
-        <v>2.64</v>
+        <v>2.12</v>
       </c>
       <c r="AU55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW55">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY55">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AZ55">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BA55">
         <v>5</v>
       </c>
       <c r="BB55">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC55">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD55">
-        <v>1.94</v>
+        <v>2.4</v>
       </c>
       <c r="BE55">
         <v>6.4</v>
       </c>
       <c r="BF55">
-        <v>2.05</v>
+        <v>1.71</v>
       </c>
       <c r="BG55">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="BH55">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="BI55">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="BJ55">
-        <v>2.17</v>
+        <v>2.04</v>
       </c>
       <c r="BK55">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="BL55">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="BM55">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="BN55">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="BO55">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="BP55">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="56" spans="1:68">
@@ -12304,7 +12304,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>7469675</v>
+        <v>7465066</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
@@ -12313,172 +12313,172 @@
         <v>69</v>
       </c>
       <c r="E56" s="2">
-        <v>45555.875</v>
+        <v>45556.46875</v>
       </c>
       <c r="F56">
         <v>6</v>
       </c>
       <c r="G56" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H56" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M56">
         <v>1</v>
       </c>
       <c r="N56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P56" t="s">
         <v>182</v>
       </c>
       <c r="Q56">
-        <v>1.51</v>
+        <v>2.5</v>
       </c>
       <c r="R56">
-        <v>3.05</v>
+        <v>2.1</v>
       </c>
       <c r="S56">
-        <v>10.25</v>
+        <v>4.5</v>
       </c>
       <c r="T56">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="U56">
-        <v>4.15</v>
+        <v>2.6</v>
       </c>
       <c r="V56">
-        <v>2.06</v>
+        <v>3</v>
       </c>
       <c r="W56">
-        <v>1.74</v>
+        <v>1.33</v>
       </c>
       <c r="X56">
-        <v>4.3</v>
+        <v>8</v>
       </c>
       <c r="Y56">
-        <v>1.21</v>
+        <v>1.05</v>
       </c>
       <c r="Z56">
-        <v>1.17</v>
+        <v>1.91</v>
       </c>
       <c r="AA56">
+        <v>3.4</v>
+      </c>
+      <c r="AB56">
+        <v>4</v>
+      </c>
+      <c r="AC56">
+        <v>1.06</v>
+      </c>
+      <c r="AD56">
+        <v>8</v>
+      </c>
+      <c r="AE56">
+        <v>1.36</v>
+      </c>
+      <c r="AF56">
+        <v>3</v>
+      </c>
+      <c r="AG56">
+        <v>2.15</v>
+      </c>
+      <c r="AH56">
+        <v>1.67</v>
+      </c>
+      <c r="AI56">
+        <v>1.95</v>
+      </c>
+      <c r="AJ56">
+        <v>1.83</v>
+      </c>
+      <c r="AK56">
+        <v>1.25</v>
+      </c>
+      <c r="AL56">
+        <v>1.3</v>
+      </c>
+      <c r="AM56">
+        <v>1.88</v>
+      </c>
+      <c r="AN56">
+        <v>2.33</v>
+      </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
+      <c r="AP56">
+        <v>2.6</v>
+      </c>
+      <c r="AQ56">
+        <v>0</v>
+      </c>
+      <c r="AR56">
+        <v>1.5</v>
+      </c>
+      <c r="AS56">
+        <v>1.37</v>
+      </c>
+      <c r="AT56">
+        <v>2.87</v>
+      </c>
+      <c r="AU56">
+        <v>5</v>
+      </c>
+      <c r="AV56">
         <v>7</v>
       </c>
-      <c r="AB56">
-        <v>14.5</v>
-      </c>
-      <c r="AC56">
-        <v>1.03</v>
-      </c>
-      <c r="AD56">
-        <v>11</v>
-      </c>
-      <c r="AE56">
-        <v>1.07</v>
-      </c>
-      <c r="AF56">
-        <v>5.4</v>
-      </c>
-      <c r="AG56">
-        <v>1.37</v>
-      </c>
-      <c r="AH56">
-        <v>2.71</v>
-      </c>
-      <c r="AI56">
-        <v>2.09</v>
-      </c>
-      <c r="AJ56">
-        <v>1.71</v>
-      </c>
-      <c r="AK56">
-        <v>1.03</v>
-      </c>
-      <c r="AL56">
-        <v>1.08</v>
-      </c>
-      <c r="AM56">
-        <v>4.75</v>
-      </c>
-      <c r="AN56">
-        <v>3</v>
-      </c>
-      <c r="AO56">
-        <v>0.5</v>
-      </c>
-      <c r="AP56">
-        <v>3</v>
-      </c>
-      <c r="AQ56">
-        <v>0.25</v>
-      </c>
-      <c r="AR56">
-        <v>2.01</v>
-      </c>
-      <c r="AS56">
-        <v>0.92</v>
-      </c>
-      <c r="AT56">
-        <v>2.93</v>
-      </c>
-      <c r="AU56">
+      <c r="AW56">
+        <v>7</v>
+      </c>
+      <c r="AX56">
+        <v>5</v>
+      </c>
+      <c r="AY56">
+        <v>14</v>
+      </c>
+      <c r="AZ56">
         <v>12</v>
       </c>
-      <c r="AV56">
-        <v>2</v>
-      </c>
-      <c r="AW56">
-        <v>9</v>
-      </c>
-      <c r="AX56">
-        <v>6</v>
-      </c>
-      <c r="AY56">
-        <v>21</v>
-      </c>
-      <c r="AZ56">
-        <v>8</v>
-      </c>
       <c r="BA56">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BB56">
         <v>4</v>
       </c>
       <c r="BC56">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BD56">
-        <v>1.13</v>
+        <v>1.48</v>
       </c>
       <c r="BE56">
-        <v>10.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF56">
-        <v>6.1</v>
+        <v>2.95</v>
       </c>
       <c r="BG56">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="BH56">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="BI56">
         <v>1.57</v>
@@ -12487,7 +12487,7 @@
         <v>2.23</v>
       </c>
       <c r="BK56">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="BL56">
         <v>1.77</v>
@@ -12496,7 +12496,7 @@
         <v>2.4</v>
       </c>
       <c r="BN56">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="BO56">
         <v>3.05</v>
@@ -12510,7 +12510,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>7465065</v>
+        <v>7465064</v>
       </c>
       <c r="C57" t="s">
         <v>68</v>
@@ -12519,16 +12519,16 @@
         <v>69</v>
       </c>
       <c r="E57" s="2">
-        <v>45556.375</v>
+        <v>45556.5625</v>
       </c>
       <c r="F57">
         <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -12540,91 +12540,91 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O57" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="P57" t="s">
         <v>104</v>
       </c>
       <c r="Q57">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="R57">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="S57">
+        <v>3.12</v>
+      </c>
+      <c r="T57">
+        <v>1.42</v>
+      </c>
+      <c r="U57">
+        <v>2.81</v>
+      </c>
+      <c r="V57">
+        <v>2.93</v>
+      </c>
+      <c r="W57">
+        <v>1.39</v>
+      </c>
+      <c r="X57">
+        <v>7.7</v>
+      </c>
+      <c r="Y57">
+        <v>1.08</v>
+      </c>
+      <c r="Z57">
         <v>2.75</v>
       </c>
-      <c r="T57">
-        <v>1.53</v>
-      </c>
-      <c r="U57">
-        <v>2.38</v>
-      </c>
-      <c r="V57">
-        <v>3.3</v>
-      </c>
-      <c r="W57">
+      <c r="AA57">
+        <v>3.25</v>
+      </c>
+      <c r="AB57">
+        <v>2.55</v>
+      </c>
+      <c r="AC57">
+        <v>1.01</v>
+      </c>
+      <c r="AD57">
+        <v>8</v>
+      </c>
+      <c r="AE57">
+        <v>1.29</v>
+      </c>
+      <c r="AF57">
+        <v>3.1</v>
+      </c>
+      <c r="AG57">
+        <v>2</v>
+      </c>
+      <c r="AH57">
+        <v>1.82</v>
+      </c>
+      <c r="AI57">
+        <v>1.73</v>
+      </c>
+      <c r="AJ57">
+        <v>2</v>
+      </c>
+      <c r="AK57">
+        <v>1.5</v>
+      </c>
+      <c r="AL57">
         <v>1.28</v>
       </c>
-      <c r="X57">
-        <v>8</v>
-      </c>
-      <c r="Y57">
-        <v>1.05</v>
-      </c>
-      <c r="Z57">
-        <v>3.65</v>
-      </c>
-      <c r="AA57">
-        <v>3.1</v>
-      </c>
-      <c r="AB57">
-        <v>2.15</v>
-      </c>
-      <c r="AC57">
-        <v>1.1</v>
-      </c>
-      <c r="AD57">
-        <v>6.5</v>
-      </c>
-      <c r="AE57">
-        <v>1.48</v>
-      </c>
-      <c r="AF57">
-        <v>2.65</v>
-      </c>
-      <c r="AG57">
-        <v>2.38</v>
-      </c>
-      <c r="AH57">
-        <v>1.57</v>
-      </c>
-      <c r="AI57">
-        <v>2</v>
-      </c>
-      <c r="AJ57">
-        <v>1.73</v>
-      </c>
-      <c r="AK57">
-        <v>1.67</v>
-      </c>
-      <c r="AL57">
-        <v>1.3</v>
-      </c>
       <c r="AM57">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="AN57">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AO57">
         <v>1.33</v>
@@ -12633,82 +12633,82 @@
         <v>1.25</v>
       </c>
       <c r="AQ57">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR57">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AS57">
-        <v>0.9399999999999999</v>
+        <v>1.26</v>
       </c>
       <c r="AT57">
-        <v>2.12</v>
+        <v>2.64</v>
       </c>
       <c r="AU57">
         <v>3</v>
       </c>
       <c r="AV57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY57">
         <v>9</v>
       </c>
       <c r="AZ57">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA57">
         <v>5</v>
       </c>
       <c r="BB57">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BC57">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD57">
-        <v>2.4</v>
+        <v>1.94</v>
       </c>
       <c r="BE57">
         <v>6.4</v>
       </c>
       <c r="BF57">
-        <v>1.71</v>
+        <v>2.05</v>
       </c>
       <c r="BG57">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="BH57">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="BI57">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="BJ57">
-        <v>2.04</v>
+        <v>2.17</v>
       </c>
       <c r="BK57">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="BL57">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="BM57">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="BN57">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="BO57">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="BP57">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="58" spans="1:68">
@@ -12716,7 +12716,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>7465066</v>
+        <v>7469675</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
@@ -12725,34 +12725,34 @@
         <v>69</v>
       </c>
       <c r="E58" s="2">
-        <v>45556.46875</v>
+        <v>45556.66666666666</v>
       </c>
       <c r="F58">
         <v>6</v>
       </c>
       <c r="G58" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H58" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M58">
         <v>1</v>
       </c>
       <c r="N58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O58" t="s">
         <v>133</v>
@@ -12761,136 +12761,136 @@
         <v>183</v>
       </c>
       <c r="Q58">
-        <v>2.5</v>
+        <v>1.51</v>
       </c>
       <c r="R58">
-        <v>2.1</v>
+        <v>3.05</v>
       </c>
       <c r="S58">
-        <v>4.5</v>
+        <v>10.25</v>
       </c>
       <c r="T58">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="U58">
-        <v>2.6</v>
+        <v>4.15</v>
       </c>
       <c r="V58">
-        <v>3</v>
+        <v>2.06</v>
       </c>
       <c r="W58">
-        <v>1.33</v>
+        <v>1.74</v>
       </c>
       <c r="X58">
-        <v>8</v>
+        <v>4.3</v>
       </c>
       <c r="Y58">
-        <v>1.05</v>
+        <v>1.21</v>
       </c>
       <c r="Z58">
-        <v>1.91</v>
+        <v>1.17</v>
       </c>
       <c r="AA58">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="AB58">
+        <v>14.5</v>
+      </c>
+      <c r="AC58">
+        <v>1.03</v>
+      </c>
+      <c r="AD58">
+        <v>11</v>
+      </c>
+      <c r="AE58">
+        <v>1.07</v>
+      </c>
+      <c r="AF58">
+        <v>5.4</v>
+      </c>
+      <c r="AG58">
+        <v>1.37</v>
+      </c>
+      <c r="AH58">
+        <v>2.71</v>
+      </c>
+      <c r="AI58">
+        <v>2.09</v>
+      </c>
+      <c r="AJ58">
+        <v>1.71</v>
+      </c>
+      <c r="AK58">
+        <v>1.03</v>
+      </c>
+      <c r="AL58">
+        <v>1.08</v>
+      </c>
+      <c r="AM58">
+        <v>4.75</v>
+      </c>
+      <c r="AN58">
+        <v>3</v>
+      </c>
+      <c r="AO58">
+        <v>0.5</v>
+      </c>
+      <c r="AP58">
+        <v>3</v>
+      </c>
+      <c r="AQ58">
+        <v>0.25</v>
+      </c>
+      <c r="AR58">
+        <v>2.01</v>
+      </c>
+      <c r="AS58">
+        <v>0.92</v>
+      </c>
+      <c r="AT58">
+        <v>2.93</v>
+      </c>
+      <c r="AU58">
+        <v>16</v>
+      </c>
+      <c r="AV58">
+        <v>2</v>
+      </c>
+      <c r="AW58">
+        <v>9</v>
+      </c>
+      <c r="AX58">
         <v>4</v>
       </c>
-      <c r="AC58">
-        <v>1.06</v>
-      </c>
-      <c r="AD58">
-        <v>8</v>
-      </c>
-      <c r="AE58">
-        <v>1.36</v>
-      </c>
-      <c r="AF58">
-        <v>3</v>
-      </c>
-      <c r="AG58">
-        <v>2.15</v>
-      </c>
-      <c r="AH58">
-        <v>1.67</v>
-      </c>
-      <c r="AI58">
-        <v>1.95</v>
-      </c>
-      <c r="AJ58">
-        <v>1.83</v>
-      </c>
-      <c r="AK58">
-        <v>1.25</v>
-      </c>
-      <c r="AL58">
-        <v>1.3</v>
-      </c>
-      <c r="AM58">
-        <v>1.88</v>
-      </c>
-      <c r="AN58">
-        <v>2.33</v>
-      </c>
-      <c r="AO58">
-        <v>0</v>
-      </c>
-      <c r="AP58">
-        <v>2.6</v>
-      </c>
-      <c r="AQ58">
-        <v>0</v>
-      </c>
-      <c r="AR58">
-        <v>1.5</v>
-      </c>
-      <c r="AS58">
-        <v>1.37</v>
-      </c>
-      <c r="AT58">
-        <v>2.87</v>
-      </c>
-      <c r="AU58">
-        <v>5</v>
-      </c>
-      <c r="AV58">
-        <v>7</v>
-      </c>
-      <c r="AW58">
-        <v>7</v>
-      </c>
-      <c r="AX58">
-        <v>5</v>
-      </c>
       <c r="AY58">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="AZ58">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA58">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BB58">
         <v>4</v>
       </c>
       <c r="BC58">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BD58">
-        <v>1.48</v>
+        <v>1.13</v>
       </c>
       <c r="BE58">
-        <v>6.75</v>
+        <v>10.5</v>
       </c>
       <c r="BF58">
+        <v>6.1</v>
+      </c>
+      <c r="BG58">
+        <v>1.33</v>
+      </c>
+      <c r="BH58">
         <v>2.95</v>
-      </c>
-      <c r="BG58">
-        <v>1.34</v>
-      </c>
-      <c r="BH58">
-        <v>2.9</v>
       </c>
       <c r="BI58">
         <v>1.57</v>
@@ -12899,7 +12899,7 @@
         <v>2.23</v>
       </c>
       <c r="BK58">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="BL58">
         <v>1.77</v>
@@ -12908,7 +12908,7 @@
         <v>2.4</v>
       </c>
       <c r="BN58">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="BO58">
         <v>3.05</v>
@@ -12922,7 +12922,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7465063</v>
+        <v>7465060</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -12931,34 +12931,34 @@
         <v>69</v>
       </c>
       <c r="E59" s="2">
-        <v>45556.875</v>
+        <v>45557.375</v>
       </c>
       <c r="F59">
         <v>6</v>
       </c>
       <c r="G59" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L59">
         <v>1</v>
       </c>
       <c r="M59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N59">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O59" t="s">
         <v>134</v>
@@ -12967,160 +12967,160 @@
         <v>184</v>
       </c>
       <c r="Q59">
+        <v>2.9</v>
+      </c>
+      <c r="R59">
+        <v>1.75</v>
+      </c>
+      <c r="S59">
+        <v>5.25</v>
+      </c>
+      <c r="T59">
+        <v>1.7</v>
+      </c>
+      <c r="U59">
+        <v>2.05</v>
+      </c>
+      <c r="V59">
+        <v>4.33</v>
+      </c>
+      <c r="W59">
+        <v>1.18</v>
+      </c>
+      <c r="X59">
+        <v>9.75</v>
+      </c>
+      <c r="Y59">
+        <v>1.02</v>
+      </c>
+      <c r="Z59">
+        <v>2.1</v>
+      </c>
+      <c r="AA59">
+        <v>2.8</v>
+      </c>
+      <c r="AB59">
+        <v>4.33</v>
+      </c>
+      <c r="AC59">
+        <v>1.14</v>
+      </c>
+      <c r="AD59">
+        <v>5.25</v>
+      </c>
+      <c r="AE59">
+        <v>1.67</v>
+      </c>
+      <c r="AF59">
+        <v>2.15</v>
+      </c>
+      <c r="AG59">
+        <v>3.2</v>
+      </c>
+      <c r="AH59">
+        <v>1.33</v>
+      </c>
+      <c r="AI59">
+        <v>2.45</v>
+      </c>
+      <c r="AJ59">
+        <v>1.48</v>
+      </c>
+      <c r="AK59">
+        <v>1.23</v>
+      </c>
+      <c r="AL59">
+        <v>1.42</v>
+      </c>
+      <c r="AM59">
+        <v>1.7</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
+        <v>0.67</v>
+      </c>
+      <c r="AP59">
+        <v>1.5</v>
+      </c>
+      <c r="AQ59">
+        <v>0.8</v>
+      </c>
+      <c r="AR59">
+        <v>1.14</v>
+      </c>
+      <c r="AS59">
+        <v>0.67</v>
+      </c>
+      <c r="AT59">
+        <v>1.81</v>
+      </c>
+      <c r="AU59">
         <v>4</v>
       </c>
-      <c r="R59">
-        <v>2.6</v>
-      </c>
-      <c r="S59">
-        <v>2.25</v>
-      </c>
-      <c r="T59">
-        <v>1.22</v>
-      </c>
-      <c r="U59">
-        <v>4</v>
-      </c>
-      <c r="V59">
-        <v>2</v>
-      </c>
-      <c r="W59">
-        <v>1.73</v>
-      </c>
-      <c r="X59">
-        <v>4.33</v>
-      </c>
-      <c r="Y59">
-        <v>1.2</v>
-      </c>
-      <c r="Z59">
-        <v>4.2</v>
-      </c>
-      <c r="AA59">
-        <v>4</v>
-      </c>
-      <c r="AB59">
-        <v>1.75</v>
-      </c>
-      <c r="AC59">
-        <v>1.02</v>
-      </c>
-      <c r="AD59">
-        <v>26</v>
-      </c>
-      <c r="AE59">
-        <v>1.12</v>
-      </c>
-      <c r="AF59">
-        <v>6.25</v>
-      </c>
-      <c r="AG59">
-        <v>1.4</v>
-      </c>
-      <c r="AH59">
-        <v>3</v>
-      </c>
-      <c r="AI59">
-        <v>1.4</v>
-      </c>
-      <c r="AJ59">
+      <c r="AV59">
+        <v>3</v>
+      </c>
+      <c r="AW59">
+        <v>2</v>
+      </c>
+      <c r="AX59">
+        <v>2</v>
+      </c>
+      <c r="AY59">
+        <v>13</v>
+      </c>
+      <c r="AZ59">
+        <v>7</v>
+      </c>
+      <c r="BA59">
+        <v>6</v>
+      </c>
+      <c r="BB59">
+        <v>2</v>
+      </c>
+      <c r="BC59">
+        <v>8</v>
+      </c>
+      <c r="BD59">
+        <v>1.58</v>
+      </c>
+      <c r="BE59">
+        <v>6.4</v>
+      </c>
+      <c r="BF59">
+        <v>2.65</v>
+      </c>
+      <c r="BG59">
+        <v>1.43</v>
+      </c>
+      <c r="BH59">
+        <v>2.55</v>
+      </c>
+      <c r="BI59">
+        <v>1.72</v>
+      </c>
+      <c r="BJ59">
+        <v>1.98</v>
+      </c>
+      <c r="BK59">
+        <v>2.15</v>
+      </c>
+      <c r="BL59">
+        <v>1.61</v>
+      </c>
+      <c r="BM59">
         <v>2.75</v>
       </c>
-      <c r="AK59">
-        <v>2.05</v>
-      </c>
-      <c r="AL59">
-        <v>1.18</v>
-      </c>
-      <c r="AM59">
-        <v>1.22</v>
-      </c>
-      <c r="AN59">
-        <v>2</v>
-      </c>
-      <c r="AO59">
-        <v>3</v>
-      </c>
-      <c r="AP59">
-        <v>1.75</v>
-      </c>
-      <c r="AQ59">
-        <v>2.4</v>
-      </c>
-      <c r="AR59">
-        <v>1.71</v>
-      </c>
-      <c r="AS59">
-        <v>1.85</v>
-      </c>
-      <c r="AT59">
-        <v>3.56</v>
-      </c>
-      <c r="AU59">
-        <v>3</v>
-      </c>
-      <c r="AV59">
-        <v>4</v>
-      </c>
-      <c r="AW59">
-        <v>6</v>
-      </c>
-      <c r="AX59">
-        <v>2</v>
-      </c>
-      <c r="AY59">
-        <v>9</v>
-      </c>
-      <c r="AZ59">
-        <v>6</v>
-      </c>
-      <c r="BA59">
-        <v>7</v>
-      </c>
-      <c r="BB59">
-        <v>3</v>
-      </c>
-      <c r="BC59">
-        <v>10</v>
-      </c>
-      <c r="BD59">
-        <v>2.5</v>
-      </c>
-      <c r="BE59">
-        <v>6.25</v>
-      </c>
-      <c r="BF59">
-        <v>1.66</v>
-      </c>
-      <c r="BG59">
-        <v>1.32</v>
-      </c>
-      <c r="BH59">
-        <v>3.05</v>
-      </c>
-      <c r="BI59">
-        <v>1.56</v>
-      </c>
-      <c r="BJ59">
-        <v>2.23</v>
-      </c>
-      <c r="BK59">
-        <v>1.92</v>
-      </c>
-      <c r="BL59">
-        <v>1.77</v>
-      </c>
-      <c r="BM59">
-        <v>2.4</v>
-      </c>
       <c r="BN59">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="BO59">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="BP59">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="60" spans="1:68">
@@ -13128,7 +13128,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7465062</v>
+        <v>7465058</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -13137,196 +13137,196 @@
         <v>69</v>
       </c>
       <c r="E60" s="2">
-        <v>45556.875</v>
+        <v>45557.46875</v>
       </c>
       <c r="F60">
         <v>6</v>
       </c>
       <c r="G60" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H60" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M60">
         <v>1</v>
       </c>
       <c r="N60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O60" t="s">
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q60">
+        <v>2.25</v>
+      </c>
+      <c r="R60">
+        <v>2.3</v>
+      </c>
+      <c r="S60">
+        <v>4.75</v>
+      </c>
+      <c r="T60">
+        <v>1.33</v>
+      </c>
+      <c r="U60">
+        <v>3.25</v>
+      </c>
+      <c r="V60">
+        <v>2.63</v>
+      </c>
+      <c r="W60">
+        <v>1.44</v>
+      </c>
+      <c r="X60">
+        <v>6.5</v>
+      </c>
+      <c r="Y60">
+        <v>1.11</v>
+      </c>
+      <c r="Z60">
+        <v>1.67</v>
+      </c>
+      <c r="AA60">
+        <v>3.75</v>
+      </c>
+      <c r="AB60">
         <v>5</v>
       </c>
-      <c r="R60">
+      <c r="AC60">
+        <v>1.04</v>
+      </c>
+      <c r="AD60">
+        <v>14.25</v>
+      </c>
+      <c r="AE60">
+        <v>1.24</v>
+      </c>
+      <c r="AF60">
+        <v>4.15</v>
+      </c>
+      <c r="AG60">
+        <v>1.75</v>
+      </c>
+      <c r="AH60">
         <v>2.1</v>
       </c>
-      <c r="S60">
-        <v>2.5</v>
-      </c>
-      <c r="T60">
-        <v>1.44</v>
-      </c>
-      <c r="U60">
-        <v>2.63</v>
-      </c>
-      <c r="V60">
-        <v>3.25</v>
-      </c>
-      <c r="W60">
+      <c r="AI60">
+        <v>1.75</v>
+      </c>
+      <c r="AJ60">
+        <v>2</v>
+      </c>
+      <c r="AK60">
+        <v>1.2</v>
+      </c>
+      <c r="AL60">
+        <v>1.27</v>
+      </c>
+      <c r="AM60">
+        <v>2.15</v>
+      </c>
+      <c r="AN60">
         <v>1.33</v>
       </c>
-      <c r="X60">
-        <v>10</v>
-      </c>
-      <c r="Y60">
-        <v>1.06</v>
-      </c>
-      <c r="Z60">
-        <v>4.75</v>
-      </c>
-      <c r="AA60">
-        <v>3.3</v>
-      </c>
-      <c r="AB60">
-        <v>1.8</v>
-      </c>
-      <c r="AC60">
-        <v>1.02</v>
-      </c>
-      <c r="AD60">
-        <v>7.2</v>
-      </c>
-      <c r="AE60">
-        <v>1.35</v>
-      </c>
-      <c r="AF60">
+      <c r="AO60">
+        <v>0</v>
+      </c>
+      <c r="AP60">
+        <v>1.6</v>
+      </c>
+      <c r="AQ60">
+        <v>0</v>
+      </c>
+      <c r="AR60">
+        <v>1.11</v>
+      </c>
+      <c r="AS60">
+        <v>1.68</v>
+      </c>
+      <c r="AT60">
         <v>2.79</v>
       </c>
-      <c r="AG60">
-        <v>2.2</v>
-      </c>
-      <c r="AH60">
-        <v>1.68</v>
-      </c>
-      <c r="AI60">
-        <v>2</v>
-      </c>
-      <c r="AJ60">
-        <v>1.75</v>
-      </c>
-      <c r="AK60">
-        <v>1.95</v>
-      </c>
-      <c r="AL60">
-        <v>1.25</v>
-      </c>
-      <c r="AM60">
-        <v>1.18</v>
-      </c>
-      <c r="AN60">
+      <c r="AU60">
+        <v>6</v>
+      </c>
+      <c r="AV60">
+        <v>5</v>
+      </c>
+      <c r="AW60">
+        <v>3</v>
+      </c>
+      <c r="AX60">
+        <v>3</v>
+      </c>
+      <c r="AY60">
+        <v>11</v>
+      </c>
+      <c r="AZ60">
+        <v>12</v>
+      </c>
+      <c r="BA60">
+        <v>3</v>
+      </c>
+      <c r="BB60">
+        <v>6</v>
+      </c>
+      <c r="BC60">
+        <v>9</v>
+      </c>
+      <c r="BD60">
+        <v>1.32</v>
+      </c>
+      <c r="BE60">
+        <v>7.5</v>
+      </c>
+      <c r="BF60">
+        <v>3.65</v>
+      </c>
+      <c r="BG60">
+        <v>1.3</v>
+      </c>
+      <c r="BH60">
+        <v>3.15</v>
+      </c>
+      <c r="BI60">
         <v>1.5</v>
       </c>
-      <c r="AO60">
-        <v>2</v>
-      </c>
-      <c r="AP60">
-        <v>1.25</v>
-      </c>
-      <c r="AQ60">
-        <v>2</v>
-      </c>
-      <c r="AR60">
-        <v>1.49</v>
-      </c>
-      <c r="AS60">
-        <v>1.09</v>
-      </c>
-      <c r="AT60">
-        <v>2.58</v>
-      </c>
-      <c r="AU60">
-        <v>5</v>
-      </c>
-      <c r="AV60">
-        <v>6</v>
-      </c>
-      <c r="AW60">
-        <v>7</v>
-      </c>
-      <c r="AX60">
-        <v>0</v>
-      </c>
-      <c r="AY60">
-        <v>12</v>
-      </c>
-      <c r="AZ60">
-        <v>6</v>
-      </c>
-      <c r="BA60">
-        <v>3</v>
-      </c>
-      <c r="BB60">
-        <v>4</v>
-      </c>
-      <c r="BC60">
-        <v>7</v>
-      </c>
-      <c r="BD60">
-        <v>2.07</v>
-      </c>
-      <c r="BE60">
-        <v>6.25</v>
-      </c>
-      <c r="BF60">
-        <v>1.94</v>
-      </c>
-      <c r="BG60">
-        <v>1.41</v>
-      </c>
-      <c r="BH60">
-        <v>2.65</v>
-      </c>
-      <c r="BI60">
-        <v>1.68</v>
-      </c>
       <c r="BJ60">
-        <v>2.02</v>
+        <v>2.33</v>
       </c>
       <c r="BK60">
-        <v>2.1</v>
+        <v>1.84</v>
       </c>
       <c r="BL60">
-        <v>1.64</v>
+        <v>1.84</v>
       </c>
       <c r="BM60">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="BN60">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="BO60">
-        <v>3.65</v>
+        <v>2.9</v>
       </c>
       <c r="BP60">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="61" spans="1:68">
@@ -13334,7 +13334,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>7465060</v>
+        <v>7465063</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -13343,196 +13343,196 @@
         <v>69</v>
       </c>
       <c r="E61" s="2">
-        <v>45556.875</v>
+        <v>45557.5625</v>
       </c>
       <c r="F61">
         <v>6</v>
       </c>
       <c r="G61" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L61">
         <v>1</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N61">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O61" t="s">
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q61">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="R61">
+        <v>2.6</v>
+      </c>
+      <c r="S61">
+        <v>2.25</v>
+      </c>
+      <c r="T61">
+        <v>1.22</v>
+      </c>
+      <c r="U61">
+        <v>4</v>
+      </c>
+      <c r="V61">
+        <v>2</v>
+      </c>
+      <c r="W61">
+        <v>1.73</v>
+      </c>
+      <c r="X61">
+        <v>4.33</v>
+      </c>
+      <c r="Y61">
+        <v>1.2</v>
+      </c>
+      <c r="Z61">
+        <v>4.2</v>
+      </c>
+      <c r="AA61">
+        <v>4</v>
+      </c>
+      <c r="AB61">
         <v>1.75</v>
       </c>
-      <c r="S61">
-        <v>5.25</v>
-      </c>
-      <c r="T61">
-        <v>1.7</v>
-      </c>
-      <c r="U61">
+      <c r="AC61">
+        <v>1.02</v>
+      </c>
+      <c r="AD61">
+        <v>26</v>
+      </c>
+      <c r="AE61">
+        <v>1.12</v>
+      </c>
+      <c r="AF61">
+        <v>6.25</v>
+      </c>
+      <c r="AG61">
+        <v>1.4</v>
+      </c>
+      <c r="AH61">
+        <v>3</v>
+      </c>
+      <c r="AI61">
+        <v>1.4</v>
+      </c>
+      <c r="AJ61">
+        <v>2.75</v>
+      </c>
+      <c r="AK61">
         <v>2.05</v>
       </c>
-      <c r="V61">
-        <v>4.33</v>
-      </c>
-      <c r="W61">
+      <c r="AL61">
         <v>1.18</v>
       </c>
-      <c r="X61">
-        <v>9.75</v>
-      </c>
-      <c r="Y61">
-        <v>1.02</v>
-      </c>
-      <c r="Z61">
-        <v>2.1</v>
-      </c>
-      <c r="AA61">
-        <v>2.8</v>
-      </c>
-      <c r="AB61">
-        <v>4.33</v>
-      </c>
-      <c r="AC61">
-        <v>1.14</v>
-      </c>
-      <c r="AD61">
-        <v>5.25</v>
-      </c>
-      <c r="AE61">
-        <v>1.67</v>
-      </c>
-      <c r="AF61">
-        <v>2.15</v>
-      </c>
-      <c r="AG61">
-        <v>3.2</v>
-      </c>
-      <c r="AH61">
-        <v>1.33</v>
-      </c>
-      <c r="AI61">
-        <v>2.45</v>
-      </c>
-      <c r="AJ61">
-        <v>1.48</v>
-      </c>
-      <c r="AK61">
-        <v>1.23</v>
-      </c>
-      <c r="AL61">
-        <v>1.42</v>
-      </c>
       <c r="AM61">
-        <v>1.7</v>
+        <v>1.22</v>
       </c>
       <c r="AN61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO61">
-        <v>0.67</v>
+        <v>3</v>
       </c>
       <c r="AP61">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AQ61">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="AR61">
-        <v>1.14</v>
+        <v>1.71</v>
       </c>
       <c r="AS61">
-        <v>0.67</v>
+        <v>1.85</v>
       </c>
       <c r="AT61">
-        <v>1.81</v>
+        <v>3.56</v>
       </c>
       <c r="AU61">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV61">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AW61">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX61">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY61">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ61">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BA61">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB61">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC61">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD61">
-        <v>1.58</v>
+        <v>2.5</v>
       </c>
       <c r="BE61">
-        <v>6.4</v>
+        <v>6.25</v>
       </c>
       <c r="BF61">
-        <v>2.65</v>
+        <v>1.66</v>
       </c>
       <c r="BG61">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="BH61">
-        <v>2.55</v>
+        <v>3.05</v>
       </c>
       <c r="BI61">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="BJ61">
-        <v>1.98</v>
+        <v>2.23</v>
       </c>
       <c r="BK61">
-        <v>2.15</v>
+        <v>1.92</v>
       </c>
       <c r="BL61">
-        <v>1.61</v>
+        <v>1.77</v>
       </c>
       <c r="BM61">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="BN61">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="BO61">
-        <v>3.65</v>
+        <v>3.05</v>
       </c>
       <c r="BP61">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="62" spans="1:68">
@@ -13540,7 +13540,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>7465058</v>
+        <v>7465062</v>
       </c>
       <c r="C62" t="s">
         <v>68</v>
@@ -13549,196 +13549,196 @@
         <v>69</v>
       </c>
       <c r="E62" s="2">
-        <v>45556.875</v>
+        <v>45557.66666666666</v>
       </c>
       <c r="F62">
         <v>6</v>
       </c>
       <c r="G62" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M62">
         <v>1</v>
       </c>
       <c r="N62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O62" t="s">
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="Q62">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="R62">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S62">
+        <v>2.5</v>
+      </c>
+      <c r="T62">
+        <v>1.44</v>
+      </c>
+      <c r="U62">
+        <v>2.63</v>
+      </c>
+      <c r="V62">
+        <v>3.25</v>
+      </c>
+      <c r="W62">
+        <v>1.33</v>
+      </c>
+      <c r="X62">
+        <v>10</v>
+      </c>
+      <c r="Y62">
+        <v>1.06</v>
+      </c>
+      <c r="Z62">
         <v>4.75</v>
       </c>
-      <c r="T62">
-        <v>1.33</v>
-      </c>
-      <c r="U62">
-        <v>3.25</v>
-      </c>
-      <c r="V62">
-        <v>2.63</v>
-      </c>
-      <c r="W62">
-        <v>1.44</v>
-      </c>
-      <c r="X62">
-        <v>6.5</v>
-      </c>
-      <c r="Y62">
-        <v>1.11</v>
-      </c>
-      <c r="Z62">
-        <v>1.67</v>
-      </c>
       <c r="AA62">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="AB62">
+        <v>1.8</v>
+      </c>
+      <c r="AC62">
+        <v>1.02</v>
+      </c>
+      <c r="AD62">
+        <v>7.2</v>
+      </c>
+      <c r="AE62">
+        <v>1.35</v>
+      </c>
+      <c r="AF62">
+        <v>2.79</v>
+      </c>
+      <c r="AG62">
+        <v>2.2</v>
+      </c>
+      <c r="AH62">
+        <v>1.68</v>
+      </c>
+      <c r="AI62">
+        <v>2</v>
+      </c>
+      <c r="AJ62">
+        <v>1.75</v>
+      </c>
+      <c r="AK62">
+        <v>1.95</v>
+      </c>
+      <c r="AL62">
+        <v>1.25</v>
+      </c>
+      <c r="AM62">
+        <v>1.18</v>
+      </c>
+      <c r="AN62">
+        <v>1.5</v>
+      </c>
+      <c r="AO62">
+        <v>2</v>
+      </c>
+      <c r="AP62">
+        <v>1.25</v>
+      </c>
+      <c r="AQ62">
+        <v>2</v>
+      </c>
+      <c r="AR62">
+        <v>1.49</v>
+      </c>
+      <c r="AS62">
+        <v>1.09</v>
+      </c>
+      <c r="AT62">
+        <v>2.58</v>
+      </c>
+      <c r="AU62">
         <v>5</v>
       </c>
-      <c r="AC62">
-        <v>1.04</v>
-      </c>
-      <c r="AD62">
-        <v>14.25</v>
-      </c>
-      <c r="AE62">
-        <v>1.24</v>
-      </c>
-      <c r="AF62">
-        <v>4.15</v>
-      </c>
-      <c r="AG62">
-        <v>1.75</v>
-      </c>
-      <c r="AH62">
+      <c r="AV62">
+        <v>6</v>
+      </c>
+      <c r="AW62">
+        <v>7</v>
+      </c>
+      <c r="AX62">
+        <v>2</v>
+      </c>
+      <c r="AY62">
+        <v>18</v>
+      </c>
+      <c r="AZ62">
+        <v>11</v>
+      </c>
+      <c r="BA62">
+        <v>3</v>
+      </c>
+      <c r="BB62">
+        <v>4</v>
+      </c>
+      <c r="BC62">
+        <v>7</v>
+      </c>
+      <c r="BD62">
+        <v>2.07</v>
+      </c>
+      <c r="BE62">
+        <v>6.25</v>
+      </c>
+      <c r="BF62">
+        <v>1.94</v>
+      </c>
+      <c r="BG62">
+        <v>1.41</v>
+      </c>
+      <c r="BH62">
+        <v>2.65</v>
+      </c>
+      <c r="BI62">
+        <v>1.68</v>
+      </c>
+      <c r="BJ62">
+        <v>2.02</v>
+      </c>
+      <c r="BK62">
         <v>2.1</v>
       </c>
-      <c r="AI62">
-        <v>1.75</v>
-      </c>
-      <c r="AJ62">
-        <v>2</v>
-      </c>
-      <c r="AK62">
-        <v>1.2</v>
-      </c>
-      <c r="AL62">
-        <v>1.27</v>
-      </c>
-      <c r="AM62">
-        <v>2.15</v>
-      </c>
-      <c r="AN62">
-        <v>1.33</v>
-      </c>
-      <c r="AO62">
-        <v>0</v>
-      </c>
-      <c r="AP62">
-        <v>1.6</v>
-      </c>
-      <c r="AQ62">
-        <v>0</v>
-      </c>
-      <c r="AR62">
-        <v>1.11</v>
-      </c>
-      <c r="AS62">
-        <v>1.68</v>
-      </c>
-      <c r="AT62">
-        <v>2.79</v>
-      </c>
-      <c r="AU62">
-        <v>3</v>
-      </c>
-      <c r="AV62">
-        <v>3</v>
-      </c>
-      <c r="AW62">
-        <v>2</v>
-      </c>
-      <c r="AX62">
-        <v>4</v>
-      </c>
-      <c r="AY62">
-        <v>5</v>
-      </c>
-      <c r="AZ62">
-        <v>7</v>
-      </c>
-      <c r="BA62">
-        <v>3</v>
-      </c>
-      <c r="BB62">
-        <v>6</v>
-      </c>
-      <c r="BC62">
-        <v>9</v>
-      </c>
-      <c r="BD62">
-        <v>1.32</v>
-      </c>
-      <c r="BE62">
-        <v>7.5</v>
-      </c>
-      <c r="BF62">
+      <c r="BL62">
+        <v>1.64</v>
+      </c>
+      <c r="BM62">
+        <v>2.7</v>
+      </c>
+      <c r="BN62">
+        <v>1.38</v>
+      </c>
+      <c r="BO62">
         <v>3.65</v>
       </c>
-      <c r="BG62">
-        <v>1.3</v>
-      </c>
-      <c r="BH62">
-        <v>3.15</v>
-      </c>
-      <c r="BI62">
-        <v>1.5</v>
-      </c>
-      <c r="BJ62">
-        <v>2.33</v>
-      </c>
-      <c r="BK62">
-        <v>1.84</v>
-      </c>
-      <c r="BL62">
-        <v>1.84</v>
-      </c>
-      <c r="BM62">
-        <v>2.3</v>
-      </c>
-      <c r="BN62">
-        <v>1.54</v>
-      </c>
-      <c r="BO62">
-        <v>2.9</v>
-      </c>
       <c r="BP62">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="63" spans="1:68">
@@ -13755,7 +13755,7 @@
         <v>69</v>
       </c>
       <c r="E63" s="2">
-        <v>45557.875</v>
+        <v>45558.66666666666</v>
       </c>
       <c r="F63">
         <v>6</v>
@@ -13881,22 +13881,22 @@
         <v>2.73</v>
       </c>
       <c r="AU63">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV63">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY63">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AZ63">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BA63">
         <v>6</v>
@@ -13952,7 +13952,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7465070</v>
+        <v>7465074</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -13961,196 +13961,196 @@
         <v>69</v>
       </c>
       <c r="E64" s="2">
-        <v>45558.875</v>
+        <v>45559.58333333334</v>
       </c>
       <c r="F64">
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H64" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O64" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>188</v>
+        <v>104</v>
       </c>
       <c r="Q64">
+        <v>2.88</v>
+      </c>
+      <c r="R64">
+        <v>2</v>
+      </c>
+      <c r="S64">
+        <v>4.33</v>
+      </c>
+      <c r="T64">
+        <v>1.53</v>
+      </c>
+      <c r="U64">
         <v>2.38</v>
       </c>
-      <c r="R64">
-        <v>2.2</v>
-      </c>
-      <c r="S64">
+      <c r="V64">
+        <v>3.5</v>
+      </c>
+      <c r="W64">
+        <v>1.29</v>
+      </c>
+      <c r="X64">
+        <v>11</v>
+      </c>
+      <c r="Y64">
+        <v>1.05</v>
+      </c>
+      <c r="Z64">
+        <v>2.1</v>
+      </c>
+      <c r="AA64">
+        <v>3.2</v>
+      </c>
+      <c r="AB64">
+        <v>3.7</v>
+      </c>
+      <c r="AC64">
+        <v>1.04</v>
+      </c>
+      <c r="AD64">
+        <v>6.55</v>
+      </c>
+      <c r="AE64">
+        <v>1.46</v>
+      </c>
+      <c r="AF64">
+        <v>2.77</v>
+      </c>
+      <c r="AG64">
+        <v>2.3</v>
+      </c>
+      <c r="AH64">
+        <v>1.55</v>
+      </c>
+      <c r="AI64">
+        <v>2.05</v>
+      </c>
+      <c r="AJ64">
+        <v>1.7</v>
+      </c>
+      <c r="AK64">
+        <v>1.28</v>
+      </c>
+      <c r="AL64">
+        <v>1.3</v>
+      </c>
+      <c r="AM64">
+        <v>1.75</v>
+      </c>
+      <c r="AN64">
+        <v>1.33</v>
+      </c>
+      <c r="AO64">
+        <v>0</v>
+      </c>
+      <c r="AP64">
+        <v>1.25</v>
+      </c>
+      <c r="AQ64">
+        <v>0.33</v>
+      </c>
+      <c r="AR64">
+        <v>1.24</v>
+      </c>
+      <c r="AS64">
+        <v>0.55</v>
+      </c>
+      <c r="AT64">
+        <v>1.79</v>
+      </c>
+      <c r="AU64">
+        <v>4</v>
+      </c>
+      <c r="AV64">
+        <v>3</v>
+      </c>
+      <c r="AW64">
+        <v>3</v>
+      </c>
+      <c r="AX64">
+        <v>4</v>
+      </c>
+      <c r="AY64">
+        <v>11</v>
+      </c>
+      <c r="AZ64">
+        <v>10</v>
+      </c>
+      <c r="BA64">
+        <v>10</v>
+      </c>
+      <c r="BB64">
         <v>5</v>
       </c>
-      <c r="T64">
+      <c r="BC64">
+        <v>15</v>
+      </c>
+      <c r="BD64">
+        <v>1.72</v>
+      </c>
+      <c r="BE64">
+        <v>6.4</v>
+      </c>
+      <c r="BF64">
+        <v>2.38</v>
+      </c>
+      <c r="BG64">
+        <v>1.41</v>
+      </c>
+      <c r="BH64">
+        <v>2.63</v>
+      </c>
+      <c r="BI64">
+        <v>1.71</v>
+      </c>
+      <c r="BJ64">
+        <v>2</v>
+      </c>
+      <c r="BK64">
+        <v>2.12</v>
+      </c>
+      <c r="BL64">
+        <v>1.63</v>
+      </c>
+      <c r="BM64">
+        <v>2.7</v>
+      </c>
+      <c r="BN64">
         <v>1.4</v>
       </c>
-      <c r="U64">
-        <v>2.75</v>
-      </c>
-      <c r="V64">
-        <v>3</v>
-      </c>
-      <c r="W64">
-        <v>1.36</v>
-      </c>
-      <c r="X64">
-        <v>8</v>
-      </c>
-      <c r="Y64">
-        <v>1.08</v>
-      </c>
-      <c r="Z64">
-        <v>1.75</v>
-      </c>
-      <c r="AA64">
-        <v>3.7</v>
-      </c>
-      <c r="AB64">
-        <v>4.6</v>
-      </c>
-      <c r="AC64">
-        <v>1.05</v>
-      </c>
-      <c r="AD64">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AE64">
-        <v>1.31</v>
-      </c>
-      <c r="AF64">
-        <v>3.42</v>
-      </c>
-      <c r="AG64">
-        <v>1.91</v>
-      </c>
-      <c r="AH64">
-        <v>1.8</v>
-      </c>
-      <c r="AI64">
-        <v>1.91</v>
-      </c>
-      <c r="AJ64">
-        <v>1.91</v>
-      </c>
-      <c r="AK64">
-        <v>1.2</v>
-      </c>
-      <c r="AL64">
-        <v>1.24</v>
-      </c>
-      <c r="AM64">
-        <v>2.1</v>
-      </c>
-      <c r="AN64">
-        <v>1</v>
-      </c>
-      <c r="AO64">
-        <v>0</v>
-      </c>
-      <c r="AP64">
-        <v>1.5</v>
-      </c>
-      <c r="AQ64">
-        <v>0</v>
-      </c>
-      <c r="AR64">
-        <v>1.56</v>
-      </c>
-      <c r="AS64">
-        <v>0.74</v>
-      </c>
-      <c r="AT64">
-        <v>2.3</v>
-      </c>
-      <c r="AU64">
-        <v>6</v>
-      </c>
-      <c r="AV64">
-        <v>3</v>
-      </c>
-      <c r="AW64">
-        <v>6</v>
-      </c>
-      <c r="AX64">
-        <v>2</v>
-      </c>
-      <c r="AY64">
-        <v>12</v>
-      </c>
-      <c r="AZ64">
-        <v>5</v>
-      </c>
-      <c r="BA64">
-        <v>6</v>
-      </c>
-      <c r="BB64">
-        <v>4</v>
-      </c>
-      <c r="BC64">
-        <v>10</v>
-      </c>
-      <c r="BD64">
-        <v>1.49</v>
-      </c>
-      <c r="BE64">
-        <v>6.75</v>
-      </c>
-      <c r="BF64">
-        <v>2.9</v>
-      </c>
-      <c r="BG64">
-        <v>1.33</v>
-      </c>
-      <c r="BH64">
-        <v>2.95</v>
-      </c>
-      <c r="BI64">
-        <v>1.57</v>
-      </c>
-      <c r="BJ64">
-        <v>2.23</v>
-      </c>
-      <c r="BK64">
-        <v>1.94</v>
-      </c>
-      <c r="BL64">
-        <v>1.76</v>
-      </c>
-      <c r="BM64">
-        <v>2.43</v>
-      </c>
-      <c r="BN64">
-        <v>1.47</v>
-      </c>
       <c r="BO64">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="BP64">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="65" spans="1:68">
@@ -14158,7 +14158,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>7465074</v>
+        <v>7465070</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
@@ -14167,196 +14167,196 @@
         <v>69</v>
       </c>
       <c r="E65" s="2">
-        <v>45558.875</v>
+        <v>45559.58333333334</v>
       </c>
       <c r="F65">
         <v>7</v>
       </c>
       <c r="G65" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O65" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="Q65">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="R65">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S65">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="T65">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="U65">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="V65">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="W65">
+        <v>1.36</v>
+      </c>
+      <c r="X65">
+        <v>8</v>
+      </c>
+      <c r="Y65">
+        <v>1.08</v>
+      </c>
+      <c r="Z65">
+        <v>1.75</v>
+      </c>
+      <c r="AA65">
+        <v>3.7</v>
+      </c>
+      <c r="AB65">
+        <v>4.6</v>
+      </c>
+      <c r="AC65">
+        <v>1.05</v>
+      </c>
+      <c r="AD65">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE65">
+        <v>1.31</v>
+      </c>
+      <c r="AF65">
+        <v>3.42</v>
+      </c>
+      <c r="AG65">
+        <v>1.91</v>
+      </c>
+      <c r="AH65">
+        <v>1.8</v>
+      </c>
+      <c r="AI65">
+        <v>1.91</v>
+      </c>
+      <c r="AJ65">
+        <v>1.91</v>
+      </c>
+      <c r="AK65">
+        <v>1.2</v>
+      </c>
+      <c r="AL65">
+        <v>1.24</v>
+      </c>
+      <c r="AM65">
+        <v>2.1</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
+        <v>0</v>
+      </c>
+      <c r="AP65">
+        <v>1.5</v>
+      </c>
+      <c r="AQ65">
+        <v>0</v>
+      </c>
+      <c r="AR65">
+        <v>1.56</v>
+      </c>
+      <c r="AS65">
+        <v>0.74</v>
+      </c>
+      <c r="AT65">
+        <v>2.3</v>
+      </c>
+      <c r="AU65">
+        <v>6</v>
+      </c>
+      <c r="AV65">
+        <v>3</v>
+      </c>
+      <c r="AW65">
+        <v>6</v>
+      </c>
+      <c r="AX65">
+        <v>3</v>
+      </c>
+      <c r="AY65">
+        <v>23</v>
+      </c>
+      <c r="AZ65">
+        <v>9</v>
+      </c>
+      <c r="BA65">
+        <v>6</v>
+      </c>
+      <c r="BB65">
+        <v>4</v>
+      </c>
+      <c r="BC65">
+        <v>10</v>
+      </c>
+      <c r="BD65">
+        <v>1.49</v>
+      </c>
+      <c r="BE65">
+        <v>6.75</v>
+      </c>
+      <c r="BF65">
+        <v>2.9</v>
+      </c>
+      <c r="BG65">
+        <v>1.33</v>
+      </c>
+      <c r="BH65">
+        <v>2.95</v>
+      </c>
+      <c r="BI65">
+        <v>1.57</v>
+      </c>
+      <c r="BJ65">
+        <v>2.23</v>
+      </c>
+      <c r="BK65">
+        <v>1.94</v>
+      </c>
+      <c r="BL65">
+        <v>1.76</v>
+      </c>
+      <c r="BM65">
+        <v>2.43</v>
+      </c>
+      <c r="BN65">
+        <v>1.47</v>
+      </c>
+      <c r="BO65">
+        <v>3.15</v>
+      </c>
+      <c r="BP65">
         <v>1.29</v>
-      </c>
-      <c r="X65">
-        <v>11</v>
-      </c>
-      <c r="Y65">
-        <v>1.05</v>
-      </c>
-      <c r="Z65">
-        <v>2.1</v>
-      </c>
-      <c r="AA65">
-        <v>3.2</v>
-      </c>
-      <c r="AB65">
-        <v>3.7</v>
-      </c>
-      <c r="AC65">
-        <v>1.04</v>
-      </c>
-      <c r="AD65">
-        <v>6.55</v>
-      </c>
-      <c r="AE65">
-        <v>1.46</v>
-      </c>
-      <c r="AF65">
-        <v>2.77</v>
-      </c>
-      <c r="AG65">
-        <v>2.3</v>
-      </c>
-      <c r="AH65">
-        <v>1.55</v>
-      </c>
-      <c r="AI65">
-        <v>2.05</v>
-      </c>
-      <c r="AJ65">
-        <v>1.7</v>
-      </c>
-      <c r="AK65">
-        <v>1.28</v>
-      </c>
-      <c r="AL65">
-        <v>1.3</v>
-      </c>
-      <c r="AM65">
-        <v>1.75</v>
-      </c>
-      <c r="AN65">
-        <v>1.33</v>
-      </c>
-      <c r="AO65">
-        <v>0</v>
-      </c>
-      <c r="AP65">
-        <v>1.25</v>
-      </c>
-      <c r="AQ65">
-        <v>0.33</v>
-      </c>
-      <c r="AR65">
-        <v>1.38</v>
-      </c>
-      <c r="AS65">
-        <v>0.55</v>
-      </c>
-      <c r="AT65">
-        <v>1.93</v>
-      </c>
-      <c r="AU65">
-        <v>2</v>
-      </c>
-      <c r="AV65">
-        <v>3</v>
-      </c>
-      <c r="AW65">
-        <v>2</v>
-      </c>
-      <c r="AX65">
-        <v>4</v>
-      </c>
-      <c r="AY65">
-        <v>4</v>
-      </c>
-      <c r="AZ65">
-        <v>7</v>
-      </c>
-      <c r="BA65">
-        <v>10</v>
-      </c>
-      <c r="BB65">
-        <v>5</v>
-      </c>
-      <c r="BC65">
-        <v>15</v>
-      </c>
-      <c r="BD65">
-        <v>1.72</v>
-      </c>
-      <c r="BE65">
-        <v>6.4</v>
-      </c>
-      <c r="BF65">
-        <v>2.38</v>
-      </c>
-      <c r="BG65">
-        <v>1.41</v>
-      </c>
-      <c r="BH65">
-        <v>2.63</v>
-      </c>
-      <c r="BI65">
-        <v>1.71</v>
-      </c>
-      <c r="BJ65">
-        <v>2</v>
-      </c>
-      <c r="BK65">
-        <v>2.12</v>
-      </c>
-      <c r="BL65">
-        <v>1.63</v>
-      </c>
-      <c r="BM65">
-        <v>2.7</v>
-      </c>
-      <c r="BN65">
-        <v>1.4</v>
-      </c>
-      <c r="BO65">
-        <v>3.65</v>
-      </c>
-      <c r="BP65">
-        <v>1.23</v>
       </c>
     </row>
     <row r="66" spans="1:68">
@@ -14373,7 +14373,7 @@
         <v>69</v>
       </c>
       <c r="E66" s="2">
-        <v>45558.875</v>
+        <v>45559.66666666666</v>
       </c>
       <c r="F66">
         <v>7</v>
@@ -14490,31 +14490,31 @@
         <v>0.6</v>
       </c>
       <c r="AR66">
-        <v>2.01</v>
+        <v>2.43</v>
       </c>
       <c r="AS66">
         <v>1.51</v>
       </c>
       <c r="AT66">
-        <v>3.52</v>
+        <v>3.94</v>
       </c>
       <c r="AU66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW66">
         <v>3</v>
       </c>
       <c r="AX66">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY66">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AZ66">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BA66">
         <v>4</v>
@@ -14579,7 +14579,7 @@
         <v>69</v>
       </c>
       <c r="E67" s="2">
-        <v>45559.875</v>
+        <v>45560.58333333334</v>
       </c>
       <c r="F67">
         <v>7</v>
@@ -14711,13 +14711,13 @@
         <v>0</v>
       </c>
       <c r="AW67">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX67">
         <v>3</v>
       </c>
       <c r="AY67">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ67">
         <v>3</v>
@@ -14785,7 +14785,7 @@
         <v>69</v>
       </c>
       <c r="E68" s="2">
-        <v>45559.875</v>
+        <v>45560.66666666666</v>
       </c>
       <c r="F68">
         <v>7</v>
@@ -14917,16 +14917,16 @@
         <v>2</v>
       </c>
       <c r="AW68">
+        <v>6</v>
+      </c>
+      <c r="AX68">
+        <v>3</v>
+      </c>
+      <c r="AY68">
+        <v>16</v>
+      </c>
+      <c r="AZ68">
         <v>8</v>
-      </c>
-      <c r="AX68">
-        <v>1</v>
-      </c>
-      <c r="AY68">
-        <v>13</v>
-      </c>
-      <c r="AZ68">
-        <v>3</v>
       </c>
       <c r="BA68">
         <v>7</v>
@@ -14991,7 +14991,7 @@
         <v>69</v>
       </c>
       <c r="E69" s="2">
-        <v>45560.875</v>
+        <v>45561.58333333334</v>
       </c>
       <c r="F69">
         <v>7</v>
@@ -15117,22 +15117,22 @@
         <v>2.61</v>
       </c>
       <c r="AU69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV69">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX69">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY69">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ69">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BA69">
         <v>1</v>
@@ -15188,7 +15188,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7465072</v>
+        <v>7469578</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -15197,37 +15197,37 @@
         <v>69</v>
       </c>
       <c r="E70" s="2">
-        <v>45560.875</v>
+        <v>45561.58333333334</v>
       </c>
       <c r="F70">
         <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H70" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O70" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="P70" t="s">
         <v>191</v>
@@ -15236,157 +15236,157 @@
         <v>4</v>
       </c>
       <c r="R70">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S70">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="T70">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U70">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V70">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W70">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X70">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y70">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z70">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AA70">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AB70">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AC70">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AD70">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE70">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AF70">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AG70">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AH70">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AI70">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AJ70">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AK70">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="AL70">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AM70">
         <v>1.3</v>
       </c>
       <c r="AN70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO70">
-        <v>1.67</v>
+        <v>2.33</v>
       </c>
       <c r="AP70">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AR70">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AS70">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT70">
         <v>2.38</v>
       </c>
       <c r="AU70">
+        <v>3</v>
+      </c>
+      <c r="AV70">
         <v>5</v>
       </c>
-      <c r="AV70">
-        <v>2</v>
-      </c>
       <c r="AW70">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX70">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AY70">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ70">
+        <v>16</v>
+      </c>
+      <c r="BA70">
         <v>4</v>
       </c>
-      <c r="BA70">
-        <v>2</v>
-      </c>
       <c r="BB70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC70">
         <v>5</v>
       </c>
       <c r="BD70">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="BE70">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="BF70">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="BG70">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="BH70">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="BI70">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="BJ70">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="BK70">
         <v>1.88</v>
       </c>
       <c r="BL70">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="BM70">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="BN70">
         <v>1.5</v>
       </c>
       <c r="BO70">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="BP70">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="71" spans="1:68">
@@ -15394,7 +15394,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>7469578</v>
+        <v>7465072</v>
       </c>
       <c r="C71" t="s">
         <v>68</v>
@@ -15403,37 +15403,37 @@
         <v>69</v>
       </c>
       <c r="E71" s="2">
-        <v>45561.58333333334</v>
+        <v>45561.66666666666</v>
       </c>
       <c r="F71">
         <v>7</v>
       </c>
       <c r="G71" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H71" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O71" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="P71" t="s">
         <v>192</v>
@@ -15442,157 +15442,157 @@
         <v>4</v>
       </c>
       <c r="R71">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S71">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="T71">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U71">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V71">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W71">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X71">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y71">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z71">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AA71">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AB71">
+        <v>2</v>
+      </c>
+      <c r="AC71">
+        <v>1.04</v>
+      </c>
+      <c r="AD71">
+        <v>13</v>
+      </c>
+      <c r="AE71">
+        <v>1.25</v>
+      </c>
+      <c r="AF71">
+        <v>4</v>
+      </c>
+      <c r="AG71">
+        <v>1.73</v>
+      </c>
+      <c r="AH71">
+        <v>2</v>
+      </c>
+      <c r="AI71">
+        <v>1.67</v>
+      </c>
+      <c r="AJ71">
         <v>2.1</v>
       </c>
-      <c r="AC71">
-        <v>1.06</v>
-      </c>
-      <c r="AD71">
-        <v>10</v>
-      </c>
-      <c r="AE71">
-        <v>1.3</v>
-      </c>
-      <c r="AF71">
-        <v>3.6</v>
-      </c>
-      <c r="AG71">
+      <c r="AK71">
         <v>1.83</v>
       </c>
-      <c r="AH71">
-        <v>1.85</v>
-      </c>
-      <c r="AI71">
-        <v>1.7</v>
-      </c>
-      <c r="AJ71">
-        <v>2.05</v>
-      </c>
-      <c r="AK71">
-        <v>1.78</v>
-      </c>
       <c r="AL71">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AM71">
         <v>1.3</v>
       </c>
       <c r="AN71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO71">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
       <c r="AP71">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ71">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR71">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="AS71">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT71">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW71">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX71">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AY71">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AZ71">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC71">
         <v>5</v>
       </c>
       <c r="BD71">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="BE71">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="BF71">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="BG71">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="BH71">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="BI71">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="BJ71">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="BK71">
         <v>1.88</v>
       </c>
       <c r="BL71">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="BM71">
-        <v>2.38</v>
+        <v>2.33</v>
       </c>
       <c r="BN71">
         <v>1.5</v>
       </c>
       <c r="BO71">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="BP71">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="72" spans="1:68">
@@ -15609,7 +15609,7 @@
         <v>69</v>
       </c>
       <c r="E72" s="2">
-        <v>45561.875</v>
+        <v>45562.66666666666</v>
       </c>
       <c r="F72">
         <v>8</v>
@@ -15729,28 +15729,28 @@
         <v>1.16</v>
       </c>
       <c r="AS72">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AT72">
-        <v>2.21</v>
+        <v>2.26</v>
       </c>
       <c r="AU72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV72">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW72">
         <v>8</v>
       </c>
       <c r="AX72">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY72">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ72">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="BA72">
         <v>7</v>
@@ -15806,7 +15806,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>7465079</v>
+        <v>7465083</v>
       </c>
       <c r="C73" t="s">
         <v>68</v>
@@ -15815,16 +15815,16 @@
         <v>69</v>
       </c>
       <c r="E73" s="2">
-        <v>45562.875</v>
+        <v>45563.375</v>
       </c>
       <c r="F73">
         <v>8</v>
       </c>
       <c r="G73" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H73" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -15836,13 +15836,13 @@
         <v>1</v>
       </c>
       <c r="L73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M73">
         <v>0</v>
       </c>
       <c r="N73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O73" t="s">
         <v>144</v>
@@ -15851,160 +15851,160 @@
         <v>104</v>
       </c>
       <c r="Q73">
+        <v>3.5</v>
+      </c>
+      <c r="R73">
+        <v>1.8</v>
+      </c>
+      <c r="S73">
+        <v>4</v>
+      </c>
+      <c r="T73">
+        <v>1.67</v>
+      </c>
+      <c r="U73">
+        <v>2.1</v>
+      </c>
+      <c r="V73">
+        <v>4.33</v>
+      </c>
+      <c r="W73">
+        <v>1.2</v>
+      </c>
+      <c r="X73">
+        <v>15</v>
+      </c>
+      <c r="Y73">
+        <v>1.03</v>
+      </c>
+      <c r="Z73">
+        <v>2.56</v>
+      </c>
+      <c r="AA73">
+        <v>2.73</v>
+      </c>
+      <c r="AB73">
+        <v>3.28</v>
+      </c>
+      <c r="AC73">
+        <v>1.11</v>
+      </c>
+      <c r="AD73">
+        <v>5.5</v>
+      </c>
+      <c r="AE73">
+        <v>1.68</v>
+      </c>
+      <c r="AF73">
+        <v>2.2</v>
+      </c>
+      <c r="AG73">
+        <v>3.2</v>
+      </c>
+      <c r="AH73">
+        <v>1.36</v>
+      </c>
+      <c r="AI73">
+        <v>2.38</v>
+      </c>
+      <c r="AJ73">
+        <v>1.53</v>
+      </c>
+      <c r="AK73">
+        <v>1.38</v>
+      </c>
+      <c r="AL73">
+        <v>1.38</v>
+      </c>
+      <c r="AM73">
+        <v>1.52</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
+        <v>0.75</v>
+      </c>
+      <c r="AP73">
+        <v>1.5</v>
+      </c>
+      <c r="AQ73">
+        <v>0.6</v>
+      </c>
+      <c r="AR73">
+        <v>1.15</v>
+      </c>
+      <c r="AS73">
+        <v>1.41</v>
+      </c>
+      <c r="AT73">
+        <v>2.56</v>
+      </c>
+      <c r="AU73">
+        <v>9</v>
+      </c>
+      <c r="AV73">
+        <v>2</v>
+      </c>
+      <c r="AW73">
+        <v>3</v>
+      </c>
+      <c r="AX73">
+        <v>5</v>
+      </c>
+      <c r="AY73">
+        <v>16</v>
+      </c>
+      <c r="AZ73">
+        <v>10</v>
+      </c>
+      <c r="BA73">
+        <v>2</v>
+      </c>
+      <c r="BB73">
+        <v>2</v>
+      </c>
+      <c r="BC73">
+        <v>4</v>
+      </c>
+      <c r="BD73">
+        <v>1.92</v>
+      </c>
+      <c r="BE73">
+        <v>6.4</v>
+      </c>
+      <c r="BF73">
+        <v>2.08</v>
+      </c>
+      <c r="BG73">
+        <v>1.41</v>
+      </c>
+      <c r="BH73">
         <v>2.63</v>
       </c>
-      <c r="R73">
-        <v>1.95</v>
-      </c>
-      <c r="S73">
-        <v>5.5</v>
-      </c>
-      <c r="T73">
-        <v>1.57</v>
-      </c>
-      <c r="U73">
-        <v>2.25</v>
-      </c>
-      <c r="V73">
-        <v>3.75</v>
-      </c>
-      <c r="W73">
-        <v>1.25</v>
-      </c>
-      <c r="X73">
-        <v>11</v>
-      </c>
-      <c r="Y73">
-        <v>1.05</v>
-      </c>
-      <c r="Z73">
-        <v>1.9</v>
-      </c>
-      <c r="AA73">
-        <v>3.25</v>
-      </c>
-      <c r="AB73">
-        <v>4.5</v>
-      </c>
-      <c r="AC73">
-        <v>1.1</v>
-      </c>
-      <c r="AD73">
-        <v>6.5</v>
-      </c>
-      <c r="AE73">
-        <v>1.5</v>
-      </c>
-      <c r="AF73">
-        <v>2.55</v>
-      </c>
-      <c r="AG73">
-        <v>2.63</v>
-      </c>
-      <c r="AH73">
-        <v>1.5</v>
-      </c>
-      <c r="AI73">
-        <v>2.2</v>
-      </c>
-      <c r="AJ73">
+      <c r="BI73">
+        <v>1.7</v>
+      </c>
+      <c r="BJ73">
+        <v>2</v>
+      </c>
+      <c r="BK73">
+        <v>2.14</v>
+      </c>
+      <c r="BL73">
         <v>1.62</v>
       </c>
-      <c r="AK73">
-        <v>1.2</v>
-      </c>
-      <c r="AL73">
-        <v>1.28</v>
-      </c>
-      <c r="AM73">
-        <v>1.85</v>
-      </c>
-      <c r="AN73">
-        <v>0</v>
-      </c>
-      <c r="AO73">
-        <v>0</v>
-      </c>
-      <c r="AP73">
-        <v>0.75</v>
-      </c>
-      <c r="AQ73">
-        <v>0</v>
-      </c>
-      <c r="AR73">
-        <v>1.11</v>
-      </c>
-      <c r="AS73">
-        <v>0.9</v>
-      </c>
-      <c r="AT73">
-        <v>2.01</v>
-      </c>
-      <c r="AU73">
-        <v>4</v>
-      </c>
-      <c r="AV73">
-        <v>5</v>
-      </c>
-      <c r="AW73">
-        <v>2</v>
-      </c>
-      <c r="AX73">
-        <v>2</v>
-      </c>
-      <c r="AY73">
-        <v>6</v>
-      </c>
-      <c r="AZ73">
-        <v>7</v>
-      </c>
-      <c r="BA73">
-        <v>6</v>
-      </c>
-      <c r="BB73">
-        <v>4</v>
-      </c>
-      <c r="BC73">
-        <v>10</v>
-      </c>
-      <c r="BD73">
-        <v>1.4</v>
-      </c>
-      <c r="BE73">
-        <v>7</v>
-      </c>
-      <c r="BF73">
-        <v>3.3</v>
-      </c>
-      <c r="BG73">
+      <c r="BM73">
+        <v>2.75</v>
+      </c>
+      <c r="BN73">
         <v>1.38</v>
       </c>
-      <c r="BH73">
-        <v>2.7</v>
-      </c>
-      <c r="BI73">
-        <v>1.65</v>
-      </c>
-      <c r="BJ73">
-        <v>2.08</v>
-      </c>
-      <c r="BK73">
-        <v>2.05</v>
-      </c>
-      <c r="BL73">
-        <v>1.67</v>
-      </c>
-      <c r="BM73">
-        <v>2.63</v>
-      </c>
-      <c r="BN73">
-        <v>1.41</v>
-      </c>
       <c r="BO73">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="BP73">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="74" spans="1:68">
@@ -16012,7 +16012,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>7465080</v>
+        <v>7465084</v>
       </c>
       <c r="C74" t="s">
         <v>68</v>
@@ -16021,196 +16021,196 @@
         <v>69</v>
       </c>
       <c r="E74" s="2">
-        <v>45562.875</v>
+        <v>45563.46875</v>
       </c>
       <c r="F74">
         <v>8</v>
       </c>
       <c r="G74" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N74">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O74" t="s">
         <v>145</v>
       </c>
       <c r="P74" t="s">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="Q74">
-        <v>6.07</v>
+        <v>2.75</v>
       </c>
       <c r="R74">
-        <v>2.73</v>
+        <v>1.91</v>
       </c>
       <c r="S74">
-        <v>1.89</v>
+        <v>5.5</v>
       </c>
       <c r="T74">
+        <v>1.62</v>
+      </c>
+      <c r="U74">
+        <v>2.2</v>
+      </c>
+      <c r="V74">
+        <v>4</v>
+      </c>
+      <c r="W74">
+        <v>1.22</v>
+      </c>
+      <c r="X74">
+        <v>13</v>
+      </c>
+      <c r="Y74">
+        <v>1.04</v>
+      </c>
+      <c r="Z74">
+        <v>1.91</v>
+      </c>
+      <c r="AA74">
+        <v>3</v>
+      </c>
+      <c r="AB74">
+        <v>4.75</v>
+      </c>
+      <c r="AC74">
+        <v>1.08</v>
+      </c>
+      <c r="AD74">
+        <v>6.5</v>
+      </c>
+      <c r="AE74">
+        <v>1.61</v>
+      </c>
+      <c r="AF74">
+        <v>2.34</v>
+      </c>
+      <c r="AG74">
+        <v>3</v>
+      </c>
+      <c r="AH74">
+        <v>1.4</v>
+      </c>
+      <c r="AI74">
+        <v>2.38</v>
+      </c>
+      <c r="AJ74">
+        <v>1.53</v>
+      </c>
+      <c r="AK74">
+        <v>1.2</v>
+      </c>
+      <c r="AL74">
+        <v>1.32</v>
+      </c>
+      <c r="AM74">
+        <v>1.88</v>
+      </c>
+      <c r="AN74">
+        <v>1.33</v>
+      </c>
+      <c r="AO74">
+        <v>0.75</v>
+      </c>
+      <c r="AP74">
         <v>1.25</v>
       </c>
-      <c r="U74">
-        <v>3.75</v>
-      </c>
-      <c r="V74">
-        <v>2.21</v>
-      </c>
-      <c r="W74">
-        <v>1.66</v>
-      </c>
-      <c r="X74">
-        <v>5.5</v>
-      </c>
-      <c r="Y74">
-        <v>1.14</v>
-      </c>
-      <c r="Z74">
+      <c r="AQ74">
+        <v>0.8</v>
+      </c>
+      <c r="AR74">
+        <v>1.48</v>
+      </c>
+      <c r="AS74">
+        <v>0.67</v>
+      </c>
+      <c r="AT74">
+        <v>2.15</v>
+      </c>
+      <c r="AU74">
         <v>7</v>
       </c>
-      <c r="AA74">
-        <v>4.33</v>
-      </c>
-      <c r="AB74">
-        <v>1.48</v>
-      </c>
-      <c r="AC74">
-        <v>1.02</v>
-      </c>
-      <c r="AD74">
-        <v>20.5</v>
-      </c>
-      <c r="AE74">
-        <v>1.17</v>
-      </c>
-      <c r="AF74">
-        <v>5.2</v>
-      </c>
-      <c r="AG74">
-        <v>1.53</v>
-      </c>
-      <c r="AH74">
-        <v>2.5</v>
-      </c>
-      <c r="AI74">
-        <v>1.67</v>
-      </c>
-      <c r="AJ74">
-        <v>2.1</v>
-      </c>
-      <c r="AK74">
-        <v>2.65</v>
-      </c>
-      <c r="AL74">
-        <v>1.2</v>
-      </c>
-      <c r="AM74">
-        <v>1.14</v>
-      </c>
-      <c r="AN74">
-        <v>2.5</v>
-      </c>
-      <c r="AO74">
-        <v>3</v>
-      </c>
-      <c r="AP74">
-        <v>2.6</v>
-      </c>
-      <c r="AQ74">
-        <v>2.4</v>
-      </c>
-      <c r="AR74">
-        <v>1.49</v>
-      </c>
-      <c r="AS74">
-        <v>1.85</v>
-      </c>
-      <c r="AT74">
-        <v>3.34</v>
-      </c>
-      <c r="AU74">
-        <v>2</v>
-      </c>
       <c r="AV74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW74">
         <v>4</v>
       </c>
       <c r="AX74">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY74">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AZ74">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA74">
         <v>5</v>
       </c>
       <c r="BB74">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BC74">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD74">
-        <v>3.05</v>
+        <v>1.4</v>
       </c>
       <c r="BE74">
         <v>6.75</v>
       </c>
       <c r="BF74">
-        <v>1.47</v>
+        <v>3.3</v>
       </c>
       <c r="BG74">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="BH74">
-        <v>3.15</v>
+        <v>2.65</v>
       </c>
       <c r="BI74">
-        <v>1.52</v>
+        <v>1.67</v>
       </c>
       <c r="BJ74">
-        <v>2.33</v>
+        <v>2.05</v>
       </c>
       <c r="BK74">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="BL74">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="BM74">
-        <v>2.3</v>
+        <v>2.65</v>
       </c>
       <c r="BN74">
-        <v>1.54</v>
+        <v>1.4</v>
       </c>
       <c r="BO74">
-        <v>2.9</v>
+        <v>3.45</v>
       </c>
       <c r="BP74">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="75" spans="1:68">
@@ -16218,7 +16218,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7465083</v>
+        <v>7465079</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -16227,16 +16227,16 @@
         <v>69</v>
       </c>
       <c r="E75" s="2">
-        <v>45562.875</v>
+        <v>45563.5625</v>
       </c>
       <c r="F75">
         <v>8</v>
       </c>
       <c r="G75" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H75" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -16248,13 +16248,13 @@
         <v>1</v>
       </c>
       <c r="L75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
       <c r="N75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O75" t="s">
         <v>146</v>
@@ -16263,160 +16263,160 @@
         <v>104</v>
       </c>
       <c r="Q75">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="R75">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S75">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="T75">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="U75">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="V75">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="W75">
+        <v>1.25</v>
+      </c>
+      <c r="X75">
+        <v>11</v>
+      </c>
+      <c r="Y75">
+        <v>1.05</v>
+      </c>
+      <c r="Z75">
+        <v>1.9</v>
+      </c>
+      <c r="AA75">
+        <v>3.25</v>
+      </c>
+      <c r="AB75">
+        <v>4.5</v>
+      </c>
+      <c r="AC75">
+        <v>1.1</v>
+      </c>
+      <c r="AD75">
+        <v>6.5</v>
+      </c>
+      <c r="AE75">
+        <v>1.5</v>
+      </c>
+      <c r="AF75">
+        <v>2.55</v>
+      </c>
+      <c r="AG75">
+        <v>2.63</v>
+      </c>
+      <c r="AH75">
+        <v>1.5</v>
+      </c>
+      <c r="AI75">
+        <v>2.2</v>
+      </c>
+      <c r="AJ75">
+        <v>1.62</v>
+      </c>
+      <c r="AK75">
         <v>1.2</v>
       </c>
-      <c r="X75">
-        <v>15</v>
-      </c>
-      <c r="Y75">
-        <v>1.03</v>
-      </c>
-      <c r="Z75">
-        <v>2.56</v>
-      </c>
-      <c r="AA75">
-        <v>2.73</v>
-      </c>
-      <c r="AB75">
-        <v>3.28</v>
-      </c>
-      <c r="AC75">
+      <c r="AL75">
+        <v>1.28</v>
+      </c>
+      <c r="AM75">
+        <v>1.85</v>
+      </c>
+      <c r="AN75">
+        <v>0</v>
+      </c>
+      <c r="AO75">
+        <v>0</v>
+      </c>
+      <c r="AP75">
+        <v>0.75</v>
+      </c>
+      <c r="AQ75">
+        <v>0</v>
+      </c>
+      <c r="AR75">
         <v>1.11</v>
       </c>
-      <c r="AD75">
-        <v>5.5</v>
-      </c>
-      <c r="AE75">
-        <v>1.68</v>
-      </c>
-      <c r="AF75">
-        <v>2.2</v>
-      </c>
-      <c r="AG75">
-        <v>3.2</v>
-      </c>
-      <c r="AH75">
-        <v>1.36</v>
-      </c>
-      <c r="AI75">
-        <v>2.38</v>
-      </c>
-      <c r="AJ75">
-        <v>1.53</v>
-      </c>
-      <c r="AK75">
-        <v>1.38</v>
-      </c>
-      <c r="AL75">
-        <v>1.38</v>
-      </c>
-      <c r="AM75">
-        <v>1.52</v>
-      </c>
-      <c r="AN75">
-        <v>1</v>
-      </c>
-      <c r="AO75">
-        <v>0.75</v>
-      </c>
-      <c r="AP75">
-        <v>1.5</v>
-      </c>
-      <c r="AQ75">
-        <v>0.6</v>
-      </c>
-      <c r="AR75">
-        <v>1.14</v>
-      </c>
       <c r="AS75">
-        <v>1.51</v>
+        <v>0.9</v>
       </c>
       <c r="AT75">
-        <v>2.65</v>
+        <v>2.01</v>
       </c>
       <c r="AU75">
         <v>7</v>
       </c>
       <c r="AV75">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW75">
         <v>3</v>
       </c>
       <c r="AX75">
+        <v>3</v>
+      </c>
+      <c r="AY75">
+        <v>12</v>
+      </c>
+      <c r="AZ75">
+        <v>10</v>
+      </c>
+      <c r="BA75">
+        <v>6</v>
+      </c>
+      <c r="BB75">
         <v>4</v>
       </c>
-      <c r="AY75">
+      <c r="BC75">
         <v>10</v>
       </c>
-      <c r="AZ75">
-        <v>6</v>
-      </c>
-      <c r="BA75">
-        <v>2</v>
-      </c>
-      <c r="BB75">
-        <v>2</v>
-      </c>
-      <c r="BC75">
-        <v>4</v>
-      </c>
       <c r="BD75">
-        <v>1.92</v>
+        <v>1.4</v>
       </c>
       <c r="BE75">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="BF75">
+        <v>3.3</v>
+      </c>
+      <c r="BG75">
+        <v>1.38</v>
+      </c>
+      <c r="BH75">
+        <v>2.7</v>
+      </c>
+      <c r="BI75">
+        <v>1.65</v>
+      </c>
+      <c r="BJ75">
         <v>2.08</v>
       </c>
-      <c r="BG75">
+      <c r="BK75">
+        <v>2.05</v>
+      </c>
+      <c r="BL75">
+        <v>1.67</v>
+      </c>
+      <c r="BM75">
+        <v>2.63</v>
+      </c>
+      <c r="BN75">
         <v>1.41</v>
       </c>
-      <c r="BH75">
-        <v>2.63</v>
-      </c>
-      <c r="BI75">
-        <v>1.7</v>
-      </c>
-      <c r="BJ75">
-        <v>2</v>
-      </c>
-      <c r="BK75">
-        <v>2.14</v>
-      </c>
-      <c r="BL75">
-        <v>1.62</v>
-      </c>
-      <c r="BM75">
-        <v>2.75</v>
-      </c>
-      <c r="BN75">
-        <v>1.38</v>
-      </c>
       <c r="BO75">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="BP75">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="76" spans="1:68">
@@ -16424,7 +16424,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7465084</v>
+        <v>7465080</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -16433,136 +16433,136 @@
         <v>69</v>
       </c>
       <c r="E76" s="2">
-        <v>45562.875</v>
+        <v>45563.66666666666</v>
       </c>
       <c r="F76">
         <v>8</v>
       </c>
       <c r="G76" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="H76" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N76">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O76" t="s">
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="Q76">
-        <v>2.75</v>
+        <v>6.07</v>
       </c>
       <c r="R76">
-        <v>1.91</v>
+        <v>2.73</v>
       </c>
       <c r="S76">
+        <v>1.89</v>
+      </c>
+      <c r="T76">
+        <v>1.25</v>
+      </c>
+      <c r="U76">
+        <v>3.75</v>
+      </c>
+      <c r="V76">
+        <v>2.21</v>
+      </c>
+      <c r="W76">
+        <v>1.66</v>
+      </c>
+      <c r="X76">
         <v>5.5</v>
       </c>
-      <c r="T76">
-        <v>1.62</v>
-      </c>
-      <c r="U76">
-        <v>2.2</v>
-      </c>
-      <c r="V76">
-        <v>4</v>
-      </c>
-      <c r="W76">
-        <v>1.22</v>
-      </c>
-      <c r="X76">
-        <v>13</v>
-      </c>
       <c r="Y76">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="Z76">
-        <v>1.91</v>
+        <v>7</v>
       </c>
       <c r="AA76">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="AB76">
-        <v>4.75</v>
+        <v>1.48</v>
       </c>
       <c r="AC76">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="AD76">
-        <v>6.5</v>
+        <v>20.5</v>
       </c>
       <c r="AE76">
-        <v>1.61</v>
+        <v>1.17</v>
       </c>
       <c r="AF76">
-        <v>2.34</v>
+        <v>5.2</v>
       </c>
       <c r="AG76">
-        <v>3</v>
+        <v>1.53</v>
       </c>
       <c r="AH76">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="AI76">
-        <v>2.38</v>
+        <v>1.67</v>
       </c>
       <c r="AJ76">
-        <v>1.53</v>
+        <v>2.1</v>
       </c>
       <c r="AK76">
+        <v>2.65</v>
+      </c>
+      <c r="AL76">
         <v>1.2</v>
       </c>
-      <c r="AL76">
-        <v>1.32</v>
-      </c>
       <c r="AM76">
-        <v>1.88</v>
+        <v>1.14</v>
       </c>
       <c r="AN76">
-        <v>1.33</v>
+        <v>2.5</v>
       </c>
       <c r="AO76">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="AP76">
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
       <c r="AQ76">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="AR76">
         <v>1.49</v>
       </c>
       <c r="AS76">
-        <v>0.67</v>
+        <v>1.92</v>
       </c>
       <c r="AT76">
-        <v>2.16</v>
+        <v>3.41</v>
       </c>
       <c r="AU76">
         <v>6</v>
       </c>
       <c r="AV76">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW76">
         <v>6</v>
@@ -16571,58 +16571,58 @@
         <v>4</v>
       </c>
       <c r="AY76">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ76">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA76">
         <v>5</v>
       </c>
       <c r="BB76">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC76">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD76">
-        <v>1.4</v>
+        <v>3.05</v>
       </c>
       <c r="BE76">
         <v>6.75</v>
       </c>
       <c r="BF76">
-        <v>3.3</v>
+        <v>1.47</v>
       </c>
       <c r="BG76">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="BH76">
-        <v>2.65</v>
+        <v>3.15</v>
       </c>
       <c r="BI76">
-        <v>1.67</v>
+        <v>1.52</v>
       </c>
       <c r="BJ76">
-        <v>2.05</v>
+        <v>2.33</v>
       </c>
       <c r="BK76">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="BL76">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="BM76">
-        <v>2.65</v>
+        <v>2.3</v>
       </c>
       <c r="BN76">
-        <v>1.4</v>
+        <v>1.54</v>
       </c>
       <c r="BO76">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="BP76">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="77" spans="1:68">
@@ -16639,7 +16639,7 @@
         <v>69</v>
       </c>
       <c r="E77" s="2">
-        <v>45563.875</v>
+        <v>45564.375</v>
       </c>
       <c r="F77">
         <v>8</v>
@@ -16672,7 +16672,7 @@
         <v>148</v>
       </c>
       <c r="P77" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -16756,31 +16756,31 @@
         <v>1</v>
       </c>
       <c r="AR77">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AS77">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="AT77">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="AU77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY77">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ77">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA77">
         <v>4</v>
@@ -16836,7 +16836,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7469676</v>
+        <v>7465076</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -16845,196 +16845,196 @@
         <v>69</v>
       </c>
       <c r="E78" s="2">
-        <v>45563.875</v>
+        <v>45564.46875</v>
       </c>
       <c r="F78">
         <v>8</v>
       </c>
       <c r="G78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H78" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78">
         <v>1</v>
       </c>
       <c r="M78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O78" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="Q78">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="R78">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S78">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T78">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U78">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V78">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W78">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X78">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y78">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z78">
         <v>1.7</v>
       </c>
       <c r="AA78">
+        <v>3.7</v>
+      </c>
+      <c r="AB78">
+        <v>5</v>
+      </c>
+      <c r="AC78">
+        <v>1.05</v>
+      </c>
+      <c r="AD78">
+        <v>9</v>
+      </c>
+      <c r="AE78">
+        <v>1.33</v>
+      </c>
+      <c r="AF78">
         <v>3.3</v>
       </c>
-      <c r="AB78">
-        <v>5.5</v>
-      </c>
-      <c r="AC78">
-        <v>1.07</v>
-      </c>
-      <c r="AD78">
-        <v>9.5</v>
-      </c>
-      <c r="AE78">
-        <v>1.38</v>
-      </c>
-      <c r="AF78">
-        <v>3.1</v>
-      </c>
       <c r="AG78">
+        <v>1.99</v>
+      </c>
+      <c r="AH78">
+        <v>1.85</v>
+      </c>
+      <c r="AI78">
+        <v>1.95</v>
+      </c>
+      <c r="AJ78">
+        <v>1.8</v>
+      </c>
+      <c r="AK78">
+        <v>1.17</v>
+      </c>
+      <c r="AL78">
+        <v>1.22</v>
+      </c>
+      <c r="AM78">
         <v>2.1</v>
-      </c>
-      <c r="AH78">
-        <v>1.73</v>
-      </c>
-      <c r="AI78">
-        <v>2</v>
-      </c>
-      <c r="AJ78">
-        <v>1.75</v>
-      </c>
-      <c r="AK78">
-        <v>1.18</v>
-      </c>
-      <c r="AL78">
-        <v>1.32</v>
-      </c>
-      <c r="AM78">
-        <v>2.18</v>
       </c>
       <c r="AN78">
         <v>1.75</v>
       </c>
       <c r="AO78">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP78">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ78">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="AR78">
-        <v>1.68</v>
+        <v>1.15</v>
       </c>
       <c r="AS78">
-        <v>0.92</v>
+        <v>1.46</v>
       </c>
       <c r="AT78">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="AU78">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AV78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW78">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX78">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY78">
         <v>14</v>
       </c>
       <c r="AZ78">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BA78">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BB78">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC78">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD78">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="BE78">
         <v>7</v>
       </c>
       <c r="BF78">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="BG78">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="BH78">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="BI78">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="BJ78">
-        <v>2.35</v>
+        <v>2.48</v>
       </c>
       <c r="BK78">
+        <v>1.88</v>
+      </c>
+      <c r="BL78">
         <v>1.92</v>
       </c>
-      <c r="BL78">
-        <v>1.88</v>
-      </c>
       <c r="BM78">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="BN78">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="BO78">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="BP78">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="79" spans="1:68">
@@ -17042,7 +17042,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7465076</v>
+        <v>7469676</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -17051,196 +17051,196 @@
         <v>69</v>
       </c>
       <c r="E79" s="2">
-        <v>45563.875</v>
+        <v>45564.5625</v>
       </c>
       <c r="F79">
         <v>8</v>
       </c>
       <c r="G79" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H79" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79">
         <v>1</v>
       </c>
       <c r="M79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O79" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="P79" t="s">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="Q79">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R79">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S79">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T79">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U79">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V79">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W79">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X79">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y79">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z79">
         <v>1.7</v>
       </c>
       <c r="AA79">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="AB79">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AC79">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AD79">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE79">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AF79">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AG79">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="AH79">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="AI79">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AJ79">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AK79">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AL79">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AM79">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AN79">
         <v>1.75</v>
       </c>
       <c r="AO79">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="AP79">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AQ79">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AR79">
-        <v>1.11</v>
+        <v>1.68</v>
       </c>
       <c r="AS79">
-        <v>1.46</v>
+        <v>0.85</v>
       </c>
       <c r="AT79">
-        <v>2.57</v>
+        <v>2.53</v>
       </c>
       <c r="AU79">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AV79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY79">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AZ79">
         <v>9</v>
       </c>
       <c r="BA79">
+        <v>8</v>
+      </c>
+      <c r="BB79">
         <v>4</v>
       </c>
-      <c r="BB79">
-        <v>7</v>
-      </c>
       <c r="BC79">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD79">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="BE79">
         <v>7</v>
       </c>
       <c r="BF79">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="BG79">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="BH79">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="BI79">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="BJ79">
-        <v>2.48</v>
+        <v>2.35</v>
       </c>
       <c r="BK79">
+        <v>1.92</v>
+      </c>
+      <c r="BL79">
         <v>1.88</v>
       </c>
-      <c r="BL79">
-        <v>1.92</v>
-      </c>
       <c r="BM79">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="BN79">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="BO79">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="BP79">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="80" spans="1:68">
@@ -17257,7 +17257,7 @@
         <v>69</v>
       </c>
       <c r="E80" s="2">
-        <v>45563.875</v>
+        <v>45564.66666666666</v>
       </c>
       <c r="F80">
         <v>8</v>
@@ -17386,19 +17386,19 @@
         <v>5</v>
       </c>
       <c r="AV80">
+        <v>5</v>
+      </c>
+      <c r="AW80">
+        <v>2</v>
+      </c>
+      <c r="AX80">
         <v>4</v>
       </c>
-      <c r="AW80">
-        <v>2</v>
-      </c>
-      <c r="AX80">
-        <v>3</v>
-      </c>
       <c r="AY80">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AZ80">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BA80">
         <v>5</v>
@@ -17463,7 +17463,7 @@
         <v>69</v>
       </c>
       <c r="E81" s="2">
-        <v>45564.875</v>
+        <v>45565.66666666666</v>
       </c>
       <c r="F81">
         <v>8</v>
@@ -17580,31 +17580,31 @@
         <v>0</v>
       </c>
       <c r="AR81">
-        <v>1.71</v>
+        <v>1.59</v>
       </c>
       <c r="AS81">
         <v>1.45</v>
       </c>
       <c r="AT81">
-        <v>3.16</v>
+        <v>3.04</v>
       </c>
       <c r="AU81">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW81">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY81">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="AZ81">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA81">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="204">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -472,6 +472,18 @@
     <t>['45', '84', '90+7']</t>
   </si>
   <si>
+    <t>['18', '47']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['14', '73']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -602,6 +614,18 @@
   </si>
   <si>
     <t>['47']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['57', '80']</t>
   </si>
 </sst>
 </file>
@@ -963,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1222,7 +1246,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1428,7 +1452,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1634,7 +1658,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1840,7 +1864,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1918,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ5">
         <v>0.75</v>
@@ -2046,7 +2070,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2252,7 +2276,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2458,7 +2482,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2539,7 +2563,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ8">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2664,7 +2688,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2948,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>0.25</v>
@@ -3076,7 +3100,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3282,7 +3306,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3363,7 +3387,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR12">
         <v>1.07</v>
@@ -3488,7 +3512,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3569,7 +3593,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3775,7 +3799,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ14">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR14">
         <v>1.83</v>
@@ -3900,7 +3924,7 @@
         <v>103</v>
       </c>
       <c r="P15" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4184,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ16">
         <v>1.25</v>
@@ -4390,10 +4414,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ17">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4724,7 +4748,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5342,7 +5366,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5423,7 +5447,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR22">
         <v>1.08</v>
@@ -5754,7 +5778,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6041,7 +6065,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR25">
         <v>0.96</v>
@@ -6244,7 +6268,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <v>0.8</v>
@@ -6372,7 +6396,7 @@
         <v>111</v>
       </c>
       <c r="P27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q27">
         <v>2.3</v>
@@ -6865,7 +6889,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ29">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -6990,7 +7014,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -7068,7 +7092,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ30">
         <v>1.5</v>
@@ -7402,7 +7426,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7608,7 +7632,7 @@
         <v>115</v>
       </c>
       <c r="P33" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q33">
         <v>3.38</v>
@@ -7686,10 +7710,10 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ33">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR33">
         <v>1.22</v>
@@ -7814,7 +7838,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7895,7 +7919,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR34">
         <v>1.29</v>
@@ -8020,7 +8044,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q35">
         <v>3.22</v>
@@ -8101,7 +8125,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ35">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR35">
         <v>0.87</v>
@@ -8432,7 +8456,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -8513,7 +8537,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ37">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR37">
         <v>1.77</v>
@@ -8638,7 +8662,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -8922,7 +8946,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ39">
         <v>1.25</v>
@@ -9462,7 +9486,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9543,7 +9567,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ42">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR42">
         <v>1.48</v>
@@ -9668,7 +9692,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -9746,7 +9770,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ43">
         <v>0.6</v>
@@ -10080,7 +10104,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10286,7 +10310,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q46">
         <v>2.25</v>
@@ -10492,7 +10516,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10698,7 +10722,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -10776,7 +10800,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ48">
         <v>2</v>
@@ -10985,7 +11009,7 @@
         <v>2</v>
       </c>
       <c r="AQ49">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR49">
         <v>1.74</v>
@@ -11191,7 +11215,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ50">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR50">
         <v>1.14</v>
@@ -11522,7 +11546,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11728,7 +11752,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12218,7 +12242,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
         <v>1.25</v>
@@ -12346,7 +12370,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12758,7 +12782,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q58">
         <v>1.51</v>
@@ -12964,7 +12988,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q59">
         <v>2.9</v>
@@ -13042,7 +13066,7 @@
         <v>0.67</v>
       </c>
       <c r="AP59">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ59">
         <v>0.8</v>
@@ -13170,7 +13194,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13251,7 +13275,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ60">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR60">
         <v>1.11</v>
@@ -13376,7 +13400,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13582,7 +13606,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -13788,7 +13812,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -13869,7 +13893,7 @@
         <v>2</v>
       </c>
       <c r="AQ63">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR63">
         <v>1.68</v>
@@ -14075,7 +14099,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ64">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR64">
         <v>1.24</v>
@@ -14200,7 +14224,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14406,7 +14430,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -14693,7 +14717,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ67">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR67">
         <v>1.32</v>
@@ -15024,7 +15048,7 @@
         <v>109</v>
       </c>
       <c r="P69" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q69">
         <v>3.75</v>
@@ -15102,7 +15126,7 @@
         <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ69">
         <v>0.67</v>
@@ -15230,7 +15254,7 @@
         <v>142</v>
       </c>
       <c r="P70" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15308,10 +15332,10 @@
         <v>2.33</v>
       </c>
       <c r="AP70">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ70">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR70">
         <v>1.13</v>
@@ -15436,7 +15460,7 @@
         <v>104</v>
       </c>
       <c r="P71" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15642,7 +15666,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -15720,10 +15744,10 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ72">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR72">
         <v>1.16</v>
@@ -15926,7 +15950,7 @@
         <v>0.75</v>
       </c>
       <c r="AP73">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ73">
         <v>0.6</v>
@@ -16341,7 +16365,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ75">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR75">
         <v>1.11</v>
@@ -16466,7 +16490,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -16878,7 +16902,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17290,7 +17314,7 @@
         <v>150</v>
       </c>
       <c r="P80" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -17496,7 +17520,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -17653,6 +17677,1242 @@
       </c>
       <c r="BP81">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7465088</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45568.875</v>
+      </c>
+      <c r="F82">
+        <v>9</v>
+      </c>
+      <c r="G82" t="s">
+        <v>85</v>
+      </c>
+      <c r="H82" t="s">
+        <v>75</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82" t="s">
+        <v>104</v>
+      </c>
+      <c r="P82" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q82">
+        <v>3.75</v>
+      </c>
+      <c r="R82">
+        <v>1.83</v>
+      </c>
+      <c r="S82">
+        <v>3.75</v>
+      </c>
+      <c r="T82">
+        <v>1.67</v>
+      </c>
+      <c r="U82">
+        <v>2.1</v>
+      </c>
+      <c r="V82">
+        <v>4.33</v>
+      </c>
+      <c r="W82">
+        <v>1.2</v>
+      </c>
+      <c r="X82">
+        <v>15</v>
+      </c>
+      <c r="Y82">
+        <v>1.03</v>
+      </c>
+      <c r="Z82">
+        <v>2.88</v>
+      </c>
+      <c r="AA82">
+        <v>2.88</v>
+      </c>
+      <c r="AB82">
+        <v>2.8</v>
+      </c>
+      <c r="AC82">
+        <v>1.14</v>
+      </c>
+      <c r="AD82">
+        <v>5.5</v>
+      </c>
+      <c r="AE82">
+        <v>1.6</v>
+      </c>
+      <c r="AF82">
+        <v>2.2</v>
+      </c>
+      <c r="AG82">
+        <v>3.2</v>
+      </c>
+      <c r="AH82">
+        <v>1.36</v>
+      </c>
+      <c r="AI82">
+        <v>2.25</v>
+      </c>
+      <c r="AJ82">
+        <v>1.57</v>
+      </c>
+      <c r="AK82">
+        <v>1.42</v>
+      </c>
+      <c r="AL82">
+        <v>1.36</v>
+      </c>
+      <c r="AM82">
+        <v>1.4</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
+        <v>0</v>
+      </c>
+      <c r="AP82">
+        <v>1</v>
+      </c>
+      <c r="AQ82">
+        <v>0.2</v>
+      </c>
+      <c r="AR82">
+        <v>1.25</v>
+      </c>
+      <c r="AS82">
+        <v>0.96</v>
+      </c>
+      <c r="AT82">
+        <v>2.21</v>
+      </c>
+      <c r="AU82">
+        <v>0</v>
+      </c>
+      <c r="AV82">
+        <v>2</v>
+      </c>
+      <c r="AW82">
+        <v>5</v>
+      </c>
+      <c r="AX82">
+        <v>3</v>
+      </c>
+      <c r="AY82">
+        <v>5</v>
+      </c>
+      <c r="AZ82">
+        <v>5</v>
+      </c>
+      <c r="BA82">
+        <v>1</v>
+      </c>
+      <c r="BB82">
+        <v>2</v>
+      </c>
+      <c r="BC82">
+        <v>3</v>
+      </c>
+      <c r="BD82">
+        <v>1.94</v>
+      </c>
+      <c r="BE82">
+        <v>6.25</v>
+      </c>
+      <c r="BF82">
+        <v>2.07</v>
+      </c>
+      <c r="BG82">
+        <v>1.46</v>
+      </c>
+      <c r="BH82">
+        <v>2.5</v>
+      </c>
+      <c r="BI82">
+        <v>1.77</v>
+      </c>
+      <c r="BJ82">
+        <v>1.92</v>
+      </c>
+      <c r="BK82">
+        <v>2.23</v>
+      </c>
+      <c r="BL82">
+        <v>1.56</v>
+      </c>
+      <c r="BM82">
+        <v>2.9</v>
+      </c>
+      <c r="BN82">
+        <v>1.34</v>
+      </c>
+      <c r="BO82">
+        <v>3.9</v>
+      </c>
+      <c r="BP82">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7469579</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45569.875</v>
+      </c>
+      <c r="F83">
+        <v>9</v>
+      </c>
+      <c r="G83" t="s">
+        <v>82</v>
+      </c>
+      <c r="H83" t="s">
+        <v>77</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>2</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>3</v>
+      </c>
+      <c r="O83" t="s">
+        <v>152</v>
+      </c>
+      <c r="P83" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q83">
+        <v>4</v>
+      </c>
+      <c r="R83">
+        <v>1.91</v>
+      </c>
+      <c r="S83">
+        <v>3.4</v>
+      </c>
+      <c r="T83">
+        <v>1.57</v>
+      </c>
+      <c r="U83">
+        <v>2.25</v>
+      </c>
+      <c r="V83">
+        <v>3.75</v>
+      </c>
+      <c r="W83">
+        <v>1.25</v>
+      </c>
+      <c r="X83">
+        <v>13</v>
+      </c>
+      <c r="Y83">
+        <v>1.04</v>
+      </c>
+      <c r="Z83">
+        <v>3</v>
+      </c>
+      <c r="AA83">
+        <v>2.9</v>
+      </c>
+      <c r="AB83">
+        <v>2.5</v>
+      </c>
+      <c r="AC83">
+        <v>1.13</v>
+      </c>
+      <c r="AD83">
+        <v>6.5</v>
+      </c>
+      <c r="AE83">
+        <v>1.55</v>
+      </c>
+      <c r="AF83">
+        <v>2.3</v>
+      </c>
+      <c r="AG83">
+        <v>2.75</v>
+      </c>
+      <c r="AH83">
+        <v>1.44</v>
+      </c>
+      <c r="AI83">
+        <v>2.1</v>
+      </c>
+      <c r="AJ83">
+        <v>1.67</v>
+      </c>
+      <c r="AK83">
+        <v>1.54</v>
+      </c>
+      <c r="AL83">
+        <v>1.43</v>
+      </c>
+      <c r="AM83">
+        <v>1.38</v>
+      </c>
+      <c r="AN83">
+        <v>1.5</v>
+      </c>
+      <c r="AO83">
+        <v>2.25</v>
+      </c>
+      <c r="AP83">
+        <v>1.8</v>
+      </c>
+      <c r="AQ83">
+        <v>1.8</v>
+      </c>
+      <c r="AR83">
+        <v>1.07</v>
+      </c>
+      <c r="AS83">
+        <v>1.28</v>
+      </c>
+      <c r="AT83">
+        <v>2.35</v>
+      </c>
+      <c r="AU83">
+        <v>2</v>
+      </c>
+      <c r="AV83">
+        <v>4</v>
+      </c>
+      <c r="AW83">
+        <v>5</v>
+      </c>
+      <c r="AX83">
+        <v>0</v>
+      </c>
+      <c r="AY83">
+        <v>7</v>
+      </c>
+      <c r="AZ83">
+        <v>4</v>
+      </c>
+      <c r="BA83">
+        <v>4</v>
+      </c>
+      <c r="BB83">
+        <v>6</v>
+      </c>
+      <c r="BC83">
+        <v>10</v>
+      </c>
+      <c r="BD83">
+        <v>2.1</v>
+      </c>
+      <c r="BE83">
+        <v>6.4</v>
+      </c>
+      <c r="BF83">
+        <v>1.9</v>
+      </c>
+      <c r="BG83">
+        <v>1.37</v>
+      </c>
+      <c r="BH83">
+        <v>2.8</v>
+      </c>
+      <c r="BI83">
+        <v>1.65</v>
+      </c>
+      <c r="BJ83">
+        <v>2.08</v>
+      </c>
+      <c r="BK83">
+        <v>2.02</v>
+      </c>
+      <c r="BL83">
+        <v>1.68</v>
+      </c>
+      <c r="BM83">
+        <v>2.55</v>
+      </c>
+      <c r="BN83">
+        <v>1.43</v>
+      </c>
+      <c r="BO83">
+        <v>3.4</v>
+      </c>
+      <c r="BP83">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7465085</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45570.46875</v>
+      </c>
+      <c r="F84">
+        <v>9</v>
+      </c>
+      <c r="G84" t="s">
+        <v>83</v>
+      </c>
+      <c r="H84" t="s">
+        <v>74</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>2</v>
+      </c>
+      <c r="O84" t="s">
+        <v>153</v>
+      </c>
+      <c r="P84" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q84">
+        <v>3.1</v>
+      </c>
+      <c r="R84">
+        <v>1.83</v>
+      </c>
+      <c r="S84">
+        <v>4.75</v>
+      </c>
+      <c r="T84">
+        <v>1.67</v>
+      </c>
+      <c r="U84">
+        <v>2.1</v>
+      </c>
+      <c r="V84">
+        <v>4.33</v>
+      </c>
+      <c r="W84">
+        <v>1.2</v>
+      </c>
+      <c r="X84">
+        <v>15</v>
+      </c>
+      <c r="Y84">
+        <v>1.03</v>
+      </c>
+      <c r="Z84">
+        <v>2.2</v>
+      </c>
+      <c r="AA84">
+        <v>2.9</v>
+      </c>
+      <c r="AB84">
+        <v>3.9</v>
+      </c>
+      <c r="AC84">
+        <v>1.14</v>
+      </c>
+      <c r="AD84">
+        <v>6</v>
+      </c>
+      <c r="AE84">
+        <v>1.61</v>
+      </c>
+      <c r="AF84">
+        <v>2.15</v>
+      </c>
+      <c r="AG84">
+        <v>3.2</v>
+      </c>
+      <c r="AH84">
+        <v>1.36</v>
+      </c>
+      <c r="AI84">
+        <v>2.38</v>
+      </c>
+      <c r="AJ84">
+        <v>1.53</v>
+      </c>
+      <c r="AK84">
+        <v>1.28</v>
+      </c>
+      <c r="AL84">
+        <v>1.35</v>
+      </c>
+      <c r="AM84">
+        <v>1.68</v>
+      </c>
+      <c r="AN84">
+        <v>1.5</v>
+      </c>
+      <c r="AO84">
+        <v>0.33</v>
+      </c>
+      <c r="AP84">
+        <v>1.4</v>
+      </c>
+      <c r="AQ84">
+        <v>0.5</v>
+      </c>
+      <c r="AR84">
+        <v>1.3</v>
+      </c>
+      <c r="AS84">
+        <v>0.71</v>
+      </c>
+      <c r="AT84">
+        <v>2.01</v>
+      </c>
+      <c r="AU84">
+        <v>5</v>
+      </c>
+      <c r="AV84">
+        <v>3</v>
+      </c>
+      <c r="AW84">
+        <v>4</v>
+      </c>
+      <c r="AX84">
+        <v>4</v>
+      </c>
+      <c r="AY84">
+        <v>13</v>
+      </c>
+      <c r="AZ84">
+        <v>7</v>
+      </c>
+      <c r="BA84">
+        <v>4</v>
+      </c>
+      <c r="BB84">
+        <v>2</v>
+      </c>
+      <c r="BC84">
+        <v>6</v>
+      </c>
+      <c r="BD84">
+        <v>1.62</v>
+      </c>
+      <c r="BE84">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF84">
+        <v>2.86</v>
+      </c>
+      <c r="BG84">
+        <v>1.43</v>
+      </c>
+      <c r="BH84">
+        <v>2.58</v>
+      </c>
+      <c r="BI84">
+        <v>1.81</v>
+      </c>
+      <c r="BJ84">
+        <v>1.95</v>
+      </c>
+      <c r="BK84">
+        <v>2.31</v>
+      </c>
+      <c r="BL84">
+        <v>1.53</v>
+      </c>
+      <c r="BM84">
+        <v>3.02</v>
+      </c>
+      <c r="BN84">
+        <v>1.27</v>
+      </c>
+      <c r="BO84">
+        <v>4.33</v>
+      </c>
+      <c r="BP84">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7465092</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45570.5625</v>
+      </c>
+      <c r="F85">
+        <v>9</v>
+      </c>
+      <c r="G85" t="s">
+        <v>73</v>
+      </c>
+      <c r="H85" t="s">
+        <v>72</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85" t="s">
+        <v>104</v>
+      </c>
+      <c r="P85" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q85">
+        <v>3.6</v>
+      </c>
+      <c r="R85">
+        <v>2.25</v>
+      </c>
+      <c r="S85">
+        <v>2.88</v>
+      </c>
+      <c r="T85">
+        <v>1.36</v>
+      </c>
+      <c r="U85">
+        <v>3</v>
+      </c>
+      <c r="V85">
+        <v>2.63</v>
+      </c>
+      <c r="W85">
+        <v>1.44</v>
+      </c>
+      <c r="X85">
+        <v>7</v>
+      </c>
+      <c r="Y85">
+        <v>1.1</v>
+      </c>
+      <c r="Z85">
+        <v>3.2</v>
+      </c>
+      <c r="AA85">
+        <v>3.5</v>
+      </c>
+      <c r="AB85">
+        <v>2.2</v>
+      </c>
+      <c r="AC85">
+        <v>1.01</v>
+      </c>
+      <c r="AD85">
+        <v>11</v>
+      </c>
+      <c r="AE85">
+        <v>1.2</v>
+      </c>
+      <c r="AF85">
+        <v>4</v>
+      </c>
+      <c r="AG85">
+        <v>1.73</v>
+      </c>
+      <c r="AH85">
+        <v>2.1</v>
+      </c>
+      <c r="AI85">
+        <v>1.62</v>
+      </c>
+      <c r="AJ85">
+        <v>2.2</v>
+      </c>
+      <c r="AK85">
+        <v>1.58</v>
+      </c>
+      <c r="AL85">
+        <v>1.28</v>
+      </c>
+      <c r="AM85">
+        <v>1.44</v>
+      </c>
+      <c r="AN85">
+        <v>0.75</v>
+      </c>
+      <c r="AO85">
+        <v>0</v>
+      </c>
+      <c r="AP85">
+        <v>0.6</v>
+      </c>
+      <c r="AQ85">
+        <v>0.75</v>
+      </c>
+      <c r="AR85">
+        <v>1.24</v>
+      </c>
+      <c r="AS85">
+        <v>1.52</v>
+      </c>
+      <c r="AT85">
+        <v>2.76</v>
+      </c>
+      <c r="AU85">
+        <v>6</v>
+      </c>
+      <c r="AV85">
+        <v>2</v>
+      </c>
+      <c r="AW85">
+        <v>11</v>
+      </c>
+      <c r="AX85">
+        <v>5</v>
+      </c>
+      <c r="AY85">
+        <v>26</v>
+      </c>
+      <c r="AZ85">
+        <v>9</v>
+      </c>
+      <c r="BA85">
+        <v>11</v>
+      </c>
+      <c r="BB85">
+        <v>2</v>
+      </c>
+      <c r="BC85">
+        <v>13</v>
+      </c>
+      <c r="BD85">
+        <v>2.16</v>
+      </c>
+      <c r="BE85">
+        <v>6.45</v>
+      </c>
+      <c r="BF85">
+        <v>2.13</v>
+      </c>
+      <c r="BG85">
+        <v>1.26</v>
+      </c>
+      <c r="BH85">
+        <v>3.08</v>
+      </c>
+      <c r="BI85">
+        <v>1.54</v>
+      </c>
+      <c r="BJ85">
+        <v>2.28</v>
+      </c>
+      <c r="BK85">
+        <v>1.97</v>
+      </c>
+      <c r="BL85">
+        <v>1.8</v>
+      </c>
+      <c r="BM85">
+        <v>2.53</v>
+      </c>
+      <c r="BN85">
+        <v>1.44</v>
+      </c>
+      <c r="BO85">
+        <v>3.35</v>
+      </c>
+      <c r="BP85">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7465093</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45570.5625</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" t="s">
+        <v>78</v>
+      </c>
+      <c r="H86" t="s">
+        <v>88</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86">
+        <v>3</v>
+      </c>
+      <c r="O86" t="s">
+        <v>154</v>
+      </c>
+      <c r="P86" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q86">
+        <v>3.75</v>
+      </c>
+      <c r="R86">
+        <v>1.91</v>
+      </c>
+      <c r="S86">
+        <v>3.4</v>
+      </c>
+      <c r="T86">
+        <v>1.57</v>
+      </c>
+      <c r="U86">
+        <v>2.25</v>
+      </c>
+      <c r="V86">
+        <v>3.75</v>
+      </c>
+      <c r="W86">
+        <v>1.25</v>
+      </c>
+      <c r="X86">
+        <v>11</v>
+      </c>
+      <c r="Y86">
+        <v>1.05</v>
+      </c>
+      <c r="Z86">
+        <v>3.1</v>
+      </c>
+      <c r="AA86">
+        <v>3</v>
+      </c>
+      <c r="AB86">
+        <v>2.55</v>
+      </c>
+      <c r="AC86">
+        <v>1.05</v>
+      </c>
+      <c r="AD86">
+        <v>6</v>
+      </c>
+      <c r="AE86">
+        <v>1.5</v>
+      </c>
+      <c r="AF86">
+        <v>2.45</v>
+      </c>
+      <c r="AG86">
+        <v>2.63</v>
+      </c>
+      <c r="AH86">
+        <v>1.5</v>
+      </c>
+      <c r="AI86">
+        <v>2.05</v>
+      </c>
+      <c r="AJ86">
+        <v>1.7</v>
+      </c>
+      <c r="AK86">
+        <v>1.5</v>
+      </c>
+      <c r="AL86">
+        <v>1.33</v>
+      </c>
+      <c r="AM86">
+        <v>1.44</v>
+      </c>
+      <c r="AN86">
+        <v>1.25</v>
+      </c>
+      <c r="AO86">
+        <v>1.25</v>
+      </c>
+      <c r="AP86">
+        <v>1</v>
+      </c>
+      <c r="AQ86">
+        <v>1.6</v>
+      </c>
+      <c r="AR86">
+        <v>1.15</v>
+      </c>
+      <c r="AS86">
+        <v>0.96</v>
+      </c>
+      <c r="AT86">
+        <v>2.11</v>
+      </c>
+      <c r="AU86">
+        <v>7</v>
+      </c>
+      <c r="AV86">
+        <v>4</v>
+      </c>
+      <c r="AW86">
+        <v>5</v>
+      </c>
+      <c r="AX86">
+        <v>8</v>
+      </c>
+      <c r="AY86">
+        <v>15</v>
+      </c>
+      <c r="AZ86">
+        <v>18</v>
+      </c>
+      <c r="BA86">
+        <v>5</v>
+      </c>
+      <c r="BB86">
+        <v>13</v>
+      </c>
+      <c r="BC86">
+        <v>18</v>
+      </c>
+      <c r="BD86">
+        <v>1.95</v>
+      </c>
+      <c r="BE86">
+        <v>6.25</v>
+      </c>
+      <c r="BF86">
+        <v>2.07</v>
+      </c>
+      <c r="BG86">
+        <v>1.41</v>
+      </c>
+      <c r="BH86">
+        <v>2.65</v>
+      </c>
+      <c r="BI86">
+        <v>1.68</v>
+      </c>
+      <c r="BJ86">
+        <v>2.02</v>
+      </c>
+      <c r="BK86">
+        <v>2.1</v>
+      </c>
+      <c r="BL86">
+        <v>1.64</v>
+      </c>
+      <c r="BM86">
+        <v>2.7</v>
+      </c>
+      <c r="BN86">
+        <v>1.4</v>
+      </c>
+      <c r="BO86">
+        <v>3.65</v>
+      </c>
+      <c r="BP86">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7465086</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45570.66666666666</v>
+      </c>
+      <c r="F87">
+        <v>9</v>
+      </c>
+      <c r="G87" t="s">
+        <v>84</v>
+      </c>
+      <c r="H87" t="s">
+        <v>79</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>2</v>
+      </c>
+      <c r="O87" t="s">
+        <v>155</v>
+      </c>
+      <c r="P87" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q87">
+        <v>1.62</v>
+      </c>
+      <c r="R87">
+        <v>3</v>
+      </c>
+      <c r="S87">
+        <v>7.5</v>
+      </c>
+      <c r="T87">
+        <v>1.18</v>
+      </c>
+      <c r="U87">
+        <v>4.5</v>
+      </c>
+      <c r="V87">
+        <v>1.83</v>
+      </c>
+      <c r="W87">
+        <v>1.83</v>
+      </c>
+      <c r="X87">
+        <v>3.75</v>
+      </c>
+      <c r="Y87">
+        <v>1.25</v>
+      </c>
+      <c r="Z87">
+        <v>1.29</v>
+      </c>
+      <c r="AA87">
+        <v>6.87</v>
+      </c>
+      <c r="AB87">
+        <v>10.8</v>
+      </c>
+      <c r="AC87">
+        <v>1.01</v>
+      </c>
+      <c r="AD87">
+        <v>14.9</v>
+      </c>
+      <c r="AE87">
+        <v>1.04</v>
+      </c>
+      <c r="AF87">
+        <v>6.45</v>
+      </c>
+      <c r="AG87">
+        <v>1.3</v>
+      </c>
+      <c r="AH87">
+        <v>3.5</v>
+      </c>
+      <c r="AI87">
+        <v>1.67</v>
+      </c>
+      <c r="AJ87">
+        <v>2.1</v>
+      </c>
+      <c r="AK87">
+        <v>1.08</v>
+      </c>
+      <c r="AL87">
+        <v>1.13</v>
+      </c>
+      <c r="AM87">
+        <v>4.15</v>
+      </c>
+      <c r="AN87">
+        <v>3</v>
+      </c>
+      <c r="AO87">
+        <v>2.5</v>
+      </c>
+      <c r="AP87">
+        <v>3</v>
+      </c>
+      <c r="AQ87">
+        <v>2</v>
+      </c>
+      <c r="AR87">
+        <v>2.14</v>
+      </c>
+      <c r="AS87">
+        <v>1.3</v>
+      </c>
+      <c r="AT87">
+        <v>3.44</v>
+      </c>
+      <c r="AU87">
+        <v>3</v>
+      </c>
+      <c r="AV87">
+        <v>2</v>
+      </c>
+      <c r="AW87">
+        <v>5</v>
+      </c>
+      <c r="AX87">
+        <v>8</v>
+      </c>
+      <c r="AY87">
+        <v>12</v>
+      </c>
+      <c r="AZ87">
+        <v>13</v>
+      </c>
+      <c r="BA87">
+        <v>2</v>
+      </c>
+      <c r="BB87">
+        <v>5</v>
+      </c>
+      <c r="BC87">
+        <v>7</v>
+      </c>
+      <c r="BD87">
+        <v>1.19</v>
+      </c>
+      <c r="BE87">
+        <v>8.5</v>
+      </c>
+      <c r="BF87">
+        <v>4.9</v>
+      </c>
+      <c r="BG87">
+        <v>1.21</v>
+      </c>
+      <c r="BH87">
+        <v>3.8</v>
+      </c>
+      <c r="BI87">
+        <v>1.38</v>
+      </c>
+      <c r="BJ87">
+        <v>2.75</v>
+      </c>
+      <c r="BK87">
+        <v>1.63</v>
+      </c>
+      <c r="BL87">
+        <v>2.12</v>
+      </c>
+      <c r="BM87">
+        <v>1.98</v>
+      </c>
+      <c r="BN87">
+        <v>1.72</v>
+      </c>
+      <c r="BO87">
+        <v>2.48</v>
+      </c>
+      <c r="BP87">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="208">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -484,6 +484,15 @@
     <t>['14', '73']</t>
   </si>
   <si>
+    <t>['39', '90+9']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -562,9 +571,6 @@
     <t>['58', '75']</t>
   </si>
   <si>
-    <t>['50']</t>
-  </si>
-  <si>
     <t>['30', '37', '47', '64']</t>
   </si>
   <si>
@@ -626,6 +632,12 @@
   </si>
   <si>
     <t>['57', '80']</t>
+  </si>
+  <si>
+    <t>['7', '22', '32']</t>
+  </si>
+  <si>
+    <t>['1']</t>
   </si>
 </sst>
 </file>
@@ -987,7 +999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP87"/>
+  <dimension ref="A1:BP91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1246,7 +1258,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1452,7 +1464,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1658,7 +1670,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1864,7 +1876,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2070,7 +2082,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2276,7 +2288,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2357,7 +2369,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ7">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2482,7 +2494,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2560,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ8">
         <v>1.6</v>
@@ -2688,7 +2700,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3100,7 +3112,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3181,7 +3193,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3306,7 +3318,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3512,7 +3524,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3590,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ13">
         <v>2</v>
@@ -3924,7 +3936,7 @@
         <v>103</v>
       </c>
       <c r="P15" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4005,7 +4017,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4748,7 +4760,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5032,10 +5044,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ20">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5366,7 +5378,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5778,7 +5790,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -5859,7 +5871,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ24">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6396,7 +6408,7 @@
         <v>111</v>
       </c>
       <c r="P27" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q27">
         <v>2.3</v>
@@ -6474,7 +6486,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ27">
         <v>0.6</v>
@@ -6886,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ29">
         <v>0.5</v>
@@ -7014,7 +7026,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -7426,7 +7438,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7507,7 +7519,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ32">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR32">
         <v>1.11</v>
@@ -7632,7 +7644,7 @@
         <v>115</v>
       </c>
       <c r="P33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q33">
         <v>3.38</v>
@@ -7838,7 +7850,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -8044,7 +8056,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q35">
         <v>3.22</v>
@@ -8328,7 +8340,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ36">
         <v>0</v>
@@ -8456,7 +8468,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -8662,7 +8674,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -8740,7 +8752,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ38">
         <v>1</v>
@@ -9155,7 +9167,7 @@
         <v>3</v>
       </c>
       <c r="AQ40">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR40">
         <v>2.11</v>
@@ -9486,7 +9498,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9692,7 +9704,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -9976,7 +9988,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ44">
         <v>0.25</v>
@@ -10104,7 +10116,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10182,7 +10194,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ45">
         <v>1.5</v>
@@ -10310,7 +10322,7 @@
         <v>123</v>
       </c>
       <c r="P46" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="Q46">
         <v>2.25</v>
@@ -10516,7 +10528,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10594,10 +10606,10 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ47">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR47">
         <v>1.41</v>
@@ -10722,7 +10734,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -10803,7 +10815,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ48">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR48">
         <v>1.22</v>
@@ -11546,7 +11558,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11752,7 +11764,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11833,7 +11845,7 @@
         <v>1</v>
       </c>
       <c r="AQ53">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR53">
         <v>1.17</v>
@@ -12036,7 +12048,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ54">
         <v>0.75</v>
@@ -12370,7 +12382,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12782,7 +12794,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q58">
         <v>1.51</v>
@@ -12988,7 +13000,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q59">
         <v>2.9</v>
@@ -13194,7 +13206,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13400,7 +13412,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13481,7 +13493,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ61">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR61">
         <v>1.71</v>
@@ -13606,7 +13618,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -13687,7 +13699,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ62">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR62">
         <v>1.49</v>
@@ -13812,7 +13824,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -14224,7 +14236,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14302,7 +14314,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ65">
         <v>0</v>
@@ -14430,7 +14442,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -14714,7 +14726,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ67">
         <v>1.6</v>
@@ -15048,7 +15060,7 @@
         <v>109</v>
       </c>
       <c r="P69" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q69">
         <v>3.75</v>
@@ -15129,7 +15141,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ69">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR69">
         <v>1.36</v>
@@ -15254,7 +15266,7 @@
         <v>142</v>
       </c>
       <c r="P70" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15460,7 +15472,7 @@
         <v>104</v>
       </c>
       <c r="P71" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15541,7 +15553,7 @@
         <v>2</v>
       </c>
       <c r="AQ71">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR71">
         <v>1.29</v>
@@ -15666,7 +15678,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16362,7 +16374,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AQ75">
         <v>0.2</v>
@@ -16490,7 +16502,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -16571,7 +16583,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ76">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR76">
         <v>1.49</v>
@@ -16902,7 +16914,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17314,7 +17326,7 @@
         <v>150</v>
       </c>
       <c r="P80" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -17520,7 +17532,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -17693,7 +17705,7 @@
         <v>69</v>
       </c>
       <c r="E82" s="2">
-        <v>45568.875</v>
+        <v>45569.66666666666</v>
       </c>
       <c r="F82">
         <v>9</v>
@@ -17828,13 +17840,13 @@
         <v>5</v>
       </c>
       <c r="AX82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY82">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ82">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA82">
         <v>1</v>
@@ -17899,7 +17911,7 @@
         <v>69</v>
       </c>
       <c r="E83" s="2">
-        <v>45569.875</v>
+        <v>45570.375</v>
       </c>
       <c r="F83">
         <v>9</v>
@@ -17932,7 +17944,7 @@
         <v>152</v>
       </c>
       <c r="P83" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18025,22 +18037,22 @@
         <v>2.35</v>
       </c>
       <c r="AU83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV83">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW83">
         <v>5</v>
       </c>
       <c r="AX83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY83">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ83">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BA83">
         <v>4</v>
@@ -18138,7 +18150,7 @@
         <v>153</v>
       </c>
       <c r="P84" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -18344,7 +18356,7 @@
         <v>104</v>
       </c>
       <c r="P85" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q85">
         <v>3.6</v>
@@ -18520,7 +18532,7 @@
         <v>45570.5625</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G86" t="s">
         <v>78</v>
@@ -18550,7 +18562,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -18913,6 +18925,830 @@
       </c>
       <c r="BP87">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7465089</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45571.375</v>
+      </c>
+      <c r="F88">
+        <v>9</v>
+      </c>
+      <c r="G88" t="s">
+        <v>89</v>
+      </c>
+      <c r="H88" t="s">
+        <v>70</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>2</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>3</v>
+      </c>
+      <c r="O88" t="s">
+        <v>156</v>
+      </c>
+      <c r="P88" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q88">
+        <v>2.88</v>
+      </c>
+      <c r="R88">
+        <v>2.1</v>
+      </c>
+      <c r="S88">
+        <v>3.75</v>
+      </c>
+      <c r="T88">
+        <v>1.4</v>
+      </c>
+      <c r="U88">
+        <v>2.75</v>
+      </c>
+      <c r="V88">
+        <v>3</v>
+      </c>
+      <c r="W88">
+        <v>1.36</v>
+      </c>
+      <c r="X88">
+        <v>8</v>
+      </c>
+      <c r="Y88">
+        <v>1.08</v>
+      </c>
+      <c r="Z88">
+        <v>2.3</v>
+      </c>
+      <c r="AA88">
+        <v>3.3</v>
+      </c>
+      <c r="AB88">
+        <v>3.2</v>
+      </c>
+      <c r="AC88">
+        <v>1.02</v>
+      </c>
+      <c r="AD88">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE88">
+        <v>1.27</v>
+      </c>
+      <c r="AF88">
+        <v>3.15</v>
+      </c>
+      <c r="AG88">
+        <v>2</v>
+      </c>
+      <c r="AH88">
+        <v>1.8</v>
+      </c>
+      <c r="AI88">
+        <v>1.75</v>
+      </c>
+      <c r="AJ88">
+        <v>2</v>
+      </c>
+      <c r="AK88">
+        <v>1.4</v>
+      </c>
+      <c r="AL88">
+        <v>1.28</v>
+      </c>
+      <c r="AM88">
+        <v>1.58</v>
+      </c>
+      <c r="AN88">
+        <v>1.33</v>
+      </c>
+      <c r="AO88">
+        <v>2</v>
+      </c>
+      <c r="AP88">
+        <v>1.75</v>
+      </c>
+      <c r="AQ88">
+        <v>1.5</v>
+      </c>
+      <c r="AR88">
+        <v>1.28</v>
+      </c>
+      <c r="AS88">
+        <v>1.12</v>
+      </c>
+      <c r="AT88">
+        <v>2.4</v>
+      </c>
+      <c r="AU88">
+        <v>7</v>
+      </c>
+      <c r="AV88">
+        <v>5</v>
+      </c>
+      <c r="AW88">
+        <v>5</v>
+      </c>
+      <c r="AX88">
+        <v>6</v>
+      </c>
+      <c r="AY88">
+        <v>15</v>
+      </c>
+      <c r="AZ88">
+        <v>14</v>
+      </c>
+      <c r="BA88">
+        <v>6</v>
+      </c>
+      <c r="BB88">
+        <v>1</v>
+      </c>
+      <c r="BC88">
+        <v>7</v>
+      </c>
+      <c r="BD88">
+        <v>1.86</v>
+      </c>
+      <c r="BE88">
+        <v>6.55</v>
+      </c>
+      <c r="BF88">
+        <v>2.52</v>
+      </c>
+      <c r="BG88">
+        <v>1.26</v>
+      </c>
+      <c r="BH88">
+        <v>3.08</v>
+      </c>
+      <c r="BI88">
+        <v>1.59</v>
+      </c>
+      <c r="BJ88">
+        <v>2.28</v>
+      </c>
+      <c r="BK88">
+        <v>1.99</v>
+      </c>
+      <c r="BL88">
+        <v>1.81</v>
+      </c>
+      <c r="BM88">
+        <v>2.53</v>
+      </c>
+      <c r="BN88">
+        <v>1.48</v>
+      </c>
+      <c r="BO88">
+        <v>3.35</v>
+      </c>
+      <c r="BP88">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7465087</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45571.46875</v>
+      </c>
+      <c r="F89">
+        <v>9</v>
+      </c>
+      <c r="G89" t="s">
+        <v>86</v>
+      </c>
+      <c r="H89" t="s">
+        <v>81</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>3</v>
+      </c>
+      <c r="K89">
+        <v>3</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>3</v>
+      </c>
+      <c r="N89">
+        <v>3</v>
+      </c>
+      <c r="O89" t="s">
+        <v>104</v>
+      </c>
+      <c r="P89" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q89">
+        <v>5.5</v>
+      </c>
+      <c r="R89">
+        <v>2.4</v>
+      </c>
+      <c r="S89">
+        <v>2.1</v>
+      </c>
+      <c r="T89">
+        <v>1.3</v>
+      </c>
+      <c r="U89">
+        <v>3.4</v>
+      </c>
+      <c r="V89">
+        <v>2.38</v>
+      </c>
+      <c r="W89">
+        <v>1.53</v>
+      </c>
+      <c r="X89">
+        <v>6</v>
+      </c>
+      <c r="Y89">
+        <v>1.13</v>
+      </c>
+      <c r="Z89">
+        <v>5.7</v>
+      </c>
+      <c r="AA89">
+        <v>4.53</v>
+      </c>
+      <c r="AB89">
+        <v>1.62</v>
+      </c>
+      <c r="AC89">
+        <v>1.01</v>
+      </c>
+      <c r="AD89">
+        <v>13</v>
+      </c>
+      <c r="AE89">
+        <v>1.14</v>
+      </c>
+      <c r="AF89">
+        <v>4.8</v>
+      </c>
+      <c r="AG89">
+        <v>1.6</v>
+      </c>
+      <c r="AH89">
+        <v>2.2</v>
+      </c>
+      <c r="AI89">
+        <v>1.7</v>
+      </c>
+      <c r="AJ89">
+        <v>2.05</v>
+      </c>
+      <c r="AK89">
+        <v>2.51</v>
+      </c>
+      <c r="AL89">
+        <v>1.24</v>
+      </c>
+      <c r="AM89">
+        <v>1.17</v>
+      </c>
+      <c r="AN89">
+        <v>2.33</v>
+      </c>
+      <c r="AO89">
+        <v>2.4</v>
+      </c>
+      <c r="AP89">
+        <v>1.75</v>
+      </c>
+      <c r="AQ89">
+        <v>2.5</v>
+      </c>
+      <c r="AR89">
+        <v>1.08</v>
+      </c>
+      <c r="AS89">
+        <v>1.87</v>
+      </c>
+      <c r="AT89">
+        <v>2.95</v>
+      </c>
+      <c r="AU89">
+        <v>3</v>
+      </c>
+      <c r="AV89">
+        <v>10</v>
+      </c>
+      <c r="AW89">
+        <v>5</v>
+      </c>
+      <c r="AX89">
+        <v>0</v>
+      </c>
+      <c r="AY89">
+        <v>12</v>
+      </c>
+      <c r="AZ89">
+        <v>15</v>
+      </c>
+      <c r="BA89">
+        <v>11</v>
+      </c>
+      <c r="BB89">
+        <v>3</v>
+      </c>
+      <c r="BC89">
+        <v>14</v>
+      </c>
+      <c r="BD89">
+        <v>3.35</v>
+      </c>
+      <c r="BE89">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF89">
+        <v>1.47</v>
+      </c>
+      <c r="BG89">
+        <v>1.23</v>
+      </c>
+      <c r="BH89">
+        <v>3.28</v>
+      </c>
+      <c r="BI89">
+        <v>1.53</v>
+      </c>
+      <c r="BJ89">
+        <v>2.41</v>
+      </c>
+      <c r="BK89">
+        <v>1.88</v>
+      </c>
+      <c r="BL89">
+        <v>1.92</v>
+      </c>
+      <c r="BM89">
+        <v>2.33</v>
+      </c>
+      <c r="BN89">
+        <v>1.56</v>
+      </c>
+      <c r="BO89">
+        <v>3.08</v>
+      </c>
+      <c r="BP89">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7465091</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45571.5625</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>80</v>
+      </c>
+      <c r="H90" t="s">
+        <v>71</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90" t="s">
+        <v>157</v>
+      </c>
+      <c r="P90" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q90">
+        <v>3.2</v>
+      </c>
+      <c r="R90">
+        <v>2.05</v>
+      </c>
+      <c r="S90">
+        <v>3.5</v>
+      </c>
+      <c r="T90">
+        <v>1.44</v>
+      </c>
+      <c r="U90">
+        <v>2.63</v>
+      </c>
+      <c r="V90">
+        <v>3.25</v>
+      </c>
+      <c r="W90">
+        <v>1.33</v>
+      </c>
+      <c r="X90">
+        <v>9</v>
+      </c>
+      <c r="Y90">
+        <v>1.07</v>
+      </c>
+      <c r="Z90">
+        <v>2.63</v>
+      </c>
+      <c r="AA90">
+        <v>3.42</v>
+      </c>
+      <c r="AB90">
+        <v>2.93</v>
+      </c>
+      <c r="AC90">
+        <v>1.05</v>
+      </c>
+      <c r="AD90">
+        <v>8</v>
+      </c>
+      <c r="AE90">
+        <v>1.33</v>
+      </c>
+      <c r="AF90">
+        <v>3</v>
+      </c>
+      <c r="AG90">
+        <v>2.05</v>
+      </c>
+      <c r="AH90">
+        <v>1.67</v>
+      </c>
+      <c r="AI90">
+        <v>1.8</v>
+      </c>
+      <c r="AJ90">
+        <v>1.95</v>
+      </c>
+      <c r="AK90">
+        <v>1.44</v>
+      </c>
+      <c r="AL90">
+        <v>1.38</v>
+      </c>
+      <c r="AM90">
+        <v>1.53</v>
+      </c>
+      <c r="AN90">
+        <v>1.5</v>
+      </c>
+      <c r="AO90">
+        <v>0.67</v>
+      </c>
+      <c r="AP90">
+        <v>1.8</v>
+      </c>
+      <c r="AQ90">
+        <v>0.5</v>
+      </c>
+      <c r="AR90">
+        <v>1.55</v>
+      </c>
+      <c r="AS90">
+        <v>1.4</v>
+      </c>
+      <c r="AT90">
+        <v>2.95</v>
+      </c>
+      <c r="AU90">
+        <v>6</v>
+      </c>
+      <c r="AV90">
+        <v>4</v>
+      </c>
+      <c r="AW90">
+        <v>5</v>
+      </c>
+      <c r="AX90">
+        <v>7</v>
+      </c>
+      <c r="AY90">
+        <v>15</v>
+      </c>
+      <c r="AZ90">
+        <v>12</v>
+      </c>
+      <c r="BA90">
+        <v>4</v>
+      </c>
+      <c r="BB90">
+        <v>1</v>
+      </c>
+      <c r="BC90">
+        <v>5</v>
+      </c>
+      <c r="BD90">
+        <v>1.89</v>
+      </c>
+      <c r="BE90">
+        <v>8.6</v>
+      </c>
+      <c r="BF90">
+        <v>2.26</v>
+      </c>
+      <c r="BG90">
+        <v>1.21</v>
+      </c>
+      <c r="BH90">
+        <v>3.44</v>
+      </c>
+      <c r="BI90">
+        <v>1.44</v>
+      </c>
+      <c r="BJ90">
+        <v>2.53</v>
+      </c>
+      <c r="BK90">
+        <v>1.73</v>
+      </c>
+      <c r="BL90">
+        <v>2</v>
+      </c>
+      <c r="BM90">
+        <v>2.26</v>
+      </c>
+      <c r="BN90">
+        <v>1.55</v>
+      </c>
+      <c r="BO90">
+        <v>2.94</v>
+      </c>
+      <c r="BP90">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7465090</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45571.66666666666</v>
+      </c>
+      <c r="F91">
+        <v>9</v>
+      </c>
+      <c r="G91" t="s">
+        <v>76</v>
+      </c>
+      <c r="H91" t="s">
+        <v>87</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="O91" t="s">
+        <v>158</v>
+      </c>
+      <c r="P91" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q91">
+        <v>4</v>
+      </c>
+      <c r="R91">
+        <v>1.95</v>
+      </c>
+      <c r="S91">
+        <v>3.1</v>
+      </c>
+      <c r="T91">
+        <v>1.53</v>
+      </c>
+      <c r="U91">
+        <v>2.38</v>
+      </c>
+      <c r="V91">
+        <v>3.75</v>
+      </c>
+      <c r="W91">
+        <v>1.25</v>
+      </c>
+      <c r="X91">
+        <v>11</v>
+      </c>
+      <c r="Y91">
+        <v>1.05</v>
+      </c>
+      <c r="Z91">
+        <v>3.44</v>
+      </c>
+      <c r="AA91">
+        <v>3.31</v>
+      </c>
+      <c r="AB91">
+        <v>2.37</v>
+      </c>
+      <c r="AC91">
+        <v>1.1</v>
+      </c>
+      <c r="AD91">
+        <v>6.5</v>
+      </c>
+      <c r="AE91">
+        <v>1.47</v>
+      </c>
+      <c r="AF91">
+        <v>2.7</v>
+      </c>
+      <c r="AG91">
+        <v>2.37</v>
+      </c>
+      <c r="AH91">
+        <v>1.53</v>
+      </c>
+      <c r="AI91">
+        <v>2.05</v>
+      </c>
+      <c r="AJ91">
+        <v>1.7</v>
+      </c>
+      <c r="AK91">
+        <v>1.66</v>
+      </c>
+      <c r="AL91">
+        <v>1.38</v>
+      </c>
+      <c r="AM91">
+        <v>1.36</v>
+      </c>
+      <c r="AN91">
+        <v>0.75</v>
+      </c>
+      <c r="AO91">
+        <v>2</v>
+      </c>
+      <c r="AP91">
+        <v>0.8</v>
+      </c>
+      <c r="AQ91">
+        <v>1.8</v>
+      </c>
+      <c r="AR91">
+        <v>1.21</v>
+      </c>
+      <c r="AS91">
+        <v>1.06</v>
+      </c>
+      <c r="AT91">
+        <v>2.27</v>
+      </c>
+      <c r="AU91">
+        <v>8</v>
+      </c>
+      <c r="AV91">
+        <v>2</v>
+      </c>
+      <c r="AW91">
+        <v>9</v>
+      </c>
+      <c r="AX91">
+        <v>3</v>
+      </c>
+      <c r="AY91">
+        <v>17</v>
+      </c>
+      <c r="AZ91">
+        <v>5</v>
+      </c>
+      <c r="BA91">
+        <v>5</v>
+      </c>
+      <c r="BB91">
+        <v>1</v>
+      </c>
+      <c r="BC91">
+        <v>6</v>
+      </c>
+      <c r="BD91">
+        <v>1.85</v>
+      </c>
+      <c r="BE91">
+        <v>6.4</v>
+      </c>
+      <c r="BF91">
+        <v>2.17</v>
+      </c>
+      <c r="BG91">
+        <v>1.35</v>
+      </c>
+      <c r="BH91">
+        <v>2.9</v>
+      </c>
+      <c r="BI91">
+        <v>1.58</v>
+      </c>
+      <c r="BJ91">
+        <v>2.18</v>
+      </c>
+      <c r="BK91">
+        <v>1.96</v>
+      </c>
+      <c r="BL91">
+        <v>1.73</v>
+      </c>
+      <c r="BM91">
+        <v>2.48</v>
+      </c>
+      <c r="BN91">
+        <v>1.47</v>
+      </c>
+      <c r="BO91">
+        <v>3.3</v>
+      </c>
+      <c r="BP91">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -19150,7 +19150,7 @@
         <v>45571.46875</v>
       </c>
       <c r="F89">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G89" t="s">
         <v>86</v>
@@ -19356,7 +19356,7 @@
         <v>45571.5625</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G90" t="s">
         <v>80</v>
@@ -19562,7 +19562,7 @@
         <v>45571.66666666666</v>
       </c>
       <c r="F91">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G91" t="s">
         <v>76</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="210">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -493,6 +493,9 @@
     <t>['84']</t>
   </si>
   <si>
+    <t>['6', '90+7']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -604,12 +607,12 @@
     <t>['85', '86']</t>
   </si>
   <si>
+    <t>['45+6', '63']</t>
+  </si>
+  <si>
     <t>['45+3']</t>
   </si>
   <si>
-    <t>['45+6', '63']</t>
-  </si>
-  <si>
     <t>['90']</t>
   </si>
   <si>
@@ -638,6 +641,9 @@
   </si>
   <si>
     <t>['1']</t>
+  </si>
+  <si>
+    <t>['17', '72', '76']</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP91"/>
+  <dimension ref="A1:BP92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1258,7 +1264,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1464,7 +1470,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1670,7 +1676,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1876,7 +1882,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2082,7 +2088,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2288,7 +2294,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2494,7 +2500,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2700,7 +2706,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3112,7 +3118,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3318,7 +3324,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3524,7 +3530,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3936,7 +3942,7 @@
         <v>103</v>
       </c>
       <c r="P15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4635,7 +4641,7 @@
         <v>3</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4760,7 +4766,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5044,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ20">
         <v>0.5</v>
@@ -5378,7 +5384,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5790,7 +5796,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6366,7 +6372,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7465038</v>
+        <v>7469674</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -6381,190 +6387,190 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="P27" t="s">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="Q27">
+        <v>1.83</v>
+      </c>
+      <c r="R27">
         <v>2.3</v>
       </c>
-      <c r="R27">
-        <v>2</v>
-      </c>
       <c r="S27">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="T27">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="U27">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="V27">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="W27">
+        <v>1.4</v>
+      </c>
+      <c r="X27">
+        <v>6.5</v>
+      </c>
+      <c r="Y27">
+        <v>1.08</v>
+      </c>
+      <c r="Z27">
+        <v>1.45</v>
+      </c>
+      <c r="AA27">
+        <v>4.42</v>
+      </c>
+      <c r="AB27">
+        <v>7.3</v>
+      </c>
+      <c r="AC27">
+        <v>1.05</v>
+      </c>
+      <c r="AD27">
+        <v>9.5</v>
+      </c>
+      <c r="AE27">
         <v>1.28</v>
       </c>
-      <c r="X27">
+      <c r="AF27">
+        <v>3.55</v>
+      </c>
+      <c r="AG27">
+        <v>1.98</v>
+      </c>
+      <c r="AH27">
+        <v>1.82</v>
+      </c>
+      <c r="AI27">
+        <v>2.2</v>
+      </c>
+      <c r="AJ27">
+        <v>1.6</v>
+      </c>
+      <c r="AK27">
+        <v>1.06</v>
+      </c>
+      <c r="AL27">
+        <v>1.14</v>
+      </c>
+      <c r="AM27">
+        <v>3.1</v>
+      </c>
+      <c r="AN27">
+        <v>3</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>2</v>
+      </c>
+      <c r="AQ27">
+        <v>0.25</v>
+      </c>
+      <c r="AR27">
+        <v>1.31</v>
+      </c>
+      <c r="AS27">
+        <v>0.95</v>
+      </c>
+      <c r="AT27">
+        <v>2.26</v>
+      </c>
+      <c r="AU27">
         <v>8</v>
       </c>
-      <c r="Y27">
-        <v>1.05</v>
-      </c>
-      <c r="Z27">
-        <v>1.67</v>
-      </c>
-      <c r="AA27">
-        <v>3.6</v>
-      </c>
-      <c r="AB27">
-        <v>5.65</v>
-      </c>
-      <c r="AC27">
-        <v>1.08</v>
-      </c>
-      <c r="AD27">
-        <v>7.5</v>
-      </c>
-      <c r="AE27">
-        <v>1.45</v>
-      </c>
-      <c r="AF27">
-        <v>2.7</v>
-      </c>
-      <c r="AG27">
-        <v>2.47</v>
-      </c>
-      <c r="AH27">
-        <v>1.54</v>
-      </c>
-      <c r="AI27">
-        <v>2.25</v>
-      </c>
-      <c r="AJ27">
-        <v>1.57</v>
-      </c>
-      <c r="AK27">
-        <v>1.14</v>
-      </c>
-      <c r="AL27">
-        <v>1.22</v>
-      </c>
-      <c r="AM27">
-        <v>2.15</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>0.8</v>
-      </c>
-      <c r="AQ27">
-        <v>0.6</v>
-      </c>
-      <c r="AR27">
-        <v>1.36</v>
-      </c>
-      <c r="AS27">
-        <v>0.99</v>
-      </c>
-      <c r="AT27">
-        <v>2.35</v>
-      </c>
-      <c r="AU27">
-        <v>2</v>
-      </c>
       <c r="AV27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW27">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY27">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AZ27">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BA27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB27">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC27">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD27">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="BE27">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="BF27">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="BG27">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="BH27">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="BI27">
+        <v>1.47</v>
+      </c>
+      <c r="BJ27">
+        <v>2.5</v>
+      </c>
+      <c r="BK27">
+        <v>1.85</v>
+      </c>
+      <c r="BL27">
+        <v>1.85</v>
+      </c>
+      <c r="BM27">
+        <v>2.37</v>
+      </c>
+      <c r="BN27">
         <v>1.51</v>
       </c>
-      <c r="BJ27">
-        <v>2.37</v>
-      </c>
-      <c r="BK27">
-        <v>1.9</v>
-      </c>
-      <c r="BL27">
-        <v>1.8</v>
-      </c>
-      <c r="BM27">
-        <v>2.47</v>
-      </c>
-      <c r="BN27">
-        <v>1.48</v>
-      </c>
       <c r="BO27">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="BP27">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="28" spans="1:68">
@@ -6572,7 +6578,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>7469674</v>
+        <v>7465038</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -6587,190 +6593,190 @@
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O28" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P28" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="Q28">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="R28">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="S28">
+        <v>5.5</v>
+      </c>
+      <c r="T28">
+        <v>1.5</v>
+      </c>
+      <c r="U28">
+        <v>2.4</v>
+      </c>
+      <c r="V28">
+        <v>3.4</v>
+      </c>
+      <c r="W28">
+        <v>1.28</v>
+      </c>
+      <c r="X28">
+        <v>8</v>
+      </c>
+      <c r="Y28">
+        <v>1.05</v>
+      </c>
+      <c r="Z28">
+        <v>1.67</v>
+      </c>
+      <c r="AA28">
+        <v>3.6</v>
+      </c>
+      <c r="AB28">
+        <v>5.65</v>
+      </c>
+      <c r="AC28">
+        <v>1.08</v>
+      </c>
+      <c r="AD28">
         <v>7.5</v>
       </c>
-      <c r="T28">
+      <c r="AE28">
+        <v>1.45</v>
+      </c>
+      <c r="AF28">
+        <v>2.7</v>
+      </c>
+      <c r="AG28">
+        <v>2.47</v>
+      </c>
+      <c r="AH28">
+        <v>1.54</v>
+      </c>
+      <c r="AI28">
+        <v>2.25</v>
+      </c>
+      <c r="AJ28">
+        <v>1.57</v>
+      </c>
+      <c r="AK28">
+        <v>1.14</v>
+      </c>
+      <c r="AL28">
+        <v>1.22</v>
+      </c>
+      <c r="AM28">
+        <v>2.15</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0.8</v>
+      </c>
+      <c r="AQ28">
+        <v>0.6</v>
+      </c>
+      <c r="AR28">
         <v>1.36</v>
       </c>
-      <c r="U28">
-        <v>2.88</v>
-      </c>
-      <c r="V28">
-        <v>2.75</v>
-      </c>
-      <c r="W28">
-        <v>1.4</v>
-      </c>
-      <c r="X28">
-        <v>6.5</v>
-      </c>
-      <c r="Y28">
-        <v>1.08</v>
-      </c>
-      <c r="Z28">
-        <v>1.45</v>
-      </c>
-      <c r="AA28">
-        <v>4.42</v>
-      </c>
-      <c r="AB28">
-        <v>7.3</v>
-      </c>
-      <c r="AC28">
-        <v>1.05</v>
-      </c>
-      <c r="AD28">
-        <v>9.5</v>
-      </c>
-      <c r="AE28">
-        <v>1.28</v>
-      </c>
-      <c r="AF28">
-        <v>3.55</v>
-      </c>
-      <c r="AG28">
-        <v>1.98</v>
-      </c>
-      <c r="AH28">
-        <v>1.82</v>
-      </c>
-      <c r="AI28">
-        <v>2.2</v>
-      </c>
-      <c r="AJ28">
-        <v>1.6</v>
-      </c>
-      <c r="AK28">
-        <v>1.06</v>
-      </c>
-      <c r="AL28">
-        <v>1.14</v>
-      </c>
-      <c r="AM28">
-        <v>3.1</v>
-      </c>
-      <c r="AN28">
-        <v>3</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>2</v>
-      </c>
-      <c r="AQ28">
-        <v>0.25</v>
-      </c>
-      <c r="AR28">
-        <v>1.31</v>
-      </c>
       <c r="AS28">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="AT28">
-        <v>2.26</v>
+        <v>2.35</v>
       </c>
       <c r="AU28">
+        <v>2</v>
+      </c>
+      <c r="AV28">
+        <v>6</v>
+      </c>
+      <c r="AW28">
+        <v>6</v>
+      </c>
+      <c r="AX28">
         <v>8</v>
       </c>
-      <c r="AV28">
-        <v>2</v>
-      </c>
-      <c r="AW28">
-        <v>10</v>
-      </c>
-      <c r="AX28">
-        <v>7</v>
-      </c>
       <c r="AY28">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AZ28">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC28">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD28">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="BE28">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="BF28">
-        <v>3.7</v>
+        <v>3.15</v>
       </c>
       <c r="BG28">
+        <v>1.36</v>
+      </c>
+      <c r="BH28">
+        <v>2.9</v>
+      </c>
+      <c r="BI28">
+        <v>1.51</v>
+      </c>
+      <c r="BJ28">
+        <v>2.37</v>
+      </c>
+      <c r="BK28">
+        <v>1.9</v>
+      </c>
+      <c r="BL28">
+        <v>1.8</v>
+      </c>
+      <c r="BM28">
+        <v>2.47</v>
+      </c>
+      <c r="BN28">
+        <v>1.48</v>
+      </c>
+      <c r="BO28">
+        <v>3.3</v>
+      </c>
+      <c r="BP28">
         <v>1.29</v>
-      </c>
-      <c r="BH28">
-        <v>3.3</v>
-      </c>
-      <c r="BI28">
-        <v>1.47</v>
-      </c>
-      <c r="BJ28">
-        <v>2.5</v>
-      </c>
-      <c r="BK28">
-        <v>1.85</v>
-      </c>
-      <c r="BL28">
-        <v>1.85</v>
-      </c>
-      <c r="BM28">
-        <v>2.37</v>
-      </c>
-      <c r="BN28">
-        <v>1.51</v>
-      </c>
-      <c r="BO28">
-        <v>3.2</v>
-      </c>
-      <c r="BP28">
-        <v>1.3</v>
       </c>
     </row>
     <row r="29" spans="1:68">
@@ -7026,7 +7032,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -7313,7 +7319,7 @@
         <v>3</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR31">
         <v>1.51</v>
@@ -7438,7 +7444,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7644,7 +7650,7 @@
         <v>115</v>
       </c>
       <c r="P33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q33">
         <v>3.38</v>
@@ -7850,7 +7856,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -8056,7 +8062,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q35">
         <v>3.22</v>
@@ -8340,7 +8346,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ36">
         <v>0</v>
@@ -8468,7 +8474,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -8674,7 +8680,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -9498,7 +9504,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9704,7 +9710,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -10116,7 +10122,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10403,7 +10409,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR46">
         <v>1.11</v>
@@ -10528,7 +10534,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10734,7 +10740,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11558,7 +11564,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11764,7 +11770,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12048,7 +12054,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ54">
         <v>0.75</v>
@@ -12382,7 +12388,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12794,7 +12800,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q58">
         <v>1.51</v>
@@ -13000,7 +13006,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q59">
         <v>2.9</v>
@@ -13206,7 +13212,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13412,7 +13418,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13824,7 +13830,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -13988,7 +13994,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7465074</v>
+        <v>7465070</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -14003,190 +14009,190 @@
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O64" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="Q64">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="R64">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S64">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="T64">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="U64">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="V64">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="W64">
+        <v>1.36</v>
+      </c>
+      <c r="X64">
+        <v>8</v>
+      </c>
+      <c r="Y64">
+        <v>1.08</v>
+      </c>
+      <c r="Z64">
+        <v>1.75</v>
+      </c>
+      <c r="AA64">
+        <v>3.7</v>
+      </c>
+      <c r="AB64">
+        <v>4.6</v>
+      </c>
+      <c r="AC64">
+        <v>1.05</v>
+      </c>
+      <c r="AD64">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE64">
+        <v>1.31</v>
+      </c>
+      <c r="AF64">
+        <v>3.42</v>
+      </c>
+      <c r="AG64">
+        <v>1.91</v>
+      </c>
+      <c r="AH64">
+        <v>1.8</v>
+      </c>
+      <c r="AI64">
+        <v>1.91</v>
+      </c>
+      <c r="AJ64">
+        <v>1.91</v>
+      </c>
+      <c r="AK64">
+        <v>1.2</v>
+      </c>
+      <c r="AL64">
+        <v>1.24</v>
+      </c>
+      <c r="AM64">
+        <v>2.1</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
+        <v>0</v>
+      </c>
+      <c r="AP64">
+        <v>1.8</v>
+      </c>
+      <c r="AQ64">
+        <v>0.6</v>
+      </c>
+      <c r="AR64">
+        <v>1.56</v>
+      </c>
+      <c r="AS64">
+        <v>0.74</v>
+      </c>
+      <c r="AT64">
+        <v>2.3</v>
+      </c>
+      <c r="AU64">
+        <v>6</v>
+      </c>
+      <c r="AV64">
+        <v>3</v>
+      </c>
+      <c r="AW64">
+        <v>6</v>
+      </c>
+      <c r="AX64">
+        <v>3</v>
+      </c>
+      <c r="AY64">
+        <v>23</v>
+      </c>
+      <c r="AZ64">
+        <v>9</v>
+      </c>
+      <c r="BA64">
+        <v>6</v>
+      </c>
+      <c r="BB64">
+        <v>4</v>
+      </c>
+      <c r="BC64">
+        <v>10</v>
+      </c>
+      <c r="BD64">
+        <v>1.49</v>
+      </c>
+      <c r="BE64">
+        <v>6.75</v>
+      </c>
+      <c r="BF64">
+        <v>2.9</v>
+      </c>
+      <c r="BG64">
+        <v>1.33</v>
+      </c>
+      <c r="BH64">
+        <v>2.95</v>
+      </c>
+      <c r="BI64">
+        <v>1.57</v>
+      </c>
+      <c r="BJ64">
+        <v>2.23</v>
+      </c>
+      <c r="BK64">
+        <v>1.94</v>
+      </c>
+      <c r="BL64">
+        <v>1.76</v>
+      </c>
+      <c r="BM64">
+        <v>2.43</v>
+      </c>
+      <c r="BN64">
+        <v>1.47</v>
+      </c>
+      <c r="BO64">
+        <v>3.15</v>
+      </c>
+      <c r="BP64">
         <v>1.29</v>
-      </c>
-      <c r="X64">
-        <v>11</v>
-      </c>
-      <c r="Y64">
-        <v>1.05</v>
-      </c>
-      <c r="Z64">
-        <v>2.1</v>
-      </c>
-      <c r="AA64">
-        <v>3.2</v>
-      </c>
-      <c r="AB64">
-        <v>3.7</v>
-      </c>
-      <c r="AC64">
-        <v>1.04</v>
-      </c>
-      <c r="AD64">
-        <v>6.55</v>
-      </c>
-      <c r="AE64">
-        <v>1.46</v>
-      </c>
-      <c r="AF64">
-        <v>2.77</v>
-      </c>
-      <c r="AG64">
-        <v>2.3</v>
-      </c>
-      <c r="AH64">
-        <v>1.55</v>
-      </c>
-      <c r="AI64">
-        <v>2.05</v>
-      </c>
-      <c r="AJ64">
-        <v>1.7</v>
-      </c>
-      <c r="AK64">
-        <v>1.28</v>
-      </c>
-      <c r="AL64">
-        <v>1.3</v>
-      </c>
-      <c r="AM64">
-        <v>1.75</v>
-      </c>
-      <c r="AN64">
-        <v>1.33</v>
-      </c>
-      <c r="AO64">
-        <v>0</v>
-      </c>
-      <c r="AP64">
-        <v>1.25</v>
-      </c>
-      <c r="AQ64">
-        <v>0.5</v>
-      </c>
-      <c r="AR64">
-        <v>1.24</v>
-      </c>
-      <c r="AS64">
-        <v>0.55</v>
-      </c>
-      <c r="AT64">
-        <v>1.79</v>
-      </c>
-      <c r="AU64">
-        <v>4</v>
-      </c>
-      <c r="AV64">
-        <v>3</v>
-      </c>
-      <c r="AW64">
-        <v>3</v>
-      </c>
-      <c r="AX64">
-        <v>4</v>
-      </c>
-      <c r="AY64">
-        <v>11</v>
-      </c>
-      <c r="AZ64">
-        <v>10</v>
-      </c>
-      <c r="BA64">
-        <v>10</v>
-      </c>
-      <c r="BB64">
-        <v>5</v>
-      </c>
-      <c r="BC64">
-        <v>15</v>
-      </c>
-      <c r="BD64">
-        <v>1.72</v>
-      </c>
-      <c r="BE64">
-        <v>6.4</v>
-      </c>
-      <c r="BF64">
-        <v>2.38</v>
-      </c>
-      <c r="BG64">
-        <v>1.41</v>
-      </c>
-      <c r="BH64">
-        <v>2.63</v>
-      </c>
-      <c r="BI64">
-        <v>1.71</v>
-      </c>
-      <c r="BJ64">
-        <v>2</v>
-      </c>
-      <c r="BK64">
-        <v>2.12</v>
-      </c>
-      <c r="BL64">
-        <v>1.63</v>
-      </c>
-      <c r="BM64">
-        <v>2.7</v>
-      </c>
-      <c r="BN64">
-        <v>1.4</v>
-      </c>
-      <c r="BO64">
-        <v>3.65</v>
-      </c>
-      <c r="BP64">
-        <v>1.23</v>
       </c>
     </row>
     <row r="65" spans="1:68">
@@ -14194,7 +14200,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>7465070</v>
+        <v>7465074</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
@@ -14209,190 +14215,190 @@
         <v>7</v>
       </c>
       <c r="G65" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H65" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O65" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="P65" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="Q65">
+        <v>2.88</v>
+      </c>
+      <c r="R65">
+        <v>2</v>
+      </c>
+      <c r="S65">
+        <v>4.33</v>
+      </c>
+      <c r="T65">
+        <v>1.53</v>
+      </c>
+      <c r="U65">
         <v>2.38</v>
       </c>
-      <c r="R65">
-        <v>2.2</v>
-      </c>
-      <c r="S65">
+      <c r="V65">
+        <v>3.5</v>
+      </c>
+      <c r="W65">
+        <v>1.29</v>
+      </c>
+      <c r="X65">
+        <v>11</v>
+      </c>
+      <c r="Y65">
+        <v>1.05</v>
+      </c>
+      <c r="Z65">
+        <v>2.1</v>
+      </c>
+      <c r="AA65">
+        <v>3.2</v>
+      </c>
+      <c r="AB65">
+        <v>3.7</v>
+      </c>
+      <c r="AC65">
+        <v>1.04</v>
+      </c>
+      <c r="AD65">
+        <v>6.55</v>
+      </c>
+      <c r="AE65">
+        <v>1.46</v>
+      </c>
+      <c r="AF65">
+        <v>2.77</v>
+      </c>
+      <c r="AG65">
+        <v>2.3</v>
+      </c>
+      <c r="AH65">
+        <v>1.55</v>
+      </c>
+      <c r="AI65">
+        <v>2.05</v>
+      </c>
+      <c r="AJ65">
+        <v>1.7</v>
+      </c>
+      <c r="AK65">
+        <v>1.28</v>
+      </c>
+      <c r="AL65">
+        <v>1.3</v>
+      </c>
+      <c r="AM65">
+        <v>1.75</v>
+      </c>
+      <c r="AN65">
+        <v>1.33</v>
+      </c>
+      <c r="AO65">
+        <v>0</v>
+      </c>
+      <c r="AP65">
+        <v>1.25</v>
+      </c>
+      <c r="AQ65">
+        <v>0.5</v>
+      </c>
+      <c r="AR65">
+        <v>1.24</v>
+      </c>
+      <c r="AS65">
+        <v>0.55</v>
+      </c>
+      <c r="AT65">
+        <v>1.79</v>
+      </c>
+      <c r="AU65">
+        <v>4</v>
+      </c>
+      <c r="AV65">
+        <v>3</v>
+      </c>
+      <c r="AW65">
+        <v>3</v>
+      </c>
+      <c r="AX65">
+        <v>4</v>
+      </c>
+      <c r="AY65">
+        <v>11</v>
+      </c>
+      <c r="AZ65">
+        <v>10</v>
+      </c>
+      <c r="BA65">
+        <v>10</v>
+      </c>
+      <c r="BB65">
         <v>5</v>
       </c>
-      <c r="T65">
+      <c r="BC65">
+        <v>15</v>
+      </c>
+      <c r="BD65">
+        <v>1.72</v>
+      </c>
+      <c r="BE65">
+        <v>6.4</v>
+      </c>
+      <c r="BF65">
+        <v>2.38</v>
+      </c>
+      <c r="BG65">
+        <v>1.41</v>
+      </c>
+      <c r="BH65">
+        <v>2.63</v>
+      </c>
+      <c r="BI65">
+        <v>1.71</v>
+      </c>
+      <c r="BJ65">
+        <v>2</v>
+      </c>
+      <c r="BK65">
+        <v>2.12</v>
+      </c>
+      <c r="BL65">
+        <v>1.63</v>
+      </c>
+      <c r="BM65">
+        <v>2.7</v>
+      </c>
+      <c r="BN65">
         <v>1.4</v>
       </c>
-      <c r="U65">
-        <v>2.75</v>
-      </c>
-      <c r="V65">
-        <v>3</v>
-      </c>
-      <c r="W65">
-        <v>1.36</v>
-      </c>
-      <c r="X65">
-        <v>8</v>
-      </c>
-      <c r="Y65">
-        <v>1.08</v>
-      </c>
-      <c r="Z65">
-        <v>1.75</v>
-      </c>
-      <c r="AA65">
-        <v>3.7</v>
-      </c>
-      <c r="AB65">
-        <v>4.6</v>
-      </c>
-      <c r="AC65">
-        <v>1.05</v>
-      </c>
-      <c r="AD65">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AE65">
-        <v>1.31</v>
-      </c>
-      <c r="AF65">
-        <v>3.42</v>
-      </c>
-      <c r="AG65">
-        <v>1.91</v>
-      </c>
-      <c r="AH65">
-        <v>1.8</v>
-      </c>
-      <c r="AI65">
-        <v>1.91</v>
-      </c>
-      <c r="AJ65">
-        <v>1.91</v>
-      </c>
-      <c r="AK65">
-        <v>1.2</v>
-      </c>
-      <c r="AL65">
-        <v>1.24</v>
-      </c>
-      <c r="AM65">
-        <v>2.1</v>
-      </c>
-      <c r="AN65">
-        <v>1</v>
-      </c>
-      <c r="AO65">
-        <v>0</v>
-      </c>
-      <c r="AP65">
-        <v>1.8</v>
-      </c>
-      <c r="AQ65">
-        <v>0</v>
-      </c>
-      <c r="AR65">
-        <v>1.56</v>
-      </c>
-      <c r="AS65">
-        <v>0.74</v>
-      </c>
-      <c r="AT65">
-        <v>2.3</v>
-      </c>
-      <c r="AU65">
-        <v>6</v>
-      </c>
-      <c r="AV65">
-        <v>3</v>
-      </c>
-      <c r="AW65">
-        <v>6</v>
-      </c>
-      <c r="AX65">
-        <v>3</v>
-      </c>
-      <c r="AY65">
-        <v>23</v>
-      </c>
-      <c r="AZ65">
-        <v>9</v>
-      </c>
-      <c r="BA65">
-        <v>6</v>
-      </c>
-      <c r="BB65">
-        <v>4</v>
-      </c>
-      <c r="BC65">
-        <v>10</v>
-      </c>
-      <c r="BD65">
-        <v>1.49</v>
-      </c>
-      <c r="BE65">
-        <v>6.75</v>
-      </c>
-      <c r="BF65">
-        <v>2.9</v>
-      </c>
-      <c r="BG65">
-        <v>1.33</v>
-      </c>
-      <c r="BH65">
-        <v>2.95</v>
-      </c>
-      <c r="BI65">
-        <v>1.57</v>
-      </c>
-      <c r="BJ65">
-        <v>2.23</v>
-      </c>
-      <c r="BK65">
-        <v>1.94</v>
-      </c>
-      <c r="BL65">
-        <v>1.76</v>
-      </c>
-      <c r="BM65">
-        <v>2.43</v>
-      </c>
-      <c r="BN65">
-        <v>1.47</v>
-      </c>
       <c r="BO65">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="BP65">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="66" spans="1:68">
@@ -14442,7 +14448,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -15018,7 +15024,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7465073</v>
+        <v>7469578</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -15033,10 +15039,10 @@
         <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H69" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -15051,172 +15057,172 @@
         <v>1</v>
       </c>
       <c r="M69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O69" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q69">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R69">
+        <v>2.2</v>
+      </c>
+      <c r="S69">
+        <v>2.75</v>
+      </c>
+      <c r="T69">
+        <v>1.36</v>
+      </c>
+      <c r="U69">
+        <v>3</v>
+      </c>
+      <c r="V69">
+        <v>2.75</v>
+      </c>
+      <c r="W69">
+        <v>1.4</v>
+      </c>
+      <c r="X69">
+        <v>7</v>
+      </c>
+      <c r="Y69">
+        <v>1.1</v>
+      </c>
+      <c r="Z69">
+        <v>3.4</v>
+      </c>
+      <c r="AA69">
+        <v>3.4</v>
+      </c>
+      <c r="AB69">
+        <v>2.1</v>
+      </c>
+      <c r="AC69">
+        <v>1.06</v>
+      </c>
+      <c r="AD69">
+        <v>10</v>
+      </c>
+      <c r="AE69">
+        <v>1.3</v>
+      </c>
+      <c r="AF69">
+        <v>3.6</v>
+      </c>
+      <c r="AG69">
+        <v>1.83</v>
+      </c>
+      <c r="AH69">
+        <v>1.85</v>
+      </c>
+      <c r="AI69">
+        <v>1.7</v>
+      </c>
+      <c r="AJ69">
         <v>2.05</v>
       </c>
-      <c r="S69">
-        <v>3.1</v>
-      </c>
-      <c r="T69">
-        <v>1.44</v>
-      </c>
-      <c r="U69">
-        <v>2.63</v>
-      </c>
-      <c r="V69">
-        <v>3.25</v>
-      </c>
-      <c r="W69">
-        <v>1.33</v>
-      </c>
-      <c r="X69">
-        <v>10</v>
-      </c>
-      <c r="Y69">
-        <v>1.06</v>
-      </c>
-      <c r="Z69">
-        <v>3</v>
-      </c>
-      <c r="AA69">
-        <v>3.2</v>
-      </c>
-      <c r="AB69">
-        <v>2.37</v>
-      </c>
-      <c r="AC69">
-        <v>1.07</v>
-      </c>
-      <c r="AD69">
-        <v>7</v>
-      </c>
-      <c r="AE69">
-        <v>1.35</v>
-      </c>
-      <c r="AF69">
-        <v>2.95</v>
-      </c>
-      <c r="AG69">
-        <v>2.2</v>
-      </c>
-      <c r="AH69">
-        <v>1.6</v>
-      </c>
-      <c r="AI69">
-        <v>1.91</v>
-      </c>
-      <c r="AJ69">
-        <v>1.91</v>
-      </c>
       <c r="AK69">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="AL69">
+        <v>1.28</v>
+      </c>
+      <c r="AM69">
         <v>1.3</v>
       </c>
-      <c r="AM69">
-        <v>1.36</v>
-      </c>
       <c r="AN69">
-        <v>0.67</v>
+        <v>2</v>
       </c>
       <c r="AO69">
-        <v>0.5</v>
+        <v>2.33</v>
       </c>
       <c r="AP69">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="AQ69">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AR69">
-        <v>1.36</v>
+        <v>1.13</v>
       </c>
       <c r="AS69">
         <v>1.25</v>
       </c>
       <c r="AT69">
-        <v>2.61</v>
+        <v>2.38</v>
       </c>
       <c r="AU69">
         <v>3</v>
       </c>
       <c r="AV69">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX69">
         <v>7</v>
       </c>
       <c r="AY69">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ69">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC69">
         <v>5</v>
       </c>
       <c r="BD69">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="BE69">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="BF69">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="BG69">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="BH69">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="BI69">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="BJ69">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="BK69">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="BL69">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="BM69">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="BN69">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="BO69">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="BP69">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15224,7 +15230,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7469578</v>
+        <v>7465073</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -15239,10 +15245,10 @@
         <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H70" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -15257,172 +15263,172 @@
         <v>1</v>
       </c>
       <c r="M70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O70" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="P70" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q70">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R70">
+        <v>2.05</v>
+      </c>
+      <c r="S70">
+        <v>3.1</v>
+      </c>
+      <c r="T70">
+        <v>1.44</v>
+      </c>
+      <c r="U70">
+        <v>2.63</v>
+      </c>
+      <c r="V70">
+        <v>3.25</v>
+      </c>
+      <c r="W70">
+        <v>1.33</v>
+      </c>
+      <c r="X70">
+        <v>10</v>
+      </c>
+      <c r="Y70">
+        <v>1.06</v>
+      </c>
+      <c r="Z70">
+        <v>3</v>
+      </c>
+      <c r="AA70">
+        <v>3.2</v>
+      </c>
+      <c r="AB70">
+        <v>2.37</v>
+      </c>
+      <c r="AC70">
+        <v>1.07</v>
+      </c>
+      <c r="AD70">
+        <v>7</v>
+      </c>
+      <c r="AE70">
+        <v>1.35</v>
+      </c>
+      <c r="AF70">
+        <v>2.95</v>
+      </c>
+      <c r="AG70">
         <v>2.2</v>
       </c>
-      <c r="S70">
-        <v>2.75</v>
-      </c>
-      <c r="T70">
+      <c r="AH70">
+        <v>1.6</v>
+      </c>
+      <c r="AI70">
+        <v>1.91</v>
+      </c>
+      <c r="AJ70">
+        <v>1.91</v>
+      </c>
+      <c r="AK70">
+        <v>1.55</v>
+      </c>
+      <c r="AL70">
+        <v>1.3</v>
+      </c>
+      <c r="AM70">
         <v>1.36</v>
       </c>
-      <c r="U70">
-        <v>3</v>
-      </c>
-      <c r="V70">
-        <v>2.75</v>
-      </c>
-      <c r="W70">
-        <v>1.4</v>
-      </c>
-      <c r="X70">
-        <v>7</v>
-      </c>
-      <c r="Y70">
-        <v>1.1</v>
-      </c>
-      <c r="Z70">
-        <v>3.4</v>
-      </c>
-      <c r="AA70">
-        <v>3.4</v>
-      </c>
-      <c r="AB70">
-        <v>2.1</v>
-      </c>
-      <c r="AC70">
-        <v>1.06</v>
-      </c>
-      <c r="AD70">
-        <v>10</v>
-      </c>
-      <c r="AE70">
-        <v>1.3</v>
-      </c>
-      <c r="AF70">
-        <v>3.6</v>
-      </c>
-      <c r="AG70">
-        <v>1.83</v>
-      </c>
-      <c r="AH70">
-        <v>1.85</v>
-      </c>
-      <c r="AI70">
-        <v>1.7</v>
-      </c>
-      <c r="AJ70">
-        <v>2.05</v>
-      </c>
-      <c r="AK70">
-        <v>1.78</v>
-      </c>
-      <c r="AL70">
-        <v>1.28</v>
-      </c>
-      <c r="AM70">
-        <v>1.3</v>
-      </c>
       <c r="AN70">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="AO70">
-        <v>2.33</v>
+        <v>0.5</v>
       </c>
       <c r="AP70">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="AQ70">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AR70">
-        <v>1.13</v>
+        <v>1.36</v>
       </c>
       <c r="AS70">
         <v>1.25</v>
       </c>
       <c r="AT70">
-        <v>2.38</v>
+        <v>2.61</v>
       </c>
       <c r="AU70">
         <v>3</v>
       </c>
       <c r="AV70">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX70">
         <v>7</v>
       </c>
       <c r="AY70">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ70">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA70">
+        <v>1</v>
+      </c>
+      <c r="BB70">
         <v>4</v>
-      </c>
-      <c r="BB70">
-        <v>1</v>
       </c>
       <c r="BC70">
         <v>5</v>
       </c>
       <c r="BD70">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="BE70">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="BF70">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="BG70">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="BH70">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="BI70">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="BJ70">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="BK70">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="BL70">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="BM70">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="BN70">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="BO70">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="BP70">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="71" spans="1:68">
@@ -15472,7 +15478,7 @@
         <v>104</v>
       </c>
       <c r="P71" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15678,7 +15684,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16502,7 +16508,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -16914,7 +16920,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17326,7 +17332,7 @@
         <v>150</v>
       </c>
       <c r="P80" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -17532,7 +17538,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -17944,7 +17950,7 @@
         <v>152</v>
       </c>
       <c r="P83" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18150,7 +18156,7 @@
         <v>153</v>
       </c>
       <c r="P84" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -18356,7 +18362,7 @@
         <v>104</v>
       </c>
       <c r="P85" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q85">
         <v>3.6</v>
@@ -18562,7 +18568,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -18974,7 +18980,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19180,7 +19186,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -19258,7 +19264,7 @@
         <v>2.4</v>
       </c>
       <c r="AP89">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ89">
         <v>2.5</v>
@@ -19592,7 +19598,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -19749,6 +19755,212 @@
       </c>
       <c r="BP91">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7465099</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45582.875</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
+        <v>86</v>
+      </c>
+      <c r="H92" t="s">
+        <v>78</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>2</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>3</v>
+      </c>
+      <c r="N92">
+        <v>5</v>
+      </c>
+      <c r="O92" t="s">
+        <v>159</v>
+      </c>
+      <c r="P92" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q92">
+        <v>2.38</v>
+      </c>
+      <c r="R92">
+        <v>2.1</v>
+      </c>
+      <c r="S92">
+        <v>5.5</v>
+      </c>
+      <c r="T92">
+        <v>1.44</v>
+      </c>
+      <c r="U92">
+        <v>2.63</v>
+      </c>
+      <c r="V92">
+        <v>3.25</v>
+      </c>
+      <c r="W92">
+        <v>1.33</v>
+      </c>
+      <c r="X92">
+        <v>10</v>
+      </c>
+      <c r="Y92">
+        <v>1.06</v>
+      </c>
+      <c r="Z92">
+        <v>1.7</v>
+      </c>
+      <c r="AA92">
+        <v>4</v>
+      </c>
+      <c r="AB92">
+        <v>4.5</v>
+      </c>
+      <c r="AC92">
+        <v>1.07</v>
+      </c>
+      <c r="AD92">
+        <v>9</v>
+      </c>
+      <c r="AE92">
+        <v>1.4</v>
+      </c>
+      <c r="AF92">
+        <v>3</v>
+      </c>
+      <c r="AG92">
+        <v>2.2</v>
+      </c>
+      <c r="AH92">
+        <v>1.67</v>
+      </c>
+      <c r="AI92">
+        <v>2.1</v>
+      </c>
+      <c r="AJ92">
+        <v>1.67</v>
+      </c>
+      <c r="AK92">
+        <v>1.17</v>
+      </c>
+      <c r="AL92">
+        <v>1.25</v>
+      </c>
+      <c r="AM92">
+        <v>2.15</v>
+      </c>
+      <c r="AN92">
+        <v>1.75</v>
+      </c>
+      <c r="AO92">
+        <v>0</v>
+      </c>
+      <c r="AP92">
+        <v>1.4</v>
+      </c>
+      <c r="AQ92">
+        <v>0.6</v>
+      </c>
+      <c r="AR92">
+        <v>1.06</v>
+      </c>
+      <c r="AS92">
+        <v>0.76</v>
+      </c>
+      <c r="AT92">
+        <v>1.82</v>
+      </c>
+      <c r="AU92">
+        <v>5</v>
+      </c>
+      <c r="AV92">
+        <v>5</v>
+      </c>
+      <c r="AW92">
+        <v>3</v>
+      </c>
+      <c r="AX92">
+        <v>5</v>
+      </c>
+      <c r="AY92">
+        <v>12</v>
+      </c>
+      <c r="AZ92">
+        <v>13</v>
+      </c>
+      <c r="BA92">
+        <v>5</v>
+      </c>
+      <c r="BB92">
+        <v>6</v>
+      </c>
+      <c r="BC92">
+        <v>11</v>
+      </c>
+      <c r="BD92">
+        <v>1.49</v>
+      </c>
+      <c r="BE92">
+        <v>6.75</v>
+      </c>
+      <c r="BF92">
+        <v>2.9</v>
+      </c>
+      <c r="BG92">
+        <v>1.36</v>
+      </c>
+      <c r="BH92">
+        <v>2.8</v>
+      </c>
+      <c r="BI92">
+        <v>1.62</v>
+      </c>
+      <c r="BJ92">
+        <v>2.14</v>
+      </c>
+      <c r="BK92">
+        <v>2</v>
+      </c>
+      <c r="BL92">
+        <v>1.71</v>
+      </c>
+      <c r="BM92">
+        <v>2.55</v>
+      </c>
+      <c r="BN92">
+        <v>1.44</v>
+      </c>
+      <c r="BO92">
+        <v>3.4</v>
+      </c>
+      <c r="BP92">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="213">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -496,6 +496,12 @@
     <t>['6', '90+7']</t>
   </si>
   <si>
+    <t>['6', '28', '30', '55']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -607,12 +613,12 @@
     <t>['85', '86']</t>
   </si>
   <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
     <t>['45+6', '63']</t>
   </si>
   <si>
-    <t>['45+3']</t>
-  </si>
-  <si>
     <t>['90']</t>
   </si>
   <si>
@@ -644,6 +650,9 @@
   </si>
   <si>
     <t>['17', '72', '76']</t>
+  </si>
+  <si>
+    <t>['7', '73']</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1014,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP92"/>
+  <dimension ref="A1:BP95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1264,7 +1273,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1342,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ2">
         <v>0.25</v>
@@ -1470,7 +1479,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1676,7 +1685,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1882,7 +1891,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2088,7 +2097,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2166,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ6">
         <v>0.8</v>
@@ -2294,7 +2303,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2500,7 +2509,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2706,7 +2715,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2993,7 +3002,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3118,7 +3127,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3324,7 +3333,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3530,7 +3539,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3814,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ14">
         <v>1.8</v>
@@ -3942,7 +3951,7 @@
         <v>103</v>
       </c>
       <c r="P15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4229,7 +4238,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ16">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4766,7 +4775,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5053,7 +5062,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5384,7 +5393,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5796,7 +5805,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6080,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ25">
         <v>0.2</v>
@@ -6372,7 +6381,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7469674</v>
+        <v>7465038</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -6387,190 +6396,190 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O27" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P27" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="Q27">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="R27">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="S27">
+        <v>5.5</v>
+      </c>
+      <c r="T27">
+        <v>1.5</v>
+      </c>
+      <c r="U27">
+        <v>2.4</v>
+      </c>
+      <c r="V27">
+        <v>3.4</v>
+      </c>
+      <c r="W27">
+        <v>1.28</v>
+      </c>
+      <c r="X27">
+        <v>8</v>
+      </c>
+      <c r="Y27">
+        <v>1.05</v>
+      </c>
+      <c r="Z27">
+        <v>1.67</v>
+      </c>
+      <c r="AA27">
+        <v>3.6</v>
+      </c>
+      <c r="AB27">
+        <v>5.65</v>
+      </c>
+      <c r="AC27">
+        <v>1.08</v>
+      </c>
+      <c r="AD27">
         <v>7.5</v>
       </c>
-      <c r="T27">
+      <c r="AE27">
+        <v>1.45</v>
+      </c>
+      <c r="AF27">
+        <v>2.7</v>
+      </c>
+      <c r="AG27">
+        <v>2.47</v>
+      </c>
+      <c r="AH27">
+        <v>1.54</v>
+      </c>
+      <c r="AI27">
+        <v>2.25</v>
+      </c>
+      <c r="AJ27">
+        <v>1.57</v>
+      </c>
+      <c r="AK27">
+        <v>1.14</v>
+      </c>
+      <c r="AL27">
+        <v>1.22</v>
+      </c>
+      <c r="AM27">
+        <v>2.15</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0.8</v>
+      </c>
+      <c r="AQ27">
+        <v>0.6</v>
+      </c>
+      <c r="AR27">
         <v>1.36</v>
       </c>
-      <c r="U27">
-        <v>2.88</v>
-      </c>
-      <c r="V27">
-        <v>2.75</v>
-      </c>
-      <c r="W27">
-        <v>1.4</v>
-      </c>
-      <c r="X27">
-        <v>6.5</v>
-      </c>
-      <c r="Y27">
-        <v>1.08</v>
-      </c>
-      <c r="Z27">
-        <v>1.45</v>
-      </c>
-      <c r="AA27">
-        <v>4.42</v>
-      </c>
-      <c r="AB27">
-        <v>7.3</v>
-      </c>
-      <c r="AC27">
-        <v>1.05</v>
-      </c>
-      <c r="AD27">
-        <v>9.5</v>
-      </c>
-      <c r="AE27">
-        <v>1.28</v>
-      </c>
-      <c r="AF27">
-        <v>3.55</v>
-      </c>
-      <c r="AG27">
-        <v>1.98</v>
-      </c>
-      <c r="AH27">
-        <v>1.82</v>
-      </c>
-      <c r="AI27">
-        <v>2.2</v>
-      </c>
-      <c r="AJ27">
-        <v>1.6</v>
-      </c>
-      <c r="AK27">
-        <v>1.06</v>
-      </c>
-      <c r="AL27">
-        <v>1.14</v>
-      </c>
-      <c r="AM27">
-        <v>3.1</v>
-      </c>
-      <c r="AN27">
-        <v>3</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>2</v>
-      </c>
-      <c r="AQ27">
-        <v>0.25</v>
-      </c>
-      <c r="AR27">
-        <v>1.31</v>
-      </c>
       <c r="AS27">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="AT27">
-        <v>2.26</v>
+        <v>2.35</v>
       </c>
       <c r="AU27">
+        <v>2</v>
+      </c>
+      <c r="AV27">
+        <v>6</v>
+      </c>
+      <c r="AW27">
+        <v>6</v>
+      </c>
+      <c r="AX27">
         <v>8</v>
       </c>
-      <c r="AV27">
-        <v>2</v>
-      </c>
-      <c r="AW27">
-        <v>10</v>
-      </c>
-      <c r="AX27">
-        <v>7</v>
-      </c>
       <c r="AY27">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AZ27">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC27">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD27">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="BE27">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="BF27">
-        <v>3.7</v>
+        <v>3.15</v>
       </c>
       <c r="BG27">
+        <v>1.36</v>
+      </c>
+      <c r="BH27">
+        <v>2.9</v>
+      </c>
+      <c r="BI27">
+        <v>1.51</v>
+      </c>
+      <c r="BJ27">
+        <v>2.37</v>
+      </c>
+      <c r="BK27">
+        <v>1.9</v>
+      </c>
+      <c r="BL27">
+        <v>1.8</v>
+      </c>
+      <c r="BM27">
+        <v>2.47</v>
+      </c>
+      <c r="BN27">
+        <v>1.48</v>
+      </c>
+      <c r="BO27">
+        <v>3.3</v>
+      </c>
+      <c r="BP27">
         <v>1.29</v>
-      </c>
-      <c r="BH27">
-        <v>3.3</v>
-      </c>
-      <c r="BI27">
-        <v>1.47</v>
-      </c>
-      <c r="BJ27">
-        <v>2.5</v>
-      </c>
-      <c r="BK27">
-        <v>1.85</v>
-      </c>
-      <c r="BL27">
-        <v>1.85</v>
-      </c>
-      <c r="BM27">
-        <v>2.37</v>
-      </c>
-      <c r="BN27">
-        <v>1.51</v>
-      </c>
-      <c r="BO27">
-        <v>3.2</v>
-      </c>
-      <c r="BP27">
-        <v>1.3</v>
       </c>
     </row>
     <row r="28" spans="1:68">
@@ -6578,7 +6587,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>7465038</v>
+        <v>7469674</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -6593,190 +6602,190 @@
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c r="Q28">
+        <v>1.83</v>
+      </c>
+      <c r="R28">
         <v>2.3</v>
       </c>
-      <c r="R28">
-        <v>2</v>
-      </c>
       <c r="S28">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="T28">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="U28">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="V28">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="W28">
+        <v>1.4</v>
+      </c>
+      <c r="X28">
+        <v>6.5</v>
+      </c>
+      <c r="Y28">
+        <v>1.08</v>
+      </c>
+      <c r="Z28">
+        <v>1.45</v>
+      </c>
+      <c r="AA28">
+        <v>4.42</v>
+      </c>
+      <c r="AB28">
+        <v>7.3</v>
+      </c>
+      <c r="AC28">
+        <v>1.05</v>
+      </c>
+      <c r="AD28">
+        <v>9.5</v>
+      </c>
+      <c r="AE28">
         <v>1.28</v>
       </c>
-      <c r="X28">
+      <c r="AF28">
+        <v>3.55</v>
+      </c>
+      <c r="AG28">
+        <v>1.98</v>
+      </c>
+      <c r="AH28">
+        <v>1.82</v>
+      </c>
+      <c r="AI28">
+        <v>2.2</v>
+      </c>
+      <c r="AJ28">
+        <v>1.6</v>
+      </c>
+      <c r="AK28">
+        <v>1.06</v>
+      </c>
+      <c r="AL28">
+        <v>1.14</v>
+      </c>
+      <c r="AM28">
+        <v>3.1</v>
+      </c>
+      <c r="AN28">
+        <v>3</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>2</v>
+      </c>
+      <c r="AQ28">
+        <v>0.2</v>
+      </c>
+      <c r="AR28">
+        <v>1.31</v>
+      </c>
+      <c r="AS28">
+        <v>0.95</v>
+      </c>
+      <c r="AT28">
+        <v>2.26</v>
+      </c>
+      <c r="AU28">
         <v>8</v>
       </c>
-      <c r="Y28">
-        <v>1.05</v>
-      </c>
-      <c r="Z28">
-        <v>1.67</v>
-      </c>
-      <c r="AA28">
-        <v>3.6</v>
-      </c>
-      <c r="AB28">
-        <v>5.65</v>
-      </c>
-      <c r="AC28">
-        <v>1.08</v>
-      </c>
-      <c r="AD28">
-        <v>7.5</v>
-      </c>
-      <c r="AE28">
-        <v>1.45</v>
-      </c>
-      <c r="AF28">
-        <v>2.7</v>
-      </c>
-      <c r="AG28">
-        <v>2.47</v>
-      </c>
-      <c r="AH28">
-        <v>1.54</v>
-      </c>
-      <c r="AI28">
-        <v>2.25</v>
-      </c>
-      <c r="AJ28">
-        <v>1.57</v>
-      </c>
-      <c r="AK28">
-        <v>1.14</v>
-      </c>
-      <c r="AL28">
-        <v>1.22</v>
-      </c>
-      <c r="AM28">
-        <v>2.15</v>
-      </c>
-      <c r="AN28">
-        <v>0</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>0.8</v>
-      </c>
-      <c r="AQ28">
-        <v>0.6</v>
-      </c>
-      <c r="AR28">
-        <v>1.36</v>
-      </c>
-      <c r="AS28">
-        <v>0.99</v>
-      </c>
-      <c r="AT28">
-        <v>2.35</v>
-      </c>
-      <c r="AU28">
-        <v>2</v>
-      </c>
       <c r="AV28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY28">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AZ28">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BA28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC28">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD28">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="BE28">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="BF28">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="BG28">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="BH28">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="BI28">
+        <v>1.47</v>
+      </c>
+      <c r="BJ28">
+        <v>2.5</v>
+      </c>
+      <c r="BK28">
+        <v>1.85</v>
+      </c>
+      <c r="BL28">
+        <v>1.85</v>
+      </c>
+      <c r="BM28">
+        <v>2.37</v>
+      </c>
+      <c r="BN28">
         <v>1.51</v>
       </c>
-      <c r="BJ28">
-        <v>2.37</v>
-      </c>
-      <c r="BK28">
-        <v>1.9</v>
-      </c>
-      <c r="BL28">
-        <v>1.8</v>
-      </c>
-      <c r="BM28">
-        <v>2.47</v>
-      </c>
-      <c r="BN28">
-        <v>1.48</v>
-      </c>
       <c r="BO28">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="BP28">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="29" spans="1:68">
@@ -6904,7 +6913,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ29">
         <v>0.5</v>
@@ -7032,7 +7041,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -7444,7 +7453,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7522,7 +7531,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ32">
         <v>1.8</v>
@@ -7650,7 +7659,7 @@
         <v>115</v>
       </c>
       <c r="P33" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q33">
         <v>3.38</v>
@@ -7856,7 +7865,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -8062,7 +8071,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q35">
         <v>3.22</v>
@@ -8474,7 +8483,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -8552,7 +8561,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ37">
         <v>0.75</v>
@@ -8680,7 +8689,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -8967,7 +8976,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ39">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR39">
         <v>1.12</v>
@@ -9173,7 +9182,7 @@
         <v>3</v>
       </c>
       <c r="AQ40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>2.11</v>
@@ -9504,7 +9513,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9710,7 +9719,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -10122,7 +10131,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10534,7 +10543,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10612,7 +10621,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ47">
         <v>2.5</v>
@@ -10740,7 +10749,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11439,7 +11448,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ51">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR51">
         <v>1.4</v>
@@ -11564,7 +11573,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11770,7 +11779,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12263,7 +12272,7 @@
         <v>1</v>
       </c>
       <c r="AQ55">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR55">
         <v>1.18</v>
@@ -12388,7 +12397,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12466,7 +12475,7 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ56">
         <v>0</v>
@@ -12800,7 +12809,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q58">
         <v>1.51</v>
@@ -12881,7 +12890,7 @@
         <v>3</v>
       </c>
       <c r="AQ58">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR58">
         <v>2.01</v>
@@ -13006,7 +13015,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q59">
         <v>2.9</v>
@@ -13212,7 +13221,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13290,7 +13299,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ60">
         <v>0.75</v>
@@ -13418,7 +13427,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13830,7 +13839,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -13994,7 +14003,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7465070</v>
+        <v>7465074</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -14009,190 +14018,190 @@
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H64" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O64" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="P64" t="s">
-        <v>195</v>
+        <v>104</v>
       </c>
       <c r="Q64">
+        <v>2.88</v>
+      </c>
+      <c r="R64">
+        <v>2</v>
+      </c>
+      <c r="S64">
+        <v>4.33</v>
+      </c>
+      <c r="T64">
+        <v>1.53</v>
+      </c>
+      <c r="U64">
         <v>2.38</v>
       </c>
-      <c r="R64">
-        <v>2.2</v>
-      </c>
-      <c r="S64">
+      <c r="V64">
+        <v>3.5</v>
+      </c>
+      <c r="W64">
+        <v>1.29</v>
+      </c>
+      <c r="X64">
+        <v>11</v>
+      </c>
+      <c r="Y64">
+        <v>1.05</v>
+      </c>
+      <c r="Z64">
+        <v>2.1</v>
+      </c>
+      <c r="AA64">
+        <v>3.2</v>
+      </c>
+      <c r="AB64">
+        <v>3.7</v>
+      </c>
+      <c r="AC64">
+        <v>1.04</v>
+      </c>
+      <c r="AD64">
+        <v>6.55</v>
+      </c>
+      <c r="AE64">
+        <v>1.46</v>
+      </c>
+      <c r="AF64">
+        <v>2.77</v>
+      </c>
+      <c r="AG64">
+        <v>2.3</v>
+      </c>
+      <c r="AH64">
+        <v>1.55</v>
+      </c>
+      <c r="AI64">
+        <v>2.05</v>
+      </c>
+      <c r="AJ64">
+        <v>1.7</v>
+      </c>
+      <c r="AK64">
+        <v>1.28</v>
+      </c>
+      <c r="AL64">
+        <v>1.3</v>
+      </c>
+      <c r="AM64">
+        <v>1.75</v>
+      </c>
+      <c r="AN64">
+        <v>1.33</v>
+      </c>
+      <c r="AO64">
+        <v>0</v>
+      </c>
+      <c r="AP64">
+        <v>1.25</v>
+      </c>
+      <c r="AQ64">
+        <v>0.5</v>
+      </c>
+      <c r="AR64">
+        <v>1.24</v>
+      </c>
+      <c r="AS64">
+        <v>0.55</v>
+      </c>
+      <c r="AT64">
+        <v>1.79</v>
+      </c>
+      <c r="AU64">
+        <v>4</v>
+      </c>
+      <c r="AV64">
+        <v>3</v>
+      </c>
+      <c r="AW64">
+        <v>3</v>
+      </c>
+      <c r="AX64">
+        <v>4</v>
+      </c>
+      <c r="AY64">
+        <v>11</v>
+      </c>
+      <c r="AZ64">
+        <v>10</v>
+      </c>
+      <c r="BA64">
+        <v>10</v>
+      </c>
+      <c r="BB64">
         <v>5</v>
       </c>
-      <c r="T64">
+      <c r="BC64">
+        <v>15</v>
+      </c>
+      <c r="BD64">
+        <v>1.72</v>
+      </c>
+      <c r="BE64">
+        <v>6.4</v>
+      </c>
+      <c r="BF64">
+        <v>2.38</v>
+      </c>
+      <c r="BG64">
+        <v>1.41</v>
+      </c>
+      <c r="BH64">
+        <v>2.63</v>
+      </c>
+      <c r="BI64">
+        <v>1.71</v>
+      </c>
+      <c r="BJ64">
+        <v>2</v>
+      </c>
+      <c r="BK64">
+        <v>2.12</v>
+      </c>
+      <c r="BL64">
+        <v>1.63</v>
+      </c>
+      <c r="BM64">
+        <v>2.7</v>
+      </c>
+      <c r="BN64">
         <v>1.4</v>
       </c>
-      <c r="U64">
-        <v>2.75</v>
-      </c>
-      <c r="V64">
-        <v>3</v>
-      </c>
-      <c r="W64">
-        <v>1.36</v>
-      </c>
-      <c r="X64">
-        <v>8</v>
-      </c>
-      <c r="Y64">
-        <v>1.08</v>
-      </c>
-      <c r="Z64">
-        <v>1.75</v>
-      </c>
-      <c r="AA64">
-        <v>3.7</v>
-      </c>
-      <c r="AB64">
-        <v>4.6</v>
-      </c>
-      <c r="AC64">
-        <v>1.05</v>
-      </c>
-      <c r="AD64">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AE64">
-        <v>1.31</v>
-      </c>
-      <c r="AF64">
-        <v>3.42</v>
-      </c>
-      <c r="AG64">
-        <v>1.91</v>
-      </c>
-      <c r="AH64">
-        <v>1.8</v>
-      </c>
-      <c r="AI64">
-        <v>1.91</v>
-      </c>
-      <c r="AJ64">
-        <v>1.91</v>
-      </c>
-      <c r="AK64">
-        <v>1.2</v>
-      </c>
-      <c r="AL64">
-        <v>1.24</v>
-      </c>
-      <c r="AM64">
-        <v>2.1</v>
-      </c>
-      <c r="AN64">
-        <v>1</v>
-      </c>
-      <c r="AO64">
-        <v>0</v>
-      </c>
-      <c r="AP64">
-        <v>1.8</v>
-      </c>
-      <c r="AQ64">
-        <v>0.6</v>
-      </c>
-      <c r="AR64">
-        <v>1.56</v>
-      </c>
-      <c r="AS64">
-        <v>0.74</v>
-      </c>
-      <c r="AT64">
-        <v>2.3</v>
-      </c>
-      <c r="AU64">
-        <v>6</v>
-      </c>
-      <c r="AV64">
-        <v>3</v>
-      </c>
-      <c r="AW64">
-        <v>6</v>
-      </c>
-      <c r="AX64">
-        <v>3</v>
-      </c>
-      <c r="AY64">
-        <v>23</v>
-      </c>
-      <c r="AZ64">
-        <v>9</v>
-      </c>
-      <c r="BA64">
-        <v>6</v>
-      </c>
-      <c r="BB64">
-        <v>4</v>
-      </c>
-      <c r="BC64">
-        <v>10</v>
-      </c>
-      <c r="BD64">
-        <v>1.49</v>
-      </c>
-      <c r="BE64">
-        <v>6.75</v>
-      </c>
-      <c r="BF64">
-        <v>2.9</v>
-      </c>
-      <c r="BG64">
-        <v>1.33</v>
-      </c>
-      <c r="BH64">
-        <v>2.95</v>
-      </c>
-      <c r="BI64">
-        <v>1.57</v>
-      </c>
-      <c r="BJ64">
-        <v>2.23</v>
-      </c>
-      <c r="BK64">
-        <v>1.94</v>
-      </c>
-      <c r="BL64">
-        <v>1.76</v>
-      </c>
-      <c r="BM64">
-        <v>2.43</v>
-      </c>
-      <c r="BN64">
-        <v>1.47</v>
-      </c>
       <c r="BO64">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="BP64">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="65" spans="1:68">
@@ -14200,7 +14209,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>7465074</v>
+        <v>7465070</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
@@ -14215,190 +14224,190 @@
         <v>7</v>
       </c>
       <c r="G65" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O65" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>104</v>
+        <v>197</v>
       </c>
       <c r="Q65">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="R65">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S65">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="T65">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="U65">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="V65">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="W65">
+        <v>1.36</v>
+      </c>
+      <c r="X65">
+        <v>8</v>
+      </c>
+      <c r="Y65">
+        <v>1.08</v>
+      </c>
+      <c r="Z65">
+        <v>1.75</v>
+      </c>
+      <c r="AA65">
+        <v>3.7</v>
+      </c>
+      <c r="AB65">
+        <v>4.6</v>
+      </c>
+      <c r="AC65">
+        <v>1.05</v>
+      </c>
+      <c r="AD65">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE65">
+        <v>1.31</v>
+      </c>
+      <c r="AF65">
+        <v>3.42</v>
+      </c>
+      <c r="AG65">
+        <v>1.91</v>
+      </c>
+      <c r="AH65">
+        <v>1.8</v>
+      </c>
+      <c r="AI65">
+        <v>1.91</v>
+      </c>
+      <c r="AJ65">
+        <v>1.91</v>
+      </c>
+      <c r="AK65">
+        <v>1.2</v>
+      </c>
+      <c r="AL65">
+        <v>1.24</v>
+      </c>
+      <c r="AM65">
+        <v>2.1</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
+        <v>0</v>
+      </c>
+      <c r="AP65">
+        <v>1.8</v>
+      </c>
+      <c r="AQ65">
+        <v>0.6</v>
+      </c>
+      <c r="AR65">
+        <v>1.56</v>
+      </c>
+      <c r="AS65">
+        <v>0.74</v>
+      </c>
+      <c r="AT65">
+        <v>2.3</v>
+      </c>
+      <c r="AU65">
+        <v>6</v>
+      </c>
+      <c r="AV65">
+        <v>3</v>
+      </c>
+      <c r="AW65">
+        <v>6</v>
+      </c>
+      <c r="AX65">
+        <v>3</v>
+      </c>
+      <c r="AY65">
+        <v>23</v>
+      </c>
+      <c r="AZ65">
+        <v>9</v>
+      </c>
+      <c r="BA65">
+        <v>6</v>
+      </c>
+      <c r="BB65">
+        <v>4</v>
+      </c>
+      <c r="BC65">
+        <v>10</v>
+      </c>
+      <c r="BD65">
+        <v>1.49</v>
+      </c>
+      <c r="BE65">
+        <v>6.75</v>
+      </c>
+      <c r="BF65">
+        <v>2.9</v>
+      </c>
+      <c r="BG65">
+        <v>1.33</v>
+      </c>
+      <c r="BH65">
+        <v>2.95</v>
+      </c>
+      <c r="BI65">
+        <v>1.57</v>
+      </c>
+      <c r="BJ65">
+        <v>2.23</v>
+      </c>
+      <c r="BK65">
+        <v>1.94</v>
+      </c>
+      <c r="BL65">
+        <v>1.76</v>
+      </c>
+      <c r="BM65">
+        <v>2.43</v>
+      </c>
+      <c r="BN65">
+        <v>1.47</v>
+      </c>
+      <c r="BO65">
+        <v>3.15</v>
+      </c>
+      <c r="BP65">
         <v>1.29</v>
-      </c>
-      <c r="X65">
-        <v>11</v>
-      </c>
-      <c r="Y65">
-        <v>1.05</v>
-      </c>
-      <c r="Z65">
-        <v>2.1</v>
-      </c>
-      <c r="AA65">
-        <v>3.2</v>
-      </c>
-      <c r="AB65">
-        <v>3.7</v>
-      </c>
-      <c r="AC65">
-        <v>1.04</v>
-      </c>
-      <c r="AD65">
-        <v>6.55</v>
-      </c>
-      <c r="AE65">
-        <v>1.46</v>
-      </c>
-      <c r="AF65">
-        <v>2.77</v>
-      </c>
-      <c r="AG65">
-        <v>2.3</v>
-      </c>
-      <c r="AH65">
-        <v>1.55</v>
-      </c>
-      <c r="AI65">
-        <v>2.05</v>
-      </c>
-      <c r="AJ65">
-        <v>1.7</v>
-      </c>
-      <c r="AK65">
-        <v>1.28</v>
-      </c>
-      <c r="AL65">
-        <v>1.3</v>
-      </c>
-      <c r="AM65">
-        <v>1.75</v>
-      </c>
-      <c r="AN65">
-        <v>1.33</v>
-      </c>
-      <c r="AO65">
-        <v>0</v>
-      </c>
-      <c r="AP65">
-        <v>1.25</v>
-      </c>
-      <c r="AQ65">
-        <v>0.5</v>
-      </c>
-      <c r="AR65">
-        <v>1.24</v>
-      </c>
-      <c r="AS65">
-        <v>0.55</v>
-      </c>
-      <c r="AT65">
-        <v>1.79</v>
-      </c>
-      <c r="AU65">
-        <v>4</v>
-      </c>
-      <c r="AV65">
-        <v>3</v>
-      </c>
-      <c r="AW65">
-        <v>3</v>
-      </c>
-      <c r="AX65">
-        <v>4</v>
-      </c>
-      <c r="AY65">
-        <v>11</v>
-      </c>
-      <c r="AZ65">
-        <v>10</v>
-      </c>
-      <c r="BA65">
-        <v>10</v>
-      </c>
-      <c r="BB65">
-        <v>5</v>
-      </c>
-      <c r="BC65">
-        <v>15</v>
-      </c>
-      <c r="BD65">
-        <v>1.72</v>
-      </c>
-      <c r="BE65">
-        <v>6.4</v>
-      </c>
-      <c r="BF65">
-        <v>2.38</v>
-      </c>
-      <c r="BG65">
-        <v>1.41</v>
-      </c>
-      <c r="BH65">
-        <v>2.63</v>
-      </c>
-      <c r="BI65">
-        <v>1.71</v>
-      </c>
-      <c r="BJ65">
-        <v>2</v>
-      </c>
-      <c r="BK65">
-        <v>2.12</v>
-      </c>
-      <c r="BL65">
-        <v>1.63</v>
-      </c>
-      <c r="BM65">
-        <v>2.7</v>
-      </c>
-      <c r="BN65">
-        <v>1.4</v>
-      </c>
-      <c r="BO65">
-        <v>3.65</v>
-      </c>
-      <c r="BP65">
-        <v>1.23</v>
       </c>
     </row>
     <row r="66" spans="1:68">
@@ -14448,7 +14457,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -14732,7 +14741,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ67">
         <v>1.6</v>
@@ -15024,7 +15033,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7469578</v>
+        <v>7465073</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -15039,10 +15048,10 @@
         <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H69" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -15057,172 +15066,172 @@
         <v>1</v>
       </c>
       <c r="M69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O69" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="P69" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q69">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R69">
+        <v>2.05</v>
+      </c>
+      <c r="S69">
+        <v>3.1</v>
+      </c>
+      <c r="T69">
+        <v>1.44</v>
+      </c>
+      <c r="U69">
+        <v>2.63</v>
+      </c>
+      <c r="V69">
+        <v>3.25</v>
+      </c>
+      <c r="W69">
+        <v>1.33</v>
+      </c>
+      <c r="X69">
+        <v>10</v>
+      </c>
+      <c r="Y69">
+        <v>1.06</v>
+      </c>
+      <c r="Z69">
+        <v>3</v>
+      </c>
+      <c r="AA69">
+        <v>3.2</v>
+      </c>
+      <c r="AB69">
+        <v>2.37</v>
+      </c>
+      <c r="AC69">
+        <v>1.07</v>
+      </c>
+      <c r="AD69">
+        <v>7</v>
+      </c>
+      <c r="AE69">
+        <v>1.35</v>
+      </c>
+      <c r="AF69">
+        <v>2.95</v>
+      </c>
+      <c r="AG69">
         <v>2.2</v>
       </c>
-      <c r="S69">
-        <v>2.75</v>
-      </c>
-      <c r="T69">
+      <c r="AH69">
+        <v>1.6</v>
+      </c>
+      <c r="AI69">
+        <v>1.91</v>
+      </c>
+      <c r="AJ69">
+        <v>1.91</v>
+      </c>
+      <c r="AK69">
+        <v>1.55</v>
+      </c>
+      <c r="AL69">
+        <v>1.3</v>
+      </c>
+      <c r="AM69">
         <v>1.36</v>
       </c>
-      <c r="U69">
-        <v>3</v>
-      </c>
-      <c r="V69">
-        <v>2.75</v>
-      </c>
-      <c r="W69">
-        <v>1.4</v>
-      </c>
-      <c r="X69">
-        <v>7</v>
-      </c>
-      <c r="Y69">
-        <v>1.1</v>
-      </c>
-      <c r="Z69">
-        <v>3.4</v>
-      </c>
-      <c r="AA69">
-        <v>3.4</v>
-      </c>
-      <c r="AB69">
-        <v>2.1</v>
-      </c>
-      <c r="AC69">
-        <v>1.06</v>
-      </c>
-      <c r="AD69">
-        <v>10</v>
-      </c>
-      <c r="AE69">
-        <v>1.3</v>
-      </c>
-      <c r="AF69">
-        <v>3.6</v>
-      </c>
-      <c r="AG69">
-        <v>1.83</v>
-      </c>
-      <c r="AH69">
-        <v>1.85</v>
-      </c>
-      <c r="AI69">
-        <v>1.7</v>
-      </c>
-      <c r="AJ69">
-        <v>2.05</v>
-      </c>
-      <c r="AK69">
-        <v>1.78</v>
-      </c>
-      <c r="AL69">
-        <v>1.28</v>
-      </c>
-      <c r="AM69">
-        <v>1.3</v>
-      </c>
       <c r="AN69">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="AO69">
-        <v>2.33</v>
+        <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="AQ69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR69">
-        <v>1.13</v>
+        <v>1.36</v>
       </c>
       <c r="AS69">
         <v>1.25</v>
       </c>
       <c r="AT69">
-        <v>2.38</v>
+        <v>2.61</v>
       </c>
       <c r="AU69">
         <v>3</v>
       </c>
       <c r="AV69">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX69">
         <v>7</v>
       </c>
       <c r="AY69">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ69">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA69">
+        <v>1</v>
+      </c>
+      <c r="BB69">
         <v>4</v>
-      </c>
-      <c r="BB69">
-        <v>1</v>
       </c>
       <c r="BC69">
         <v>5</v>
       </c>
       <c r="BD69">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="BE69">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="BF69">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="BG69">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="BH69">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="BI69">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="BJ69">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="BK69">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="BL69">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="BM69">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="BN69">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="BO69">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="BP69">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15230,7 +15239,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7465073</v>
+        <v>7469578</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -15245,10 +15254,10 @@
         <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H70" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -15263,172 +15272,172 @@
         <v>1</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O70" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="P70" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q70">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R70">
+        <v>2.2</v>
+      </c>
+      <c r="S70">
+        <v>2.75</v>
+      </c>
+      <c r="T70">
+        <v>1.36</v>
+      </c>
+      <c r="U70">
+        <v>3</v>
+      </c>
+      <c r="V70">
+        <v>2.75</v>
+      </c>
+      <c r="W70">
+        <v>1.4</v>
+      </c>
+      <c r="X70">
+        <v>7</v>
+      </c>
+      <c r="Y70">
+        <v>1.1</v>
+      </c>
+      <c r="Z70">
+        <v>3.4</v>
+      </c>
+      <c r="AA70">
+        <v>3.4</v>
+      </c>
+      <c r="AB70">
+        <v>2.1</v>
+      </c>
+      <c r="AC70">
+        <v>1.06</v>
+      </c>
+      <c r="AD70">
+        <v>10</v>
+      </c>
+      <c r="AE70">
+        <v>1.3</v>
+      </c>
+      <c r="AF70">
+        <v>3.6</v>
+      </c>
+      <c r="AG70">
+        <v>1.83</v>
+      </c>
+      <c r="AH70">
+        <v>1.85</v>
+      </c>
+      <c r="AI70">
+        <v>1.7</v>
+      </c>
+      <c r="AJ70">
         <v>2.05</v>
       </c>
-      <c r="S70">
-        <v>3.1</v>
-      </c>
-      <c r="T70">
-        <v>1.44</v>
-      </c>
-      <c r="U70">
-        <v>2.63</v>
-      </c>
-      <c r="V70">
-        <v>3.25</v>
-      </c>
-      <c r="W70">
-        <v>1.33</v>
-      </c>
-      <c r="X70">
-        <v>10</v>
-      </c>
-      <c r="Y70">
-        <v>1.06</v>
-      </c>
-      <c r="Z70">
-        <v>3</v>
-      </c>
-      <c r="AA70">
-        <v>3.2</v>
-      </c>
-      <c r="AB70">
-        <v>2.37</v>
-      </c>
-      <c r="AC70">
-        <v>1.07</v>
-      </c>
-      <c r="AD70">
-        <v>7</v>
-      </c>
-      <c r="AE70">
-        <v>1.35</v>
-      </c>
-      <c r="AF70">
-        <v>2.95</v>
-      </c>
-      <c r="AG70">
-        <v>2.2</v>
-      </c>
-      <c r="AH70">
-        <v>1.6</v>
-      </c>
-      <c r="AI70">
-        <v>1.91</v>
-      </c>
-      <c r="AJ70">
-        <v>1.91</v>
-      </c>
       <c r="AK70">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="AL70">
+        <v>1.28</v>
+      </c>
+      <c r="AM70">
         <v>1.3</v>
       </c>
-      <c r="AM70">
-        <v>1.36</v>
-      </c>
       <c r="AN70">
-        <v>0.67</v>
+        <v>2</v>
       </c>
       <c r="AO70">
-        <v>0.5</v>
+        <v>2.33</v>
       </c>
       <c r="AP70">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="AQ70">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AR70">
-        <v>1.36</v>
+        <v>1.13</v>
       </c>
       <c r="AS70">
         <v>1.25</v>
       </c>
       <c r="AT70">
-        <v>2.61</v>
+        <v>2.38</v>
       </c>
       <c r="AU70">
         <v>3</v>
       </c>
       <c r="AV70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX70">
         <v>7</v>
       </c>
       <c r="AY70">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ70">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC70">
         <v>5</v>
       </c>
       <c r="BD70">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="BE70">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="BF70">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="BG70">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="BH70">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="BI70">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="BJ70">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="BK70">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="BL70">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="BM70">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="BN70">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="BO70">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="BP70">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="71" spans="1:68">
@@ -15478,7 +15487,7 @@
         <v>104</v>
       </c>
       <c r="P71" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15684,7 +15693,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16508,7 +16517,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -16586,7 +16595,7 @@
         <v>3</v>
       </c>
       <c r="AP76">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ76">
         <v>2.5</v>
@@ -16920,7 +16929,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -16998,7 +17007,7 @@
         <v>0.67</v>
       </c>
       <c r="AP78">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ78">
         <v>0.75</v>
@@ -17207,7 +17216,7 @@
         <v>2</v>
       </c>
       <c r="AQ79">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR79">
         <v>1.68</v>
@@ -17332,7 +17341,7 @@
         <v>150</v>
       </c>
       <c r="P80" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -17538,7 +17547,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -17950,7 +17959,7 @@
         <v>152</v>
       </c>
       <c r="P83" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18156,7 +18165,7 @@
         <v>153</v>
       </c>
       <c r="P84" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -18362,7 +18371,7 @@
         <v>104</v>
       </c>
       <c r="P85" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q85">
         <v>3.6</v>
@@ -18568,7 +18577,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -18980,7 +18989,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19058,7 +19067,7 @@
         <v>2</v>
       </c>
       <c r="AP88">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ88">
         <v>1.5</v>
@@ -19186,7 +19195,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -19473,7 +19482,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ90">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>1.55</v>
@@ -19598,7 +19607,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -19771,10 +19780,10 @@
         <v>69</v>
       </c>
       <c r="E92" s="2">
-        <v>45582.875</v>
+        <v>45583.66666666666</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G92" t="s">
         <v>86</v>
@@ -19804,7 +19813,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -19961,6 +19970,624 @@
       </c>
       <c r="BP92">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7469677</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45584.375</v>
+      </c>
+      <c r="F93">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>70</v>
+      </c>
+      <c r="H93" t="s">
+        <v>82</v>
+      </c>
+      <c r="I93">
+        <v>3</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>3</v>
+      </c>
+      <c r="L93">
+        <v>4</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>5</v>
+      </c>
+      <c r="O93" t="s">
+        <v>160</v>
+      </c>
+      <c r="P93" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q93">
+        <v>2.05</v>
+      </c>
+      <c r="R93">
+        <v>2.25</v>
+      </c>
+      <c r="S93">
+        <v>6.5</v>
+      </c>
+      <c r="T93">
+        <v>1.4</v>
+      </c>
+      <c r="U93">
+        <v>2.75</v>
+      </c>
+      <c r="V93">
+        <v>2.75</v>
+      </c>
+      <c r="W93">
+        <v>1.4</v>
+      </c>
+      <c r="X93">
+        <v>8</v>
+      </c>
+      <c r="Y93">
+        <v>1.08</v>
+      </c>
+      <c r="Z93">
+        <v>1.5</v>
+      </c>
+      <c r="AA93">
+        <v>4</v>
+      </c>
+      <c r="AB93">
+        <v>7</v>
+      </c>
+      <c r="AC93">
+        <v>1.05</v>
+      </c>
+      <c r="AD93">
+        <v>11</v>
+      </c>
+      <c r="AE93">
+        <v>1.33</v>
+      </c>
+      <c r="AF93">
+        <v>3.4</v>
+      </c>
+      <c r="AG93">
+        <v>1.91</v>
+      </c>
+      <c r="AH93">
+        <v>1.91</v>
+      </c>
+      <c r="AI93">
+        <v>2</v>
+      </c>
+      <c r="AJ93">
+        <v>1.75</v>
+      </c>
+      <c r="AK93">
+        <v>1.11</v>
+      </c>
+      <c r="AL93">
+        <v>1.2</v>
+      </c>
+      <c r="AM93">
+        <v>2.55</v>
+      </c>
+      <c r="AN93">
+        <v>1.6</v>
+      </c>
+      <c r="AO93">
+        <v>0.25</v>
+      </c>
+      <c r="AP93">
+        <v>1.83</v>
+      </c>
+      <c r="AQ93">
+        <v>0.2</v>
+      </c>
+      <c r="AR93">
+        <v>1.22</v>
+      </c>
+      <c r="AS93">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT93">
+        <v>2.03</v>
+      </c>
+      <c r="AU93">
+        <v>7</v>
+      </c>
+      <c r="AV93">
+        <v>3</v>
+      </c>
+      <c r="AW93">
+        <v>4</v>
+      </c>
+      <c r="AX93">
+        <v>2</v>
+      </c>
+      <c r="AY93">
+        <v>11</v>
+      </c>
+      <c r="AZ93">
+        <v>6</v>
+      </c>
+      <c r="BA93">
+        <v>5</v>
+      </c>
+      <c r="BB93">
+        <v>5</v>
+      </c>
+      <c r="BC93">
+        <v>10</v>
+      </c>
+      <c r="BD93">
+        <v>1.3</v>
+      </c>
+      <c r="BE93">
+        <v>7.5</v>
+      </c>
+      <c r="BF93">
+        <v>3.9</v>
+      </c>
+      <c r="BG93">
+        <v>1.29</v>
+      </c>
+      <c r="BH93">
+        <v>3.15</v>
+      </c>
+      <c r="BI93">
+        <v>1.5</v>
+      </c>
+      <c r="BJ93">
+        <v>2.38</v>
+      </c>
+      <c r="BK93">
+        <v>1.82</v>
+      </c>
+      <c r="BL93">
+        <v>1.86</v>
+      </c>
+      <c r="BM93">
+        <v>2.3</v>
+      </c>
+      <c r="BN93">
+        <v>1.54</v>
+      </c>
+      <c r="BO93">
+        <v>2.9</v>
+      </c>
+      <c r="BP93">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7465100</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45584.46875</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>74</v>
+      </c>
+      <c r="H94" t="s">
+        <v>71</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="N94">
+        <v>3</v>
+      </c>
+      <c r="O94" t="s">
+        <v>161</v>
+      </c>
+      <c r="P94" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q94">
+        <v>3.4</v>
+      </c>
+      <c r="R94">
+        <v>2.05</v>
+      </c>
+      <c r="S94">
+        <v>3.4</v>
+      </c>
+      <c r="T94">
+        <v>1.44</v>
+      </c>
+      <c r="U94">
+        <v>2.63</v>
+      </c>
+      <c r="V94">
+        <v>3.25</v>
+      </c>
+      <c r="W94">
+        <v>1.33</v>
+      </c>
+      <c r="X94">
+        <v>9</v>
+      </c>
+      <c r="Y94">
+        <v>1.07</v>
+      </c>
+      <c r="Z94">
+        <v>2.63</v>
+      </c>
+      <c r="AA94">
+        <v>3.4</v>
+      </c>
+      <c r="AB94">
+        <v>2.55</v>
+      </c>
+      <c r="AC94">
+        <v>1.06</v>
+      </c>
+      <c r="AD94">
+        <v>11</v>
+      </c>
+      <c r="AE94">
+        <v>1.38</v>
+      </c>
+      <c r="AF94">
+        <v>3.1</v>
+      </c>
+      <c r="AG94">
+        <v>2.1</v>
+      </c>
+      <c r="AH94">
+        <v>1.73</v>
+      </c>
+      <c r="AI94">
+        <v>1.91</v>
+      </c>
+      <c r="AJ94">
+        <v>1.91</v>
+      </c>
+      <c r="AK94">
+        <v>1.5</v>
+      </c>
+      <c r="AL94">
+        <v>1.26</v>
+      </c>
+      <c r="AM94">
+        <v>1.52</v>
+      </c>
+      <c r="AN94">
+        <v>2.6</v>
+      </c>
+      <c r="AO94">
+        <v>0.5</v>
+      </c>
+      <c r="AP94">
+        <v>2.17</v>
+      </c>
+      <c r="AQ94">
+        <v>1</v>
+      </c>
+      <c r="AR94">
+        <v>1.49</v>
+      </c>
+      <c r="AS94">
+        <v>1.33</v>
+      </c>
+      <c r="AT94">
+        <v>2.82</v>
+      </c>
+      <c r="AU94">
+        <v>7</v>
+      </c>
+      <c r="AV94">
+        <v>8</v>
+      </c>
+      <c r="AW94">
+        <v>7</v>
+      </c>
+      <c r="AX94">
+        <v>3</v>
+      </c>
+      <c r="AY94">
+        <v>20</v>
+      </c>
+      <c r="AZ94">
+        <v>12</v>
+      </c>
+      <c r="BA94">
+        <v>10</v>
+      </c>
+      <c r="BB94">
+        <v>2</v>
+      </c>
+      <c r="BC94">
+        <v>12</v>
+      </c>
+      <c r="BD94">
+        <v>1.95</v>
+      </c>
+      <c r="BE94">
+        <v>6.4</v>
+      </c>
+      <c r="BF94">
+        <v>2.05</v>
+      </c>
+      <c r="BG94">
+        <v>1.35</v>
+      </c>
+      <c r="BH94">
+        <v>2.9</v>
+      </c>
+      <c r="BI94">
+        <v>1.58</v>
+      </c>
+      <c r="BJ94">
+        <v>2.18</v>
+      </c>
+      <c r="BK94">
+        <v>1.95</v>
+      </c>
+      <c r="BL94">
+        <v>1.74</v>
+      </c>
+      <c r="BM94">
+        <v>2.45</v>
+      </c>
+      <c r="BN94">
+        <v>1.48</v>
+      </c>
+      <c r="BO94">
+        <v>3.2</v>
+      </c>
+      <c r="BP94">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7465097</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45584.5625</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>89</v>
+      </c>
+      <c r="H95" t="s">
+        <v>76</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95" t="s">
+        <v>104</v>
+      </c>
+      <c r="P95" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q95">
+        <v>3.2</v>
+      </c>
+      <c r="R95">
+        <v>2.05</v>
+      </c>
+      <c r="S95">
+        <v>3.6</v>
+      </c>
+      <c r="T95">
+        <v>1.5</v>
+      </c>
+      <c r="U95">
+        <v>2.5</v>
+      </c>
+      <c r="V95">
+        <v>3.4</v>
+      </c>
+      <c r="W95">
+        <v>1.3</v>
+      </c>
+      <c r="X95">
+        <v>10</v>
+      </c>
+      <c r="Y95">
+        <v>1.06</v>
+      </c>
+      <c r="Z95">
+        <v>2.4</v>
+      </c>
+      <c r="AA95">
+        <v>3.4</v>
+      </c>
+      <c r="AB95">
+        <v>2.88</v>
+      </c>
+      <c r="AC95">
+        <v>1.02</v>
+      </c>
+      <c r="AD95">
+        <v>7.2</v>
+      </c>
+      <c r="AE95">
+        <v>1.35</v>
+      </c>
+      <c r="AF95">
+        <v>2.75</v>
+      </c>
+      <c r="AG95">
+        <v>2.2</v>
+      </c>
+      <c r="AH95">
+        <v>1.67</v>
+      </c>
+      <c r="AI95">
+        <v>1.95</v>
+      </c>
+      <c r="AJ95">
+        <v>1.8</v>
+      </c>
+      <c r="AK95">
+        <v>1.4</v>
+      </c>
+      <c r="AL95">
+        <v>1.3</v>
+      </c>
+      <c r="AM95">
+        <v>1.58</v>
+      </c>
+      <c r="AN95">
+        <v>1.75</v>
+      </c>
+      <c r="AO95">
+        <v>1.25</v>
+      </c>
+      <c r="AP95">
+        <v>1.4</v>
+      </c>
+      <c r="AQ95">
+        <v>1.6</v>
+      </c>
+      <c r="AR95">
+        <v>1.38</v>
+      </c>
+      <c r="AS95">
+        <v>1.04</v>
+      </c>
+      <c r="AT95">
+        <v>2.42</v>
+      </c>
+      <c r="AU95">
+        <v>4</v>
+      </c>
+      <c r="AV95">
+        <v>5</v>
+      </c>
+      <c r="AW95">
+        <v>4</v>
+      </c>
+      <c r="AX95">
+        <v>6</v>
+      </c>
+      <c r="AY95">
+        <v>9</v>
+      </c>
+      <c r="AZ95">
+        <v>15</v>
+      </c>
+      <c r="BA95">
+        <v>6</v>
+      </c>
+      <c r="BB95">
+        <v>6</v>
+      </c>
+      <c r="BC95">
+        <v>12</v>
+      </c>
+      <c r="BD95">
+        <v>1.84</v>
+      </c>
+      <c r="BE95">
+        <v>8.1</v>
+      </c>
+      <c r="BF95">
+        <v>2.38</v>
+      </c>
+      <c r="BG95">
+        <v>1.38</v>
+      </c>
+      <c r="BH95">
+        <v>2.71</v>
+      </c>
+      <c r="BI95">
+        <v>1.73</v>
+      </c>
+      <c r="BJ95">
+        <v>2</v>
+      </c>
+      <c r="BK95">
+        <v>2.17</v>
+      </c>
+      <c r="BL95">
+        <v>1.58</v>
+      </c>
+      <c r="BM95">
+        <v>2.88</v>
+      </c>
+      <c r="BN95">
+        <v>1.3</v>
+      </c>
+      <c r="BO95">
+        <v>4.05</v>
+      </c>
+      <c r="BP95">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="219">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -502,6 +502,15 @@
     <t>['59']</t>
   </si>
   <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['69', '81', '90+9']</t>
+  </si>
+  <si>
+    <t>['24', '28', '39', '82', '88']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -652,7 +661,16 @@
     <t>['17', '72', '76']</t>
   </si>
   <si>
+    <t>['20', '66']</t>
+  </si>
+  <si>
     <t>['7', '73']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['87']</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1032,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP95"/>
+  <dimension ref="A1:BP100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1273,7 +1291,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1354,7 +1372,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ2">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1479,7 +1497,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1685,7 +1703,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1763,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ4">
         <v>0.6</v>
@@ -1891,7 +1909,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1972,7 +1990,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ5">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2097,7 +2115,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2178,7 +2196,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ6">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2303,7 +2321,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2509,7 +2527,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2590,7 +2608,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ8">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2715,7 +2733,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2793,10 +2811,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3127,7 +3145,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3205,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ11">
         <v>1.8</v>
@@ -3333,7 +3351,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3411,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ12">
         <v>0.2</v>
@@ -3539,7 +3557,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3951,7 +3969,7 @@
         <v>103</v>
       </c>
       <c r="P15" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4444,7 +4462,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ17">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4775,7 +4793,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5265,7 +5283,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -5393,7 +5411,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5471,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ22">
         <v>0.75</v>
@@ -5677,10 +5695,10 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ23">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR23">
         <v>1.51</v>
@@ -5805,7 +5823,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6298,7 +6316,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR26">
         <v>0.95</v>
@@ -6423,7 +6441,7 @@
         <v>111</v>
       </c>
       <c r="P27" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q27">
         <v>2.3</v>
@@ -6707,7 +6725,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ28">
         <v>0.2</v>
@@ -7041,7 +7059,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -7122,7 +7140,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ30">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR30">
         <v>1.44</v>
@@ -7453,7 +7471,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7659,7 +7677,7 @@
         <v>115</v>
       </c>
       <c r="P33" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q33">
         <v>3.38</v>
@@ -7740,7 +7758,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ33">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR33">
         <v>1.22</v>
@@ -7865,7 +7883,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -8071,7 +8089,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q35">
         <v>3.22</v>
@@ -8483,7 +8501,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -8689,7 +8707,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -9388,7 +9406,7 @@
         <v>2</v>
       </c>
       <c r="AQ41">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR41">
         <v>1.59</v>
@@ -9513,7 +9531,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9591,7 +9609,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ42">
         <v>2</v>
@@ -9719,7 +9737,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -10006,7 +10024,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ44">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR44">
         <v>1.7</v>
@@ -10131,7 +10149,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10212,7 +10230,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR45">
         <v>1.14</v>
@@ -10415,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ46">
         <v>0.6</v>
@@ -10543,7 +10561,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10749,7 +10767,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11033,7 +11051,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ49">
         <v>0.2</v>
@@ -11445,7 +11463,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ51">
         <v>1.6</v>
@@ -11573,7 +11591,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11654,7 +11672,7 @@
         <v>2</v>
       </c>
       <c r="AQ52">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR52">
         <v>1.61</v>
@@ -11779,7 +11797,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12066,7 +12084,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ54">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR54">
         <v>1.07</v>
@@ -12397,7 +12415,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12809,7 +12827,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q58">
         <v>1.51</v>
@@ -13015,7 +13033,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q59">
         <v>2.9</v>
@@ -13096,7 +13114,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ59">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR59">
         <v>1.14</v>
@@ -13221,7 +13239,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13427,7 +13445,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13505,7 +13523,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ61">
         <v>2.5</v>
@@ -13839,7 +13857,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -14251,7 +14269,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14457,7 +14475,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -14744,7 +14762,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ67">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR67">
         <v>1.32</v>
@@ -14950,7 +14968,7 @@
         <v>3</v>
       </c>
       <c r="AQ68">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR68">
         <v>1.97</v>
@@ -15075,7 +15093,7 @@
         <v>109</v>
       </c>
       <c r="P69" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q69">
         <v>3.75</v>
@@ -15281,7 +15299,7 @@
         <v>142</v>
       </c>
       <c r="P70" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15487,7 +15505,7 @@
         <v>104</v>
       </c>
       <c r="P71" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15565,7 +15583,7 @@
         <v>1.67</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ71">
         <v>1.8</v>
@@ -15693,7 +15711,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16186,7 +16204,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ74">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR74">
         <v>1.48</v>
@@ -16517,7 +16535,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -16801,7 +16819,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -16929,7 +16947,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17010,7 +17028,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ78">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR78">
         <v>1.15</v>
@@ -17341,7 +17359,7 @@
         <v>150</v>
       </c>
       <c r="P80" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -17419,10 +17437,10 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ80">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR80">
         <v>1.69</v>
@@ -17547,7 +17565,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -17625,7 +17643,7 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ81">
         <v>0</v>
@@ -17959,7 +17977,7 @@
         <v>152</v>
       </c>
       <c r="P83" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18165,7 +18183,7 @@
         <v>153</v>
       </c>
       <c r="P84" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -18371,7 +18389,7 @@
         <v>104</v>
       </c>
       <c r="P85" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q85">
         <v>3.6</v>
@@ -18577,7 +18595,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -18658,7 +18676,7 @@
         <v>1</v>
       </c>
       <c r="AQ86">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR86">
         <v>1.15</v>
@@ -18989,7 +19007,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19195,7 +19213,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -19607,7 +19625,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -19813,7 +19831,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -19986,7 +20004,7 @@
         <v>69</v>
       </c>
       <c r="E93" s="2">
-        <v>45584.375</v>
+        <v>45583.875</v>
       </c>
       <c r="F93">
         <v>10</v>
@@ -20019,7 +20037,7 @@
         <v>160</v>
       </c>
       <c r="P93" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q93">
         <v>2.05</v>
@@ -20183,7 +20201,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>7465100</v>
+        <v>7465096</v>
       </c>
       <c r="C94" t="s">
         <v>68</v>
@@ -20192,16 +20210,16 @@
         <v>69</v>
       </c>
       <c r="E94" s="2">
-        <v>45584.46875</v>
+        <v>45583.875</v>
       </c>
       <c r="F94">
         <v>10</v>
       </c>
       <c r="G94" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H94" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -20222,166 +20240,166 @@
         <v>3</v>
       </c>
       <c r="O94" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q94">
+        <v>5</v>
+      </c>
+      <c r="R94">
+        <v>2.4</v>
+      </c>
+      <c r="S94">
+        <v>2.2</v>
+      </c>
+      <c r="T94">
+        <v>1.3</v>
+      </c>
+      <c r="U94">
         <v>3.4</v>
       </c>
-      <c r="R94">
-        <v>2.05</v>
-      </c>
-      <c r="S94">
-        <v>3.4</v>
-      </c>
-      <c r="T94">
-        <v>1.44</v>
-      </c>
-      <c r="U94">
-        <v>2.63</v>
-      </c>
       <c r="V94">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="W94">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="X94">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Y94">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="Z94">
-        <v>2.63</v>
+        <v>4.5</v>
       </c>
       <c r="AA94">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="AB94">
-        <v>2.55</v>
+        <v>1.62</v>
       </c>
       <c r="AC94">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="AD94">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE94">
-        <v>1.38</v>
+        <v>1.15</v>
       </c>
       <c r="AF94">
-        <v>3.1</v>
+        <v>4.25</v>
       </c>
       <c r="AG94">
+        <v>1.62</v>
+      </c>
+      <c r="AH94">
+        <v>2.3</v>
+      </c>
+      <c r="AI94">
+        <v>1.67</v>
+      </c>
+      <c r="AJ94">
         <v>2.1</v>
       </c>
-      <c r="AH94">
-        <v>1.73</v>
-      </c>
-      <c r="AI94">
-        <v>1.91</v>
-      </c>
-      <c r="AJ94">
-        <v>1.91</v>
-      </c>
       <c r="AK94">
+        <v>2.3</v>
+      </c>
+      <c r="AL94">
+        <v>1.2</v>
+      </c>
+      <c r="AM94">
+        <v>1.17</v>
+      </c>
+      <c r="AN94">
+        <v>2</v>
+      </c>
+      <c r="AO94">
         <v>1.5</v>
       </c>
-      <c r="AL94">
-        <v>1.26</v>
-      </c>
-      <c r="AM94">
-        <v>1.52</v>
-      </c>
-      <c r="AN94">
-        <v>2.6</v>
-      </c>
-      <c r="AO94">
-        <v>0.5</v>
-      </c>
       <c r="AP94">
-        <v>2.17</v>
+        <v>1.67</v>
       </c>
       <c r="AQ94">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AR94">
-        <v>1.49</v>
+        <v>1.29</v>
       </c>
       <c r="AS94">
-        <v>1.33</v>
+        <v>1.66</v>
       </c>
       <c r="AT94">
-        <v>2.82</v>
+        <v>2.95</v>
       </c>
       <c r="AU94">
         <v>7</v>
       </c>
       <c r="AV94">
+        <v>4</v>
+      </c>
+      <c r="AW94">
+        <v>4</v>
+      </c>
+      <c r="AX94">
+        <v>5</v>
+      </c>
+      <c r="AY94">
+        <v>15</v>
+      </c>
+      <c r="AZ94">
+        <v>11</v>
+      </c>
+      <c r="BA94">
+        <v>6</v>
+      </c>
+      <c r="BB94">
+        <v>2</v>
+      </c>
+      <c r="BC94">
         <v>8</v>
       </c>
-      <c r="AW94">
-        <v>7</v>
-      </c>
-      <c r="AX94">
-        <v>3</v>
-      </c>
-      <c r="AY94">
-        <v>20</v>
-      </c>
-      <c r="AZ94">
-        <v>12</v>
-      </c>
-      <c r="BA94">
-        <v>10</v>
-      </c>
-      <c r="BB94">
-        <v>2</v>
-      </c>
-      <c r="BC94">
-        <v>12</v>
-      </c>
       <c r="BD94">
-        <v>1.95</v>
+        <v>3.05</v>
       </c>
       <c r="BE94">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="BF94">
-        <v>2.05</v>
+        <v>1.48</v>
       </c>
       <c r="BG94">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="BH94">
+        <v>3.2</v>
+      </c>
+      <c r="BI94">
+        <v>1.5</v>
+      </c>
+      <c r="BJ94">
+        <v>2.38</v>
+      </c>
+      <c r="BK94">
+        <v>1.82</v>
+      </c>
+      <c r="BL94">
+        <v>1.86</v>
+      </c>
+      <c r="BM94">
+        <v>2.3</v>
+      </c>
+      <c r="BN94">
+        <v>1.54</v>
+      </c>
+      <c r="BO94">
         <v>2.9</v>
       </c>
-      <c r="BI94">
-        <v>1.58</v>
-      </c>
-      <c r="BJ94">
-        <v>2.18</v>
-      </c>
-      <c r="BK94">
-        <v>1.95</v>
-      </c>
-      <c r="BL94">
-        <v>1.74</v>
-      </c>
-      <c r="BM94">
-        <v>2.45</v>
-      </c>
-      <c r="BN94">
-        <v>1.48</v>
-      </c>
-      <c r="BO94">
-        <v>3.2</v>
-      </c>
       <c r="BP94">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="95" spans="1:68">
@@ -20398,7 +20416,7 @@
         <v>69</v>
       </c>
       <c r="E95" s="2">
-        <v>45584.5625</v>
+        <v>45583.875</v>
       </c>
       <c r="F95">
         <v>10</v>
@@ -20588,6 +20606,1036 @@
       </c>
       <c r="BP95">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7465100</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45583.875</v>
+      </c>
+      <c r="F96">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>74</v>
+      </c>
+      <c r="H96" t="s">
+        <v>71</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>2</v>
+      </c>
+      <c r="N96">
+        <v>3</v>
+      </c>
+      <c r="O96" t="s">
+        <v>161</v>
+      </c>
+      <c r="P96" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q96">
+        <v>3.4</v>
+      </c>
+      <c r="R96">
+        <v>2.05</v>
+      </c>
+      <c r="S96">
+        <v>3.4</v>
+      </c>
+      <c r="T96">
+        <v>1.44</v>
+      </c>
+      <c r="U96">
+        <v>2.63</v>
+      </c>
+      <c r="V96">
+        <v>3.25</v>
+      </c>
+      <c r="W96">
+        <v>1.33</v>
+      </c>
+      <c r="X96">
+        <v>9</v>
+      </c>
+      <c r="Y96">
+        <v>1.07</v>
+      </c>
+      <c r="Z96">
+        <v>2.63</v>
+      </c>
+      <c r="AA96">
+        <v>3.4</v>
+      </c>
+      <c r="AB96">
+        <v>2.55</v>
+      </c>
+      <c r="AC96">
+        <v>1.06</v>
+      </c>
+      <c r="AD96">
+        <v>11</v>
+      </c>
+      <c r="AE96">
+        <v>1.38</v>
+      </c>
+      <c r="AF96">
+        <v>3.1</v>
+      </c>
+      <c r="AG96">
+        <v>2.1</v>
+      </c>
+      <c r="AH96">
+        <v>1.73</v>
+      </c>
+      <c r="AI96">
+        <v>1.91</v>
+      </c>
+      <c r="AJ96">
+        <v>1.91</v>
+      </c>
+      <c r="AK96">
+        <v>1.5</v>
+      </c>
+      <c r="AL96">
+        <v>1.26</v>
+      </c>
+      <c r="AM96">
+        <v>1.52</v>
+      </c>
+      <c r="AN96">
+        <v>2.6</v>
+      </c>
+      <c r="AO96">
+        <v>0.5</v>
+      </c>
+      <c r="AP96">
+        <v>2.17</v>
+      </c>
+      <c r="AQ96">
+        <v>1</v>
+      </c>
+      <c r="AR96">
+        <v>1.49</v>
+      </c>
+      <c r="AS96">
+        <v>1.33</v>
+      </c>
+      <c r="AT96">
+        <v>2.82</v>
+      </c>
+      <c r="AU96">
+        <v>7</v>
+      </c>
+      <c r="AV96">
+        <v>8</v>
+      </c>
+      <c r="AW96">
+        <v>7</v>
+      </c>
+      <c r="AX96">
+        <v>3</v>
+      </c>
+      <c r="AY96">
+        <v>20</v>
+      </c>
+      <c r="AZ96">
+        <v>12</v>
+      </c>
+      <c r="BA96">
+        <v>10</v>
+      </c>
+      <c r="BB96">
+        <v>2</v>
+      </c>
+      <c r="BC96">
+        <v>12</v>
+      </c>
+      <c r="BD96">
+        <v>1.95</v>
+      </c>
+      <c r="BE96">
+        <v>6.4</v>
+      </c>
+      <c r="BF96">
+        <v>2.05</v>
+      </c>
+      <c r="BG96">
+        <v>1.35</v>
+      </c>
+      <c r="BH96">
+        <v>2.9</v>
+      </c>
+      <c r="BI96">
+        <v>1.58</v>
+      </c>
+      <c r="BJ96">
+        <v>2.18</v>
+      </c>
+      <c r="BK96">
+        <v>1.95</v>
+      </c>
+      <c r="BL96">
+        <v>1.74</v>
+      </c>
+      <c r="BM96">
+        <v>2.45</v>
+      </c>
+      <c r="BN96">
+        <v>1.48</v>
+      </c>
+      <c r="BO96">
+        <v>3.2</v>
+      </c>
+      <c r="BP96">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7465098</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45585.375</v>
+      </c>
+      <c r="F97">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>77</v>
+      </c>
+      <c r="H97" t="s">
+        <v>88</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97" t="s">
+        <v>162</v>
+      </c>
+      <c r="P97" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q97">
+        <v>2.88</v>
+      </c>
+      <c r="R97">
+        <v>1.91</v>
+      </c>
+      <c r="S97">
+        <v>5</v>
+      </c>
+      <c r="T97">
+        <v>1.62</v>
+      </c>
+      <c r="U97">
+        <v>2.2</v>
+      </c>
+      <c r="V97">
+        <v>4</v>
+      </c>
+      <c r="W97">
+        <v>1.22</v>
+      </c>
+      <c r="X97">
+        <v>13</v>
+      </c>
+      <c r="Y97">
+        <v>1.04</v>
+      </c>
+      <c r="Z97">
+        <v>2</v>
+      </c>
+      <c r="AA97">
+        <v>3.1</v>
+      </c>
+      <c r="AB97">
+        <v>4.33</v>
+      </c>
+      <c r="AC97">
+        <v>1.12</v>
+      </c>
+      <c r="AD97">
+        <v>6.5</v>
+      </c>
+      <c r="AE97">
+        <v>1.59</v>
+      </c>
+      <c r="AF97">
+        <v>2.32</v>
+      </c>
+      <c r="AG97">
+        <v>2.75</v>
+      </c>
+      <c r="AH97">
+        <v>1.44</v>
+      </c>
+      <c r="AI97">
+        <v>2.38</v>
+      </c>
+      <c r="AJ97">
+        <v>1.53</v>
+      </c>
+      <c r="AK97">
+        <v>1.24</v>
+      </c>
+      <c r="AL97">
+        <v>1.32</v>
+      </c>
+      <c r="AM97">
+        <v>1.83</v>
+      </c>
+      <c r="AN97">
+        <v>1.25</v>
+      </c>
+      <c r="AO97">
+        <v>1.6</v>
+      </c>
+      <c r="AP97">
+        <v>1.6</v>
+      </c>
+      <c r="AQ97">
+        <v>1.33</v>
+      </c>
+      <c r="AR97">
+        <v>1.35</v>
+      </c>
+      <c r="AS97">
+        <v>1.05</v>
+      </c>
+      <c r="AT97">
+        <v>2.4</v>
+      </c>
+      <c r="AU97">
+        <v>7</v>
+      </c>
+      <c r="AV97">
+        <v>3</v>
+      </c>
+      <c r="AW97">
+        <v>10</v>
+      </c>
+      <c r="AX97">
+        <v>7</v>
+      </c>
+      <c r="AY97">
+        <v>22</v>
+      </c>
+      <c r="AZ97">
+        <v>11</v>
+      </c>
+      <c r="BA97">
+        <v>9</v>
+      </c>
+      <c r="BB97">
+        <v>2</v>
+      </c>
+      <c r="BC97">
+        <v>11</v>
+      </c>
+      <c r="BD97">
+        <v>1.53</v>
+      </c>
+      <c r="BE97">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF97">
+        <v>3.12</v>
+      </c>
+      <c r="BG97">
+        <v>1.32</v>
+      </c>
+      <c r="BH97">
+        <v>2.78</v>
+      </c>
+      <c r="BI97">
+        <v>1.62</v>
+      </c>
+      <c r="BJ97">
+        <v>2.1</v>
+      </c>
+      <c r="BK97">
+        <v>2</v>
+      </c>
+      <c r="BL97">
+        <v>1.73</v>
+      </c>
+      <c r="BM97">
+        <v>2.75</v>
+      </c>
+      <c r="BN97">
+        <v>1.37</v>
+      </c>
+      <c r="BO97">
+        <v>3.72</v>
+      </c>
+      <c r="BP97">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7465094</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45585.46875</v>
+      </c>
+      <c r="F98">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>87</v>
+      </c>
+      <c r="H98" t="s">
+        <v>85</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>3</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>4</v>
+      </c>
+      <c r="O98" t="s">
+        <v>163</v>
+      </c>
+      <c r="P98" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q98">
+        <v>1.83</v>
+      </c>
+      <c r="R98">
+        <v>2.3</v>
+      </c>
+      <c r="S98">
+        <v>9</v>
+      </c>
+      <c r="T98">
+        <v>1.4</v>
+      </c>
+      <c r="U98">
+        <v>2.75</v>
+      </c>
+      <c r="V98">
+        <v>3</v>
+      </c>
+      <c r="W98">
+        <v>1.36</v>
+      </c>
+      <c r="X98">
+        <v>8</v>
+      </c>
+      <c r="Y98">
+        <v>1.08</v>
+      </c>
+      <c r="Z98">
+        <v>1.33</v>
+      </c>
+      <c r="AA98">
+        <v>4.75</v>
+      </c>
+      <c r="AB98">
+        <v>10</v>
+      </c>
+      <c r="AC98">
+        <v>1.06</v>
+      </c>
+      <c r="AD98">
+        <v>10</v>
+      </c>
+      <c r="AE98">
+        <v>1.35</v>
+      </c>
+      <c r="AF98">
+        <v>3.25</v>
+      </c>
+      <c r="AG98">
+        <v>2</v>
+      </c>
+      <c r="AH98">
+        <v>1.8</v>
+      </c>
+      <c r="AI98">
+        <v>2.5</v>
+      </c>
+      <c r="AJ98">
+        <v>1.5</v>
+      </c>
+      <c r="AK98">
+        <v>1.03</v>
+      </c>
+      <c r="AL98">
+        <v>1.15</v>
+      </c>
+      <c r="AM98">
+        <v>3.4</v>
+      </c>
+      <c r="AN98">
+        <v>2</v>
+      </c>
+      <c r="AO98">
+        <v>0.8</v>
+      </c>
+      <c r="AP98">
+        <v>2.2</v>
+      </c>
+      <c r="AQ98">
+        <v>0.67</v>
+      </c>
+      <c r="AR98">
+        <v>1.58</v>
+      </c>
+      <c r="AS98">
+        <v>0.78</v>
+      </c>
+      <c r="AT98">
+        <v>2.36</v>
+      </c>
+      <c r="AU98">
+        <v>10</v>
+      </c>
+      <c r="AV98">
+        <v>3</v>
+      </c>
+      <c r="AW98">
+        <v>8</v>
+      </c>
+      <c r="AX98">
+        <v>1</v>
+      </c>
+      <c r="AY98">
+        <v>25</v>
+      </c>
+      <c r="AZ98">
+        <v>6</v>
+      </c>
+      <c r="BA98">
+        <v>8</v>
+      </c>
+      <c r="BB98">
+        <v>2</v>
+      </c>
+      <c r="BC98">
+        <v>10</v>
+      </c>
+      <c r="BD98">
+        <v>1.25</v>
+      </c>
+      <c r="BE98">
+        <v>10.5</v>
+      </c>
+      <c r="BF98">
+        <v>5.2</v>
+      </c>
+      <c r="BG98">
+        <v>1.29</v>
+      </c>
+      <c r="BH98">
+        <v>2.92</v>
+      </c>
+      <c r="BI98">
+        <v>1.58</v>
+      </c>
+      <c r="BJ98">
+        <v>2.17</v>
+      </c>
+      <c r="BK98">
+        <v>2</v>
+      </c>
+      <c r="BL98">
+        <v>1.73</v>
+      </c>
+      <c r="BM98">
+        <v>2.6</v>
+      </c>
+      <c r="BN98">
+        <v>1.41</v>
+      </c>
+      <c r="BO98">
+        <v>3.52</v>
+      </c>
+      <c r="BP98">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7465101</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45585.5625</v>
+      </c>
+      <c r="F99">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>79</v>
+      </c>
+      <c r="H99" t="s">
+        <v>83</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99" t="s">
+        <v>95</v>
+      </c>
+      <c r="P99" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q99">
+        <v>2.4</v>
+      </c>
+      <c r="R99">
+        <v>2.1</v>
+      </c>
+      <c r="S99">
+        <v>5</v>
+      </c>
+      <c r="T99">
+        <v>1.44</v>
+      </c>
+      <c r="U99">
+        <v>2.63</v>
+      </c>
+      <c r="V99">
+        <v>3</v>
+      </c>
+      <c r="W99">
+        <v>1.36</v>
+      </c>
+      <c r="X99">
+        <v>9</v>
+      </c>
+      <c r="Y99">
+        <v>1.07</v>
+      </c>
+      <c r="Z99">
+        <v>1.75</v>
+      </c>
+      <c r="AA99">
+        <v>3.7</v>
+      </c>
+      <c r="AB99">
+        <v>4.5</v>
+      </c>
+      <c r="AC99">
+        <v>1.06</v>
+      </c>
+      <c r="AD99">
+        <v>10</v>
+      </c>
+      <c r="AE99">
+        <v>1.33</v>
+      </c>
+      <c r="AF99">
+        <v>3.3</v>
+      </c>
+      <c r="AG99">
+        <v>2</v>
+      </c>
+      <c r="AH99">
+        <v>1.8</v>
+      </c>
+      <c r="AI99">
+        <v>1.95</v>
+      </c>
+      <c r="AJ99">
+        <v>1.8</v>
+      </c>
+      <c r="AK99">
+        <v>1.2</v>
+      </c>
+      <c r="AL99">
+        <v>1.24</v>
+      </c>
+      <c r="AM99">
+        <v>2.1</v>
+      </c>
+      <c r="AN99">
+        <v>1.75</v>
+      </c>
+      <c r="AO99">
+        <v>0.25</v>
+      </c>
+      <c r="AP99">
+        <v>1.6</v>
+      </c>
+      <c r="AQ99">
+        <v>0.4</v>
+      </c>
+      <c r="AR99">
+        <v>1.66</v>
+      </c>
+      <c r="AS99">
+        <v>1.1</v>
+      </c>
+      <c r="AT99">
+        <v>2.76</v>
+      </c>
+      <c r="AU99">
+        <v>5</v>
+      </c>
+      <c r="AV99">
+        <v>5</v>
+      </c>
+      <c r="AW99">
+        <v>5</v>
+      </c>
+      <c r="AX99">
+        <v>7</v>
+      </c>
+      <c r="AY99">
+        <v>11</v>
+      </c>
+      <c r="AZ99">
+        <v>22</v>
+      </c>
+      <c r="BA99">
+        <v>5</v>
+      </c>
+      <c r="BB99">
+        <v>5</v>
+      </c>
+      <c r="BC99">
+        <v>10</v>
+      </c>
+      <c r="BD99">
+        <v>1.53</v>
+      </c>
+      <c r="BE99">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF99">
+        <v>3.12</v>
+      </c>
+      <c r="BG99">
+        <v>1.38</v>
+      </c>
+      <c r="BH99">
+        <v>2.71</v>
+      </c>
+      <c r="BI99">
+        <v>1.7</v>
+      </c>
+      <c r="BJ99">
+        <v>2.05</v>
+      </c>
+      <c r="BK99">
+        <v>2.15</v>
+      </c>
+      <c r="BL99">
+        <v>1.59</v>
+      </c>
+      <c r="BM99">
+        <v>2.82</v>
+      </c>
+      <c r="BN99">
+        <v>1.31</v>
+      </c>
+      <c r="BO99">
+        <v>3.98</v>
+      </c>
+      <c r="BP99">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7465095</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45585.66666666666</v>
+      </c>
+      <c r="F100">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
+        <v>81</v>
+      </c>
+      <c r="H100" t="s">
+        <v>80</v>
+      </c>
+      <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>3</v>
+      </c>
+      <c r="L100">
+        <v>5</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>6</v>
+      </c>
+      <c r="O100" t="s">
+        <v>164</v>
+      </c>
+      <c r="P100" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q100">
+        <v>1.73</v>
+      </c>
+      <c r="R100">
+        <v>2.75</v>
+      </c>
+      <c r="S100">
+        <v>7</v>
+      </c>
+      <c r="T100">
+        <v>1.22</v>
+      </c>
+      <c r="U100">
+        <v>4</v>
+      </c>
+      <c r="V100">
+        <v>2.1</v>
+      </c>
+      <c r="W100">
+        <v>1.67</v>
+      </c>
+      <c r="X100">
+        <v>4.5</v>
+      </c>
+      <c r="Y100">
+        <v>1.18</v>
+      </c>
+      <c r="Z100">
+        <v>1.3</v>
+      </c>
+      <c r="AA100">
+        <v>5.75</v>
+      </c>
+      <c r="AB100">
+        <v>8</v>
+      </c>
+      <c r="AC100">
+        <v>1.01</v>
+      </c>
+      <c r="AD100">
+        <v>26</v>
+      </c>
+      <c r="AE100">
+        <v>1.12</v>
+      </c>
+      <c r="AF100">
+        <v>6.5</v>
+      </c>
+      <c r="AG100">
+        <v>1.44</v>
+      </c>
+      <c r="AH100">
+        <v>2.75</v>
+      </c>
+      <c r="AI100">
+        <v>1.75</v>
+      </c>
+      <c r="AJ100">
+        <v>2</v>
+      </c>
+      <c r="AK100">
+        <v>1.03</v>
+      </c>
+      <c r="AL100">
+        <v>1.1</v>
+      </c>
+      <c r="AM100">
+        <v>3.75</v>
+      </c>
+      <c r="AN100">
+        <v>3</v>
+      </c>
+      <c r="AO100">
+        <v>0.75</v>
+      </c>
+      <c r="AP100">
+        <v>3</v>
+      </c>
+      <c r="AQ100">
+        <v>0.6</v>
+      </c>
+      <c r="AR100">
+        <v>1.81</v>
+      </c>
+      <c r="AS100">
+        <v>1.43</v>
+      </c>
+      <c r="AT100">
+        <v>3.24</v>
+      </c>
+      <c r="AU100">
+        <v>10</v>
+      </c>
+      <c r="AV100">
+        <v>2</v>
+      </c>
+      <c r="AW100">
+        <v>8</v>
+      </c>
+      <c r="AX100">
+        <v>2</v>
+      </c>
+      <c r="AY100">
+        <v>22</v>
+      </c>
+      <c r="AZ100">
+        <v>8</v>
+      </c>
+      <c r="BA100">
+        <v>5</v>
+      </c>
+      <c r="BB100">
+        <v>5</v>
+      </c>
+      <c r="BC100">
+        <v>10</v>
+      </c>
+      <c r="BD100">
+        <v>1.24</v>
+      </c>
+      <c r="BE100">
+        <v>11.25</v>
+      </c>
+      <c r="BF100">
+        <v>5.2</v>
+      </c>
+      <c r="BG100">
+        <v>1.15</v>
+      </c>
+      <c r="BH100">
+        <v>4.05</v>
+      </c>
+      <c r="BI100">
+        <v>1.32</v>
+      </c>
+      <c r="BJ100">
+        <v>2.78</v>
+      </c>
+      <c r="BK100">
+        <v>1.61</v>
+      </c>
+      <c r="BL100">
+        <v>2.12</v>
+      </c>
+      <c r="BM100">
+        <v>2</v>
+      </c>
+      <c r="BN100">
+        <v>1.73</v>
+      </c>
+      <c r="BO100">
+        <v>2.6</v>
+      </c>
+      <c r="BP100">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="220">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -502,15 +502,18 @@
     <t>['59']</t>
   </si>
   <si>
-    <t>['75']</t>
-  </si>
-  <si>
     <t>['69', '81', '90+9']</t>
   </si>
   <si>
     <t>['24', '28', '39', '82', '88']</t>
   </si>
   <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['14', '90+4']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -604,9 +607,6 @@
     <t>['54']</t>
   </si>
   <si>
-    <t>['76']</t>
-  </si>
-  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -661,16 +661,19 @@
     <t>['17', '72', '76']</t>
   </si>
   <si>
+    <t>['7', '73']</t>
+  </si>
+  <si>
     <t>['20', '66']</t>
   </si>
   <si>
-    <t>['7', '73']</t>
-  </si>
-  <si>
     <t>['34']</t>
   </si>
   <si>
     <t>['87']</t>
+  </si>
+  <si>
+    <t>['43', '53', '84']</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP100"/>
+  <dimension ref="A1:BP101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1291,7 +1294,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1497,7 +1500,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1703,7 +1706,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1909,7 +1912,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2115,7 +2118,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2321,7 +2324,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2399,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
         <v>2.5</v>
@@ -2527,7 +2530,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2733,7 +2736,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3145,7 +3148,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3351,7 +3354,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3557,7 +3560,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3969,7 +3972,7 @@
         <v>103</v>
       </c>
       <c r="P15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4793,7 +4796,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -4874,7 +4877,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5411,7 +5414,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5823,7 +5826,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6441,7 +6444,7 @@
         <v>111</v>
       </c>
       <c r="P27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q27">
         <v>2.3</v>
@@ -7059,7 +7062,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -7471,7 +7474,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7677,7 +7680,7 @@
         <v>115</v>
       </c>
       <c r="P33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q33">
         <v>3.38</v>
@@ -7883,7 +7886,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -8089,7 +8092,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q35">
         <v>3.22</v>
@@ -8167,7 +8170,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
         <v>2</v>
@@ -8376,7 +8379,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ36">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR36">
         <v>0.71</v>
@@ -8501,7 +8504,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -8707,7 +8710,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -9531,7 +9534,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9737,7 +9740,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -10149,7 +10152,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10561,7 +10564,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10767,7 +10770,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11591,7 +11594,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11797,7 +11800,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12415,7 +12418,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12496,7 +12499,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ56">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR56">
         <v>1.5</v>
@@ -12699,7 +12702,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -12827,7 +12830,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q58">
         <v>1.51</v>
@@ -13033,7 +13036,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="Q59">
         <v>2.9</v>
@@ -14141,7 +14144,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
         <v>0.5</v>
@@ -16947,7 +16950,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17359,7 +17362,7 @@
         <v>150</v>
       </c>
       <c r="P80" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -17646,7 +17649,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ81">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AR81">
         <v>1.59</v>
@@ -19007,7 +19010,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -20004,10 +20007,10 @@
         <v>69</v>
       </c>
       <c r="E93" s="2">
-        <v>45583.875</v>
+        <v>45584.375</v>
       </c>
       <c r="F93">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G93" t="s">
         <v>70</v>
@@ -20037,7 +20040,7 @@
         <v>160</v>
       </c>
       <c r="P93" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q93">
         <v>2.05</v>
@@ -20201,7 +20204,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>7465096</v>
+        <v>7465100</v>
       </c>
       <c r="C94" t="s">
         <v>68</v>
@@ -20210,16 +20213,16 @@
         <v>69</v>
       </c>
       <c r="E94" s="2">
-        <v>45583.875</v>
+        <v>45584.46875</v>
       </c>
       <c r="F94">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H94" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -20240,166 +20243,166 @@
         <v>3</v>
       </c>
       <c r="O94" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="P94" t="s">
         <v>215</v>
       </c>
       <c r="Q94">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="R94">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="S94">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="T94">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="U94">
+        <v>2.63</v>
+      </c>
+      <c r="V94">
+        <v>3.25</v>
+      </c>
+      <c r="W94">
+        <v>1.33</v>
+      </c>
+      <c r="X94">
+        <v>9</v>
+      </c>
+      <c r="Y94">
+        <v>1.07</v>
+      </c>
+      <c r="Z94">
+        <v>2.63</v>
+      </c>
+      <c r="AA94">
         <v>3.4</v>
       </c>
-      <c r="V94">
-        <v>2.38</v>
-      </c>
-      <c r="W94">
-        <v>1.53</v>
-      </c>
-      <c r="X94">
-        <v>6</v>
-      </c>
-      <c r="Y94">
-        <v>1.13</v>
-      </c>
-      <c r="Z94">
-        <v>4.5</v>
-      </c>
-      <c r="AA94">
-        <v>4.5</v>
-      </c>
       <c r="AB94">
-        <v>1.62</v>
+        <v>2.55</v>
       </c>
       <c r="AC94">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="AD94">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE94">
-        <v>1.15</v>
+        <v>1.38</v>
       </c>
       <c r="AF94">
-        <v>4.25</v>
+        <v>3.1</v>
       </c>
       <c r="AG94">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="AH94">
-        <v>2.3</v>
+        <v>1.73</v>
       </c>
       <c r="AI94">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="AJ94">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AK94">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="AL94">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AM94">
-        <v>1.17</v>
+        <v>1.52</v>
       </c>
       <c r="AN94">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AO94">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AP94">
-        <v>1.67</v>
+        <v>2.17</v>
       </c>
       <c r="AQ94">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AR94">
-        <v>1.29</v>
+        <v>1.49</v>
       </c>
       <c r="AS94">
-        <v>1.66</v>
+        <v>1.33</v>
       </c>
       <c r="AT94">
-        <v>2.95</v>
+        <v>2.82</v>
       </c>
       <c r="AU94">
         <v>7</v>
       </c>
       <c r="AV94">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW94">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY94">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ94">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA94">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BB94">
         <v>2</v>
       </c>
       <c r="BC94">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD94">
-        <v>3.05</v>
+        <v>1.95</v>
       </c>
       <c r="BE94">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF94">
+        <v>2.05</v>
+      </c>
+      <c r="BG94">
+        <v>1.35</v>
+      </c>
+      <c r="BH94">
+        <v>2.9</v>
+      </c>
+      <c r="BI94">
+        <v>1.58</v>
+      </c>
+      <c r="BJ94">
+        <v>2.18</v>
+      </c>
+      <c r="BK94">
+        <v>1.95</v>
+      </c>
+      <c r="BL94">
+        <v>1.74</v>
+      </c>
+      <c r="BM94">
+        <v>2.45</v>
+      </c>
+      <c r="BN94">
         <v>1.48</v>
       </c>
-      <c r="BG94">
+      <c r="BO94">
+        <v>3.2</v>
+      </c>
+      <c r="BP94">
         <v>1.28</v>
-      </c>
-      <c r="BH94">
-        <v>3.2</v>
-      </c>
-      <c r="BI94">
-        <v>1.5</v>
-      </c>
-      <c r="BJ94">
-        <v>2.38</v>
-      </c>
-      <c r="BK94">
-        <v>1.82</v>
-      </c>
-      <c r="BL94">
-        <v>1.86</v>
-      </c>
-      <c r="BM94">
-        <v>2.3</v>
-      </c>
-      <c r="BN94">
-        <v>1.54</v>
-      </c>
-      <c r="BO94">
-        <v>2.9</v>
-      </c>
-      <c r="BP94">
-        <v>1.34</v>
       </c>
     </row>
     <row r="95" spans="1:68">
@@ -20416,7 +20419,7 @@
         <v>69</v>
       </c>
       <c r="E95" s="2">
-        <v>45583.875</v>
+        <v>45584.5625</v>
       </c>
       <c r="F95">
         <v>10</v>
@@ -20613,7 +20616,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>7465100</v>
+        <v>7465096</v>
       </c>
       <c r="C96" t="s">
         <v>68</v>
@@ -20622,16 +20625,16 @@
         <v>69</v>
       </c>
       <c r="E96" s="2">
-        <v>45583.875</v>
+        <v>45584.66666666666</v>
       </c>
       <c r="F96">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H96" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -20652,166 +20655,166 @@
         <v>3</v>
       </c>
       <c r="O96" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="P96" t="s">
         <v>216</v>
       </c>
       <c r="Q96">
+        <v>5</v>
+      </c>
+      <c r="R96">
+        <v>2.4</v>
+      </c>
+      <c r="S96">
+        <v>2.2</v>
+      </c>
+      <c r="T96">
+        <v>1.3</v>
+      </c>
+      <c r="U96">
         <v>3.4</v>
       </c>
-      <c r="R96">
-        <v>2.05</v>
-      </c>
-      <c r="S96">
-        <v>3.4</v>
-      </c>
-      <c r="T96">
-        <v>1.44</v>
-      </c>
-      <c r="U96">
-        <v>2.63</v>
-      </c>
       <c r="V96">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="W96">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="X96">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Y96">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="Z96">
-        <v>2.63</v>
+        <v>4.5</v>
       </c>
       <c r="AA96">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="AB96">
-        <v>2.55</v>
+        <v>1.62</v>
       </c>
       <c r="AC96">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="AD96">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE96">
-        <v>1.38</v>
+        <v>1.15</v>
       </c>
       <c r="AF96">
-        <v>3.1</v>
+        <v>4.25</v>
       </c>
       <c r="AG96">
+        <v>1.62</v>
+      </c>
+      <c r="AH96">
+        <v>2.3</v>
+      </c>
+      <c r="AI96">
+        <v>1.67</v>
+      </c>
+      <c r="AJ96">
         <v>2.1</v>
       </c>
-      <c r="AH96">
-        <v>1.73</v>
-      </c>
-      <c r="AI96">
-        <v>1.91</v>
-      </c>
-      <c r="AJ96">
-        <v>1.91</v>
-      </c>
       <c r="AK96">
+        <v>2.3</v>
+      </c>
+      <c r="AL96">
+        <v>1.2</v>
+      </c>
+      <c r="AM96">
+        <v>1.17</v>
+      </c>
+      <c r="AN96">
+        <v>2</v>
+      </c>
+      <c r="AO96">
         <v>1.5</v>
       </c>
-      <c r="AL96">
-        <v>1.26</v>
-      </c>
-      <c r="AM96">
-        <v>1.52</v>
-      </c>
-      <c r="AN96">
-        <v>2.6</v>
-      </c>
-      <c r="AO96">
-        <v>0.5</v>
-      </c>
       <c r="AP96">
-        <v>2.17</v>
+        <v>1.67</v>
       </c>
       <c r="AQ96">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AR96">
-        <v>1.49</v>
+        <v>1.29</v>
       </c>
       <c r="AS96">
-        <v>1.33</v>
+        <v>1.66</v>
       </c>
       <c r="AT96">
-        <v>2.82</v>
+        <v>2.95</v>
       </c>
       <c r="AU96">
         <v>7</v>
       </c>
       <c r="AV96">
+        <v>4</v>
+      </c>
+      <c r="AW96">
+        <v>4</v>
+      </c>
+      <c r="AX96">
+        <v>5</v>
+      </c>
+      <c r="AY96">
+        <v>15</v>
+      </c>
+      <c r="AZ96">
+        <v>11</v>
+      </c>
+      <c r="BA96">
+        <v>6</v>
+      </c>
+      <c r="BB96">
+        <v>2</v>
+      </c>
+      <c r="BC96">
         <v>8</v>
       </c>
-      <c r="AW96">
-        <v>7</v>
-      </c>
-      <c r="AX96">
-        <v>3</v>
-      </c>
-      <c r="AY96">
-        <v>20</v>
-      </c>
-      <c r="AZ96">
-        <v>12</v>
-      </c>
-      <c r="BA96">
-        <v>10</v>
-      </c>
-      <c r="BB96">
-        <v>2</v>
-      </c>
-      <c r="BC96">
-        <v>12</v>
-      </c>
       <c r="BD96">
-        <v>1.95</v>
+        <v>3.05</v>
       </c>
       <c r="BE96">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="BF96">
-        <v>2.05</v>
+        <v>1.48</v>
       </c>
       <c r="BG96">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="BH96">
+        <v>3.2</v>
+      </c>
+      <c r="BI96">
+        <v>1.5</v>
+      </c>
+      <c r="BJ96">
+        <v>2.38</v>
+      </c>
+      <c r="BK96">
+        <v>1.82</v>
+      </c>
+      <c r="BL96">
+        <v>1.86</v>
+      </c>
+      <c r="BM96">
+        <v>2.3</v>
+      </c>
+      <c r="BN96">
+        <v>1.54</v>
+      </c>
+      <c r="BO96">
         <v>2.9</v>
       </c>
-      <c r="BI96">
-        <v>1.58</v>
-      </c>
-      <c r="BJ96">
-        <v>2.18</v>
-      </c>
-      <c r="BK96">
-        <v>1.95</v>
-      </c>
-      <c r="BL96">
-        <v>1.74</v>
-      </c>
-      <c r="BM96">
-        <v>2.45</v>
-      </c>
-      <c r="BN96">
-        <v>1.48</v>
-      </c>
-      <c r="BO96">
-        <v>3.2</v>
-      </c>
       <c r="BP96">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="97" spans="1:68">
@@ -20819,7 +20822,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>7465098</v>
+        <v>7465094</v>
       </c>
       <c r="C97" t="s">
         <v>68</v>
@@ -20828,178 +20831,178 @@
         <v>69</v>
       </c>
       <c r="E97" s="2">
-        <v>45585.375</v>
+        <v>45584.875</v>
       </c>
       <c r="F97">
         <v>10</v>
       </c>
       <c r="G97" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H97" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N97">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O97" t="s">
         <v>162</v>
       </c>
       <c r="P97" t="s">
-        <v>104</v>
+        <v>217</v>
       </c>
       <c r="Q97">
-        <v>2.88</v>
+        <v>1.83</v>
       </c>
       <c r="R97">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="S97">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T97">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="U97">
+        <v>2.75</v>
+      </c>
+      <c r="V97">
+        <v>3</v>
+      </c>
+      <c r="W97">
+        <v>1.36</v>
+      </c>
+      <c r="X97">
+        <v>8</v>
+      </c>
+      <c r="Y97">
+        <v>1.08</v>
+      </c>
+      <c r="Z97">
+        <v>1.33</v>
+      </c>
+      <c r="AA97">
+        <v>4.75</v>
+      </c>
+      <c r="AB97">
+        <v>10</v>
+      </c>
+      <c r="AC97">
+        <v>1.06</v>
+      </c>
+      <c r="AD97">
+        <v>10</v>
+      </c>
+      <c r="AE97">
+        <v>1.35</v>
+      </c>
+      <c r="AF97">
+        <v>3.25</v>
+      </c>
+      <c r="AG97">
+        <v>2</v>
+      </c>
+      <c r="AH97">
+        <v>1.8</v>
+      </c>
+      <c r="AI97">
+        <v>2.5</v>
+      </c>
+      <c r="AJ97">
+        <v>1.5</v>
+      </c>
+      <c r="AK97">
+        <v>1.03</v>
+      </c>
+      <c r="AL97">
+        <v>1.15</v>
+      </c>
+      <c r="AM97">
+        <v>3.4</v>
+      </c>
+      <c r="AN97">
+        <v>2</v>
+      </c>
+      <c r="AO97">
+        <v>0.8</v>
+      </c>
+      <c r="AP97">
         <v>2.2</v>
       </c>
-      <c r="V97">
-        <v>4</v>
-      </c>
-      <c r="W97">
-        <v>1.22</v>
-      </c>
-      <c r="X97">
-        <v>13</v>
-      </c>
-      <c r="Y97">
-        <v>1.04</v>
-      </c>
-      <c r="Z97">
-        <v>2</v>
-      </c>
-      <c r="AA97">
-        <v>3.1</v>
-      </c>
-      <c r="AB97">
-        <v>4.33</v>
-      </c>
-      <c r="AC97">
-        <v>1.12</v>
-      </c>
-      <c r="AD97">
-        <v>6.5</v>
-      </c>
-      <c r="AE97">
-        <v>1.59</v>
-      </c>
-      <c r="AF97">
-        <v>2.32</v>
-      </c>
-      <c r="AG97">
-        <v>2.75</v>
-      </c>
-      <c r="AH97">
-        <v>1.44</v>
-      </c>
-      <c r="AI97">
-        <v>2.38</v>
-      </c>
-      <c r="AJ97">
-        <v>1.53</v>
-      </c>
-      <c r="AK97">
-        <v>1.24</v>
-      </c>
-      <c r="AL97">
-        <v>1.32</v>
-      </c>
-      <c r="AM97">
-        <v>1.83</v>
-      </c>
-      <c r="AN97">
+      <c r="AQ97">
+        <v>0.67</v>
+      </c>
+      <c r="AR97">
+        <v>1.58</v>
+      </c>
+      <c r="AS97">
+        <v>0.78</v>
+      </c>
+      <c r="AT97">
+        <v>2.36</v>
+      </c>
+      <c r="AU97">
+        <v>10</v>
+      </c>
+      <c r="AV97">
+        <v>3</v>
+      </c>
+      <c r="AW97">
+        <v>8</v>
+      </c>
+      <c r="AX97">
+        <v>1</v>
+      </c>
+      <c r="AY97">
+        <v>25</v>
+      </c>
+      <c r="AZ97">
+        <v>6</v>
+      </c>
+      <c r="BA97">
+        <v>8</v>
+      </c>
+      <c r="BB97">
+        <v>2</v>
+      </c>
+      <c r="BC97">
+        <v>10</v>
+      </c>
+      <c r="BD97">
         <v>1.25</v>
       </c>
-      <c r="AO97">
-        <v>1.6</v>
-      </c>
-      <c r="AP97">
-        <v>1.6</v>
-      </c>
-      <c r="AQ97">
-        <v>1.33</v>
-      </c>
-      <c r="AR97">
-        <v>1.35</v>
-      </c>
-      <c r="AS97">
-        <v>1.05</v>
-      </c>
-      <c r="AT97">
-        <v>2.4</v>
-      </c>
-      <c r="AU97">
-        <v>7</v>
-      </c>
-      <c r="AV97">
-        <v>3</v>
-      </c>
-      <c r="AW97">
-        <v>10</v>
-      </c>
-      <c r="AX97">
-        <v>7</v>
-      </c>
-      <c r="AY97">
-        <v>22</v>
-      </c>
-      <c r="AZ97">
-        <v>11</v>
-      </c>
-      <c r="BA97">
-        <v>9</v>
-      </c>
-      <c r="BB97">
-        <v>2</v>
-      </c>
-      <c r="BC97">
-        <v>11</v>
-      </c>
-      <c r="BD97">
-        <v>1.53</v>
-      </c>
       <c r="BE97">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="BF97">
-        <v>3.12</v>
+        <v>5.2</v>
       </c>
       <c r="BG97">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="BH97">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="BI97">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="BJ97">
-        <v>2.1</v>
+        <v>2.17</v>
       </c>
       <c r="BK97">
         <v>2</v>
@@ -21008,16 +21011,16 @@
         <v>1.73</v>
       </c>
       <c r="BM97">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="BN97">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="BO97">
-        <v>3.72</v>
+        <v>3.52</v>
       </c>
       <c r="BP97">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="98" spans="1:68">
@@ -21025,7 +21028,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7465094</v>
+        <v>7465095</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
@@ -21034,196 +21037,196 @@
         <v>69</v>
       </c>
       <c r="E98" s="2">
-        <v>45585.46875</v>
+        <v>45584.875</v>
       </c>
       <c r="F98">
         <v>10</v>
       </c>
       <c r="G98" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H98" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L98">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M98">
         <v>1</v>
       </c>
       <c r="N98">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O98" t="s">
         <v>163</v>
       </c>
       <c r="P98" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q98">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="R98">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="S98">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T98">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="U98">
+        <v>4</v>
+      </c>
+      <c r="V98">
+        <v>2.1</v>
+      </c>
+      <c r="W98">
+        <v>1.67</v>
+      </c>
+      <c r="X98">
+        <v>4.5</v>
+      </c>
+      <c r="Y98">
+        <v>1.18</v>
+      </c>
+      <c r="Z98">
+        <v>1.3</v>
+      </c>
+      <c r="AA98">
+        <v>5.75</v>
+      </c>
+      <c r="AB98">
+        <v>8</v>
+      </c>
+      <c r="AC98">
+        <v>1.01</v>
+      </c>
+      <c r="AD98">
+        <v>26</v>
+      </c>
+      <c r="AE98">
+        <v>1.12</v>
+      </c>
+      <c r="AF98">
+        <v>6.5</v>
+      </c>
+      <c r="AG98">
+        <v>1.44</v>
+      </c>
+      <c r="AH98">
         <v>2.75</v>
       </c>
-      <c r="V98">
-        <v>3</v>
-      </c>
-      <c r="W98">
-        <v>1.36</v>
-      </c>
-      <c r="X98">
-        <v>8</v>
-      </c>
-      <c r="Y98">
-        <v>1.08</v>
-      </c>
-      <c r="Z98">
-        <v>1.33</v>
-      </c>
-      <c r="AA98">
-        <v>4.75</v>
-      </c>
-      <c r="AB98">
-        <v>10</v>
-      </c>
-      <c r="AC98">
-        <v>1.06</v>
-      </c>
-      <c r="AD98">
-        <v>10</v>
-      </c>
-      <c r="AE98">
-        <v>1.35</v>
-      </c>
-      <c r="AF98">
-        <v>3.25</v>
-      </c>
-      <c r="AG98">
-        <v>2</v>
-      </c>
-      <c r="AH98">
-        <v>1.8</v>
-      </c>
       <c r="AI98">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="AJ98">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AK98">
         <v>1.03</v>
       </c>
       <c r="AL98">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AM98">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AN98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO98">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="AQ98">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR98">
-        <v>1.58</v>
+        <v>1.81</v>
       </c>
       <c r="AS98">
-        <v>0.78</v>
+        <v>1.43</v>
       </c>
       <c r="AT98">
-        <v>2.36</v>
+        <v>3.24</v>
       </c>
       <c r="AU98">
         <v>10</v>
       </c>
       <c r="AV98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW98">
         <v>8</v>
       </c>
       <c r="AX98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY98">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AZ98">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA98">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BB98">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC98">
         <v>10</v>
       </c>
       <c r="BD98">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="BE98">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="BF98">
         <v>5.2</v>
       </c>
       <c r="BG98">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="BH98">
-        <v>2.92</v>
+        <v>4.05</v>
       </c>
       <c r="BI98">
-        <v>1.58</v>
+        <v>1.32</v>
       </c>
       <c r="BJ98">
-        <v>2.17</v>
+        <v>2.78</v>
       </c>
       <c r="BK98">
-        <v>2</v>
+        <v>1.61</v>
       </c>
       <c r="BL98">
+        <v>2.12</v>
+      </c>
+      <c r="BM98">
+        <v>2</v>
+      </c>
+      <c r="BN98">
         <v>1.73</v>
       </c>
-      <c r="BM98">
+      <c r="BO98">
         <v>2.6</v>
       </c>
-      <c r="BN98">
+      <c r="BP98">
         <v>1.41</v>
-      </c>
-      <c r="BO98">
-        <v>3.52</v>
-      </c>
-      <c r="BP98">
-        <v>1.2</v>
       </c>
     </row>
     <row r="99" spans="1:68">
@@ -21240,7 +21243,7 @@
         <v>69</v>
       </c>
       <c r="E99" s="2">
-        <v>45585.5625</v>
+        <v>45584.875</v>
       </c>
       <c r="F99">
         <v>10</v>
@@ -21437,7 +21440,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>7465095</v>
+        <v>7465098</v>
       </c>
       <c r="C100" t="s">
         <v>68</v>
@@ -21446,196 +21449,402 @@
         <v>69</v>
       </c>
       <c r="E100" s="2">
-        <v>45585.66666666666</v>
+        <v>45584.875</v>
       </c>
       <c r="F100">
         <v>10</v>
       </c>
       <c r="G100" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H100" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
       <c r="K100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N100">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O100" t="s">
         <v>164</v>
       </c>
       <c r="P100" t="s">
-        <v>218</v>
+        <v>104</v>
       </c>
       <c r="Q100">
-        <v>1.73</v>
+        <v>2.88</v>
       </c>
       <c r="R100">
+        <v>1.91</v>
+      </c>
+      <c r="S100">
+        <v>5</v>
+      </c>
+      <c r="T100">
+        <v>1.62</v>
+      </c>
+      <c r="U100">
+        <v>2.2</v>
+      </c>
+      <c r="V100">
+        <v>4</v>
+      </c>
+      <c r="W100">
+        <v>1.22</v>
+      </c>
+      <c r="X100">
+        <v>13</v>
+      </c>
+      <c r="Y100">
+        <v>1.04</v>
+      </c>
+      <c r="Z100">
+        <v>2</v>
+      </c>
+      <c r="AA100">
+        <v>3.1</v>
+      </c>
+      <c r="AB100">
+        <v>4.33</v>
+      </c>
+      <c r="AC100">
+        <v>1.12</v>
+      </c>
+      <c r="AD100">
+        <v>6.5</v>
+      </c>
+      <c r="AE100">
+        <v>1.59</v>
+      </c>
+      <c r="AF100">
+        <v>2.32</v>
+      </c>
+      <c r="AG100">
         <v>2.75</v>
       </c>
-      <c r="S100">
+      <c r="AH100">
+        <v>1.44</v>
+      </c>
+      <c r="AI100">
+        <v>2.38</v>
+      </c>
+      <c r="AJ100">
+        <v>1.53</v>
+      </c>
+      <c r="AK100">
+        <v>1.24</v>
+      </c>
+      <c r="AL100">
+        <v>1.32</v>
+      </c>
+      <c r="AM100">
+        <v>1.83</v>
+      </c>
+      <c r="AN100">
+        <v>1.25</v>
+      </c>
+      <c r="AO100">
+        <v>1.6</v>
+      </c>
+      <c r="AP100">
+        <v>1.6</v>
+      </c>
+      <c r="AQ100">
+        <v>1.33</v>
+      </c>
+      <c r="AR100">
+        <v>1.35</v>
+      </c>
+      <c r="AS100">
+        <v>1.05</v>
+      </c>
+      <c r="AT100">
+        <v>2.4</v>
+      </c>
+      <c r="AU100">
         <v>7</v>
       </c>
-      <c r="T100">
-        <v>1.22</v>
-      </c>
-      <c r="U100">
-        <v>4</v>
-      </c>
-      <c r="V100">
-        <v>2.1</v>
-      </c>
-      <c r="W100">
-        <v>1.67</v>
-      </c>
-      <c r="X100">
-        <v>4.5</v>
-      </c>
-      <c r="Y100">
-        <v>1.18</v>
-      </c>
-      <c r="Z100">
-        <v>1.3</v>
-      </c>
-      <c r="AA100">
-        <v>5.75</v>
-      </c>
-      <c r="AB100">
-        <v>8</v>
-      </c>
-      <c r="AC100">
-        <v>1.01</v>
-      </c>
-      <c r="AD100">
-        <v>26</v>
-      </c>
-      <c r="AE100">
-        <v>1.12</v>
-      </c>
-      <c r="AF100">
-        <v>6.5</v>
-      </c>
-      <c r="AG100">
-        <v>1.44</v>
-      </c>
-      <c r="AH100">
-        <v>2.75</v>
-      </c>
-      <c r="AI100">
-        <v>1.75</v>
-      </c>
-      <c r="AJ100">
-        <v>2</v>
-      </c>
-      <c r="AK100">
-        <v>1.03</v>
-      </c>
-      <c r="AL100">
-        <v>1.1</v>
-      </c>
-      <c r="AM100">
-        <v>3.75</v>
-      </c>
-      <c r="AN100">
-        <v>3</v>
-      </c>
-      <c r="AO100">
-        <v>0.75</v>
-      </c>
-      <c r="AP100">
-        <v>3</v>
-      </c>
-      <c r="AQ100">
-        <v>0.6</v>
-      </c>
-      <c r="AR100">
-        <v>1.81</v>
-      </c>
-      <c r="AS100">
-        <v>1.43</v>
-      </c>
-      <c r="AT100">
-        <v>3.24</v>
-      </c>
-      <c r="AU100">
+      <c r="AV100">
+        <v>3</v>
+      </c>
+      <c r="AW100">
         <v>10</v>
       </c>
-      <c r="AV100">
-        <v>2</v>
-      </c>
-      <c r="AW100">
-        <v>8</v>
-      </c>
       <c r="AX100">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AY100">
         <v>22</v>
       </c>
       <c r="AZ100">
+        <v>11</v>
+      </c>
+      <c r="BA100">
+        <v>9</v>
+      </c>
+      <c r="BB100">
+        <v>2</v>
+      </c>
+      <c r="BC100">
+        <v>11</v>
+      </c>
+      <c r="BD100">
+        <v>1.53</v>
+      </c>
+      <c r="BE100">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF100">
+        <v>3.12</v>
+      </c>
+      <c r="BG100">
+        <v>1.32</v>
+      </c>
+      <c r="BH100">
+        <v>2.78</v>
+      </c>
+      <c r="BI100">
+        <v>1.62</v>
+      </c>
+      <c r="BJ100">
+        <v>2.1</v>
+      </c>
+      <c r="BK100">
+        <v>2</v>
+      </c>
+      <c r="BL100">
+        <v>1.73</v>
+      </c>
+      <c r="BM100">
+        <v>2.75</v>
+      </c>
+      <c r="BN100">
+        <v>1.37</v>
+      </c>
+      <c r="BO100">
+        <v>3.72</v>
+      </c>
+      <c r="BP100">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7465102</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45585.875</v>
+      </c>
+      <c r="F101">
+        <v>10</v>
+      </c>
+      <c r="G101" t="s">
+        <v>75</v>
+      </c>
+      <c r="H101" t="s">
+        <v>73</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+      <c r="L101">
+        <v>2</v>
+      </c>
+      <c r="M101">
+        <v>3</v>
+      </c>
+      <c r="N101">
+        <v>5</v>
+      </c>
+      <c r="O101" t="s">
+        <v>165</v>
+      </c>
+      <c r="P101" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q101">
+        <v>2.4</v>
+      </c>
+      <c r="R101">
+        <v>2.05</v>
+      </c>
+      <c r="S101">
+        <v>5.5</v>
+      </c>
+      <c r="T101">
+        <v>1.5</v>
+      </c>
+      <c r="U101">
+        <v>2.5</v>
+      </c>
+      <c r="V101">
+        <v>3.4</v>
+      </c>
+      <c r="W101">
+        <v>1.3</v>
+      </c>
+      <c r="X101">
+        <v>10</v>
+      </c>
+      <c r="Y101">
+        <v>1.06</v>
+      </c>
+      <c r="Z101">
+        <v>1.75</v>
+      </c>
+      <c r="AA101">
+        <v>3.6</v>
+      </c>
+      <c r="AB101">
+        <v>4.75</v>
+      </c>
+      <c r="AC101">
+        <v>1.08</v>
+      </c>
+      <c r="AD101">
+        <v>8.5</v>
+      </c>
+      <c r="AE101">
+        <v>1.44</v>
+      </c>
+      <c r="AF101">
+        <v>2.8</v>
+      </c>
+      <c r="AG101">
+        <v>2.3</v>
+      </c>
+      <c r="AH101">
+        <v>1.62</v>
+      </c>
+      <c r="AI101">
+        <v>2.1</v>
+      </c>
+      <c r="AJ101">
+        <v>1.67</v>
+      </c>
+      <c r="AK101">
+        <v>1.16</v>
+      </c>
+      <c r="AL101">
+        <v>1.25</v>
+      </c>
+      <c r="AM101">
+        <v>2.2</v>
+      </c>
+      <c r="AN101">
+        <v>1.25</v>
+      </c>
+      <c r="AO101">
+        <v>0</v>
+      </c>
+      <c r="AP101">
+        <v>1</v>
+      </c>
+      <c r="AQ101">
+        <v>0.6</v>
+      </c>
+      <c r="AR101">
+        <v>1.21</v>
+      </c>
+      <c r="AS101">
+        <v>1.31</v>
+      </c>
+      <c r="AT101">
+        <v>2.52</v>
+      </c>
+      <c r="AU101">
         <v>8</v>
       </c>
-      <c r="BA100">
-        <v>5</v>
-      </c>
-      <c r="BB100">
-        <v>5</v>
-      </c>
-      <c r="BC100">
-        <v>10</v>
-      </c>
-      <c r="BD100">
-        <v>1.24</v>
-      </c>
-      <c r="BE100">
-        <v>11.25</v>
-      </c>
-      <c r="BF100">
-        <v>5.2</v>
-      </c>
-      <c r="BG100">
-        <v>1.15</v>
-      </c>
-      <c r="BH100">
-        <v>4.05</v>
-      </c>
-      <c r="BI100">
-        <v>1.32</v>
-      </c>
-      <c r="BJ100">
-        <v>2.78</v>
-      </c>
-      <c r="BK100">
-        <v>1.61</v>
-      </c>
-      <c r="BL100">
-        <v>2.12</v>
-      </c>
-      <c r="BM100">
-        <v>2</v>
-      </c>
-      <c r="BN100">
-        <v>1.73</v>
-      </c>
-      <c r="BO100">
+      <c r="AV101">
+        <v>7</v>
+      </c>
+      <c r="AW101">
+        <v>4</v>
+      </c>
+      <c r="AX101">
+        <v>2</v>
+      </c>
+      <c r="AY101">
+        <v>15</v>
+      </c>
+      <c r="AZ101">
+        <v>12</v>
+      </c>
+      <c r="BA101">
+        <v>11</v>
+      </c>
+      <c r="BB101">
+        <v>2</v>
+      </c>
+      <c r="BC101">
+        <v>13</v>
+      </c>
+      <c r="BD101">
+        <v>1.4</v>
+      </c>
+      <c r="BE101">
+        <v>7.5</v>
+      </c>
+      <c r="BF101">
+        <v>4</v>
+      </c>
+      <c r="BG101">
+        <v>1.36</v>
+      </c>
+      <c r="BH101">
+        <v>3</v>
+      </c>
+      <c r="BI101">
+        <v>1.62</v>
+      </c>
+      <c r="BJ101">
+        <v>2.2</v>
+      </c>
+      <c r="BK101">
+        <v>2</v>
+      </c>
+      <c r="BL101">
+        <v>1.75</v>
+      </c>
+      <c r="BM101">
         <v>2.6</v>
       </c>
-      <c r="BP100">
-        <v>1.41</v>
+      <c r="BN101">
+        <v>1.45</v>
+      </c>
+      <c r="BO101">
+        <v>3.5</v>
+      </c>
+      <c r="BP101">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -502,13 +502,13 @@
     <t>['59']</t>
   </si>
   <si>
+    <t>['76']</t>
+  </si>
+  <si>
     <t>['69', '81', '90+9']</t>
   </si>
   <si>
     <t>['24', '28', '39', '82', '88']</t>
-  </si>
-  <si>
-    <t>['76']</t>
   </si>
   <si>
     <t>['14', '90+4']</t>
@@ -13036,7 +13036,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q59">
         <v>2.9</v>
@@ -20822,7 +20822,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>7465094</v>
+        <v>7465098</v>
       </c>
       <c r="C97" t="s">
         <v>68</v>
@@ -20831,178 +20831,178 @@
         <v>69</v>
       </c>
       <c r="E97" s="2">
-        <v>45584.875</v>
+        <v>45585.375</v>
       </c>
       <c r="F97">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H97" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O97" t="s">
         <v>162</v>
       </c>
       <c r="P97" t="s">
-        <v>217</v>
+        <v>104</v>
       </c>
       <c r="Q97">
+        <v>2.88</v>
+      </c>
+      <c r="R97">
+        <v>1.91</v>
+      </c>
+      <c r="S97">
+        <v>5</v>
+      </c>
+      <c r="T97">
+        <v>1.62</v>
+      </c>
+      <c r="U97">
+        <v>2.2</v>
+      </c>
+      <c r="V97">
+        <v>4</v>
+      </c>
+      <c r="W97">
+        <v>1.22</v>
+      </c>
+      <c r="X97">
+        <v>13</v>
+      </c>
+      <c r="Y97">
+        <v>1.04</v>
+      </c>
+      <c r="Z97">
+        <v>2</v>
+      </c>
+      <c r="AA97">
+        <v>3.1</v>
+      </c>
+      <c r="AB97">
+        <v>4.33</v>
+      </c>
+      <c r="AC97">
+        <v>1.12</v>
+      </c>
+      <c r="AD97">
+        <v>6.5</v>
+      </c>
+      <c r="AE97">
+        <v>1.59</v>
+      </c>
+      <c r="AF97">
+        <v>2.32</v>
+      </c>
+      <c r="AG97">
+        <v>2.75</v>
+      </c>
+      <c r="AH97">
+        <v>1.44</v>
+      </c>
+      <c r="AI97">
+        <v>2.38</v>
+      </c>
+      <c r="AJ97">
+        <v>1.53</v>
+      </c>
+      <c r="AK97">
+        <v>1.24</v>
+      </c>
+      <c r="AL97">
+        <v>1.32</v>
+      </c>
+      <c r="AM97">
         <v>1.83</v>
       </c>
-      <c r="R97">
-        <v>2.3</v>
-      </c>
-      <c r="S97">
+      <c r="AN97">
+        <v>1.25</v>
+      </c>
+      <c r="AO97">
+        <v>1.6</v>
+      </c>
+      <c r="AP97">
+        <v>1.6</v>
+      </c>
+      <c r="AQ97">
+        <v>1.33</v>
+      </c>
+      <c r="AR97">
+        <v>1.35</v>
+      </c>
+      <c r="AS97">
+        <v>1.05</v>
+      </c>
+      <c r="AT97">
+        <v>2.4</v>
+      </c>
+      <c r="AU97">
+        <v>7</v>
+      </c>
+      <c r="AV97">
+        <v>3</v>
+      </c>
+      <c r="AW97">
+        <v>10</v>
+      </c>
+      <c r="AX97">
+        <v>7</v>
+      </c>
+      <c r="AY97">
+        <v>22</v>
+      </c>
+      <c r="AZ97">
+        <v>11</v>
+      </c>
+      <c r="BA97">
         <v>9</v>
       </c>
-      <c r="T97">
-        <v>1.4</v>
-      </c>
-      <c r="U97">
-        <v>2.75</v>
-      </c>
-      <c r="V97">
-        <v>3</v>
-      </c>
-      <c r="W97">
-        <v>1.36</v>
-      </c>
-      <c r="X97">
-        <v>8</v>
-      </c>
-      <c r="Y97">
-        <v>1.08</v>
-      </c>
-      <c r="Z97">
-        <v>1.33</v>
-      </c>
-      <c r="AA97">
-        <v>4.75</v>
-      </c>
-      <c r="AB97">
-        <v>10</v>
-      </c>
-      <c r="AC97">
-        <v>1.06</v>
-      </c>
-      <c r="AD97">
-        <v>10</v>
-      </c>
-      <c r="AE97">
-        <v>1.35</v>
-      </c>
-      <c r="AF97">
-        <v>3.25</v>
-      </c>
-      <c r="AG97">
-        <v>2</v>
-      </c>
-      <c r="AH97">
-        <v>1.8</v>
-      </c>
-      <c r="AI97">
-        <v>2.5</v>
-      </c>
-      <c r="AJ97">
-        <v>1.5</v>
-      </c>
-      <c r="AK97">
-        <v>1.03</v>
-      </c>
-      <c r="AL97">
-        <v>1.15</v>
-      </c>
-      <c r="AM97">
-        <v>3.4</v>
-      </c>
-      <c r="AN97">
-        <v>2</v>
-      </c>
-      <c r="AO97">
-        <v>0.8</v>
-      </c>
-      <c r="AP97">
-        <v>2.2</v>
-      </c>
-      <c r="AQ97">
-        <v>0.67</v>
-      </c>
-      <c r="AR97">
-        <v>1.58</v>
-      </c>
-      <c r="AS97">
-        <v>0.78</v>
-      </c>
-      <c r="AT97">
-        <v>2.36</v>
-      </c>
-      <c r="AU97">
-        <v>10</v>
-      </c>
-      <c r="AV97">
-        <v>3</v>
-      </c>
-      <c r="AW97">
-        <v>8</v>
-      </c>
-      <c r="AX97">
-        <v>1</v>
-      </c>
-      <c r="AY97">
-        <v>25</v>
-      </c>
-      <c r="AZ97">
-        <v>6</v>
-      </c>
-      <c r="BA97">
-        <v>8</v>
-      </c>
       <c r="BB97">
         <v>2</v>
       </c>
       <c r="BC97">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD97">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="BE97">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF97">
-        <v>5.2</v>
+        <v>3.12</v>
       </c>
       <c r="BG97">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="BH97">
-        <v>2.92</v>
+        <v>2.78</v>
       </c>
       <c r="BI97">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="BJ97">
-        <v>2.17</v>
+        <v>2.1</v>
       </c>
       <c r="BK97">
         <v>2</v>
@@ -21011,16 +21011,16 @@
         <v>1.73</v>
       </c>
       <c r="BM97">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="BN97">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="BO97">
-        <v>3.52</v>
+        <v>3.72</v>
       </c>
       <c r="BP97">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="98" spans="1:68">
@@ -21028,7 +21028,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7465095</v>
+        <v>7465094</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
@@ -21037,196 +21037,196 @@
         <v>69</v>
       </c>
       <c r="E98" s="2">
-        <v>45584.875</v>
+        <v>45585.46875</v>
       </c>
       <c r="F98">
         <v>10</v>
       </c>
       <c r="G98" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H98" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M98">
         <v>1</v>
       </c>
       <c r="N98">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O98" t="s">
         <v>163</v>
       </c>
       <c r="P98" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q98">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="R98">
+        <v>2.3</v>
+      </c>
+      <c r="S98">
+        <v>9</v>
+      </c>
+      <c r="T98">
+        <v>1.4</v>
+      </c>
+      <c r="U98">
         <v>2.75</v>
       </c>
-      <c r="S98">
-        <v>7</v>
-      </c>
-      <c r="T98">
-        <v>1.22</v>
-      </c>
-      <c r="U98">
-        <v>4</v>
-      </c>
       <c r="V98">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="W98">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="X98">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="Y98">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="Z98">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AA98">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="AB98">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AC98">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="AD98">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AE98">
-        <v>1.12</v>
+        <v>1.35</v>
       </c>
       <c r="AF98">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="AG98">
-        <v>1.44</v>
+        <v>2</v>
       </c>
       <c r="AH98">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="AI98">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="AJ98">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AK98">
         <v>1.03</v>
       </c>
       <c r="AL98">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="AM98">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AN98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO98">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AP98">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="AQ98">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR98">
-        <v>1.81</v>
+        <v>1.58</v>
       </c>
       <c r="AS98">
-        <v>1.43</v>
+        <v>0.78</v>
       </c>
       <c r="AT98">
-        <v>3.24</v>
+        <v>2.36</v>
       </c>
       <c r="AU98">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AV98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW98">
+        <v>6</v>
+      </c>
+      <c r="AX98">
+        <v>1</v>
+      </c>
+      <c r="AY98">
+        <v>13</v>
+      </c>
+      <c r="AZ98">
+        <v>4</v>
+      </c>
+      <c r="BA98">
         <v>8</v>
       </c>
-      <c r="AX98">
-        <v>2</v>
-      </c>
-      <c r="AY98">
-        <v>22</v>
-      </c>
-      <c r="AZ98">
-        <v>8</v>
-      </c>
-      <c r="BA98">
-        <v>5</v>
-      </c>
       <c r="BB98">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC98">
         <v>10</v>
       </c>
       <c r="BD98">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="BE98">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="BF98">
         <v>5.2</v>
       </c>
       <c r="BG98">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="BH98">
-        <v>4.05</v>
+        <v>2.92</v>
       </c>
       <c r="BI98">
-        <v>1.32</v>
+        <v>1.58</v>
       </c>
       <c r="BJ98">
-        <v>2.78</v>
+        <v>2.17</v>
       </c>
       <c r="BK98">
-        <v>1.61</v>
+        <v>2</v>
       </c>
       <c r="BL98">
-        <v>2.12</v>
+        <v>1.73</v>
       </c>
       <c r="BM98">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="BN98">
-        <v>1.73</v>
+        <v>1.41</v>
       </c>
       <c r="BO98">
-        <v>2.6</v>
+        <v>3.52</v>
       </c>
       <c r="BP98">
-        <v>1.41</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="99" spans="1:68">
@@ -21243,7 +21243,7 @@
         <v>69</v>
       </c>
       <c r="E99" s="2">
-        <v>45584.875</v>
+        <v>45585.5625</v>
       </c>
       <c r="F99">
         <v>10</v>
@@ -21369,10 +21369,10 @@
         <v>2.76</v>
       </c>
       <c r="AU99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW99">
         <v>5</v>
@@ -21381,10 +21381,10 @@
         <v>7</v>
       </c>
       <c r="AY99">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ99">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="BA99">
         <v>5</v>
@@ -21440,7 +21440,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>7465098</v>
+        <v>7465095</v>
       </c>
       <c r="C100" t="s">
         <v>68</v>
@@ -21449,196 +21449,196 @@
         <v>69</v>
       </c>
       <c r="E100" s="2">
-        <v>45584.875</v>
+        <v>45585.66666666666</v>
       </c>
       <c r="F100">
         <v>10</v>
       </c>
       <c r="G100" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H100" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L100">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N100">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O100" t="s">
         <v>164</v>
       </c>
       <c r="P100" t="s">
-        <v>104</v>
+        <v>218</v>
       </c>
       <c r="Q100">
-        <v>2.88</v>
+        <v>1.73</v>
       </c>
       <c r="R100">
-        <v>1.91</v>
+        <v>2.75</v>
       </c>
       <c r="S100">
+        <v>7</v>
+      </c>
+      <c r="T100">
+        <v>1.22</v>
+      </c>
+      <c r="U100">
+        <v>4</v>
+      </c>
+      <c r="V100">
+        <v>2.1</v>
+      </c>
+      <c r="W100">
+        <v>1.67</v>
+      </c>
+      <c r="X100">
+        <v>4.5</v>
+      </c>
+      <c r="Y100">
+        <v>1.18</v>
+      </c>
+      <c r="Z100">
+        <v>1.3</v>
+      </c>
+      <c r="AA100">
+        <v>5.75</v>
+      </c>
+      <c r="AB100">
+        <v>8</v>
+      </c>
+      <c r="AC100">
+        <v>1.01</v>
+      </c>
+      <c r="AD100">
+        <v>26</v>
+      </c>
+      <c r="AE100">
+        <v>1.12</v>
+      </c>
+      <c r="AF100">
+        <v>6.5</v>
+      </c>
+      <c r="AG100">
+        <v>1.44</v>
+      </c>
+      <c r="AH100">
+        <v>2.75</v>
+      </c>
+      <c r="AI100">
+        <v>1.75</v>
+      </c>
+      <c r="AJ100">
+        <v>2</v>
+      </c>
+      <c r="AK100">
+        <v>1.03</v>
+      </c>
+      <c r="AL100">
+        <v>1.1</v>
+      </c>
+      <c r="AM100">
+        <v>3.75</v>
+      </c>
+      <c r="AN100">
+        <v>3</v>
+      </c>
+      <c r="AO100">
+        <v>0.75</v>
+      </c>
+      <c r="AP100">
+        <v>3</v>
+      </c>
+      <c r="AQ100">
+        <v>0.6</v>
+      </c>
+      <c r="AR100">
+        <v>1.81</v>
+      </c>
+      <c r="AS100">
+        <v>1.43</v>
+      </c>
+      <c r="AT100">
+        <v>3.24</v>
+      </c>
+      <c r="AU100">
         <v>5</v>
       </c>
-      <c r="T100">
-        <v>1.62</v>
-      </c>
-      <c r="U100">
-        <v>2.2</v>
-      </c>
-      <c r="V100">
+      <c r="AV100">
+        <v>2</v>
+      </c>
+      <c r="AW100">
+        <v>6</v>
+      </c>
+      <c r="AX100">
+        <v>2</v>
+      </c>
+      <c r="AY100">
+        <v>11</v>
+      </c>
+      <c r="AZ100">
         <v>4</v>
       </c>
-      <c r="W100">
-        <v>1.22</v>
-      </c>
-      <c r="X100">
-        <v>13</v>
-      </c>
-      <c r="Y100">
-        <v>1.04</v>
-      </c>
-      <c r="Z100">
-        <v>2</v>
-      </c>
-      <c r="AA100">
-        <v>3.1</v>
-      </c>
-      <c r="AB100">
-        <v>4.33</v>
-      </c>
-      <c r="AC100">
-        <v>1.12</v>
-      </c>
-      <c r="AD100">
-        <v>6.5</v>
-      </c>
-      <c r="AE100">
-        <v>1.59</v>
-      </c>
-      <c r="AF100">
-        <v>2.32</v>
-      </c>
-      <c r="AG100">
-        <v>2.75</v>
-      </c>
-      <c r="AH100">
-        <v>1.44</v>
-      </c>
-      <c r="AI100">
-        <v>2.38</v>
-      </c>
-      <c r="AJ100">
-        <v>1.53</v>
-      </c>
-      <c r="AK100">
+      <c r="BA100">
+        <v>5</v>
+      </c>
+      <c r="BB100">
+        <v>5</v>
+      </c>
+      <c r="BC100">
+        <v>10</v>
+      </c>
+      <c r="BD100">
         <v>1.24</v>
       </c>
-      <c r="AL100">
+      <c r="BE100">
+        <v>11.25</v>
+      </c>
+      <c r="BF100">
+        <v>5.2</v>
+      </c>
+      <c r="BG100">
+        <v>1.15</v>
+      </c>
+      <c r="BH100">
+        <v>4.05</v>
+      </c>
+      <c r="BI100">
         <v>1.32</v>
       </c>
-      <c r="AM100">
-        <v>1.83</v>
-      </c>
-      <c r="AN100">
-        <v>1.25</v>
-      </c>
-      <c r="AO100">
-        <v>1.6</v>
-      </c>
-      <c r="AP100">
-        <v>1.6</v>
-      </c>
-      <c r="AQ100">
-        <v>1.33</v>
-      </c>
-      <c r="AR100">
-        <v>1.35</v>
-      </c>
-      <c r="AS100">
-        <v>1.05</v>
-      </c>
-      <c r="AT100">
-        <v>2.4</v>
-      </c>
-      <c r="AU100">
-        <v>7</v>
-      </c>
-      <c r="AV100">
-        <v>3</v>
-      </c>
-      <c r="AW100">
-        <v>10</v>
-      </c>
-      <c r="AX100">
-        <v>7</v>
-      </c>
-      <c r="AY100">
-        <v>22</v>
-      </c>
-      <c r="AZ100">
-        <v>11</v>
-      </c>
-      <c r="BA100">
-        <v>9</v>
-      </c>
-      <c r="BB100">
-        <v>2</v>
-      </c>
-      <c r="BC100">
-        <v>11</v>
-      </c>
-      <c r="BD100">
-        <v>1.53</v>
-      </c>
-      <c r="BE100">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="BF100">
-        <v>3.12</v>
-      </c>
-      <c r="BG100">
-        <v>1.32</v>
-      </c>
-      <c r="BH100">
+      <c r="BJ100">
         <v>2.78</v>
       </c>
-      <c r="BI100">
-        <v>1.62</v>
-      </c>
-      <c r="BJ100">
-        <v>2.1</v>
-      </c>
       <c r="BK100">
-        <v>2</v>
+        <v>1.61</v>
       </c>
       <c r="BL100">
+        <v>2.12</v>
+      </c>
+      <c r="BM100">
+        <v>2</v>
+      </c>
+      <c r="BN100">
         <v>1.73</v>
       </c>
-      <c r="BM100">
-        <v>2.75</v>
-      </c>
-      <c r="BN100">
-        <v>1.37</v>
-      </c>
       <c r="BO100">
-        <v>3.72</v>
+        <v>2.6</v>
       </c>
       <c r="BP100">
-        <v>1.18</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="101" spans="1:68">
@@ -21655,7 +21655,7 @@
         <v>69</v>
       </c>
       <c r="E101" s="2">
-        <v>45585.875</v>
+        <v>45586.66666666666</v>
       </c>
       <c r="F101">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="221">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -675,6 +675,9 @@
   <si>
     <t>['43', '53', '84']</t>
   </si>
+  <si>
+    <t>['20', '45']</t>
+  </si>
 </sst>
 </file>
 
@@ -1035,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP101"/>
+  <dimension ref="A1:BP102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1993,7 +1996,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ5">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -4256,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16">
         <v>1.6</v>
@@ -5701,7 +5704,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ23">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR23">
         <v>1.51</v>
@@ -7758,7 +7761,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33">
         <v>1.33</v>
@@ -9818,7 +9821,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43">
         <v>0.6</v>
@@ -12087,7 +12090,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ54">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR54">
         <v>1.07</v>
@@ -15380,7 +15383,7 @@
         <v>2.33</v>
       </c>
       <c r="AP70">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70">
         <v>2</v>
@@ -17031,7 +17034,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ78">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR78">
         <v>1.15</v>
@@ -18058,7 +18061,7 @@
         <v>2.25</v>
       </c>
       <c r="AP83">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ83">
         <v>1.8</v>
@@ -21563,7 +21566,7 @@
         <v>3</v>
       </c>
       <c r="AQ100">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR100">
         <v>1.81</v>
@@ -21845,6 +21848,212 @@
       </c>
       <c r="BP101">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7469580</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45590.66666666666</v>
+      </c>
+      <c r="F102">
+        <v>11</v>
+      </c>
+      <c r="G102" t="s">
+        <v>82</v>
+      </c>
+      <c r="H102" t="s">
+        <v>80</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>2</v>
+      </c>
+      <c r="K102">
+        <v>2</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>2</v>
+      </c>
+      <c r="N102">
+        <v>2</v>
+      </c>
+      <c r="O102" t="s">
+        <v>104</v>
+      </c>
+      <c r="P102" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q102">
+        <v>3.6</v>
+      </c>
+      <c r="R102">
+        <v>2.05</v>
+      </c>
+      <c r="S102">
+        <v>3.1</v>
+      </c>
+      <c r="T102">
+        <v>1.44</v>
+      </c>
+      <c r="U102">
+        <v>2.63</v>
+      </c>
+      <c r="V102">
+        <v>3.25</v>
+      </c>
+      <c r="W102">
+        <v>1.33</v>
+      </c>
+      <c r="X102">
+        <v>10</v>
+      </c>
+      <c r="Y102">
+        <v>1.06</v>
+      </c>
+      <c r="Z102">
+        <v>2.88</v>
+      </c>
+      <c r="AA102">
+        <v>3.3</v>
+      </c>
+      <c r="AB102">
+        <v>2.4</v>
+      </c>
+      <c r="AC102">
+        <v>1.07</v>
+      </c>
+      <c r="AD102">
+        <v>9.5</v>
+      </c>
+      <c r="AE102">
+        <v>1.38</v>
+      </c>
+      <c r="AF102">
+        <v>3.1</v>
+      </c>
+      <c r="AG102">
+        <v>2.2</v>
+      </c>
+      <c r="AH102">
+        <v>1.67</v>
+      </c>
+      <c r="AI102">
+        <v>1.91</v>
+      </c>
+      <c r="AJ102">
+        <v>1.91</v>
+      </c>
+      <c r="AK102">
+        <v>1.55</v>
+      </c>
+      <c r="AL102">
+        <v>1.3</v>
+      </c>
+      <c r="AM102">
+        <v>1.44</v>
+      </c>
+      <c r="AN102">
+        <v>1.8</v>
+      </c>
+      <c r="AO102">
+        <v>0.6</v>
+      </c>
+      <c r="AP102">
+        <v>1.5</v>
+      </c>
+      <c r="AQ102">
+        <v>1</v>
+      </c>
+      <c r="AR102">
+        <v>1.07</v>
+      </c>
+      <c r="AS102">
+        <v>1.43</v>
+      </c>
+      <c r="AT102">
+        <v>2.5</v>
+      </c>
+      <c r="AU102">
+        <v>2</v>
+      </c>
+      <c r="AV102">
+        <v>4</v>
+      </c>
+      <c r="AW102">
+        <v>11</v>
+      </c>
+      <c r="AX102">
+        <v>1</v>
+      </c>
+      <c r="AY102">
+        <v>17</v>
+      </c>
+      <c r="AZ102">
+        <v>7</v>
+      </c>
+      <c r="BA102">
+        <v>13</v>
+      </c>
+      <c r="BB102">
+        <v>2</v>
+      </c>
+      <c r="BC102">
+        <v>15</v>
+      </c>
+      <c r="BD102">
+        <v>1.79</v>
+      </c>
+      <c r="BE102">
+        <v>6.25</v>
+      </c>
+      <c r="BF102">
+        <v>2.28</v>
+      </c>
+      <c r="BG102">
+        <v>1.33</v>
+      </c>
+      <c r="BH102">
+        <v>2.95</v>
+      </c>
+      <c r="BI102">
+        <v>1.57</v>
+      </c>
+      <c r="BJ102">
+        <v>2.2</v>
+      </c>
+      <c r="BK102">
+        <v>1.95</v>
+      </c>
+      <c r="BL102">
+        <v>1.75</v>
+      </c>
+      <c r="BM102">
+        <v>2.45</v>
+      </c>
+      <c r="BN102">
+        <v>1.48</v>
+      </c>
+      <c r="BO102">
+        <v>3.15</v>
+      </c>
+      <c r="BP102">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="222">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -514,6 +514,9 @@
     <t>['14', '90+4']</t>
   </si>
   <si>
+    <t>['60']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -643,9 +646,6 @@
     <t>['68']</t>
   </si>
   <si>
-    <t>['60']</t>
-  </si>
-  <si>
     <t>['28']</t>
   </si>
   <si>
@@ -677,6 +677,9 @@
   </si>
   <si>
     <t>['20', '45']</t>
+  </si>
+  <si>
+    <t>['29', '84']</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1041,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP102"/>
+  <dimension ref="A1:BP104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1297,7 +1300,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1503,7 +1506,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1709,7 +1712,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1790,7 +1793,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ4">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1915,7 +1918,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2121,7 +2124,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2327,7 +2330,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2533,7 +2536,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2739,7 +2742,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3023,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ10">
         <v>0.2</v>
@@ -3151,7 +3154,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3357,7 +3360,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3563,7 +3566,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3644,7 +3647,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3975,7 +3978,7 @@
         <v>103</v>
       </c>
       <c r="P15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4799,7 +4802,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5417,7 +5420,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5829,7 +5832,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -5907,7 +5910,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ24">
         <v>2.5</v>
@@ -6319,7 +6322,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ26">
         <v>0.67</v>
@@ -6447,7 +6450,7 @@
         <v>111</v>
       </c>
       <c r="P27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q27">
         <v>2.3</v>
@@ -6528,7 +6531,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ27">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR27">
         <v>1.36</v>
@@ -7065,7 +7068,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -7477,7 +7480,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7683,7 +7686,7 @@
         <v>115</v>
       </c>
       <c r="P33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q33">
         <v>3.38</v>
@@ -7889,7 +7892,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -8095,7 +8098,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q35">
         <v>3.22</v>
@@ -8176,7 +8179,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR35">
         <v>0.87</v>
@@ -8507,7 +8510,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -8713,7 +8716,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -9537,7 +9540,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9618,7 +9621,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR42">
         <v>1.48</v>
@@ -9743,7 +9746,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -9824,7 +9827,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ43">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR43">
         <v>1.17</v>
@@ -10155,7 +10158,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10567,7 +10570,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10773,7 +10776,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11263,7 +11266,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ50">
         <v>0.5</v>
@@ -11597,7 +11600,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11803,7 +11806,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12293,7 +12296,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ55">
         <v>1.6</v>
@@ -12421,7 +12424,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12833,7 +12836,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q58">
         <v>1.51</v>
@@ -13245,7 +13248,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13451,7 +13454,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13735,7 +13738,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ62">
         <v>1.8</v>
@@ -13863,7 +13866,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -14275,7 +14278,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14481,7 +14484,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -14562,7 +14565,7 @@
         <v>3</v>
       </c>
       <c r="AQ66">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR66">
         <v>2.43</v>
@@ -15099,7 +15102,7 @@
         <v>109</v>
       </c>
       <c r="P69" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q69">
         <v>3.75</v>
@@ -15305,7 +15308,7 @@
         <v>142</v>
       </c>
       <c r="P70" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15386,7 +15389,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ70">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR70">
         <v>1.13</v>
@@ -15511,7 +15514,7 @@
         <v>104</v>
       </c>
       <c r="P71" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15717,7 +15720,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -15795,7 +15798,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ72">
         <v>1.8</v>
@@ -16004,7 +16007,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ73">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR73">
         <v>1.15</v>
@@ -16207,7 +16210,7 @@
         <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ74">
         <v>0.67</v>
@@ -16541,7 +16544,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -16953,7 +16956,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17365,7 +17368,7 @@
         <v>150</v>
       </c>
       <c r="P80" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -17571,7 +17574,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -17983,7 +17986,7 @@
         <v>152</v>
       </c>
       <c r="P83" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18189,7 +18192,7 @@
         <v>153</v>
       </c>
       <c r="P84" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="Q84">
         <v>3.1</v>
@@ -18679,7 +18682,7 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ86">
         <v>1.33</v>
@@ -18888,7 +18891,7 @@
         <v>3</v>
       </c>
       <c r="AQ87">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR87">
         <v>2.14</v>
@@ -19013,7 +19016,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -20043,7 +20046,7 @@
         <v>160</v>
       </c>
       <c r="P93" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q93">
         <v>2.05</v>
@@ -22054,6 +22057,418 @@
       </c>
       <c r="BP102">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7465110</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45591.375</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103" t="s">
+        <v>78</v>
+      </c>
+      <c r="H103" t="s">
+        <v>79</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>2</v>
+      </c>
+      <c r="N103">
+        <v>3</v>
+      </c>
+      <c r="O103" t="s">
+        <v>166</v>
+      </c>
+      <c r="P103" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q103">
+        <v>3.75</v>
+      </c>
+      <c r="R103">
+        <v>2.3</v>
+      </c>
+      <c r="S103">
+        <v>2.6</v>
+      </c>
+      <c r="T103">
+        <v>1.33</v>
+      </c>
+      <c r="U103">
+        <v>3.25</v>
+      </c>
+      <c r="V103">
+        <v>2.5</v>
+      </c>
+      <c r="W103">
+        <v>1.5</v>
+      </c>
+      <c r="X103">
+        <v>6</v>
+      </c>
+      <c r="Y103">
+        <v>1.13</v>
+      </c>
+      <c r="Z103">
+        <v>3.5</v>
+      </c>
+      <c r="AA103">
+        <v>3.7</v>
+      </c>
+      <c r="AB103">
+        <v>2</v>
+      </c>
+      <c r="AC103">
+        <v>1.03</v>
+      </c>
+      <c r="AD103">
+        <v>15</v>
+      </c>
+      <c r="AE103">
+        <v>1.22</v>
+      </c>
+      <c r="AF103">
+        <v>4.33</v>
+      </c>
+      <c r="AG103">
+        <v>1.67</v>
+      </c>
+      <c r="AH103">
+        <v>2.2</v>
+      </c>
+      <c r="AI103">
+        <v>1.62</v>
+      </c>
+      <c r="AJ103">
+        <v>2.2</v>
+      </c>
+      <c r="AK103">
+        <v>1.83</v>
+      </c>
+      <c r="AL103">
+        <v>1.24</v>
+      </c>
+      <c r="AM103">
+        <v>1.3</v>
+      </c>
+      <c r="AN103">
+        <v>1</v>
+      </c>
+      <c r="AO103">
+        <v>2</v>
+      </c>
+      <c r="AP103">
+        <v>0.83</v>
+      </c>
+      <c r="AQ103">
+        <v>2.17</v>
+      </c>
+      <c r="AR103">
+        <v>1.21</v>
+      </c>
+      <c r="AS103">
+        <v>1.26</v>
+      </c>
+      <c r="AT103">
+        <v>2.47</v>
+      </c>
+      <c r="AU103">
+        <v>4</v>
+      </c>
+      <c r="AV103">
+        <v>11</v>
+      </c>
+      <c r="AW103">
+        <v>4</v>
+      </c>
+      <c r="AX103">
+        <v>8</v>
+      </c>
+      <c r="AY103">
+        <v>8</v>
+      </c>
+      <c r="AZ103">
+        <v>23</v>
+      </c>
+      <c r="BA103">
+        <v>4</v>
+      </c>
+      <c r="BB103">
+        <v>6</v>
+      </c>
+      <c r="BC103">
+        <v>10</v>
+      </c>
+      <c r="BD103">
+        <v>2.15</v>
+      </c>
+      <c r="BE103">
+        <v>6.4</v>
+      </c>
+      <c r="BF103">
+        <v>1.84</v>
+      </c>
+      <c r="BG103">
+        <v>1.25</v>
+      </c>
+      <c r="BH103">
+        <v>3.45</v>
+      </c>
+      <c r="BI103">
+        <v>1.44</v>
+      </c>
+      <c r="BJ103">
+        <v>2.55</v>
+      </c>
+      <c r="BK103">
+        <v>1.72</v>
+      </c>
+      <c r="BL103">
+        <v>1.98</v>
+      </c>
+      <c r="BM103">
+        <v>2.12</v>
+      </c>
+      <c r="BN103">
+        <v>1.63</v>
+      </c>
+      <c r="BO103">
+        <v>2.7</v>
+      </c>
+      <c r="BP103">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7465111</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45591.46875</v>
+      </c>
+      <c r="F104">
+        <v>11</v>
+      </c>
+      <c r="G104" t="s">
+        <v>88</v>
+      </c>
+      <c r="H104" t="s">
+        <v>86</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104" t="s">
+        <v>124</v>
+      </c>
+      <c r="P104" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q104">
+        <v>2.88</v>
+      </c>
+      <c r="R104">
+        <v>1.95</v>
+      </c>
+      <c r="S104">
+        <v>4.75</v>
+      </c>
+      <c r="T104">
+        <v>1.53</v>
+      </c>
+      <c r="U104">
+        <v>2.38</v>
+      </c>
+      <c r="V104">
+        <v>3.75</v>
+      </c>
+      <c r="W104">
+        <v>1.25</v>
+      </c>
+      <c r="X104">
+        <v>11</v>
+      </c>
+      <c r="Y104">
+        <v>1.05</v>
+      </c>
+      <c r="Z104">
+        <v>2.05</v>
+      </c>
+      <c r="AA104">
+        <v>3.2</v>
+      </c>
+      <c r="AB104">
+        <v>3.9</v>
+      </c>
+      <c r="AC104">
+        <v>1.1</v>
+      </c>
+      <c r="AD104">
+        <v>7.5</v>
+      </c>
+      <c r="AE104">
+        <v>1.48</v>
+      </c>
+      <c r="AF104">
+        <v>2.75</v>
+      </c>
+      <c r="AG104">
+        <v>2.5</v>
+      </c>
+      <c r="AH104">
+        <v>1.53</v>
+      </c>
+      <c r="AI104">
+        <v>2.1</v>
+      </c>
+      <c r="AJ104">
+        <v>1.67</v>
+      </c>
+      <c r="AK104">
+        <v>1.26</v>
+      </c>
+      <c r="AL104">
+        <v>1.32</v>
+      </c>
+      <c r="AM104">
+        <v>1.78</v>
+      </c>
+      <c r="AN104">
+        <v>1.25</v>
+      </c>
+      <c r="AO104">
+        <v>0.6</v>
+      </c>
+      <c r="AP104">
+        <v>1.6</v>
+      </c>
+      <c r="AQ104">
+        <v>0.5</v>
+      </c>
+      <c r="AR104">
+        <v>1.49</v>
+      </c>
+      <c r="AS104">
+        <v>1.29</v>
+      </c>
+      <c r="AT104">
+        <v>2.78</v>
+      </c>
+      <c r="AU104">
+        <v>6</v>
+      </c>
+      <c r="AV104">
+        <v>8</v>
+      </c>
+      <c r="AW104">
+        <v>10</v>
+      </c>
+      <c r="AX104">
+        <v>5</v>
+      </c>
+      <c r="AY104">
+        <v>18</v>
+      </c>
+      <c r="AZ104">
+        <v>16</v>
+      </c>
+      <c r="BA104">
+        <v>6</v>
+      </c>
+      <c r="BB104">
+        <v>2</v>
+      </c>
+      <c r="BC104">
+        <v>8</v>
+      </c>
+      <c r="BD104">
+        <v>1.61</v>
+      </c>
+      <c r="BE104">
+        <v>6.5</v>
+      </c>
+      <c r="BF104">
+        <v>2.55</v>
+      </c>
+      <c r="BG104">
+        <v>1.36</v>
+      </c>
+      <c r="BH104">
+        <v>2.8</v>
+      </c>
+      <c r="BI104">
+        <v>1.63</v>
+      </c>
+      <c r="BJ104">
+        <v>2.12</v>
+      </c>
+      <c r="BK104">
+        <v>2</v>
+      </c>
+      <c r="BL104">
+        <v>1.71</v>
+      </c>
+      <c r="BM104">
+        <v>2.55</v>
+      </c>
+      <c r="BN104">
+        <v>1.44</v>
+      </c>
+      <c r="BO104">
+        <v>3.4</v>
+      </c>
+      <c r="BP104">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="223">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -517,6 +517,9 @@
     <t>['60']</t>
   </si>
   <si>
+    <t>['42']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -548,9 +551,6 @@
   </si>
   <si>
     <t>['2', '90+5']</t>
-  </si>
-  <si>
-    <t>['42']</t>
   </si>
   <si>
     <t>['90+3']</t>
@@ -680,6 +680,9 @@
   </si>
   <si>
     <t>['29', '84']</t>
+  </si>
+  <si>
+    <t>['54', '56', '77', '84']</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP104"/>
+  <dimension ref="A1:BP106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1300,7 +1303,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1506,7 +1509,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1587,7 +1590,7 @@
         <v>2</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1712,7 +1715,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1918,7 +1921,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -1996,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -2124,7 +2127,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2330,7 +2333,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2411,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2536,7 +2539,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2742,7 +2745,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3154,7 +3157,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3360,7 +3363,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3566,7 +3569,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3978,7 +3981,7 @@
         <v>103</v>
       </c>
       <c r="P15" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="Q15">
         <v>2.2</v>
@@ -4674,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ18">
         <v>0.6</v>
@@ -5295,7 +5298,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ21">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5913,7 +5916,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ24">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -7146,7 +7149,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
         <v>1.8</v>
@@ -8797,7 +8800,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR38">
         <v>1.9</v>
@@ -9206,7 +9209,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -10651,7 +10654,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ47">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR47">
         <v>1.41</v>
@@ -10854,7 +10857,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
         <v>1.5</v>
@@ -12711,7 +12714,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR57">
         <v>1.38</v>
@@ -12914,7 +12917,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ58">
         <v>0.2</v>
@@ -13535,7 +13538,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ61">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR61">
         <v>1.71</v>
@@ -14562,7 +14565,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ66">
         <v>0.5</v>
@@ -15180,7 +15183,7 @@
         <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ69">
         <v>1</v>
@@ -16625,7 +16628,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ76">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR76">
         <v>1.49</v>
@@ -16831,7 +16834,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR77">
         <v>1.31</v>
@@ -17368,7 +17371,7 @@
         <v>150</v>
       </c>
       <c r="P80" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -18476,7 +18479,7 @@
         <v>0</v>
       </c>
       <c r="AP85">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
         <v>0.75</v>
@@ -18888,7 +18891,7 @@
         <v>2.5</v>
       </c>
       <c r="AP87">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ87">
         <v>2.17</v>
@@ -19303,7 +19306,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ89">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR89">
         <v>1.08</v>
@@ -21867,7 +21870,7 @@
         <v>69</v>
       </c>
       <c r="E102" s="2">
-        <v>45590.66666666666</v>
+        <v>45589.875</v>
       </c>
       <c r="F102">
         <v>11</v>
@@ -22073,7 +22076,7 @@
         <v>69</v>
       </c>
       <c r="E103" s="2">
-        <v>45591.375</v>
+        <v>45590.875</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -22469,6 +22472,418 @@
       </c>
       <c r="BP104">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7465108</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45591.5625</v>
+      </c>
+      <c r="F105">
+        <v>11</v>
+      </c>
+      <c r="G105" t="s">
+        <v>73</v>
+      </c>
+      <c r="H105" t="s">
+        <v>89</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105" t="s">
+        <v>167</v>
+      </c>
+      <c r="P105" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q105">
+        <v>3.6</v>
+      </c>
+      <c r="R105">
+        <v>2.2</v>
+      </c>
+      <c r="S105">
+        <v>2.88</v>
+      </c>
+      <c r="T105">
+        <v>1.4</v>
+      </c>
+      <c r="U105">
+        <v>2.75</v>
+      </c>
+      <c r="V105">
+        <v>2.75</v>
+      </c>
+      <c r="W105">
+        <v>1.4</v>
+      </c>
+      <c r="X105">
+        <v>8</v>
+      </c>
+      <c r="Y105">
+        <v>1.08</v>
+      </c>
+      <c r="Z105">
+        <v>3.1</v>
+      </c>
+      <c r="AA105">
+        <v>3.4</v>
+      </c>
+      <c r="AB105">
+        <v>2.25</v>
+      </c>
+      <c r="AC105">
+        <v>1.05</v>
+      </c>
+      <c r="AD105">
+        <v>11</v>
+      </c>
+      <c r="AE105">
+        <v>1.3</v>
+      </c>
+      <c r="AF105">
+        <v>3.5</v>
+      </c>
+      <c r="AG105">
+        <v>1.91</v>
+      </c>
+      <c r="AH105">
+        <v>1.91</v>
+      </c>
+      <c r="AI105">
+        <v>1.75</v>
+      </c>
+      <c r="AJ105">
+        <v>2</v>
+      </c>
+      <c r="AK105">
+        <v>1.66</v>
+      </c>
+      <c r="AL105">
+        <v>1.26</v>
+      </c>
+      <c r="AM105">
+        <v>1.38</v>
+      </c>
+      <c r="AN105">
+        <v>0.6</v>
+      </c>
+      <c r="AO105">
+        <v>1</v>
+      </c>
+      <c r="AP105">
+        <v>1</v>
+      </c>
+      <c r="AQ105">
+        <v>0.83</v>
+      </c>
+      <c r="AR105">
+        <v>1.4</v>
+      </c>
+      <c r="AS105">
+        <v>1.17</v>
+      </c>
+      <c r="AT105">
+        <v>2.57</v>
+      </c>
+      <c r="AU105">
+        <v>4</v>
+      </c>
+      <c r="AV105">
+        <v>4</v>
+      </c>
+      <c r="AW105">
+        <v>7</v>
+      </c>
+      <c r="AX105">
+        <v>2</v>
+      </c>
+      <c r="AY105">
+        <v>13</v>
+      </c>
+      <c r="AZ105">
+        <v>9</v>
+      </c>
+      <c r="BA105">
+        <v>3</v>
+      </c>
+      <c r="BB105">
+        <v>5</v>
+      </c>
+      <c r="BC105">
+        <v>8</v>
+      </c>
+      <c r="BD105">
+        <v>1.98</v>
+      </c>
+      <c r="BE105">
+        <v>6.1</v>
+      </c>
+      <c r="BF105">
+        <v>2.02</v>
+      </c>
+      <c r="BG105">
+        <v>1.43</v>
+      </c>
+      <c r="BH105">
+        <v>2.55</v>
+      </c>
+      <c r="BI105">
+        <v>1.74</v>
+      </c>
+      <c r="BJ105">
+        <v>1.96</v>
+      </c>
+      <c r="BK105">
+        <v>2.18</v>
+      </c>
+      <c r="BL105">
+        <v>1.58</v>
+      </c>
+      <c r="BM105">
+        <v>2.8</v>
+      </c>
+      <c r="BN105">
+        <v>1.36</v>
+      </c>
+      <c r="BO105">
+        <v>3.8</v>
+      </c>
+      <c r="BP105">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7465106</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45591.66666666666</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106" t="s">
+        <v>84</v>
+      </c>
+      <c r="H106" t="s">
+        <v>81</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>4</v>
+      </c>
+      <c r="N106">
+        <v>4</v>
+      </c>
+      <c r="O106" t="s">
+        <v>104</v>
+      </c>
+      <c r="P106" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q106">
+        <v>2.6</v>
+      </c>
+      <c r="R106">
+        <v>2.5</v>
+      </c>
+      <c r="S106">
+        <v>3.5</v>
+      </c>
+      <c r="T106">
+        <v>1.25</v>
+      </c>
+      <c r="U106">
+        <v>3.75</v>
+      </c>
+      <c r="V106">
+        <v>2.2</v>
+      </c>
+      <c r="W106">
+        <v>1.62</v>
+      </c>
+      <c r="X106">
+        <v>5</v>
+      </c>
+      <c r="Y106">
+        <v>1.17</v>
+      </c>
+      <c r="Z106">
+        <v>2.05</v>
+      </c>
+      <c r="AA106">
+        <v>3.8</v>
+      </c>
+      <c r="AB106">
+        <v>3.2</v>
+      </c>
+      <c r="AC106">
+        <v>1.01</v>
+      </c>
+      <c r="AD106">
+        <v>21</v>
+      </c>
+      <c r="AE106">
+        <v>1.15</v>
+      </c>
+      <c r="AF106">
+        <v>5.5</v>
+      </c>
+      <c r="AG106">
+        <v>1.5</v>
+      </c>
+      <c r="AH106">
+        <v>2.63</v>
+      </c>
+      <c r="AI106">
+        <v>1.44</v>
+      </c>
+      <c r="AJ106">
+        <v>2.63</v>
+      </c>
+      <c r="AK106">
+        <v>1.33</v>
+      </c>
+      <c r="AL106">
+        <v>1.2</v>
+      </c>
+      <c r="AM106">
+        <v>1.85</v>
+      </c>
+      <c r="AN106">
+        <v>3</v>
+      </c>
+      <c r="AO106">
+        <v>2.5</v>
+      </c>
+      <c r="AP106">
+        <v>2.5</v>
+      </c>
+      <c r="AQ106">
+        <v>2.57</v>
+      </c>
+      <c r="AR106">
+        <v>1.96</v>
+      </c>
+      <c r="AS106">
+        <v>1.83</v>
+      </c>
+      <c r="AT106">
+        <v>3.79</v>
+      </c>
+      <c r="AU106">
+        <v>5</v>
+      </c>
+      <c r="AV106">
+        <v>8</v>
+      </c>
+      <c r="AW106">
+        <v>4</v>
+      </c>
+      <c r="AX106">
+        <v>7</v>
+      </c>
+      <c r="AY106">
+        <v>10</v>
+      </c>
+      <c r="AZ106">
+        <v>16</v>
+      </c>
+      <c r="BA106">
+        <v>10</v>
+      </c>
+      <c r="BB106">
+        <v>3</v>
+      </c>
+      <c r="BC106">
+        <v>13</v>
+      </c>
+      <c r="BD106">
+        <v>1.68</v>
+      </c>
+      <c r="BE106">
+        <v>6.75</v>
+      </c>
+      <c r="BF106">
+        <v>2.4</v>
+      </c>
+      <c r="BG106">
+        <v>1.25</v>
+      </c>
+      <c r="BH106">
+        <v>3.45</v>
+      </c>
+      <c r="BI106">
+        <v>1.44</v>
+      </c>
+      <c r="BJ106">
+        <v>2.55</v>
+      </c>
+      <c r="BK106">
+        <v>1.72</v>
+      </c>
+      <c r="BL106">
+        <v>1.98</v>
+      </c>
+      <c r="BM106">
+        <v>2.1</v>
+      </c>
+      <c r="BN106">
+        <v>1.64</v>
+      </c>
+      <c r="BO106">
+        <v>2.65</v>
+      </c>
+      <c r="BP106">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="225">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -520,6 +520,15 @@
     <t>['42']</t>
   </si>
   <si>
+    <t>['59', '78', '82']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -569,9 +578,6 @@
   </si>
   <si>
     <t>['90+2']</t>
-  </si>
-  <si>
-    <t>['4']</t>
   </si>
   <si>
     <t>['43']</t>
@@ -631,9 +637,6 @@
     <t>['45+6', '63']</t>
   </si>
   <si>
-    <t>['90']</t>
-  </si>
-  <si>
     <t>['59', '83']</t>
   </si>
   <si>
@@ -683,6 +686,9 @@
   </si>
   <si>
     <t>['54', '56', '77', '84']</t>
+  </si>
+  <si>
+    <t>['23', '34']</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP106"/>
+  <dimension ref="A1:BP110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1303,7 +1309,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1509,7 +1515,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1587,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ3">
         <v>0.83</v>
@@ -1715,7 +1721,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1921,7 +1927,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2127,7 +2133,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2333,7 +2339,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2539,7 +2545,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2617,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ8">
         <v>1.33</v>
@@ -2745,7 +2751,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3157,7 +3163,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3238,7 +3244,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ11">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3363,7 +3369,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3444,7 +3450,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ12">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR12">
         <v>1.07</v>
@@ -3569,7 +3575,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4471,7 +4477,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ17">
         <v>1.33</v>
@@ -4805,7 +4811,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -4883,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ19">
         <v>0.6</v>
@@ -5423,7 +5429,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5504,7 +5510,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ22">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR22">
         <v>1.08</v>
@@ -5835,7 +5841,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6122,7 +6128,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ25">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR25">
         <v>0.96</v>
@@ -6453,7 +6459,7 @@
         <v>111</v>
       </c>
       <c r="P27" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q27">
         <v>2.3</v>
@@ -6531,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ27">
         <v>0.5</v>
@@ -6946,7 +6952,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7071,7 +7077,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -7483,7 +7489,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7564,7 +7570,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ32">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR32">
         <v>1.11</v>
@@ -7689,7 +7695,7 @@
         <v>115</v>
       </c>
       <c r="P33" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="Q33">
         <v>3.38</v>
@@ -7895,7 +7901,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -7973,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ34">
         <v>1.8</v>
@@ -8101,7 +8107,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q35">
         <v>3.22</v>
@@ -8513,7 +8519,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -8594,7 +8600,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ37">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR37">
         <v>1.77</v>
@@ -8719,7 +8725,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -9003,7 +9009,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ39">
         <v>1.6</v>
@@ -9415,7 +9421,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ41">
         <v>0.67</v>
@@ -9543,7 +9549,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9749,7 +9755,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -10161,7 +10167,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10239,7 +10245,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ45">
         <v>1.8</v>
@@ -10573,7 +10579,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10779,7 +10785,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11066,7 +11072,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ49">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR49">
         <v>1.74</v>
@@ -11272,7 +11278,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ50">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.14</v>
@@ -11603,7 +11609,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11681,7 +11687,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ52">
         <v>0.4</v>
@@ -11809,7 +11815,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11887,7 +11893,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ53">
         <v>1.5</v>
@@ -12427,7 +12433,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12839,7 +12845,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q58">
         <v>1.51</v>
@@ -13123,7 +13129,7 @@
         <v>0.67</v>
       </c>
       <c r="AP59">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ59">
         <v>0.67</v>
@@ -13251,7 +13257,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13332,7 +13338,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ60">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR60">
         <v>1.11</v>
@@ -13457,7 +13463,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13744,7 +13750,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ62">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR62">
         <v>1.49</v>
@@ -13869,7 +13875,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -13947,7 +13953,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ63">
         <v>1.8</v>
@@ -14156,7 +14162,7 @@
         <v>1</v>
       </c>
       <c r="AQ64">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR64">
         <v>1.24</v>
@@ -14281,7 +14287,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14487,7 +14493,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -15105,7 +15111,7 @@
         <v>109</v>
       </c>
       <c r="P69" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q69">
         <v>3.75</v>
@@ -15311,7 +15317,7 @@
         <v>142</v>
       </c>
       <c r="P70" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15517,7 +15523,7 @@
         <v>104</v>
       </c>
       <c r="P71" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -15598,7 +15604,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ71">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR71">
         <v>1.29</v>
@@ -15723,7 +15729,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16007,7 +16013,7 @@
         <v>0.75</v>
       </c>
       <c r="AP73">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ73">
         <v>0.5</v>
@@ -16419,10 +16425,10 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ75">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR75">
         <v>1.11</v>
@@ -16547,7 +16553,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -16959,7 +16965,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17243,7 +17249,7 @@
         <v>0.33</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ79">
         <v>0.2</v>
@@ -17371,7 +17377,7 @@
         <v>150</v>
       </c>
       <c r="P80" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -17577,7 +17583,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -17861,10 +17867,10 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ82">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR82">
         <v>1.25</v>
@@ -17989,7 +17995,7 @@
         <v>152</v>
       </c>
       <c r="P83" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18273,10 +18279,10 @@
         <v>0.33</v>
       </c>
       <c r="AP84">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ84">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR84">
         <v>1.3</v>
@@ -18401,7 +18407,7 @@
         <v>104</v>
       </c>
       <c r="P85" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q85">
         <v>3.6</v>
@@ -18482,7 +18488,7 @@
         <v>1</v>
       </c>
       <c r="AQ85">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR85">
         <v>1.24</v>
@@ -18607,7 +18613,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -19019,7 +19025,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19225,7 +19231,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -19637,7 +19643,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -19715,10 +19721,10 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ91">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR91">
         <v>1.21</v>
@@ -19843,7 +19849,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20049,7 +20055,7 @@
         <v>160</v>
       </c>
       <c r="P93" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q93">
         <v>2.05</v>
@@ -20255,7 +20261,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20667,7 +20673,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21079,7 +21085,7 @@
         <v>163</v>
       </c>
       <c r="P98" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q98">
         <v>1.83</v>
@@ -21285,7 +21291,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21491,7 +21497,7 @@
         <v>164</v>
       </c>
       <c r="P100" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q100">
         <v>1.73</v>
@@ -21697,7 +21703,7 @@
         <v>165</v>
       </c>
       <c r="P101" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -21870,7 +21876,7 @@
         <v>69</v>
       </c>
       <c r="E102" s="2">
-        <v>45589.875</v>
+        <v>45590.66666666666</v>
       </c>
       <c r="F102">
         <v>11</v>
@@ -21903,7 +21909,7 @@
         <v>104</v>
       </c>
       <c r="P102" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -21999,19 +22005,19 @@
         <v>2</v>
       </c>
       <c r="AV102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW102">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AX102">
         <v>1</v>
       </c>
       <c r="AY102">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AZ102">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BA102">
         <v>13</v>
@@ -22076,7 +22082,7 @@
         <v>69</v>
       </c>
       <c r="E103" s="2">
-        <v>45590.875</v>
+        <v>45591.375</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -22109,7 +22115,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22697,7 +22703,7 @@
         <v>45591.66666666666</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G106" t="s">
         <v>84</v>
@@ -22727,7 +22733,7 @@
         <v>104</v>
       </c>
       <c r="P106" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q106">
         <v>2.6</v>
@@ -22884,6 +22890,830 @@
       </c>
       <c r="BP106">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7465107</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45592.41666666666</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107" t="s">
+        <v>85</v>
+      </c>
+      <c r="H107" t="s">
+        <v>72</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>3</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>3</v>
+      </c>
+      <c r="O107" t="s">
+        <v>168</v>
+      </c>
+      <c r="P107" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q107">
+        <v>4</v>
+      </c>
+      <c r="R107">
+        <v>2</v>
+      </c>
+      <c r="S107">
+        <v>3.1</v>
+      </c>
+      <c r="T107">
+        <v>1.5</v>
+      </c>
+      <c r="U107">
+        <v>2.5</v>
+      </c>
+      <c r="V107">
+        <v>3.4</v>
+      </c>
+      <c r="W107">
+        <v>1.3</v>
+      </c>
+      <c r="X107">
+        <v>10</v>
+      </c>
+      <c r="Y107">
+        <v>1.06</v>
+      </c>
+      <c r="Z107">
+        <v>3.1</v>
+      </c>
+      <c r="AA107">
+        <v>3.25</v>
+      </c>
+      <c r="AB107">
+        <v>2.35</v>
+      </c>
+      <c r="AC107">
+        <v>1.09</v>
+      </c>
+      <c r="AD107">
+        <v>8.5</v>
+      </c>
+      <c r="AE107">
+        <v>1.44</v>
+      </c>
+      <c r="AF107">
+        <v>2.8</v>
+      </c>
+      <c r="AG107">
+        <v>2.3</v>
+      </c>
+      <c r="AH107">
+        <v>1.62</v>
+      </c>
+      <c r="AI107">
+        <v>1.95</v>
+      </c>
+      <c r="AJ107">
+        <v>1.8</v>
+      </c>
+      <c r="AK107">
+        <v>1.6</v>
+      </c>
+      <c r="AL107">
+        <v>1.3</v>
+      </c>
+      <c r="AM107">
+        <v>1.36</v>
+      </c>
+      <c r="AN107">
+        <v>1</v>
+      </c>
+      <c r="AO107">
+        <v>0.75</v>
+      </c>
+      <c r="AP107">
+        <v>1.4</v>
+      </c>
+      <c r="AQ107">
+        <v>0.6</v>
+      </c>
+      <c r="AR107">
+        <v>1.1</v>
+      </c>
+      <c r="AS107">
+        <v>1.34</v>
+      </c>
+      <c r="AT107">
+        <v>2.44</v>
+      </c>
+      <c r="AU107">
+        <v>5</v>
+      </c>
+      <c r="AV107">
+        <v>6</v>
+      </c>
+      <c r="AW107">
+        <v>2</v>
+      </c>
+      <c r="AX107">
+        <v>6</v>
+      </c>
+      <c r="AY107">
+        <v>8</v>
+      </c>
+      <c r="AZ107">
+        <v>19</v>
+      </c>
+      <c r="BA107">
+        <v>4</v>
+      </c>
+      <c r="BB107">
+        <v>2</v>
+      </c>
+      <c r="BC107">
+        <v>6</v>
+      </c>
+      <c r="BD107">
+        <v>2.08</v>
+      </c>
+      <c r="BE107">
+        <v>6.25</v>
+      </c>
+      <c r="BF107">
+        <v>2.24</v>
+      </c>
+      <c r="BG107">
+        <v>1.41</v>
+      </c>
+      <c r="BH107">
+        <v>2.6</v>
+      </c>
+      <c r="BI107">
+        <v>1.77</v>
+      </c>
+      <c r="BJ107">
+        <v>1.98</v>
+      </c>
+      <c r="BK107">
+        <v>2.25</v>
+      </c>
+      <c r="BL107">
+        <v>1.54</v>
+      </c>
+      <c r="BM107">
+        <v>2.97</v>
+      </c>
+      <c r="BN107">
+        <v>1.28</v>
+      </c>
+      <c r="BO107">
+        <v>4.25</v>
+      </c>
+      <c r="BP107">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7465103</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45592.51041666666</v>
+      </c>
+      <c r="F108">
+        <v>11</v>
+      </c>
+      <c r="G108" t="s">
+        <v>83</v>
+      </c>
+      <c r="H108" t="s">
+        <v>75</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>2</v>
+      </c>
+      <c r="O108" t="s">
+        <v>169</v>
+      </c>
+      <c r="P108" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q108">
+        <v>3.1</v>
+      </c>
+      <c r="R108">
+        <v>1.83</v>
+      </c>
+      <c r="S108">
+        <v>4.75</v>
+      </c>
+      <c r="T108">
+        <v>1.67</v>
+      </c>
+      <c r="U108">
+        <v>2.1</v>
+      </c>
+      <c r="V108">
+        <v>4.33</v>
+      </c>
+      <c r="W108">
+        <v>1.2</v>
+      </c>
+      <c r="X108">
+        <v>15</v>
+      </c>
+      <c r="Y108">
+        <v>1.03</v>
+      </c>
+      <c r="Z108">
+        <v>2.2</v>
+      </c>
+      <c r="AA108">
+        <v>3.1</v>
+      </c>
+      <c r="AB108">
+        <v>3.5</v>
+      </c>
+      <c r="AC108">
+        <v>1.14</v>
+      </c>
+      <c r="AD108">
+        <v>6</v>
+      </c>
+      <c r="AE108">
+        <v>1.65</v>
+      </c>
+      <c r="AF108">
+        <v>2.21</v>
+      </c>
+      <c r="AG108">
+        <v>3</v>
+      </c>
+      <c r="AH108">
+        <v>1.4</v>
+      </c>
+      <c r="AI108">
+        <v>2.5</v>
+      </c>
+      <c r="AJ108">
+        <v>1.5</v>
+      </c>
+      <c r="AK108">
+        <v>1.26</v>
+      </c>
+      <c r="AL108">
+        <v>1.35</v>
+      </c>
+      <c r="AM108">
+        <v>1.7</v>
+      </c>
+      <c r="AN108">
+        <v>1.4</v>
+      </c>
+      <c r="AO108">
+        <v>0.2</v>
+      </c>
+      <c r="AP108">
+        <v>1.33</v>
+      </c>
+      <c r="AQ108">
+        <v>0.33</v>
+      </c>
+      <c r="AR108">
+        <v>1.27</v>
+      </c>
+      <c r="AS108">
+        <v>0.91</v>
+      </c>
+      <c r="AT108">
+        <v>2.18</v>
+      </c>
+      <c r="AU108">
+        <v>5</v>
+      </c>
+      <c r="AV108">
+        <v>2</v>
+      </c>
+      <c r="AW108">
+        <v>7</v>
+      </c>
+      <c r="AX108">
+        <v>0</v>
+      </c>
+      <c r="AY108">
+        <v>16</v>
+      </c>
+      <c r="AZ108">
+        <v>3</v>
+      </c>
+      <c r="BA108">
+        <v>8</v>
+      </c>
+      <c r="BB108">
+        <v>2</v>
+      </c>
+      <c r="BC108">
+        <v>10</v>
+      </c>
+      <c r="BD108">
+        <v>1.63</v>
+      </c>
+      <c r="BE108">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF108">
+        <v>2.84</v>
+      </c>
+      <c r="BG108">
+        <v>1.49</v>
+      </c>
+      <c r="BH108">
+        <v>2.38</v>
+      </c>
+      <c r="BI108">
+        <v>1.91</v>
+      </c>
+      <c r="BJ108">
+        <v>1.83</v>
+      </c>
+      <c r="BK108">
+        <v>2.48</v>
+      </c>
+      <c r="BL108">
+        <v>1.45</v>
+      </c>
+      <c r="BM108">
+        <v>3.34</v>
+      </c>
+      <c r="BN108">
+        <v>1.22</v>
+      </c>
+      <c r="BO108">
+        <v>4.8</v>
+      </c>
+      <c r="BP108">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7465105</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45592.60416666666</v>
+      </c>
+      <c r="F109">
+        <v>11</v>
+      </c>
+      <c r="G109" t="s">
+        <v>71</v>
+      </c>
+      <c r="H109" t="s">
+        <v>87</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109" t="s">
+        <v>170</v>
+      </c>
+      <c r="P109" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q109">
+        <v>3.75</v>
+      </c>
+      <c r="R109">
+        <v>2</v>
+      </c>
+      <c r="S109">
+        <v>3.1</v>
+      </c>
+      <c r="T109">
+        <v>1.5</v>
+      </c>
+      <c r="U109">
+        <v>2.5</v>
+      </c>
+      <c r="V109">
+        <v>3.4</v>
+      </c>
+      <c r="W109">
+        <v>1.3</v>
+      </c>
+      <c r="X109">
+        <v>10</v>
+      </c>
+      <c r="Y109">
+        <v>1.06</v>
+      </c>
+      <c r="Z109">
+        <v>3</v>
+      </c>
+      <c r="AA109">
+        <v>3.4</v>
+      </c>
+      <c r="AB109">
+        <v>2.35</v>
+      </c>
+      <c r="AC109">
+        <v>1.08</v>
+      </c>
+      <c r="AD109">
+        <v>8.5</v>
+      </c>
+      <c r="AE109">
+        <v>1.44</v>
+      </c>
+      <c r="AF109">
+        <v>2.8</v>
+      </c>
+      <c r="AG109">
+        <v>2.3</v>
+      </c>
+      <c r="AH109">
+        <v>1.62</v>
+      </c>
+      <c r="AI109">
+        <v>1.95</v>
+      </c>
+      <c r="AJ109">
+        <v>1.8</v>
+      </c>
+      <c r="AK109">
+        <v>1.63</v>
+      </c>
+      <c r="AL109">
+        <v>1.3</v>
+      </c>
+      <c r="AM109">
+        <v>1.36</v>
+      </c>
+      <c r="AN109">
+        <v>2</v>
+      </c>
+      <c r="AO109">
+        <v>1.8</v>
+      </c>
+      <c r="AP109">
+        <v>2.17</v>
+      </c>
+      <c r="AQ109">
+        <v>1.5</v>
+      </c>
+      <c r="AR109">
+        <v>1.79</v>
+      </c>
+      <c r="AS109">
+        <v>0.97</v>
+      </c>
+      <c r="AT109">
+        <v>2.76</v>
+      </c>
+      <c r="AU109">
+        <v>4</v>
+      </c>
+      <c r="AV109">
+        <v>4</v>
+      </c>
+      <c r="AW109">
+        <v>17</v>
+      </c>
+      <c r="AX109">
+        <v>4</v>
+      </c>
+      <c r="AY109">
+        <v>25</v>
+      </c>
+      <c r="AZ109">
+        <v>11</v>
+      </c>
+      <c r="BA109">
+        <v>3</v>
+      </c>
+      <c r="BB109">
+        <v>10</v>
+      </c>
+      <c r="BC109">
+        <v>13</v>
+      </c>
+      <c r="BD109">
+        <v>1.99</v>
+      </c>
+      <c r="BE109">
+        <v>6.5</v>
+      </c>
+      <c r="BF109">
+        <v>2.32</v>
+      </c>
+      <c r="BG109">
+        <v>1.25</v>
+      </c>
+      <c r="BH109">
+        <v>3.14</v>
+      </c>
+      <c r="BI109">
+        <v>1.52</v>
+      </c>
+      <c r="BJ109">
+        <v>2.3</v>
+      </c>
+      <c r="BK109">
+        <v>1.93</v>
+      </c>
+      <c r="BL109">
+        <v>1.81</v>
+      </c>
+      <c r="BM109">
+        <v>2.48</v>
+      </c>
+      <c r="BN109">
+        <v>1.45</v>
+      </c>
+      <c r="BO109">
+        <v>3.28</v>
+      </c>
+      <c r="BP109">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7465109</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45592.70833333334</v>
+      </c>
+      <c r="F110">
+        <v>11</v>
+      </c>
+      <c r="G110" t="s">
+        <v>76</v>
+      </c>
+      <c r="H110" t="s">
+        <v>74</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>2</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>2</v>
+      </c>
+      <c r="N110">
+        <v>2</v>
+      </c>
+      <c r="O110" t="s">
+        <v>104</v>
+      </c>
+      <c r="P110" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q110">
+        <v>2.4</v>
+      </c>
+      <c r="R110">
+        <v>2.1</v>
+      </c>
+      <c r="S110">
+        <v>5.5</v>
+      </c>
+      <c r="T110">
+        <v>1.44</v>
+      </c>
+      <c r="U110">
+        <v>2.63</v>
+      </c>
+      <c r="V110">
+        <v>3.25</v>
+      </c>
+      <c r="W110">
+        <v>1.33</v>
+      </c>
+      <c r="X110">
+        <v>10</v>
+      </c>
+      <c r="Y110">
+        <v>1.06</v>
+      </c>
+      <c r="Z110">
+        <v>1.75</v>
+      </c>
+      <c r="AA110">
+        <v>3.6</v>
+      </c>
+      <c r="AB110">
+        <v>5</v>
+      </c>
+      <c r="AC110">
+        <v>1.07</v>
+      </c>
+      <c r="AD110">
+        <v>10</v>
+      </c>
+      <c r="AE110">
+        <v>1.4</v>
+      </c>
+      <c r="AF110">
+        <v>3</v>
+      </c>
+      <c r="AG110">
+        <v>2.2</v>
+      </c>
+      <c r="AH110">
+        <v>1.67</v>
+      </c>
+      <c r="AI110">
+        <v>2.05</v>
+      </c>
+      <c r="AJ110">
+        <v>1.7</v>
+      </c>
+      <c r="AK110">
+        <v>1.19</v>
+      </c>
+      <c r="AL110">
+        <v>1.24</v>
+      </c>
+      <c r="AM110">
+        <v>2.1</v>
+      </c>
+      <c r="AN110">
+        <v>0.8</v>
+      </c>
+      <c r="AO110">
+        <v>0.5</v>
+      </c>
+      <c r="AP110">
+        <v>0.67</v>
+      </c>
+      <c r="AQ110">
+        <v>1</v>
+      </c>
+      <c r="AR110">
+        <v>1.42</v>
+      </c>
+      <c r="AS110">
+        <v>0.76</v>
+      </c>
+      <c r="AT110">
+        <v>2.18</v>
+      </c>
+      <c r="AU110">
+        <v>10</v>
+      </c>
+      <c r="AV110">
+        <v>5</v>
+      </c>
+      <c r="AW110">
+        <v>8</v>
+      </c>
+      <c r="AX110">
+        <v>4</v>
+      </c>
+      <c r="AY110">
+        <v>20</v>
+      </c>
+      <c r="AZ110">
+        <v>11</v>
+      </c>
+      <c r="BA110">
+        <v>14</v>
+      </c>
+      <c r="BB110">
+        <v>4</v>
+      </c>
+      <c r="BC110">
+        <v>18</v>
+      </c>
+      <c r="BD110">
+        <v>1.45</v>
+      </c>
+      <c r="BE110">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF110">
+        <v>3.45</v>
+      </c>
+      <c r="BG110">
+        <v>1.26</v>
+      </c>
+      <c r="BH110">
+        <v>3.08</v>
+      </c>
+      <c r="BI110">
+        <v>1.53</v>
+      </c>
+      <c r="BJ110">
+        <v>2.27</v>
+      </c>
+      <c r="BK110">
+        <v>1.96</v>
+      </c>
+      <c r="BL110">
+        <v>1.79</v>
+      </c>
+      <c r="BM110">
+        <v>2.51</v>
+      </c>
+      <c r="BN110">
+        <v>1.44</v>
+      </c>
+      <c r="BO110">
+        <v>3.35</v>
+      </c>
+      <c r="BP110">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="225">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -520,13 +520,13 @@
     <t>['42']</t>
   </si>
   <si>
-    <t>['59', '78', '82']</t>
+    <t>['4']</t>
   </si>
   <si>
     <t>['90']</t>
   </si>
   <si>
-    <t>['4']</t>
+    <t>['59', '78', '82']</t>
   </si>
   <si>
     <t>['64']</t>
@@ -1050,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP110"/>
+  <dimension ref="A1:BP111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9">
         <v>1.8</v>
@@ -4068,7 +4068,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5713,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
         <v>1</v>
@@ -7695,7 +7695,7 @@
         <v>115</v>
       </c>
       <c r="P33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q33">
         <v>3.38</v>
@@ -9627,7 +9627,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42">
         <v>2.17</v>
@@ -10866,7 +10866,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR48">
         <v>1.22</v>
@@ -11481,7 +11481,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51">
         <v>1.6</v>
@@ -11896,7 +11896,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ53">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR53">
         <v>1.17</v>
@@ -19106,7 +19106,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ88">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR88">
         <v>1.28</v>
@@ -20957,7 +20957,7 @@
         <v>1.6</v>
       </c>
       <c r="AP97">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ97">
         <v>1.33</v>
@@ -22005,19 +22005,19 @@
         <v>2</v>
       </c>
       <c r="AV102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW102">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AX102">
         <v>1</v>
       </c>
       <c r="AY102">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AZ102">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BA102">
         <v>13</v>
@@ -22897,7 +22897,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>7465107</v>
+        <v>7465105</v>
       </c>
       <c r="C107" t="s">
         <v>68</v>
@@ -22906,34 +22906,34 @@
         <v>69</v>
       </c>
       <c r="E107" s="2">
-        <v>45592.41666666666</v>
+        <v>45591.875</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G107" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H107" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107">
         <v>0</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M107">
         <v>0</v>
       </c>
       <c r="N107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O107" t="s">
         <v>168</v>
@@ -22942,7 +22942,7 @@
         <v>104</v>
       </c>
       <c r="Q107">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R107">
         <v>2</v>
@@ -22969,16 +22969,16 @@
         <v>1.06</v>
       </c>
       <c r="Z107">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AA107">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AB107">
         <v>2.35</v>
       </c>
       <c r="AC107">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AD107">
         <v>8.5</v>
@@ -23002,7 +23002,7 @@
         <v>1.8</v>
       </c>
       <c r="AK107">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="AL107">
         <v>1.3</v>
@@ -23011,91 +23011,91 @@
         <v>1.36</v>
       </c>
       <c r="AN107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO107">
-        <v>0.75</v>
+        <v>1.8</v>
       </c>
       <c r="AP107">
-        <v>1.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ107">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR107">
-        <v>1.1</v>
+        <v>1.79</v>
       </c>
       <c r="AS107">
-        <v>1.34</v>
+        <v>0.97</v>
       </c>
       <c r="AT107">
-        <v>2.44</v>
+        <v>2.76</v>
       </c>
       <c r="AU107">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV107">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW107">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="AX107">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY107">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="AZ107">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="BA107">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB107">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BC107">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BD107">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="BE107">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="BF107">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="BG107">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="BH107">
-        <v>2.6</v>
+        <v>3.14</v>
       </c>
       <c r="BI107">
-        <v>1.77</v>
+        <v>1.52</v>
       </c>
       <c r="BJ107">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="BK107">
-        <v>2.25</v>
+        <v>1.93</v>
       </c>
       <c r="BL107">
-        <v>1.54</v>
+        <v>1.81</v>
       </c>
       <c r="BM107">
-        <v>2.97</v>
+        <v>2.48</v>
       </c>
       <c r="BN107">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="BO107">
-        <v>4.25</v>
+        <v>3.28</v>
       </c>
       <c r="BP107">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="108" spans="1:68">
@@ -23112,7 +23112,7 @@
         <v>69</v>
       </c>
       <c r="E108" s="2">
-        <v>45592.51041666666</v>
+        <v>45591.875</v>
       </c>
       <c r="F108">
         <v>11</v>
@@ -23309,7 +23309,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>7465105</v>
+        <v>7465109</v>
       </c>
       <c r="C109" t="s">
         <v>68</v>
@@ -23318,61 +23318,61 @@
         <v>69</v>
       </c>
       <c r="E109" s="2">
-        <v>45592.60416666666</v>
+        <v>45591.875</v>
       </c>
       <c r="F109">
         <v>11</v>
       </c>
       <c r="G109" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H109" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O109" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="P109" t="s">
-        <v>104</v>
+        <v>224</v>
       </c>
       <c r="Q109">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="R109">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S109">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="T109">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U109">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V109">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W109">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X109">
         <v>10</v>
@@ -23381,133 +23381,133 @@
         <v>1.06</v>
       </c>
       <c r="Z109">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AA109">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AB109">
-        <v>2.35</v>
+        <v>5</v>
       </c>
       <c r="AC109">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AD109">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AE109">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AF109">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AG109">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AH109">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AI109">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AJ109">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AK109">
-        <v>1.63</v>
+        <v>1.19</v>
       </c>
       <c r="AL109">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AM109">
-        <v>1.36</v>
+        <v>2.1</v>
       </c>
       <c r="AN109">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="AO109">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="AP109">
-        <v>2.17</v>
+        <v>0.67</v>
       </c>
       <c r="AQ109">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR109">
-        <v>1.79</v>
+        <v>1.42</v>
       </c>
       <c r="AS109">
-        <v>0.97</v>
+        <v>0.76</v>
       </c>
       <c r="AT109">
-        <v>2.76</v>
+        <v>2.18</v>
       </c>
       <c r="AU109">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AV109">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW109">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AX109">
         <v>4</v>
       </c>
       <c r="AY109">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AZ109">
         <v>11</v>
       </c>
       <c r="BA109">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="BB109">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BC109">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BD109">
-        <v>1.99</v>
+        <v>1.45</v>
       </c>
       <c r="BE109">
-        <v>6.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="BF109">
-        <v>2.32</v>
+        <v>3.45</v>
       </c>
       <c r="BG109">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="BH109">
-        <v>3.14</v>
+        <v>3.08</v>
       </c>
       <c r="BI109">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="BJ109">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="BK109">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="BL109">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="BM109">
-        <v>2.48</v>
+        <v>2.51</v>
       </c>
       <c r="BN109">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="BO109">
-        <v>3.28</v>
+        <v>3.35</v>
       </c>
       <c r="BP109">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="110" spans="1:68">
@@ -23515,7 +23515,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>7465109</v>
+        <v>7465107</v>
       </c>
       <c r="C110" t="s">
         <v>68</v>
@@ -23524,61 +23524,61 @@
         <v>69</v>
       </c>
       <c r="E110" s="2">
-        <v>45592.70833333334</v>
+        <v>45592.41666666666</v>
       </c>
       <c r="F110">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H110" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O110" t="s">
+        <v>170</v>
+      </c>
+      <c r="P110" t="s">
         <v>104</v>
       </c>
-      <c r="P110" t="s">
-        <v>224</v>
-      </c>
       <c r="Q110">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="R110">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="T110">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U110">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V110">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W110">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X110">
         <v>10</v>
@@ -23587,133 +23587,339 @@
         <v>1.06</v>
       </c>
       <c r="Z110">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="AA110">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="AB110">
+        <v>2.35</v>
+      </c>
+      <c r="AC110">
+        <v>1.09</v>
+      </c>
+      <c r="AD110">
+        <v>8.5</v>
+      </c>
+      <c r="AE110">
+        <v>1.44</v>
+      </c>
+      <c r="AF110">
+        <v>2.8</v>
+      </c>
+      <c r="AG110">
+        <v>2.3</v>
+      </c>
+      <c r="AH110">
+        <v>1.62</v>
+      </c>
+      <c r="AI110">
+        <v>1.95</v>
+      </c>
+      <c r="AJ110">
+        <v>1.8</v>
+      </c>
+      <c r="AK110">
+        <v>1.6</v>
+      </c>
+      <c r="AL110">
+        <v>1.3</v>
+      </c>
+      <c r="AM110">
+        <v>1.36</v>
+      </c>
+      <c r="AN110">
+        <v>1</v>
+      </c>
+      <c r="AO110">
+        <v>0.75</v>
+      </c>
+      <c r="AP110">
+        <v>1.4</v>
+      </c>
+      <c r="AQ110">
+        <v>0.6</v>
+      </c>
+      <c r="AR110">
+        <v>1.1</v>
+      </c>
+      <c r="AS110">
+        <v>1.34</v>
+      </c>
+      <c r="AT110">
+        <v>2.44</v>
+      </c>
+      <c r="AU110">
         <v>5</v>
       </c>
-      <c r="AC110">
-        <v>1.07</v>
-      </c>
-      <c r="AD110">
-        <v>10</v>
-      </c>
-      <c r="AE110">
+      <c r="AV110">
+        <v>6</v>
+      </c>
+      <c r="AW110">
+        <v>2</v>
+      </c>
+      <c r="AX110">
+        <v>6</v>
+      </c>
+      <c r="AY110">
+        <v>8</v>
+      </c>
+      <c r="AZ110">
+        <v>19</v>
+      </c>
+      <c r="BA110">
+        <v>4</v>
+      </c>
+      <c r="BB110">
+        <v>2</v>
+      </c>
+      <c r="BC110">
+        <v>6</v>
+      </c>
+      <c r="BD110">
+        <v>2.08</v>
+      </c>
+      <c r="BE110">
+        <v>6.25</v>
+      </c>
+      <c r="BF110">
+        <v>2.24</v>
+      </c>
+      <c r="BG110">
+        <v>1.41</v>
+      </c>
+      <c r="BH110">
+        <v>2.6</v>
+      </c>
+      <c r="BI110">
+        <v>1.77</v>
+      </c>
+      <c r="BJ110">
+        <v>1.98</v>
+      </c>
+      <c r="BK110">
+        <v>2.25</v>
+      </c>
+      <c r="BL110">
+        <v>1.54</v>
+      </c>
+      <c r="BM110">
+        <v>2.97</v>
+      </c>
+      <c r="BN110">
+        <v>1.28</v>
+      </c>
+      <c r="BO110">
+        <v>4.25</v>
+      </c>
+      <c r="BP110">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7465104</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45593.70833333334</v>
+      </c>
+      <c r="F111">
+        <v>11</v>
+      </c>
+      <c r="G111" t="s">
+        <v>77</v>
+      </c>
+      <c r="H111" t="s">
+        <v>70</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111" t="s">
+        <v>104</v>
+      </c>
+      <c r="P111" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q111">
+        <v>3.75</v>
+      </c>
+      <c r="R111">
+        <v>1.95</v>
+      </c>
+      <c r="S111">
+        <v>3.4</v>
+      </c>
+      <c r="T111">
+        <v>1.57</v>
+      </c>
+      <c r="U111">
+        <v>2.25</v>
+      </c>
+      <c r="V111">
+        <v>3.75</v>
+      </c>
+      <c r="W111">
+        <v>1.25</v>
+      </c>
+      <c r="X111">
+        <v>11</v>
+      </c>
+      <c r="Y111">
+        <v>1.05</v>
+      </c>
+      <c r="Z111">
+        <v>2.9</v>
+      </c>
+      <c r="AA111">
+        <v>3.1</v>
+      </c>
+      <c r="AB111">
+        <v>2.55</v>
+      </c>
+      <c r="AC111">
+        <v>1.11</v>
+      </c>
+      <c r="AD111">
+        <v>7</v>
+      </c>
+      <c r="AE111">
+        <v>1.5</v>
+      </c>
+      <c r="AF111">
+        <v>2.65</v>
+      </c>
+      <c r="AG111">
+        <v>2.5</v>
+      </c>
+      <c r="AH111">
+        <v>1.53</v>
+      </c>
+      <c r="AI111">
+        <v>2.05</v>
+      </c>
+      <c r="AJ111">
+        <v>1.7</v>
+      </c>
+      <c r="AK111">
+        <v>1.52</v>
+      </c>
+      <c r="AL111">
+        <v>1.33</v>
+      </c>
+      <c r="AM111">
+        <v>1.42</v>
+      </c>
+      <c r="AN111">
+        <v>1.6</v>
+      </c>
+      <c r="AO111">
+        <v>1.5</v>
+      </c>
+      <c r="AP111">
+        <v>1.5</v>
+      </c>
+      <c r="AQ111">
         <v>1.4</v>
       </c>
-      <c r="AF110">
-        <v>3</v>
-      </c>
-      <c r="AG110">
-        <v>2.2</v>
-      </c>
-      <c r="AH110">
-        <v>1.67</v>
-      </c>
-      <c r="AI110">
-        <v>2.05</v>
-      </c>
-      <c r="AJ110">
-        <v>1.7</v>
-      </c>
-      <c r="AK110">
-        <v>1.19</v>
-      </c>
-      <c r="AL110">
-        <v>1.24</v>
-      </c>
-      <c r="AM110">
-        <v>2.1</v>
-      </c>
-      <c r="AN110">
-        <v>0.8</v>
-      </c>
-      <c r="AO110">
-        <v>0.5</v>
-      </c>
-      <c r="AP110">
-        <v>0.67</v>
-      </c>
-      <c r="AQ110">
-        <v>1</v>
-      </c>
-      <c r="AR110">
-        <v>1.42</v>
-      </c>
-      <c r="AS110">
-        <v>0.76</v>
-      </c>
-      <c r="AT110">
-        <v>2.18</v>
-      </c>
-      <c r="AU110">
-        <v>10</v>
-      </c>
-      <c r="AV110">
+      <c r="AR111">
+        <v>1.44</v>
+      </c>
+      <c r="AS111">
+        <v>1.15</v>
+      </c>
+      <c r="AT111">
+        <v>2.59</v>
+      </c>
+      <c r="AU111">
+        <v>2</v>
+      </c>
+      <c r="AV111">
+        <v>2</v>
+      </c>
+      <c r="AW111">
+        <v>2</v>
+      </c>
+      <c r="AX111">
+        <v>11</v>
+      </c>
+      <c r="AY111">
         <v>5</v>
       </c>
-      <c r="AW110">
-        <v>8</v>
-      </c>
-      <c r="AX110">
-        <v>4</v>
-      </c>
-      <c r="AY110">
-        <v>20</v>
-      </c>
-      <c r="AZ110">
-        <v>11</v>
-      </c>
-      <c r="BA110">
+      <c r="AZ111">
+        <v>21</v>
+      </c>
+      <c r="BA111">
+        <v>1</v>
+      </c>
+      <c r="BB111">
         <v>14</v>
       </c>
-      <c r="BB110">
-        <v>4</v>
-      </c>
-      <c r="BC110">
-        <v>18</v>
-      </c>
-      <c r="BD110">
-        <v>1.45</v>
-      </c>
-      <c r="BE110">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="BF110">
-        <v>3.45</v>
-      </c>
-      <c r="BG110">
-        <v>1.26</v>
-      </c>
-      <c r="BH110">
-        <v>3.08</v>
-      </c>
-      <c r="BI110">
-        <v>1.53</v>
-      </c>
-      <c r="BJ110">
-        <v>2.27</v>
-      </c>
-      <c r="BK110">
-        <v>1.96</v>
-      </c>
-      <c r="BL110">
-        <v>1.79</v>
-      </c>
-      <c r="BM110">
-        <v>2.51</v>
-      </c>
-      <c r="BN110">
-        <v>1.44</v>
-      </c>
-      <c r="BO110">
-        <v>3.35</v>
-      </c>
-      <c r="BP110">
-        <v>1.22</v>
+      <c r="BC111">
+        <v>15</v>
+      </c>
+      <c r="BD111">
+        <v>1.97</v>
+      </c>
+      <c r="BE111">
+        <v>6.4</v>
+      </c>
+      <c r="BF111">
+        <v>2.02</v>
+      </c>
+      <c r="BG111">
+        <v>1.29</v>
+      </c>
+      <c r="BH111">
+        <v>3.2</v>
+      </c>
+      <c r="BI111">
+        <v>1.5</v>
+      </c>
+      <c r="BJ111">
+        <v>2.38</v>
+      </c>
+      <c r="BK111">
+        <v>1.81</v>
+      </c>
+      <c r="BL111">
+        <v>1.88</v>
+      </c>
+      <c r="BM111">
+        <v>2.28</v>
+      </c>
+      <c r="BN111">
+        <v>1.55</v>
+      </c>
+      <c r="BO111">
+        <v>2.95</v>
+      </c>
+      <c r="BP111">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -520,13 +520,13 @@
     <t>['42']</t>
   </si>
   <si>
-    <t>['4']</t>
+    <t>['59', '78', '82']</t>
   </si>
   <si>
     <t>['90']</t>
   </si>
   <si>
-    <t>['59', '78', '82']</t>
+    <t>['4']</t>
   </si>
   <si>
     <t>['64']</t>
@@ -7695,7 +7695,7 @@
         <v>115</v>
       </c>
       <c r="P33" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q33">
         <v>3.38</v>
@@ -22897,7 +22897,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>7465105</v>
+        <v>7465107</v>
       </c>
       <c r="C107" t="s">
         <v>68</v>
@@ -22906,34 +22906,34 @@
         <v>69</v>
       </c>
       <c r="E107" s="2">
-        <v>45591.875</v>
+        <v>45592.41666666666</v>
       </c>
       <c r="F107">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="H107" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107">
         <v>0</v>
       </c>
       <c r="K107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M107">
         <v>0</v>
       </c>
       <c r="N107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O107" t="s">
         <v>168</v>
@@ -22942,7 +22942,7 @@
         <v>104</v>
       </c>
       <c r="Q107">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R107">
         <v>2</v>
@@ -22969,16 +22969,16 @@
         <v>1.06</v>
       </c>
       <c r="Z107">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AA107">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AB107">
         <v>2.35</v>
       </c>
       <c r="AC107">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AD107">
         <v>8.5</v>
@@ -23002,7 +23002,7 @@
         <v>1.8</v>
       </c>
       <c r="AK107">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="AL107">
         <v>1.3</v>
@@ -23011,91 +23011,91 @@
         <v>1.36</v>
       </c>
       <c r="AN107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO107">
-        <v>1.8</v>
+        <v>0.75</v>
       </c>
       <c r="AP107">
-        <v>2.17</v>
+        <v>1.4</v>
       </c>
       <c r="AQ107">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR107">
-        <v>1.79</v>
+        <v>1.1</v>
       </c>
       <c r="AS107">
-        <v>0.97</v>
+        <v>1.34</v>
       </c>
       <c r="AT107">
-        <v>2.76</v>
+        <v>2.44</v>
       </c>
       <c r="AU107">
+        <v>5</v>
+      </c>
+      <c r="AV107">
+        <v>6</v>
+      </c>
+      <c r="AW107">
+        <v>2</v>
+      </c>
+      <c r="AX107">
+        <v>6</v>
+      </c>
+      <c r="AY107">
+        <v>8</v>
+      </c>
+      <c r="AZ107">
+        <v>19</v>
+      </c>
+      <c r="BA107">
         <v>4</v>
       </c>
-      <c r="AV107">
-        <v>4</v>
-      </c>
-      <c r="AW107">
-        <v>17</v>
-      </c>
-      <c r="AX107">
-        <v>4</v>
-      </c>
-      <c r="AY107">
-        <v>25</v>
-      </c>
-      <c r="AZ107">
-        <v>11</v>
-      </c>
-      <c r="BA107">
-        <v>3</v>
-      </c>
       <c r="BB107">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BC107">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BD107">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="BE107">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="BF107">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="BG107">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="BH107">
-        <v>3.14</v>
+        <v>2.6</v>
       </c>
       <c r="BI107">
-        <v>1.52</v>
+        <v>1.77</v>
       </c>
       <c r="BJ107">
-        <v>2.3</v>
+        <v>1.98</v>
       </c>
       <c r="BK107">
-        <v>1.93</v>
+        <v>2.25</v>
       </c>
       <c r="BL107">
-        <v>1.81</v>
+        <v>1.54</v>
       </c>
       <c r="BM107">
-        <v>2.48</v>
+        <v>2.97</v>
       </c>
       <c r="BN107">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="BO107">
-        <v>3.28</v>
+        <v>4.25</v>
       </c>
       <c r="BP107">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="108" spans="1:68">
@@ -23112,10 +23112,10 @@
         <v>69</v>
       </c>
       <c r="E108" s="2">
-        <v>45591.875</v>
+        <v>45592.51041666666</v>
       </c>
       <c r="F108">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G108" t="s">
         <v>83</v>
@@ -23309,7 +23309,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>7465109</v>
+        <v>7465105</v>
       </c>
       <c r="C109" t="s">
         <v>68</v>
@@ -23318,61 +23318,61 @@
         <v>69</v>
       </c>
       <c r="E109" s="2">
-        <v>45591.875</v>
+        <v>45592.60416666666</v>
       </c>
       <c r="F109">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H109" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O109" t="s">
+        <v>170</v>
+      </c>
+      <c r="P109" t="s">
         <v>104</v>
       </c>
-      <c r="P109" t="s">
-        <v>224</v>
-      </c>
       <c r="Q109">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="R109">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S109">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="T109">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U109">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V109">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W109">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X109">
         <v>10</v>
@@ -23381,133 +23381,133 @@
         <v>1.06</v>
       </c>
       <c r="Z109">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="AA109">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AB109">
-        <v>5</v>
+        <v>2.35</v>
       </c>
       <c r="AC109">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AD109">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AE109">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AF109">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AG109">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AH109">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AI109">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AJ109">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AK109">
-        <v>1.19</v>
+        <v>1.63</v>
       </c>
       <c r="AL109">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="AM109">
-        <v>2.1</v>
+        <v>1.36</v>
       </c>
       <c r="AN109">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="AO109">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="AP109">
-        <v>0.67</v>
+        <v>2.17</v>
       </c>
       <c r="AQ109">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR109">
-        <v>1.42</v>
+        <v>1.79</v>
       </c>
       <c r="AS109">
-        <v>0.76</v>
+        <v>0.97</v>
       </c>
       <c r="AT109">
-        <v>2.18</v>
+        <v>2.76</v>
       </c>
       <c r="AU109">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AV109">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW109">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AX109">
         <v>4</v>
       </c>
       <c r="AY109">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AZ109">
         <v>11</v>
       </c>
       <c r="BA109">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="BB109">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BC109">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BD109">
+        <v>1.99</v>
+      </c>
+      <c r="BE109">
+        <v>6.5</v>
+      </c>
+      <c r="BF109">
+        <v>2.32</v>
+      </c>
+      <c r="BG109">
+        <v>1.25</v>
+      </c>
+      <c r="BH109">
+        <v>3.14</v>
+      </c>
+      <c r="BI109">
+        <v>1.52</v>
+      </c>
+      <c r="BJ109">
+        <v>2.3</v>
+      </c>
+      <c r="BK109">
+        <v>1.93</v>
+      </c>
+      <c r="BL109">
+        <v>1.81</v>
+      </c>
+      <c r="BM109">
+        <v>2.48</v>
+      </c>
+      <c r="BN109">
         <v>1.45</v>
       </c>
-      <c r="BE109">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="BF109">
-        <v>3.45</v>
-      </c>
-      <c r="BG109">
-        <v>1.26</v>
-      </c>
-      <c r="BH109">
-        <v>3.08</v>
-      </c>
-      <c r="BI109">
-        <v>1.53</v>
-      </c>
-      <c r="BJ109">
-        <v>2.27</v>
-      </c>
-      <c r="BK109">
-        <v>1.96</v>
-      </c>
-      <c r="BL109">
-        <v>1.79</v>
-      </c>
-      <c r="BM109">
-        <v>2.51</v>
-      </c>
-      <c r="BN109">
-        <v>1.44</v>
-      </c>
       <c r="BO109">
-        <v>3.35</v>
+        <v>3.28</v>
       </c>
       <c r="BP109">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="110" spans="1:68">
@@ -23515,7 +23515,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>7465107</v>
+        <v>7465109</v>
       </c>
       <c r="C110" t="s">
         <v>68</v>
@@ -23524,61 +23524,61 @@
         <v>69</v>
       </c>
       <c r="E110" s="2">
-        <v>45592.41666666666</v>
+        <v>45592.70833333334</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G110" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H110" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L110">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O110" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>104</v>
+        <v>224</v>
       </c>
       <c r="Q110">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="R110">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S110">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="T110">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U110">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V110">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W110">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X110">
         <v>10</v>
@@ -23587,133 +23587,133 @@
         <v>1.06</v>
       </c>
       <c r="Z110">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="AA110">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="AB110">
-        <v>2.35</v>
+        <v>5</v>
       </c>
       <c r="AC110">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AD110">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AE110">
+        <v>1.4</v>
+      </c>
+      <c r="AF110">
+        <v>3</v>
+      </c>
+      <c r="AG110">
+        <v>2.2</v>
+      </c>
+      <c r="AH110">
+        <v>1.67</v>
+      </c>
+      <c r="AI110">
+        <v>2.05</v>
+      </c>
+      <c r="AJ110">
+        <v>1.7</v>
+      </c>
+      <c r="AK110">
+        <v>1.19</v>
+      </c>
+      <c r="AL110">
+        <v>1.24</v>
+      </c>
+      <c r="AM110">
+        <v>2.1</v>
+      </c>
+      <c r="AN110">
+        <v>0.8</v>
+      </c>
+      <c r="AO110">
+        <v>0.5</v>
+      </c>
+      <c r="AP110">
+        <v>0.67</v>
+      </c>
+      <c r="AQ110">
+        <v>1</v>
+      </c>
+      <c r="AR110">
+        <v>1.42</v>
+      </c>
+      <c r="AS110">
+        <v>0.76</v>
+      </c>
+      <c r="AT110">
+        <v>2.18</v>
+      </c>
+      <c r="AU110">
+        <v>10</v>
+      </c>
+      <c r="AV110">
+        <v>5</v>
+      </c>
+      <c r="AW110">
+        <v>8</v>
+      </c>
+      <c r="AX110">
+        <v>4</v>
+      </c>
+      <c r="AY110">
+        <v>20</v>
+      </c>
+      <c r="AZ110">
+        <v>11</v>
+      </c>
+      <c r="BA110">
+        <v>14</v>
+      </c>
+      <c r="BB110">
+        <v>4</v>
+      </c>
+      <c r="BC110">
+        <v>18</v>
+      </c>
+      <c r="BD110">
+        <v>1.45</v>
+      </c>
+      <c r="BE110">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF110">
+        <v>3.45</v>
+      </c>
+      <c r="BG110">
+        <v>1.26</v>
+      </c>
+      <c r="BH110">
+        <v>3.08</v>
+      </c>
+      <c r="BI110">
+        <v>1.53</v>
+      </c>
+      <c r="BJ110">
+        <v>2.27</v>
+      </c>
+      <c r="BK110">
+        <v>1.96</v>
+      </c>
+      <c r="BL110">
+        <v>1.79</v>
+      </c>
+      <c r="BM110">
+        <v>2.51</v>
+      </c>
+      <c r="BN110">
         <v>1.44</v>
       </c>
-      <c r="AF110">
-        <v>2.8</v>
-      </c>
-      <c r="AG110">
-        <v>2.3</v>
-      </c>
-      <c r="AH110">
-        <v>1.62</v>
-      </c>
-      <c r="AI110">
-        <v>1.95</v>
-      </c>
-      <c r="AJ110">
-        <v>1.8</v>
-      </c>
-      <c r="AK110">
-        <v>1.6</v>
-      </c>
-      <c r="AL110">
-        <v>1.3</v>
-      </c>
-      <c r="AM110">
-        <v>1.36</v>
-      </c>
-      <c r="AN110">
-        <v>1</v>
-      </c>
-      <c r="AO110">
-        <v>0.75</v>
-      </c>
-      <c r="AP110">
-        <v>1.4</v>
-      </c>
-      <c r="AQ110">
-        <v>0.6</v>
-      </c>
-      <c r="AR110">
-        <v>1.1</v>
-      </c>
-      <c r="AS110">
-        <v>1.34</v>
-      </c>
-      <c r="AT110">
-        <v>2.44</v>
-      </c>
-      <c r="AU110">
-        <v>5</v>
-      </c>
-      <c r="AV110">
-        <v>6</v>
-      </c>
-      <c r="AW110">
-        <v>2</v>
-      </c>
-      <c r="AX110">
-        <v>6</v>
-      </c>
-      <c r="AY110">
-        <v>8</v>
-      </c>
-      <c r="AZ110">
-        <v>19</v>
-      </c>
-      <c r="BA110">
-        <v>4</v>
-      </c>
-      <c r="BB110">
-        <v>2</v>
-      </c>
-      <c r="BC110">
-        <v>6</v>
-      </c>
-      <c r="BD110">
-        <v>2.08</v>
-      </c>
-      <c r="BE110">
-        <v>6.25</v>
-      </c>
-      <c r="BF110">
-        <v>2.24</v>
-      </c>
-      <c r="BG110">
-        <v>1.41</v>
-      </c>
-      <c r="BH110">
-        <v>2.6</v>
-      </c>
-      <c r="BI110">
-        <v>1.77</v>
-      </c>
-      <c r="BJ110">
-        <v>1.98</v>
-      </c>
-      <c r="BK110">
-        <v>2.25</v>
-      </c>
-      <c r="BL110">
-        <v>1.54</v>
-      </c>
-      <c r="BM110">
-        <v>2.97</v>
-      </c>
-      <c r="BN110">
-        <v>1.28</v>
-      </c>
       <c r="BO110">
-        <v>4.25</v>
+        <v>3.35</v>
       </c>
       <c r="BP110">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="111" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -23733,7 +23733,7 @@
         <v>45593.70833333334</v>
       </c>
       <c r="F111">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G111" t="s">
         <v>77</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="225">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1050,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP111"/>
+  <dimension ref="A1:BP112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3862,7 +3862,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ14">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>1.83</v>
@@ -5095,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -7982,7 +7982,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ34">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR34">
         <v>1.29</v>
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ36">
         <v>0.6</v>
@@ -12099,7 +12099,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -13956,7 +13956,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ63">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR63">
         <v>1.68</v>
@@ -15810,7 +15810,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ72">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR72">
         <v>1.16</v>
@@ -18076,7 +18076,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ83">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR83">
         <v>1.07</v>
@@ -19309,7 +19309,7 @@
         <v>2.4</v>
       </c>
       <c r="AP89">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ89">
         <v>2.57</v>
@@ -19927,7 +19927,7 @@
         <v>0</v>
       </c>
       <c r="AP92">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ92">
         <v>0.6</v>
@@ -23920,6 +23920,212 @@
       </c>
       <c r="BP111">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7465117</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45597.70833333334</v>
+      </c>
+      <c r="F112">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>86</v>
+      </c>
+      <c r="H112" t="s">
+        <v>77</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112" t="s">
+        <v>162</v>
+      </c>
+      <c r="P112" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q112">
+        <v>3.25</v>
+      </c>
+      <c r="R112">
+        <v>1.91</v>
+      </c>
+      <c r="S112">
+        <v>4</v>
+      </c>
+      <c r="T112">
+        <v>1.62</v>
+      </c>
+      <c r="U112">
+        <v>2.2</v>
+      </c>
+      <c r="V112">
+        <v>4</v>
+      </c>
+      <c r="W112">
+        <v>1.22</v>
+      </c>
+      <c r="X112">
+        <v>13</v>
+      </c>
+      <c r="Y112">
+        <v>1.04</v>
+      </c>
+      <c r="Z112">
+        <v>2.4</v>
+      </c>
+      <c r="AA112">
+        <v>3</v>
+      </c>
+      <c r="AB112">
+        <v>3.1</v>
+      </c>
+      <c r="AC112">
+        <v>1.12</v>
+      </c>
+      <c r="AD112">
+        <v>6.5</v>
+      </c>
+      <c r="AE112">
+        <v>1.53</v>
+      </c>
+      <c r="AF112">
+        <v>2.37</v>
+      </c>
+      <c r="AG112">
+        <v>2.75</v>
+      </c>
+      <c r="AH112">
+        <v>1.44</v>
+      </c>
+      <c r="AI112">
+        <v>2.2</v>
+      </c>
+      <c r="AJ112">
+        <v>1.62</v>
+      </c>
+      <c r="AK112">
+        <v>1.36</v>
+      </c>
+      <c r="AL112">
+        <v>1.35</v>
+      </c>
+      <c r="AM112">
+        <v>1.57</v>
+      </c>
+      <c r="AN112">
+        <v>1.4</v>
+      </c>
+      <c r="AO112">
+        <v>1.8</v>
+      </c>
+      <c r="AP112">
+        <v>1.67</v>
+      </c>
+      <c r="AQ112">
+        <v>1.5</v>
+      </c>
+      <c r="AR112">
+        <v>1.08</v>
+      </c>
+      <c r="AS112">
+        <v>1.31</v>
+      </c>
+      <c r="AT112">
+        <v>2.39</v>
+      </c>
+      <c r="AU112">
+        <v>4</v>
+      </c>
+      <c r="AV112">
+        <v>3</v>
+      </c>
+      <c r="AW112">
+        <v>4</v>
+      </c>
+      <c r="AX112">
+        <v>3</v>
+      </c>
+      <c r="AY112">
+        <v>14</v>
+      </c>
+      <c r="AZ112">
+        <v>8</v>
+      </c>
+      <c r="BA112">
+        <v>7</v>
+      </c>
+      <c r="BB112">
+        <v>2</v>
+      </c>
+      <c r="BC112">
+        <v>9</v>
+      </c>
+      <c r="BD112">
+        <v>1.76</v>
+      </c>
+      <c r="BE112">
+        <v>6.4</v>
+      </c>
+      <c r="BF112">
+        <v>2.3</v>
+      </c>
+      <c r="BG112">
+        <v>1.36</v>
+      </c>
+      <c r="BH112">
+        <v>2.85</v>
+      </c>
+      <c r="BI112">
+        <v>1.61</v>
+      </c>
+      <c r="BJ112">
+        <v>2.15</v>
+      </c>
+      <c r="BK112">
+        <v>1.98</v>
+      </c>
+      <c r="BL112">
+        <v>1.72</v>
+      </c>
+      <c r="BM112">
+        <v>2.55</v>
+      </c>
+      <c r="BN112">
+        <v>1.44</v>
+      </c>
+      <c r="BO112">
+        <v>3.3</v>
+      </c>
+      <c r="BP112">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="232">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -529,6 +529,18 @@
     <t>['4']</t>
   </si>
   <si>
+    <t>['21', '31', '62', '73']</t>
+  </si>
+  <si>
+    <t>['37', '83']</t>
+  </si>
+  <si>
+    <t>['12', '23', '31']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -646,9 +658,6 @@
     <t>['47']</t>
   </si>
   <si>
-    <t>['68']</t>
-  </si>
-  <si>
     <t>['28']</t>
   </si>
   <si>
@@ -689,6 +698,18 @@
   </si>
   <si>
     <t>['23', '34']</t>
+  </si>
+  <si>
+    <t>['25', '41', '77']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['34', '68']</t>
+  </si>
+  <si>
+    <t>['52']</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1071,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP112"/>
+  <dimension ref="A1:BP119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1309,7 +1330,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1387,10 +1408,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ2">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1515,7 +1536,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1721,7 +1742,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1799,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ4">
         <v>0.5</v>
@@ -1927,7 +1948,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2133,7 +2154,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2211,10 +2232,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ6">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2339,7 +2360,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2545,7 +2566,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2751,7 +2772,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3038,7 +3059,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ10">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3163,7 +3184,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3369,7 +3390,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3447,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ12">
         <v>0.33</v>
@@ -3575,7 +3596,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3653,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>2.17</v>
@@ -3859,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ14">
         <v>1.5</v>
@@ -4274,7 +4295,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ16">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4686,7 +4707,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ18">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4811,7 +4832,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -4892,7 +4913,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ19">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5301,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ21">
         <v>0.83</v>
@@ -5429,7 +5450,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5841,7 +5862,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6125,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ25">
         <v>0.33</v>
@@ -6334,7 +6355,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ26">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR26">
         <v>0.95</v>
@@ -6459,7 +6480,7 @@
         <v>111</v>
       </c>
       <c r="P27" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q27">
         <v>2.3</v>
@@ -6743,10 +6764,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ28">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR28">
         <v>1.31</v>
@@ -6949,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -7077,7 +7098,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -7364,7 +7385,7 @@
         <v>3</v>
       </c>
       <c r="AQ31">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR31">
         <v>1.51</v>
@@ -7489,7 +7510,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7567,7 +7588,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ32">
         <v>1.5</v>
@@ -7901,7 +7922,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -8107,7 +8128,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q35">
         <v>3.22</v>
@@ -8394,7 +8415,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ36">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR36">
         <v>0.71</v>
@@ -8519,7 +8540,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -8597,7 +8618,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ37">
         <v>0.6</v>
@@ -8725,7 +8746,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -8803,7 +8824,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38">
         <v>0.83</v>
@@ -9012,7 +9033,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ39">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR39">
         <v>1.12</v>
@@ -9424,7 +9445,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ41">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR41">
         <v>1.59</v>
@@ -9549,7 +9570,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9755,7 +9776,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -10039,10 +10060,10 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ44">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR44">
         <v>1.7</v>
@@ -10167,7 +10188,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10451,10 +10472,10 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ46">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR46">
         <v>1.11</v>
@@ -10579,7 +10600,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10657,7 +10678,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ47">
         <v>2.57</v>
@@ -10785,7 +10806,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11069,7 +11090,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ49">
         <v>0.33</v>
@@ -11484,7 +11505,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR51">
         <v>1.4</v>
@@ -11609,7 +11630,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11690,7 +11711,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ52">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR52">
         <v>1.61</v>
@@ -11815,7 +11836,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -12308,7 +12329,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ55">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR55">
         <v>1.18</v>
@@ -12433,7 +12454,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12511,10 +12532,10 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ56">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR56">
         <v>1.5</v>
@@ -12845,7 +12866,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q58">
         <v>1.51</v>
@@ -12926,7 +12947,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ58">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR58">
         <v>2.01</v>
@@ -13132,7 +13153,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ59">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR59">
         <v>1.14</v>
@@ -13257,7 +13278,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13335,7 +13356,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ60">
         <v>0.6</v>
@@ -13463,7 +13484,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13875,7 +13896,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -14287,7 +14308,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14365,10 +14386,10 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR65">
         <v>1.56</v>
@@ -14493,7 +14514,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -14777,7 +14798,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ67">
         <v>1.33</v>
@@ -14986,7 +15007,7 @@
         <v>3</v>
       </c>
       <c r="AQ68">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR68">
         <v>1.97</v>
@@ -15111,7 +15132,7 @@
         <v>109</v>
       </c>
       <c r="P69" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q69">
         <v>3.75</v>
@@ -15317,7 +15338,7 @@
         <v>142</v>
       </c>
       <c r="P70" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15601,7 +15622,7 @@
         <v>1.67</v>
       </c>
       <c r="AP71">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ71">
         <v>1.5</v>
@@ -15729,7 +15750,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16222,7 +16243,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ74">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR74">
         <v>1.48</v>
@@ -16553,7 +16574,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -16631,7 +16652,7 @@
         <v>3</v>
       </c>
       <c r="AP76">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ76">
         <v>2.57</v>
@@ -16837,7 +16858,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ77">
         <v>0.83</v>
@@ -16965,7 +16986,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17043,7 +17064,7 @@
         <v>0.67</v>
       </c>
       <c r="AP78">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ78">
         <v>1</v>
@@ -17252,7 +17273,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ79">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR79">
         <v>1.68</v>
@@ -17377,7 +17398,7 @@
         <v>150</v>
       </c>
       <c r="P80" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -17455,7 +17476,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ80">
         <v>1.8</v>
@@ -17583,7 +17604,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -17664,7 +17685,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ81">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR81">
         <v>1.59</v>
@@ -17995,7 +18016,7 @@
         <v>152</v>
       </c>
       <c r="P83" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -18407,7 +18428,7 @@
         <v>104</v>
       </c>
       <c r="P85" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q85">
         <v>3.6</v>
@@ -18613,7 +18634,7 @@
         <v>154</v>
       </c>
       <c r="P86" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q86">
         <v>3.75</v>
@@ -19025,7 +19046,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19103,7 +19124,7 @@
         <v>2</v>
       </c>
       <c r="AP88">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ88">
         <v>1.4</v>
@@ -19231,7 +19252,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -19515,7 +19536,7 @@
         <v>0.67</v>
       </c>
       <c r="AP90">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ90">
         <v>1</v>
@@ -19643,7 +19664,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -19849,7 +19870,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -19930,7 +19951,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ92">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR92">
         <v>1.06</v>
@@ -20055,7 +20076,7 @@
         <v>160</v>
       </c>
       <c r="P93" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q93">
         <v>2.05</v>
@@ -20133,10 +20154,10 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ93">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR93">
         <v>1.22</v>
@@ -20261,7 +20282,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20339,7 +20360,7 @@
         <v>0.5</v>
       </c>
       <c r="AP94">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ94">
         <v>1</v>
@@ -20545,10 +20566,10 @@
         <v>1.25</v>
       </c>
       <c r="AP95">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ95">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR95">
         <v>1.38</v>
@@ -20673,7 +20694,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -20751,7 +20772,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ96">
         <v>1.8</v>
@@ -21085,7 +21106,7 @@
         <v>163</v>
       </c>
       <c r="P98" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q98">
         <v>1.83</v>
@@ -21163,10 +21184,10 @@
         <v>0.8</v>
       </c>
       <c r="AP98">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ98">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR98">
         <v>1.58</v>
@@ -21291,7 +21312,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21372,7 +21393,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ99">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR99">
         <v>1.66</v>
@@ -21497,7 +21518,7 @@
         <v>164</v>
       </c>
       <c r="P100" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q100">
         <v>1.73</v>
@@ -21703,7 +21724,7 @@
         <v>165</v>
       </c>
       <c r="P101" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -21784,7 +21805,7 @@
         <v>1</v>
       </c>
       <c r="AQ101">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR101">
         <v>1.21</v>
@@ -21909,7 +21930,7 @@
         <v>104</v>
       </c>
       <c r="P102" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22115,7 +22136,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22733,7 +22754,7 @@
         <v>104</v>
       </c>
       <c r="P106" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q106">
         <v>2.6</v>
@@ -23557,7 +23578,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -24126,6 +24147,1448 @@
       </c>
       <c r="BP112">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7465116</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45598.41666666666</v>
+      </c>
+      <c r="F113">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>74</v>
+      </c>
+      <c r="H113" t="s">
+        <v>78</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113" t="s">
+        <v>141</v>
+      </c>
+      <c r="P113" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q113">
+        <v>2.25</v>
+      </c>
+      <c r="R113">
+        <v>2.1</v>
+      </c>
+      <c r="S113">
+        <v>6.5</v>
+      </c>
+      <c r="T113">
+        <v>1.5</v>
+      </c>
+      <c r="U113">
+        <v>2.5</v>
+      </c>
+      <c r="V113">
+        <v>3.4</v>
+      </c>
+      <c r="W113">
+        <v>1.3</v>
+      </c>
+      <c r="X113">
+        <v>10</v>
+      </c>
+      <c r="Y113">
+        <v>1.06</v>
+      </c>
+      <c r="Z113">
+        <v>1.61</v>
+      </c>
+      <c r="AA113">
+        <v>3.7</v>
+      </c>
+      <c r="AB113">
+        <v>5.75</v>
+      </c>
+      <c r="AC113">
+        <v>1.07</v>
+      </c>
+      <c r="AD113">
+        <v>9</v>
+      </c>
+      <c r="AE113">
+        <v>1.4</v>
+      </c>
+      <c r="AF113">
+        <v>2.95</v>
+      </c>
+      <c r="AG113">
+        <v>2.2</v>
+      </c>
+      <c r="AH113">
+        <v>1.6</v>
+      </c>
+      <c r="AI113">
+        <v>2.2</v>
+      </c>
+      <c r="AJ113">
+        <v>1.62</v>
+      </c>
+      <c r="AK113">
+        <v>1.13</v>
+      </c>
+      <c r="AL113">
+        <v>1.24</v>
+      </c>
+      <c r="AM113">
+        <v>2.35</v>
+      </c>
+      <c r="AN113">
+        <v>2.17</v>
+      </c>
+      <c r="AO113">
+        <v>0.6</v>
+      </c>
+      <c r="AP113">
+        <v>2.29</v>
+      </c>
+      <c r="AQ113">
+        <v>0.5</v>
+      </c>
+      <c r="AR113">
+        <v>1.52</v>
+      </c>
+      <c r="AS113">
+        <v>0.83</v>
+      </c>
+      <c r="AT113">
+        <v>2.35</v>
+      </c>
+      <c r="AU113">
+        <v>5</v>
+      </c>
+      <c r="AV113">
+        <v>5</v>
+      </c>
+      <c r="AW113">
+        <v>11</v>
+      </c>
+      <c r="AX113">
+        <v>1</v>
+      </c>
+      <c r="AY113">
+        <v>21</v>
+      </c>
+      <c r="AZ113">
+        <v>8</v>
+      </c>
+      <c r="BA113">
+        <v>7</v>
+      </c>
+      <c r="BB113">
+        <v>2</v>
+      </c>
+      <c r="BC113">
+        <v>9</v>
+      </c>
+      <c r="BD113">
+        <v>1.41</v>
+      </c>
+      <c r="BE113">
+        <v>6.75</v>
+      </c>
+      <c r="BF113">
+        <v>3.3</v>
+      </c>
+      <c r="BG113">
+        <v>1.3</v>
+      </c>
+      <c r="BH113">
+        <v>3.05</v>
+      </c>
+      <c r="BI113">
+        <v>1.53</v>
+      </c>
+      <c r="BJ113">
+        <v>2.3</v>
+      </c>
+      <c r="BK113">
+        <v>1.86</v>
+      </c>
+      <c r="BL113">
+        <v>1.82</v>
+      </c>
+      <c r="BM113">
+        <v>2.33</v>
+      </c>
+      <c r="BN113">
+        <v>1.52</v>
+      </c>
+      <c r="BO113">
+        <v>3</v>
+      </c>
+      <c r="BP113">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7465115</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45598.51041666666</v>
+      </c>
+      <c r="F114">
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>89</v>
+      </c>
+      <c r="H114" t="s">
+        <v>85</v>
+      </c>
+      <c r="I114">
+        <v>2</v>
+      </c>
+      <c r="J114">
+        <v>2</v>
+      </c>
+      <c r="K114">
+        <v>4</v>
+      </c>
+      <c r="L114">
+        <v>4</v>
+      </c>
+      <c r="M114">
+        <v>3</v>
+      </c>
+      <c r="N114">
+        <v>7</v>
+      </c>
+      <c r="O114" t="s">
+        <v>171</v>
+      </c>
+      <c r="P114" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q114">
+        <v>2.25</v>
+      </c>
+      <c r="R114">
+        <v>2.1</v>
+      </c>
+      <c r="S114">
+        <v>6</v>
+      </c>
+      <c r="T114">
+        <v>1.44</v>
+      </c>
+      <c r="U114">
+        <v>2.63</v>
+      </c>
+      <c r="V114">
+        <v>3.25</v>
+      </c>
+      <c r="W114">
+        <v>1.33</v>
+      </c>
+      <c r="X114">
+        <v>10</v>
+      </c>
+      <c r="Y114">
+        <v>1.06</v>
+      </c>
+      <c r="Z114">
+        <v>1.65</v>
+      </c>
+      <c r="AA114">
+        <v>3.75</v>
+      </c>
+      <c r="AB114">
+        <v>5.25</v>
+      </c>
+      <c r="AC114">
+        <v>1.07</v>
+      </c>
+      <c r="AD114">
+        <v>9.5</v>
+      </c>
+      <c r="AE114">
+        <v>1.4</v>
+      </c>
+      <c r="AF114">
+        <v>3</v>
+      </c>
+      <c r="AG114">
+        <v>2.05</v>
+      </c>
+      <c r="AH114">
+        <v>1.7</v>
+      </c>
+      <c r="AI114">
+        <v>2.1</v>
+      </c>
+      <c r="AJ114">
+        <v>1.67</v>
+      </c>
+      <c r="AK114">
+        <v>1.15</v>
+      </c>
+      <c r="AL114">
+        <v>1.24</v>
+      </c>
+      <c r="AM114">
+        <v>2.3</v>
+      </c>
+      <c r="AN114">
+        <v>1.4</v>
+      </c>
+      <c r="AO114">
+        <v>0.67</v>
+      </c>
+      <c r="AP114">
+        <v>1.67</v>
+      </c>
+      <c r="AQ114">
+        <v>0.57</v>
+      </c>
+      <c r="AR114">
+        <v>1.33</v>
+      </c>
+      <c r="AS114">
+        <v>0.78</v>
+      </c>
+      <c r="AT114">
+        <v>2.11</v>
+      </c>
+      <c r="AU114">
+        <v>7</v>
+      </c>
+      <c r="AV114">
+        <v>6</v>
+      </c>
+      <c r="AW114">
+        <v>4</v>
+      </c>
+      <c r="AX114">
+        <v>3</v>
+      </c>
+      <c r="AY114">
+        <v>16</v>
+      </c>
+      <c r="AZ114">
+        <v>10</v>
+      </c>
+      <c r="BA114">
+        <v>6</v>
+      </c>
+      <c r="BB114">
+        <v>1</v>
+      </c>
+      <c r="BC114">
+        <v>7</v>
+      </c>
+      <c r="BD114">
+        <v>1.36</v>
+      </c>
+      <c r="BE114">
+        <v>6.75</v>
+      </c>
+      <c r="BF114">
+        <v>3.55</v>
+      </c>
+      <c r="BG114">
+        <v>1.43</v>
+      </c>
+      <c r="BH114">
+        <v>2.6</v>
+      </c>
+      <c r="BI114">
+        <v>1.72</v>
+      </c>
+      <c r="BJ114">
+        <v>1.98</v>
+      </c>
+      <c r="BK114">
+        <v>2.15</v>
+      </c>
+      <c r="BL114">
+        <v>1.61</v>
+      </c>
+      <c r="BM114">
+        <v>2.75</v>
+      </c>
+      <c r="BN114">
+        <v>1.38</v>
+      </c>
+      <c r="BO114">
+        <v>3.65</v>
+      </c>
+      <c r="BP114">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7465113</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45599.41666666666</v>
+      </c>
+      <c r="F115">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>87</v>
+      </c>
+      <c r="H115" t="s">
+        <v>73</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>2</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>2</v>
+      </c>
+      <c r="O115" t="s">
+        <v>172</v>
+      </c>
+      <c r="P115" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q115">
+        <v>1.73</v>
+      </c>
+      <c r="R115">
+        <v>2.63</v>
+      </c>
+      <c r="S115">
+        <v>9</v>
+      </c>
+      <c r="T115">
+        <v>1.29</v>
+      </c>
+      <c r="U115">
+        <v>3.5</v>
+      </c>
+      <c r="V115">
+        <v>2.38</v>
+      </c>
+      <c r="W115">
+        <v>1.53</v>
+      </c>
+      <c r="X115">
+        <v>5.5</v>
+      </c>
+      <c r="Y115">
+        <v>1.14</v>
+      </c>
+      <c r="Z115">
+        <v>1.25</v>
+      </c>
+      <c r="AA115">
+        <v>6</v>
+      </c>
+      <c r="AB115">
+        <v>10</v>
+      </c>
+      <c r="AC115">
+        <v>1.02</v>
+      </c>
+      <c r="AD115">
+        <v>17</v>
+      </c>
+      <c r="AE115">
+        <v>1.19</v>
+      </c>
+      <c r="AF115">
+        <v>4.75</v>
+      </c>
+      <c r="AG115">
+        <v>1.61</v>
+      </c>
+      <c r="AH115">
+        <v>2.2</v>
+      </c>
+      <c r="AI115">
+        <v>2.1</v>
+      </c>
+      <c r="AJ115">
+        <v>1.67</v>
+      </c>
+      <c r="AK115">
+        <v>1.05</v>
+      </c>
+      <c r="AL115">
+        <v>1.12</v>
+      </c>
+      <c r="AM115">
+        <v>3.7</v>
+      </c>
+      <c r="AN115">
+        <v>2.2</v>
+      </c>
+      <c r="AO115">
+        <v>0.6</v>
+      </c>
+      <c r="AP115">
+        <v>2.33</v>
+      </c>
+      <c r="AQ115">
+        <v>0.5</v>
+      </c>
+      <c r="AR115">
+        <v>1.58</v>
+      </c>
+      <c r="AS115">
+        <v>1.29</v>
+      </c>
+      <c r="AT115">
+        <v>2.87</v>
+      </c>
+      <c r="AU115">
+        <v>4</v>
+      </c>
+      <c r="AV115">
+        <v>2</v>
+      </c>
+      <c r="AW115">
+        <v>8</v>
+      </c>
+      <c r="AX115">
+        <v>0</v>
+      </c>
+      <c r="AY115">
+        <v>16</v>
+      </c>
+      <c r="AZ115">
+        <v>2</v>
+      </c>
+      <c r="BA115">
+        <v>9</v>
+      </c>
+      <c r="BB115">
+        <v>1</v>
+      </c>
+      <c r="BC115">
+        <v>10</v>
+      </c>
+      <c r="BD115">
+        <v>1.34</v>
+      </c>
+      <c r="BE115">
+        <v>7</v>
+      </c>
+      <c r="BF115">
+        <v>3.55</v>
+      </c>
+      <c r="BG115">
+        <v>1.33</v>
+      </c>
+      <c r="BH115">
+        <v>2.95</v>
+      </c>
+      <c r="BI115">
+        <v>1.58</v>
+      </c>
+      <c r="BJ115">
+        <v>2.2</v>
+      </c>
+      <c r="BK115">
+        <v>1.93</v>
+      </c>
+      <c r="BL115">
+        <v>1.76</v>
+      </c>
+      <c r="BM115">
+        <v>2.43</v>
+      </c>
+      <c r="BN115">
+        <v>1.47</v>
+      </c>
+      <c r="BO115">
+        <v>3.15</v>
+      </c>
+      <c r="BP115">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7469678</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45599.51041666666</v>
+      </c>
+      <c r="F116">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>81</v>
+      </c>
+      <c r="H116" t="s">
+        <v>82</v>
+      </c>
+      <c r="I116">
+        <v>3</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>3</v>
+      </c>
+      <c r="L116">
+        <v>3</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>4</v>
+      </c>
+      <c r="O116" t="s">
+        <v>173</v>
+      </c>
+      <c r="P116" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q116">
+        <v>1.4</v>
+      </c>
+      <c r="R116">
+        <v>3.6</v>
+      </c>
+      <c r="S116">
+        <v>10</v>
+      </c>
+      <c r="T116">
+        <v>1.13</v>
+      </c>
+      <c r="U116">
+        <v>6</v>
+      </c>
+      <c r="V116">
+        <v>1.67</v>
+      </c>
+      <c r="W116">
+        <v>2.1</v>
+      </c>
+      <c r="X116">
+        <v>3</v>
+      </c>
+      <c r="Y116">
+        <v>1.36</v>
+      </c>
+      <c r="Z116">
+        <v>1.13</v>
+      </c>
+      <c r="AA116">
+        <v>9.5</v>
+      </c>
+      <c r="AB116">
+        <v>17</v>
+      </c>
+      <c r="AC116">
+        <v>1.01</v>
+      </c>
+      <c r="AD116">
+        <v>60</v>
+      </c>
+      <c r="AE116">
+        <v>1.04</v>
+      </c>
+      <c r="AF116">
+        <v>11</v>
+      </c>
+      <c r="AG116">
+        <v>1.2</v>
+      </c>
+      <c r="AH116">
+        <v>4.5</v>
+      </c>
+      <c r="AI116">
+        <v>1.7</v>
+      </c>
+      <c r="AJ116">
+        <v>2.05</v>
+      </c>
+      <c r="AK116">
+        <v>1.03</v>
+      </c>
+      <c r="AL116">
+        <v>1.06</v>
+      </c>
+      <c r="AM116">
+        <v>5.5</v>
+      </c>
+      <c r="AN116">
+        <v>3</v>
+      </c>
+      <c r="AO116">
+        <v>0.2</v>
+      </c>
+      <c r="AP116">
+        <v>3</v>
+      </c>
+      <c r="AQ116">
+        <v>0.17</v>
+      </c>
+      <c r="AR116">
+        <v>1.81</v>
+      </c>
+      <c r="AS116">
+        <v>0.82</v>
+      </c>
+      <c r="AT116">
+        <v>2.63</v>
+      </c>
+      <c r="AU116">
+        <v>10</v>
+      </c>
+      <c r="AV116">
+        <v>4</v>
+      </c>
+      <c r="AW116">
+        <v>3</v>
+      </c>
+      <c r="AX116">
+        <v>3</v>
+      </c>
+      <c r="AY116">
+        <v>15</v>
+      </c>
+      <c r="AZ116">
+        <v>11</v>
+      </c>
+      <c r="BA116">
+        <v>9</v>
+      </c>
+      <c r="BB116">
+        <v>5</v>
+      </c>
+      <c r="BC116">
+        <v>14</v>
+      </c>
+      <c r="BD116">
+        <v>1.15</v>
+      </c>
+      <c r="BE116">
+        <v>10</v>
+      </c>
+      <c r="BF116">
+        <v>5.8</v>
+      </c>
+      <c r="BG116">
+        <v>1.21</v>
+      </c>
+      <c r="BH116">
+        <v>3.8</v>
+      </c>
+      <c r="BI116">
+        <v>1.37</v>
+      </c>
+      <c r="BJ116">
+        <v>2.8</v>
+      </c>
+      <c r="BK116">
+        <v>1.62</v>
+      </c>
+      <c r="BL116">
+        <v>2.14</v>
+      </c>
+      <c r="BM116">
+        <v>1.97</v>
+      </c>
+      <c r="BN116">
+        <v>1.73</v>
+      </c>
+      <c r="BO116">
+        <v>2.48</v>
+      </c>
+      <c r="BP116">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7465120</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45599.60416666666</v>
+      </c>
+      <c r="F117">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>80</v>
+      </c>
+      <c r="H117" t="s">
+        <v>76</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>2</v>
+      </c>
+      <c r="N117">
+        <v>2</v>
+      </c>
+      <c r="O117" t="s">
+        <v>104</v>
+      </c>
+      <c r="P117" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q117">
+        <v>3.6</v>
+      </c>
+      <c r="R117">
+        <v>1.95</v>
+      </c>
+      <c r="S117">
+        <v>3.4</v>
+      </c>
+      <c r="T117">
+        <v>1.53</v>
+      </c>
+      <c r="U117">
+        <v>2.38</v>
+      </c>
+      <c r="V117">
+        <v>3.75</v>
+      </c>
+      <c r="W117">
+        <v>1.25</v>
+      </c>
+      <c r="X117">
+        <v>11</v>
+      </c>
+      <c r="Y117">
+        <v>1.05</v>
+      </c>
+      <c r="Z117">
+        <v>2.75</v>
+      </c>
+      <c r="AA117">
+        <v>3.1</v>
+      </c>
+      <c r="AB117">
+        <v>2.62</v>
+      </c>
+      <c r="AC117">
+        <v>1.1</v>
+      </c>
+      <c r="AD117">
+        <v>7.5</v>
+      </c>
+      <c r="AE117">
+        <v>1.5</v>
+      </c>
+      <c r="AF117">
+        <v>2.55</v>
+      </c>
+      <c r="AG117">
+        <v>2.37</v>
+      </c>
+      <c r="AH117">
+        <v>1.5</v>
+      </c>
+      <c r="AI117">
+        <v>2</v>
+      </c>
+      <c r="AJ117">
+        <v>1.75</v>
+      </c>
+      <c r="AK117">
+        <v>1.52</v>
+      </c>
+      <c r="AL117">
+        <v>1.33</v>
+      </c>
+      <c r="AM117">
+        <v>1.44</v>
+      </c>
+      <c r="AN117">
+        <v>1.8</v>
+      </c>
+      <c r="AO117">
+        <v>1.6</v>
+      </c>
+      <c r="AP117">
+        <v>1.5</v>
+      </c>
+      <c r="AQ117">
+        <v>1.83</v>
+      </c>
+      <c r="AR117">
+        <v>1.53</v>
+      </c>
+      <c r="AS117">
+        <v>1.08</v>
+      </c>
+      <c r="AT117">
+        <v>2.61</v>
+      </c>
+      <c r="AU117">
+        <v>0</v>
+      </c>
+      <c r="AV117">
+        <v>4</v>
+      </c>
+      <c r="AW117">
+        <v>6</v>
+      </c>
+      <c r="AX117">
+        <v>4</v>
+      </c>
+      <c r="AY117">
+        <v>9</v>
+      </c>
+      <c r="AZ117">
+        <v>10</v>
+      </c>
+      <c r="BA117">
+        <v>5</v>
+      </c>
+      <c r="BB117">
+        <v>9</v>
+      </c>
+      <c r="BC117">
+        <v>14</v>
+      </c>
+      <c r="BD117">
+        <v>2.02</v>
+      </c>
+      <c r="BE117">
+        <v>6.4</v>
+      </c>
+      <c r="BF117">
+        <v>1.97</v>
+      </c>
+      <c r="BG117">
+        <v>1.35</v>
+      </c>
+      <c r="BH117">
+        <v>2.9</v>
+      </c>
+      <c r="BI117">
+        <v>1.58</v>
+      </c>
+      <c r="BJ117">
+        <v>2.18</v>
+      </c>
+      <c r="BK117">
+        <v>1.96</v>
+      </c>
+      <c r="BL117">
+        <v>1.74</v>
+      </c>
+      <c r="BM117">
+        <v>2.48</v>
+      </c>
+      <c r="BN117">
+        <v>1.47</v>
+      </c>
+      <c r="BO117">
+        <v>3.3</v>
+      </c>
+      <c r="BP117">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7465112</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45599.70833333334</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
+        <v>70</v>
+      </c>
+      <c r="H118" t="s">
+        <v>71</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118" t="s">
+        <v>174</v>
+      </c>
+      <c r="P118" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q118">
+        <v>2.5</v>
+      </c>
+      <c r="R118">
+        <v>2.1</v>
+      </c>
+      <c r="S118">
+        <v>4.75</v>
+      </c>
+      <c r="T118">
+        <v>1.44</v>
+      </c>
+      <c r="U118">
+        <v>2.63</v>
+      </c>
+      <c r="V118">
+        <v>3</v>
+      </c>
+      <c r="W118">
+        <v>1.36</v>
+      </c>
+      <c r="X118">
+        <v>9</v>
+      </c>
+      <c r="Y118">
+        <v>1.07</v>
+      </c>
+      <c r="Z118">
+        <v>1.84</v>
+      </c>
+      <c r="AA118">
+        <v>3.67</v>
+      </c>
+      <c r="AB118">
+        <v>4.33</v>
+      </c>
+      <c r="AC118">
+        <v>1.06</v>
+      </c>
+      <c r="AD118">
+        <v>10</v>
+      </c>
+      <c r="AE118">
+        <v>1.35</v>
+      </c>
+      <c r="AF118">
+        <v>3.25</v>
+      </c>
+      <c r="AG118">
+        <v>2</v>
+      </c>
+      <c r="AH118">
+        <v>1.73</v>
+      </c>
+      <c r="AI118">
+        <v>1.95</v>
+      </c>
+      <c r="AJ118">
+        <v>1.8</v>
+      </c>
+      <c r="AK118">
+        <v>1.22</v>
+      </c>
+      <c r="AL118">
+        <v>1.25</v>
+      </c>
+      <c r="AM118">
+        <v>2</v>
+      </c>
+      <c r="AN118">
+        <v>1.83</v>
+      </c>
+      <c r="AO118">
+        <v>1</v>
+      </c>
+      <c r="AP118">
+        <v>1.71</v>
+      </c>
+      <c r="AQ118">
+        <v>1</v>
+      </c>
+      <c r="AR118">
+        <v>1.26</v>
+      </c>
+      <c r="AS118">
+        <v>1.36</v>
+      </c>
+      <c r="AT118">
+        <v>2.62</v>
+      </c>
+      <c r="AU118">
+        <v>9</v>
+      </c>
+      <c r="AV118">
+        <v>5</v>
+      </c>
+      <c r="AW118">
+        <v>7</v>
+      </c>
+      <c r="AX118">
+        <v>1</v>
+      </c>
+      <c r="AY118">
+        <v>18</v>
+      </c>
+      <c r="AZ118">
+        <v>8</v>
+      </c>
+      <c r="BA118">
+        <v>6</v>
+      </c>
+      <c r="BB118">
+        <v>2</v>
+      </c>
+      <c r="BC118">
+        <v>8</v>
+      </c>
+      <c r="BD118">
+        <v>1.54</v>
+      </c>
+      <c r="BE118">
+        <v>6.75</v>
+      </c>
+      <c r="BF118">
+        <v>2.7</v>
+      </c>
+      <c r="BG118">
+        <v>1.25</v>
+      </c>
+      <c r="BH118">
+        <v>3.45</v>
+      </c>
+      <c r="BI118">
+        <v>1.44</v>
+      </c>
+      <c r="BJ118">
+        <v>2.55</v>
+      </c>
+      <c r="BK118">
+        <v>1.71</v>
+      </c>
+      <c r="BL118">
+        <v>2</v>
+      </c>
+      <c r="BM118">
+        <v>2.08</v>
+      </c>
+      <c r="BN118">
+        <v>1.65</v>
+      </c>
+      <c r="BO118">
+        <v>2.65</v>
+      </c>
+      <c r="BP118">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7465114</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45600.70833333334</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119" t="s">
+        <v>72</v>
+      </c>
+      <c r="H119" t="s">
+        <v>83</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119" t="s">
+        <v>138</v>
+      </c>
+      <c r="P119" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q119">
+        <v>2.75</v>
+      </c>
+      <c r="R119">
+        <v>2</v>
+      </c>
+      <c r="S119">
+        <v>5</v>
+      </c>
+      <c r="T119">
+        <v>1.53</v>
+      </c>
+      <c r="U119">
+        <v>2.38</v>
+      </c>
+      <c r="V119">
+        <v>3.5</v>
+      </c>
+      <c r="W119">
+        <v>1.29</v>
+      </c>
+      <c r="X119">
+        <v>11</v>
+      </c>
+      <c r="Y119">
+        <v>1.05</v>
+      </c>
+      <c r="Z119">
+        <v>1.95</v>
+      </c>
+      <c r="AA119">
+        <v>3.2</v>
+      </c>
+      <c r="AB119">
+        <v>4</v>
+      </c>
+      <c r="AC119">
+        <v>1.1</v>
+      </c>
+      <c r="AD119">
+        <v>8</v>
+      </c>
+      <c r="AE119">
+        <v>1.48</v>
+      </c>
+      <c r="AF119">
+        <v>2.75</v>
+      </c>
+      <c r="AG119">
+        <v>2.37</v>
+      </c>
+      <c r="AH119">
+        <v>1.53</v>
+      </c>
+      <c r="AI119">
+        <v>2.1</v>
+      </c>
+      <c r="AJ119">
+        <v>1.67</v>
+      </c>
+      <c r="AK119">
+        <v>1.22</v>
+      </c>
+      <c r="AL119">
+        <v>1.3</v>
+      </c>
+      <c r="AM119">
+        <v>1.88</v>
+      </c>
+      <c r="AN119">
+        <v>1.67</v>
+      </c>
+      <c r="AO119">
+        <v>0.4</v>
+      </c>
+      <c r="AP119">
+        <v>1.86</v>
+      </c>
+      <c r="AQ119">
+        <v>0.33</v>
+      </c>
+      <c r="AR119">
+        <v>1.33</v>
+      </c>
+      <c r="AS119">
+        <v>1.1</v>
+      </c>
+      <c r="AT119">
+        <v>2.43</v>
+      </c>
+      <c r="AU119">
+        <v>4</v>
+      </c>
+      <c r="AV119">
+        <v>3</v>
+      </c>
+      <c r="AW119">
+        <v>7</v>
+      </c>
+      <c r="AX119">
+        <v>3</v>
+      </c>
+      <c r="AY119">
+        <v>11</v>
+      </c>
+      <c r="AZ119">
+        <v>12</v>
+      </c>
+      <c r="BA119">
+        <v>0</v>
+      </c>
+      <c r="BB119">
+        <v>2</v>
+      </c>
+      <c r="BC119">
+        <v>2</v>
+      </c>
+      <c r="BD119">
+        <v>1.56</v>
+      </c>
+      <c r="BE119">
+        <v>6.5</v>
+      </c>
+      <c r="BF119">
+        <v>2.7</v>
+      </c>
+      <c r="BG119">
+        <v>1.43</v>
+      </c>
+      <c r="BH119">
+        <v>2.6</v>
+      </c>
+      <c r="BI119">
+        <v>1.72</v>
+      </c>
+      <c r="BJ119">
+        <v>1.98</v>
+      </c>
+      <c r="BK119">
+        <v>2.15</v>
+      </c>
+      <c r="BL119">
+        <v>1.61</v>
+      </c>
+      <c r="BM119">
+        <v>2.75</v>
+      </c>
+      <c r="BN119">
+        <v>1.38</v>
+      </c>
+      <c r="BO119">
+        <v>3.65</v>
+      </c>
+      <c r="BP119">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -25402,7 +25402,7 @@
         <v>45600.70833333334</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G119" t="s">
         <v>72</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="233">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -541,6 +541,9 @@
     <t>['68']</t>
   </si>
   <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -587,9 +590,6 @@
   </si>
   <si>
     <t>['69']</t>
-  </si>
-  <si>
-    <t>['90+2']</t>
   </si>
   <si>
     <t>['43']</t>
@@ -643,10 +643,10 @@
     <t>['85', '86']</t>
   </si>
   <si>
-    <t>['45+3']</t>
+    <t>['45+6', '63']</t>
   </si>
   <si>
-    <t>['45+6', '63']</t>
+    <t>['45+3']</t>
   </si>
   <si>
     <t>['59', '83']</t>
@@ -658,10 +658,10 @@
     <t>['47']</t>
   </si>
   <si>
-    <t>['28']</t>
+    <t>['57', '80']</t>
   </si>
   <si>
-    <t>['57', '80']</t>
+    <t>['28']</t>
   </si>
   <si>
     <t>['7', '22', '32']</t>
@@ -710,6 +710,9 @@
   </si>
   <si>
     <t>['52']</t>
+  </si>
+  <si>
+    <t>['6', '62', '66']</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1074,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP119"/>
+  <dimension ref="A1:BP120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1330,7 +1333,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1536,7 +1539,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1742,7 +1745,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1948,7 +1951,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2154,7 +2157,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2360,7 +2363,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2566,7 +2569,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2772,7 +2775,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3184,7 +3187,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3390,7 +3393,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3596,7 +3599,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4832,7 +4835,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -4913,7 +4916,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ19">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5450,7 +5453,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5862,7 +5865,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -5940,7 +5943,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24">
         <v>2.57</v>
@@ -6480,7 +6483,7 @@
         <v>111</v>
       </c>
       <c r="P27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q27">
         <v>2.3</v>
@@ -7098,7 +7101,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -7510,7 +7513,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8415,7 +8418,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ36">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR36">
         <v>0.71</v>
@@ -11296,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11630,7 +11633,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -12535,7 +12538,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ56">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR56">
         <v>1.5</v>
@@ -13768,7 +13771,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ62">
         <v>1.5</v>
@@ -15090,7 +15093,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7465073</v>
+        <v>7469578</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -15105,10 +15108,10 @@
         <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H69" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -15123,172 +15126,172 @@
         <v>1</v>
       </c>
       <c r="M69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O69" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="P69" t="s">
         <v>209</v>
       </c>
       <c r="Q69">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R69">
+        <v>2.2</v>
+      </c>
+      <c r="S69">
+        <v>2.75</v>
+      </c>
+      <c r="T69">
+        <v>1.36</v>
+      </c>
+      <c r="U69">
+        <v>3</v>
+      </c>
+      <c r="V69">
+        <v>2.75</v>
+      </c>
+      <c r="W69">
+        <v>1.4</v>
+      </c>
+      <c r="X69">
+        <v>7</v>
+      </c>
+      <c r="Y69">
+        <v>1.1</v>
+      </c>
+      <c r="Z69">
+        <v>3.4</v>
+      </c>
+      <c r="AA69">
+        <v>3.4</v>
+      </c>
+      <c r="AB69">
+        <v>2.1</v>
+      </c>
+      <c r="AC69">
+        <v>1.06</v>
+      </c>
+      <c r="AD69">
+        <v>10</v>
+      </c>
+      <c r="AE69">
+        <v>1.3</v>
+      </c>
+      <c r="AF69">
+        <v>3.6</v>
+      </c>
+      <c r="AG69">
+        <v>1.83</v>
+      </c>
+      <c r="AH69">
+        <v>1.85</v>
+      </c>
+      <c r="AI69">
+        <v>1.7</v>
+      </c>
+      <c r="AJ69">
         <v>2.05</v>
       </c>
-      <c r="S69">
-        <v>3.1</v>
-      </c>
-      <c r="T69">
-        <v>1.44</v>
-      </c>
-      <c r="U69">
-        <v>2.63</v>
-      </c>
-      <c r="V69">
-        <v>3.25</v>
-      </c>
-      <c r="W69">
-        <v>1.33</v>
-      </c>
-      <c r="X69">
-        <v>10</v>
-      </c>
-      <c r="Y69">
-        <v>1.06</v>
-      </c>
-      <c r="Z69">
-        <v>3</v>
-      </c>
-      <c r="AA69">
-        <v>3.2</v>
-      </c>
-      <c r="AB69">
-        <v>2.37</v>
-      </c>
-      <c r="AC69">
-        <v>1.07</v>
-      </c>
-      <c r="AD69">
-        <v>7</v>
-      </c>
-      <c r="AE69">
-        <v>1.35</v>
-      </c>
-      <c r="AF69">
-        <v>2.95</v>
-      </c>
-      <c r="AG69">
-        <v>2.2</v>
-      </c>
-      <c r="AH69">
-        <v>1.6</v>
-      </c>
-      <c r="AI69">
-        <v>1.91</v>
-      </c>
-      <c r="AJ69">
-        <v>1.91</v>
-      </c>
       <c r="AK69">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="AL69">
+        <v>1.28</v>
+      </c>
+      <c r="AM69">
         <v>1.3</v>
       </c>
-      <c r="AM69">
-        <v>1.36</v>
-      </c>
       <c r="AN69">
-        <v>0.67</v>
+        <v>2</v>
       </c>
       <c r="AO69">
-        <v>0.5</v>
+        <v>2.33</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>2.17</v>
       </c>
       <c r="AR69">
-        <v>1.36</v>
+        <v>1.13</v>
       </c>
       <c r="AS69">
         <v>1.25</v>
       </c>
       <c r="AT69">
-        <v>2.61</v>
+        <v>2.38</v>
       </c>
       <c r="AU69">
         <v>3</v>
       </c>
       <c r="AV69">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX69">
         <v>7</v>
       </c>
       <c r="AY69">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ69">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC69">
         <v>5</v>
       </c>
       <c r="BD69">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="BE69">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="BF69">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="BG69">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="BH69">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="BI69">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="BJ69">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="BK69">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="BL69">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="BM69">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="BN69">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="BO69">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="BP69">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15296,7 +15299,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7469578</v>
+        <v>7465073</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -15311,10 +15314,10 @@
         <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H70" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -15329,172 +15332,172 @@
         <v>1</v>
       </c>
       <c r="M70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O70" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="P70" t="s">
         <v>210</v>
       </c>
       <c r="Q70">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R70">
+        <v>2.05</v>
+      </c>
+      <c r="S70">
+        <v>3.1</v>
+      </c>
+      <c r="T70">
+        <v>1.44</v>
+      </c>
+      <c r="U70">
+        <v>2.63</v>
+      </c>
+      <c r="V70">
+        <v>3.25</v>
+      </c>
+      <c r="W70">
+        <v>1.33</v>
+      </c>
+      <c r="X70">
+        <v>10</v>
+      </c>
+      <c r="Y70">
+        <v>1.06</v>
+      </c>
+      <c r="Z70">
+        <v>3</v>
+      </c>
+      <c r="AA70">
+        <v>3.2</v>
+      </c>
+      <c r="AB70">
+        <v>2.37</v>
+      </c>
+      <c r="AC70">
+        <v>1.07</v>
+      </c>
+      <c r="AD70">
+        <v>7</v>
+      </c>
+      <c r="AE70">
+        <v>1.35</v>
+      </c>
+      <c r="AF70">
+        <v>2.95</v>
+      </c>
+      <c r="AG70">
         <v>2.2</v>
       </c>
-      <c r="S70">
-        <v>2.75</v>
-      </c>
-      <c r="T70">
+      <c r="AH70">
+        <v>1.6</v>
+      </c>
+      <c r="AI70">
+        <v>1.91</v>
+      </c>
+      <c r="AJ70">
+        <v>1.91</v>
+      </c>
+      <c r="AK70">
+        <v>1.55</v>
+      </c>
+      <c r="AL70">
+        <v>1.3</v>
+      </c>
+      <c r="AM70">
         <v>1.36</v>
       </c>
-      <c r="U70">
-        <v>3</v>
-      </c>
-      <c r="V70">
-        <v>2.75</v>
-      </c>
-      <c r="W70">
-        <v>1.4</v>
-      </c>
-      <c r="X70">
-        <v>7</v>
-      </c>
-      <c r="Y70">
-        <v>1.1</v>
-      </c>
-      <c r="Z70">
-        <v>3.4</v>
-      </c>
-      <c r="AA70">
-        <v>3.4</v>
-      </c>
-      <c r="AB70">
-        <v>2.1</v>
-      </c>
-      <c r="AC70">
-        <v>1.06</v>
-      </c>
-      <c r="AD70">
-        <v>10</v>
-      </c>
-      <c r="AE70">
-        <v>1.3</v>
-      </c>
-      <c r="AF70">
-        <v>3.6</v>
-      </c>
-      <c r="AG70">
-        <v>1.83</v>
-      </c>
-      <c r="AH70">
-        <v>1.85</v>
-      </c>
-      <c r="AI70">
-        <v>1.7</v>
-      </c>
-      <c r="AJ70">
-        <v>2.05</v>
-      </c>
-      <c r="AK70">
-        <v>1.78</v>
-      </c>
-      <c r="AL70">
-        <v>1.28</v>
-      </c>
-      <c r="AM70">
-        <v>1.3</v>
-      </c>
       <c r="AN70">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="AO70">
-        <v>2.33</v>
+        <v>0.5</v>
       </c>
       <c r="AP70">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ70">
-        <v>2.17</v>
+        <v>1</v>
       </c>
       <c r="AR70">
-        <v>1.13</v>
+        <v>1.36</v>
       </c>
       <c r="AS70">
         <v>1.25</v>
       </c>
       <c r="AT70">
-        <v>2.38</v>
+        <v>2.61</v>
       </c>
       <c r="AU70">
         <v>3</v>
       </c>
       <c r="AV70">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX70">
         <v>7</v>
       </c>
       <c r="AY70">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ70">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA70">
+        <v>1</v>
+      </c>
+      <c r="BB70">
         <v>4</v>
-      </c>
-      <c r="BB70">
-        <v>1</v>
       </c>
       <c r="BC70">
         <v>5</v>
       </c>
       <c r="BD70">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="BE70">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="BF70">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="BG70">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="BH70">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="BI70">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="BJ70">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="BK70">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="BL70">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="BM70">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="BN70">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="BO70">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="BP70">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="71" spans="1:68">
@@ -16240,7 +16243,7 @@
         <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ74">
         <v>0.57</v>
@@ -16986,7 +16989,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17398,7 +17401,7 @@
         <v>150</v>
       </c>
       <c r="P80" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -17685,7 +17688,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ81">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR81">
         <v>1.59</v>
@@ -18386,7 +18389,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>7465092</v>
+        <v>7465093</v>
       </c>
       <c r="C85" t="s">
         <v>68</v>
@@ -18401,190 +18404,190 @@
         <v>9</v>
       </c>
       <c r="G85" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H85" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O85" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="P85" t="s">
         <v>214</v>
       </c>
       <c r="Q85">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="R85">
+        <v>1.91</v>
+      </c>
+      <c r="S85">
+        <v>3.4</v>
+      </c>
+      <c r="T85">
+        <v>1.57</v>
+      </c>
+      <c r="U85">
         <v>2.25</v>
       </c>
-      <c r="S85">
-        <v>2.88</v>
-      </c>
-      <c r="T85">
-        <v>1.36</v>
-      </c>
-      <c r="U85">
-        <v>3</v>
-      </c>
       <c r="V85">
+        <v>3.75</v>
+      </c>
+      <c r="W85">
+        <v>1.25</v>
+      </c>
+      <c r="X85">
+        <v>11</v>
+      </c>
+      <c r="Y85">
+        <v>1.05</v>
+      </c>
+      <c r="Z85">
+        <v>3.1</v>
+      </c>
+      <c r="AA85">
+        <v>3</v>
+      </c>
+      <c r="AB85">
+        <v>2.55</v>
+      </c>
+      <c r="AC85">
+        <v>1.05</v>
+      </c>
+      <c r="AD85">
+        <v>6</v>
+      </c>
+      <c r="AE85">
+        <v>1.5</v>
+      </c>
+      <c r="AF85">
+        <v>2.45</v>
+      </c>
+      <c r="AG85">
         <v>2.63</v>
       </c>
-      <c r="W85">
-        <v>1.44</v>
-      </c>
-      <c r="X85">
-        <v>7</v>
-      </c>
-      <c r="Y85">
-        <v>1.1</v>
-      </c>
-      <c r="Z85">
-        <v>3.2</v>
-      </c>
-      <c r="AA85">
-        <v>3.5</v>
-      </c>
-      <c r="AB85">
-        <v>2.2</v>
-      </c>
-      <c r="AC85">
-        <v>1.01</v>
-      </c>
-      <c r="AD85">
-        <v>11</v>
-      </c>
-      <c r="AE85">
-        <v>1.2</v>
-      </c>
-      <c r="AF85">
-        <v>4</v>
-      </c>
-      <c r="AG85">
-        <v>1.73</v>
-      </c>
       <c r="AH85">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="AI85">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="AJ85">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="AK85">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AL85">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AM85">
         <v>1.44</v>
       </c>
       <c r="AN85">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AO85">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ85">
-        <v>0.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR85">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="AS85">
-        <v>1.52</v>
+        <v>0.96</v>
       </c>
       <c r="AT85">
-        <v>2.76</v>
+        <v>2.11</v>
       </c>
       <c r="AU85">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW85">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AX85">
+        <v>8</v>
+      </c>
+      <c r="AY85">
+        <v>15</v>
+      </c>
+      <c r="AZ85">
+        <v>18</v>
+      </c>
+      <c r="BA85">
         <v>5</v>
       </c>
-      <c r="AY85">
-        <v>26</v>
-      </c>
-      <c r="AZ85">
-        <v>9</v>
-      </c>
-      <c r="BA85">
-        <v>11</v>
-      </c>
       <c r="BB85">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="BC85">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BD85">
-        <v>2.16</v>
+        <v>1.95</v>
       </c>
       <c r="BE85">
-        <v>6.45</v>
+        <v>6.25</v>
       </c>
       <c r="BF85">
-        <v>2.13</v>
+        <v>2.07</v>
       </c>
       <c r="BG85">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="BH85">
-        <v>3.08</v>
+        <v>2.65</v>
       </c>
       <c r="BI85">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="BJ85">
-        <v>2.28</v>
+        <v>2.02</v>
       </c>
       <c r="BK85">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="BL85">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="BM85">
-        <v>2.53</v>
+        <v>2.7</v>
       </c>
       <c r="BN85">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="BO85">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="BP85">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="86" spans="1:68">
@@ -18592,7 +18595,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7465093</v>
+        <v>7465092</v>
       </c>
       <c r="C86" t="s">
         <v>68</v>
@@ -18607,190 +18610,190 @@
         <v>9</v>
       </c>
       <c r="G86" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H86" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O86" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="P86" t="s">
         <v>215</v>
       </c>
       <c r="Q86">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="R86">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="S86">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="T86">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="U86">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="V86">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="W86">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="X86">
+        <v>7</v>
+      </c>
+      <c r="Y86">
+        <v>1.1</v>
+      </c>
+      <c r="Z86">
+        <v>3.2</v>
+      </c>
+      <c r="AA86">
+        <v>3.5</v>
+      </c>
+      <c r="AB86">
+        <v>2.2</v>
+      </c>
+      <c r="AC86">
+        <v>1.01</v>
+      </c>
+      <c r="AD86">
         <v>11</v>
       </c>
-      <c r="Y86">
-        <v>1.05</v>
-      </c>
-      <c r="Z86">
-        <v>3.1</v>
-      </c>
-      <c r="AA86">
-        <v>3</v>
-      </c>
-      <c r="AB86">
-        <v>2.55</v>
-      </c>
-      <c r="AC86">
-        <v>1.05</v>
-      </c>
-      <c r="AD86">
-        <v>6</v>
-      </c>
       <c r="AE86">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AF86">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="AG86">
-        <v>2.63</v>
+        <v>1.73</v>
       </c>
       <c r="AH86">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="AI86">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="AJ86">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="AK86">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AL86">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AM86">
         <v>1.44</v>
       </c>
       <c r="AN86">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AO86">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AP86">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ86">
-        <v>1.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR86">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AS86">
-        <v>0.96</v>
+        <v>1.52</v>
       </c>
       <c r="AT86">
-        <v>2.11</v>
+        <v>2.76</v>
       </c>
       <c r="AU86">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW86">
+        <v>11</v>
+      </c>
+      <c r="AX86">
         <v>5</v>
       </c>
-      <c r="AX86">
-        <v>8</v>
-      </c>
       <c r="AY86">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AZ86">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="BA86">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BB86">
+        <v>2</v>
+      </c>
+      <c r="BC86">
         <v>13</v>
       </c>
-      <c r="BC86">
-        <v>18</v>
-      </c>
       <c r="BD86">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="BE86">
-        <v>6.25</v>
+        <v>6.45</v>
       </c>
       <c r="BF86">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="BG86">
-        <v>1.41</v>
+        <v>1.26</v>
       </c>
       <c r="BH86">
-        <v>2.65</v>
+        <v>3.08</v>
       </c>
       <c r="BI86">
-        <v>1.68</v>
+        <v>1.54</v>
       </c>
       <c r="BJ86">
-        <v>2.02</v>
+        <v>2.28</v>
       </c>
       <c r="BK86">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="BL86">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="BM86">
-        <v>2.7</v>
+        <v>2.53</v>
       </c>
       <c r="BN86">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="BO86">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="BP86">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="87" spans="1:68">
@@ -20076,7 +20079,7 @@
         <v>160</v>
       </c>
       <c r="P93" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="Q93">
         <v>2.05</v>
@@ -21805,7 +21808,7 @@
         <v>1</v>
       </c>
       <c r="AQ101">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR101">
         <v>1.21</v>
@@ -22420,7 +22423,7 @@
         <v>0.6</v>
       </c>
       <c r="AP104">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ104">
         <v>0.5</v>
@@ -24689,7 +24692,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ115">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AR115">
         <v>1.58</v>
@@ -25589,6 +25592,212 @@
       </c>
       <c r="BP119">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7465128</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45604.70833333334</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120" t="s">
+        <v>88</v>
+      </c>
+      <c r="H120" t="s">
+        <v>73</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>3</v>
+      </c>
+      <c r="N120">
+        <v>4</v>
+      </c>
+      <c r="O120" t="s">
+        <v>175</v>
+      </c>
+      <c r="P120" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q120">
+        <v>2.4</v>
+      </c>
+      <c r="R120">
+        <v>2.1</v>
+      </c>
+      <c r="S120">
+        <v>5</v>
+      </c>
+      <c r="T120">
+        <v>1.44</v>
+      </c>
+      <c r="U120">
+        <v>2.63</v>
+      </c>
+      <c r="V120">
+        <v>3.25</v>
+      </c>
+      <c r="W120">
+        <v>1.33</v>
+      </c>
+      <c r="X120">
+        <v>10</v>
+      </c>
+      <c r="Y120">
+        <v>1.06</v>
+      </c>
+      <c r="Z120">
+        <v>1.75</v>
+      </c>
+      <c r="AA120">
+        <v>3.5</v>
+      </c>
+      <c r="AB120">
+        <v>4.75</v>
+      </c>
+      <c r="AC120">
+        <v>1.07</v>
+      </c>
+      <c r="AD120">
+        <v>10</v>
+      </c>
+      <c r="AE120">
+        <v>1.38</v>
+      </c>
+      <c r="AF120">
+        <v>3.1</v>
+      </c>
+      <c r="AG120">
+        <v>2.1</v>
+      </c>
+      <c r="AH120">
+        <v>1.73</v>
+      </c>
+      <c r="AI120">
+        <v>2.05</v>
+      </c>
+      <c r="AJ120">
+        <v>1.7</v>
+      </c>
+      <c r="AK120">
+        <v>1.19</v>
+      </c>
+      <c r="AL120">
+        <v>1.25</v>
+      </c>
+      <c r="AM120">
+        <v>2.1</v>
+      </c>
+      <c r="AN120">
+        <v>1.6</v>
+      </c>
+      <c r="AO120">
+        <v>0.5</v>
+      </c>
+      <c r="AP120">
+        <v>1.33</v>
+      </c>
+      <c r="AQ120">
+        <v>0.86</v>
+      </c>
+      <c r="AR120">
+        <v>1.55</v>
+      </c>
+      <c r="AS120">
+        <v>1.14</v>
+      </c>
+      <c r="AT120">
+        <v>2.69</v>
+      </c>
+      <c r="AU120">
+        <v>7</v>
+      </c>
+      <c r="AV120">
+        <v>4</v>
+      </c>
+      <c r="AW120">
+        <v>15</v>
+      </c>
+      <c r="AX120">
+        <v>6</v>
+      </c>
+      <c r="AY120">
+        <v>35</v>
+      </c>
+      <c r="AZ120">
+        <v>12</v>
+      </c>
+      <c r="BA120">
+        <v>12</v>
+      </c>
+      <c r="BB120">
+        <v>4</v>
+      </c>
+      <c r="BC120">
+        <v>16</v>
+      </c>
+      <c r="BD120">
+        <v>1.48</v>
+      </c>
+      <c r="BE120">
+        <v>6.75</v>
+      </c>
+      <c r="BF120">
+        <v>2.95</v>
+      </c>
+      <c r="BG120">
+        <v>1.35</v>
+      </c>
+      <c r="BH120">
+        <v>2.88</v>
+      </c>
+      <c r="BI120">
+        <v>1.6</v>
+      </c>
+      <c r="BJ120">
+        <v>2.17</v>
+      </c>
+      <c r="BK120">
+        <v>1.98</v>
+      </c>
+      <c r="BL120">
+        <v>1.72</v>
+      </c>
+      <c r="BM120">
+        <v>2.55</v>
+      </c>
+      <c r="BN120">
+        <v>1.44</v>
+      </c>
+      <c r="BO120">
+        <v>3.3</v>
+      </c>
+      <c r="BP120">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="236">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -544,6 +544,15 @@
     <t>['90+2']</t>
   </si>
   <si>
+    <t>['34', '42', '61', '69']</t>
+  </si>
+  <si>
+    <t>['38', '81', '90']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -712,7 +721,7 @@
     <t>['52']</t>
   </si>
   <si>
-    <t>['6', '62', '66']</t>
+    <t>['6', '62', '67']</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1083,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP120"/>
+  <dimension ref="A1:BP123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1333,7 +1342,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1539,7 +1548,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1745,7 +1754,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1826,7 +1835,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ4">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1951,7 +1960,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2032,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2157,7 +2166,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2363,7 +2372,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2569,7 +2578,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2775,7 +2784,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -3187,7 +3196,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3265,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ11">
         <v>1.5</v>
@@ -3393,7 +3402,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3599,7 +3608,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4707,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ18">
         <v>0.5</v>
@@ -4835,7 +4844,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -4913,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ19">
         <v>0.86</v>
@@ -5453,7 +5462,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5531,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ22">
         <v>0.6</v>
@@ -5740,7 +5749,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR23">
         <v>1.51</v>
@@ -5865,7 +5874,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6483,7 +6492,7 @@
         <v>111</v>
       </c>
       <c r="P27" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q27">
         <v>2.3</v>
@@ -6564,7 +6573,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ27">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR27">
         <v>1.36</v>
@@ -6976,7 +6985,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7101,7 +7110,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -7925,7 +7934,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -8003,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ34">
         <v>1.5</v>
@@ -8131,7 +8140,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q35">
         <v>3.22</v>
@@ -8543,7 +8552,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -8749,7 +8758,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -9239,7 +9248,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9573,7 +9582,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9779,7 +9788,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -9860,7 +9869,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ43">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR43">
         <v>1.17</v>
@@ -10191,7 +10200,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10603,7 +10612,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10809,7 +10818,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -11302,7 +11311,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR50">
         <v>1.14</v>
@@ -11633,7 +11642,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11839,7 +11848,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11917,7 +11926,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ53">
         <v>1.4</v>
@@ -12126,7 +12135,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR54">
         <v>1.07</v>
@@ -12457,7 +12466,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12869,7 +12878,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q58">
         <v>1.51</v>
@@ -12947,7 +12956,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ58">
         <v>0.17</v>
@@ -13281,7 +13290,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13487,7 +13496,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13565,7 +13574,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ61">
         <v>2.57</v>
@@ -13899,7 +13908,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -14186,7 +14195,7 @@
         <v>1</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR64">
         <v>1.24</v>
@@ -14311,7 +14320,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14517,7 +14526,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -14595,10 +14604,10 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ66">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR66">
         <v>2.43</v>
@@ -15135,7 +15144,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15341,7 +15350,7 @@
         <v>109</v>
       </c>
       <c r="P70" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15753,7 +15762,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -16040,7 +16049,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ73">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR73">
         <v>1.15</v>
@@ -16577,7 +16586,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -16989,7 +16998,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17070,7 +17079,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR78">
         <v>1.15</v>
@@ -17401,7 +17410,7 @@
         <v>150</v>
       </c>
       <c r="P80" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -17607,7 +17616,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -17685,7 +17694,7 @@
         <v>0</v>
       </c>
       <c r="AP81">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ81">
         <v>0.86</v>
@@ -17891,7 +17900,7 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ82">
         <v>0.33</v>
@@ -18306,7 +18315,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ84">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR84">
         <v>1.3</v>
@@ -18431,7 +18440,7 @@
         <v>154</v>
       </c>
       <c r="P85" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18637,7 +18646,7 @@
         <v>104</v>
       </c>
       <c r="P86" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18921,7 +18930,7 @@
         <v>2.5</v>
       </c>
       <c r="AP87">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ87">
         <v>2.17</v>
@@ -19049,7 +19058,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19255,7 +19264,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -19667,7 +19676,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -19873,7 +19882,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20285,7 +20294,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20697,7 +20706,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -21109,7 +21118,7 @@
         <v>163</v>
       </c>
       <c r="P98" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q98">
         <v>1.83</v>
@@ -21315,7 +21324,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21393,7 +21402,7 @@
         <v>0.25</v>
       </c>
       <c r="AP99">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ99">
         <v>0.33</v>
@@ -21521,7 +21530,7 @@
         <v>164</v>
       </c>
       <c r="P100" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q100">
         <v>1.73</v>
@@ -21602,7 +21611,7 @@
         <v>3</v>
       </c>
       <c r="AQ100">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR100">
         <v>1.81</v>
@@ -21727,7 +21736,7 @@
         <v>165</v>
       </c>
       <c r="P101" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -21933,7 +21942,7 @@
         <v>104</v>
       </c>
       <c r="P102" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22014,7 +22023,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ102">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR102">
         <v>1.07</v>
@@ -22139,7 +22148,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22426,7 +22435,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ104">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR104">
         <v>1.49</v>
@@ -22757,7 +22766,7 @@
         <v>104</v>
       </c>
       <c r="P106" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q106">
         <v>2.6</v>
@@ -22835,7 +22844,7 @@
         <v>2.5</v>
       </c>
       <c r="AP106">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ106">
         <v>2.57</v>
@@ -23041,7 +23050,7 @@
         <v>0.75</v>
       </c>
       <c r="AP107">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ107">
         <v>0.6</v>
@@ -23581,7 +23590,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -23662,7 +23671,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ110">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR110">
         <v>1.42</v>
@@ -24405,7 +24414,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24817,7 +24826,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q116">
         <v>1.4</v>
@@ -25023,7 +25032,7 @@
         <v>104</v>
       </c>
       <c r="P117" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25229,7 +25238,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25608,7 +25617,7 @@
         <v>69</v>
       </c>
       <c r="E120" s="2">
-        <v>45604.70833333334</v>
+        <v>45603.875</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -25641,7 +25650,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25798,6 +25807,624 @@
       </c>
       <c r="BP120">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7465127</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45605.41666666666</v>
+      </c>
+      <c r="F121">
+        <v>13</v>
+      </c>
+      <c r="G121" t="s">
+        <v>84</v>
+      </c>
+      <c r="H121" t="s">
+        <v>74</v>
+      </c>
+      <c r="I121">
+        <v>2</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>4</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>4</v>
+      </c>
+      <c r="O121" t="s">
+        <v>176</v>
+      </c>
+      <c r="P121" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q121">
+        <v>1.57</v>
+      </c>
+      <c r="R121">
+        <v>2.88</v>
+      </c>
+      <c r="S121">
+        <v>10</v>
+      </c>
+      <c r="T121">
+        <v>1.25</v>
+      </c>
+      <c r="U121">
+        <v>3.75</v>
+      </c>
+      <c r="V121">
+        <v>2.1</v>
+      </c>
+      <c r="W121">
+        <v>1.67</v>
+      </c>
+      <c r="X121">
+        <v>5</v>
+      </c>
+      <c r="Y121">
+        <v>1.17</v>
+      </c>
+      <c r="Z121">
+        <v>1.2</v>
+      </c>
+      <c r="AA121">
+        <v>6.5</v>
+      </c>
+      <c r="AB121">
+        <v>15</v>
+      </c>
+      <c r="AC121">
+        <v>1.01</v>
+      </c>
+      <c r="AD121">
+        <v>23</v>
+      </c>
+      <c r="AE121">
+        <v>1.15</v>
+      </c>
+      <c r="AF121">
+        <v>5.5</v>
+      </c>
+      <c r="AG121">
+        <v>1.48</v>
+      </c>
+      <c r="AH121">
+        <v>2.6</v>
+      </c>
+      <c r="AI121">
+        <v>2.1</v>
+      </c>
+      <c r="AJ121">
+        <v>1.67</v>
+      </c>
+      <c r="AK121">
+        <v>1.03</v>
+      </c>
+      <c r="AL121">
+        <v>1.09</v>
+      </c>
+      <c r="AM121">
+        <v>4.5</v>
+      </c>
+      <c r="AN121">
+        <v>2.5</v>
+      </c>
+      <c r="AO121">
+        <v>1</v>
+      </c>
+      <c r="AP121">
+        <v>2.57</v>
+      </c>
+      <c r="AQ121">
+        <v>0.83</v>
+      </c>
+      <c r="AR121">
+        <v>1.83</v>
+      </c>
+      <c r="AS121">
+        <v>0.83</v>
+      </c>
+      <c r="AT121">
+        <v>2.66</v>
+      </c>
+      <c r="AU121">
+        <v>9</v>
+      </c>
+      <c r="AV121">
+        <v>0</v>
+      </c>
+      <c r="AW121">
+        <v>4</v>
+      </c>
+      <c r="AX121">
+        <v>2</v>
+      </c>
+      <c r="AY121">
+        <v>19</v>
+      </c>
+      <c r="AZ121">
+        <v>3</v>
+      </c>
+      <c r="BA121">
+        <v>11</v>
+      </c>
+      <c r="BB121">
+        <v>3</v>
+      </c>
+      <c r="BC121">
+        <v>14</v>
+      </c>
+      <c r="BD121">
+        <v>1.15</v>
+      </c>
+      <c r="BE121">
+        <v>9.5</v>
+      </c>
+      <c r="BF121">
+        <v>5.8</v>
+      </c>
+      <c r="BG121">
+        <v>1.24</v>
+      </c>
+      <c r="BH121">
+        <v>3.55</v>
+      </c>
+      <c r="BI121">
+        <v>1.41</v>
+      </c>
+      <c r="BJ121">
+        <v>2.65</v>
+      </c>
+      <c r="BK121">
+        <v>1.67</v>
+      </c>
+      <c r="BL121">
+        <v>2.04</v>
+      </c>
+      <c r="BM121">
+        <v>2.05</v>
+      </c>
+      <c r="BN121">
+        <v>1.67</v>
+      </c>
+      <c r="BO121">
+        <v>2.55</v>
+      </c>
+      <c r="BP121">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7465129</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45605.51041666666</v>
+      </c>
+      <c r="F122">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s">
+        <v>79</v>
+      </c>
+      <c r="H122" t="s">
+        <v>86</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>3</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>3</v>
+      </c>
+      <c r="O122" t="s">
+        <v>177</v>
+      </c>
+      <c r="P122" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q122">
+        <v>2.2</v>
+      </c>
+      <c r="R122">
+        <v>2.38</v>
+      </c>
+      <c r="S122">
+        <v>5</v>
+      </c>
+      <c r="T122">
+        <v>1.33</v>
+      </c>
+      <c r="U122">
+        <v>3.25</v>
+      </c>
+      <c r="V122">
+        <v>2.63</v>
+      </c>
+      <c r="W122">
+        <v>1.44</v>
+      </c>
+      <c r="X122">
+        <v>6.5</v>
+      </c>
+      <c r="Y122">
+        <v>1.11</v>
+      </c>
+      <c r="Z122">
+        <v>1.65</v>
+      </c>
+      <c r="AA122">
+        <v>4.08</v>
+      </c>
+      <c r="AB122">
+        <v>5.06</v>
+      </c>
+      <c r="AC122">
+        <v>1.03</v>
+      </c>
+      <c r="AD122">
+        <v>13</v>
+      </c>
+      <c r="AE122">
+        <v>1.24</v>
+      </c>
+      <c r="AF122">
+        <v>4.2</v>
+      </c>
+      <c r="AG122">
+        <v>1.73</v>
+      </c>
+      <c r="AH122">
+        <v>2.1</v>
+      </c>
+      <c r="AI122">
+        <v>1.75</v>
+      </c>
+      <c r="AJ122">
+        <v>2</v>
+      </c>
+      <c r="AK122">
+        <v>1.15</v>
+      </c>
+      <c r="AL122">
+        <v>1.2</v>
+      </c>
+      <c r="AM122">
+        <v>2.35</v>
+      </c>
+      <c r="AN122">
+        <v>1.6</v>
+      </c>
+      <c r="AO122">
+        <v>0.5</v>
+      </c>
+      <c r="AP122">
+        <v>1.83</v>
+      </c>
+      <c r="AQ122">
+        <v>0.43</v>
+      </c>
+      <c r="AR122">
+        <v>1.66</v>
+      </c>
+      <c r="AS122">
+        <v>1.36</v>
+      </c>
+      <c r="AT122">
+        <v>3.02</v>
+      </c>
+      <c r="AU122">
+        <v>4</v>
+      </c>
+      <c r="AV122">
+        <v>4</v>
+      </c>
+      <c r="AW122">
+        <v>5</v>
+      </c>
+      <c r="AX122">
+        <v>3</v>
+      </c>
+      <c r="AY122">
+        <v>14</v>
+      </c>
+      <c r="AZ122">
+        <v>10</v>
+      </c>
+      <c r="BA122">
+        <v>7</v>
+      </c>
+      <c r="BB122">
+        <v>2</v>
+      </c>
+      <c r="BC122">
+        <v>9</v>
+      </c>
+      <c r="BD122">
+        <v>1.52</v>
+      </c>
+      <c r="BE122">
+        <v>6.5</v>
+      </c>
+      <c r="BF122">
+        <v>2.8</v>
+      </c>
+      <c r="BG122">
+        <v>1.37</v>
+      </c>
+      <c r="BH122">
+        <v>2.8</v>
+      </c>
+      <c r="BI122">
+        <v>1.63</v>
+      </c>
+      <c r="BJ122">
+        <v>2.12</v>
+      </c>
+      <c r="BK122">
+        <v>2.02</v>
+      </c>
+      <c r="BL122">
+        <v>1.7</v>
+      </c>
+      <c r="BM122">
+        <v>2.55</v>
+      </c>
+      <c r="BN122">
+        <v>1.43</v>
+      </c>
+      <c r="BO122">
+        <v>3.4</v>
+      </c>
+      <c r="BP122">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7465123</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45605.70833333334</v>
+      </c>
+      <c r="F123">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
+        <v>85</v>
+      </c>
+      <c r="H123" t="s">
+        <v>80</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>1</v>
+      </c>
+      <c r="O123" t="s">
+        <v>178</v>
+      </c>
+      <c r="P123" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q123">
+        <v>3.75</v>
+      </c>
+      <c r="R123">
+        <v>1.91</v>
+      </c>
+      <c r="S123">
+        <v>3.4</v>
+      </c>
+      <c r="T123">
+        <v>1.57</v>
+      </c>
+      <c r="U123">
+        <v>2.25</v>
+      </c>
+      <c r="V123">
+        <v>3.75</v>
+      </c>
+      <c r="W123">
+        <v>1.25</v>
+      </c>
+      <c r="X123">
+        <v>11</v>
+      </c>
+      <c r="Y123">
+        <v>1.05</v>
+      </c>
+      <c r="Z123">
+        <v>2.88</v>
+      </c>
+      <c r="AA123">
+        <v>3.2</v>
+      </c>
+      <c r="AB123">
+        <v>2.55</v>
+      </c>
+      <c r="AC123">
+        <v>1.11</v>
+      </c>
+      <c r="AD123">
+        <v>7</v>
+      </c>
+      <c r="AE123">
+        <v>1.52</v>
+      </c>
+      <c r="AF123">
+        <v>2.6</v>
+      </c>
+      <c r="AG123">
+        <v>2.5</v>
+      </c>
+      <c r="AH123">
+        <v>1.5</v>
+      </c>
+      <c r="AI123">
+        <v>2.1</v>
+      </c>
+      <c r="AJ123">
+        <v>1.67</v>
+      </c>
+      <c r="AK123">
+        <v>1.52</v>
+      </c>
+      <c r="AL123">
+        <v>1.33</v>
+      </c>
+      <c r="AM123">
+        <v>1.44</v>
+      </c>
+      <c r="AN123">
+        <v>1.4</v>
+      </c>
+      <c r="AO123">
+        <v>1</v>
+      </c>
+      <c r="AP123">
+        <v>1.67</v>
+      </c>
+      <c r="AQ123">
+        <v>0.86</v>
+      </c>
+      <c r="AR123">
+        <v>1.08</v>
+      </c>
+      <c r="AS123">
+        <v>1.31</v>
+      </c>
+      <c r="AT123">
+        <v>2.39</v>
+      </c>
+      <c r="AU123">
+        <v>5</v>
+      </c>
+      <c r="AV123">
+        <v>3</v>
+      </c>
+      <c r="AW123">
+        <v>3</v>
+      </c>
+      <c r="AX123">
+        <v>7</v>
+      </c>
+      <c r="AY123">
+        <v>9</v>
+      </c>
+      <c r="AZ123">
+        <v>14</v>
+      </c>
+      <c r="BA123">
+        <v>0</v>
+      </c>
+      <c r="BB123">
+        <v>6</v>
+      </c>
+      <c r="BC123">
+        <v>6</v>
+      </c>
+      <c r="BD123">
+        <v>1.95</v>
+      </c>
+      <c r="BE123">
+        <v>6.4</v>
+      </c>
+      <c r="BF123">
+        <v>2.05</v>
+      </c>
+      <c r="BG123">
+        <v>1.37</v>
+      </c>
+      <c r="BH123">
+        <v>2.8</v>
+      </c>
+      <c r="BI123">
+        <v>1.64</v>
+      </c>
+      <c r="BJ123">
+        <v>2.1</v>
+      </c>
+      <c r="BK123">
+        <v>2</v>
+      </c>
+      <c r="BL123">
+        <v>1.7</v>
+      </c>
+      <c r="BM123">
+        <v>2.55</v>
+      </c>
+      <c r="BN123">
+        <v>1.44</v>
+      </c>
+      <c r="BO123">
+        <v>3.4</v>
+      </c>
+      <c r="BP123">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="239">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -553,6 +553,9 @@
     <t>['82']</t>
   </si>
   <si>
+    <t>['40', '90+5']</t>
+  </si>
+  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -722,6 +725,12 @@
   </si>
   <si>
     <t>['6', '62', '67']</t>
+  </si>
+  <si>
+    <t>['13', '82']</t>
+  </si>
+  <si>
+    <t>['61']</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP123"/>
+  <dimension ref="A1:BP128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1342,7 +1351,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1548,7 +1557,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1626,10 +1635,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1754,7 +1763,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
@@ -1960,7 +1969,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q5">
         <v>3.6</v>
@@ -2166,7 +2175,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q6">
         <v>2.4</v>
@@ -2372,7 +2381,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q7">
         <v>4.75</v>
@@ -2453,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2578,7 +2587,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q8">
         <v>2.2</v>
@@ -2656,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
         <v>1.33</v>
@@ -2784,7 +2793,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q9">
         <v>6.5</v>
@@ -2862,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ9">
         <v>1.8</v>
@@ -3068,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ10">
         <v>0.17</v>
@@ -3196,7 +3205,7 @@
         <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q11">
         <v>3.75</v>
@@ -3277,7 +3286,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3402,7 +3411,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q12">
         <v>2.88</v>
@@ -3608,7 +3617,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4101,7 +4110,7 @@
         <v>3</v>
       </c>
       <c r="AQ15">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4510,7 +4519,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ17">
         <v>1.33</v>
@@ -4844,7 +4853,7 @@
         <v>106</v>
       </c>
       <c r="P19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q19">
         <v>3.2</v>
@@ -5337,7 +5346,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ21">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5462,7 +5471,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q22">
         <v>2.48</v>
@@ -5543,7 +5552,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ22">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR22">
         <v>1.08</v>
@@ -5746,7 +5755,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ23">
         <v>0.86</v>
@@ -5874,7 +5883,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -5955,7 +5964,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ24">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6364,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ26">
         <v>0.57</v>
@@ -6492,7 +6501,7 @@
         <v>111</v>
       </c>
       <c r="P27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q27">
         <v>2.3</v>
@@ -6570,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
         <v>0.43</v>
@@ -7110,7 +7119,7 @@
         <v>113</v>
       </c>
       <c r="P30" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q30">
         <v>6.5</v>
@@ -7603,7 +7612,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR32">
         <v>1.11</v>
@@ -7934,7 +7943,7 @@
         <v>104</v>
       </c>
       <c r="P34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q34">
         <v>3.2</v>
@@ -8140,7 +8149,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q35">
         <v>3.22</v>
@@ -8552,7 +8561,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q37">
         <v>2.9</v>
@@ -8633,7 +8642,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ37">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR37">
         <v>1.77</v>
@@ -8758,7 +8767,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q38">
         <v>2.79</v>
@@ -8839,7 +8848,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR38">
         <v>1.9</v>
@@ -9042,7 +9051,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ39">
         <v>1.83</v>
@@ -9454,7 +9463,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ41">
         <v>0.57</v>
@@ -9582,7 +9591,7 @@
         <v>121</v>
       </c>
       <c r="P42" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q42">
         <v>3.2</v>
@@ -9660,7 +9669,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ42">
         <v>2.17</v>
@@ -9788,7 +9797,7 @@
         <v>122</v>
       </c>
       <c r="P43" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q43">
         <v>3.5</v>
@@ -10200,7 +10209,7 @@
         <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10278,7 +10287,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
         <v>1.8</v>
@@ -10612,7 +10621,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10693,7 +10702,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ47">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR47">
         <v>1.41</v>
@@ -10818,7 +10827,7 @@
         <v>125</v>
       </c>
       <c r="P48" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q48">
         <v>4.33</v>
@@ -10899,7 +10908,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR48">
         <v>1.22</v>
@@ -11514,7 +11523,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ51">
         <v>1.83</v>
@@ -11642,7 +11651,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q52">
         <v>2.88</v>
@@ -11720,7 +11729,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
         <v>0.33</v>
@@ -11848,7 +11857,7 @@
         <v>104</v>
       </c>
       <c r="P53" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11929,7 +11938,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ53">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR53">
         <v>1.17</v>
@@ -12338,7 +12347,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ55">
         <v>1.83</v>
@@ -12466,7 +12475,7 @@
         <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q56">
         <v>2.5</v>
@@ -12753,7 +12762,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR57">
         <v>1.38</v>
@@ -12878,7 +12887,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q58">
         <v>1.51</v>
@@ -13162,7 +13171,7 @@
         <v>0.67</v>
       </c>
       <c r="AP59">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ59">
         <v>0.57</v>
@@ -13290,7 +13299,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q60">
         <v>2.25</v>
@@ -13371,7 +13380,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ60">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR60">
         <v>1.11</v>
@@ -13496,7 +13505,7 @@
         <v>136</v>
       </c>
       <c r="P61" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13577,7 +13586,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ61">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR61">
         <v>1.71</v>
@@ -13783,7 +13792,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ62">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR62">
         <v>1.49</v>
@@ -13908,7 +13917,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q63">
         <v>2.6</v>
@@ -13986,7 +13995,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
         <v>1.5</v>
@@ -14320,7 +14329,7 @@
         <v>139</v>
       </c>
       <c r="P65" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q65">
         <v>2.38</v>
@@ -14526,7 +14535,7 @@
         <v>140</v>
       </c>
       <c r="P66" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q66">
         <v>1.62</v>
@@ -15144,7 +15153,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -15350,7 +15359,7 @@
         <v>109</v>
       </c>
       <c r="P70" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15637,7 +15646,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ71">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR71">
         <v>1.29</v>
@@ -15762,7 +15771,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q72">
         <v>3.6</v>
@@ -15840,7 +15849,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ72">
         <v>1.5</v>
@@ -16046,7 +16055,7 @@
         <v>0.75</v>
       </c>
       <c r="AP73">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ73">
         <v>0.43</v>
@@ -16458,7 +16467,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ75">
         <v>0.33</v>
@@ -16586,7 +16595,7 @@
         <v>147</v>
       </c>
       <c r="P76" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q76">
         <v>6.07</v>
@@ -16667,7 +16676,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ76">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR76">
         <v>1.49</v>
@@ -16873,7 +16882,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ77">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR77">
         <v>1.31</v>
@@ -16998,7 +17007,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17282,7 +17291,7 @@
         <v>0.33</v>
       </c>
       <c r="AP79">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ79">
         <v>0.17</v>
@@ -17410,7 +17419,7 @@
         <v>150</v>
       </c>
       <c r="P80" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -17616,7 +17625,7 @@
         <v>151</v>
       </c>
       <c r="P81" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q81">
         <v>2</v>
@@ -18312,7 +18321,7 @@
         <v>0.33</v>
       </c>
       <c r="AP84">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ84">
         <v>0.83</v>
@@ -18440,7 +18449,7 @@
         <v>154</v>
       </c>
       <c r="P85" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q85">
         <v>3.75</v>
@@ -18518,7 +18527,7 @@
         <v>1.25</v>
       </c>
       <c r="AP85">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ85">
         <v>1.33</v>
@@ -18646,7 +18655,7 @@
         <v>104</v>
       </c>
       <c r="P86" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q86">
         <v>3.6</v>
@@ -18727,7 +18736,7 @@
         <v>1</v>
       </c>
       <c r="AQ86">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR86">
         <v>1.24</v>
@@ -19058,7 +19067,7 @@
         <v>156</v>
       </c>
       <c r="P88" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19139,7 +19148,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ88">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR88">
         <v>1.28</v>
@@ -19264,7 +19273,7 @@
         <v>104</v>
       </c>
       <c r="P89" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q89">
         <v>5.5</v>
@@ -19345,7 +19354,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ89">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR89">
         <v>1.08</v>
@@ -19676,7 +19685,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -19754,10 +19763,10 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ91">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR91">
         <v>1.21</v>
@@ -19882,7 +19891,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20294,7 +20303,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q94">
         <v>3.4</v>
@@ -20706,7 +20715,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -20990,7 +20999,7 @@
         <v>1.6</v>
       </c>
       <c r="AP97">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ97">
         <v>1.33</v>
@@ -21118,7 +21127,7 @@
         <v>163</v>
       </c>
       <c r="P98" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q98">
         <v>1.83</v>
@@ -21324,7 +21333,7 @@
         <v>95</v>
       </c>
       <c r="P99" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21530,7 +21539,7 @@
         <v>164</v>
       </c>
       <c r="P100" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q100">
         <v>1.73</v>
@@ -21736,7 +21745,7 @@
         <v>165</v>
       </c>
       <c r="P101" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -21942,7 +21951,7 @@
         <v>104</v>
       </c>
       <c r="P102" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22148,7 +22157,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22226,7 +22235,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ103">
         <v>2.17</v>
@@ -22641,7 +22650,7 @@
         <v>1</v>
       </c>
       <c r="AQ105">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR105">
         <v>1.4</v>
@@ -22766,7 +22775,7 @@
         <v>104</v>
       </c>
       <c r="P106" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q106">
         <v>2.6</v>
@@ -22847,7 +22856,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ106">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AR106">
         <v>1.96</v>
@@ -23053,7 +23062,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ107">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR107">
         <v>1.1</v>
@@ -23256,7 +23265,7 @@
         <v>0.2</v>
       </c>
       <c r="AP108">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ108">
         <v>0.33</v>
@@ -23462,10 +23471,10 @@
         <v>1.8</v>
       </c>
       <c r="AP109">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ109">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR109">
         <v>1.79</v>
@@ -23590,7 +23599,7 @@
         <v>104</v>
       </c>
       <c r="P110" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q110">
         <v>2.4</v>
@@ -23668,7 +23677,7 @@
         <v>0.5</v>
       </c>
       <c r="AP110">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ110">
         <v>0.83</v>
@@ -23874,10 +23883,10 @@
         <v>1.5</v>
       </c>
       <c r="AP111">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ111">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR111">
         <v>1.44</v>
@@ -24414,7 +24423,7 @@
         <v>171</v>
       </c>
       <c r="P114" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q114">
         <v>2.25</v>
@@ -24826,7 +24835,7 @@
         <v>173</v>
       </c>
       <c r="P116" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q116">
         <v>1.4</v>
@@ -25032,7 +25041,7 @@
         <v>104</v>
       </c>
       <c r="P117" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q117">
         <v>3.6</v>
@@ -25238,7 +25247,7 @@
         <v>174</v>
       </c>
       <c r="P118" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q118">
         <v>2.5</v>
@@ -25617,10 +25626,10 @@
         <v>69</v>
       </c>
       <c r="E120" s="2">
-        <v>45603.875</v>
+        <v>45604.70833333334</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G120" t="s">
         <v>88</v>
@@ -25650,7 +25659,7 @@
         <v>175</v>
       </c>
       <c r="P120" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26425,6 +26434,1036 @@
       </c>
       <c r="BP123">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7465121</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124" t="s">
+        <v>71</v>
+      </c>
+      <c r="H124" t="s">
+        <v>72</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124">
+        <v>2</v>
+      </c>
+      <c r="N124">
+        <v>4</v>
+      </c>
+      <c r="O124" t="s">
+        <v>179</v>
+      </c>
+      <c r="P124" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q124">
+        <v>2.6</v>
+      </c>
+      <c r="R124">
+        <v>2.2</v>
+      </c>
+      <c r="S124">
+        <v>4</v>
+      </c>
+      <c r="T124">
+        <v>1.36</v>
+      </c>
+      <c r="U124">
+        <v>3</v>
+      </c>
+      <c r="V124">
+        <v>2.75</v>
+      </c>
+      <c r="W124">
+        <v>1.4</v>
+      </c>
+      <c r="X124">
+        <v>8</v>
+      </c>
+      <c r="Y124">
+        <v>1.08</v>
+      </c>
+      <c r="Z124">
+        <v>1.95</v>
+      </c>
+      <c r="AA124">
+        <v>3.4</v>
+      </c>
+      <c r="AB124">
+        <v>4</v>
+      </c>
+      <c r="AC124">
+        <v>1.05</v>
+      </c>
+      <c r="AD124">
+        <v>12</v>
+      </c>
+      <c r="AE124">
+        <v>1.3</v>
+      </c>
+      <c r="AF124">
+        <v>3.6</v>
+      </c>
+      <c r="AG124">
+        <v>1.91</v>
+      </c>
+      <c r="AH124">
+        <v>1.91</v>
+      </c>
+      <c r="AI124">
+        <v>1.7</v>
+      </c>
+      <c r="AJ124">
+        <v>2.05</v>
+      </c>
+      <c r="AK124">
+        <v>1.3</v>
+      </c>
+      <c r="AL124">
+        <v>1.25</v>
+      </c>
+      <c r="AM124">
+        <v>1.83</v>
+      </c>
+      <c r="AN124">
+        <v>2.17</v>
+      </c>
+      <c r="AO124">
+        <v>0.6</v>
+      </c>
+      <c r="AP124">
+        <v>2</v>
+      </c>
+      <c r="AQ124">
+        <v>0.67</v>
+      </c>
+      <c r="AR124">
+        <v>1.82</v>
+      </c>
+      <c r="AS124">
+        <v>1.37</v>
+      </c>
+      <c r="AT124">
+        <v>3.19</v>
+      </c>
+      <c r="AU124">
+        <v>7</v>
+      </c>
+      <c r="AV124">
+        <v>3</v>
+      </c>
+      <c r="AW124">
+        <v>10</v>
+      </c>
+      <c r="AX124">
+        <v>1</v>
+      </c>
+      <c r="AY124">
+        <v>20</v>
+      </c>
+      <c r="AZ124">
+        <v>4</v>
+      </c>
+      <c r="BA124">
+        <v>2</v>
+      </c>
+      <c r="BB124">
+        <v>0</v>
+      </c>
+      <c r="BC124">
+        <v>2</v>
+      </c>
+      <c r="BD124">
+        <v>1.47</v>
+      </c>
+      <c r="BE124">
+        <v>6.75</v>
+      </c>
+      <c r="BF124">
+        <v>3.05</v>
+      </c>
+      <c r="BG124">
+        <v>1.3</v>
+      </c>
+      <c r="BH124">
+        <v>3.05</v>
+      </c>
+      <c r="BI124">
+        <v>1.54</v>
+      </c>
+      <c r="BJ124">
+        <v>2.3</v>
+      </c>
+      <c r="BK124">
+        <v>1.88</v>
+      </c>
+      <c r="BL124">
+        <v>1.81</v>
+      </c>
+      <c r="BM124">
+        <v>2.35</v>
+      </c>
+      <c r="BN124">
+        <v>1.5</v>
+      </c>
+      <c r="BO124">
+        <v>3.05</v>
+      </c>
+      <c r="BP124">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7465122</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F125">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s">
+        <v>83</v>
+      </c>
+      <c r="H125" t="s">
+        <v>89</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
+      </c>
+      <c r="O125" t="s">
+        <v>104</v>
+      </c>
+      <c r="P125" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q125">
+        <v>3.25</v>
+      </c>
+      <c r="R125">
+        <v>1.91</v>
+      </c>
+      <c r="S125">
+        <v>4</v>
+      </c>
+      <c r="T125">
+        <v>1.57</v>
+      </c>
+      <c r="U125">
+        <v>2.25</v>
+      </c>
+      <c r="V125">
+        <v>3.75</v>
+      </c>
+      <c r="W125">
+        <v>1.25</v>
+      </c>
+      <c r="X125">
+        <v>13</v>
+      </c>
+      <c r="Y125">
+        <v>1.04</v>
+      </c>
+      <c r="Z125">
+        <v>2.45</v>
+      </c>
+      <c r="AA125">
+        <v>3.2</v>
+      </c>
+      <c r="AB125">
+        <v>3</v>
+      </c>
+      <c r="AC125">
+        <v>1.11</v>
+      </c>
+      <c r="AD125">
+        <v>7</v>
+      </c>
+      <c r="AE125">
+        <v>1.52</v>
+      </c>
+      <c r="AF125">
+        <v>2.49</v>
+      </c>
+      <c r="AG125">
+        <v>2.63</v>
+      </c>
+      <c r="AH125">
+        <v>1.5</v>
+      </c>
+      <c r="AI125">
+        <v>2.1</v>
+      </c>
+      <c r="AJ125">
+        <v>1.67</v>
+      </c>
+      <c r="AK125">
+        <v>1.36</v>
+      </c>
+      <c r="AL125">
+        <v>1.32</v>
+      </c>
+      <c r="AM125">
+        <v>1.58</v>
+      </c>
+      <c r="AN125">
+        <v>1.33</v>
+      </c>
+      <c r="AO125">
+        <v>0.83</v>
+      </c>
+      <c r="AP125">
+        <v>1.14</v>
+      </c>
+      <c r="AQ125">
+        <v>1.14</v>
+      </c>
+      <c r="AR125">
+        <v>1.32</v>
+      </c>
+      <c r="AS125">
+        <v>1.14</v>
+      </c>
+      <c r="AT125">
+        <v>2.46</v>
+      </c>
+      <c r="AU125">
+        <v>2</v>
+      </c>
+      <c r="AV125">
+        <v>3</v>
+      </c>
+      <c r="AW125">
+        <v>3</v>
+      </c>
+      <c r="AX125">
+        <v>0</v>
+      </c>
+      <c r="AY125">
+        <v>10</v>
+      </c>
+      <c r="AZ125">
+        <v>5</v>
+      </c>
+      <c r="BA125">
+        <v>5</v>
+      </c>
+      <c r="BB125">
+        <v>2</v>
+      </c>
+      <c r="BC125">
+        <v>7</v>
+      </c>
+      <c r="BD125">
+        <v>1.83</v>
+      </c>
+      <c r="BE125">
+        <v>6.75</v>
+      </c>
+      <c r="BF125">
+        <v>2.54</v>
+      </c>
+      <c r="BG125">
+        <v>1.51</v>
+      </c>
+      <c r="BH125">
+        <v>2.32</v>
+      </c>
+      <c r="BI125">
+        <v>1.95</v>
+      </c>
+      <c r="BJ125">
+        <v>1.8</v>
+      </c>
+      <c r="BK125">
+        <v>2.57</v>
+      </c>
+      <c r="BL125">
+        <v>1.42</v>
+      </c>
+      <c r="BM125">
+        <v>3.44</v>
+      </c>
+      <c r="BN125">
+        <v>1.21</v>
+      </c>
+      <c r="BO125">
+        <v>5.1</v>
+      </c>
+      <c r="BP125">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7465124</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F126">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s">
+        <v>78</v>
+      </c>
+      <c r="H126" t="s">
+        <v>70</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>2</v>
+      </c>
+      <c r="O126" t="s">
+        <v>94</v>
+      </c>
+      <c r="P126" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q126">
+        <v>5</v>
+      </c>
+      <c r="R126">
+        <v>2.1</v>
+      </c>
+      <c r="S126">
+        <v>2.4</v>
+      </c>
+      <c r="T126">
+        <v>1.44</v>
+      </c>
+      <c r="U126">
+        <v>2.63</v>
+      </c>
+      <c r="V126">
+        <v>3.25</v>
+      </c>
+      <c r="W126">
+        <v>1.33</v>
+      </c>
+      <c r="X126">
+        <v>9</v>
+      </c>
+      <c r="Y126">
+        <v>1.07</v>
+      </c>
+      <c r="Z126">
+        <v>5.12</v>
+      </c>
+      <c r="AA126">
+        <v>3.47</v>
+      </c>
+      <c r="AB126">
+        <v>1.77</v>
+      </c>
+      <c r="AC126">
+        <v>1.07</v>
+      </c>
+      <c r="AD126">
+        <v>9</v>
+      </c>
+      <c r="AE126">
+        <v>1.37</v>
+      </c>
+      <c r="AF126">
+        <v>3.1</v>
+      </c>
+      <c r="AG126">
+        <v>2.2</v>
+      </c>
+      <c r="AH126">
+        <v>1.67</v>
+      </c>
+      <c r="AI126">
+        <v>2</v>
+      </c>
+      <c r="AJ126">
+        <v>1.75</v>
+      </c>
+      <c r="AK126">
+        <v>2.1</v>
+      </c>
+      <c r="AL126">
+        <v>1.26</v>
+      </c>
+      <c r="AM126">
+        <v>1.19</v>
+      </c>
+      <c r="AN126">
+        <v>0.83</v>
+      </c>
+      <c r="AO126">
+        <v>1.4</v>
+      </c>
+      <c r="AP126">
+        <v>0.86</v>
+      </c>
+      <c r="AQ126">
+        <v>1.33</v>
+      </c>
+      <c r="AR126">
+        <v>1.18</v>
+      </c>
+      <c r="AS126">
+        <v>1.24</v>
+      </c>
+      <c r="AT126">
+        <v>2.42</v>
+      </c>
+      <c r="AU126">
+        <v>4</v>
+      </c>
+      <c r="AV126">
+        <v>2</v>
+      </c>
+      <c r="AW126">
+        <v>2</v>
+      </c>
+      <c r="AX126">
+        <v>11</v>
+      </c>
+      <c r="AY126">
+        <v>7</v>
+      </c>
+      <c r="AZ126">
+        <v>18</v>
+      </c>
+      <c r="BA126">
+        <v>5</v>
+      </c>
+      <c r="BB126">
+        <v>5</v>
+      </c>
+      <c r="BC126">
+        <v>10</v>
+      </c>
+      <c r="BD126">
+        <v>2.9</v>
+      </c>
+      <c r="BE126">
+        <v>6.75</v>
+      </c>
+      <c r="BF126">
+        <v>1.5</v>
+      </c>
+      <c r="BG126">
+        <v>1.3</v>
+      </c>
+      <c r="BH126">
+        <v>3.15</v>
+      </c>
+      <c r="BI126">
+        <v>1.52</v>
+      </c>
+      <c r="BJ126">
+        <v>2.33</v>
+      </c>
+      <c r="BK126">
+        <v>1.84</v>
+      </c>
+      <c r="BL126">
+        <v>1.84</v>
+      </c>
+      <c r="BM126">
+        <v>2.32</v>
+      </c>
+      <c r="BN126">
+        <v>1.52</v>
+      </c>
+      <c r="BO126">
+        <v>3</v>
+      </c>
+      <c r="BP126">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7465125</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F127">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s">
+        <v>77</v>
+      </c>
+      <c r="H127" t="s">
+        <v>87</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>1</v>
+      </c>
+      <c r="O127" t="s">
+        <v>104</v>
+      </c>
+      <c r="P127" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q127">
+        <v>4</v>
+      </c>
+      <c r="R127">
+        <v>1.91</v>
+      </c>
+      <c r="S127">
+        <v>3.25</v>
+      </c>
+      <c r="T127">
+        <v>1.57</v>
+      </c>
+      <c r="U127">
+        <v>2.25</v>
+      </c>
+      <c r="V127">
+        <v>3.75</v>
+      </c>
+      <c r="W127">
+        <v>1.25</v>
+      </c>
+      <c r="X127">
+        <v>13</v>
+      </c>
+      <c r="Y127">
+        <v>1.04</v>
+      </c>
+      <c r="Z127">
+        <v>3.3</v>
+      </c>
+      <c r="AA127">
+        <v>3.1</v>
+      </c>
+      <c r="AB127">
+        <v>2.38</v>
+      </c>
+      <c r="AC127">
+        <v>1.12</v>
+      </c>
+      <c r="AD127">
+        <v>7</v>
+      </c>
+      <c r="AE127">
+        <v>1.53</v>
+      </c>
+      <c r="AF127">
+        <v>2.47</v>
+      </c>
+      <c r="AG127">
+        <v>2.63</v>
+      </c>
+      <c r="AH127">
+        <v>1.5</v>
+      </c>
+      <c r="AI127">
+        <v>2.2</v>
+      </c>
+      <c r="AJ127">
+        <v>1.62</v>
+      </c>
+      <c r="AK127">
+        <v>1.6</v>
+      </c>
+      <c r="AL127">
+        <v>1.33</v>
+      </c>
+      <c r="AM127">
+        <v>1.33</v>
+      </c>
+      <c r="AN127">
+        <v>1.5</v>
+      </c>
+      <c r="AO127">
+        <v>1.5</v>
+      </c>
+      <c r="AP127">
+        <v>1.29</v>
+      </c>
+      <c r="AQ127">
+        <v>1.71</v>
+      </c>
+      <c r="AR127">
+        <v>1.29</v>
+      </c>
+      <c r="AS127">
+        <v>0.99</v>
+      </c>
+      <c r="AT127">
+        <v>2.28</v>
+      </c>
+      <c r="AU127">
+        <v>7</v>
+      </c>
+      <c r="AV127">
+        <v>3</v>
+      </c>
+      <c r="AW127">
+        <v>5</v>
+      </c>
+      <c r="AX127">
+        <v>4</v>
+      </c>
+      <c r="AY127">
+        <v>14</v>
+      </c>
+      <c r="AZ127">
+        <v>10</v>
+      </c>
+      <c r="BA127">
+        <v>7</v>
+      </c>
+      <c r="BB127">
+        <v>2</v>
+      </c>
+      <c r="BC127">
+        <v>9</v>
+      </c>
+      <c r="BD127">
+        <v>1.95</v>
+      </c>
+      <c r="BE127">
+        <v>6.4</v>
+      </c>
+      <c r="BF127">
+        <v>2.05</v>
+      </c>
+      <c r="BG127">
+        <v>1.35</v>
+      </c>
+      <c r="BH127">
+        <v>2.9</v>
+      </c>
+      <c r="BI127">
+        <v>1.6</v>
+      </c>
+      <c r="BJ127">
+        <v>2.17</v>
+      </c>
+      <c r="BK127">
+        <v>1.98</v>
+      </c>
+      <c r="BL127">
+        <v>1.72</v>
+      </c>
+      <c r="BM127">
+        <v>2.55</v>
+      </c>
+      <c r="BN127">
+        <v>1.44</v>
+      </c>
+      <c r="BO127">
+        <v>3.4</v>
+      </c>
+      <c r="BP127">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7465126</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128" t="s">
+        <v>76</v>
+      </c>
+      <c r="H128" t="s">
+        <v>81</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128" t="s">
+        <v>111</v>
+      </c>
+      <c r="P128" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q128">
+        <v>4.33</v>
+      </c>
+      <c r="R128">
+        <v>2.4</v>
+      </c>
+      <c r="S128">
+        <v>2.3</v>
+      </c>
+      <c r="T128">
+        <v>1.3</v>
+      </c>
+      <c r="U128">
+        <v>3.4</v>
+      </c>
+      <c r="V128">
+        <v>2.38</v>
+      </c>
+      <c r="W128">
+        <v>1.53</v>
+      </c>
+      <c r="X128">
+        <v>6</v>
+      </c>
+      <c r="Y128">
+        <v>1.13</v>
+      </c>
+      <c r="Z128">
+        <v>4.26</v>
+      </c>
+      <c r="AA128">
+        <v>3.99</v>
+      </c>
+      <c r="AB128">
+        <v>1.78</v>
+      </c>
+      <c r="AC128">
+        <v>1.03</v>
+      </c>
+      <c r="AD128">
+        <v>17</v>
+      </c>
+      <c r="AE128">
+        <v>1.2</v>
+      </c>
+      <c r="AF128">
+        <v>4.5</v>
+      </c>
+      <c r="AG128">
+        <v>1.62</v>
+      </c>
+      <c r="AH128">
+        <v>2.3</v>
+      </c>
+      <c r="AI128">
+        <v>1.62</v>
+      </c>
+      <c r="AJ128">
+        <v>2.2</v>
+      </c>
+      <c r="AK128">
+        <v>2.1</v>
+      </c>
+      <c r="AL128">
+        <v>1.2</v>
+      </c>
+      <c r="AM128">
+        <v>1.24</v>
+      </c>
+      <c r="AN128">
+        <v>0.67</v>
+      </c>
+      <c r="AO128">
+        <v>2.57</v>
+      </c>
+      <c r="AP128">
+        <v>1</v>
+      </c>
+      <c r="AQ128">
+        <v>2.25</v>
+      </c>
+      <c r="AR128">
+        <v>1.58</v>
+      </c>
+      <c r="AS128">
+        <v>1.82</v>
+      </c>
+      <c r="AT128">
+        <v>3.4</v>
+      </c>
+      <c r="AU128">
+        <v>7</v>
+      </c>
+      <c r="AV128">
+        <v>2</v>
+      </c>
+      <c r="AW128">
+        <v>4</v>
+      </c>
+      <c r="AX128">
+        <v>5</v>
+      </c>
+      <c r="AY128">
+        <v>15</v>
+      </c>
+      <c r="AZ128">
+        <v>13</v>
+      </c>
+      <c r="BA128">
+        <v>7</v>
+      </c>
+      <c r="BB128">
+        <v>6</v>
+      </c>
+      <c r="BC128">
+        <v>13</v>
+      </c>
+      <c r="BD128">
+        <v>2.55</v>
+      </c>
+      <c r="BE128">
+        <v>6.75</v>
+      </c>
+      <c r="BF128">
+        <v>1.58</v>
+      </c>
+      <c r="BG128">
+        <v>1.25</v>
+      </c>
+      <c r="BH128">
+        <v>3.45</v>
+      </c>
+      <c r="BI128">
+        <v>1.44</v>
+      </c>
+      <c r="BJ128">
+        <v>2.55</v>
+      </c>
+      <c r="BK128">
+        <v>1.72</v>
+      </c>
+      <c r="BL128">
+        <v>1.98</v>
+      </c>
+      <c r="BM128">
+        <v>2.1</v>
+      </c>
+      <c r="BN128">
+        <v>1.63</v>
+      </c>
+      <c r="BO128">
+        <v>2.65</v>
+      </c>
+      <c r="BP128">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Spain La Liga_20242025.xlsx
@@ -604,10 +604,10 @@
     <t>['69']</t>
   </si>
   <si>
-    <t>['43']</t>
+    <t>['45+4']</t>
   </si>
   <si>
-    <t>['45+4']</t>
+    <t>['43']</t>
   </si>
   <si>
     <t>['29', '90+1']</t>
@@ -655,10 +655,10 @@
     <t>['85', '86']</t>
   </si>
   <si>
-    <t>['45+6', '63']</t>
+    <t>['45+3']</t>
   </si>
   <si>
-    <t>['45+3']</t>
+    <t>['45+6', '63']</t>
   </si>
   <si>
     <t>['59', '83']</t>
@@ -670,10 +670,10 @@
     <t>['47']</t>
   </si>
   <si>
-    <t>['57', '80']</t>
+    <t>['28']</t>
   </si>
   <si>
-    <t>['28']</t>
+    <t>['57', '80']</t>
   </si>
   <si>
     <t>['7', '22', '32']</t>
@@ -7901,7 +7901,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>7465045</v>
+        <v>7465043</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
@@ -7916,190 +7916,190 @@
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H34" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34">
         <v>1</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O34" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="P34" t="s">
         <v>196</v>
       </c>
       <c r="Q34">
-        <v>3.2</v>
+        <v>3.22</v>
       </c>
       <c r="R34">
-        <v>1.83</v>
+        <v>2.21</v>
       </c>
       <c r="S34">
-        <v>3.85</v>
+        <v>3.1</v>
       </c>
       <c r="T34">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="U34">
-        <v>2.15</v>
+        <v>3.08</v>
       </c>
       <c r="V34">
-        <v>3.9</v>
+        <v>2.63</v>
       </c>
       <c r="W34">
-        <v>1.22</v>
+        <v>1.47</v>
       </c>
       <c r="X34">
-        <v>11.25</v>
+        <v>6.5</v>
       </c>
       <c r="Y34">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="Z34">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AA34">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="AB34">
+        <v>2.7</v>
+      </c>
+      <c r="AC34">
+        <v>1.01</v>
+      </c>
+      <c r="AD34">
+        <v>10</v>
+      </c>
+      <c r="AE34">
+        <v>1.24</v>
+      </c>
+      <c r="AF34">
+        <v>3.64</v>
+      </c>
+      <c r="AG34">
+        <v>1.75</v>
+      </c>
+      <c r="AH34">
+        <v>2.08</v>
+      </c>
+      <c r="AI34">
+        <v>1.6</v>
+      </c>
+      <c r="AJ34">
+        <v>2.2</v>
+      </c>
+      <c r="AK34">
+        <v>1.53</v>
+      </c>
+      <c r="AL34">
+        <v>1.32</v>
+      </c>
+      <c r="AM34">
+        <v>1.51</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>3</v>
+      </c>
+      <c r="AP34">
+        <v>1</v>
+      </c>
+      <c r="AQ34">
+        <v>2.17</v>
+      </c>
+      <c r="AR34">
+        <v>0.87</v>
+      </c>
+      <c r="AS34">
+        <v>1.27</v>
+      </c>
+      <c r="AT34">
+        <v>2.14</v>
+      </c>
+      <c r="AU34">
+        <v>6</v>
+      </c>
+      <c r="AV34">
+        <v>3</v>
+      </c>
+      <c r="AW34">
+        <v>9</v>
+      </c>
+      <c r="AX34">
+        <v>4</v>
+      </c>
+      <c r="AY34">
+        <v>23</v>
+      </c>
+      <c r="AZ34">
+        <v>10</v>
+      </c>
+      <c r="BA34">
+        <v>14</v>
+      </c>
+      <c r="BB34">
+        <v>3</v>
+      </c>
+      <c r="BC34">
+        <v>17</v>
+      </c>
+      <c r="BD34">
+        <v>1.98</v>
+      </c>
+      <c r="BE34">
+        <v>7.8</v>
+      </c>
+      <c r="BF34">
+        <v>2.1</v>
+      </c>
+      <c r="BG34">
+        <v>1.29</v>
+      </c>
+      <c r="BH34">
         <v>3.3</v>
       </c>
-      <c r="AC34">
-        <v>1.11</v>
-      </c>
-      <c r="AD34">
-        <v>6.25</v>
-      </c>
-      <c r="AE34">
-        <v>1.54</v>
-      </c>
-      <c r="AF34">
-        <v>2.48</v>
-      </c>
-      <c r="AG34">
-        <v>2.78</v>
-      </c>
-      <c r="AH34">
-        <v>1.41</v>
-      </c>
-      <c r="AI34">
-        <v>2.15</v>
-      </c>
-      <c r="AJ34">
-        <v>1.62</v>
-      </c>
-      <c r="AK34">
-        <v>1.35</v>
-      </c>
-      <c r="AL34">
-        <v>1.33</v>
-      </c>
-      <c r="AM34">
-        <v>1.55</v>
-      </c>
-      <c r="AN34">
-        <v>3</v>
-      </c>
-      <c r="AO34">
-        <v>0</v>
-      </c>
-      <c r="AP34">
-        <v>1.67</v>
-      </c>
-      <c r="AQ34">
-        <v>1.5</v>
-      </c>
-      <c r="AR34">
-        <v>1.29</v>
-      </c>
-      <c r="AS34">
-        <v>0.9</v>
-      </c>
-      <c r="AT34">
-        <v>2.19</v>
-      </c>
-      <c r="AU34">
-        <v>3</v>
-      </c>
-      <c r="AV34">
-        <v>4</v>
-      </c>
-      <c r="AW34">
-        <v>6</v>
-      </c>
-      <c r="AX34">
-        <v>5</v>
-      </c>
-      <c r="AY34">
-        <v>10</v>
-      </c>
-      <c r="AZ34">
-        <v>13</v>
-      </c>
-      <c r="BA34">
-        <v>1</v>
-      </c>
-      <c r="BB34">
-        <v>3</v>
-      </c>
-      <c r="BC34">
-        <v>4</v>
-      </c>
-      <c r="BD34">
-        <v>1.95</v>
-      </c>
-      <c r="BE34">
-        <v>7.4</v>
-      </c>
-      <c r="BF34">
-        <v>2.17</v>
-      </c>
-      <c r="BG34">
-        <v>1.42</v>
-      </c>
-      <c r="BH34">
-        <v>2.65</v>
-      </c>
       <c r="BI34">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="BJ34">
-        <v>1.85</v>
+        <v>2.33</v>
       </c>
       <c r="BK34">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="BL34">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="BM34">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="BN34">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="BO34">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="BP34">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="35" spans="1:68">
@@ -8107,7 +8107,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7465043</v>
+        <v>7465045</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -8122,190 +8122,190 @@
         <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <v>1</v>
       </c>
       <c r="N35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O35" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="P35" t="s">
         <v>197</v>
       </c>
       <c r="Q35">
-        <v>3.22</v>
+        <v>3.2</v>
       </c>
       <c r="R35">
-        <v>2.21</v>
+        <v>1.83</v>
       </c>
       <c r="S35">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="T35">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="U35">
-        <v>3.08</v>
+        <v>2.15</v>
       </c>
       <c r="V35">
-        <v>2.63</v>
+        <v>3.9</v>
       </c>
       <c r="W35">
-        <v>1.47</v>
+        <v>1.22</v>
       </c>
       <c r="X35">
-        <v>6.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y35">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="Z35">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AA35">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="AB35">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="AC35">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="AD35">
+        <v>6.25</v>
+      </c>
+      <c r="AE35">
+        <v>1.54</v>
+      </c>
+      <c r="AF35">
+        <v>2.48</v>
+      </c>
+      <c r="AG35">
+        <v>2.78</v>
+      </c>
+      <c r="AH35">
+        <v>1.41</v>
+      </c>
+      <c r="AI35">
+        <v>2.15</v>
+      </c>
+      <c r="AJ35">
+        <v>1.62</v>
+      </c>
+      <c r="AK35">
+        <v>1.35</v>
+      </c>
+      <c r="AL35">
+        <v>1.33</v>
+      </c>
+      <c r="AM35">
+        <v>1.55</v>
+      </c>
+      <c r="AN35">
+        <v>3</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>1.67</v>
+      </c>
+      <c r="AQ35">
+        <v>1.5</v>
+      </c>
+      <c r="AR35">
+        <v>1.29</v>
+      </c>
+      <c r="AS35">
+        <v>0.9</v>
+      </c>
+      <c r="AT35">
+        <v>2.19</v>
+      </c>
+      <c r="AU35">
+        <v>3</v>
+      </c>
+      <c r="AV35">
+        <v>4</v>
+      </c>
+      <c r="AW35">
+        <v>6</v>
+      </c>
+      <c r="AX35">
+        <v>5</v>
+      </c>
+      <c r="AY35">
         <v>10</v>
       </c>
-      <c r="AE35">
-        <v>1.24</v>
-      </c>
-      <c r="AF35">
-        <v>3.64</v>
-      </c>
-      <c r="AG35">
-        <v>1.75</v>
-      </c>
-      <c r="AH35">
-        <v>2.08</v>
-      </c>
-      <c r="AI35">
-        <v>1.6</v>
-      </c>
-      <c r="AJ35">
-        <v>2.2</v>
-      </c>
-      <c r="AK35">
-        <v>1.53</v>
-      </c>
-      <c r="AL35">
-        <v>1.32</v>
-      </c>
-      <c r="AM35">
-        <v>1.51</v>
-      </c>
-      <c r="AN35">
-        <v>0</v>
-      </c>
-      <c r="AO35">
-        <v>3</v>
-      </c>
-      <c r="AP35">
-        <v>1</v>
-      </c>
-      <c r="AQ35">
+      <c r="AZ35">
+        <v>13</v>
+      </c>
+      <c r="BA35">
+        <v>1</v>
+      </c>
+      <c r="BB35">
+        <v>3</v>
+      </c>
+      <c r="BC35">
+        <v>4</v>
+      </c>
+      <c r="BD35">
+        <v>1.95</v>
+      </c>
+      <c r="BE35">
+        <v>7.4</v>
+      </c>
+      <c r="BF35">
         <v>2.17</v>
       </c>
-      <c r="AR35">
-        <v>0.87</v>
-      </c>
-      <c r="AS35">
-        <v>1.27</v>
-      </c>
-      <c r="AT35">
-        <v>2.14</v>
-      </c>
-      <c r="AU35">
-        <v>6</v>
-      </c>
-      <c r="AV35">
-        <v>3</v>
-      </c>
-      <c r="AW35">
-        <v>9</v>
-      </c>
-      <c r="AX35">
-        <v>4</v>
-      </c>
-      <c r="AY35">
-        <v>23</v>
-      </c>
-      <c r="AZ35">
-        <v>10</v>
-      </c>
-      <c r="BA35">
-        <v>14</v>
-      </c>
-      <c r="BB35">
-        <v>3</v>
-      </c>
-      <c r="BC35">
-        <v>17</v>
-      </c>
-      <c r="BD35">
-        <v>1.98</v>
-      </c>
-      <c r="BE35">
-        <v>7.8</v>
-      </c>
-      <c r="BF35">
-        <v>2.1</v>
-      </c>
       <c r="BG35">
+        <v>1.42</v>
+      </c>
+      <c r="BH35">
+        <v>2.65</v>
+      </c>
+      <c r="BI35">
+        <v>1.85</v>
+      </c>
+      <c r="BJ35">
+        <v>1.85</v>
+      </c>
+      <c r="BK35">
+        <v>2.4</v>
+      </c>
+      <c r="BL35">
+        <v>1.5</v>
+      </c>
+      <c r="BM35">
+        <v>3.3</v>
+      </c>
+      <c r="BN35">
         <v>1.29</v>
       </c>
-      <c r="BH35">
-        <v>3.3</v>
-      </c>
-      <c r="BI35">
-        <v>1.53</v>
-      </c>
-      <c r="BJ35">
-        <v>2.33</v>
-      </c>
-      <c r="BK35">
-        <v>2</v>
-      </c>
-      <c r="BL35">
-        <v>1.8</v>
-      </c>
-      <c r="BM35">
-        <v>2.5</v>
-      </c>
-      <c r="BN35">
-        <v>1.47</v>
-      </c>
       <c r="BO35">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="BP35">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="36" spans="1:68">
@@ -14081,7 +14081,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7465074</v>
+        <v>7465070</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -14096,190 +14096,190 @@
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O64" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>104</v>
+        <v>211</v>
       </c>
       <c r="Q64">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="R64">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S64">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="T64">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="U64">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="V64">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="W64">
+        <v>1.36</v>
+      </c>
+      <c r="X64">
+        <v>8</v>
+      </c>
+      <c r="Y64">
+        <v>1.08</v>
+      </c>
+      <c r="Z64">
+        <v>1.75</v>
+      </c>
+      <c r="AA64">
+        <v>3.7</v>
+      </c>
+      <c r="AB64">
+        <v>4.6</v>
+      </c>
+      <c r="AC64">
+        <v>1.05</v>
+      </c>
+      <c r="AD64">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE64">
+        <v>1.31</v>
+      </c>
+      <c r="AF64">
+        <v>3.42</v>
+      </c>
+      <c r="AG64">
+        <v>1.91</v>
+      </c>
+      <c r="AH64">
+        <v>1.8</v>
+      </c>
+      <c r="AI64">
+        <v>1.91</v>
+      </c>
+      <c r="AJ64">
+        <v>1.91</v>
+      </c>
+      <c r="AK64">
+        <v>1.2</v>
+      </c>
+      <c r="AL64">
+        <v>1.24</v>
+      </c>
+      <c r="AM64">
+        <v>2.1</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
+        <v>0</v>
+      </c>
+      <c r="AP64">
+        <v>1.5</v>
+      </c>
+      <c r="AQ64">
+        <v>0.5</v>
+      </c>
+      <c r="AR64">
+        <v>1.56</v>
+      </c>
+      <c r="AS64">
+        <v>0.74</v>
+      </c>
+      <c r="AT64">
+        <v>2.3</v>
+      </c>
+      <c r="AU64">
+        <v>6</v>
+      </c>
+      <c r="AV64">
+        <v>3</v>
+      </c>
+      <c r="AW64">
+        <v>6</v>
+      </c>
+      <c r="AX64">
+        <v>3</v>
+      </c>
+      <c r="AY64">
+        <v>23</v>
+      </c>
+      <c r="AZ64">
+        <v>9</v>
+      </c>
+      <c r="BA64">
+        <v>6</v>
+      </c>
+      <c r="BB64">
+        <v>4</v>
+      </c>
+      <c r="BC64">
+        <v>10</v>
+      </c>
+      <c r="BD64">
+        <v>1.49</v>
+      </c>
+      <c r="BE64">
+        <v>6.75</v>
+      </c>
+      <c r="BF64">
+        <v>2.9</v>
+      </c>
+      <c r="BG64">
+        <v>1.33</v>
+      </c>
+      <c r="BH64">
+        <v>2.95</v>
+      </c>
+      <c r="BI64">
+        <v>1.57</v>
+      </c>
+      <c r="BJ64">
+        <v>2.23</v>
+      </c>
+      <c r="BK64">
+        <v>1.94</v>
+      </c>
+      <c r="BL64">
+        <v>1.76</v>
+      </c>
+      <c r="BM64">
+        <v>2.43</v>
+      </c>
+      <c r="BN64">
+        <v>1.47</v>
+      </c>
+      <c r="BO64">
+        <v>3.15</v>
+      </c>
+      <c r="BP64">
         <v>1.29</v>
-      </c>
-      <c r="X64">
-        <v>11</v>
-      </c>
-      <c r="Y64">
-        <v>1.05</v>
-      </c>
-      <c r="Z64">
-        <v>2.1</v>
-      </c>
-      <c r="AA64">
-        <v>3.2</v>
-      </c>
-      <c r="AB64">
-        <v>3.7</v>
-      </c>
-      <c r="AC64">
-        <v>1.04</v>
-      </c>
-      <c r="AD64">
-        <v>6.55</v>
-      </c>
-      <c r="AE64">
-        <v>1.46</v>
-      </c>
-      <c r="AF64">
-        <v>2.77</v>
-      </c>
-      <c r="AG64">
-        <v>2.3</v>
-      </c>
-      <c r="AH64">
-        <v>1.55</v>
-      </c>
-      <c r="AI64">
-        <v>2.05</v>
-      </c>
-      <c r="AJ64">
-        <v>1.7</v>
-      </c>
-      <c r="AK64">
-        <v>1.28</v>
-      </c>
-      <c r="AL64">
-        <v>1.3</v>
-      </c>
-      <c r="AM64">
-        <v>1.75</v>
-      </c>
-      <c r="AN64">
-        <v>1.33</v>
-      </c>
-      <c r="AO64">
-        <v>0</v>
-      </c>
-      <c r="AP64">
-        <v>1</v>
-      </c>
-      <c r="AQ64">
-        <v>0.83</v>
-      </c>
-      <c r="AR64">
-        <v>1.24</v>
-      </c>
-      <c r="AS64">
-        <v>0.55</v>
-      </c>
-      <c r="AT64">
-        <v>1.79</v>
-      </c>
-      <c r="AU64">
-        <v>4</v>
-      </c>
-      <c r="AV64">
-        <v>3</v>
-      </c>
-      <c r="AW64">
-        <v>3</v>
-      </c>
-      <c r="AX64">
-        <v>4</v>
-      </c>
-      <c r="AY64">
-        <v>11</v>
-      </c>
-      <c r="AZ64">
-        <v>10</v>
-      </c>
-      <c r="BA64">
-        <v>10</v>
-      </c>
-      <c r="BB64">
-        <v>5</v>
-      </c>
-      <c r="BC64">
-        <v>15</v>
-      </c>
-      <c r="BD64">
-        <v>1.72</v>
-      </c>
-      <c r="BE64">
-        <v>6.4</v>
-      </c>
-      <c r="BF64">
-        <v>2.38</v>
-      </c>
-      <c r="BG64">
-        <v>1.41</v>
-      </c>
-      <c r="BH64">
-        <v>2.63</v>
-      </c>
-      <c r="BI64">
-        <v>1.71</v>
-      </c>
-      <c r="BJ64">
-        <v>2</v>
-      </c>
-      <c r="BK64">
-        <v>2.12</v>
-      </c>
-      <c r="BL64">
-        <v>1.63</v>
-      </c>
-      <c r="BM64">
-        <v>2.7</v>
-      </c>
-      <c r="BN64">
-        <v>1.4</v>
-      </c>
-      <c r="BO64">
-        <v>3.65</v>
-      </c>
-      <c r="BP64">
-        <v>1.23</v>
       </c>
     </row>
     <row r="65" spans="1:68">
@@ -14287,7 +14287,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>7465070</v>
+        <v>7465074</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
@@ -14302,190 +14302,190 @@
         <v>7</v>
       </c>
       <c r="G65" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H65" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O65" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="P65" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="Q65">
+        <v>2.88</v>
+      </c>
+      <c r="R65">
+        <v>2</v>
+      </c>
+      <c r="S65">
+        <v>4.33</v>
+      </c>
+      <c r="T65">
+        <v>1.53</v>
+      </c>
+      <c r="U65">
         <v>2.38</v>
       </c>
-      <c r="R65">
-        <v>2.2</v>
-      </c>
-      <c r="S65">
+      <c r="V65">
+        <v>3.5</v>
+      </c>
+      <c r="W65">
+        <v>1.29</v>
+      </c>
+      <c r="X65">
+        <v>11</v>
+      </c>
+      <c r="Y65">
+        <v>1.05</v>
+      </c>
+      <c r="Z65">
+        <v>2.1</v>
+      </c>
+      <c r="AA65">
+        <v>3.2</v>
+      </c>
+      <c r="AB65">
+        <v>3.7</v>
+      </c>
+      <c r="AC65">
+        <v>1.04</v>
+      </c>
+      <c r="AD65">
+        <v>6.55</v>
+      </c>
+      <c r="AE65">
+        <v>1.46</v>
+      </c>
+      <c r="AF65">
+        <v>2.77</v>
+      </c>
+      <c r="AG65">
+        <v>2.3</v>
+      </c>
+      <c r="AH65">
+        <v>1.55</v>
+      </c>
+      <c r="AI65">
+        <v>2.05</v>
+      </c>
+      <c r="AJ65">
+        <v>1.7</v>
+      </c>
+      <c r="AK65">
+        <v>1.28</v>
+      </c>
+      <c r="AL65">
+        <v>1.3</v>
+      </c>
+      <c r="AM65">
+        <v>1.75</v>
+      </c>
+      <c r="AN65">
+        <v>1.33</v>
+      </c>
+      <c r="AO65">
+        <v>0</v>
+      </c>
+      <c r="AP65">
+        <v>1</v>
+      </c>
+      <c r="AQ65">
+        <v>0.83</v>
+      </c>
+      <c r="AR65">
+        <v>1.24</v>
+      </c>
+      <c r="AS65">
+        <v>0.55</v>
+      </c>
+      <c r="AT65">
+        <v>1.79</v>
+      </c>
+      <c r="AU65">
+        <v>4</v>
+      </c>
+      <c r="AV65">
+        <v>3</v>
+      </c>
+      <c r="AW65">
+        <v>3</v>
+      </c>
+      <c r="AX65">
+        <v>4</v>
+      </c>
+      <c r="AY65">
+        <v>11</v>
+      </c>
+      <c r="AZ65">
+        <v>10</v>
+      </c>
+      <c r="BA65">
+        <v>10</v>
+      </c>
+      <c r="BB65">
         <v>5</v>
       </c>
-      <c r="T65">
+      <c r="BC65">
+        <v>15</v>
+      </c>
+      <c r="BD65">
+        <v>1.72</v>
+      </c>
+      <c r="BE65">
+        <v>6.4</v>
+      </c>
+      <c r="BF65">
+        <v>2.38</v>
+      </c>
+      <c r="BG65">
+        <v>1.41</v>
+      </c>
+      <c r="BH65">
+        <v>2.63</v>
+      </c>
+      <c r="BI65">
+        <v>1.71</v>
+      </c>
+      <c r="BJ65">
+        <v>2</v>
+      </c>
+      <c r="BK65">
+        <v>2.12</v>
+      </c>
+      <c r="BL65">
+        <v>1.63</v>
+      </c>
+      <c r="BM65">
+        <v>2.7</v>
+      </c>
+      <c r="BN65">
         <v>1.4</v>
       </c>
-      <c r="U65">
-        <v>2.75</v>
-      </c>
-      <c r="V65">
-        <v>3</v>
-      </c>
-      <c r="W65">
-        <v>1.36</v>
-      </c>
-      <c r="X65">
-        <v>8</v>
-      </c>
-      <c r="Y65">
-        <v>1.08</v>
-      </c>
-      <c r="Z65">
-        <v>1.75</v>
-      </c>
-      <c r="AA65">
-        <v>3.7</v>
-      </c>
-      <c r="AB65">
-        <v>4.6</v>
-      </c>
-      <c r="AC65">
-        <v>1.05</v>
-      </c>
-      <c r="AD65">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AE65">
-        <v>1.31</v>
-      </c>
-      <c r="AF65">
-        <v>3.42</v>
-      </c>
-      <c r="AG65">
-        <v>1.91</v>
-      </c>
-      <c r="AH65">
-        <v>1.8</v>
-      </c>
-      <c r="AI65">
-        <v>1.91</v>
-      </c>
-      <c r="AJ65">
-        <v>1.91</v>
-      </c>
-      <c r="AK65">
-        <v>1.2</v>
-      </c>
-      <c r="AL65">
-        <v>1.24</v>
-      </c>
-      <c r="AM65">
-        <v>2.1</v>
-      </c>
-      <c r="AN65">
-        <v>1</v>
-      </c>
-      <c r="AO65">
-        <v>0</v>
-      </c>
-      <c r="AP65">
-        <v>1.5</v>
-      </c>
-      <c r="AQ65">
-        <v>0.5</v>
-      </c>
-      <c r="AR65">
-        <v>1.56</v>
-      </c>
-      <c r="AS65">
-        <v>0.74</v>
-      </c>
-      <c r="AT65">
-        <v>2.3</v>
-      </c>
-      <c r="AU65">
-        <v>6</v>
-      </c>
-      <c r="AV65">
-        <v>3</v>
-      </c>
-      <c r="AW65">
-        <v>6</v>
-      </c>
-      <c r="AX65">
-        <v>3</v>
-      </c>
-      <c r="AY65">
-        <v>23</v>
-      </c>
-      <c r="AZ65">
-        <v>9</v>
-      </c>
-      <c r="BA65">
-        <v>6</v>
-      </c>
-      <c r="BB65">
-        <v>4</v>
-      </c>
-      <c r="BC65">
-        <v>10</v>
-      </c>
-      <c r="BD65">
-        <v>1.49</v>
-      </c>
-      <c r="BE65">
-        <v>6.75</v>
-      </c>
-      <c r="BF65">
-        <v>2.9</v>
-      </c>
-      <c r="BG65">
-        <v>1.33</v>
-      </c>
-      <c r="BH65">
-        <v>2.95</v>
-      </c>
-      <c r="BI65">
-        <v>1.57</v>
-      </c>
-      <c r="BJ65">
-        <v>2.23</v>
-      </c>
-      <c r="BK65">
-        <v>1.94</v>
-      </c>
-      <c r="BL65">
-        <v>1.76</v>
-      </c>
-      <c r="BM65">
-        <v>2.43</v>
-      </c>
-      <c r="BN65">
-        <v>1.47</v>
-      </c>
       <c r="BO65">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="BP65">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="66" spans="1:68">
@@ -15111,7 +15111,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7469578</v>
+        <v>7465073</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -15126,10 +15126,10 @@
         <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H69" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -15144,172 +15144,172 @@
         <v>1</v>
       </c>
       <c r="M69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O69" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="P69" t="s">
         <v>213</v>
       </c>
       <c r="Q69">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R69">
+        <v>2.05</v>
+      </c>
+      <c r="S69">
+        <v>3.1</v>
+      </c>
+      <c r="T69">
+        <v>1.44</v>
+      </c>
+      <c r="U69">
+        <v>2.63</v>
+      </c>
+      <c r="V69">
+        <v>3.25</v>
+      </c>
+      <c r="W69">
+        <v>1.33</v>
+      </c>
+      <c r="X69">
+        <v>10</v>
+      </c>
+      <c r="Y69">
+        <v>1.06</v>
+      </c>
+      <c r="Z69">
+        <v>3</v>
+      </c>
+      <c r="AA69">
+        <v>3.2</v>
+      </c>
+      <c r="AB69">
+        <v>2.37</v>
+      </c>
+      <c r="AC69">
+        <v>1.07</v>
+      </c>
+      <c r="AD69">
+        <v>7</v>
+      </c>
+      <c r="AE69">
+        <v>1.35</v>
+      </c>
+      <c r="AF69">
+        <v>2.95</v>
+      </c>
+      <c r="AG69">
         <v>2.2</v>
       </c>
-      <c r="S69">
-        <v>2.75</v>
-      </c>
-      <c r="T69">
+      <c r="AH69">
+        <v>1.6</v>
+      </c>
+      <c r="AI69">
+        <v>1.91</v>
+      </c>
+      <c r="AJ69">
+        <v>1.91</v>
+      </c>
+      <c r="AK69">
+        <v>1.55</v>
+      </c>
+      <c r="AL69">
+        <v>1.3</v>
+      </c>
+      <c r="AM69">
         <v>1.36</v>
       </c>
-      <c r="U69">
-        <v>3</v>
-      </c>
-      <c r="V69">
-        <v>2.75</v>
-      </c>
-      <c r="W69">
-        <v>1.4</v>
-      </c>
-      <c r="X69">
-        <v>7</v>
-      </c>
-      <c r="Y69">
-        <v>1.1</v>
-      </c>
-      <c r="Z69">
-        <v>3.4</v>
-      </c>
-      <c r="AA69">
-        <v>3.4</v>
-      </c>
-      <c r="AB69">
-        <v>2.1</v>
-      </c>
-      <c r="AC69">
-        <v>1.06</v>
-      </c>
-      <c r="AD69">
-        <v>10</v>
-      </c>
-      <c r="AE69">
-        <v>1.3</v>
-      </c>
-      <c r="AF69">
-        <v>3.6</v>
-      </c>
-      <c r="AG69">
-        <v>1.83</v>
-      </c>
-      <c r="AH69">
-        <v>1.85</v>
-      </c>
-      <c r="AI69">
-        <v>1.7</v>
-      </c>
-      <c r="AJ69">
-        <v>2.05</v>
-      </c>
-      <c r="AK69">
-        <v>1.78</v>
-      </c>
-      <c r="AL69">
-        <v>1.28</v>
-      </c>
-      <c r="AM69">
-        <v>1.3</v>
-      </c>
       <c r="AN69">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="AO69">
-        <v>2.33</v>
+        <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ69">
-        <v>2.17</v>
+        <v>1</v>
       </c>
       <c r="AR69">
-        <v>1.13</v>
+        <v>1.36</v>
       </c>
       <c r="AS69">
         <v>1.25</v>
       </c>
       <c r="AT69">
-        <v>2.38</v>
+        <v>2.61</v>
       </c>
       <c r="AU69">
         <v>3</v>
       </c>
       <c r="AV69">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX69">
         <v>7</v>
       </c>
       <c r="AY69">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ69">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA69">
+        <v>1</v>
+      </c>
+      <c r="BB69">
         <v>4</v>
-      </c>
-      <c r="BB69">
-        <v>1</v>
       </c>
       <c r="BC69">
         <v>5</v>
       </c>
       <c r="BD69">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="BE69">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="BF69">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="BG69">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="BH69">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="BI69">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="BJ69">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="BK69">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="BL69">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="BM69">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="BN69">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="BO69">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="BP69">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15317,7 +15317,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7465073</v>
+        <v>7469578</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -15332,10 +15332,10 @@
         <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H70" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -15350,172 +15350,172 @@
         <v>1</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O70" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="P70" t="s">
         <v>214</v>
       </c>
       <c r="Q70">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R70">
+        <v>2.2</v>
+      </c>
+      <c r="S70">
+        <v>2.75</v>
+      </c>
+      <c r="T70">
+        <v>1.36</v>
+      </c>
+      <c r="U70">
+        <v>3</v>
+      </c>
+      <c r="V70">
+        <v>2.75</v>
+      </c>
+      <c r="W70">
+        <v>1.4</v>
+      </c>
+      <c r="X70">
+        <v>7</v>
+      </c>
+      <c r="Y70">
+        <v>1.1</v>
+      </c>
+      <c r="Z70">
+        <v>3.4</v>
+      </c>
+      <c r="AA70">
+        <v>3.4</v>
+      </c>
+      <c r="AB70">
+        <v>2.1</v>
+      </c>
+      <c r="AC70">
+        <v>1.06</v>
+      </c>
+      <c r="AD70">
+        <v>10</v>
+      </c>
+      <c r="AE70">
+        <v>1.3</v>
+      </c>
+      <c r="AF70">
+        <v>3.6</v>
+      </c>
+      <c r="AG70">
+        <v>1.83</v>
+      </c>
+      <c r="AH70">
+        <v>1.85</v>
+      </c>
+      <c r="AI70">
+        <v>1.7</v>
+      </c>
+      <c r="AJ70">
         <v>2.05</v>
       </c>
-      <c r="S70">
-        <v>3.1</v>
-      </c>
-      <c r="T70">
-        <v>1.44</v>
-      </c>
-      <c r="U70">
-        <v>2.63</v>
-      </c>
-      <c r="V70">
-        <v>3.25</v>
-      </c>
-      <c r="W70">
-        <v>1.33</v>
-      </c>
-      <c r="X70">
-        <v>10</v>
-      </c>
-      <c r="Y70">
-        <v>1.06</v>
-      </c>
-      <c r="Z70">
-        <v>3</v>
-      </c>
-      <c r="AA70">
-        <v>3.2</v>
-      </c>
-      <c r="AB70">
-        <v>2.37</v>
-      </c>
-      <c r="AC70">
-        <v>1.07</v>
-      </c>
-      <c r="AD70">
-        <v>7</v>
-      </c>
-      <c r="AE70">
-        <v>1.35</v>
-      </c>
-      <c r="AF70">
-        <v>2.95</v>
-      </c>
-      <c r="AG70">
-        <v>2.2</v>
-      </c>
-      <c r="AH70">
-        <v>1.6</v>
-      </c>
-      <c r="AI70">
-        <v>1.91</v>
-      </c>
-      <c r="AJ70">
-        <v>1.91</v>
-      </c>
       <c r="AK70">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="AL70">
+        <v>1.28</v>
+      </c>
+      <c r="AM70">
         <v>1.3</v>
       </c>
-      <c r="AM70">
-        <v>1.36</v>
-      </c>
       <c r="AN70">
-        <v>0.67</v>
+        <v>2</v>
       </c>
       <c r="AO70">
-        <v>0.5</v>
+        <v>2.33</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>2.17</v>
       </c>
       <c r="AR70">
-        <v>1.36</v>
+        <v>1.13</v>
       </c>
       <c r="AS70">
         <v>1.25</v>
       </c>
       <c r="AT70">
-        <v>2.61</v>
+        <v>2.38</v>
       </c>
       <c r="AU70">
         <v>3</v>
       </c>
       <c r="AV70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX70">
         <v>7</v>
       </c>
       <c r="AY70">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ70">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC70">
         <v>5</v>
       </c>
       <c r="BD70">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="BE70">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="BF70">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="BG70">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="BH70">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="BI70">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="BJ70">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="BK70">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="BL70">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="BM70">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="BN70">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="BO70">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="BP70">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="71" spans="1:68">
@@ -18407,7 +18407,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>7465093</v>
+        <v>7465092</v>
       </c>
       <c r="C85" t="s">
         <v>68</v>
@@ -18422,190 +18422,190 @@
         <v>9</v>
       </c>
       <c r="G85" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H85" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O85" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="P85" t="s">
         <v>218</v>
       </c>
       <c r="Q85">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="R85">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="S85">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="T85">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="U85">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="V85">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="W85">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="X85">
+        <v>7</v>
+      </c>
+      <c r="Y85">
+        <v>1.1</v>
+      </c>
+      <c r="Z85">
+        <v>3.2</v>
+      </c>
+      <c r="AA85">
+        <v>3.5</v>
+      </c>
+      <c r="AB85">
+        <v>2.2</v>
+      </c>
+      <c r="AC85">
+        <v>1.01</v>
+      </c>
+      <c r="AD85">
         <v>11</v>
       </c>
-      <c r="Y85">
-        <v>1.05</v>
-      </c>
-      <c r="Z85">
-        <v>3.1</v>
-      </c>
-      <c r="AA85">
-        <v>3</v>
-      </c>
-      <c r="AB85">
-        <v>2.55</v>
-      </c>
-      <c r="AC85">
-        <v>1.05</v>
-      </c>
-      <c r="AD85">
-        <v>6</v>
-      </c>
       <c r="AE85">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AF85">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="AG85">
-        <v>2.63</v>
+        <v>1.73</v>
       </c>
       <c r="AH85">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="AI85">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="AJ85">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="AK85">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AL85">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AM85">
         <v>1.44</v>
       </c>
       <c r="AN85">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AO85">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AP85">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AR85">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AS85">
-        <v>0.96</v>
+        <v>1.52</v>
       </c>
       <c r="AT85">
-        <v>2.11</v>
+        <v>2.76</v>
       </c>
       <c r="AU85">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW85">
+        <v>11</v>
+      </c>
+      <c r="AX85">
         <v>5</v>
       </c>
-      <c r="AX85">
-        <v>8</v>
-      </c>
       <c r="AY85">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AZ85">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="BA85">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BB85">
+        <v>2</v>
+      </c>
+      <c r="BC85">
         <v>13</v>
       </c>
-      <c r="BC85">
-        <v>18</v>
-      </c>
       <c r="BD85">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="BE85">
-        <v>6.25</v>
+        <v>6.45</v>
       </c>
       <c r="BF85">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="BG85">
-        <v>1.41</v>
+        <v>1.26</v>
       </c>
       <c r="BH85">
-        <v>2.65</v>
+        <v>3.08</v>
       </c>
       <c r="BI85">
-        <v>1.68</v>
+        <v>1.54</v>
       </c>
       <c r="BJ85">
-        <v>2.02</v>
+        <v>2.28</v>
       </c>
       <c r="BK85">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="BL85">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="BM85">
-        <v>2.7</v>
+        <v>2.53</v>
       </c>
       <c r="BN85">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="BO85">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="BP85">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="86" spans="1:68">
@@ -18613,7 +18613,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7465092</v>
+        <v>7465093</v>
       </c>
       <c r="C86" t="s">
         <v>68</v>
@@ -18628,190 +18628,190 @@
         <v>9</v>
       </c>
       <c r="G86" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H86" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O86" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="P86" t="s">
         <v>219</v>
       </c>
       <c r="Q86">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="R86">
+        <v>1.91</v>
+      </c>
+      <c r="S86">
+        <v>3.4</v>
+      </c>
+      <c r="T86">
+        <v>1.57</v>
+      </c>
+      <c r="U86">
         <v>2.25</v>
       </c>
-      <c r="S86">
-        <v>2.88</v>
-      </c>
-      <c r="T86">
-        <v>1.36</v>
-      </c>
-      <c r="U86">
-        <v>3</v>
-      </c>
       <c r="V86">
+        <v>3.75</v>
+      </c>
+      <c r="W86">
+        <v>1.25</v>
+      </c>
+      <c r="X86">
+        <v>11</v>
+      </c>
+      <c r="Y86">
+        <v>1.05</v>
+      </c>
+      <c r="Z86">
+        <v>3.1</v>
+      </c>
+      <c r="AA86">
+        <v>3</v>
+      </c>
+      <c r="AB86">
+        <v>2.55</v>
+      </c>
+      <c r="AC86">
+        <v>1.05</v>
+      </c>
+      <c r="AD86">
+        <v>6</v>
+      </c>
+      <c r="AE86">
+        <v>1.5</v>
+      </c>
+      <c r="AF86">
+        <v>2.45</v>
+      </c>
+      <c r="AG86">
         <v>2.63</v>
       </c>
-      <c r="W86">
-        <v>1.44</v>
-      </c>
-      <c r="X86">
-        <v>7</v>
-      </c>
-      <c r="Y86">
-        <v>1.1</v>
-      </c>
-      <c r="Z86">
-        <v>3.2</v>
-      </c>
-      <c r="AA86">
-        <v>3.5</v>
-      </c>
-      <c r="AB86">
-        <v>2.2</v>
-      </c>
-      <c r="AC86">
-        <v>1.01</v>
-      </c>
-      <c r="AD86">
-        <v>11</v>
-      </c>
-      <c r="AE86">
-        <v>1.2</v>
-      </c>
-      <c r="AF86">
-        <v>4</v>
-      </c>
-      <c r="AG86">
-        <v>1.73</v>
-      </c>
       <c r="AH86">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="AI86">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="AJ86">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="AK86">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AL86">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AM86">
         <v>1.44</v>
       </c>
       <c r="AN86">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AO86">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ86">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AR86">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="AS86">
-        <v>1.52</v>
+        <v>0.96</v>
       </c>
       <c r="AT86">
-        <v>2.76</v>
+        <v>2.11</v>
       </c>
       <c r="AU86">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW86">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AX86">
+        <v>8</v>
+      </c>
+      <c r="AY86">
+        <v>15</v>
+      </c>
+      <c r="AZ86">
+        <v>18</v>
+      </c>
+      <c r="BA86">
         <v>5</v>
       </c>
-      <c r="AY86">
-        <v>26</v>
-      </c>
-      <c r="AZ86">
-        <v>9</v>
-      </c>
-      <c r="BA86">
-        <v>11</v>
-      </c>
       <c r="BB86">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="BC86">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BD86">
-        <v>2.16</v>
+        <v>1.95</v>
       </c>
       <c r="BE86">
-        <v>6.45</v>
+        <v>6.25</v>
       </c>
       <c r="BF86">
-        <v>2.13</v>
+        <v>2.07</v>
       </c>
       <c r="BG86">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="BH86">
-        <v>3.08</v>
+        <v>2.65</v>
       </c>
       <c r="BI86">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="BJ86">
-        <v>2.28</v>
+        <v>2.02</v>
       </c>
       <c r="BK86">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="BL86">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="BM86">
-        <v>2.53</v>
+        <v>2.7</v>
       </c>
       <c r="BN86">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="BO86">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="BP86">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="87" spans="1:68">
@@ -26450,7 +26450,7 @@
         <v>69</v>
       </c>
       <c r="E124" s="2">
-        <v>45605.875</v>
+        <v>45606.41666666666</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -26647,7 +26647,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>7465122</v>
+        <v>7465125</v>
       </c>
       <c r="C125" t="s">
         <v>68</v>
@@ -26656,25 +26656,25 @@
         <v>69</v>
       </c>
       <c r="E125" s="2">
-        <v>45605.875</v>
+        <v>45606.51041666666</v>
       </c>
       <c r="F125">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H125" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L125">
         <v>0</v>
@@ -26689,16 +26689,16 @@
         <v>104</v>
       </c>
       <c r="P125" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="Q125">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="R125">
         <v>1.91</v>
       </c>
       <c r="S125">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="T125">
         <v>1.57</v>
@@ -26719,25 +26719,25 @@
         <v>1.04</v>
       </c>
       <c r="Z125">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="AA125">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AB125">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="AC125">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AD125">
         <v>7</v>
       </c>
       <c r="AE125">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="AF125">
-        <v>2.49</v>
+        <v>2.47</v>
       </c>
       <c r="AG125">
         <v>2.63</v>
@@ -26746,106 +26746,106 @@
         <v>1.5</v>
       </c>
       <c r="AI125">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AJ125">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AK125">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="AL125">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AM125">
-        <v>1.58</v>
+        <v>1.33</v>
       </c>
       <c r="AN125">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO125">
-        <v>0.83</v>
+        <v>1.5</v>
       </c>
       <c r="AP125">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AQ125">
-        <v>1.14</v>
+        <v>1.71</v>
       </c>
       <c r="AR125">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AS125">
-        <v>1.14</v>
+        <v>0.99</v>
       </c>
       <c r="AT125">
-        <v>2.46</v>
+        <v>2.28</v>
       </c>
       <c r="AU125">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV125">
         <v>3</v>
       </c>
       <c r="AW125">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX125">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AY125">
+        <v>14</v>
+      </c>
+      <c r="AZ125">
         <v>10</v>
       </c>
-      <c r="AZ125">
-        <v>5</v>
-      </c>
       <c r="BA125">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB125">
         <v>2</v>
       </c>
       <c r="BC125">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD125">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="BE125">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF125">
-        <v>2.54</v>
+        <v>2.05</v>
       </c>
       <c r="BG125">
-        <v>1.51</v>
+        <v>1.35</v>
       </c>
       <c r="BH125">
-        <v>2.32</v>
+        <v>2.9</v>
       </c>
       <c r="BI125">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="BJ125">
-        <v>1.8</v>
+        <v>2.17</v>
       </c>
       <c r="BK125">
-        <v>2.57</v>
+        <v>1.98</v>
       </c>
       <c r="BL125">
-        <v>1.42</v>
+        <v>1.72</v>
       </c>
       <c r="BM125">
-        <v>3.44</v>
+        <v>2.55</v>
       </c>
       <c r="BN125">
-        <v>1.21</v>
+        <v>1.44</v>
       </c>
       <c r="BO125">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="BP125">
-        <v>1.09</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="126" spans="1:68">
@@ -26862,7 +26862,7 @@
         <v>69</v>
       </c>
       <c r="E126" s="2">
-        <v>45605.875</v>
+        <v>45606.60416666666</v>
       </c>
       <c r="F126">
         <v>13</v>
@@ -27059,7 +27059,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>7465125</v>
+        <v>7465122</v>
       </c>
       <c r="C127" t="s">
         <v>68</v>
@@ -27068,25 +27068,25 @@
         <v>69</v>
       </c>
       <c r="E127" s="2">
-        <v>45605.875</v>
+        <v>45606.60416666666</v>
       </c>
       <c r="F127">
         <v>13</v>
       </c>
       <c r="G127" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H127" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L127">
         <v>0</v>
@@ -27101,16 +27101,16 @@
         <v>104</v>
       </c>
       <c r="P127" t="s">
-        <v>238</v>
+        <v>167</v>
       </c>
       <c r="Q127">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="R127">
         <v>1.91</v>
       </c>
       <c r="S127">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="T127">
         <v>1.57</v>
@@ -27131,25 +27131,25 @@
         <v>1.04</v>
       </c>
       <c r="Z127">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="AA127">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AB127">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="AC127">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AD127">
         <v>7</v>
       </c>
       <c r="AE127">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="AF127">
-        <v>2.47</v>
+        <v>2.49</v>
       </c>
       <c r="AG127">
         <v>2.63</v>
@@ -27158,106 +27158,106 @@
         <v>1.5</v>
       </c>
       <c r="AI127">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AJ127">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AK127">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="AL127">
+        <v>1.32</v>
+      </c>
+      <c r="AM127">
+        <v>1.58</v>
+      </c>
+      <c r="AN127">
         <v>1.33</v>
       </c>
-      <c r="AM127">
-        <v>1.33</v>
-      </c>
-      <c r="AN127">
-        <v>1.5</v>
-      </c>
       <c r="AO127">
-        <v>1.5</v>
+        <v>0.83</v>
       </c>
       <c r="AP127">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AQ127">
-        <v>1.71</v>
+        <v>1.14</v>
       </c>
       <c r="AR127">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AS127">
-        <v>0.99</v>
+        <v>1.14</v>
       </c>
       <c r="AT127">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="AU127">
+        <v>2</v>
+      </c>
+      <c r="AV127">
+        <v>3</v>
+      </c>
+      <c r="AW127">
+        <v>3</v>
+      </c>
+      <c r="AX127">
+        <v>0</v>
+      </c>
+      <c r="AY127">
+        <v>10</v>
+      </c>
+      <c r="AZ127">
+        <v>5</v>
+      </c>
+      <c r="BA127">
+        <v>5</v>
+      </c>
+      <c r="BB127">
+        <v>2</v>
+      </c>
+      <c r="BC127">
         <v>7</v>
       </c>
-      <c r="AV127">
-        <v>3</v>
-      </c>
-      <c r="AW127">
-        <v>5</v>
-      </c>
-      <c r="AX127">
-        <v>4</v>
-      </c>
-      <c r="AY127">
-        <v>14</v>
-      </c>
-      <c r="AZ127">
-        <v>10</v>
-      </c>
-      <c r="BA127">
-        <v>7</v>
-      </c>
-      <c r="BB127">
-        <v>2</v>
-      </c>
-      <c r="BC127">
-        <v>9</v>
-      </c>
       <c r="BD127">
+        <v>1.83</v>
+      </c>
+      <c r="BE127">
+        <v>6.75</v>
+      </c>
+      <c r="BF127">
+        <v>2.54</v>
+      </c>
+      <c r="BG127">
+        <v>1.51</v>
+      </c>
+      <c r="BH127">
+        <v>2.32</v>
+      </c>
+      <c r="BI127">
         <v>1.95</v>
       </c>
-      <c r="BE127">
-        <v>6.4</v>
-      </c>
-      <c r="BF127">
-        <v>2.05</v>
-      </c>
-      <c r="BG127">
-        <v>1.35</v>
-      </c>
-      <c r="BH127">
-        <v>2.9</v>
-      </c>
-      <c r="BI127">
-        <v>1.6</v>
-      </c>
       <c r="BJ127">
-        <v>2.17</v>
+        <v>1.8</v>
       </c>
       <c r="BK127">
-        <v>1.98</v>
+        <v>2.57</v>
       </c>
       <c r="BL127">
-        <v>1.72</v>
+        <v>1.42</v>
       </c>
       <c r="BM127">
-        <v>2.55</v>
+        <v>3.44</v>
       </c>
       <c r="BN127">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="BO127">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="BP127">
-        <v>1.26</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="128" spans="1:68">
@@ -27274,10 +27274,10 @@
         <v>69</v>
       </c>
       <c r="E128" s="2">
-        <v>45605.875</v>
+        <v>45606.70833333334</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G128" t="s">
         <v>76</v>
